--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -5,20 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main-Black-Litterman-Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718930BE-46B8-406E-9661-579703ADA3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F9D9AF-8498-4FC1-8778-BD0162364728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{3264BCCF-D584-2046-A4C1-713D00E49365}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3264BCCF-D584-2046-A4C1-713D00E49365}"/>
   </bookViews>
   <sheets>
     <sheet name="prices" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -430,7 +438,7 @@
   <dimension ref="A1:AF785"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -576,7 +584,7 @@
         <v>1064.8030000000001</v>
       </c>
       <c r="H2" s="2">
-        <v>120.1799</v>
+        <v>131.12950000000001</v>
       </c>
       <c r="I2" s="2">
         <v>131.12950000000001</v>
@@ -614,7 +622,7 @@
         <v>1098.3520000000001</v>
       </c>
       <c r="H3" s="2">
-        <v>120.2276</v>
+        <v>131.18879999999999</v>
       </c>
       <c r="I3" s="2">
         <v>131.18879999999999</v>
@@ -651,8 +659,8 @@
       <c r="G4">
         <v>1107.768</v>
       </c>
-      <c r="H4">
-        <v>120.2753</v>
+      <c r="H4" s="2">
+        <v>131.23349999999999</v>
       </c>
       <c r="I4">
         <v>131.23349999999999</v>
@@ -689,8 +697,8 @@
       <c r="G5">
         <v>1113.6300000000001</v>
       </c>
-      <c r="H5">
-        <v>120.32299999999999</v>
+      <c r="H5" s="2">
+        <v>130.6525</v>
       </c>
       <c r="I5">
         <v>130.6525</v>
@@ -704,6 +712,7 @@
       <c r="L5">
         <v>84.441659999999999</v>
       </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -727,8 +736,8 @@
       <c r="G6">
         <v>1123.9159999999999</v>
       </c>
-      <c r="H6">
-        <v>120.37130000000001</v>
+      <c r="H6" s="2">
+        <v>131.47620000000001</v>
       </c>
       <c r="I6">
         <v>131.47620000000001</v>
@@ -742,6 +751,7 @@
       <c r="L6">
         <v>84.401589999999999</v>
       </c>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -765,8 +775,8 @@
       <c r="G7">
         <v>1128.548</v>
       </c>
-      <c r="H7">
-        <v>120.419</v>
+      <c r="H7" s="2">
+        <v>131.7269</v>
       </c>
       <c r="I7">
         <v>131.7269</v>
@@ -803,8 +813,8 @@
       <c r="G8">
         <v>1110.106</v>
       </c>
-      <c r="H8">
-        <v>120.46680000000001</v>
+      <c r="H8" s="2">
+        <v>132.20160000000001</v>
       </c>
       <c r="I8">
         <v>132.20160000000001</v>
@@ -818,6 +828,7 @@
       <c r="L8">
         <v>84.758240000000001</v>
       </c>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -841,8 +852,8 @@
       <c r="G9">
         <v>1131.501</v>
       </c>
-      <c r="H9">
-        <v>120.51479999999999</v>
+      <c r="H9" s="2">
+        <v>131.9736</v>
       </c>
       <c r="I9">
         <v>131.9736</v>
@@ -856,6 +867,7 @@
       <c r="L9">
         <v>85.798910000000006</v>
       </c>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -879,8 +891,8 @@
       <c r="G10">
         <v>1122.1389999999999</v>
       </c>
-      <c r="H10">
-        <v>120.5635</v>
+      <c r="H10" s="2">
+        <v>132.64830000000001</v>
       </c>
       <c r="I10">
         <v>132.64830000000001</v>
@@ -917,8 +929,8 @@
       <c r="G11">
         <v>1108.1969999999999</v>
       </c>
-      <c r="H11">
-        <v>120.6168</v>
+      <c r="H11" s="2">
+        <v>133.11349999999999</v>
       </c>
       <c r="I11">
         <v>133.11349999999999</v>
@@ -932,6 +944,7 @@
       <c r="L11">
         <v>84.958320000000001</v>
       </c>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -955,8 +968,8 @@
       <c r="G12">
         <v>1095.7349999999999</v>
       </c>
-      <c r="H12">
-        <v>120.66500000000001</v>
+      <c r="H12" s="2">
+        <v>133.42830000000001</v>
       </c>
       <c r="I12">
         <v>133.42830000000001</v>
@@ -970,6 +983,7 @@
       <c r="L12">
         <v>85.125039999999998</v>
       </c>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -993,8 +1007,8 @@
       <c r="G13">
         <v>1130.1990000000001</v>
       </c>
-      <c r="H13">
-        <v>120.7132</v>
+      <c r="H13" s="2">
+        <v>133.39959999999999</v>
       </c>
       <c r="I13">
         <v>133.39959999999999</v>
@@ -1031,8 +1045,8 @@
       <c r="G14">
         <v>1166.171</v>
       </c>
-      <c r="H14">
-        <v>120.7627</v>
+      <c r="H14" s="2">
+        <v>133.32769999999999</v>
       </c>
       <c r="I14">
         <v>133.32769999999999</v>
@@ -1046,6 +1060,7 @@
       <c r="L14">
         <v>87.288979999999995</v>
       </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1069,8 +1084,8 @@
       <c r="G15">
         <v>1184.174</v>
       </c>
-      <c r="H15">
-        <v>120.8116</v>
+      <c r="H15" s="2">
+        <v>134.3836</v>
       </c>
       <c r="I15">
         <v>134.3836</v>
@@ -1084,6 +1099,7 @@
       <c r="L15">
         <v>88.446910000000003</v>
       </c>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1107,8 +1123,8 @@
       <c r="G16">
         <v>1170.3389999999999</v>
       </c>
-      <c r="H16">
-        <v>120.8604</v>
+      <c r="H16" s="2">
+        <v>134.30789999999999</v>
       </c>
       <c r="I16">
         <v>134.30789999999999</v>
@@ -1123,7 +1139,7 @@
         <v>87.863979999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>38317</v>
       </c>
@@ -1145,8 +1161,8 @@
       <c r="G17">
         <v>1182.6489999999999</v>
       </c>
-      <c r="H17">
-        <v>120.9092</v>
+      <c r="H17" s="2">
+        <v>135.05529999999999</v>
       </c>
       <c r="I17">
         <v>135.05529999999999</v>
@@ -1160,8 +1176,9 @@
       <c r="L17">
         <v>87.871979999999994</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>38324</v>
       </c>
@@ -1183,8 +1200,8 @@
       <c r="G18">
         <v>1191.1669999999999</v>
       </c>
-      <c r="H18">
-        <v>120.9575</v>
+      <c r="H18" s="2">
+        <v>135.2242</v>
       </c>
       <c r="I18">
         <v>135.2242</v>
@@ -1198,8 +1215,9 @@
       <c r="L18">
         <v>88.559240000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>38331</v>
       </c>
@@ -1221,8 +1239,8 @@
       <c r="G19">
         <v>1188</v>
       </c>
-      <c r="H19">
-        <v>121.0026</v>
+      <c r="H19" s="2">
+        <v>136.33009999999999</v>
       </c>
       <c r="I19">
         <v>136.33009999999999</v>
@@ -1237,7 +1255,7 @@
         <v>87.995800000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>38338</v>
       </c>
@@ -1259,8 +1277,8 @@
       <c r="G20">
         <v>1194.22</v>
       </c>
-      <c r="H20">
-        <v>121.0518</v>
+      <c r="H20" s="2">
+        <v>136.29480000000001</v>
       </c>
       <c r="I20">
         <v>136.29480000000001</v>
@@ -1274,8 +1292,9 @@
       <c r="L20">
         <v>88.32835</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>38345</v>
       </c>
@@ -1297,8 +1316,8 @@
       <c r="G21">
         <v>1210.1279999999999</v>
       </c>
-      <c r="H21">
-        <v>121.10080000000001</v>
+      <c r="H21" s="2">
+        <v>136.45859999999999</v>
       </c>
       <c r="I21">
         <v>136.45859999999999</v>
@@ -1312,8 +1331,9 @@
       <c r="L21">
         <v>89.099310000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>38352</v>
       </c>
@@ -1335,8 +1355,8 @@
       <c r="G22">
         <v>1211.9159999999999</v>
       </c>
-      <c r="H22">
-        <v>121.1499</v>
+      <c r="H22" s="2">
+        <v>135.88079999999999</v>
       </c>
       <c r="I22">
         <v>135.88079999999999</v>
@@ -1351,7 +1371,7 @@
         <v>89.03725</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>38359</v>
       </c>
@@ -1373,8 +1393,8 @@
       <c r="G23">
         <v>1186.193</v>
       </c>
-      <c r="H23">
-        <v>121.19929999999999</v>
+      <c r="H23" s="2">
+        <v>136.62</v>
       </c>
       <c r="I23">
         <v>136.62</v>
@@ -1388,8 +1408,9 @@
       <c r="L23">
         <v>90.313869999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>38366</v>
       </c>
@@ -1411,8 +1432,8 @@
       <c r="G24">
         <v>1184.5160000000001</v>
       </c>
-      <c r="H24">
-        <v>121.24809999999999</v>
+      <c r="H24" s="2">
+        <v>137.11369999999999</v>
       </c>
       <c r="I24">
         <v>137.11369999999999</v>
@@ -1426,8 +1447,9 @@
       <c r="L24">
         <v>89.713890000000006</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>38373</v>
       </c>
@@ -1449,8 +1471,8 @@
       <c r="G25">
         <v>1167.867</v>
       </c>
-      <c r="H25">
-        <v>121.2963</v>
+      <c r="H25" s="2">
+        <v>137.13419999999999</v>
       </c>
       <c r="I25">
         <v>137.13419999999999</v>
@@ -1465,7 +1487,7 @@
         <v>89.852509999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>38380</v>
       </c>
@@ -1487,8 +1509,8 @@
       <c r="G26">
         <v>1171.3630000000001</v>
       </c>
-      <c r="H26">
-        <v>121.3454</v>
+      <c r="H26" s="2">
+        <v>137.4633</v>
       </c>
       <c r="I26">
         <v>137.4633</v>
@@ -1502,8 +1524,9 @@
       <c r="L26">
         <v>90.471630000000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>38387</v>
       </c>
@@ -1525,8 +1548,8 @@
       <c r="G27">
         <v>1203.03</v>
       </c>
-      <c r="H27">
-        <v>121.39409999999999</v>
+      <c r="H27" s="2">
+        <v>138.07550000000001</v>
       </c>
       <c r="I27">
         <v>138.07550000000001</v>
@@ -1540,8 +1563,9 @@
       <c r="L27">
         <v>92.887020000000007</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>38394</v>
       </c>
@@ -1563,8 +1587,8 @@
       <c r="G28">
         <v>1205.3040000000001</v>
       </c>
-      <c r="H28">
-        <v>121.4426</v>
+      <c r="H28" s="2">
+        <v>138.3569</v>
       </c>
       <c r="I28">
         <v>138.3569</v>
@@ -1579,7 +1603,7 @@
         <v>94.133769999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>38401</v>
       </c>
@@ -1601,8 +1625,8 @@
       <c r="G29">
         <v>1201.586</v>
       </c>
-      <c r="H29">
-        <v>121.4914</v>
+      <c r="H29" s="2">
+        <v>137.60249999999999</v>
       </c>
       <c r="I29">
         <v>137.60249999999999</v>
@@ -1616,8 +1640,9 @@
       <c r="L29">
         <v>94.290080000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>38408</v>
       </c>
@@ -1639,8 +1664,8 @@
       <c r="G30">
         <v>1211.366</v>
       </c>
-      <c r="H30">
-        <v>121.5401</v>
+      <c r="H30" s="2">
+        <v>136.64449999999999</v>
       </c>
       <c r="I30">
         <v>136.64449999999999</v>
@@ -1654,8 +1679,9 @@
       <c r="L30">
         <v>94.041499999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>38415</v>
       </c>
@@ -1677,8 +1703,8 @@
       <c r="G31">
         <v>1222.125</v>
       </c>
-      <c r="H31">
-        <v>121.58880000000001</v>
+      <c r="H31" s="2">
+        <v>136.91329999999999</v>
       </c>
       <c r="I31">
         <v>136.91329999999999</v>
@@ -1693,7 +1719,7 @@
         <v>95.016329999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>38422</v>
       </c>
@@ -1715,8 +1741,8 @@
       <c r="G32">
         <v>1200.075</v>
       </c>
-      <c r="H32">
-        <v>121.6366</v>
+      <c r="H32" s="2">
+        <v>136.52709999999999</v>
       </c>
       <c r="I32">
         <v>136.52709999999999</v>
@@ -1730,8 +1756,9 @@
       <c r="L32">
         <v>93.240620000000007</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>38429</v>
       </c>
@@ -1753,8 +1780,8 @@
       <c r="G33">
         <v>1189.645</v>
       </c>
-      <c r="H33">
-        <v>121.6853</v>
+      <c r="H33" s="2">
+        <v>137.05449999999999</v>
       </c>
       <c r="I33">
         <v>137.05449999999999</v>
@@ -1768,8 +1795,9 @@
       <c r="L33">
         <v>92.793660000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>38436</v>
       </c>
@@ -1791,8 +1819,8 @@
       <c r="G34">
         <v>1171.4179999999999</v>
       </c>
-      <c r="H34">
-        <v>121.7342</v>
+      <c r="H34" s="2">
+        <v>136.8954</v>
       </c>
       <c r="I34">
         <v>136.8954</v>
@@ -1807,7 +1835,7 @@
         <v>93.01925</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>38443</v>
       </c>
@@ -1829,8 +1857,8 @@
       <c r="G35">
         <v>1172.921</v>
       </c>
-      <c r="H35">
-        <v>121.7762</v>
+      <c r="H35" s="2">
+        <v>137.65889999999999</v>
       </c>
       <c r="I35">
         <v>137.65889999999999</v>
@@ -1844,8 +1872,9 @@
       <c r="L35">
         <v>93.422300000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>38450</v>
       </c>
@@ -1867,8 +1896,8 @@
       <c r="G36">
         <v>1181.1969999999999</v>
       </c>
-      <c r="H36">
-        <v>121.83240000000001</v>
+      <c r="H36" s="2">
+        <v>137.88380000000001</v>
       </c>
       <c r="I36">
         <v>137.88380000000001</v>
@@ -1882,8 +1911,9 @@
       <c r="L36">
         <v>94.600579999999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>38457</v>
       </c>
@@ -1905,8 +1935,8 @@
       <c r="G37">
         <v>1142.624</v>
       </c>
-      <c r="H37">
-        <v>121.8818</v>
+      <c r="H37" s="2">
+        <v>138.54339999999999</v>
       </c>
       <c r="I37">
         <v>138.54339999999999</v>
@@ -1921,7 +1951,7 @@
         <v>92.816730000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>38464</v>
       </c>
@@ -1943,8 +1973,8 @@
       <c r="G38">
         <v>1152.1220000000001</v>
       </c>
-      <c r="H38">
-        <v>121.9308</v>
+      <c r="H38" s="2">
+        <v>138.91839999999999</v>
       </c>
       <c r="I38">
         <v>138.91839999999999</v>
@@ -1958,8 +1988,9 @@
       <c r="L38">
         <v>91.879490000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38471</v>
       </c>
@@ -1981,8 +2012,8 @@
       <c r="G39">
         <v>1156.848</v>
       </c>
-      <c r="H39">
-        <v>121.9798</v>
+      <c r="H39" s="2">
+        <v>139.62950000000001</v>
       </c>
       <c r="I39">
         <v>139.62950000000001</v>
@@ -1996,8 +2027,9 @@
       <c r="L39">
         <v>90.771349999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38478</v>
       </c>
@@ -2019,8 +2051,8 @@
       <c r="G40">
         <v>1171.345</v>
       </c>
-      <c r="H40">
-        <v>122.0292</v>
+      <c r="H40" s="2">
+        <v>139.27520000000001</v>
       </c>
       <c r="I40">
         <v>139.27520000000001</v>
@@ -2035,7 +2067,7 @@
         <v>92.841740000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38485</v>
       </c>
@@ -2057,8 +2089,8 @@
       <c r="G41">
         <v>1154.0509999999999</v>
       </c>
-      <c r="H41">
-        <v>122.0779</v>
+      <c r="H41" s="2">
+        <v>140.50749999999999</v>
       </c>
       <c r="I41">
         <v>140.50749999999999</v>
@@ -2072,8 +2104,9 @@
       <c r="L41">
         <v>92.224530000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38492</v>
       </c>
@@ -2095,8 +2128,8 @@
       <c r="G42">
         <v>1189.278</v>
       </c>
-      <c r="H42">
-        <v>122.1271</v>
+      <c r="H42" s="2">
+        <v>140.32669999999999</v>
       </c>
       <c r="I42">
         <v>140.32669999999999</v>
@@ -2111,7 +2144,7 @@
         <v>93.504140000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38499</v>
       </c>
@@ -2133,8 +2166,8 @@
       <c r="G43">
         <v>1198.7829999999999</v>
       </c>
-      <c r="H43">
-        <v>122.1763</v>
+      <c r="H43" s="2">
+        <v>140.61760000000001</v>
       </c>
       <c r="I43">
         <v>140.61760000000001</v>
@@ -2149,7 +2182,7 @@
         <v>94.308440000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38506</v>
       </c>
@@ -2171,8 +2204,8 @@
       <c r="G44">
         <v>1196.0160000000001</v>
       </c>
-      <c r="H44">
-        <v>122.22580000000001</v>
+      <c r="H44" s="2">
+        <v>141.54820000000001</v>
       </c>
       <c r="I44">
         <v>141.54820000000001</v>
@@ -2187,7 +2220,7 @@
         <v>95.759500000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>38513</v>
       </c>
@@ -2209,8 +2242,8 @@
       <c r="G45">
         <v>1198.1079999999999</v>
       </c>
-      <c r="H45">
-        <v>122.2735</v>
+      <c r="H45" s="2">
+        <v>142.3853</v>
       </c>
       <c r="I45">
         <v>142.3853</v>
@@ -2225,7 +2258,7 @@
         <v>96.922039999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>38520</v>
       </c>
@@ -2247,8 +2280,8 @@
       <c r="G46">
         <v>1216.9639999999999</v>
       </c>
-      <c r="H46">
-        <v>122.3229</v>
+      <c r="H46" s="2">
+        <v>141.39680000000001</v>
       </c>
       <c r="I46">
         <v>141.39680000000001</v>
@@ -2263,7 +2296,7 @@
         <v>97.708020000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>38527</v>
       </c>
@@ -2285,8 +2318,8 @@
       <c r="G47">
         <v>1191.569</v>
       </c>
-      <c r="H47">
-        <v>122.3721</v>
+      <c r="H47" s="2">
+        <v>142.69239999999999</v>
       </c>
       <c r="I47">
         <v>142.69239999999999</v>
@@ -2301,7 +2334,7 @@
         <v>97.850719999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>38534</v>
       </c>
@@ -2323,8 +2356,8 @@
       <c r="G48">
         <v>1194.44</v>
       </c>
-      <c r="H48">
-        <v>122.422</v>
+      <c r="H48" s="2">
+        <v>142.54660000000001</v>
       </c>
       <c r="I48">
         <v>142.54660000000001</v>
@@ -2361,8 +2394,8 @@
       <c r="G49">
         <v>1211.8610000000001</v>
       </c>
-      <c r="H49">
-        <v>122.4716</v>
+      <c r="H49" s="2">
+        <v>142.28569999999999</v>
       </c>
       <c r="I49">
         <v>142.28569999999999</v>
@@ -2399,8 +2432,8 @@
       <c r="G50">
         <v>1227.923</v>
       </c>
-      <c r="H50">
-        <v>122.5202</v>
+      <c r="H50" s="2">
+        <v>141.47790000000001</v>
       </c>
       <c r="I50">
         <v>141.47790000000001</v>
@@ -2437,8 +2470,8 @@
       <c r="G51">
         <v>1233.675</v>
       </c>
-      <c r="H51">
-        <v>122.5697</v>
+      <c r="H51" s="2">
+        <v>142.03479999999999</v>
       </c>
       <c r="I51">
         <v>142.03479999999999</v>
@@ -2475,8 +2508,8 @@
       <c r="G52">
         <v>1234.1790000000001</v>
       </c>
-      <c r="H52">
-        <v>122.61920000000001</v>
+      <c r="H52" s="2">
+        <v>142.0506</v>
       </c>
       <c r="I52">
         <v>142.0506</v>
@@ -2513,8 +2546,8 @@
       <c r="G53">
         <v>1226.42</v>
       </c>
-      <c r="H53">
-        <v>122.6692</v>
+      <c r="H53" s="2">
+        <v>141.54239999999999</v>
       </c>
       <c r="I53">
         <v>141.54239999999999</v>
@@ -2551,8 +2584,8 @@
       <c r="G54">
         <v>1230.393</v>
       </c>
-      <c r="H54">
-        <v>122.71729999999999</v>
+      <c r="H54" s="2">
+        <v>141.82599999999999</v>
       </c>
       <c r="I54">
         <v>141.82599999999999</v>
@@ -2589,8 +2622,8 @@
       <c r="G55">
         <v>1219.712</v>
       </c>
-      <c r="H55">
-        <v>122.767</v>
+      <c r="H55" s="2">
+        <v>142.69450000000001</v>
       </c>
       <c r="I55">
         <v>142.69450000000001</v>
@@ -2627,8 +2660,8 @@
       <c r="G56">
         <v>1205.098</v>
       </c>
-      <c r="H56">
-        <v>122.81659999999999</v>
+      <c r="H56" s="2">
+        <v>143.08250000000001</v>
       </c>
       <c r="I56">
         <v>143.08250000000001</v>
@@ -2665,8 +2698,8 @@
       <c r="G57">
         <v>1218.021</v>
       </c>
-      <c r="H57">
-        <v>122.8663</v>
+      <c r="H57" s="2">
+        <v>143.96029999999999</v>
       </c>
       <c r="I57">
         <v>143.96029999999999</v>
@@ -2703,8 +2736,8 @@
       <c r="G58">
         <v>1241.4760000000001</v>
       </c>
-      <c r="H58">
-        <v>122.91670000000001</v>
+      <c r="H58" s="2">
+        <v>144.1551</v>
       </c>
       <c r="I58">
         <v>144.1551</v>
@@ -2741,8 +2774,8 @@
       <c r="G59">
         <v>1237.913</v>
       </c>
-      <c r="H59">
-        <v>122.9665</v>
+      <c r="H59" s="2">
+        <v>143.33150000000001</v>
       </c>
       <c r="I59">
         <v>143.33150000000001</v>
@@ -2779,8 +2812,8 @@
       <c r="G60">
         <v>1215.2909999999999</v>
       </c>
-      <c r="H60">
-        <v>123.0162</v>
+      <c r="H60" s="2">
+        <v>144.0857</v>
       </c>
       <c r="I60">
         <v>144.0857</v>
@@ -2817,8 +2850,8 @@
       <c r="G61">
         <v>1228.8109999999999</v>
       </c>
-      <c r="H61">
-        <v>123.06610000000001</v>
+      <c r="H61" s="2">
+        <v>143.45310000000001</v>
       </c>
       <c r="I61">
         <v>143.45310000000001</v>
@@ -2855,8 +2888,8 @@
       <c r="G62">
         <v>1195.904</v>
       </c>
-      <c r="H62">
-        <v>123.117</v>
+      <c r="H62" s="2">
+        <v>143.19380000000001</v>
       </c>
       <c r="I62">
         <v>143.19380000000001</v>
@@ -2893,8 +2926,8 @@
       <c r="G63">
         <v>1186.569</v>
       </c>
-      <c r="H63">
-        <v>123.1653</v>
+      <c r="H63" s="2">
+        <v>142.48400000000001</v>
       </c>
       <c r="I63">
         <v>142.48400000000001</v>
@@ -2931,8 +2964,8 @@
       <c r="G64">
         <v>1179.5940000000001</v>
       </c>
-      <c r="H64">
-        <v>123.21510000000001</v>
+      <c r="H64" s="2">
+        <v>142.99279999999999</v>
       </c>
       <c r="I64">
         <v>142.99279999999999</v>
@@ -2969,8 +3002,8 @@
       <c r="G65">
         <v>1198.413</v>
       </c>
-      <c r="H65">
-        <v>123.2649</v>
+      <c r="H65" s="2">
+        <v>141.67070000000001</v>
       </c>
       <c r="I65">
         <v>141.67070000000001</v>
@@ -3007,8 +3040,8 @@
       <c r="G66">
         <v>1220.136</v>
       </c>
-      <c r="H66">
-        <v>123.3146</v>
+      <c r="H66" s="2">
+        <v>141.00110000000001</v>
       </c>
       <c r="I66">
         <v>141.00110000000001</v>
@@ -3045,8 +3078,8 @@
       <c r="G67">
         <v>1234.7149999999999</v>
       </c>
-      <c r="H67">
-        <v>123.3639</v>
+      <c r="H67" s="2">
+        <v>141.0214</v>
       </c>
       <c r="I67">
         <v>141.0214</v>
@@ -3083,8 +3116,8 @@
       <c r="G68">
         <v>1248.2729999999999</v>
       </c>
-      <c r="H68">
-        <v>123.41379999999999</v>
+      <c r="H68" s="2">
+        <v>140.73099999999999</v>
       </c>
       <c r="I68">
         <v>140.73099999999999</v>
@@ -3121,8 +3154,8 @@
       <c r="G69">
         <v>1268.25</v>
       </c>
-      <c r="H69">
-        <v>123.4648</v>
+      <c r="H69" s="2">
+        <v>142.13730000000001</v>
       </c>
       <c r="I69">
         <v>142.13730000000001</v>
@@ -3159,8 +3192,8 @@
       <c r="G70">
         <v>1265.08</v>
       </c>
-      <c r="H70">
-        <v>123.5149</v>
+      <c r="H70" s="2">
+        <v>142.27289999999999</v>
       </c>
       <c r="I70">
         <v>142.27289999999999</v>
@@ -3197,8 +3230,8 @@
       <c r="G71">
         <v>1259.3689999999999</v>
       </c>
-      <c r="H71">
-        <v>123.5637</v>
+      <c r="H71" s="2">
+        <v>141.8527</v>
       </c>
       <c r="I71">
         <v>141.8527</v>
@@ -3235,8 +3268,8 @@
       <c r="G72">
         <v>1267.32</v>
       </c>
-      <c r="H72">
-        <v>123.6195</v>
+      <c r="H72" s="2">
+        <v>142.66800000000001</v>
       </c>
       <c r="I72">
         <v>142.66800000000001</v>
@@ -3273,8 +3306,8 @@
       <c r="G73">
         <v>1268.664</v>
       </c>
-      <c r="H73">
-        <v>123.6758</v>
+      <c r="H73" s="2">
+        <v>142.89330000000001</v>
       </c>
       <c r="I73">
         <v>142.89330000000001</v>
@@ -3311,8 +3344,8 @@
       <c r="G74">
         <v>1248.2929999999999</v>
       </c>
-      <c r="H74">
-        <v>123.73220000000001</v>
+      <c r="H74" s="2">
+        <v>143.11320000000001</v>
       </c>
       <c r="I74">
         <v>143.11320000000001</v>
@@ -3349,8 +3382,8 @@
       <c r="G75">
         <v>1285.454</v>
       </c>
-      <c r="H75">
-        <v>123.78959999999999</v>
+      <c r="H75" s="2">
+        <v>143.67679999999999</v>
       </c>
       <c r="I75">
         <v>143.67679999999999</v>
@@ -3387,8 +3420,8 @@
       <c r="G76">
         <v>1287.605</v>
       </c>
-      <c r="H76">
-        <v>123.8459</v>
+      <c r="H76" s="2">
+        <v>143.65620000000001</v>
       </c>
       <c r="I76">
         <v>143.65620000000001</v>
@@ -3425,8 +3458,8 @@
       <c r="G77">
         <v>1261.4849999999999</v>
       </c>
-      <c r="H77">
-        <v>123.9006</v>
+      <c r="H77" s="2">
+        <v>142.84899999999999</v>
       </c>
       <c r="I77">
         <v>142.84899999999999</v>
@@ -3463,8 +3496,8 @@
       <c r="G78">
         <v>1283.722</v>
       </c>
-      <c r="H78">
-        <v>123.9567</v>
+      <c r="H78" s="2">
+        <v>141.92689999999999</v>
       </c>
       <c r="I78">
         <v>141.92689999999999</v>
@@ -3501,8 +3534,8 @@
       <c r="G79">
         <v>1264.03</v>
       </c>
-      <c r="H79">
-        <v>124.01300000000001</v>
+      <c r="H79" s="2">
+        <v>142.0701</v>
       </c>
       <c r="I79">
         <v>142.0701</v>
@@ -3539,8 +3572,8 @@
       <c r="G80">
         <v>1266.99</v>
       </c>
-      <c r="H80">
-        <v>124.0702</v>
+      <c r="H80" s="2">
+        <v>142.42099999999999</v>
       </c>
       <c r="I80">
         <v>142.42099999999999</v>
@@ -3577,8 +3610,8 @@
       <c r="G81">
         <v>1287.2429999999999</v>
       </c>
-      <c r="H81">
-        <v>124.1266</v>
+      <c r="H81" s="2">
+        <v>142.5034</v>
       </c>
       <c r="I81">
         <v>142.5034</v>
@@ -3615,8 +3648,8 @@
       <c r="G82">
         <v>1289.431</v>
       </c>
-      <c r="H82">
-        <v>124.1832</v>
+      <c r="H82" s="2">
+        <v>142.23050000000001</v>
       </c>
       <c r="I82">
         <v>142.23050000000001</v>
@@ -3653,8 +3686,8 @@
       <c r="G83">
         <v>1287.231</v>
       </c>
-      <c r="H83">
-        <v>124.2403</v>
+      <c r="H83" s="2">
+        <v>141.4778</v>
       </c>
       <c r="I83">
         <v>141.4778</v>
@@ -3691,8 +3724,8 @@
       <c r="G84">
         <v>1281.577</v>
       </c>
-      <c r="H84">
-        <v>124.2975</v>
+      <c r="H84" s="2">
+        <v>140.7424</v>
       </c>
       <c r="I84">
         <v>140.7424</v>
@@ -3729,8 +3762,8 @@
       <c r="G85">
         <v>1307.251</v>
       </c>
-      <c r="H85">
-        <v>124.3599</v>
+      <c r="H85" s="2">
+        <v>140.80009999999999</v>
       </c>
       <c r="I85">
         <v>140.80009999999999</v>
@@ -3767,8 +3800,8 @@
       <c r="G86">
         <v>1302.953</v>
       </c>
-      <c r="H86">
-        <v>124.42230000000001</v>
+      <c r="H86" s="2">
+        <v>141.33529999999999</v>
       </c>
       <c r="I86">
         <v>141.33529999999999</v>
@@ -3805,8 +3838,8 @@
       <c r="G87">
         <v>1294.828</v>
       </c>
-      <c r="H87">
-        <v>124.48480000000001</v>
+      <c r="H87" s="2">
+        <v>140.38210000000001</v>
       </c>
       <c r="I87">
         <v>140.38210000000001</v>
@@ -3843,8 +3876,8 @@
       <c r="G88">
         <v>1295.499</v>
       </c>
-      <c r="H88">
-        <v>124.54810000000001</v>
+      <c r="H88" s="2">
+        <v>139.3048</v>
       </c>
       <c r="I88">
         <v>139.3048</v>
@@ -3881,8 +3914,8 @@
       <c r="G89">
         <v>1289.1179999999999</v>
       </c>
-      <c r="H89">
-        <v>124.6035</v>
+      <c r="H89" s="2">
+        <v>138.97399999999999</v>
       </c>
       <c r="I89">
         <v>138.97399999999999</v>
@@ -3919,8 +3952,8 @@
       <c r="G90">
         <v>1311.2840000000001</v>
       </c>
-      <c r="H90">
-        <v>124.6758</v>
+      <c r="H90" s="2">
+        <v>139.1533</v>
       </c>
       <c r="I90">
         <v>139.1533</v>
@@ -3957,8 +3990,8 @@
       <c r="G91">
         <v>1310.6120000000001</v>
       </c>
-      <c r="H91">
-        <v>124.7394</v>
+      <c r="H91" s="2">
+        <v>139.16970000000001</v>
       </c>
       <c r="I91">
         <v>139.16970000000001</v>
@@ -3995,8 +4028,8 @@
       <c r="G92">
         <v>1325.761</v>
       </c>
-      <c r="H92">
-        <v>124.8028</v>
+      <c r="H92" s="2">
+        <v>138.9453</v>
       </c>
       <c r="I92">
         <v>138.9453</v>
@@ -4033,8 +4066,8 @@
       <c r="G93">
         <v>1291.239</v>
       </c>
-      <c r="H93">
-        <v>124.8629</v>
+      <c r="H93" s="2">
+        <v>138.52950000000001</v>
       </c>
       <c r="I93">
         <v>138.52950000000001</v>
@@ -4071,8 +4104,8 @@
       <c r="G94">
         <v>1267.03</v>
       </c>
-      <c r="H94">
-        <v>124.92619999999999</v>
+      <c r="H94" s="2">
+        <v>139.4282</v>
       </c>
       <c r="I94">
         <v>139.4282</v>
@@ -4109,8 +4142,8 @@
       <c r="G95">
         <v>1280.1610000000001</v>
       </c>
-      <c r="H95">
-        <v>124.9894</v>
+      <c r="H95" s="2">
+        <v>140.2011</v>
       </c>
       <c r="I95">
         <v>140.2011</v>
@@ -4147,8 +4180,8 @@
       <c r="G96">
         <v>1288.2180000000001</v>
       </c>
-      <c r="H96">
-        <v>125.0527</v>
+      <c r="H96" s="2">
+        <v>139.85749999999999</v>
       </c>
       <c r="I96">
         <v>139.85749999999999</v>
@@ -4185,8 +4218,8 @@
       <c r="G97">
         <v>1252.298</v>
       </c>
-      <c r="H97">
-        <v>125.1147</v>
+      <c r="H97" s="2">
+        <v>139.9802</v>
       </c>
       <c r="I97">
         <v>139.9802</v>
@@ -4223,8 +4256,8 @@
       <c r="G98">
         <v>1251.5440000000001</v>
       </c>
-      <c r="H98">
-        <v>125.1754</v>
+      <c r="H98" s="2">
+        <v>140.0444</v>
       </c>
       <c r="I98">
         <v>140.0444</v>
@@ -4261,8 +4294,8 @@
       <c r="G99">
         <v>1244.5039999999999</v>
       </c>
-      <c r="H99">
-        <v>125.2445</v>
+      <c r="H99" s="2">
+        <v>138.93020000000001</v>
       </c>
       <c r="I99">
         <v>138.93020000000001</v>
@@ -4299,8 +4332,8 @@
       <c r="G100">
         <v>1270.204</v>
       </c>
-      <c r="H100">
-        <v>125.3135</v>
+      <c r="H100" s="2">
+        <v>139.2158</v>
       </c>
       <c r="I100">
         <v>139.2158</v>
@@ -4337,8 +4370,8 @@
       <c r="G101">
         <v>1265.4760000000001</v>
       </c>
-      <c r="H101">
-        <v>125.38290000000001</v>
+      <c r="H101" s="2">
+        <v>139.35130000000001</v>
       </c>
       <c r="I101">
         <v>139.35130000000001</v>
@@ -4375,8 +4408,8 @@
       <c r="G102">
         <v>1236.1990000000001</v>
       </c>
-      <c r="H102">
-        <v>125.45099999999999</v>
+      <c r="H102" s="2">
+        <v>140.0258</v>
       </c>
       <c r="I102">
         <v>140.0258</v>
@@ -4413,8 +4446,8 @@
       <c r="G103">
         <v>1240.2909999999999</v>
       </c>
-      <c r="H103">
-        <v>125.52</v>
+      <c r="H103" s="2">
+        <v>140.39760000000001</v>
       </c>
       <c r="I103">
         <v>140.39760000000001</v>
@@ -4451,8 +4484,8 @@
       <c r="G104">
         <v>1278.5450000000001</v>
       </c>
-      <c r="H104">
-        <v>125.589</v>
+      <c r="H104" s="2">
+        <v>140.66560000000001</v>
       </c>
       <c r="I104">
         <v>140.66560000000001</v>
@@ -4489,8 +4522,8 @@
       <c r="G105">
         <v>1279.3620000000001</v>
       </c>
-      <c r="H105">
-        <v>125.6568</v>
+      <c r="H105" s="2">
+        <v>140.89510000000001</v>
       </c>
       <c r="I105">
         <v>140.89510000000001</v>
@@ -4527,8 +4560,8 @@
       <c r="G106">
         <v>1266.7429999999999</v>
       </c>
-      <c r="H106">
-        <v>125.72539999999999</v>
+      <c r="H106" s="2">
+        <v>140.41929999999999</v>
       </c>
       <c r="I106">
         <v>140.41929999999999</v>
@@ -4565,8 +4598,8 @@
       <c r="G107">
         <v>1302.3040000000001</v>
       </c>
-      <c r="H107">
-        <v>125.8005</v>
+      <c r="H107" s="2">
+        <v>141.0882</v>
       </c>
       <c r="I107">
         <v>141.0882</v>
@@ -4603,8 +4636,8 @@
       <c r="G108">
         <v>1295.088</v>
       </c>
-      <c r="H108">
-        <v>125.8754</v>
+      <c r="H108" s="2">
+        <v>142.14179999999999</v>
       </c>
       <c r="I108">
         <v>142.14179999999999</v>
@@ -4641,8 +4674,8 @@
       <c r="G109">
         <v>1311.011</v>
       </c>
-      <c r="H109">
-        <v>125.9492</v>
+      <c r="H109" s="2">
+        <v>142.59880000000001</v>
       </c>
       <c r="I109">
         <v>142.59880000000001</v>
@@ -4679,8 +4712,8 @@
       <c r="G110">
         <v>1298.9190000000001</v>
       </c>
-      <c r="H110">
-        <v>126.02330000000001</v>
+      <c r="H110" s="2">
+        <v>142.3109</v>
       </c>
       <c r="I110">
         <v>142.3109</v>
@@ -4717,8 +4750,8 @@
       <c r="G111">
         <v>1319.865</v>
       </c>
-      <c r="H111">
-        <v>126.09820000000001</v>
+      <c r="H111" s="2">
+        <v>142.52199999999999</v>
       </c>
       <c r="I111">
         <v>142.52199999999999</v>
@@ -4755,8 +4788,8 @@
       <c r="G112">
         <v>1314.777</v>
       </c>
-      <c r="H112">
-        <v>126.1728</v>
+      <c r="H112" s="2">
+        <v>143.37639999999999</v>
       </c>
       <c r="I112">
         <v>143.37639999999999</v>
@@ -4793,8 +4826,8 @@
       <c r="G113">
         <v>1335.847</v>
       </c>
-      <c r="H113">
-        <v>126.247</v>
+      <c r="H113" s="2">
+        <v>143.26009999999999</v>
       </c>
       <c r="I113">
         <v>143.26009999999999</v>
@@ -4831,8 +4864,8 @@
       <c r="G114">
         <v>1349.5830000000001</v>
       </c>
-      <c r="H114">
-        <v>126.3236</v>
+      <c r="H114" s="2">
+        <v>143.1028</v>
       </c>
       <c r="I114">
         <v>143.1028</v>
@@ -4869,8 +4902,8 @@
       <c r="G115">
         <v>1365.615</v>
       </c>
-      <c r="H115">
-        <v>126.40309999999999</v>
+      <c r="H115" s="2">
+        <v>142.59710000000001</v>
       </c>
       <c r="I115">
         <v>142.59710000000001</v>
@@ -4907,8 +4940,8 @@
       <c r="G116">
         <v>1368.598</v>
       </c>
-      <c r="H116">
-        <v>126.4846</v>
+      <c r="H116" s="2">
+        <v>142.62610000000001</v>
       </c>
       <c r="I116">
         <v>142.62610000000001</v>
@@ -4945,8 +4978,8 @@
       <c r="G117">
         <v>1377.34</v>
       </c>
-      <c r="H117">
-        <v>126.5667</v>
+      <c r="H117" s="2">
+        <v>142.95820000000001</v>
       </c>
       <c r="I117">
         <v>142.95820000000001</v>
@@ -4983,8 +5016,8 @@
       <c r="G118">
         <v>1364.297</v>
       </c>
-      <c r="H118">
-        <v>126.6493</v>
+      <c r="H118" s="2">
+        <v>143.43600000000001</v>
       </c>
       <c r="I118">
         <v>143.43600000000001</v>
@@ -5021,8 +5054,8 @@
       <c r="G119">
         <v>1380.8969999999999</v>
       </c>
-      <c r="H119">
-        <v>126.7315</v>
+      <c r="H119" s="2">
+        <v>143.98400000000001</v>
       </c>
       <c r="I119">
         <v>143.98400000000001</v>
@@ -5059,8 +5092,8 @@
       <c r="G120">
         <v>1401.204</v>
       </c>
-      <c r="H120">
-        <v>126.8135</v>
+      <c r="H120" s="2">
+        <v>143.99039999999999</v>
       </c>
       <c r="I120">
         <v>143.99039999999999</v>
@@ -5097,8 +5130,8 @@
       <c r="G121">
         <v>1400.9469999999999</v>
       </c>
-      <c r="H121">
-        <v>126.8954</v>
+      <c r="H121" s="2">
+        <v>144.3897</v>
       </c>
       <c r="I121">
         <v>144.3897</v>
@@ -5135,8 +5168,8 @@
       <c r="G122">
         <v>1396.713</v>
       </c>
-      <c r="H122">
-        <v>126.9774</v>
+      <c r="H122" s="2">
+        <v>144.73159999999999</v>
       </c>
       <c r="I122">
         <v>144.73159999999999</v>
@@ -5173,8 +5206,8 @@
       <c r="G123">
         <v>1409.8430000000001</v>
       </c>
-      <c r="H123">
-        <v>127.0592</v>
+      <c r="H123" s="2">
+        <v>144.24260000000001</v>
       </c>
       <c r="I123">
         <v>144.24260000000001</v>
@@ -5211,8 +5244,8 @@
       <c r="G124">
         <v>1427.086</v>
       </c>
-      <c r="H124">
-        <v>127.143</v>
+      <c r="H124" s="2">
+        <v>143.6189</v>
       </c>
       <c r="I124">
         <v>143.6189</v>
@@ -5249,8 +5282,8 @@
       <c r="G125">
         <v>1410.7650000000001</v>
       </c>
-      <c r="H125">
-        <v>127.2323</v>
+      <c r="H125" s="2">
+        <v>143.21729999999999</v>
       </c>
       <c r="I125">
         <v>143.21729999999999</v>
@@ -5287,8 +5320,8 @@
       <c r="G126">
         <v>1418.3009999999999</v>
       </c>
-      <c r="H126">
-        <v>127.3232</v>
+      <c r="H126" s="2">
+        <v>142.77709999999999</v>
       </c>
       <c r="I126">
         <v>142.77709999999999</v>
@@ -5325,8 +5358,8 @@
       <c r="G127">
         <v>1409.7070000000001</v>
       </c>
-      <c r="H127">
-        <v>127.4136</v>
+      <c r="H127" s="2">
+        <v>142.56780000000001</v>
       </c>
       <c r="I127">
         <v>142.56780000000001</v>
@@ -5363,8 +5396,8 @@
       <c r="G128">
         <v>1430.7329999999999</v>
       </c>
-      <c r="H128">
-        <v>127.502</v>
+      <c r="H128" s="2">
+        <v>141.989</v>
       </c>
       <c r="I128">
         <v>141.989</v>
@@ -5401,8 +5434,8 @@
       <c r="G129">
         <v>1430.5039999999999</v>
       </c>
-      <c r="H129">
-        <v>127.58929999999999</v>
+      <c r="H129" s="2">
+        <v>142.2593</v>
       </c>
       <c r="I129">
         <v>142.2593</v>
@@ -5439,8 +5472,8 @@
       <c r="G130">
         <v>1422.182</v>
       </c>
-      <c r="H130">
-        <v>127.67789999999999</v>
+      <c r="H130" s="2">
+        <v>142.18799999999999</v>
       </c>
       <c r="I130">
         <v>142.18799999999999</v>
@@ -5477,8 +5510,8 @@
       <c r="G131">
         <v>1448.39</v>
       </c>
-      <c r="H131">
-        <v>127.7666</v>
+      <c r="H131" s="2">
+        <v>142.4297</v>
       </c>
       <c r="I131">
         <v>142.4297</v>
@@ -5515,8 +5548,8 @@
       <c r="G132">
         <v>1438.0609999999999</v>
       </c>
-      <c r="H132">
-        <v>127.8549</v>
+      <c r="H132" s="2">
+        <v>142.3296</v>
       </c>
       <c r="I132">
         <v>142.3296</v>
@@ -5553,8 +5586,8 @@
       <c r="G133">
         <v>1455.538</v>
       </c>
-      <c r="H133">
-        <v>127.94370000000001</v>
+      <c r="H133" s="2">
+        <v>142.67619999999999</v>
       </c>
       <c r="I133">
         <v>142.67619999999999</v>
@@ -5591,8 +5624,8 @@
       <c r="G134">
         <v>1451.194</v>
       </c>
-      <c r="H134">
-        <v>128.0326</v>
+      <c r="H134" s="2">
+        <v>142.8322</v>
       </c>
       <c r="I134">
         <v>142.8322</v>
@@ -5629,8 +5662,8 @@
       <c r="G135">
         <v>1387.1659999999999</v>
       </c>
-      <c r="H135">
-        <v>128.1215</v>
+      <c r="H135" s="2">
+        <v>143.77340000000001</v>
       </c>
       <c r="I135">
         <v>143.77340000000001</v>
@@ -5667,8 +5700,8 @@
       <c r="G136">
         <v>1402.846</v>
       </c>
-      <c r="H136">
-        <v>128.21029999999999</v>
+      <c r="H136" s="2">
+        <v>143.64420000000001</v>
       </c>
       <c r="I136">
         <v>143.64420000000001</v>
@@ -5705,8 +5738,8 @@
       <c r="G137">
         <v>1386.9449999999999</v>
       </c>
-      <c r="H137">
-        <v>128.2987</v>
+      <c r="H137" s="2">
+        <v>144.07220000000001</v>
       </c>
       <c r="I137">
         <v>144.07220000000001</v>
@@ -5743,8 +5776,8 @@
       <c r="G138">
         <v>1436.1130000000001</v>
       </c>
-      <c r="H138">
-        <v>128.39400000000001</v>
+      <c r="H138" s="2">
+        <v>143.35509999999999</v>
       </c>
       <c r="I138">
         <v>143.35509999999999</v>
@@ -5781,8 +5814,8 @@
       <c r="G139">
         <v>1420.864</v>
       </c>
-      <c r="H139">
-        <v>128.48920000000001</v>
+      <c r="H139" s="2">
+        <v>142.8853</v>
       </c>
       <c r="I139">
         <v>142.8853</v>
@@ -5819,8 +5852,8 @@
       <c r="G140">
         <v>1443.7560000000001</v>
       </c>
-      <c r="H140">
-        <v>128.58580000000001</v>
+      <c r="H140" s="2">
+        <v>142.79810000000001</v>
       </c>
       <c r="I140">
         <v>142.79810000000001</v>
@@ -5857,8 +5890,8 @@
       <c r="G141">
         <v>1452.846</v>
       </c>
-      <c r="H141">
-        <v>128.68199999999999</v>
+      <c r="H141" s="2">
+        <v>141.7012</v>
       </c>
       <c r="I141">
         <v>141.7012</v>
@@ -5895,8 +5928,8 @@
       <c r="G142">
         <v>1484.35</v>
       </c>
-      <c r="H142">
-        <v>128.77619999999999</v>
+      <c r="H142" s="2">
+        <v>142.1104</v>
       </c>
       <c r="I142">
         <v>142.1104</v>
@@ -5933,8 +5966,8 @@
       <c r="G143">
         <v>1494.068</v>
       </c>
-      <c r="H143">
-        <v>128.87209999999999</v>
+      <c r="H143" s="2">
+        <v>142.1782</v>
       </c>
       <c r="I143">
         <v>142.1782</v>
@@ -5971,8 +6004,8 @@
       <c r="G144">
         <v>1505.617</v>
       </c>
-      <c r="H144">
-        <v>128.9684</v>
+      <c r="H144" s="2">
+        <v>142.41890000000001</v>
       </c>
       <c r="I144">
         <v>142.41890000000001</v>
@@ -6009,8 +6042,8 @@
       <c r="G145">
         <v>1505.846</v>
       </c>
-      <c r="H145">
-        <v>129.0634</v>
+      <c r="H145" s="2">
+        <v>142.4692</v>
       </c>
       <c r="I145">
         <v>142.4692</v>
@@ -6047,8 +6080,8 @@
       <c r="G146">
         <v>1522.748</v>
       </c>
-      <c r="H146">
-        <v>129.15639999999999</v>
+      <c r="H146" s="2">
+        <v>141.77629999999999</v>
       </c>
       <c r="I146">
         <v>141.77629999999999</v>
@@ -6085,8 +6118,8 @@
       <c r="G147">
         <v>1515.7339999999999</v>
       </c>
-      <c r="H147">
-        <v>129.2526</v>
+      <c r="H147" s="2">
+        <v>141.304</v>
       </c>
       <c r="I147">
         <v>141.304</v>
@@ -6123,8 +6156,8 @@
       <c r="G148">
         <v>1536.336</v>
       </c>
-      <c r="H148">
-        <v>129.34889999999999</v>
+      <c r="H148" s="2">
+        <v>140.84</v>
       </c>
       <c r="I148">
         <v>140.84</v>
@@ -6161,8 +6194,8 @@
       <c r="G149">
         <v>1507.673</v>
       </c>
-      <c r="H149">
-        <v>129.44319999999999</v>
+      <c r="H149" s="2">
+        <v>140.09100000000001</v>
       </c>
       <c r="I149">
         <v>140.09100000000001</v>
@@ -6199,8 +6232,8 @@
       <c r="G150">
         <v>1532.9079999999999</v>
       </c>
-      <c r="H150">
-        <v>129.5411</v>
+      <c r="H150" s="2">
+        <v>139.54990000000001</v>
       </c>
       <c r="I150">
         <v>139.54990000000001</v>
@@ -6237,8 +6270,8 @@
       <c r="G151">
         <v>1502.56</v>
       </c>
-      <c r="H151">
-        <v>129.64359999999999</v>
+      <c r="H151" s="2">
+        <v>139.6559</v>
       </c>
       <c r="I151">
         <v>139.6559</v>
@@ -6275,8 +6308,8 @@
       <c r="G152">
         <v>1503.3489999999999</v>
       </c>
-      <c r="H152">
-        <v>129.74619999999999</v>
+      <c r="H152" s="2">
+        <v>140.285</v>
       </c>
       <c r="I152">
         <v>140.285</v>
@@ -6313,8 +6346,8 @@
       <c r="G153">
         <v>1530.441</v>
       </c>
-      <c r="H153">
-        <v>129.8493</v>
+      <c r="H153" s="2">
+        <v>139.6831</v>
       </c>
       <c r="I153">
         <v>139.6831</v>
@@ -6351,8 +6384,8 @@
       <c r="G154">
         <v>1552.498</v>
       </c>
-      <c r="H154">
-        <v>129.95189999999999</v>
+      <c r="H154" s="2">
+        <v>140.04419999999999</v>
       </c>
       <c r="I154">
         <v>140.04419999999999</v>
@@ -6389,8 +6422,8 @@
       <c r="G155">
         <v>1534.095</v>
       </c>
-      <c r="H155">
-        <v>130.0548</v>
+      <c r="H155" s="2">
+        <v>141.56870000000001</v>
       </c>
       <c r="I155">
         <v>141.56870000000001</v>
@@ -6427,8 +6460,8 @@
       <c r="G156">
         <v>1458.952</v>
       </c>
-      <c r="H156">
-        <v>130.15770000000001</v>
+      <c r="H156" s="2">
+        <v>142.4126</v>
       </c>
       <c r="I156">
         <v>142.4126</v>
@@ -6465,8 +6498,8 @@
       <c r="G157">
         <v>1433.058</v>
       </c>
-      <c r="H157">
-        <v>130.2604</v>
+      <c r="H157" s="2">
+        <v>142.6917</v>
       </c>
       <c r="I157">
         <v>142.6917</v>
@@ -6503,8 +6536,8 @@
       <c r="G158">
         <v>1453.6389999999999</v>
       </c>
-      <c r="H158">
-        <v>130.36449999999999</v>
+      <c r="H158" s="2">
+        <v>142.5676</v>
       </c>
       <c r="I158">
         <v>142.5676</v>
@@ -6541,8 +6574,8 @@
       <c r="G159">
         <v>1445.943</v>
       </c>
-      <c r="H159">
-        <v>130.46809999999999</v>
+      <c r="H159" s="2">
+        <v>143.3682</v>
       </c>
       <c r="I159">
         <v>143.3682</v>
@@ -6579,8 +6612,8 @@
       <c r="G160">
         <v>1479.366</v>
       </c>
-      <c r="H160">
-        <v>130.56989999999999</v>
+      <c r="H160" s="2">
+        <v>143.5419</v>
       </c>
       <c r="I160">
         <v>143.5419</v>
@@ -6617,8 +6650,8 @@
       <c r="G161">
         <v>1473.9880000000001</v>
       </c>
-      <c r="H161">
-        <v>130.67009999999999</v>
+      <c r="H161" s="2">
+        <v>143.68629999999999</v>
       </c>
       <c r="I161">
         <v>143.68629999999999</v>
@@ -6655,8 +6688,8 @@
       <c r="G162">
         <v>1453.5530000000001</v>
       </c>
-      <c r="H162">
-        <v>130.7799</v>
+      <c r="H162" s="2">
+        <v>144.68809999999999</v>
       </c>
       <c r="I162">
         <v>144.68809999999999</v>
@@ -6693,8 +6726,8 @@
       <c r="G163">
         <v>1484.2539999999999</v>
       </c>
-      <c r="H163">
-        <v>130.8777</v>
+      <c r="H163" s="2">
+        <v>144.4443</v>
       </c>
       <c r="I163">
         <v>144.4443</v>
@@ -6731,8 +6764,8 @@
       <c r="G164">
         <v>1525.749</v>
       </c>
-      <c r="H164">
-        <v>130.97329999999999</v>
+      <c r="H164" s="2">
+        <v>143.23910000000001</v>
       </c>
       <c r="I164">
         <v>143.23910000000001</v>
@@ -6769,8 +6802,8 @@
       <c r="G165">
         <v>1526.7470000000001</v>
       </c>
-      <c r="H165">
-        <v>131.07839999999999</v>
+      <c r="H165" s="2">
+        <v>143.65620000000001</v>
       </c>
       <c r="I165">
         <v>143.65620000000001</v>
@@ -6807,8 +6840,8 @@
       <c r="G166">
         <v>1557.5930000000001</v>
       </c>
-      <c r="H166">
-        <v>131.1797</v>
+      <c r="H166" s="2">
+        <v>143.7998</v>
       </c>
       <c r="I166">
         <v>143.7998</v>
@@ -6845,8 +6878,8 @@
       <c r="G167">
         <v>1561.8009999999999</v>
       </c>
-      <c r="H167">
-        <v>131.2757</v>
+      <c r="H167" s="2">
+        <v>143.21979999999999</v>
       </c>
       <c r="I167">
         <v>143.21979999999999</v>
@@ -6883,8 +6916,8 @@
       <c r="G168">
         <v>1500.6310000000001</v>
       </c>
-      <c r="H168">
-        <v>131.37629999999999</v>
+      <c r="H168" s="2">
+        <v>144.7927</v>
       </c>
       <c r="I168">
         <v>144.7927</v>
@@ -6921,8 +6954,8 @@
       <c r="G169">
         <v>1535.277</v>
       </c>
-      <c r="H169">
-        <v>131.47929999999999</v>
+      <c r="H169" s="2">
+        <v>145.2056</v>
       </c>
       <c r="I169">
         <v>145.2056</v>
@@ -6959,8 +6992,8 @@
       <c r="G170">
         <v>1509.652</v>
       </c>
-      <c r="H170">
-        <v>131.583</v>
+      <c r="H170" s="2">
+        <v>145.3673</v>
       </c>
       <c r="I170">
         <v>145.3673</v>
@@ -6997,8 +7030,8 @@
       <c r="G171">
         <v>1453.6959999999999</v>
       </c>
-      <c r="H171">
-        <v>131.6866</v>
+      <c r="H171" s="2">
+        <v>146.13499999999999</v>
       </c>
       <c r="I171">
         <v>146.13499999999999</v>
@@ -7035,8 +7068,8 @@
       <c r="G172">
         <v>1458.739</v>
       </c>
-      <c r="H172">
-        <v>131.78729999999999</v>
+      <c r="H172" s="2">
+        <v>146.06530000000001</v>
       </c>
       <c r="I172">
         <v>146.06530000000001</v>
@@ -7073,8 +7106,8 @@
       <c r="G173">
         <v>1440.701</v>
       </c>
-      <c r="H173">
-        <v>131.89160000000001</v>
+      <c r="H173" s="2">
+        <v>146.43010000000001</v>
       </c>
       <c r="I173">
         <v>146.43010000000001</v>
@@ -7111,8 +7144,8 @@
       <c r="G174">
         <v>1481.143</v>
       </c>
-      <c r="H174">
-        <v>131.9956</v>
+      <c r="H174" s="2">
+        <v>145.7704</v>
       </c>
       <c r="I174">
         <v>145.7704</v>
@@ -7149,8 +7182,8 @@
       <c r="G175">
         <v>1504.66</v>
       </c>
-      <c r="H175">
-        <v>132.09649999999999</v>
+      <c r="H175" s="2">
+        <v>145.46129999999999</v>
       </c>
       <c r="I175">
         <v>145.46129999999999</v>
@@ -7187,8 +7220,8 @@
       <c r="G176">
         <v>1467.952</v>
       </c>
-      <c r="H176">
-        <v>132.1968</v>
+      <c r="H176" s="2">
+        <v>144.85560000000001</v>
       </c>
       <c r="I176">
         <v>144.85560000000001</v>
@@ -7225,8 +7258,8 @@
       <c r="G177">
         <v>1484.463</v>
       </c>
-      <c r="H177">
-        <v>132.29650000000001</v>
+      <c r="H177" s="2">
+        <v>145.03229999999999</v>
       </c>
       <c r="I177">
         <v>145.03229999999999</v>
@@ -7263,8 +7296,8 @@
       <c r="G178">
         <v>1478.4880000000001</v>
       </c>
-      <c r="H178">
-        <v>132.39619999999999</v>
+      <c r="H178" s="2">
+        <v>145.11859999999999</v>
       </c>
       <c r="I178">
         <v>145.11859999999999</v>
@@ -7301,8 +7334,8 @@
       <c r="G179">
         <v>1411.63</v>
       </c>
-      <c r="H179">
-        <v>132.49100000000001</v>
+      <c r="H179" s="2">
+        <v>146.8005</v>
       </c>
       <c r="I179">
         <v>146.8005</v>
@@ -7339,8 +7372,8 @@
       <c r="G180">
         <v>1401.0160000000001</v>
       </c>
-      <c r="H180">
-        <v>132.5968</v>
+      <c r="H180" s="2">
+        <v>146.9451</v>
       </c>
       <c r="I180">
         <v>146.9451</v>
@@ -7377,8 +7410,8 @@
       <c r="G181">
         <v>1325.1890000000001</v>
       </c>
-      <c r="H181">
-        <v>132.6987</v>
+      <c r="H181" s="2">
+        <v>148.25790000000001</v>
       </c>
       <c r="I181">
         <v>148.25790000000001</v>
@@ -7415,8 +7448,8 @@
       <c r="G182">
         <v>1330.605</v>
       </c>
-      <c r="H182">
-        <v>132.8015</v>
+      <c r="H182" s="2">
+        <v>148.12260000000001</v>
       </c>
       <c r="I182">
         <v>148.12260000000001</v>
@@ -7453,8 +7486,8 @@
       <c r="G183">
         <v>1395.415</v>
       </c>
-      <c r="H183">
-        <v>132.90639999999999</v>
+      <c r="H183" s="2">
+        <v>148.9699</v>
       </c>
       <c r="I183">
         <v>148.9699</v>
@@ -7491,8 +7524,8 @@
       <c r="G184">
         <v>1331.2940000000001</v>
       </c>
-      <c r="H184">
-        <v>133.01169999999999</v>
+      <c r="H184" s="2">
+        <v>149.7336</v>
       </c>
       <c r="I184">
         <v>149.7336</v>
@@ -7529,8 +7562,8 @@
       <c r="G185">
         <v>1349.9949999999999</v>
       </c>
-      <c r="H185">
-        <v>133.11580000000001</v>
+      <c r="H185" s="2">
+        <v>149.0179</v>
       </c>
       <c r="I185">
         <v>149.0179</v>
@@ -7567,8 +7600,8 @@
       <c r="G186">
         <v>1353.1120000000001</v>
       </c>
-      <c r="H186">
-        <v>133.21960000000001</v>
+      <c r="H186" s="2">
+        <v>148.5121</v>
       </c>
       <c r="I186">
         <v>148.5121</v>
@@ -7605,8 +7638,8 @@
       <c r="G187">
         <v>1330.633</v>
       </c>
-      <c r="H187">
-        <v>133.3235</v>
+      <c r="H187" s="2">
+        <v>149.53540000000001</v>
       </c>
       <c r="I187">
         <v>149.53540000000001</v>
@@ -7643,8 +7676,8 @@
       <c r="G188">
         <v>1293.3720000000001</v>
       </c>
-      <c r="H188">
-        <v>133.42779999999999</v>
+      <c r="H188" s="2">
+        <v>149.04490000000001</v>
       </c>
       <c r="I188">
         <v>149.04490000000001</v>
@@ -7681,8 +7714,8 @@
       <c r="G189">
         <v>1288.1400000000001</v>
       </c>
-      <c r="H189">
-        <v>133.53380000000001</v>
+      <c r="H189" s="2">
+        <v>149.5061</v>
       </c>
       <c r="I189">
         <v>149.5061</v>
@@ -7719,8 +7752,8 @@
       <c r="G190">
         <v>1329.508</v>
       </c>
-      <c r="H190">
-        <v>133.62430000000001</v>
+      <c r="H190" s="2">
+        <v>149.58500000000001</v>
       </c>
       <c r="I190">
         <v>149.58500000000001</v>
@@ -7757,8 +7790,8 @@
       <c r="G191">
         <v>1315.2159999999999</v>
       </c>
-      <c r="H191">
-        <v>133.7474</v>
+      <c r="H191" s="2">
+        <v>148.23699999999999</v>
       </c>
       <c r="I191">
         <v>148.23699999999999</v>
@@ -7795,8 +7828,8 @@
       <c r="G192">
         <v>1370.4</v>
       </c>
-      <c r="H192">
-        <v>133.85300000000001</v>
+      <c r="H192" s="2">
+        <v>148.5624</v>
       </c>
       <c r="I192">
         <v>148.5624</v>
@@ -7833,8 +7866,8 @@
       <c r="G193">
         <v>1332.827</v>
       </c>
-      <c r="H193">
-        <v>133.95590000000001</v>
+      <c r="H193" s="2">
+        <v>149.017</v>
       </c>
       <c r="I193">
         <v>149.017</v>
@@ -7871,8 +7904,8 @@
       <c r="G194">
         <v>1390.3320000000001</v>
       </c>
-      <c r="H194">
-        <v>134.059</v>
+      <c r="H194" s="2">
+        <v>146.96680000000001</v>
       </c>
       <c r="I194">
         <v>146.96680000000001</v>
@@ -7909,8 +7942,8 @@
       <c r="G195">
         <v>1397.8440000000001</v>
       </c>
-      <c r="H195">
-        <v>134.16149999999999</v>
+      <c r="H195" s="2">
+        <v>146.93289999999999</v>
       </c>
       <c r="I195">
         <v>146.93289999999999</v>
@@ -7947,8 +7980,8 @@
       <c r="G196">
         <v>1413.8969999999999</v>
       </c>
-      <c r="H196">
-        <v>134.2687</v>
+      <c r="H196" s="2">
+        <v>147.24610000000001</v>
       </c>
       <c r="I196">
         <v>147.24610000000001</v>
@@ -7985,8 +8018,8 @@
       <c r="G197">
         <v>1388.2809999999999</v>
       </c>
-      <c r="H197">
-        <v>134.37469999999999</v>
+      <c r="H197" s="2">
+        <v>148.84540000000001</v>
       </c>
       <c r="I197">
         <v>148.84540000000001</v>
@@ -8023,8 +8056,8 @@
       <c r="G198">
         <v>1425.347</v>
       </c>
-      <c r="H198">
-        <v>134.47620000000001</v>
+      <c r="H198" s="2">
+        <v>147.40610000000001</v>
       </c>
       <c r="I198">
         <v>147.40610000000001</v>
@@ -8061,8 +8094,8 @@
       <c r="G199">
         <v>1375.932</v>
       </c>
-      <c r="H199">
-        <v>134.5806</v>
+      <c r="H199" s="2">
+        <v>146.798</v>
       </c>
       <c r="I199">
         <v>146.798</v>
@@ -8099,8 +8132,8 @@
       <c r="G200">
         <v>1400.377</v>
       </c>
-      <c r="H200">
-        <v>134.6866</v>
+      <c r="H200" s="2">
+        <v>145.8141</v>
       </c>
       <c r="I200">
         <v>145.8141</v>
@@ -8137,8 +8170,8 @@
       <c r="G201">
         <v>1360.6780000000001</v>
       </c>
-      <c r="H201">
-        <v>134.7929</v>
+      <c r="H201" s="2">
+        <v>145.66249999999999</v>
       </c>
       <c r="I201">
         <v>145.66249999999999</v>
@@ -8175,8 +8208,8 @@
       <c r="G202">
         <v>1360.029</v>
       </c>
-      <c r="H202">
-        <v>134.8982</v>
+      <c r="H202" s="2">
+        <v>143.73400000000001</v>
       </c>
       <c r="I202">
         <v>143.73400000000001</v>
@@ -8213,8 +8246,8 @@
       <c r="G203">
         <v>1317.9259999999999</v>
       </c>
-      <c r="H203">
-        <v>135.00399999999999</v>
+      <c r="H203" s="2">
+        <v>144.51310000000001</v>
       </c>
       <c r="I203">
         <v>144.51310000000001</v>
@@ -8251,8 +8284,8 @@
       <c r="G204">
         <v>1278.375</v>
       </c>
-      <c r="H204">
-        <v>135.108</v>
+      <c r="H204" s="2">
+        <v>144.99639999999999</v>
       </c>
       <c r="I204">
         <v>144.99639999999999</v>
@@ -8289,8 +8322,8 @@
       <c r="G205">
         <v>1262.8969999999999</v>
       </c>
-      <c r="H205">
-        <v>135.21</v>
+      <c r="H205" s="2">
+        <v>145.25659999999999</v>
       </c>
       <c r="I205">
         <v>145.25659999999999</v>
@@ -8327,8 +8360,8 @@
       <c r="G206">
         <v>1239.49</v>
       </c>
-      <c r="H206">
-        <v>135.315</v>
+      <c r="H206" s="2">
+        <v>145.88030000000001</v>
       </c>
       <c r="I206">
         <v>145.88030000000001</v>
@@ -8365,8 +8398,8 @@
       <c r="G207">
         <v>1260.682</v>
       </c>
-      <c r="H207">
-        <v>135.428</v>
+      <c r="H207" s="2">
+        <v>144.89590000000001</v>
       </c>
       <c r="I207">
         <v>144.89590000000001</v>
@@ -8403,8 +8436,8 @@
       <c r="G208">
         <v>1257.7639999999999</v>
       </c>
-      <c r="H208">
-        <v>135.541</v>
+      <c r="H208" s="2">
+        <v>145.20609999999999</v>
       </c>
       <c r="I208">
         <v>145.20609999999999</v>
@@ -8441,8 +8474,8 @@
       <c r="G209">
         <v>1260.3140000000001</v>
       </c>
-      <c r="H209">
-        <v>135.654</v>
+      <c r="H209" s="2">
+        <v>147.0789</v>
       </c>
       <c r="I209">
         <v>147.0789</v>
@@ -8479,8 +8512,8 @@
       <c r="G210">
         <v>1296.3219999999999</v>
       </c>
-      <c r="H210">
-        <v>135.768</v>
+      <c r="H210" s="2">
+        <v>148.1833</v>
       </c>
       <c r="I210">
         <v>148.1833</v>
@@ -8517,8 +8550,8 @@
       <c r="G211">
         <v>1298.2</v>
       </c>
-      <c r="H211">
-        <v>135.88200000000001</v>
+      <c r="H211" s="2">
+        <v>148.87270000000001</v>
       </c>
       <c r="I211">
         <v>148.87270000000001</v>
@@ -8555,8 +8588,8 @@
       <c r="G212">
         <v>1292.1959999999999</v>
       </c>
-      <c r="H212">
-        <v>135.995</v>
+      <c r="H212" s="2">
+        <v>148.49780000000001</v>
       </c>
       <c r="I212">
         <v>148.49780000000001</v>
@@ -8593,8 +8626,8 @@
       <c r="G213">
         <v>1282.828</v>
       </c>
-      <c r="H213">
-        <v>136.108</v>
+      <c r="H213" s="2">
+        <v>148.9503</v>
       </c>
       <c r="I213">
         <v>148.9503</v>
@@ -8631,8 +8664,8 @@
       <c r="G214">
         <v>1242.3140000000001</v>
       </c>
-      <c r="H214">
-        <v>136.22300000000001</v>
+      <c r="H214" s="2">
+        <v>150.14330000000001</v>
       </c>
       <c r="I214">
         <v>150.14330000000001</v>
@@ -8669,8 +8702,8 @@
       <c r="G215">
         <v>1251.701</v>
       </c>
-      <c r="H215">
-        <v>136.33500000000001</v>
+      <c r="H215" s="2">
+        <v>148.7362</v>
       </c>
       <c r="I215">
         <v>148.7362</v>
@@ -8707,8 +8740,8 @@
       <c r="G216">
         <v>1255.075</v>
       </c>
-      <c r="H216">
-        <v>136.44999999999999</v>
+      <c r="H216" s="2">
+        <v>147.98339999999999</v>
       </c>
       <c r="I216">
         <v>147.98339999999999</v>
@@ -8745,8 +8778,8 @@
       <c r="G217">
         <v>1213.0129999999999</v>
       </c>
-      <c r="H217">
-        <v>136.566</v>
+      <c r="H217" s="2">
+        <v>148.95660000000001</v>
       </c>
       <c r="I217">
         <v>148.95660000000001</v>
@@ -8783,8 +8816,8 @@
       <c r="G218">
         <v>1099.2339999999999</v>
       </c>
-      <c r="H218">
-        <v>136.67400000000001</v>
+      <c r="H218" s="2">
+        <v>151.54689999999999</v>
       </c>
       <c r="I218">
         <v>151.54689999999999</v>
@@ -8821,8 +8854,8 @@
       <c r="G219">
         <v>899.21630000000005</v>
       </c>
-      <c r="H219">
-        <v>136.78800000000001</v>
+      <c r="H219" s="2">
+        <v>151.4135</v>
       </c>
       <c r="I219">
         <v>151.4135</v>
@@ -8859,8 +8892,8 @@
       <c r="G220">
         <v>940.55200000000002</v>
       </c>
-      <c r="H220">
-        <v>136.88810000000001</v>
+      <c r="H220" s="2">
+        <v>151.39420000000001</v>
       </c>
       <c r="I220">
         <v>151.39420000000001</v>
@@ -8897,8 +8930,8 @@
       <c r="G221">
         <v>876.76959999999997</v>
       </c>
-      <c r="H221">
-        <v>136.9837</v>
+      <c r="H221" s="2">
+        <v>153.2714</v>
       </c>
       <c r="I221">
         <v>153.2714</v>
@@ -8935,8 +8968,8 @@
       <c r="G222">
         <v>968.75379999999996</v>
       </c>
-      <c r="H222">
-        <v>137.07830000000001</v>
+      <c r="H222" s="2">
+        <v>151.08920000000001</v>
       </c>
       <c r="I222">
         <v>151.08920000000001</v>
@@ -8973,8 +9006,8 @@
       <c r="G223">
         <v>930.99289999999996</v>
       </c>
-      <c r="H223">
-        <v>137.17179999999999</v>
+      <c r="H223" s="2">
+        <v>153.9511</v>
       </c>
       <c r="I223">
         <v>153.9511</v>
@@ -9011,8 +9044,8 @@
       <c r="G224">
         <v>873.2912</v>
       </c>
-      <c r="H224">
-        <v>137.26179999999999</v>
+      <c r="H224" s="2">
+        <v>154.33170000000001</v>
       </c>
       <c r="I224">
         <v>154.33170000000001</v>
@@ -9049,8 +9082,8 @@
       <c r="G225">
         <v>800.03250000000003</v>
       </c>
-      <c r="H225">
-        <v>137.3415</v>
+      <c r="H225" s="2">
+        <v>156.0155</v>
       </c>
       <c r="I225">
         <v>156.0155</v>
@@ -9087,8 +9120,8 @@
       <c r="G226">
         <v>896.23710000000005</v>
       </c>
-      <c r="H226">
-        <v>137.4196</v>
+      <c r="H226" s="2">
+        <v>156.8493</v>
       </c>
       <c r="I226">
         <v>156.8493</v>
@@ -9125,8 +9158,8 @@
       <c r="G227">
         <v>876.06719999999996</v>
       </c>
-      <c r="H227">
-        <v>137.49809999999999</v>
+      <c r="H227" s="2">
+        <v>158.33240000000001</v>
       </c>
       <c r="I227">
         <v>158.33240000000001</v>
@@ -9163,8 +9196,8 @@
       <c r="G228">
         <v>879.7328</v>
       </c>
-      <c r="H228">
-        <v>137.57130000000001</v>
+      <c r="H228" s="2">
+        <v>155.5702</v>
       </c>
       <c r="I228">
         <v>155.5702</v>
@@ -9201,8 +9234,8 @@
       <c r="G229">
         <v>887.88130000000001</v>
       </c>
-      <c r="H229">
-        <v>137.63239999999999</v>
+      <c r="H229" s="2">
+        <v>158.03559999999999</v>
       </c>
       <c r="I229">
         <v>158.03559999999999</v>
@@ -9239,8 +9272,8 @@
       <c r="G230">
         <v>872.79750000000001</v>
       </c>
-      <c r="H230">
-        <v>137.69220000000001</v>
+      <c r="H230" s="2">
+        <v>158.77080000000001</v>
       </c>
       <c r="I230">
         <v>158.77080000000001</v>
@@ -9277,8 +9310,8 @@
       <c r="G231">
         <v>931.80079999999998</v>
       </c>
-      <c r="H231">
-        <v>137.75299999999999</v>
+      <c r="H231" s="2">
+        <v>159.12880000000001</v>
       </c>
       <c r="I231">
         <v>159.12880000000001</v>
@@ -9315,8 +9348,8 @@
       <c r="G232">
         <v>890.35</v>
       </c>
-      <c r="H232">
-        <v>137.81190000000001</v>
+      <c r="H232" s="2">
+        <v>158.5462</v>
       </c>
       <c r="I232">
         <v>158.5462</v>
@@ -9353,8 +9386,8 @@
       <c r="G233">
         <v>850.12049999999999</v>
       </c>
-      <c r="H233">
-        <v>137.8691</v>
+      <c r="H233" s="2">
+        <v>157.81780000000001</v>
       </c>
       <c r="I233">
         <v>157.81780000000001</v>
@@ -9391,8 +9424,8 @@
       <c r="G234">
         <v>831.95169999999996</v>
       </c>
-      <c r="H234">
-        <v>137.92019999999999</v>
+      <c r="H234" s="2">
+        <v>155.0829</v>
       </c>
       <c r="I234">
         <v>155.0829</v>
@@ -9429,8 +9462,8 @@
       <c r="G235">
         <v>825.88170000000002</v>
       </c>
-      <c r="H235">
-        <v>137.95269999999999</v>
+      <c r="H235" s="2">
+        <v>156.96600000000001</v>
       </c>
       <c r="I235">
         <v>156.96600000000001</v>
@@ -9467,8 +9500,8 @@
       <c r="G236">
         <v>868.60329999999999</v>
       </c>
-      <c r="H236">
-        <v>137.98580000000001</v>
+      <c r="H236" s="2">
+        <v>157.64259999999999</v>
       </c>
       <c r="I236">
         <v>157.64259999999999</v>
@@ -9505,8 +9538,8 @@
       <c r="G237">
         <v>826.84349999999995</v>
       </c>
-      <c r="H237">
-        <v>138.01840000000001</v>
+      <c r="H237" s="2">
+        <v>158.64930000000001</v>
       </c>
       <c r="I237">
         <v>158.64930000000001</v>
@@ -9543,8 +9576,8 @@
       <c r="G238">
         <v>770.04729999999995</v>
       </c>
-      <c r="H238">
-        <v>138.0521</v>
+      <c r="H238" s="2">
+        <v>159.01159999999999</v>
       </c>
       <c r="I238">
         <v>159.01159999999999</v>
@@ -9581,8 +9614,8 @@
       <c r="G239">
         <v>735.09220000000005</v>
       </c>
-      <c r="H239">
-        <v>138.08690000000001</v>
+      <c r="H239" s="2">
+        <v>158.2679</v>
       </c>
       <c r="I239">
         <v>158.2679</v>
@@ -9619,8 +9652,8 @@
       <c r="G240">
         <v>683.38400000000001</v>
       </c>
-      <c r="H240">
-        <v>138.1224</v>
+      <c r="H240" s="2">
+        <v>159.5617</v>
       </c>
       <c r="I240">
         <v>159.5617</v>
@@ -9657,8 +9690,8 @@
       <c r="G241">
         <v>756.55319999999995</v>
       </c>
-      <c r="H241">
-        <v>138.1533</v>
+      <c r="H241" s="2">
+        <v>158.6591</v>
       </c>
       <c r="I241">
         <v>158.6591</v>
@@ -9695,8 +9728,8 @@
       <c r="G242">
         <v>768.54409999999996</v>
       </c>
-      <c r="H242">
-        <v>138.17679999999999</v>
+      <c r="H242" s="2">
+        <v>160.0463</v>
       </c>
       <c r="I242">
         <v>160.0463</v>
@@ -9733,8 +9766,8 @@
       <c r="G243">
         <v>815.93849999999998</v>
       </c>
-      <c r="H243">
-        <v>138.202</v>
+      <c r="H243" s="2">
+        <v>159.96029999999999</v>
       </c>
       <c r="I243">
         <v>159.96029999999999</v>
@@ -9771,8 +9804,8 @@
       <c r="G244">
         <v>842.50040000000001</v>
       </c>
-      <c r="H244">
-        <v>138.2303</v>
+      <c r="H244" s="2">
+        <v>158.99299999999999</v>
       </c>
       <c r="I244">
         <v>158.99299999999999</v>
@@ -9809,8 +9842,8 @@
       <c r="G245">
         <v>856.55970000000002</v>
       </c>
-      <c r="H245">
-        <v>138.25370000000001</v>
+      <c r="H245" s="2">
+        <v>159.12989999999999</v>
       </c>
       <c r="I245">
         <v>159.12989999999999</v>
@@ -9847,8 +9880,8 @@
       <c r="G246">
         <v>869.59550000000002</v>
       </c>
-      <c r="H246">
-        <v>138.2791</v>
+      <c r="H246" s="2">
+        <v>159.4462</v>
       </c>
       <c r="I246">
         <v>159.4462</v>
@@ -9885,8 +9918,8 @@
       <c r="G247">
         <v>866.22940000000006</v>
       </c>
-      <c r="H247">
-        <v>138.3047</v>
+      <c r="H247" s="2">
+        <v>160.61670000000001</v>
       </c>
       <c r="I247">
         <v>160.61670000000001</v>
@@ -9923,8 +9956,8 @@
       <c r="G248">
         <v>877.52300000000002</v>
       </c>
-      <c r="H248">
-        <v>138.32169999999999</v>
+      <c r="H248" s="2">
+        <v>161.12639999999999</v>
       </c>
       <c r="I248">
         <v>161.12639999999999</v>
@@ -9961,8 +9994,8 @@
       <c r="G249">
         <v>929.23109999999997</v>
       </c>
-      <c r="H249">
-        <v>138.33680000000001</v>
+      <c r="H249" s="2">
+        <v>160.47409999999999</v>
       </c>
       <c r="I249">
         <v>160.47409999999999</v>
@@ -9999,8 +10032,8 @@
       <c r="G250">
         <v>882.87530000000004</v>
       </c>
-      <c r="H250">
-        <v>138.35339999999999</v>
+      <c r="H250" s="2">
+        <v>160.39449999999999</v>
       </c>
       <c r="I250">
         <v>160.39449999999999</v>
@@ -10037,8 +10070,8 @@
       <c r="G251">
         <v>887.00149999999996</v>
       </c>
-      <c r="H251">
-        <v>138.375</v>
+      <c r="H251" s="2">
+        <v>159.7167</v>
       </c>
       <c r="I251">
         <v>159.7167</v>
@@ -10075,8 +10108,8 @@
       <c r="G252">
         <v>919.13990000000001</v>
       </c>
-      <c r="H252">
-        <v>138.4034</v>
+      <c r="H252" s="2">
+        <v>159.1309</v>
       </c>
       <c r="I252">
         <v>159.1309</v>
@@ -10113,8 +10146,8 @@
       <c r="G253">
         <v>940.08820000000003</v>
       </c>
-      <c r="H253">
-        <v>138.42240000000001</v>
+      <c r="H253" s="2">
+        <v>157.94579999999999</v>
       </c>
       <c r="I253">
         <v>157.94579999999999</v>
@@ -10151,8 +10184,8 @@
       <c r="G254">
         <v>946.20709999999997</v>
       </c>
-      <c r="H254">
-        <v>138.43969999999999</v>
+      <c r="H254" s="2">
+        <v>158.64439999999999</v>
       </c>
       <c r="I254">
         <v>158.64439999999999</v>
@@ -10189,8 +10222,8 @@
       <c r="G255">
         <v>921.22659999999996</v>
       </c>
-      <c r="H255">
-        <v>138.4624</v>
+      <c r="H255" s="2">
+        <v>159.6978</v>
       </c>
       <c r="I255">
         <v>159.6978</v>
@@ -10227,8 +10260,8 @@
       <c r="G256">
         <v>918.90449999999998</v>
       </c>
-      <c r="H256">
-        <v>138.48429999999999</v>
+      <c r="H256" s="2">
+        <v>160.82239999999999</v>
       </c>
       <c r="I256">
         <v>160.82239999999999</v>
@@ -10265,8 +10298,8 @@
       <c r="G257">
         <v>896.42309999999998</v>
       </c>
-      <c r="H257">
-        <v>138.49449999999999</v>
+      <c r="H257" s="2">
+        <v>161.779</v>
       </c>
       <c r="I257">
         <v>161.779</v>
@@ -10303,8 +10336,8 @@
       <c r="G258">
         <v>879.12840000000006</v>
       </c>
-      <c r="H258">
-        <v>138.5042</v>
+      <c r="H258" s="2">
+        <v>162.1294</v>
       </c>
       <c r="I258">
         <v>162.1294</v>
@@ -10341,8 +10374,8 @@
       <c r="G259">
         <v>940.37630000000001</v>
       </c>
-      <c r="H259">
-        <v>138.5136</v>
+      <c r="H259" s="2">
+        <v>161.6918</v>
       </c>
       <c r="I259">
         <v>161.6918</v>
@@ -10379,8 +10412,8 @@
       <c r="G260">
         <v>979.26260000000002</v>
       </c>
-      <c r="H260">
-        <v>138.5232</v>
+      <c r="H260" s="2">
+        <v>161.7636</v>
       </c>
       <c r="I260">
         <v>161.7636</v>
@@ -10417,8 +10450,8 @@
       <c r="G261">
         <v>987.47519999999997</v>
       </c>
-      <c r="H261">
-        <v>138.5326</v>
+      <c r="H261" s="2">
+        <v>163.95840000000001</v>
       </c>
       <c r="I261">
         <v>163.95840000000001</v>
@@ -10455,8 +10488,8 @@
       <c r="G262">
         <v>1010.475</v>
       </c>
-      <c r="H262">
-        <v>138.542</v>
+      <c r="H262" s="2">
+        <v>162.50790000000001</v>
       </c>
       <c r="I262">
         <v>162.50790000000001</v>
@@ -10493,8 +10526,8 @@
       <c r="G263">
         <v>1004.0940000000001</v>
       </c>
-      <c r="H263">
-        <v>138.55170000000001</v>
+      <c r="H263" s="2">
+        <v>164.095</v>
       </c>
       <c r="I263">
         <v>164.095</v>
@@ -10531,8 +10564,8 @@
       <c r="G264">
         <v>1026.1300000000001</v>
       </c>
-      <c r="H264">
-        <v>138.5609</v>
+      <c r="H264" s="2">
+        <v>164.27549999999999</v>
       </c>
       <c r="I264">
         <v>164.27549999999999</v>
@@ -10569,8 +10602,8 @@
       <c r="G265">
         <v>1028.932</v>
       </c>
-      <c r="H265">
-        <v>138.5701</v>
+      <c r="H265" s="2">
+        <v>164.6583</v>
       </c>
       <c r="I265">
         <v>164.6583</v>
@@ -10607,8 +10640,8 @@
       <c r="G266">
         <v>1016.404</v>
       </c>
-      <c r="H266">
-        <v>138.57910000000001</v>
+      <c r="H266" s="2">
+        <v>164.46960000000001</v>
       </c>
       <c r="I266">
         <v>164.46960000000001</v>
@@ -10645,8 +10678,8 @@
       <c r="G267">
         <v>1042.732</v>
       </c>
-      <c r="H267">
-        <v>138.5889</v>
+      <c r="H267" s="2">
+        <v>165.1378</v>
       </c>
       <c r="I267">
         <v>165.1378</v>
@@ -10683,8 +10716,8 @@
       <c r="G268">
         <v>1068.2950000000001</v>
       </c>
-      <c r="H268">
-        <v>138.59829999999999</v>
+      <c r="H268" s="2">
+        <v>164.42519999999999</v>
       </c>
       <c r="I268">
         <v>164.42519999999999</v>
@@ -10721,8 +10754,8 @@
       <c r="G269">
         <v>1044.3820000000001</v>
       </c>
-      <c r="H269">
-        <v>138.6079</v>
+      <c r="H269" s="2">
+        <v>165.60079999999999</v>
       </c>
       <c r="I269">
         <v>165.60079999999999</v>
@@ -10759,8 +10792,8 @@
       <c r="G270">
         <v>1025.21</v>
       </c>
-      <c r="H270">
-        <v>138.61789999999999</v>
+      <c r="H270" s="2">
+        <v>166.07210000000001</v>
       </c>
       <c r="I270">
         <v>166.07210000000001</v>
@@ -10797,8 +10830,8 @@
       <c r="G271">
         <v>1071.489</v>
       </c>
-      <c r="H271">
-        <v>138.6275</v>
+      <c r="H271" s="2">
+        <v>165.7003</v>
       </c>
       <c r="I271">
         <v>165.7003</v>
@@ -10835,8 +10868,8 @@
       <c r="G272">
         <v>1087.682</v>
       </c>
-      <c r="H272">
-        <v>138.63749999999999</v>
+      <c r="H272" s="2">
+        <v>164.88489999999999</v>
       </c>
       <c r="I272">
         <v>164.88489999999999</v>
@@ -10873,8 +10906,8 @@
       <c r="G273">
         <v>1079.6020000000001</v>
       </c>
-      <c r="H273">
-        <v>138.64689999999999</v>
+      <c r="H273" s="2">
+        <v>164.77189999999999</v>
       </c>
       <c r="I273">
         <v>164.77189999999999</v>
@@ -10911,8 +10944,8 @@
       <c r="G274">
         <v>1036.1949999999999</v>
       </c>
-      <c r="H274">
-        <v>138.65610000000001</v>
+      <c r="H274" s="2">
+        <v>165.88310000000001</v>
       </c>
       <c r="I274">
         <v>165.88310000000001</v>
@@ -10949,8 +10982,8 @@
       <c r="G275">
         <v>1069.3009999999999</v>
       </c>
-      <c r="H275">
-        <v>138.66579999999999</v>
+      <c r="H275" s="2">
+        <v>165.1514</v>
       </c>
       <c r="I275">
         <v>165.1514</v>
@@ -10987,8 +11020,8 @@
       <c r="G276">
         <v>1093.481</v>
       </c>
-      <c r="H276">
-        <v>138.67609999999999</v>
+      <c r="H276" s="2">
+        <v>165.649</v>
       </c>
       <c r="I276">
         <v>165.649</v>
@@ -11025,8 +11058,8 @@
       <c r="G277">
         <v>1091.377</v>
       </c>
-      <c r="H277">
-        <v>138.68559999999999</v>
+      <c r="H277" s="2">
+        <v>166.2578</v>
       </c>
       <c r="I277">
         <v>166.2578</v>
@@ -11063,8 +11096,8 @@
       <c r="G278">
         <v>1091.491</v>
       </c>
-      <c r="H278">
-        <v>138.69499999999999</v>
+      <c r="H278" s="2">
+        <v>166.5318</v>
       </c>
       <c r="I278">
         <v>166.5318</v>
@@ -11101,8 +11134,8 @@
       <c r="G279">
         <v>1105.9760000000001</v>
       </c>
-      <c r="H279">
-        <v>138.7046</v>
+      <c r="H279" s="2">
+        <v>166.52950000000001</v>
       </c>
       <c r="I279">
         <v>166.52950000000001</v>
@@ -11139,8 +11172,8 @@
       <c r="G280">
         <v>1106.4110000000001</v>
       </c>
-      <c r="H280">
-        <v>138.715</v>
+      <c r="H280" s="2">
+        <v>166.3647</v>
       </c>
       <c r="I280">
         <v>166.3647</v>
@@ -11177,8 +11210,8 @@
       <c r="G281">
         <v>1102.4659999999999</v>
       </c>
-      <c r="H281">
-        <v>138.72450000000001</v>
+      <c r="H281" s="2">
+        <v>167.18020000000001</v>
       </c>
       <c r="I281">
         <v>167.18020000000001</v>
@@ -11215,8 +11248,8 @@
       <c r="G282">
         <v>1126.4760000000001</v>
       </c>
-      <c r="H282">
-        <v>138.73330000000001</v>
+      <c r="H282" s="2">
+        <v>166.23560000000001</v>
       </c>
       <c r="I282">
         <v>166.23560000000001</v>
@@ -11253,8 +11286,8 @@
       <c r="G283">
         <v>1115.1030000000001</v>
       </c>
-      <c r="H283">
-        <v>138.74039999999999</v>
+      <c r="H283" s="2">
+        <v>165.54859999999999</v>
       </c>
       <c r="I283">
         <v>165.54859999999999</v>
@@ -11291,8 +11324,8 @@
       <c r="G284">
         <v>1144.9829999999999</v>
       </c>
-      <c r="H284">
-        <v>138.75190000000001</v>
+      <c r="H284" s="2">
+        <v>166.13939999999999</v>
       </c>
       <c r="I284">
         <v>166.13939999999999</v>
@@ -11329,8 +11362,8 @@
       <c r="G285">
         <v>1136.029</v>
       </c>
-      <c r="H285">
-        <v>138.761</v>
+      <c r="H285" s="2">
+        <v>166.42670000000001</v>
       </c>
       <c r="I285">
         <v>166.42670000000001</v>
@@ -11367,8 +11400,8 @@
       <c r="G286">
         <v>1091.7550000000001</v>
       </c>
-      <c r="H286">
-        <v>138.77070000000001</v>
+      <c r="H286" s="2">
+        <v>166.37309999999999</v>
       </c>
       <c r="I286">
         <v>166.37309999999999</v>
@@ -11405,8 +11438,8 @@
       <c r="G287">
         <v>1073.8689999999999</v>
       </c>
-      <c r="H287">
-        <v>138.77959999999999</v>
+      <c r="H287" s="2">
+        <v>166.34739999999999</v>
       </c>
       <c r="I287">
         <v>166.34739999999999</v>
@@ -11443,8 +11476,8 @@
       <c r="G288">
         <v>1066.1869999999999</v>
       </c>
-      <c r="H288">
-        <v>138.7884</v>
+      <c r="H288" s="2">
+        <v>166.99350000000001</v>
       </c>
       <c r="I288">
         <v>166.99350000000001</v>
@@ -11481,8 +11514,8 @@
       <c r="G289">
         <v>1075.5129999999999</v>
       </c>
-      <c r="H289">
-        <v>138.79810000000001</v>
+      <c r="H289" s="2">
+        <v>167.50620000000001</v>
       </c>
       <c r="I289">
         <v>167.50620000000001</v>
@@ -11519,8 +11552,8 @@
       <c r="G290">
         <v>1109.173</v>
       </c>
-      <c r="H290">
-        <v>138.80680000000001</v>
+      <c r="H290" s="2">
+        <v>166.9426</v>
       </c>
       <c r="I290">
         <v>166.9426</v>
@@ -11557,8 +11590,8 @@
       <c r="G291">
         <v>1104.4929999999999</v>
       </c>
-      <c r="H291">
-        <v>138.8158</v>
+      <c r="H291" s="2">
+        <v>168.37700000000001</v>
       </c>
       <c r="I291">
         <v>168.37700000000001</v>
@@ -11595,8 +11628,8 @@
       <c r="G292">
         <v>1138.6980000000001</v>
       </c>
-      <c r="H292">
-        <v>138.8244</v>
+      <c r="H292" s="2">
+        <v>168.37430000000001</v>
       </c>
       <c r="I292">
         <v>168.37430000000001</v>
@@ -11633,8 +11666,8 @@
       <c r="G293">
         <v>1149.992</v>
       </c>
-      <c r="H293">
-        <v>138.83439999999999</v>
+      <c r="H293" s="2">
+        <v>168.48390000000001</v>
       </c>
       <c r="I293">
         <v>168.48390000000001</v>
@@ -11671,8 +11704,8 @@
       <c r="G294">
         <v>1159.8969999999999</v>
       </c>
-      <c r="H294">
-        <v>138.8433</v>
+      <c r="H294" s="2">
+        <v>168.70660000000001</v>
       </c>
       <c r="I294">
         <v>168.70660000000001</v>
@@ -11709,8 +11742,8 @@
       <c r="G295">
         <v>1166.5889999999999</v>
       </c>
-      <c r="H295">
-        <v>138.85249999999999</v>
+      <c r="H295" s="2">
+        <v>168.94499999999999</v>
       </c>
       <c r="I295">
         <v>168.94499999999999</v>
@@ -11747,8 +11780,8 @@
       <c r="G296">
         <v>1178.1030000000001</v>
       </c>
-      <c r="H296">
-        <v>138.86060000000001</v>
+      <c r="H296" s="2">
+        <v>169.65629999999999</v>
       </c>
       <c r="I296">
         <v>169.65629999999999</v>
@@ -11785,8 +11818,8 @@
       <c r="G297">
         <v>1194.3679999999999</v>
       </c>
-      <c r="H297">
-        <v>138.8706</v>
+      <c r="H297" s="2">
+        <v>168.79599999999999</v>
       </c>
       <c r="I297">
         <v>168.79599999999999</v>
@@ -11823,8 +11856,8 @@
       <c r="G298">
         <v>1192.1289999999999</v>
       </c>
-      <c r="H298">
-        <v>138.88079999999999</v>
+      <c r="H298" s="2">
+        <v>169.29859999999999</v>
       </c>
       <c r="I298">
         <v>169.29859999999999</v>
@@ -11861,8 +11894,8 @@
       <c r="G299">
         <v>1217.2760000000001</v>
       </c>
-      <c r="H299">
-        <v>138.88999999999999</v>
+      <c r="H299" s="2">
+        <v>168.22319999999999</v>
       </c>
       <c r="I299">
         <v>168.22319999999999</v>
@@ -11899,8 +11932,8 @@
       <c r="G300">
         <v>1186.6890000000001</v>
       </c>
-      <c r="H300">
-        <v>138.89920000000001</v>
+      <c r="H300" s="2">
+        <v>168.30840000000001</v>
       </c>
       <c r="I300">
         <v>168.30840000000001</v>
@@ -11937,8 +11970,8 @@
       <c r="G301">
         <v>1110.885</v>
       </c>
-      <c r="H301">
-        <v>138.9084</v>
+      <c r="H301" s="2">
+        <v>167.6001</v>
       </c>
       <c r="I301">
         <v>167.6001</v>
@@ -11975,8 +12008,8 @@
       <c r="G302">
         <v>1135.682</v>
       </c>
-      <c r="H302">
-        <v>138.91820000000001</v>
+      <c r="H302" s="2">
+        <v>169.77160000000001</v>
       </c>
       <c r="I302">
         <v>169.77160000000001</v>
@@ -12013,8 +12046,8 @@
       <c r="G303">
         <v>1087.693</v>
       </c>
-      <c r="H303">
-        <v>138.9273</v>
+      <c r="H303" s="2">
+        <v>170.9939</v>
       </c>
       <c r="I303">
         <v>170.9939</v>
@@ -12051,8 +12084,8 @@
       <c r="G304">
         <v>1089.4059999999999</v>
       </c>
-      <c r="H304">
-        <v>138.9358</v>
+      <c r="H304" s="2">
+        <v>170.2783</v>
       </c>
       <c r="I304">
         <v>170.2783</v>
@@ -12089,8 +12122,8 @@
       <c r="G305">
         <v>1064.875</v>
       </c>
-      <c r="H305">
-        <v>138.94460000000001</v>
+      <c r="H305" s="2">
+        <v>169.2681</v>
       </c>
       <c r="I305">
         <v>169.2681</v>
@@ -12127,8 +12160,8 @@
       <c r="G306">
         <v>1091.5999999999999</v>
       </c>
-      <c r="H306">
-        <v>138.95339999999999</v>
+      <c r="H306" s="2">
+        <v>170.28100000000001</v>
       </c>
       <c r="I306">
         <v>170.28100000000001</v>
@@ -12165,8 +12198,8 @@
       <c r="G307">
         <v>1117.511</v>
       </c>
-      <c r="H307">
-        <v>138.96369999999999</v>
+      <c r="H307" s="2">
+        <v>169.28540000000001</v>
       </c>
       <c r="I307">
         <v>169.28540000000001</v>
@@ -12203,8 +12236,8 @@
       <c r="G308">
         <v>1076.7650000000001</v>
       </c>
-      <c r="H308">
-        <v>138.97309999999999</v>
+      <c r="H308" s="2">
+        <v>169.45349999999999</v>
       </c>
       <c r="I308">
         <v>169.45349999999999</v>
@@ -12241,8 +12274,8 @@
       <c r="G309">
         <v>1022.583</v>
       </c>
-      <c r="H309">
-        <v>138.98330000000001</v>
+      <c r="H309" s="2">
+        <v>170.2499</v>
       </c>
       <c r="I309">
         <v>170.2499</v>
@@ -12279,8 +12312,8 @@
       <c r="G310">
         <v>1077.9580000000001</v>
       </c>
-      <c r="H310">
-        <v>138.99469999999999</v>
+      <c r="H310" s="2">
+        <v>170.4633</v>
       </c>
       <c r="I310">
         <v>170.4633</v>
@@ -12317,8 +12350,8 @@
       <c r="G311">
         <v>1064.877</v>
       </c>
-      <c r="H311">
-        <v>139.00729999999999</v>
+      <c r="H311" s="2">
+        <v>170.58160000000001</v>
       </c>
       <c r="I311">
         <v>170.58160000000001</v>
@@ -12355,8 +12388,8 @@
       <c r="G312">
         <v>1102.6579999999999</v>
       </c>
-      <c r="H312">
-        <v>139.02209999999999</v>
+      <c r="H312" s="2">
+        <v>170.59729999999999</v>
       </c>
       <c r="I312">
         <v>170.59729999999999</v>
@@ -12393,8 +12426,8 @@
       <c r="G313">
         <v>1101.597</v>
       </c>
-      <c r="H313">
-        <v>139.03530000000001</v>
+      <c r="H313" s="2">
+        <v>171.32820000000001</v>
       </c>
       <c r="I313">
         <v>171.32820000000001</v>
@@ -12431,8 +12464,8 @@
       <c r="G314">
         <v>1121.6420000000001</v>
       </c>
-      <c r="H314">
-        <v>139.04599999999999</v>
+      <c r="H314" s="2">
+        <v>173.18620000000001</v>
       </c>
       <c r="I314">
         <v>173.18620000000001</v>
@@ -12469,8 +12502,8 @@
       <c r="G315">
         <v>1079.2460000000001</v>
       </c>
-      <c r="H315">
-        <v>139.05799999999999</v>
+      <c r="H315" s="2">
+        <v>173.26949999999999</v>
       </c>
       <c r="I315">
         <v>173.26949999999999</v>
@@ -12507,8 +12540,8 @@
       <c r="G316">
         <v>1071.692</v>
       </c>
-      <c r="H316">
-        <v>139.07</v>
+      <c r="H316" s="2">
+        <v>174.87970000000001</v>
       </c>
       <c r="I316">
         <v>174.87970000000001</v>
@@ -12545,8 +12578,8 @@
       <c r="G317">
         <v>1064.5909999999999</v>
       </c>
-      <c r="H317">
-        <v>139.0813</v>
+      <c r="H317" s="2">
+        <v>175.4229</v>
       </c>
       <c r="I317">
         <v>175.4229</v>
@@ -12583,8 +12616,8 @@
       <c r="G318">
         <v>1104.5070000000001</v>
       </c>
-      <c r="H318">
-        <v>139.0917</v>
+      <c r="H318" s="2">
+        <v>174.41</v>
       </c>
       <c r="I318">
         <v>174.41</v>
@@ -12621,8 +12654,8 @@
       <c r="G319">
         <v>1109.5519999999999</v>
       </c>
-      <c r="H319">
-        <v>139.10329999999999</v>
+      <c r="H319" s="2">
+        <v>173.64580000000001</v>
       </c>
       <c r="I319">
         <v>173.64580000000001</v>
@@ -12659,8 +12692,8 @@
       <c r="G320">
         <v>1125.5920000000001</v>
       </c>
-      <c r="H320">
-        <v>139.11490000000001</v>
+      <c r="H320" s="2">
+        <v>172.6848</v>
       </c>
       <c r="I320">
         <v>172.6848</v>
@@ -12697,8 +12730,8 @@
       <c r="G321">
         <v>1148.671</v>
       </c>
-      <c r="H321">
-        <v>139.12690000000001</v>
+      <c r="H321" s="2">
+        <v>173.3331</v>
       </c>
       <c r="I321">
         <v>173.3331</v>
@@ -12735,8 +12768,8 @@
       <c r="G322">
         <v>1146.2370000000001</v>
       </c>
-      <c r="H322">
-        <v>139.14019999999999</v>
+      <c r="H322" s="2">
+        <v>173.94450000000001</v>
       </c>
       <c r="I322">
         <v>173.94450000000001</v>
@@ -12773,8 +12806,8 @@
       <c r="G323">
         <v>1165.146</v>
       </c>
-      <c r="H323">
-        <v>139.15639999999999</v>
+      <c r="H323" s="2">
+        <v>174.7071</v>
       </c>
       <c r="I323">
         <v>174.7071</v>
@@ -12811,8 +12844,8 @@
       <c r="G324">
         <v>1176.1880000000001</v>
       </c>
-      <c r="H324">
-        <v>139.1711</v>
+      <c r="H324" s="2">
+        <v>174.4151</v>
       </c>
       <c r="I324">
         <v>174.4151</v>
@@ -12849,8 +12882,8 @@
       <c r="G325">
         <v>1183.077</v>
       </c>
-      <c r="H325">
-        <v>139.1925</v>
+      <c r="H325" s="2">
+        <v>173.4076</v>
       </c>
       <c r="I325">
         <v>173.4076</v>
@@ -12887,8 +12920,8 @@
       <c r="G326">
         <v>1183.258</v>
       </c>
-      <c r="H326">
-        <v>139.21530000000001</v>
+      <c r="H326" s="2">
+        <v>172.85890000000001</v>
       </c>
       <c r="I326">
         <v>172.85890000000001</v>
@@ -12925,8 +12958,8 @@
       <c r="G327">
         <v>1225.848</v>
       </c>
-      <c r="H327">
-        <v>139.2329</v>
+      <c r="H327" s="2">
+        <v>172.9034</v>
       </c>
       <c r="I327">
         <v>172.9034</v>
@@ -12963,8 +12996,8 @@
       <c r="G328">
         <v>1199.2080000000001</v>
       </c>
-      <c r="H328">
-        <v>139.24760000000001</v>
+      <c r="H328" s="2">
+        <v>171.5772</v>
       </c>
       <c r="I328">
         <v>171.5772</v>
@@ -13001,8 +13034,8 @@
       <c r="G329">
         <v>1199.73</v>
       </c>
-      <c r="H329">
-        <v>139.26779999999999</v>
+      <c r="H329" s="2">
+        <v>170.05629999999999</v>
       </c>
       <c r="I329">
         <v>170.05629999999999</v>
@@ -13039,8 +13072,8 @@
       <c r="G330">
         <v>1189.404</v>
       </c>
-      <c r="H330">
-        <v>139.2818</v>
+      <c r="H330" s="2">
+        <v>169.31209999999999</v>
       </c>
       <c r="I330">
         <v>169.31209999999999</v>
@@ -13077,8 +13110,8 @@
       <c r="G331">
         <v>1224.7080000000001</v>
       </c>
-      <c r="H331">
-        <v>139.2944</v>
+      <c r="H331" s="2">
+        <v>169.0444</v>
       </c>
       <c r="I331">
         <v>169.0444</v>
@@ -13115,8 +13148,8 @@
       <c r="G332">
         <v>1240.3979999999999</v>
       </c>
-      <c r="H332">
-        <v>139.30879999999999</v>
+      <c r="H332" s="2">
+        <v>167.9699</v>
       </c>
       <c r="I332">
         <v>167.9699</v>
@@ -13153,8 +13186,8 @@
       <c r="G333">
         <v>1243.9069999999999</v>
       </c>
-      <c r="H333">
-        <v>139.32429999999999</v>
+      <c r="H333" s="2">
+        <v>167.15479999999999</v>
       </c>
       <c r="I333">
         <v>167.15479999999999</v>
@@ -13191,8 +13224,8 @@
       <c r="G334">
         <v>1256.7719999999999</v>
       </c>
-      <c r="H334">
-        <v>139.33519999999999</v>
+      <c r="H334" s="2">
+        <v>167.6052</v>
       </c>
       <c r="I334">
         <v>167.6052</v>
@@ -13229,8 +13262,8 @@
       <c r="G335">
         <v>1257.636</v>
       </c>
-      <c r="H335">
-        <v>139.346</v>
+      <c r="H335" s="2">
+        <v>167.62970000000001</v>
       </c>
       <c r="I335">
         <v>167.62970000000001</v>
@@ -13267,8 +13300,8 @@
       <c r="G336">
         <v>1271.502</v>
       </c>
-      <c r="H336">
-        <v>139.36330000000001</v>
+      <c r="H336" s="2">
+        <v>167.58959999999999</v>
       </c>
       <c r="I336">
         <v>167.58959999999999</v>
@@ -13305,8 +13338,8 @@
       <c r="G337">
         <v>1293.2449999999999</v>
       </c>
-      <c r="H337">
-        <v>139.37360000000001</v>
+      <c r="H337" s="2">
+        <v>167.72229999999999</v>
       </c>
       <c r="I337">
         <v>167.72229999999999</v>
@@ -13343,8 +13376,8 @@
       <c r="G338">
         <v>1283.347</v>
       </c>
-      <c r="H338">
-        <v>139.3879</v>
+      <c r="H338" s="2">
+        <v>167.38499999999999</v>
       </c>
       <c r="I338">
         <v>167.38499999999999</v>
@@ -13381,8 +13414,8 @@
       <c r="G339">
         <v>1276.3440000000001</v>
       </c>
-      <c r="H339">
-        <v>139.4136</v>
+      <c r="H339" s="2">
+        <v>166.53270000000001</v>
       </c>
       <c r="I339">
         <v>166.53270000000001</v>
@@ -13419,8 +13452,8 @@
       <c r="G340">
         <v>1310.87</v>
       </c>
-      <c r="H340">
-        <v>139.441</v>
+      <c r="H340" s="2">
+        <v>166.96260000000001</v>
       </c>
       <c r="I340">
         <v>166.96260000000001</v>
@@ -13457,8 +13490,8 @@
       <c r="G341">
         <v>1329.146</v>
       </c>
-      <c r="H341">
-        <v>139.45740000000001</v>
+      <c r="H341" s="2">
+        <v>166.2784</v>
       </c>
       <c r="I341">
         <v>166.2784</v>
@@ -13495,8 +13528,8 @@
       <c r="G342">
         <v>1343.0139999999999</v>
       </c>
-      <c r="H342">
-        <v>139.4794</v>
+      <c r="H342" s="2">
+        <v>166.4658</v>
       </c>
       <c r="I342">
         <v>166.4658</v>
@@ -13533,8 +13566,8 @@
       <c r="G343">
         <v>1319.883</v>
       </c>
-      <c r="H343">
-        <v>139.49440000000001</v>
+      <c r="H343" s="2">
+        <v>166.8057</v>
       </c>
       <c r="I343">
         <v>166.8057</v>
@@ -13571,8 +13604,8 @@
       <c r="G344">
         <v>1321.153</v>
       </c>
-      <c r="H344">
-        <v>139.51</v>
+      <c r="H344" s="2">
+        <v>165.9033</v>
       </c>
       <c r="I344">
         <v>165.9033</v>
@@ -13609,8 +13642,8 @@
       <c r="G345">
         <v>1304.2809999999999</v>
       </c>
-      <c r="H345">
-        <v>139.5256</v>
+      <c r="H345" s="2">
+        <v>166.5318</v>
       </c>
       <c r="I345">
         <v>166.5318</v>
@@ -13647,8 +13680,8 @@
       <c r="G346">
         <v>1279.2049999999999</v>
       </c>
-      <c r="H346">
-        <v>139.5454</v>
+      <c r="H346" s="2">
+        <v>167.38579999999999</v>
       </c>
       <c r="I346">
         <v>167.38579999999999</v>
@@ -13685,8 +13718,8 @@
       <c r="G347">
         <v>1313.8019999999999</v>
       </c>
-      <c r="H347">
-        <v>139.5643</v>
+      <c r="H347" s="2">
+        <v>166.56540000000001</v>
       </c>
       <c r="I347">
         <v>166.56540000000001</v>
@@ -13723,8 +13756,8 @@
       <c r="G348">
         <v>1332.413</v>
       </c>
-      <c r="H348">
-        <v>139.5822</v>
+      <c r="H348" s="2">
+        <v>165.56309999999999</v>
       </c>
       <c r="I348">
         <v>165.56309999999999</v>
@@ -13761,8 +13794,8 @@
       <c r="G349">
         <v>1328.1669999999999</v>
       </c>
-      <c r="H349">
-        <v>139.59790000000001</v>
+      <c r="H349" s="2">
+        <v>165.38</v>
       </c>
       <c r="I349">
         <v>165.38</v>
@@ -13799,8 +13832,8 @@
       <c r="G350">
         <v>1319.6780000000001</v>
       </c>
-      <c r="H350">
-        <v>139.6182</v>
+      <c r="H350" s="2">
+        <v>165.7912</v>
       </c>
       <c r="I350">
         <v>165.7912</v>
@@ -13837,8 +13870,8 @@
       <c r="G351">
         <v>1337.385</v>
       </c>
-      <c r="H351">
-        <v>139.65049999999999</v>
+      <c r="H351" s="2">
+        <v>166.0685</v>
       </c>
       <c r="I351">
         <v>166.0685</v>
@@ -13875,8 +13908,8 @@
       <c r="G352">
         <v>1363.6120000000001</v>
       </c>
-      <c r="H352">
-        <v>139.68780000000001</v>
+      <c r="H352" s="2">
+        <v>166.7311</v>
       </c>
       <c r="I352">
         <v>166.7311</v>
@@ -13913,8 +13946,8 @@
       <c r="G353">
         <v>1340.203</v>
       </c>
-      <c r="H353">
-        <v>139.7199</v>
+      <c r="H353" s="2">
+        <v>167.09960000000001</v>
       </c>
       <c r="I353">
         <v>167.09960000000001</v>
@@ -13951,8 +13984,8 @@
       <c r="G354">
         <v>1337.7739999999999</v>
       </c>
-      <c r="H354">
-        <v>139.74090000000001</v>
+      <c r="H354" s="2">
+        <v>167.845</v>
       </c>
       <c r="I354">
         <v>167.845</v>
@@ -13989,8 +14022,8 @@
       <c r="G355">
         <v>1333.269</v>
       </c>
-      <c r="H355">
-        <v>139.77160000000001</v>
+      <c r="H355" s="2">
+        <v>167.6585</v>
       </c>
       <c r="I355">
         <v>167.6585</v>
@@ -14027,8 +14060,8 @@
       <c r="G356">
         <v>1331.104</v>
       </c>
-      <c r="H356">
-        <v>139.80260000000001</v>
+      <c r="H356" s="2">
+        <v>168.57749999999999</v>
       </c>
       <c r="I356">
         <v>168.57749999999999</v>
@@ -14065,8 +14098,8 @@
       <c r="G357">
         <v>1300.163</v>
       </c>
-      <c r="H357">
-        <v>139.82740000000001</v>
+      <c r="H357" s="2">
+        <v>168.82419999999999</v>
       </c>
       <c r="I357">
         <v>168.82419999999999</v>
@@ -14103,8 +14136,8 @@
       <c r="G358">
         <v>1270.979</v>
       </c>
-      <c r="H358">
-        <v>139.85380000000001</v>
+      <c r="H358" s="2">
+        <v>168.61279999999999</v>
       </c>
       <c r="I358">
         <v>168.61279999999999</v>
@@ -14141,8 +14174,8 @@
       <c r="G359">
         <v>1271.5029999999999</v>
       </c>
-      <c r="H359">
-        <v>139.89189999999999</v>
+      <c r="H359" s="2">
+        <v>168.21639999999999</v>
       </c>
       <c r="I359">
         <v>168.21639999999999</v>
@@ -14179,8 +14212,8 @@
       <c r="G360">
         <v>1268.4449999999999</v>
       </c>
-      <c r="H360">
-        <v>139.92570000000001</v>
+      <c r="H360" s="2">
+        <v>168.0711</v>
       </c>
       <c r="I360">
         <v>168.0711</v>
@@ -14217,8 +14250,8 @@
       <c r="G361">
         <v>1339.6690000000001</v>
       </c>
-      <c r="H361">
-        <v>139.95269999999999</v>
+      <c r="H361" s="2">
+        <v>167.941</v>
       </c>
       <c r="I361">
         <v>167.941</v>
@@ -14255,8 +14288,8 @@
       <c r="G362">
         <v>1343.8040000000001</v>
       </c>
-      <c r="H362">
-        <v>139.97389999999999</v>
+      <c r="H362" s="2">
+        <v>167.55369999999999</v>
       </c>
       <c r="I362">
         <v>167.55369999999999</v>
@@ -14293,8 +14326,8 @@
       <c r="G363">
         <v>1316.144</v>
       </c>
-      <c r="H363">
-        <v>139.99850000000001</v>
+      <c r="H363" s="2">
+        <v>166.4898</v>
       </c>
       <c r="I363">
         <v>166.4898</v>
@@ -14331,8 +14364,8 @@
       <c r="G364">
         <v>1345.0160000000001</v>
       </c>
-      <c r="H364">
-        <v>140.03620000000001</v>
+      <c r="H364" s="2">
+        <v>167.74189999999999</v>
       </c>
       <c r="I364">
         <v>167.74189999999999</v>
@@ -14369,8 +14402,8 @@
       <c r="G365">
         <v>1292.2829999999999</v>
       </c>
-      <c r="H365">
-        <v>140.0624</v>
+      <c r="H365" s="2">
+        <v>167.8716</v>
       </c>
       <c r="I365">
         <v>167.8716</v>
@@ -14407,8 +14440,8 @@
       <c r="G366">
         <v>1199.375</v>
       </c>
-      <c r="H366">
-        <v>140.08760000000001</v>
+      <c r="H366" s="2">
+        <v>168.84030000000001</v>
       </c>
       <c r="I366">
         <v>168.84030000000001</v>
@@ -14445,8 +14478,8 @@
       <c r="G367">
         <v>1178.8119999999999</v>
       </c>
-      <c r="H367">
-        <v>140.1129</v>
+      <c r="H367" s="2">
+        <v>172.39099999999999</v>
       </c>
       <c r="I367">
         <v>172.39099999999999</v>
@@ -14483,8 +14516,8 @@
       <c r="G368">
         <v>1123.5260000000001</v>
       </c>
-      <c r="H368">
-        <v>140.1369</v>
+      <c r="H368" s="2">
+        <v>174.2252</v>
       </c>
       <c r="I368">
         <v>174.2252</v>
@@ -14521,8 +14554,8 @@
       <c r="G369">
         <v>1176.8</v>
       </c>
-      <c r="H369">
-        <v>140.16130000000001</v>
+      <c r="H369" s="2">
+        <v>173.68549999999999</v>
       </c>
       <c r="I369">
         <v>173.68549999999999</v>
@@ -14559,8 +14592,8 @@
       <c r="G370">
         <v>1173.9659999999999</v>
       </c>
-      <c r="H370">
-        <v>140.18539999999999</v>
+      <c r="H370" s="2">
+        <v>173.25640000000001</v>
       </c>
       <c r="I370">
         <v>173.25640000000001</v>
@@ -14597,8 +14630,8 @@
       <c r="G371">
         <v>1154.2339999999999</v>
       </c>
-      <c r="H371">
-        <v>140.20910000000001</v>
+      <c r="H371" s="2">
+        <v>174.4659</v>
       </c>
       <c r="I371">
         <v>174.4659</v>
@@ -14635,8 +14668,8 @@
       <c r="G372">
         <v>1216.0139999999999</v>
       </c>
-      <c r="H372">
-        <v>140.23439999999999</v>
+      <c r="H372" s="2">
+        <v>173.94220000000001</v>
       </c>
       <c r="I372">
         <v>173.94220000000001</v>
@@ -14673,8 +14706,8 @@
       <c r="G373">
         <v>1136.4290000000001</v>
       </c>
-      <c r="H373">
-        <v>140.2638</v>
+      <c r="H373" s="2">
+        <v>174.4169</v>
       </c>
       <c r="I373">
         <v>174.4169</v>
@@ -14711,8 +14744,8 @@
       <c r="G374">
         <v>1131.42</v>
       </c>
-      <c r="H374">
-        <v>140.2927</v>
+      <c r="H374" s="2">
+        <v>174.23670000000001</v>
       </c>
       <c r="I374">
         <v>174.23670000000001</v>
@@ -14749,8 +14782,8 @@
       <c r="G375">
         <v>1155.4639999999999</v>
       </c>
-      <c r="H375">
-        <v>140.3253</v>
+      <c r="H375" s="2">
+        <v>173.45179999999999</v>
       </c>
       <c r="I375">
         <v>173.45179999999999</v>
@@ -14787,8 +14820,8 @@
       <c r="G376">
         <v>1224.577</v>
       </c>
-      <c r="H376">
-        <v>140.3519</v>
+      <c r="H376" s="2">
+        <v>170.92670000000001</v>
       </c>
       <c r="I376">
         <v>170.92670000000001</v>
@@ -14825,8 +14858,8 @@
       <c r="G377">
         <v>1238.25</v>
       </c>
-      <c r="H377">
-        <v>140.37729999999999</v>
+      <c r="H377" s="2">
+        <v>170.55930000000001</v>
       </c>
       <c r="I377">
         <v>170.55930000000001</v>
@@ -14863,8 +14896,8 @@
       <c r="G378">
         <v>1285.086</v>
       </c>
-      <c r="H378">
-        <v>140.40289999999999</v>
+      <c r="H378" s="2">
+        <v>170.50200000000001</v>
       </c>
       <c r="I378">
         <v>170.50200000000001</v>
@@ -14901,8 +14934,8 @@
       <c r="G379">
         <v>1253.2270000000001</v>
       </c>
-      <c r="H379">
-        <v>140.42769999999999</v>
+      <c r="H379" s="2">
+        <v>170.93539999999999</v>
       </c>
       <c r="I379">
         <v>170.93539999999999</v>
@@ -14939,8 +14972,8 @@
       <c r="G380">
         <v>1263.855</v>
       </c>
-      <c r="H380">
-        <v>140.4522</v>
+      <c r="H380" s="2">
+        <v>169.5026</v>
       </c>
       <c r="I380">
         <v>169.5026</v>
@@ -14977,8 +15010,8 @@
       <c r="G381">
         <v>1215.653</v>
       </c>
-      <c r="H381">
-        <v>140.47219999999999</v>
+      <c r="H381" s="2">
+        <v>167.98349999999999</v>
       </c>
       <c r="I381">
         <v>167.98349999999999</v>
@@ -15015,8 +15048,8 @@
       <c r="G382">
         <v>1158.6669999999999</v>
       </c>
-      <c r="H382">
-        <v>140.49180000000001</v>
+      <c r="H382" s="2">
+        <v>164.13130000000001</v>
       </c>
       <c r="I382">
         <v>164.13130000000001</v>
@@ -15053,8 +15086,8 @@
       <c r="G383">
         <v>1244.278</v>
       </c>
-      <c r="H383">
-        <v>140.512</v>
+      <c r="H383" s="2">
+        <v>169.10329999999999</v>
       </c>
       <c r="I383">
         <v>169.10329999999999</v>
@@ -15091,8 +15124,8 @@
       <c r="G384">
         <v>1255.192</v>
       </c>
-      <c r="H384">
-        <v>140.53200000000001</v>
+      <c r="H384" s="2">
+        <v>169.84559999999999</v>
       </c>
       <c r="I384">
         <v>169.84559999999999</v>
@@ -15129,8 +15162,8 @@
       <c r="G385">
         <v>1219.6569999999999</v>
       </c>
-      <c r="H385">
-        <v>140.55179999999999</v>
+      <c r="H385" s="2">
+        <v>172.57159999999999</v>
       </c>
       <c r="I385">
         <v>172.57159999999999</v>
@@ -15167,8 +15200,8 @@
       <c r="G386">
         <v>1265.3330000000001</v>
       </c>
-      <c r="H386">
-        <v>140.5675</v>
+      <c r="H386" s="2">
+        <v>172.86519999999999</v>
       </c>
       <c r="I386">
         <v>172.86519999999999</v>
@@ -15205,8 +15238,8 @@
       <c r="G387">
         <v>1257.605</v>
       </c>
-      <c r="H387">
-        <v>140.5788</v>
+      <c r="H387" s="2">
+        <v>173.33840000000001</v>
       </c>
       <c r="I387">
         <v>173.33840000000001</v>
@@ -15243,8 +15276,8 @@
       <c r="G388">
         <v>1277.807</v>
       </c>
-      <c r="H388">
-        <v>140.5932</v>
+      <c r="H388" s="2">
+        <v>171.2081</v>
       </c>
       <c r="I388">
         <v>171.2081</v>
@@ -15281,8 +15314,8 @@
       <c r="G389">
         <v>1289.0920000000001</v>
       </c>
-      <c r="H389">
-        <v>140.60319999999999</v>
+      <c r="H389" s="2">
+        <v>174.10470000000001</v>
       </c>
       <c r="I389">
         <v>174.10470000000001</v>
@@ -15319,8 +15352,8 @@
       <c r="G390">
         <v>1315.384</v>
       </c>
-      <c r="H390">
-        <v>140.61369999999999</v>
+      <c r="H390" s="2">
+        <v>174.32069999999999</v>
       </c>
       <c r="I390">
         <v>174.32069999999999</v>
@@ -15357,8 +15390,8 @@
       <c r="G391">
         <v>1316.328</v>
       </c>
-      <c r="H391">
-        <v>140.6242</v>
+      <c r="H391" s="2">
+        <v>176.3329</v>
       </c>
       <c r="I391">
         <v>176.3329</v>
@@ -15395,8 +15428,8 @@
       <c r="G392">
         <v>1344.902</v>
       </c>
-      <c r="H392">
-        <v>140.6345</v>
+      <c r="H392" s="2">
+        <v>177.71090000000001</v>
       </c>
       <c r="I392">
         <v>177.71090000000001</v>
@@ -15433,8 +15466,8 @@
       <c r="G393">
         <v>1342.6410000000001</v>
       </c>
-      <c r="H393">
-        <v>140.6446</v>
+      <c r="H393" s="2">
+        <v>177.58250000000001</v>
       </c>
       <c r="I393">
         <v>177.58250000000001</v>
@@ -15471,8 +15504,8 @@
       <c r="G394">
         <v>1361.2270000000001</v>
       </c>
-      <c r="H394">
-        <v>140.65459999999999</v>
+      <c r="H394" s="2">
+        <v>177.6044</v>
       </c>
       <c r="I394">
         <v>177.6044</v>
@@ -15509,8 +15542,8 @@
       <c r="G395">
         <v>1365.7429999999999</v>
       </c>
-      <c r="H395">
-        <v>140.6645</v>
+      <c r="H395" s="2">
+        <v>178.4496</v>
       </c>
       <c r="I395">
         <v>178.4496</v>
@@ -15547,8 +15580,8 @@
       <c r="G396">
         <v>1369.6279999999999</v>
       </c>
-      <c r="H396">
-        <v>140.6746</v>
+      <c r="H396" s="2">
+        <v>180.95249999999999</v>
       </c>
       <c r="I396">
         <v>180.95249999999999</v>
@@ -15585,8 +15618,8 @@
       <c r="G397">
         <v>1370.866</v>
       </c>
-      <c r="H397">
-        <v>140.68430000000001</v>
+      <c r="H397" s="2">
+        <v>180.77889999999999</v>
       </c>
       <c r="I397">
         <v>180.77889999999999</v>
@@ -15623,8 +15656,8 @@
       <c r="G398">
         <v>1404.172</v>
       </c>
-      <c r="H398">
-        <v>140.69409999999999</v>
+      <c r="H398" s="2">
+        <v>179.21619999999999</v>
       </c>
       <c r="I398">
         <v>179.21619999999999</v>
@@ -15661,8 +15694,8 @@
       <c r="G399">
         <v>1397.1079999999999</v>
       </c>
-      <c r="H399">
-        <v>140.7039</v>
+      <c r="H399" s="2">
+        <v>179.41210000000001</v>
       </c>
       <c r="I399">
         <v>179.41210000000001</v>
@@ -15699,8 +15732,8 @@
       <c r="G400">
         <v>1408.4680000000001</v>
       </c>
-      <c r="H400">
-        <v>140.71360000000001</v>
+      <c r="H400" s="2">
+        <v>179.7655</v>
       </c>
       <c r="I400">
         <v>179.7655</v>
@@ -15737,8 +15770,8 @@
       <c r="G401">
         <v>1398.0840000000001</v>
       </c>
-      <c r="H401">
-        <v>140.7236</v>
+      <c r="H401" s="2">
+        <v>178.5343</v>
       </c>
       <c r="I401">
         <v>178.5343</v>
@@ -15775,8 +15808,8 @@
       <c r="G402">
         <v>1370.261</v>
       </c>
-      <c r="H402">
-        <v>140.73310000000001</v>
+      <c r="H402" s="2">
+        <v>178.5291</v>
       </c>
       <c r="I402">
         <v>178.5291</v>
@@ -15813,8 +15846,8 @@
       <c r="G403">
         <v>1378.5329999999999</v>
       </c>
-      <c r="H403">
-        <v>140.74260000000001</v>
+      <c r="H403" s="2">
+        <v>178.01509999999999</v>
       </c>
       <c r="I403">
         <v>178.01509999999999</v>
@@ -15851,8 +15884,8 @@
       <c r="G404">
         <v>1403.3579999999999</v>
       </c>
-      <c r="H404">
-        <v>140.75190000000001</v>
+      <c r="H404" s="2">
+        <v>178.7567</v>
       </c>
       <c r="I404">
         <v>178.7567</v>
@@ -15889,8 +15922,8 @@
       <c r="G405">
         <v>1369.098</v>
       </c>
-      <c r="H405">
-        <v>140.76140000000001</v>
+      <c r="H405" s="2">
+        <v>180.2783</v>
       </c>
       <c r="I405">
         <v>180.2783</v>
@@ -15927,8 +15960,8 @@
       <c r="G406">
         <v>1353.3920000000001</v>
       </c>
-      <c r="H406">
-        <v>140.77080000000001</v>
+      <c r="H406" s="2">
+        <v>180.5754</v>
       </c>
       <c r="I406">
         <v>180.5754</v>
@@ -15965,8 +15998,8 @@
       <c r="G407">
         <v>1295.22</v>
       </c>
-      <c r="H407">
-        <v>140.78</v>
+      <c r="H407" s="2">
+        <v>179.72669999999999</v>
       </c>
       <c r="I407">
         <v>179.72669999999999</v>
@@ -16003,8 +16036,8 @@
       <c r="G408">
         <v>1317.8209999999999</v>
       </c>
-      <c r="H408">
-        <v>140.78919999999999</v>
+      <c r="H408" s="2">
+        <v>181.42410000000001</v>
       </c>
       <c r="I408">
         <v>181.42410000000001</v>
@@ -16041,8 +16074,8 @@
       <c r="G409">
         <v>1278.0450000000001</v>
       </c>
-      <c r="H409">
-        <v>140.79820000000001</v>
+      <c r="H409" s="2">
+        <v>182.63069999999999</v>
       </c>
       <c r="I409">
         <v>182.63069999999999</v>
@@ -16079,8 +16112,8 @@
       <c r="G410">
         <v>1325.6559999999999</v>
       </c>
-      <c r="H410">
-        <v>140.80719999999999</v>
+      <c r="H410" s="2">
+        <v>181.5266</v>
       </c>
       <c r="I410">
         <v>181.5266</v>
@@ -16117,8 +16150,8 @@
       <c r="G411">
         <v>1342.835</v>
       </c>
-      <c r="H411">
-        <v>140.81630000000001</v>
+      <c r="H411" s="2">
+        <v>179.66569999999999</v>
       </c>
       <c r="I411">
         <v>179.66569999999999</v>
@@ -16155,8 +16188,8 @@
       <c r="G412">
         <v>1335.02</v>
       </c>
-      <c r="H412">
-        <v>140.8253</v>
+      <c r="H412" s="2">
+        <v>180.17150000000001</v>
       </c>
       <c r="I412">
         <v>180.17150000000001</v>
@@ -16193,8 +16226,8 @@
       <c r="G413">
         <v>1362.1590000000001</v>
       </c>
-      <c r="H413">
-        <v>140.83430000000001</v>
+      <c r="H413" s="2">
+        <v>180.1525</v>
       </c>
       <c r="I413">
         <v>180.1525</v>
@@ -16231,8 +16264,8 @@
       <c r="G414">
         <v>1354.6759999999999</v>
       </c>
-      <c r="H414">
-        <v>140.84399999999999</v>
+      <c r="H414" s="2">
+        <v>181.53030000000001</v>
       </c>
       <c r="I414">
         <v>181.53030000000001</v>
@@ -16269,8 +16302,8 @@
       <c r="G415">
         <v>1356.7840000000001</v>
       </c>
-      <c r="H415">
-        <v>140.85140000000001</v>
+      <c r="H415" s="2">
+        <v>182.72219999999999</v>
       </c>
       <c r="I415">
         <v>182.72219999999999</v>
@@ -16307,8 +16340,8 @@
       <c r="G416">
         <v>1362.66</v>
       </c>
-      <c r="H416">
-        <v>140.8546</v>
+      <c r="H416" s="2">
+        <v>182.74340000000001</v>
       </c>
       <c r="I416">
         <v>182.74340000000001</v>
@@ -16345,8 +16378,8 @@
       <c r="G417">
         <v>1385.97</v>
       </c>
-      <c r="H417">
-        <v>140.8578</v>
+      <c r="H417" s="2">
+        <v>182.30529999999999</v>
       </c>
       <c r="I417">
         <v>182.30529999999999</v>
@@ -16383,8 +16416,8 @@
       <c r="G418">
         <v>1390.989</v>
       </c>
-      <c r="H418">
-        <v>140.86080000000001</v>
+      <c r="H418" s="2">
+        <v>183.34350000000001</v>
       </c>
       <c r="I418">
         <v>183.34350000000001</v>
@@ -16421,8 +16454,8 @@
       <c r="G419">
         <v>1405.8679999999999</v>
       </c>
-      <c r="H419">
-        <v>140.8639</v>
+      <c r="H419" s="2">
+        <v>183.87520000000001</v>
       </c>
       <c r="I419">
         <v>183.87520000000001</v>
@@ -16459,8 +16492,8 @@
       <c r="G420">
         <v>1418.163</v>
       </c>
-      <c r="H420">
-        <v>140.86699999999999</v>
+      <c r="H420" s="2">
+        <v>183.9639</v>
       </c>
       <c r="I420">
         <v>183.9639</v>
@@ -16497,8 +16530,8 @@
       <c r="G421">
         <v>1411.127</v>
       </c>
-      <c r="H421">
-        <v>140.8699</v>
+      <c r="H421" s="2">
+        <v>184.95580000000001</v>
       </c>
       <c r="I421">
         <v>184.95580000000001</v>
@@ -16535,8 +16568,8 @@
       <c r="G422">
         <v>1406.576</v>
       </c>
-      <c r="H422">
-        <v>140.87289999999999</v>
+      <c r="H422" s="2">
+        <v>184.3895</v>
       </c>
       <c r="I422">
         <v>184.3895</v>
@@ -16573,8 +16606,8 @@
       <c r="G423">
         <v>1437.9169999999999</v>
       </c>
-      <c r="H423">
-        <v>140.8758</v>
+      <c r="H423" s="2">
+        <v>186.30410000000001</v>
       </c>
       <c r="I423">
         <v>186.30410000000001</v>
@@ -16611,8 +16644,8 @@
       <c r="G424">
         <v>1465.7739999999999</v>
       </c>
-      <c r="H424">
-        <v>140.87860000000001</v>
+      <c r="H424" s="2">
+        <v>185.55840000000001</v>
       </c>
       <c r="I424">
         <v>185.55840000000001</v>
@@ -16649,8 +16682,8 @@
       <c r="G425">
         <v>1460.1510000000001</v>
       </c>
-      <c r="H425">
-        <v>140.88120000000001</v>
+      <c r="H425" s="2">
+        <v>186.15649999999999</v>
       </c>
       <c r="I425">
         <v>186.15649999999999</v>
@@ -16687,8 +16720,8 @@
       <c r="G426">
         <v>1440.67</v>
       </c>
-      <c r="H426">
-        <v>140.88380000000001</v>
+      <c r="H426" s="2">
+        <v>186.74529999999999</v>
       </c>
       <c r="I426">
         <v>186.74529999999999</v>
@@ -16725,8 +16758,8 @@
       <c r="G427">
         <v>1460.93</v>
       </c>
-      <c r="H427">
-        <v>140.88650000000001</v>
+      <c r="H427" s="2">
+        <v>187.14570000000001</v>
       </c>
       <c r="I427">
         <v>187.14570000000001</v>
@@ -16763,8 +16796,8 @@
       <c r="G428">
         <v>1428.59</v>
       </c>
-      <c r="H428">
-        <v>140.88900000000001</v>
+      <c r="H428" s="2">
+        <v>188.1952</v>
       </c>
       <c r="I428">
         <v>188.1952</v>
@@ -16801,8 +16834,8 @@
       <c r="G429">
         <v>1433.19</v>
       </c>
-      <c r="H429">
-        <v>140.89160000000001</v>
+      <c r="H429" s="2">
+        <v>188.24760000000001</v>
       </c>
       <c r="I429">
         <v>188.24760000000001</v>
@@ -16839,8 +16872,8 @@
       <c r="G430">
         <v>1411.94</v>
       </c>
-      <c r="H430">
-        <v>140.89410000000001</v>
+      <c r="H430" s="2">
+        <v>187.80529999999999</v>
       </c>
       <c r="I430">
         <v>187.80529999999999</v>
@@ -16877,8 +16910,8 @@
       <c r="G431">
         <v>1414.2</v>
       </c>
-      <c r="H431">
-        <v>140.8964</v>
+      <c r="H431" s="2">
+        <v>188.3458</v>
       </c>
       <c r="I431">
         <v>188.3458</v>
@@ -16915,8 +16948,8 @@
       <c r="G432">
         <v>1379.85</v>
       </c>
-      <c r="H432">
-        <v>140.8989</v>
+      <c r="H432" s="2">
+        <v>189.04249999999999</v>
       </c>
       <c r="I432">
         <v>189.04249999999999</v>
@@ -16953,8 +16986,8 @@
       <c r="G433">
         <v>1359.88</v>
       </c>
-      <c r="H433">
-        <v>140.90100000000001</v>
+      <c r="H433" s="2">
+        <v>189.2698</v>
       </c>
       <c r="I433">
         <v>189.2698</v>
@@ -16991,8 +17024,8 @@
       <c r="G434">
         <v>1409.15</v>
       </c>
-      <c r="H434">
-        <v>140.90299999999999</v>
+      <c r="H434" s="2">
+        <v>189.1728</v>
       </c>
       <c r="I434">
         <v>189.1728</v>
@@ -17029,8 +17062,8 @@
       <c r="G435">
         <v>1416.18</v>
       </c>
-      <c r="H435">
-        <v>140.905</v>
+      <c r="H435" s="2">
+        <v>190.86340000000001</v>
       </c>
       <c r="I435">
         <v>190.86340000000001</v>
@@ -17067,8 +17100,8 @@
       <c r="G436">
         <v>1418.07</v>
       </c>
-      <c r="H436">
-        <v>140.90710000000001</v>
+      <c r="H436" s="2">
+        <v>191.23939999999999</v>
       </c>
       <c r="I436">
         <v>191.23939999999999</v>
@@ -17105,8 +17138,8 @@
       <c r="G437">
         <v>1413.58</v>
       </c>
-      <c r="H437">
-        <v>140.90899999999999</v>
+      <c r="H437" s="2">
+        <v>191.4134</v>
       </c>
       <c r="I437">
         <v>191.4134</v>
@@ -17143,8 +17176,8 @@
       <c r="G438">
         <v>1430.15</v>
       </c>
-      <c r="H438">
-        <v>140.911</v>
+      <c r="H438" s="2">
+        <v>192.07830000000001</v>
       </c>
       <c r="I438">
         <v>192.07830000000001</v>
@@ -17181,8 +17214,8 @@
       <c r="G439">
         <v>1402.43</v>
       </c>
-      <c r="H439">
-        <v>140.9127</v>
+      <c r="H439" s="2">
+        <v>192.29570000000001</v>
       </c>
       <c r="I439">
         <v>192.29570000000001</v>
@@ -17219,8 +17252,8 @@
       <c r="G440">
         <v>1466.47</v>
       </c>
-      <c r="H440">
-        <v>140.9151</v>
+      <c r="H440" s="2">
+        <v>191.40880000000001</v>
       </c>
       <c r="I440">
         <v>191.40880000000001</v>
@@ -17257,8 +17290,8 @@
       <c r="G441">
         <v>1472.05</v>
       </c>
-      <c r="H441">
-        <v>140.917</v>
+      <c r="H441" s="2">
+        <v>191.94200000000001</v>
       </c>
       <c r="I441">
         <v>191.94200000000001</v>
@@ -17295,8 +17328,8 @@
       <c r="G442">
         <v>1485.98</v>
       </c>
-      <c r="H442">
-        <v>140.9188</v>
+      <c r="H442" s="2">
+        <v>192.18170000000001</v>
       </c>
       <c r="I442">
         <v>192.18170000000001</v>
@@ -17333,8 +17366,8 @@
       <c r="G443">
         <v>1502.96</v>
       </c>
-      <c r="H443">
-        <v>140.92070000000001</v>
+      <c r="H443" s="2">
+        <v>191.66990000000001</v>
       </c>
       <c r="I443">
         <v>191.66990000000001</v>
@@ -17371,8 +17404,8 @@
       <c r="G444">
         <v>1513.17</v>
       </c>
-      <c r="H444">
-        <v>140.92269999999999</v>
+      <c r="H444" s="2">
+        <v>191.29220000000001</v>
       </c>
       <c r="I444">
         <v>191.29220000000001</v>
@@ -17409,8 +17442,8 @@
       <c r="G445">
         <v>1517.93</v>
       </c>
-      <c r="H445">
-        <v>140.9248</v>
+      <c r="H445" s="2">
+        <v>190.96170000000001</v>
       </c>
       <c r="I445">
         <v>190.96170000000001</v>
@@ -17447,8 +17480,8 @@
       <c r="G446">
         <v>1519.79</v>
       </c>
-      <c r="H446">
-        <v>140.92670000000001</v>
+      <c r="H446" s="2">
+        <v>191.23169999999999</v>
       </c>
       <c r="I446">
         <v>191.23169999999999</v>
@@ -17485,8 +17518,8 @@
       <c r="G447">
         <v>1515.6</v>
       </c>
-      <c r="H447">
-        <v>140.92840000000001</v>
+      <c r="H447" s="2">
+        <v>191.54230000000001</v>
       </c>
       <c r="I447">
         <v>191.54230000000001</v>
@@ -17523,8 +17556,8 @@
       <c r="G448">
         <v>1518.2</v>
       </c>
-      <c r="H448">
-        <v>140.93020000000001</v>
+      <c r="H448" s="2">
+        <v>192.05369999999999</v>
       </c>
       <c r="I448">
         <v>192.05369999999999</v>
@@ -17561,8 +17594,8 @@
       <c r="G449">
         <v>1551.18</v>
       </c>
-      <c r="H449">
-        <v>140.93190000000001</v>
+      <c r="H449" s="2">
+        <v>192.2953</v>
       </c>
       <c r="I449">
         <v>192.2953</v>
@@ -17599,8 +17632,8 @@
       <c r="G450">
         <v>1560.7</v>
       </c>
-      <c r="H450">
-        <v>140.93360000000001</v>
+      <c r="H450" s="2">
+        <v>192.51339999999999</v>
       </c>
       <c r="I450">
         <v>192.51339999999999</v>
@@ -17637,8 +17670,8 @@
       <c r="G451">
         <v>1556.89</v>
       </c>
-      <c r="H451">
-        <v>140.93549999999999</v>
+      <c r="H451" s="2">
+        <v>193.39449999999999</v>
       </c>
       <c r="I451">
         <v>193.39449999999999</v>
@@ -17675,8 +17708,8 @@
       <c r="G452">
         <v>1569.19</v>
       </c>
-      <c r="H452">
-        <v>140.9374</v>
+      <c r="H452" s="2">
+        <v>193.00389999999999</v>
       </c>
       <c r="I452">
         <v>193.00389999999999</v>
@@ -17713,8 +17746,8 @@
       <c r="G453">
         <v>1553.28</v>
       </c>
-      <c r="H453">
-        <v>140.94</v>
+      <c r="H453" s="2">
+        <v>195.40700000000001</v>
       </c>
       <c r="I453">
         <v>195.40700000000001</v>
@@ -17751,8 +17784,8 @@
       <c r="G454">
         <v>1588.85</v>
       </c>
-      <c r="H454">
-        <v>140.94220000000001</v>
+      <c r="H454" s="2">
+        <v>195.17060000000001</v>
       </c>
       <c r="I454">
         <v>195.17060000000001</v>
@@ -17789,8 +17822,8 @@
       <c r="G455">
         <v>1555.25</v>
       </c>
-      <c r="H455">
-        <v>140.9444</v>
+      <c r="H455" s="2">
+        <v>195.7055</v>
       </c>
       <c r="I455">
         <v>195.7055</v>
@@ -17827,8 +17860,8 @@
       <c r="G456">
         <v>1582.24</v>
       </c>
-      <c r="H456">
-        <v>140.94659999999999</v>
+      <c r="H456" s="2">
+        <v>197.04040000000001</v>
       </c>
       <c r="I456">
         <v>197.04040000000001</v>
@@ -17865,8 +17898,8 @@
       <c r="G457">
         <v>1614.42</v>
       </c>
-      <c r="H457">
-        <v>140.94900000000001</v>
+      <c r="H457" s="2">
+        <v>198.2088</v>
       </c>
       <c r="I457">
         <v>198.2088</v>
@@ -17903,8 +17936,8 @@
       <c r="G458">
         <v>1633.7</v>
       </c>
-      <c r="H458">
-        <v>140.9511</v>
+      <c r="H458" s="2">
+        <v>196.9744</v>
       </c>
       <c r="I458">
         <v>196.9744</v>
@@ -17941,8 +17974,8 @@
       <c r="G459">
         <v>1667.47</v>
       </c>
-      <c r="H459">
-        <v>140.95320000000001</v>
+      <c r="H459" s="2">
+        <v>197.60849999999999</v>
       </c>
       <c r="I459">
         <v>197.60849999999999</v>
@@ -17979,8 +18012,8 @@
       <c r="G460">
         <v>1649.6</v>
       </c>
-      <c r="H460">
-        <v>140.95519999999999</v>
+      <c r="H460" s="2">
+        <v>196.0197</v>
       </c>
       <c r="I460">
         <v>196.0197</v>
@@ -18017,8 +18050,8 @@
       <c r="G461">
         <v>1630.74</v>
       </c>
-      <c r="H461">
-        <v>140.95740000000001</v>
+      <c r="H461" s="2">
+        <v>195.42509999999999</v>
       </c>
       <c r="I461">
         <v>195.42509999999999</v>
@@ -18055,8 +18088,8 @@
       <c r="G462">
         <v>1643.38</v>
       </c>
-      <c r="H462">
-        <v>140.96</v>
+      <c r="H462" s="2">
+        <v>194.59989999999999</v>
       </c>
       <c r="I462">
         <v>194.59989999999999</v>
@@ -18093,8 +18126,8 @@
       <c r="G463">
         <v>1626.73</v>
       </c>
-      <c r="H463">
-        <v>140.96209999999999</v>
+      <c r="H463" s="2">
+        <v>194.58199999999999</v>
       </c>
       <c r="I463">
         <v>194.58199999999999</v>
@@ -18131,8 +18164,8 @@
       <c r="G464">
         <v>1592.43</v>
       </c>
-      <c r="H464">
-        <v>140.96420000000001</v>
+      <c r="H464" s="2">
+        <v>192.02099999999999</v>
       </c>
       <c r="I464">
         <v>192.02099999999999</v>
@@ -18169,8 +18202,8 @@
       <c r="G465">
         <v>1606.28</v>
       </c>
-      <c r="H465">
-        <v>140.9665</v>
+      <c r="H465" s="2">
+        <v>192.4452</v>
       </c>
       <c r="I465">
         <v>192.4452</v>
@@ -18207,8 +18240,8 @@
       <c r="G466">
         <v>1631.89</v>
       </c>
-      <c r="H466">
-        <v>140.97030000000001</v>
+      <c r="H466" s="2">
+        <v>193.3272</v>
       </c>
       <c r="I466">
         <v>193.3272</v>
@@ -18245,8 +18278,8 @@
       <c r="G467">
         <v>1680.19</v>
       </c>
-      <c r="H467">
-        <v>140.9726</v>
+      <c r="H467" s="2">
+        <v>193.81290000000001</v>
       </c>
       <c r="I467">
         <v>193.81290000000001</v>
@@ -18283,8 +18316,8 @@
       <c r="G468">
         <v>1692.09</v>
       </c>
-      <c r="H468">
-        <v>140.97499999999999</v>
+      <c r="H468" s="2">
+        <v>194.27420000000001</v>
       </c>
       <c r="I468">
         <v>194.27420000000001</v>
@@ -18321,8 +18354,8 @@
       <c r="G469">
         <v>1691.65</v>
       </c>
-      <c r="H469">
-        <v>140.9778</v>
+      <c r="H469" s="2">
+        <v>193.756</v>
       </c>
       <c r="I469">
         <v>193.756</v>
@@ -18359,8 +18392,8 @@
       <c r="G470">
         <v>1709.67</v>
       </c>
-      <c r="H470">
-        <v>140.98060000000001</v>
+      <c r="H470" s="2">
+        <v>194.4913</v>
       </c>
       <c r="I470">
         <v>194.4913</v>
@@ -18397,8 +18430,8 @@
       <c r="G471">
         <v>1691.42</v>
       </c>
-      <c r="H471">
-        <v>140.9829</v>
+      <c r="H471" s="2">
+        <v>194.63919999999999</v>
       </c>
       <c r="I471">
         <v>194.63919999999999</v>
@@ -18435,8 +18468,8 @@
       <c r="G472">
         <v>1655.83</v>
       </c>
-      <c r="H472">
-        <v>140.98509999999999</v>
+      <c r="H472" s="2">
+        <v>193.62260000000001</v>
       </c>
       <c r="I472">
         <v>193.62260000000001</v>
@@ -18473,8 +18506,8 @@
       <c r="G473">
         <v>1663.5</v>
       </c>
-      <c r="H473">
-        <v>140.9872</v>
+      <c r="H473" s="2">
+        <v>192.70830000000001</v>
       </c>
       <c r="I473">
         <v>192.70830000000001</v>
@@ -18511,8 +18544,8 @@
       <c r="G474">
         <v>1632.97</v>
       </c>
-      <c r="H474">
-        <v>140.98939999999999</v>
+      <c r="H474" s="2">
+        <v>192.83539999999999</v>
       </c>
       <c r="I474">
         <v>192.83539999999999</v>
@@ -18549,8 +18582,8 @@
       <c r="G475">
         <v>1655.17</v>
       </c>
-      <c r="H475">
-        <v>140.99180000000001</v>
+      <c r="H475" s="2">
+        <v>192.18979999999999</v>
       </c>
       <c r="I475">
         <v>192.18979999999999</v>
@@ -18587,8 +18620,8 @@
       <c r="G476">
         <v>1687.99</v>
       </c>
-      <c r="H476">
-        <v>140.99379999999999</v>
+      <c r="H476" s="2">
+        <v>192.2176</v>
       </c>
       <c r="I476">
         <v>192.2176</v>
@@ -18625,8 +18658,8 @@
       <c r="G477">
         <v>1709.91</v>
       </c>
-      <c r="H477">
-        <v>140.9958</v>
+      <c r="H477" s="2">
+        <v>193.35210000000001</v>
       </c>
       <c r="I477">
         <v>193.35210000000001</v>
@@ -18663,8 +18696,8 @@
       <c r="G478">
         <v>1691.75</v>
       </c>
-      <c r="H478">
-        <v>140.99799999999999</v>
+      <c r="H478" s="2">
+        <v>194.10220000000001</v>
       </c>
       <c r="I478">
         <v>194.10220000000001</v>
@@ -18701,8 +18734,8 @@
       <c r="G479">
         <v>1690.5</v>
       </c>
-      <c r="H479">
-        <v>141.00059999999999</v>
+      <c r="H479" s="2">
+        <v>194.58269999999999</v>
       </c>
       <c r="I479">
         <v>194.58269999999999</v>
@@ -18739,8 +18772,8 @@
       <c r="G480">
         <v>1703.2</v>
       </c>
-      <c r="H480">
-        <v>141.00290000000001</v>
+      <c r="H480" s="2">
+        <v>194.6781</v>
       </c>
       <c r="I480">
         <v>194.6781</v>
@@ -18777,8 +18810,8 @@
       <c r="G481">
         <v>1744.5</v>
       </c>
-      <c r="H481">
-        <v>141.0051</v>
+      <c r="H481" s="2">
+        <v>195.2123</v>
       </c>
       <c r="I481">
         <v>195.2123</v>
@@ -18815,8 +18848,8 @@
       <c r="G482">
         <v>1759.77</v>
       </c>
-      <c r="H482">
-        <v>141.0077</v>
+      <c r="H482" s="2">
+        <v>196.03210000000001</v>
       </c>
       <c r="I482">
         <v>196.03210000000001</v>
@@ -18853,8 +18886,8 @@
       <c r="G483">
         <v>1761.64</v>
       </c>
-      <c r="H483">
-        <v>141.01089999999999</v>
+      <c r="H483" s="2">
+        <v>197.1705</v>
       </c>
       <c r="I483">
         <v>197.1705</v>
@@ -18891,8 +18924,8 @@
       <c r="G484">
         <v>1770.61</v>
       </c>
-      <c r="H484">
-        <v>141.01329999999999</v>
+      <c r="H484" s="2">
+        <v>196.7122</v>
       </c>
       <c r="I484">
         <v>196.7122</v>
@@ -18929,8 +18962,8 @@
       <c r="G485">
         <v>1798.18</v>
       </c>
-      <c r="H485">
-        <v>141.0154</v>
+      <c r="H485" s="2">
+        <v>197.24019999999999</v>
       </c>
       <c r="I485">
         <v>197.24019999999999</v>
@@ -18967,8 +19000,8 @@
       <c r="G486">
         <v>1804.76</v>
       </c>
-      <c r="H486">
-        <v>141.01769999999999</v>
+      <c r="H486" s="2">
+        <v>197.28700000000001</v>
       </c>
       <c r="I486">
         <v>197.28700000000001</v>
@@ -19005,8 +19038,8 @@
       <c r="G487">
         <v>1805.81</v>
       </c>
-      <c r="H487">
-        <v>141.02109999999999</v>
+      <c r="H487" s="2">
+        <v>197.6934</v>
       </c>
       <c r="I487">
         <v>197.6934</v>
@@ -19043,8 +19076,8 @@
       <c r="G488">
         <v>1805.09</v>
       </c>
-      <c r="H488">
-        <v>141.02629999999999</v>
+      <c r="H488" s="2">
+        <v>196.58799999999999</v>
       </c>
       <c r="I488">
         <v>196.58799999999999</v>
@@ -19081,8 +19114,8 @@
       <c r="G489">
         <v>1775.32</v>
       </c>
-      <c r="H489">
-        <v>141.0299</v>
+      <c r="H489" s="2">
+        <v>197.1129</v>
       </c>
       <c r="I489">
         <v>197.1129</v>
@@ -19119,8 +19152,8 @@
       <c r="G490">
         <v>1818.32</v>
       </c>
-      <c r="H490">
-        <v>141.03450000000001</v>
+      <c r="H490" s="2">
+        <v>196.95689999999999</v>
       </c>
       <c r="I490">
         <v>196.95689999999999</v>
@@ -19157,8 +19190,8 @@
       <c r="G491">
         <v>1841.4</v>
       </c>
-      <c r="H491">
-        <v>141.03899999999999</v>
+      <c r="H491" s="2">
+        <v>196.06319999999999</v>
       </c>
       <c r="I491">
         <v>196.06319999999999</v>
@@ -19195,8 +19228,8 @@
       <c r="G492">
         <v>1831.37</v>
       </c>
-      <c r="H492">
-        <v>141.0462</v>
+      <c r="H492" s="2">
+        <v>197.24100000000001</v>
       </c>
       <c r="I492">
         <v>197.24100000000001</v>
@@ -19233,8 +19266,8 @@
       <c r="G493">
         <v>1842.37</v>
       </c>
-      <c r="H493">
-        <v>141.04939999999999</v>
+      <c r="H493" s="2">
+        <v>197.92779999999999</v>
       </c>
       <c r="I493">
         <v>197.92779999999999</v>
@@ -19271,8 +19304,8 @@
       <c r="G494">
         <v>1838.7</v>
       </c>
-      <c r="H494">
-        <v>141.05439999999999</v>
+      <c r="H494" s="2">
+        <v>199.10079999999999</v>
       </c>
       <c r="I494">
         <v>199.10079999999999</v>
@@ -19309,8 +19342,8 @@
       <c r="G495">
         <v>1790.29</v>
       </c>
-      <c r="H495">
-        <v>141.06299999999999</v>
+      <c r="H495" s="2">
+        <v>199.39879999999999</v>
       </c>
       <c r="I495">
         <v>199.39879999999999</v>
@@ -19347,8 +19380,8 @@
       <c r="G496">
         <v>1782.59</v>
       </c>
-      <c r="H496">
-        <v>141.06790000000001</v>
+      <c r="H496" s="2">
+        <v>200.90260000000001</v>
       </c>
       <c r="I496">
         <v>200.90260000000001</v>
@@ -19385,8 +19418,8 @@
       <c r="G497">
         <v>1797.02</v>
       </c>
-      <c r="H497">
-        <v>141.0727</v>
+      <c r="H497" s="2">
+        <v>201.15350000000001</v>
       </c>
       <c r="I497">
         <v>201.15350000000001</v>
@@ -19423,8 +19456,8 @@
       <c r="G498">
         <v>1838.63</v>
       </c>
-      <c r="H498">
-        <v>141.07650000000001</v>
+      <c r="H498" s="2">
+        <v>201.0111</v>
       </c>
       <c r="I498">
         <v>201.0111</v>
@@ -19461,8 +19494,8 @@
       <c r="G499">
         <v>1836.25</v>
       </c>
-      <c r="H499">
-        <v>141.08070000000001</v>
+      <c r="H499" s="2">
+        <v>201.404</v>
       </c>
       <c r="I499">
         <v>201.404</v>
@@ -19499,8 +19532,8 @@
       <c r="G500">
         <v>1859.45</v>
       </c>
-      <c r="H500">
-        <v>141.08529999999999</v>
+      <c r="H500" s="2">
+        <v>202.23310000000001</v>
       </c>
       <c r="I500">
         <v>202.23310000000001</v>
@@ -19537,8 +19570,8 @@
       <c r="G501">
         <v>1878.04</v>
       </c>
-      <c r="H501">
-        <v>141.0909</v>
+      <c r="H501" s="2">
+        <v>202.54669999999999</v>
       </c>
       <c r="I501">
         <v>202.54669999999999</v>
@@ -19575,8 +19608,8 @@
       <c r="G502">
         <v>1841.13</v>
       </c>
-      <c r="H502">
-        <v>141.09540000000001</v>
+      <c r="H502" s="2">
+        <v>203.22389999999999</v>
       </c>
       <c r="I502">
         <v>203.22389999999999</v>
@@ -19613,8 +19646,8 @@
       <c r="G503">
         <v>1866.52</v>
       </c>
-      <c r="H503">
-        <v>141.09979999999999</v>
+      <c r="H503" s="2">
+        <v>202.9145</v>
       </c>
       <c r="I503">
         <v>202.9145</v>
@@ -19651,8 +19684,8 @@
       <c r="G504">
         <v>1857.62</v>
       </c>
-      <c r="H504">
-        <v>141.1045</v>
+      <c r="H504" s="2">
+        <v>204.1232</v>
       </c>
       <c r="I504">
         <v>204.1232</v>
@@ -19689,8 +19722,8 @@
       <c r="G505">
         <v>1865.09</v>
       </c>
-      <c r="H505">
-        <v>141.11199999999999</v>
+      <c r="H505" s="2">
+        <v>204.7612</v>
       </c>
       <c r="I505">
         <v>204.7612</v>
@@ -19727,8 +19760,8 @@
       <c r="G506">
         <v>1815.69</v>
       </c>
-      <c r="H506">
-        <v>141.11779999999999</v>
+      <c r="H506" s="2">
+        <v>204.83330000000001</v>
       </c>
       <c r="I506">
         <v>204.83330000000001</v>
@@ -19765,8 +19798,8 @@
       <c r="G507">
         <v>1864.85</v>
       </c>
-      <c r="H507">
-        <v>141.12360000000001</v>
+      <c r="H507" s="2">
+        <v>205.42930000000001</v>
       </c>
       <c r="I507">
         <v>205.42930000000001</v>
@@ -19803,8 +19836,8 @@
       <c r="G508">
         <v>1863.4</v>
       </c>
-      <c r="H508">
-        <v>141.13</v>
+      <c r="H508" s="2">
+        <v>205.7704</v>
       </c>
       <c r="I508">
         <v>205.7704</v>
@@ -19841,8 +19874,8 @@
       <c r="G509">
         <v>1881.14</v>
       </c>
-      <c r="H509">
-        <v>141.1404</v>
+      <c r="H509" s="2">
+        <v>206.3938</v>
       </c>
       <c r="I509">
         <v>206.3938</v>
@@ -19879,8 +19912,8 @@
       <c r="G510">
         <v>1878.48</v>
       </c>
-      <c r="H510">
-        <v>141.14519999999999</v>
+      <c r="H510" s="2">
+        <v>206.85810000000001</v>
       </c>
       <c r="I510">
         <v>206.85810000000001</v>
@@ -19917,8 +19950,8 @@
       <c r="G511">
         <v>1877.86</v>
       </c>
-      <c r="H511">
-        <v>141.1507</v>
+      <c r="H511" s="2">
+        <v>207.38159999999999</v>
       </c>
       <c r="I511">
         <v>207.38159999999999</v>
@@ -19955,8 +19988,8 @@
       <c r="G512">
         <v>1900.53</v>
       </c>
-      <c r="H512">
-        <v>141.15649999999999</v>
+      <c r="H512" s="2">
+        <v>206.92949999999999</v>
       </c>
       <c r="I512">
         <v>206.92949999999999</v>
@@ -19993,8 +20026,8 @@
       <c r="G513">
         <v>1923.57</v>
       </c>
-      <c r="H513">
-        <v>141.16640000000001</v>
+      <c r="H513" s="2">
+        <v>208.0658</v>
       </c>
       <c r="I513">
         <v>208.0658</v>
@@ -20031,8 +20064,8 @@
       <c r="G514">
         <v>1949.44</v>
       </c>
-      <c r="H514">
-        <v>141.17429999999999</v>
+      <c r="H514" s="2">
+        <v>209.27459999999999</v>
       </c>
       <c r="I514">
         <v>209.27459999999999</v>
@@ -20069,8 +20102,8 @@
       <c r="G515">
         <v>1936.16</v>
       </c>
-      <c r="H515">
-        <v>141.17599999999999</v>
+      <c r="H515" s="2">
+        <v>209.00149999999999</v>
       </c>
       <c r="I515">
         <v>209.00149999999999</v>
@@ -20107,8 +20140,8 @@
       <c r="G516">
         <v>1962.87</v>
       </c>
-      <c r="H516">
-        <v>141.17660000000001</v>
+      <c r="H516" s="2">
+        <v>208.959</v>
       </c>
       <c r="I516">
         <v>208.959</v>
@@ -20145,8 +20178,8 @@
       <c r="G517">
         <v>1960.96</v>
       </c>
-      <c r="H517">
-        <v>141.17750000000001</v>
+      <c r="H517" s="2">
+        <v>210.2405</v>
       </c>
       <c r="I517">
         <v>210.2405</v>
@@ -20183,8 +20216,8 @@
       <c r="G518">
         <v>1985.44</v>
       </c>
-      <c r="H518">
-        <v>141.17939999999999</v>
+      <c r="H518" s="2">
+        <v>210.29759999999999</v>
       </c>
       <c r="I518">
         <v>210.29759999999999</v>
@@ -20221,8 +20254,8 @@
       <c r="G519">
         <v>1967.57</v>
       </c>
-      <c r="H519">
-        <v>141.18029999999999</v>
+      <c r="H519" s="2">
+        <v>210.47499999999999</v>
       </c>
       <c r="I519">
         <v>210.47499999999999</v>
@@ -20259,8 +20292,8 @@
       <c r="G520">
         <v>1978.22</v>
       </c>
-      <c r="H520">
-        <v>141.1815</v>
+      <c r="H520" s="2">
+        <v>211.494</v>
       </c>
       <c r="I520">
         <v>211.494</v>
@@ -20297,8 +20330,8 @@
       <c r="G521">
         <v>1978.34</v>
       </c>
-      <c r="H521">
-        <v>141.18260000000001</v>
+      <c r="H521" s="2">
+        <v>212.0625</v>
       </c>
       <c r="I521">
         <v>212.0625</v>
@@ -20335,8 +20368,8 @@
       <c r="G522">
         <v>1925.15</v>
       </c>
-      <c r="H522">
-        <v>141.18430000000001</v>
+      <c r="H522" s="2">
+        <v>212.16579999999999</v>
       </c>
       <c r="I522">
         <v>212.16579999999999</v>
@@ -20373,8 +20406,8 @@
       <c r="G523">
         <v>1931.59</v>
       </c>
-      <c r="H523">
-        <v>141.1849</v>
+      <c r="H523" s="2">
+        <v>212.8098</v>
       </c>
       <c r="I523">
         <v>212.8098</v>
@@ -20411,8 +20444,8 @@
       <c r="G524">
         <v>1955.06</v>
       </c>
-      <c r="H524">
-        <v>141.18530000000001</v>
+      <c r="H524" s="2">
+        <v>214.56809999999999</v>
       </c>
       <c r="I524">
         <v>214.56809999999999</v>
@@ -20449,8 +20482,8 @@
       <c r="G525">
         <v>1988.4</v>
       </c>
-      <c r="H525">
-        <v>141.18559999999999</v>
+      <c r="H525" s="2">
+        <v>214.756</v>
       </c>
       <c r="I525">
         <v>214.756</v>
@@ -20487,8 +20520,8 @@
       <c r="G526">
         <v>2003.37</v>
       </c>
-      <c r="H526">
-        <v>141.1857</v>
+      <c r="H526" s="2">
+        <v>216.2191</v>
       </c>
       <c r="I526">
         <v>216.2191</v>
@@ -20525,8 +20558,8 @@
       <c r="G527">
         <v>2007.71</v>
       </c>
-      <c r="H527">
-        <v>141.18680000000001</v>
+      <c r="H527" s="2">
+        <v>216.50659999999999</v>
       </c>
       <c r="I527">
         <v>216.50659999999999</v>
@@ -20563,8 +20596,8 @@
       <c r="G528">
         <v>1985.54</v>
       </c>
-      <c r="H528">
-        <v>141.1867</v>
+      <c r="H528" s="2">
+        <v>214.41249999999999</v>
       </c>
       <c r="I528">
         <v>214.41249999999999</v>
@@ -20601,8 +20634,8 @@
       <c r="G529">
         <v>2010.4</v>
       </c>
-      <c r="H529">
-        <v>141.1866</v>
+      <c r="H529" s="2">
+        <v>215.32910000000001</v>
       </c>
       <c r="I529">
         <v>215.32910000000001</v>
@@ -20639,8 +20672,8 @@
       <c r="G530">
         <v>1982.85</v>
       </c>
-      <c r="H530">
-        <v>141.18680000000001</v>
+      <c r="H530" s="2">
+        <v>216.11170000000001</v>
       </c>
       <c r="I530">
         <v>216.11170000000001</v>
@@ -20677,8 +20710,8 @@
       <c r="G531">
         <v>1967.9</v>
       </c>
-      <c r="H531">
-        <v>141.18700000000001</v>
+      <c r="H531" s="2">
+        <v>216.73519999999999</v>
       </c>
       <c r="I531">
         <v>216.73519999999999</v>
@@ -20715,8 +20748,8 @@
       <c r="G532">
         <v>1906.13</v>
       </c>
-      <c r="H532">
-        <v>141.18620000000001</v>
+      <c r="H532" s="2">
+        <v>216.96770000000001</v>
       </c>
       <c r="I532">
         <v>216.96770000000001</v>
@@ -20753,8 +20786,8 @@
       <c r="G533">
         <v>1886.76</v>
       </c>
-      <c r="H533">
-        <v>141.1859</v>
+      <c r="H533" s="2">
+        <v>216.0652</v>
       </c>
       <c r="I533">
         <v>216.0652</v>
@@ -20791,8 +20824,8 @@
       <c r="G534">
         <v>1964.58</v>
       </c>
-      <c r="H534">
-        <v>141.1859</v>
+      <c r="H534" s="2">
+        <v>215.79140000000001</v>
       </c>
       <c r="I534">
         <v>215.79140000000001</v>
@@ -20829,8 +20862,8 @@
       <c r="G535">
         <v>2018.05</v>
       </c>
-      <c r="H535">
-        <v>141.18620000000001</v>
+      <c r="H535" s="2">
+        <v>216.95599999999999</v>
       </c>
       <c r="I535">
         <v>216.95599999999999</v>
@@ -20867,8 +20900,8 @@
       <c r="G536">
         <v>2031.92</v>
       </c>
-      <c r="H536">
-        <v>141.1866</v>
+      <c r="H536" s="2">
+        <v>216.87039999999999</v>
       </c>
       <c r="I536">
         <v>216.87039999999999</v>
@@ -20905,8 +20938,8 @@
       <c r="G537">
         <v>2039.82</v>
       </c>
-      <c r="H537">
-        <v>141.18559999999999</v>
+      <c r="H537" s="2">
+        <v>217.572</v>
       </c>
       <c r="I537">
         <v>217.572</v>
@@ -20943,8 +20976,8 @@
       <c r="G538">
         <v>2063.5</v>
       </c>
-      <c r="H538">
-        <v>141.1849</v>
+      <c r="H538" s="2">
+        <v>218.23750000000001</v>
       </c>
       <c r="I538">
         <v>218.23750000000001</v>
@@ -20981,8 +21014,8 @@
       <c r="G539">
         <v>2067.56</v>
       </c>
-      <c r="H539">
-        <v>141.18510000000001</v>
+      <c r="H539" s="2">
+        <v>219.93350000000001</v>
       </c>
       <c r="I539">
         <v>219.93350000000001</v>
@@ -21019,8 +21052,8 @@
       <c r="G540">
         <v>2075.37</v>
       </c>
-      <c r="H540">
-        <v>141.18629999999999</v>
+      <c r="H540" s="2">
+        <v>219.9828</v>
       </c>
       <c r="I540">
         <v>219.9828</v>
@@ -21057,8 +21090,8 @@
       <c r="G541">
         <v>2002.33</v>
       </c>
-      <c r="H541">
-        <v>141.18530000000001</v>
+      <c r="H541" s="2">
+        <v>220.65780000000001</v>
       </c>
       <c r="I541">
         <v>220.65780000000001</v>
@@ -21095,8 +21128,8 @@
       <c r="G542">
         <v>2070.65</v>
       </c>
-      <c r="H542">
-        <v>141.18469999999999</v>
+      <c r="H542" s="2">
+        <v>221.3374</v>
       </c>
       <c r="I542">
         <v>221.3374</v>
@@ -21133,8 +21166,8 @@
       <c r="G543">
         <v>2088.77</v>
       </c>
-      <c r="H543">
-        <v>141.18289999999999</v>
+      <c r="H543" s="2">
+        <v>221.71270000000001</v>
       </c>
       <c r="I543">
         <v>221.71270000000001</v>
@@ -21171,8 +21204,8 @@
       <c r="G544">
         <v>2058.1999999999998</v>
       </c>
-      <c r="H544">
-        <v>141.1825</v>
+      <c r="H544" s="2">
+        <v>223.41139999999999</v>
       </c>
       <c r="I544">
         <v>223.41139999999999</v>
@@ -21209,8 +21242,8 @@
       <c r="G545">
         <v>2044.81</v>
       </c>
-      <c r="H545">
-        <v>141.18039999999999</v>
+      <c r="H545" s="2">
+        <v>223.01849999999999</v>
       </c>
       <c r="I545">
         <v>223.01849999999999</v>
@@ -21247,8 +21280,8 @@
       <c r="G546">
         <v>2019.42</v>
       </c>
-      <c r="H546">
-        <v>141.1788</v>
+      <c r="H546" s="2">
+        <v>225.10650000000001</v>
       </c>
       <c r="I546">
         <v>225.10650000000001</v>
@@ -21285,8 +21318,8 @@
       <c r="G547">
         <v>2051.8200000000002</v>
       </c>
-      <c r="H547">
-        <v>141.17689999999999</v>
+      <c r="H547" s="2">
+        <v>227.19460000000001</v>
       </c>
       <c r="I547">
         <v>227.19460000000001</v>
@@ -21323,8 +21356,8 @@
       <c r="G548">
         <v>1994.99</v>
       </c>
-      <c r="H548">
-        <v>141.17619999999999</v>
+      <c r="H548" s="2">
+        <v>227.57060000000001</v>
       </c>
       <c r="I548">
         <v>227.57060000000001</v>
@@ -21361,8 +21394,8 @@
       <c r="G549">
         <v>2055.4699999999998</v>
       </c>
-      <c r="H549">
-        <v>141.17679999999999</v>
+      <c r="H549" s="2">
+        <v>227.33269999999999</v>
       </c>
       <c r="I549">
         <v>227.33269999999999</v>
@@ -21399,8 +21432,8 @@
       <c r="G550">
         <v>2096.9899999999998</v>
       </c>
-      <c r="H550">
-        <v>141.1756</v>
+      <c r="H550" s="2">
+        <v>227.4956</v>
       </c>
       <c r="I550">
         <v>227.4956</v>
@@ -21437,8 +21470,8 @@
       <c r="G551">
         <v>2110.3000000000002</v>
       </c>
-      <c r="H551">
-        <v>141.17449999999999</v>
+      <c r="H551" s="2">
+        <v>227.17269999999999</v>
       </c>
       <c r="I551">
         <v>227.17269999999999</v>
@@ -21475,8 +21508,8 @@
       <c r="G552">
         <v>2104.5</v>
       </c>
-      <c r="H552">
-        <v>141.17320000000001</v>
+      <c r="H552" s="2">
+        <v>229.1542</v>
       </c>
       <c r="I552">
         <v>229.1542</v>
@@ -21513,8 +21546,8 @@
       <c r="G553">
         <v>2071.2600000000002</v>
       </c>
-      <c r="H553">
-        <v>141.173</v>
+      <c r="H553" s="2">
+        <v>228.83920000000001</v>
       </c>
       <c r="I553">
         <v>228.83920000000001</v>
@@ -21551,8 +21584,8 @@
       <c r="G554">
         <v>2053.4</v>
       </c>
-      <c r="H554">
-        <v>141.1713</v>
+      <c r="H554" s="2">
+        <v>232.11320000000001</v>
       </c>
       <c r="I554">
         <v>232.11320000000001</v>
@@ -21589,8 +21622,8 @@
       <c r="G555">
         <v>2108.1</v>
       </c>
-      <c r="H555">
-        <v>141.17009999999999</v>
+      <c r="H555" s="2">
+        <v>232.11439999999999</v>
       </c>
       <c r="I555">
         <v>232.11439999999999</v>
@@ -21627,8 +21660,8 @@
       <c r="G556">
         <v>2061.02</v>
       </c>
-      <c r="H556">
-        <v>141.16849999999999</v>
+      <c r="H556" s="2">
+        <v>231.1876</v>
       </c>
       <c r="I556">
         <v>231.1876</v>
@@ -21665,8 +21698,8 @@
       <c r="G557">
         <v>2066.96</v>
       </c>
-      <c r="H557">
-        <v>141.16730000000001</v>
+      <c r="H557" s="2">
+        <v>231.7681</v>
       </c>
       <c r="I557">
         <v>231.7681</v>
@@ -21703,8 +21736,8 @@
       <c r="G558">
         <v>2102.06</v>
       </c>
-      <c r="H558">
-        <v>141.1653</v>
+      <c r="H558" s="2">
+        <v>232.02340000000001</v>
       </c>
       <c r="I558">
         <v>232.02340000000001</v>
@@ -21741,8 +21774,8 @@
       <c r="G559">
         <v>2081.1799999999998</v>
       </c>
-      <c r="H559">
-        <v>141.16319999999999</v>
+      <c r="H559" s="2">
+        <v>231.83930000000001</v>
       </c>
       <c r="I559">
         <v>231.83930000000001</v>
@@ -21779,8 +21812,8 @@
       <c r="G560">
         <v>2117.69</v>
       </c>
-      <c r="H560">
-        <v>141.161</v>
+      <c r="H560" s="2">
+        <v>231.2791</v>
       </c>
       <c r="I560">
         <v>231.2791</v>
@@ -21817,8 +21850,8 @@
       <c r="G561">
         <v>2108.29</v>
       </c>
-      <c r="H561">
-        <v>141.1591</v>
+      <c r="H561" s="2">
+        <v>228.70779999999999</v>
       </c>
       <c r="I561">
         <v>228.70779999999999</v>
@@ -21855,8 +21888,8 @@
       <c r="G562">
         <v>2116.1</v>
       </c>
-      <c r="H562">
-        <v>141.1576</v>
+      <c r="H562" s="2">
+        <v>225.61600000000001</v>
       </c>
       <c r="I562">
         <v>225.61600000000001</v>
@@ -21893,8 +21926,8 @@
       <c r="G563">
         <v>2122.73</v>
       </c>
-      <c r="H563">
-        <v>141.15479999999999</v>
+      <c r="H563" s="2">
+        <v>224.07380000000001</v>
       </c>
       <c r="I563">
         <v>224.07380000000001</v>
@@ -21931,8 +21964,8 @@
       <c r="G564">
         <v>2126.06</v>
       </c>
-      <c r="H564">
-        <v>141.15180000000001</v>
+      <c r="H564" s="2">
+        <v>224.33920000000001</v>
       </c>
       <c r="I564">
         <v>224.33920000000001</v>
@@ -21969,8 +22002,8 @@
       <c r="G565">
         <v>2107.39</v>
       </c>
-      <c r="H565">
-        <v>141.14840000000001</v>
+      <c r="H565" s="2">
+        <v>225.1962</v>
       </c>
       <c r="I565">
         <v>225.1962</v>
@@ -22007,8 +22040,8 @@
       <c r="G566">
         <v>2092.83</v>
       </c>
-      <c r="H566">
-        <v>141.1454</v>
+      <c r="H566" s="2">
+        <v>220.22389999999999</v>
       </c>
       <c r="I566">
         <v>220.22389999999999</v>
@@ -22045,8 +22078,8 @@
       <c r="G567">
         <v>2094.11</v>
       </c>
-      <c r="H567">
-        <v>141.1422</v>
+      <c r="H567" s="2">
+        <v>219.32820000000001</v>
       </c>
       <c r="I567">
         <v>219.32820000000001</v>
@@ -22083,8 +22116,8 @@
       <c r="G568">
         <v>2109.9899999999998</v>
       </c>
-      <c r="H568">
-        <v>141.1388</v>
+      <c r="H568" s="2">
+        <v>219.74799999999999</v>
       </c>
       <c r="I568">
         <v>219.74799999999999</v>
@@ -22121,8 +22154,8 @@
       <c r="G569">
         <v>2101.4899999999998</v>
       </c>
-      <c r="H569">
-        <v>141.13560000000001</v>
+      <c r="H569" s="2">
+        <v>219.2251</v>
       </c>
       <c r="I569">
         <v>219.2251</v>
@@ -22159,8 +22192,8 @@
       <c r="G570">
         <v>2076.7800000000002</v>
       </c>
-      <c r="H570">
-        <v>141.13249999999999</v>
+      <c r="H570" s="2">
+        <v>219.2294</v>
       </c>
       <c r="I570">
         <v>219.2294</v>
@@ -22197,8 +22230,8 @@
       <c r="G571">
         <v>2076.62</v>
       </c>
-      <c r="H571">
-        <v>141.1292</v>
+      <c r="H571" s="2">
+        <v>219.51840000000001</v>
       </c>
       <c r="I571">
         <v>219.51840000000001</v>
@@ -22235,8 +22268,8 @@
       <c r="G572">
         <v>2126.64</v>
       </c>
-      <c r="H572">
-        <v>141.1259</v>
+      <c r="H572" s="2">
+        <v>222.13570000000001</v>
       </c>
       <c r="I572">
         <v>222.13570000000001</v>
@@ -22273,8 +22306,8 @@
       <c r="G573">
         <v>2079.65</v>
       </c>
-      <c r="H573">
-        <v>141.12260000000001</v>
+      <c r="H573" s="2">
+        <v>223.5341</v>
       </c>
       <c r="I573">
         <v>223.5341</v>
@@ -22311,8 +22344,8 @@
       <c r="G574">
         <v>2103.84</v>
       </c>
-      <c r="H574">
-        <v>141.11949999999999</v>
+      <c r="H574" s="2">
+        <v>224.50460000000001</v>
       </c>
       <c r="I574">
         <v>224.50460000000001</v>
@@ -22349,8 +22382,8 @@
       <c r="G575">
         <v>2077.5700000000002</v>
       </c>
-      <c r="H575">
-        <v>141.11660000000001</v>
+      <c r="H575" s="2">
+        <v>223.87110000000001</v>
       </c>
       <c r="I575">
         <v>223.87110000000001</v>
@@ -22387,8 +22420,8 @@
       <c r="G576">
         <v>2091.54</v>
       </c>
-      <c r="H576">
-        <v>141.11320000000001</v>
+      <c r="H576" s="2">
+        <v>224.23009999999999</v>
       </c>
       <c r="I576">
         <v>224.23009999999999</v>
@@ -22425,8 +22458,8 @@
       <c r="G577">
         <v>1970.89</v>
       </c>
-      <c r="H577">
-        <v>141.10980000000001</v>
+      <c r="H577" s="2">
+        <v>224.4033</v>
       </c>
       <c r="I577">
         <v>224.4033</v>
@@ -22463,8 +22496,8 @@
       <c r="G578">
         <v>1988.87</v>
       </c>
-      <c r="H578">
-        <v>141.10640000000001</v>
+      <c r="H578" s="2">
+        <v>222.64779999999999</v>
       </c>
       <c r="I578">
         <v>222.64779999999999</v>
@@ -22501,8 +22534,8 @@
       <c r="G579">
         <v>1921.22</v>
       </c>
-      <c r="H579">
-        <v>141.10290000000001</v>
+      <c r="H579" s="2">
+        <v>223.44589999999999</v>
       </c>
       <c r="I579">
         <v>223.44589999999999</v>
@@ -22539,8 +22572,8 @@
       <c r="G580">
         <v>1961.05</v>
       </c>
-      <c r="H580">
-        <v>141.0993</v>
+      <c r="H580" s="2">
+        <v>223.4425</v>
       </c>
       <c r="I580">
         <v>223.4425</v>
@@ -22577,8 +22610,8 @@
       <c r="G581">
         <v>1958.03</v>
       </c>
-      <c r="H581">
-        <v>141.09559999999999</v>
+      <c r="H581" s="2">
+        <v>224.13310000000001</v>
       </c>
       <c r="I581">
         <v>224.13310000000001</v>
@@ -22615,8 +22648,8 @@
       <c r="G582">
         <v>1931.34</v>
       </c>
-      <c r="H582">
-        <v>141.0917</v>
+      <c r="H582" s="2">
+        <v>224.09229999999999</v>
       </c>
       <c r="I582">
         <v>224.09229999999999</v>
@@ -22653,8 +22686,8 @@
       <c r="G583">
         <v>1951.36</v>
       </c>
-      <c r="H583">
-        <v>141.08779999999999</v>
+      <c r="H583" s="2">
+        <v>226.2167</v>
       </c>
       <c r="I583">
         <v>226.2167</v>
@@ -22691,8 +22724,8 @@
       <c r="G584">
         <v>2014.89</v>
       </c>
-      <c r="H584">
-        <v>141.084</v>
+      <c r="H584" s="2">
+        <v>225.14420000000001</v>
       </c>
       <c r="I584">
         <v>225.14420000000001</v>
@@ -22729,8 +22762,8 @@
       <c r="G585">
         <v>2033.11</v>
       </c>
-      <c r="H585">
-        <v>141.08019999999999</v>
+      <c r="H585" s="2">
+        <v>226.1189</v>
       </c>
       <c r="I585">
         <v>226.1189</v>
@@ -22767,8 +22800,8 @@
       <c r="G586">
         <v>2075.15</v>
       </c>
-      <c r="H586">
-        <v>141.07640000000001</v>
+      <c r="H586" s="2">
+        <v>227.3527</v>
       </c>
       <c r="I586">
         <v>227.3527</v>
@@ -22805,8 +22838,8 @@
       <c r="G587">
         <v>2079.36</v>
       </c>
-      <c r="H587">
-        <v>141.07259999999999</v>
+      <c r="H587" s="2">
+        <v>227.35659999999999</v>
       </c>
       <c r="I587">
         <v>227.35659999999999</v>
@@ -22843,8 +22876,8 @@
       <c r="G588">
         <v>2099.1999999999998</v>
       </c>
-      <c r="H588">
-        <v>141.06899999999999</v>
+      <c r="H588" s="2">
+        <v>224.55189999999999</v>
       </c>
       <c r="I588">
         <v>224.55189999999999</v>
@@ -22881,8 +22914,8 @@
       <c r="G589">
         <v>2023.04</v>
       </c>
-      <c r="H589">
-        <v>141.0652</v>
+      <c r="H589" s="2">
+        <v>226.50919999999999</v>
       </c>
       <c r="I589">
         <v>226.50919999999999</v>
@@ -22919,8 +22952,8 @@
       <c r="G590">
         <v>2089.17</v>
       </c>
-      <c r="H590">
-        <v>141.0616</v>
+      <c r="H590" s="2">
+        <v>228.11529999999999</v>
       </c>
       <c r="I590">
         <v>228.11529999999999</v>
@@ -22957,8 +22990,8 @@
       <c r="G591">
         <v>2090.11</v>
       </c>
-      <c r="H591">
-        <v>141.05779999999999</v>
+      <c r="H591" s="2">
+        <v>228.73349999999999</v>
       </c>
       <c r="I591">
         <v>228.73349999999999</v>
@@ -22995,8 +23028,8 @@
       <c r="G592">
         <v>2091.69</v>
       </c>
-      <c r="H592">
-        <v>141.05420000000001</v>
+      <c r="H592" s="2">
+        <v>225.5393</v>
       </c>
       <c r="I592">
         <v>225.5393</v>
@@ -23033,8 +23066,8 @@
       <c r="G593">
         <v>2012.37</v>
       </c>
-      <c r="H593">
-        <v>141.0496</v>
+      <c r="H593" s="2">
+        <v>227.41460000000001</v>
       </c>
       <c r="I593">
         <v>227.41460000000001</v>
@@ -23071,8 +23104,8 @@
       <c r="G594">
         <v>2005.55</v>
       </c>
-      <c r="H594">
-        <v>141.04310000000001</v>
+      <c r="H594" s="2">
+        <v>227.18539999999999</v>
       </c>
       <c r="I594">
         <v>227.18539999999999</v>
@@ -23109,8 +23142,8 @@
       <c r="G595">
         <v>2060.9899999999998</v>
       </c>
-      <c r="H595">
-        <v>141.0367</v>
+      <c r="H595" s="2">
+        <v>225.70910000000001</v>
       </c>
       <c r="I595">
         <v>225.70910000000001</v>
@@ -23147,8 +23180,8 @@
       <c r="G596">
         <v>2043.94</v>
       </c>
-      <c r="H596">
-        <v>141.0309</v>
+      <c r="H596" s="2">
+        <v>226.07390000000001</v>
       </c>
       <c r="I596">
         <v>226.07390000000001</v>
@@ -23185,8 +23218,8 @@
       <c r="G597">
         <v>1922.03</v>
       </c>
-      <c r="H597">
-        <v>141.0256</v>
+      <c r="H597" s="2">
+        <v>227.12970000000001</v>
       </c>
       <c r="I597">
         <v>227.12970000000001</v>
@@ -23223,8 +23256,8 @@
       <c r="G598">
         <v>1880.33</v>
       </c>
-      <c r="H598">
-        <v>141.01910000000001</v>
+      <c r="H598" s="2">
+        <v>227.5556</v>
       </c>
       <c r="I598">
         <v>227.5556</v>
@@ -23261,8 +23294,8 @@
       <c r="G599">
         <v>1906.9</v>
       </c>
-      <c r="H599">
-        <v>141.01259999999999</v>
+      <c r="H599" s="2">
+        <v>228.03989999999999</v>
       </c>
       <c r="I599">
         <v>228.03989999999999</v>
@@ -23299,8 +23332,8 @@
       <c r="G600">
         <v>1940.24</v>
       </c>
-      <c r="H600">
-        <v>141.006</v>
+      <c r="H600" s="2">
+        <v>230.4846</v>
       </c>
       <c r="I600">
         <v>230.4846</v>
@@ -23337,8 +23370,8 @@
       <c r="G601">
         <v>1880.05</v>
       </c>
-      <c r="H601">
-        <v>140.99959999999999</v>
+      <c r="H601" s="2">
+        <v>230.0762</v>
       </c>
       <c r="I601">
         <v>230.0762</v>
@@ -23375,8 +23408,8 @@
       <c r="G602">
         <v>1864.78</v>
       </c>
-      <c r="H602">
-        <v>140.9931</v>
+      <c r="H602" s="2">
+        <v>229.68780000000001</v>
       </c>
       <c r="I602">
         <v>229.68780000000001</v>
@@ -23413,8 +23446,8 @@
       <c r="G603">
         <v>1917.78</v>
       </c>
-      <c r="H603">
-        <v>140.98650000000001</v>
+      <c r="H603" s="2">
+        <v>230.83359999999999</v>
       </c>
       <c r="I603">
         <v>230.83359999999999</v>
@@ -23451,8 +23484,8 @@
       <c r="G604">
         <v>1948.05</v>
       </c>
-      <c r="H604">
-        <v>140.97980000000001</v>
+      <c r="H604" s="2">
+        <v>231.90979999999999</v>
       </c>
       <c r="I604">
         <v>231.90979999999999</v>
@@ -23489,8 +23522,8 @@
       <c r="G605">
         <v>1999.99</v>
       </c>
-      <c r="H605">
-        <v>140.97329999999999</v>
+      <c r="H605" s="2">
+        <v>230.9308</v>
       </c>
       <c r="I605">
         <v>230.9308</v>
@@ -23527,8 +23560,8 @@
       <c r="G606">
         <v>2022.19</v>
       </c>
-      <c r="H606">
-        <v>140.96680000000001</v>
+      <c r="H606" s="2">
+        <v>231.577</v>
       </c>
       <c r="I606">
         <v>231.577</v>
@@ -23565,8 +23598,8 @@
       <c r="G607">
         <v>2049.58</v>
       </c>
-      <c r="H607">
-        <v>140.95930000000001</v>
+      <c r="H607" s="2">
+        <v>232.65780000000001</v>
       </c>
       <c r="I607">
         <v>232.65780000000001</v>
@@ -23603,8 +23636,8 @@
       <c r="G608">
         <v>2035.94</v>
       </c>
-      <c r="H608">
-        <v>140.94990000000001</v>
+      <c r="H608" s="2">
+        <v>232.9999</v>
       </c>
       <c r="I608">
         <v>232.9999</v>
@@ -23641,8 +23674,8 @@
       <c r="G609">
         <v>2072.7800000000002</v>
       </c>
-      <c r="H609">
-        <v>140.94049999999999</v>
+      <c r="H609" s="2">
+        <v>234.03729999999999</v>
       </c>
       <c r="I609">
         <v>234.03729999999999</v>
@@ -23679,8 +23712,8 @@
       <c r="G610">
         <v>2047.6</v>
       </c>
-      <c r="H610">
-        <v>140.9314</v>
+      <c r="H610" s="2">
+        <v>233.91569999999999</v>
       </c>
       <c r="I610">
         <v>233.91569999999999</v>
@@ -23717,8 +23750,8 @@
       <c r="G611">
         <v>2080.73</v>
       </c>
-      <c r="H611">
-        <v>140.9221</v>
+      <c r="H611" s="2">
+        <v>233.45230000000001</v>
       </c>
       <c r="I611">
         <v>233.45230000000001</v>
@@ -23755,8 +23788,8 @@
       <c r="G612">
         <v>2091.58</v>
       </c>
-      <c r="H612">
-        <v>140.9128</v>
+      <c r="H612" s="2">
+        <v>231.80840000000001</v>
       </c>
       <c r="I612">
         <v>231.80840000000001</v>
@@ -23793,8 +23826,8 @@
       <c r="G613">
         <v>2065.3000000000002</v>
       </c>
-      <c r="H613">
-        <v>140.9034</v>
+      <c r="H613" s="2">
+        <v>231.1465</v>
       </c>
       <c r="I613">
         <v>231.1465</v>
@@ -23831,8 +23864,8 @@
       <c r="G614">
         <v>2057.14</v>
       </c>
-      <c r="H614">
-        <v>140.89429999999999</v>
+      <c r="H614" s="2">
+        <v>232.59870000000001</v>
       </c>
       <c r="I614">
         <v>232.59870000000001</v>
@@ -23869,8 +23902,8 @@
       <c r="G615">
         <v>2046.61</v>
       </c>
-      <c r="H615">
-        <v>140.8852</v>
+      <c r="H615" s="2">
+        <v>232.93989999999999</v>
       </c>
       <c r="I615">
         <v>232.93989999999999</v>
@@ -23907,8 +23940,8 @@
       <c r="G616">
         <v>2052.3200000000002</v>
       </c>
-      <c r="H616">
-        <v>140.8759</v>
+      <c r="H616" s="2">
+        <v>232.58840000000001</v>
       </c>
       <c r="I616">
         <v>232.58840000000001</v>
@@ -23945,8 +23978,8 @@
       <c r="G617">
         <v>2099.06</v>
       </c>
-      <c r="H617">
-        <v>140.86660000000001</v>
+      <c r="H617" s="2">
+        <v>233.60300000000001</v>
       </c>
       <c r="I617">
         <v>233.60300000000001</v>
@@ -23983,8 +24016,8 @@
       <c r="G618">
         <v>2099.13</v>
       </c>
-      <c r="H618">
-        <v>140.85730000000001</v>
+      <c r="H618" s="2">
+        <v>234.61859999999999</v>
       </c>
       <c r="I618">
         <v>234.61859999999999</v>
@@ -24021,8 +24054,8 @@
       <c r="G619">
         <v>2096.0700000000002</v>
       </c>
-      <c r="H619">
-        <v>140.84809999999999</v>
+      <c r="H619" s="2">
+        <v>235.8655</v>
       </c>
       <c r="I619">
         <v>235.8655</v>
@@ -24059,8 +24092,8 @@
       <c r="G620">
         <v>2071.2199999999998</v>
       </c>
-      <c r="H620">
-        <v>140.8391</v>
+      <c r="H620" s="2">
+        <v>235.05029999999999</v>
       </c>
       <c r="I620">
         <v>235.05029999999999</v>
@@ -24097,8 +24130,8 @@
       <c r="G621">
         <v>2037.41</v>
       </c>
-      <c r="H621">
-        <v>140.8297</v>
+      <c r="H621" s="2">
+        <v>235.79740000000001</v>
       </c>
       <c r="I621">
         <v>235.79740000000001</v>
@@ -24135,8 +24168,8 @@
       <c r="G622">
         <v>2102.9499999999998</v>
       </c>
-      <c r="H622">
-        <v>140.82079999999999</v>
+      <c r="H622" s="2">
+        <v>239.50309999999999</v>
       </c>
       <c r="I622">
         <v>239.50309999999999</v>
@@ -24173,8 +24206,8 @@
       <c r="G623">
         <v>2129.9</v>
       </c>
-      <c r="H623">
-        <v>140.81200000000001</v>
+      <c r="H623" s="2">
+        <v>240.3407</v>
       </c>
       <c r="I623">
         <v>240.3407</v>
@@ -24211,8 +24244,8 @@
       <c r="G624">
         <v>2161.7399999999998</v>
       </c>
-      <c r="H624">
-        <v>140.8031</v>
+      <c r="H624" s="2">
+        <v>238.44319999999999</v>
       </c>
       <c r="I624">
         <v>238.44319999999999</v>
@@ -24249,8 +24282,8 @@
       <c r="G625">
         <v>2175.0300000000002</v>
       </c>
-      <c r="H625">
-        <v>140.79400000000001</v>
+      <c r="H625" s="2">
+        <v>238.93020000000001</v>
       </c>
       <c r="I625">
         <v>238.93020000000001</v>
@@ -24287,8 +24320,8 @@
       <c r="G626">
         <v>2173.6</v>
       </c>
-      <c r="H626">
-        <v>140.78479999999999</v>
+      <c r="H626" s="2">
+        <v>240.86580000000001</v>
       </c>
       <c r="I626">
         <v>240.86580000000001</v>
@@ -24325,8 +24358,8 @@
       <c r="G627">
         <v>2182.87</v>
       </c>
-      <c r="H627">
-        <v>140.77590000000001</v>
+      <c r="H627" s="2">
+        <v>240.33510000000001</v>
       </c>
       <c r="I627">
         <v>240.33510000000001</v>
@@ -24363,8 +24396,8 @@
       <c r="G628">
         <v>2184.0500000000002</v>
       </c>
-      <c r="H628">
-        <v>140.76660000000001</v>
+      <c r="H628" s="2">
+        <v>241.14250000000001</v>
       </c>
       <c r="I628">
         <v>241.14250000000001</v>
@@ -24401,8 +24434,8 @@
       <c r="G629">
         <v>2183.87</v>
       </c>
-      <c r="H629">
-        <v>140.75720000000001</v>
+      <c r="H629" s="2">
+        <v>240.3237</v>
       </c>
       <c r="I629">
         <v>240.3237</v>
@@ -24439,8 +24472,8 @@
       <c r="G630">
         <v>2169.04</v>
       </c>
-      <c r="H630">
-        <v>140.74789999999999</v>
+      <c r="H630" s="2">
+        <v>240.774</v>
       </c>
       <c r="I630">
         <v>240.774</v>
@@ -24477,8 +24510,8 @@
       <c r="G631">
         <v>2179.98</v>
       </c>
-      <c r="H631">
-        <v>140.73859999999999</v>
+      <c r="H631" s="2">
+        <v>239.30279999999999</v>
       </c>
       <c r="I631">
         <v>239.30279999999999</v>
@@ -24515,8 +24548,8 @@
       <c r="G632">
         <v>2127.81</v>
       </c>
-      <c r="H632">
-        <v>140.72919999999999</v>
+      <c r="H632" s="2">
+        <v>238.34610000000001</v>
       </c>
       <c r="I632">
         <v>238.34610000000001</v>
@@ -24553,8 +24586,8 @@
       <c r="G633">
         <v>2139.16</v>
       </c>
-      <c r="H633">
-        <v>140.71979999999999</v>
+      <c r="H633" s="2">
+        <v>238.102</v>
       </c>
       <c r="I633">
         <v>238.102</v>
@@ -24591,8 +24624,8 @@
       <c r="G634">
         <v>2164.69</v>
       </c>
-      <c r="H634">
-        <v>140.71039999999999</v>
+      <c r="H634" s="2">
+        <v>240.0581</v>
       </c>
       <c r="I634">
         <v>240.0581</v>
@@ -24629,8 +24662,8 @@
       <c r="G635">
         <v>2168.27</v>
       </c>
-      <c r="H635">
-        <v>140.70099999999999</v>
+      <c r="H635" s="2">
+        <v>240.60059999999999</v>
       </c>
       <c r="I635">
         <v>240.60059999999999</v>
@@ -24667,8 +24700,8 @@
       <c r="G636">
         <v>2153.7399999999998</v>
       </c>
-      <c r="H636">
-        <v>140.6918</v>
+      <c r="H636" s="2">
+        <v>238.07499999999999</v>
       </c>
       <c r="I636">
         <v>238.07499999999999</v>
@@ -24705,8 +24738,8 @@
       <c r="G637">
         <v>2132.98</v>
       </c>
-      <c r="H637">
-        <v>140.6823</v>
+      <c r="H637" s="2">
+        <v>237.71789999999999</v>
       </c>
       <c r="I637">
         <v>237.71789999999999</v>
@@ -24743,8 +24776,8 @@
       <c r="G638">
         <v>2141.16</v>
       </c>
-      <c r="H638">
-        <v>140.67269999999999</v>
+      <c r="H638" s="2">
+        <v>238.4014</v>
       </c>
       <c r="I638">
         <v>238.4014</v>
@@ -24781,8 +24814,8 @@
       <c r="G639">
         <v>2126.41</v>
       </c>
-      <c r="H639">
-        <v>140.66309999999999</v>
+      <c r="H639" s="2">
+        <v>235.39519999999999</v>
       </c>
       <c r="I639">
         <v>235.39519999999999</v>
@@ -24819,8 +24852,8 @@
       <c r="G640">
         <v>2085.1799999999998</v>
       </c>
-      <c r="H640">
-        <v>140.65369999999999</v>
+      <c r="H640" s="2">
+        <v>235.50550000000001</v>
       </c>
       <c r="I640">
         <v>235.50550000000001</v>
@@ -24857,8 +24890,8 @@
       <c r="G641">
         <v>2164.4499999999998</v>
       </c>
-      <c r="H641">
-        <v>140.64420000000001</v>
+      <c r="H641" s="2">
+        <v>231.38239999999999</v>
       </c>
       <c r="I641">
         <v>231.38239999999999</v>
@@ -24895,8 +24928,8 @@
       <c r="G642">
         <v>2181.9</v>
       </c>
-      <c r="H642">
-        <v>140.63460000000001</v>
+      <c r="H642" s="2">
+        <v>231.31010000000001</v>
       </c>
       <c r="I642">
         <v>231.31010000000001</v>
@@ -24933,8 +24966,8 @@
       <c r="G643">
         <v>2213.35</v>
       </c>
-      <c r="H643">
-        <v>140.6251</v>
+      <c r="H643" s="2">
+        <v>231.21809999999999</v>
       </c>
       <c r="I643">
         <v>231.21809999999999</v>
@@ -24971,8 +25004,8 @@
       <c r="G644">
         <v>2191.9499999999998</v>
       </c>
-      <c r="H644">
-        <v>140.6155</v>
+      <c r="H644" s="2">
+        <v>231.89070000000001</v>
       </c>
       <c r="I644">
         <v>231.89070000000001</v>
@@ -25009,8 +25042,8 @@
       <c r="G645">
         <v>2259.5300000000002</v>
       </c>
-      <c r="H645">
-        <v>140.60599999999999</v>
+      <c r="H645" s="2">
+        <v>230.68270000000001</v>
       </c>
       <c r="I645">
         <v>230.68270000000001</v>
@@ -25047,8 +25080,8 @@
       <c r="G646">
         <v>2258.0700000000002</v>
       </c>
-      <c r="H646">
-        <v>140.59639999999999</v>
+      <c r="H646" s="2">
+        <v>231.83629999999999</v>
       </c>
       <c r="I646">
         <v>231.83629999999999</v>
@@ -25085,8 +25118,8 @@
       <c r="G647">
         <v>2263.79</v>
       </c>
-      <c r="H647">
-        <v>140.58680000000001</v>
+      <c r="H647" s="2">
+        <v>233.52539999999999</v>
       </c>
       <c r="I647">
         <v>233.52539999999999</v>
@@ -25123,8 +25156,8 @@
       <c r="G648">
         <v>2238.83</v>
       </c>
-      <c r="H648">
-        <v>140.5771</v>
+      <c r="H648" s="2">
+        <v>233.36150000000001</v>
       </c>
       <c r="I648">
         <v>233.36150000000001</v>
@@ -25161,8 +25194,8 @@
       <c r="G649">
         <v>2276.98</v>
       </c>
-      <c r="H649">
-        <v>140.56780000000001</v>
+      <c r="H649" s="2">
+        <v>231.15539999999999</v>
       </c>
       <c r="I649">
         <v>231.15539999999999</v>
@@ -25199,8 +25232,8 @@
       <c r="G650">
         <v>2274.64</v>
       </c>
-      <c r="H650">
-        <v>140.5582</v>
+      <c r="H650" s="2">
+        <v>231.44159999999999</v>
       </c>
       <c r="I650">
         <v>231.44159999999999</v>
@@ -25237,8 +25270,8 @@
       <c r="G651">
         <v>2271.31</v>
       </c>
-      <c r="H651">
-        <v>140.54849999999999</v>
+      <c r="H651" s="2">
+        <v>229.88849999999999</v>
       </c>
       <c r="I651">
         <v>229.88849999999999</v>
@@ -25275,8 +25308,8 @@
       <c r="G652">
         <v>2294.69</v>
       </c>
-      <c r="H652">
-        <v>140.53890000000001</v>
+      <c r="H652" s="2">
+        <v>228.59450000000001</v>
       </c>
       <c r="I652">
         <v>228.59450000000001</v>
@@ -25313,8 +25346,8 @@
       <c r="G653">
         <v>2297.42</v>
       </c>
-      <c r="H653">
-        <v>140.52940000000001</v>
+      <c r="H653" s="2">
+        <v>228.3449</v>
       </c>
       <c r="I653">
         <v>228.3449</v>
@@ -25351,8 +25384,8 @@
       <c r="G654">
         <v>2316.1</v>
       </c>
-      <c r="H654">
-        <v>140.5198</v>
+      <c r="H654" s="2">
+        <v>228.71960000000001</v>
       </c>
       <c r="I654">
         <v>228.71960000000001</v>
@@ -25389,8 +25422,8 @@
       <c r="G655">
         <v>2351.16</v>
       </c>
-      <c r="H655">
-        <v>140.5102</v>
+      <c r="H655" s="2">
+        <v>229.3278</v>
       </c>
       <c r="I655">
         <v>229.3278</v>
@@ -25427,8 +25460,8 @@
       <c r="G656">
         <v>2367.34</v>
       </c>
-      <c r="H656">
-        <v>140.50049999999999</v>
+      <c r="H656" s="2">
+        <v>230.7123</v>
       </c>
       <c r="I656">
         <v>230.7123</v>
@@ -25465,8 +25498,8 @@
       <c r="G657">
         <v>2383.12</v>
       </c>
-      <c r="H657">
-        <v>140.49080000000001</v>
+      <c r="H657" s="2">
+        <v>229.95580000000001</v>
       </c>
       <c r="I657">
         <v>229.95580000000001</v>
@@ -25503,8 +25536,8 @@
       <c r="G658">
         <v>2372.6</v>
       </c>
-      <c r="H658">
-        <v>140.4812</v>
+      <c r="H658" s="2">
+        <v>227.22550000000001</v>
       </c>
       <c r="I658">
         <v>227.22550000000001</v>
@@ -25541,8 +25574,8 @@
       <c r="G659">
         <v>2378.25</v>
       </c>
-      <c r="H659">
-        <v>140.47149999999999</v>
+      <c r="H659" s="2">
+        <v>227.745</v>
       </c>
       <c r="I659">
         <v>227.745</v>
@@ -25579,8 +25612,8 @@
       <c r="G660">
         <v>2343.98</v>
       </c>
-      <c r="H660">
-        <v>140.46190000000001</v>
+      <c r="H660" s="2">
+        <v>229.17089999999999</v>
       </c>
       <c r="I660">
         <v>229.17089999999999</v>
@@ -25617,8 +25650,8 @@
       <c r="G661">
         <v>2362.7199999999998</v>
       </c>
-      <c r="H661">
-        <v>140.4522</v>
+      <c r="H661" s="2">
+        <v>229.8759</v>
       </c>
       <c r="I661">
         <v>229.8759</v>
@@ -25655,8 +25688,8 @@
       <c r="G662">
         <v>2355.54</v>
       </c>
-      <c r="H662">
-        <v>140.4425</v>
+      <c r="H662" s="2">
+        <v>231.36699999999999</v>
       </c>
       <c r="I662">
         <v>231.36699999999999</v>
@@ -25693,8 +25726,8 @@
       <c r="G663">
         <v>2328.9499999999998</v>
       </c>
-      <c r="H663">
-        <v>140.43279999999999</v>
+      <c r="H663" s="2">
+        <v>231.2106</v>
       </c>
       <c r="I663">
         <v>231.2106</v>
@@ -25731,8 +25764,8 @@
       <c r="G664">
         <v>2348.69</v>
       </c>
-      <c r="H664">
-        <v>140.423</v>
+      <c r="H664" s="2">
+        <v>230.9101</v>
       </c>
       <c r="I664">
         <v>230.9101</v>
@@ -25769,8 +25802,8 @@
       <c r="G665">
         <v>2384.1999999999998</v>
       </c>
-      <c r="H665">
-        <v>140.41319999999999</v>
+      <c r="H665" s="2">
+        <v>231.0463</v>
       </c>
       <c r="I665">
         <v>231.0463</v>
@@ -25807,8 +25840,8 @@
       <c r="G666">
         <v>2399.29</v>
       </c>
-      <c r="H666">
-        <v>140.40360000000001</v>
+      <c r="H666" s="2">
+        <v>231.0017</v>
       </c>
       <c r="I666">
         <v>231.0017</v>
@@ -25845,8 +25878,8 @@
       <c r="G667">
         <v>2390.9</v>
       </c>
-      <c r="H667">
-        <v>140.3938</v>
+      <c r="H667" s="2">
+        <v>230.6883</v>
       </c>
       <c r="I667">
         <v>230.6883</v>
@@ -25883,8 +25916,8 @@
       <c r="G668">
         <v>2381.73</v>
       </c>
-      <c r="H668">
-        <v>140.38399999999999</v>
+      <c r="H668" s="2">
+        <v>231.5685</v>
       </c>
       <c r="I668">
         <v>231.5685</v>
@@ -25921,8 +25954,8 @@
       <c r="G669">
         <v>2415.8200000000002</v>
       </c>
-      <c r="H669">
-        <v>140.3741</v>
+      <c r="H669" s="2">
+        <v>232.32079999999999</v>
       </c>
       <c r="I669">
         <v>232.32079999999999</v>
@@ -25959,8 +25992,8 @@
       <c r="G670">
         <v>2439.0700000000002</v>
       </c>
-      <c r="H670">
-        <v>140.36439999999999</v>
+      <c r="H670" s="2">
+        <v>232.12299999999999</v>
       </c>
       <c r="I670">
         <v>232.12299999999999</v>
@@ -25997,8 +26030,8 @@
       <c r="G671">
         <v>2431.77</v>
       </c>
-      <c r="H671">
-        <v>140.35480000000001</v>
+      <c r="H671" s="2">
+        <v>233.1309</v>
       </c>
       <c r="I671">
         <v>233.1309</v>
@@ -26035,8 +26068,8 @@
       <c r="G672">
         <v>2433.15</v>
       </c>
-      <c r="H672">
-        <v>140.345</v>
+      <c r="H672" s="2">
+        <v>233.63650000000001</v>
       </c>
       <c r="I672">
         <v>233.63650000000001</v>
@@ -26073,8 +26106,8 @@
       <c r="G673">
         <v>2438.3000000000002</v>
       </c>
-      <c r="H673">
-        <v>140.33529999999999</v>
+      <c r="H673" s="2">
+        <v>234.4323</v>
       </c>
       <c r="I673">
         <v>234.4323</v>
@@ -26111,8 +26144,8 @@
       <c r="G674">
         <v>2423.41</v>
       </c>
-      <c r="H674">
-        <v>140.3254</v>
+      <c r="H674" s="2">
+        <v>231.09209999999999</v>
       </c>
       <c r="I674">
         <v>231.09209999999999</v>
@@ -26149,8 +26182,8 @@
       <c r="G675">
         <v>2425.1799999999998</v>
       </c>
-      <c r="H675">
-        <v>140.31569999999999</v>
+      <c r="H675" s="2">
+        <v>229.22139999999999</v>
       </c>
       <c r="I675">
         <v>229.22139999999999</v>
@@ -26187,8 +26220,8 @@
       <c r="G676">
         <v>2459.27</v>
       </c>
-      <c r="H676">
-        <v>140.30590000000001</v>
+      <c r="H676" s="2">
+        <v>230.0351</v>
       </c>
       <c r="I676">
         <v>230.0351</v>
@@ -26225,8 +26258,8 @@
       <c r="G677">
         <v>2472.54</v>
       </c>
-      <c r="H677">
-        <v>140.2961</v>
+      <c r="H677" s="2">
+        <v>232.0241</v>
       </c>
       <c r="I677">
         <v>232.0241</v>
@@ -26263,8 +26296,8 @@
       <c r="G678">
         <v>2472.1</v>
       </c>
-      <c r="H678">
-        <v>140.28620000000001</v>
+      <c r="H678" s="2">
+        <v>231.34649999999999</v>
       </c>
       <c r="I678">
         <v>231.34649999999999</v>
@@ -26301,8 +26334,8 @@
       <c r="G679">
         <v>2476.83</v>
       </c>
-      <c r="H679">
-        <v>140.2765</v>
+      <c r="H679" s="2">
+        <v>232.732</v>
       </c>
       <c r="I679">
         <v>232.732</v>
@@ -26339,8 +26372,8 @@
       <c r="G680">
         <v>2441.3200000000002</v>
       </c>
-      <c r="H680">
-        <v>140.26679999999999</v>
+      <c r="H680" s="2">
+        <v>233.57</v>
       </c>
       <c r="I680">
         <v>233.57</v>
@@ -26377,8 +26410,8 @@
       <c r="G681">
         <v>2425.5500000000002</v>
       </c>
-      <c r="H681">
-        <v>140.25710000000001</v>
+      <c r="H681" s="2">
+        <v>233.36949999999999</v>
       </c>
       <c r="I681">
         <v>233.36949999999999</v>
@@ -26415,8 +26448,8 @@
       <c r="G682">
         <v>2443.0500000000002</v>
       </c>
-      <c r="H682">
-        <v>140.2474</v>
+      <c r="H682" s="2">
+        <v>233.0162</v>
       </c>
       <c r="I682">
         <v>233.0162</v>
@@ -26453,8 +26486,8 @@
       <c r="G683">
         <v>2476.5500000000002</v>
       </c>
-      <c r="H683">
-        <v>140.23759999999999</v>
+      <c r="H683" s="2">
+        <v>233.16419999999999</v>
       </c>
       <c r="I683">
         <v>233.16419999999999</v>
@@ -26491,8 +26524,8 @@
       <c r="G684">
         <v>2461.4299999999998</v>
       </c>
-      <c r="H684">
-        <v>140.22790000000001</v>
+      <c r="H684" s="2">
+        <v>234.13650000000001</v>
       </c>
       <c r="I684">
         <v>234.13650000000001</v>
@@ -26529,8 +26562,8 @@
       <c r="G685">
         <v>2500.23</v>
       </c>
-      <c r="H685">
-        <v>140.2183</v>
+      <c r="H685" s="2">
+        <v>232.59350000000001</v>
       </c>
       <c r="I685">
         <v>232.59350000000001</v>
@@ -26567,8 +26600,8 @@
       <c r="G686">
         <v>2502.2199999999998</v>
       </c>
-      <c r="H686">
-        <v>140.20840000000001</v>
+      <c r="H686" s="2">
+        <v>232.489</v>
       </c>
       <c r="I686">
         <v>232.489</v>
@@ -26605,8 +26638,8 @@
       <c r="G687">
         <v>2519.36</v>
       </c>
-      <c r="H687">
-        <v>140.1986</v>
+      <c r="H687" s="2">
+        <v>232.4563</v>
       </c>
       <c r="I687">
         <v>232.4563</v>
@@ -26643,8 +26676,8 @@
       <c r="G688">
         <v>2549.33</v>
       </c>
-      <c r="H688">
-        <v>140.18899999999999</v>
+      <c r="H688" s="2">
+        <v>232.1694</v>
       </c>
       <c r="I688">
         <v>232.1694</v>
@@ -26681,8 +26714,8 @@
       <c r="G689">
         <v>2553.17</v>
       </c>
-      <c r="H689">
-        <v>140.17910000000001</v>
+      <c r="H689" s="2">
+        <v>233.43860000000001</v>
       </c>
       <c r="I689">
         <v>233.43860000000001</v>
@@ -26719,8 +26752,8 @@
       <c r="G690">
         <v>2575.21</v>
       </c>
-      <c r="H690">
-        <v>140.16929999999999</v>
+      <c r="H690" s="2">
+        <v>232.92689999999999</v>
       </c>
       <c r="I690">
         <v>232.92689999999999</v>
@@ -26757,8 +26790,8 @@
       <c r="G691">
         <v>2581.0700000000002</v>
       </c>
-      <c r="H691">
-        <v>140.15950000000001</v>
+      <c r="H691" s="2">
+        <v>233.98480000000001</v>
       </c>
       <c r="I691">
         <v>233.98480000000001</v>
@@ -26795,8 +26828,8 @@
       <c r="G692">
         <v>2587.84</v>
       </c>
-      <c r="H692">
-        <v>140.1498</v>
+      <c r="H692" s="2">
+        <v>235.1242</v>
       </c>
       <c r="I692">
         <v>235.1242</v>
@@ -26833,8 +26866,8 @@
       <c r="G693">
         <v>2582.3000000000002</v>
       </c>
-      <c r="H693">
-        <v>140.14019999999999</v>
+      <c r="H693" s="2">
+        <v>234.30240000000001</v>
       </c>
       <c r="I693">
         <v>234.30240000000001</v>
@@ -26871,8 +26904,8 @@
       <c r="G694">
         <v>2578.85</v>
       </c>
-      <c r="H694">
-        <v>140.13040000000001</v>
+      <c r="H694" s="2">
+        <v>234.9768</v>
       </c>
       <c r="I694">
         <v>234.9768</v>
@@ -26909,8 +26942,8 @@
       <c r="G695">
         <v>2602.42</v>
       </c>
-      <c r="H695">
-        <v>140.1207</v>
+      <c r="H695" s="2">
+        <v>235.4162</v>
       </c>
       <c r="I695">
         <v>235.4162</v>
@@ -26947,8 +26980,8 @@
       <c r="G696">
         <v>2642.22</v>
       </c>
-      <c r="H696">
-        <v>140.11150000000001</v>
+      <c r="H696" s="2">
+        <v>236.7859</v>
       </c>
       <c r="I696">
         <v>236.7859</v>
@@ -26985,8 +27018,8 @@
       <c r="G697">
         <v>2651.5</v>
       </c>
-      <c r="H697">
-        <v>140.10310000000001</v>
+      <c r="H697" s="2">
+        <v>237.06710000000001</v>
       </c>
       <c r="I697">
         <v>237.06710000000001</v>
@@ -27023,8 +27056,8 @@
       <c r="G698">
         <v>2675.81</v>
       </c>
-      <c r="H698">
-        <v>140.09379999999999</v>
+      <c r="H698" s="2">
+        <v>236.3306</v>
       </c>
       <c r="I698">
         <v>236.3306</v>
@@ -27061,8 +27094,8 @@
       <c r="G699">
         <v>2683.34</v>
       </c>
-      <c r="H699">
-        <v>140.08410000000001</v>
+      <c r="H699" s="2">
+        <v>234.83340000000001</v>
       </c>
       <c r="I699">
         <v>234.83340000000001</v>
@@ -27099,8 +27132,8 @@
       <c r="G700">
         <v>2673.61</v>
       </c>
-      <c r="H700">
-        <v>140.0744</v>
+      <c r="H700" s="2">
+        <v>233.74469999999999</v>
       </c>
       <c r="I700">
         <v>233.74469999999999</v>
@@ -27137,8 +27170,8 @@
       <c r="G701">
         <v>2743.15</v>
       </c>
-      <c r="H701">
-        <v>140.06479999999999</v>
+      <c r="H701" s="2">
+        <v>233.9169</v>
       </c>
       <c r="I701">
         <v>233.9169</v>
@@ -27175,8 +27208,8 @@
       <c r="G702">
         <v>2786.24</v>
       </c>
-      <c r="H702">
-        <v>140.05510000000001</v>
+      <c r="H702" s="2">
+        <v>233.32050000000001</v>
       </c>
       <c r="I702">
         <v>233.32050000000001</v>
@@ -27213,8 +27246,8 @@
       <c r="G703">
         <v>2810.3</v>
       </c>
-      <c r="H703">
-        <v>140.04509999999999</v>
+      <c r="H703" s="2">
+        <v>233.7441</v>
       </c>
       <c r="I703">
         <v>233.7441</v>
@@ -27251,8 +27284,8 @@
       <c r="G704">
         <v>2872.87</v>
       </c>
-      <c r="H704">
-        <v>140.03530000000001</v>
+      <c r="H704" s="2">
+        <v>233.35409999999999</v>
       </c>
       <c r="I704">
         <v>233.35409999999999</v>
@@ -27289,8 +27322,8 @@
       <c r="G705">
         <v>2762.13</v>
       </c>
-      <c r="H705">
-        <v>140.02539999999999</v>
+      <c r="H705" s="2">
+        <v>232.45089999999999</v>
       </c>
       <c r="I705">
         <v>232.45089999999999</v>
@@ -27327,8 +27360,8 @@
       <c r="G706">
         <v>2619.5500000000002</v>
       </c>
-      <c r="H706">
-        <v>140.0155</v>
+      <c r="H706" s="2">
+        <v>232.61199999999999</v>
       </c>
       <c r="I706">
         <v>232.61199999999999</v>
@@ -27365,8 +27398,8 @@
       <c r="G707">
         <v>2732.22</v>
       </c>
-      <c r="H707">
-        <v>140.00559999999999</v>
+      <c r="H707" s="2">
+        <v>232.82339999999999</v>
       </c>
       <c r="I707">
         <v>232.82339999999999</v>
@@ -27403,8 +27436,8 @@
       <c r="G708">
         <v>2747.3</v>
       </c>
-      <c r="H708">
-        <v>139.9956</v>
+      <c r="H708" s="2">
+        <v>232.87909999999999</v>
       </c>
       <c r="I708">
         <v>232.87909999999999</v>
@@ -27441,8 +27474,8 @@
       <c r="G709">
         <v>2691.25</v>
       </c>
-      <c r="H709">
-        <v>139.98570000000001</v>
+      <c r="H709" s="2">
+        <v>233.66759999999999</v>
       </c>
       <c r="I709">
         <v>233.66759999999999</v>
@@ -27479,8 +27512,8 @@
       <c r="G710">
         <v>2786.57</v>
       </c>
-      <c r="H710">
-        <v>139.97579999999999</v>
+      <c r="H710" s="2">
+        <v>233.94890000000001</v>
       </c>
       <c r="I710">
         <v>233.94890000000001</v>
@@ -27517,8 +27550,8 @@
       <c r="G711">
         <v>2752.01</v>
       </c>
-      <c r="H711">
-        <v>139.9659</v>
+      <c r="H711" s="2">
+        <v>235.00200000000001</v>
       </c>
       <c r="I711">
         <v>235.00200000000001</v>
@@ -27555,8 +27588,8 @@
       <c r="G712">
         <v>2588.2600000000002</v>
       </c>
-      <c r="H712">
-        <v>139.95599999999999</v>
+      <c r="H712" s="2">
+        <v>236.23500000000001</v>
       </c>
       <c r="I712">
         <v>236.23500000000001</v>
@@ -27593,8 +27626,8 @@
       <c r="G713">
         <v>2640.87</v>
       </c>
-      <c r="H713">
-        <v>139.9461</v>
+      <c r="H713" s="2">
+        <v>237.14689999999999</v>
       </c>
       <c r="I713">
         <v>237.14689999999999</v>
@@ -27631,8 +27664,8 @@
       <c r="G714">
         <v>2604.4699999999998</v>
       </c>
-      <c r="H714">
-        <v>139.93639999999999</v>
+      <c r="H714" s="2">
+        <v>236.86709999999999</v>
       </c>
       <c r="I714">
         <v>236.86709999999999</v>
@@ -27669,8 +27702,8 @@
       <c r="G715">
         <v>2656.3</v>
       </c>
-      <c r="H715">
-        <v>139.9264</v>
+      <c r="H715" s="2">
+        <v>236.6472</v>
       </c>
       <c r="I715">
         <v>236.6472</v>
@@ -27707,8 +27740,8 @@
       <c r="G716">
         <v>2670.14</v>
       </c>
-      <c r="H716">
-        <v>139.91650000000001</v>
+      <c r="H716" s="2">
+        <v>235.92699999999999</v>
       </c>
       <c r="I716">
         <v>235.92699999999999</v>
@@ -27745,8 +27778,8 @@
       <c r="G717">
         <v>2669.91</v>
       </c>
-      <c r="H717">
-        <v>139.90649999999999</v>
+      <c r="H717" s="2">
+        <v>236.41659999999999</v>
       </c>
       <c r="I717">
         <v>236.41659999999999</v>
@@ -27783,8 +27816,8 @@
       <c r="G718">
         <v>2663.42</v>
       </c>
-      <c r="H718">
-        <v>139.89660000000001</v>
+      <c r="H718" s="2">
+        <v>236.14949999999999</v>
       </c>
       <c r="I718">
         <v>236.14949999999999</v>
@@ -27821,8 +27854,8 @@
       <c r="G719">
         <v>2727.72</v>
       </c>
-      <c r="H719">
-        <v>139.88679999999999</v>
+      <c r="H719" s="2">
+        <v>235.77699999999999</v>
       </c>
       <c r="I719">
         <v>235.77699999999999</v>
@@ -27859,8 +27892,8 @@
       <c r="G720">
         <v>2712.97</v>
       </c>
-      <c r="H720">
-        <v>139.87700000000001</v>
+      <c r="H720" s="2">
+        <v>233.83680000000001</v>
       </c>
       <c r="I720">
         <v>233.83680000000001</v>
@@ -27897,8 +27930,8 @@
       <c r="G721">
         <v>2721.33</v>
       </c>
-      <c r="H721">
-        <v>139.86699999999999</v>
+      <c r="H721" s="2">
+        <v>234.14160000000001</v>
       </c>
       <c r="I721">
         <v>234.14160000000001</v>
@@ -27935,8 +27968,8 @@
       <c r="G722">
         <v>2734.62</v>
       </c>
-      <c r="H722">
-        <v>139.8571</v>
+      <c r="H722" s="2">
+        <v>233.58670000000001</v>
       </c>
       <c r="I722">
         <v>233.58670000000001</v>
@@ -27973,8 +28006,8 @@
       <c r="G723">
         <v>2779.03</v>
       </c>
-      <c r="H723">
-        <v>139.84739999999999</v>
+      <c r="H723" s="2">
+        <v>231.3151</v>
       </c>
       <c r="I723">
         <v>231.3151</v>
@@ -28011,8 +28044,8 @@
       <c r="G724">
         <v>2779.66</v>
       </c>
-      <c r="H724">
-        <v>139.83760000000001</v>
+      <c r="H724" s="2">
+        <v>234.23050000000001</v>
       </c>
       <c r="I724">
         <v>234.23050000000001</v>
@@ -28049,8 +28082,8 @@
       <c r="G725">
         <v>2754.88</v>
       </c>
-      <c r="H725">
-        <v>139.82769999999999</v>
+      <c r="H725" s="2">
+        <v>233.9905</v>
       </c>
       <c r="I725">
         <v>233.9905</v>
@@ -28087,8 +28120,8 @@
       <c r="G726">
         <v>2718.37</v>
       </c>
-      <c r="H726">
-        <v>139.81780000000001</v>
+      <c r="H726" s="2">
+        <v>235.0932</v>
       </c>
       <c r="I726">
         <v>235.0932</v>
@@ -28125,8 +28158,8 @@
       <c r="G727">
         <v>2759.82</v>
       </c>
-      <c r="H727">
-        <v>139.80799999999999</v>
+      <c r="H727" s="2">
+        <v>235.18090000000001</v>
       </c>
       <c r="I727">
         <v>235.18090000000001</v>
@@ -28163,8 +28196,8 @@
       <c r="G728">
         <v>2801.31</v>
       </c>
-      <c r="H728">
-        <v>139.79820000000001</v>
+      <c r="H728" s="2">
+        <v>235.73750000000001</v>
       </c>
       <c r="I728">
         <v>235.73750000000001</v>
@@ -28201,8 +28234,8 @@
       <c r="G729">
         <v>2801.83</v>
       </c>
-      <c r="H729">
-        <v>139.78829999999999</v>
+      <c r="H729" s="2">
+        <v>235.20140000000001</v>
       </c>
       <c r="I729">
         <v>235.20140000000001</v>
@@ -28239,8 +28272,8 @@
       <c r="G730">
         <v>2818.82</v>
       </c>
-      <c r="H730">
-        <v>139.7783</v>
+      <c r="H730" s="2">
+        <v>234.59809999999999</v>
       </c>
       <c r="I730">
         <v>234.59809999999999</v>
@@ -28277,8 +28310,8 @@
       <c r="G731">
         <v>2840.35</v>
       </c>
-      <c r="H731">
-        <v>139.76849999999999</v>
+      <c r="H731" s="2">
+        <v>233.6147</v>
       </c>
       <c r="I731">
         <v>233.6147</v>
@@ -28315,8 +28348,8 @@
       <c r="G732">
         <v>2833.28</v>
       </c>
-      <c r="H732">
-        <v>139.75880000000001</v>
+      <c r="H732" s="2">
+        <v>234.28049999999999</v>
       </c>
       <c r="I732">
         <v>234.28049999999999</v>
@@ -28353,8 +28386,8 @@
       <c r="G733">
         <v>2850.13</v>
       </c>
-      <c r="H733">
-        <v>139.749</v>
+      <c r="H733" s="2">
+        <v>233.7216</v>
       </c>
       <c r="I733">
         <v>233.7216</v>
@@ -28391,8 +28424,8 @@
       <c r="G734">
         <v>2874.69</v>
       </c>
-      <c r="H734">
-        <v>139.73920000000001</v>
+      <c r="H734" s="2">
+        <v>233.62190000000001</v>
       </c>
       <c r="I734">
         <v>233.62190000000001</v>
@@ -28429,8 +28462,8 @@
       <c r="G735">
         <v>2901.52</v>
       </c>
-      <c r="H735">
-        <v>139.7294</v>
+      <c r="H735" s="2">
+        <v>232.93360000000001</v>
       </c>
       <c r="I735">
         <v>232.93360000000001</v>
@@ -28467,8 +28500,8 @@
       <c r="G736">
         <v>2871.68</v>
       </c>
-      <c r="H736">
-        <v>139.7199</v>
+      <c r="H736" s="2">
+        <v>233.74279999999999</v>
       </c>
       <c r="I736">
         <v>233.74279999999999</v>
@@ -28505,8 +28538,8 @@
       <c r="G737">
         <v>2904.98</v>
       </c>
-      <c r="H737">
-        <v>139.71</v>
+      <c r="H737" s="2">
+        <v>233.39670000000001</v>
       </c>
       <c r="I737">
         <v>233.39670000000001</v>
@@ -28543,8 +28576,8 @@
       <c r="G738">
         <v>2929.67</v>
       </c>
-      <c r="H738">
-        <v>139.70009999999999</v>
+      <c r="H738" s="2">
+        <v>233.8005</v>
       </c>
       <c r="I738">
         <v>233.8005</v>
@@ -28581,8 +28614,8 @@
       <c r="G739">
         <v>2913.98</v>
       </c>
-      <c r="H739">
-        <v>139.6901</v>
+      <c r="H739" s="2">
+        <v>232.59710000000001</v>
       </c>
       <c r="I739">
         <v>232.59710000000001</v>
@@ -28619,8 +28652,8 @@
       <c r="G740">
         <v>2885.57</v>
       </c>
-      <c r="H740">
-        <v>139.68039999999999</v>
+      <c r="H740" s="2">
+        <v>230.7364</v>
       </c>
       <c r="I740">
         <v>230.7364</v>
@@ -28657,8 +28690,8 @@
       <c r="G741">
         <v>2767.13</v>
       </c>
-      <c r="H741">
-        <v>139.6705</v>
+      <c r="H741" s="2">
+        <v>230.3938</v>
       </c>
       <c r="I741">
         <v>230.3938</v>
@@ -28695,8 +28728,8 @@
       <c r="G742">
         <v>2767.78</v>
       </c>
-      <c r="H742">
-        <v>139.66050000000001</v>
+      <c r="H742" s="2">
+        <v>230.7407</v>
       </c>
       <c r="I742">
         <v>230.7407</v>
@@ -28733,8 +28766,8 @@
       <c r="G743">
         <v>2658.69</v>
       </c>
-      <c r="H743">
-        <v>139.65039999999999</v>
+      <c r="H743" s="2">
+        <v>232.47149999999999</v>
       </c>
       <c r="I743">
         <v>232.47149999999999</v>
@@ -28771,8 +28804,8 @@
       <c r="G744">
         <v>2723.06</v>
       </c>
-      <c r="H744">
-        <v>139.64060000000001</v>
+      <c r="H744" s="2">
+        <v>232.41499999999999</v>
       </c>
       <c r="I744">
         <v>232.41499999999999</v>
@@ -28809,8 +28842,8 @@
       <c r="G745">
         <v>2781.01</v>
       </c>
-      <c r="H745">
-        <v>139.63079999999999</v>
+      <c r="H745" s="2">
+        <v>232.18190000000001</v>
       </c>
       <c r="I745">
         <v>232.18190000000001</v>
@@ -28847,8 +28880,8 @@
       <c r="G746">
         <v>2736.27</v>
       </c>
-      <c r="H746">
-        <v>139.62100000000001</v>
+      <c r="H746" s="2">
+        <v>231.86080000000001</v>
       </c>
       <c r="I746">
         <v>231.86080000000001</v>
@@ -28885,8 +28918,8 @@
       <c r="G747">
         <v>2632.56</v>
       </c>
-      <c r="H747">
-        <v>139.61109999999999</v>
+      <c r="H747" s="2">
+        <v>232.61369999999999</v>
       </c>
       <c r="I747">
         <v>232.61369999999999</v>
@@ -28923,8 +28956,8 @@
       <c r="G748">
         <v>2760.17</v>
       </c>
-      <c r="H748">
-        <v>139.60130000000001</v>
+      <c r="H748" s="2">
+        <v>233.8912</v>
       </c>
       <c r="I748">
         <v>233.8912</v>
@@ -28961,8 +28994,8 @@
       <c r="G749">
         <v>2633.08</v>
       </c>
-      <c r="H749">
-        <v>139.5916</v>
+      <c r="H749" s="2">
+        <v>234.68680000000001</v>
       </c>
       <c r="I749">
         <v>234.68680000000001</v>
@@ -28999,8 +29032,8 @@
       <c r="G750">
         <v>2599.9499999999998</v>
       </c>
-      <c r="H750">
-        <v>139.58189999999999</v>
+      <c r="H750" s="2">
+        <v>235.3672</v>
       </c>
       <c r="I750">
         <v>235.3672</v>
@@ -29037,8 +29070,8 @@
       <c r="G751">
         <v>2416.62</v>
       </c>
-      <c r="H751">
-        <v>139.572</v>
+      <c r="H751" s="2">
+        <v>235.95779999999999</v>
       </c>
       <c r="I751">
         <v>235.95779999999999</v>
@@ -29075,8 +29108,8 @@
       <c r="G752">
         <v>2485.7399999999998</v>
       </c>
-      <c r="H752">
-        <v>139.56209999999999</v>
+      <c r="H752" s="2">
+        <v>236.04810000000001</v>
       </c>
       <c r="I752">
         <v>236.04810000000001</v>
@@ -29113,8 +29146,8 @@
       <c r="G753">
         <v>2531.94</v>
       </c>
-      <c r="H753">
-        <v>139.5523</v>
+      <c r="H753" s="2">
+        <v>235.61250000000001</v>
       </c>
       <c r="I753">
         <v>235.61250000000001</v>
@@ -29151,8 +29184,8 @@
       <c r="G754">
         <v>2596.2600000000002</v>
       </c>
-      <c r="H754">
-        <v>139.54239999999999</v>
+      <c r="H754" s="2">
+        <v>236.07300000000001</v>
       </c>
       <c r="I754">
         <v>236.07300000000001</v>
@@ -29189,8 +29222,8 @@
       <c r="G755">
         <v>2670.71</v>
       </c>
-      <c r="H755">
-        <v>139.5325</v>
+      <c r="H755" s="2">
+        <v>236.6969</v>
       </c>
       <c r="I755">
         <v>236.6969</v>
@@ -29227,8 +29260,8 @@
       <c r="G756">
         <v>2664.76</v>
       </c>
-      <c r="H756">
-        <v>139.5224</v>
+      <c r="H756" s="2">
+        <v>238.0736</v>
       </c>
       <c r="I756">
         <v>238.0736</v>
@@ -29265,8 +29298,8 @@
       <c r="G757">
         <v>2706.53</v>
       </c>
-      <c r="H757">
-        <v>139.51249999999999</v>
+      <c r="H757" s="2">
+        <v>237.9753</v>
       </c>
       <c r="I757">
         <v>237.9753</v>
@@ -29303,8 +29336,8 @@
       <c r="G758">
         <v>2707.88</v>
       </c>
-      <c r="H758">
-        <v>139.5026</v>
+      <c r="H758" s="2">
+        <v>237.47219999999999</v>
       </c>
       <c r="I758">
         <v>237.47219999999999</v>
@@ -29341,8 +29374,8 @@
       <c r="G759">
         <v>2775.6</v>
       </c>
-      <c r="H759">
-        <v>139.49270000000001</v>
+      <c r="H759" s="2">
+        <v>237.9622</v>
       </c>
       <c r="I759">
         <v>237.9622</v>
@@ -29379,8 +29412,8 @@
       <c r="G760">
         <v>2792.67</v>
       </c>
-      <c r="H760">
-        <v>139.48269999999999</v>
+      <c r="H760" s="2">
+        <v>238.16249999999999</v>
       </c>
       <c r="I760">
         <v>238.16249999999999</v>
@@ -29417,8 +29450,8 @@
       <c r="G761">
         <v>2803.69</v>
       </c>
-      <c r="H761">
-        <v>139.4727</v>
+      <c r="H761" s="2">
+        <v>237.5531</v>
       </c>
       <c r="I761">
         <v>237.5531</v>
@@ -29455,8 +29488,8 @@
       <c r="G762">
         <v>2743.07</v>
       </c>
-      <c r="H762">
-        <v>139.46270000000001</v>
+      <c r="H762" s="2">
+        <v>240.0891</v>
       </c>
       <c r="I762">
         <v>240.0891</v>
@@ -29493,8 +29526,8 @@
       <c r="G763">
         <v>2822.48</v>
       </c>
-      <c r="H763">
-        <v>139.45269999999999</v>
+      <c r="H763" s="2">
+        <v>239.8836</v>
       </c>
       <c r="I763">
         <v>239.8836</v>
@@ -29531,8 +29564,8 @@
       <c r="G764">
         <v>2800.71</v>
       </c>
-      <c r="H764">
-        <v>139.4427</v>
+      <c r="H764" s="2">
+        <v>241.89060000000001</v>
       </c>
       <c r="I764">
         <v>241.89060000000001</v>
@@ -29569,8 +29602,8 @@
       <c r="G765">
         <v>2834.4</v>
       </c>
-      <c r="H765">
-        <v>139.43270000000001</v>
+      <c r="H765" s="2">
+        <v>242.03639999999999</v>
       </c>
       <c r="I765">
         <v>242.03639999999999</v>
@@ -29607,8 +29640,8 @@
       <c r="G766">
         <v>2892.74</v>
       </c>
-      <c r="H766">
-        <v>139.4229</v>
+      <c r="H766" s="2">
+        <v>241.54320000000001</v>
       </c>
       <c r="I766">
         <v>241.54320000000001</v>
@@ -29645,8 +29678,8 @@
       <c r="G767">
         <v>2907.41</v>
       </c>
-      <c r="H767">
-        <v>139.41290000000001</v>
+      <c r="H767" s="2">
+        <v>241.44200000000001</v>
       </c>
       <c r="I767">
         <v>241.44200000000001</v>
@@ -29683,8 +29716,8 @@
       <c r="G768">
         <v>2905.03</v>
       </c>
-      <c r="H768">
-        <v>139.40299999999999</v>
+      <c r="H768" s="2">
+        <v>241.5307</v>
       </c>
       <c r="I768">
         <v>241.5307</v>
@@ -29721,8 +29754,8 @@
       <c r="G769">
         <v>2939.88</v>
       </c>
-      <c r="H769">
-        <v>139.3931</v>
+      <c r="H769" s="2">
+        <v>241.99340000000001</v>
       </c>
       <c r="I769">
         <v>241.99340000000001</v>
@@ -29759,8 +29792,8 @@
       <c r="G770">
         <v>2945.64</v>
       </c>
-      <c r="H770">
-        <v>139.38319999999999</v>
+      <c r="H770" s="2">
+        <v>242.126</v>
       </c>
       <c r="I770">
         <v>242.126</v>
@@ -29797,8 +29830,8 @@
       <c r="G771">
         <v>2881.4</v>
       </c>
-      <c r="H771">
-        <v>139.3734</v>
+      <c r="H771" s="2">
+        <v>242.04130000000001</v>
       </c>
       <c r="I771">
         <v>242.04130000000001</v>
@@ -29835,8 +29868,8 @@
       <c r="G772">
         <v>2859.53</v>
       </c>
-      <c r="H772">
-        <v>139.36349999999999</v>
+      <c r="H772" s="2">
+        <v>243.0703</v>
       </c>
       <c r="I772">
         <v>243.0703</v>
@@ -29873,8 +29906,8 @@
       <c r="G773">
         <v>2826.06</v>
       </c>
-      <c r="H773">
-        <v>139.3535</v>
+      <c r="H773" s="2">
+        <v>243.5574</v>
       </c>
       <c r="I773">
         <v>243.5574</v>
@@ -29911,8 +29944,8 @@
       <c r="G774">
         <v>2752.06</v>
       </c>
-      <c r="H774">
-        <v>139.34350000000001</v>
+      <c r="H774" s="2">
+        <v>244.61840000000001</v>
       </c>
       <c r="I774">
         <v>244.61840000000001</v>
@@ -29949,8 +29982,8 @@
       <c r="G775">
         <v>2873.34</v>
       </c>
-      <c r="H775">
-        <v>139.33369999999999</v>
+      <c r="H775" s="2">
+        <v>247.6798</v>
       </c>
       <c r="I775">
         <v>247.6798</v>
@@ -29987,8 +30020,8 @@
       <c r="G776">
         <v>2886.98</v>
       </c>
-      <c r="H776">
-        <v>139.32509999999999</v>
+      <c r="H776" s="2">
+        <v>247.83609999999999</v>
       </c>
       <c r="I776">
         <v>247.83609999999999</v>
@@ -30025,8 +30058,8 @@
       <c r="G777">
         <v>2950.46</v>
       </c>
-      <c r="H777">
-        <v>139.315</v>
+      <c r="H777" s="2">
+        <v>249.1035</v>
       </c>
       <c r="I777">
         <v>249.1035</v>
@@ -30063,8 +30096,8 @@
       <c r="G778">
         <v>2941.76</v>
       </c>
-      <c r="H778">
-        <v>139.30510000000001</v>
+      <c r="H778" s="2">
+        <v>250.19919999999999</v>
       </c>
       <c r="I778">
         <v>250.19919999999999</v>
@@ -30101,8 +30134,8 @@
       <c r="G779">
         <v>2990.41</v>
       </c>
-      <c r="H779">
-        <v>139.29519999999999</v>
+      <c r="H779" s="2">
+        <v>252.28710000000001</v>
       </c>
       <c r="I779">
         <v>252.28710000000001</v>
@@ -30139,8 +30172,8 @@
       <c r="G780">
         <v>3013.77</v>
       </c>
-      <c r="H780">
-        <v>139.28530000000001</v>
+      <c r="H780" s="2">
+        <v>249.9188</v>
       </c>
       <c r="I780">
         <v>249.9188</v>
@@ -30177,8 +30210,8 @@
       <c r="G781">
         <v>2976.61</v>
       </c>
-      <c r="H781">
-        <v>139.27529999999999</v>
+      <c r="H781" s="2">
+        <v>252.42009999999999</v>
       </c>
       <c r="I781">
         <v>252.42009999999999</v>
@@ -30215,8 +30248,8 @@
       <c r="G782">
         <v>3025.86</v>
       </c>
-      <c r="H782">
-        <v>139.2653961</v>
+      <c r="H782" s="2">
+        <v>253.17449999999999</v>
       </c>
       <c r="I782">
         <v>253.17449999999999</v>
@@ -30253,8 +30286,8 @@
       <c r="G783">
         <v>2932.05</v>
       </c>
-      <c r="H783">
-        <v>139.25549319999999</v>
+      <c r="H783" s="2">
+        <v>255.4828</v>
       </c>
       <c r="I783">
         <v>255.4828</v>
@@ -30291,8 +30324,8 @@
       <c r="G784">
         <v>2918.65</v>
       </c>
-      <c r="H784">
-        <v>139.24590000000001</v>
+      <c r="H784" s="2">
+        <v>255.3398</v>
       </c>
       <c r="I784">
         <v>255.3398</v>
@@ -30329,8 +30362,8 @@
       <c r="G785">
         <v>2918.65</v>
       </c>
-      <c r="H785">
-        <v>139.2416992</v>
+      <c r="H785" s="2">
+        <v>255.3398</v>
       </c>
       <c r="I785">
         <v>255.3398</v>

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B2F28F-0C33-43EF-9D65-FC4F80B1EEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE28643-3609-4641-AC47-31041D4977F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,13 +439,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Archive\In-Output of Bloomberg's Model\Data_for_Experimentation_Archive\Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A380848-7104-4A16-98E2-55F51E8983B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA7B83-2227-4DCB-AF71-F216066C216D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5439B062-52C3-4DD1-9344-1682D78AB56B}"/>
+    <workbookView xWindow="2565" yWindow="3540" windowWidth="18000" windowHeight="9270" xr2:uid="{C972A850-1D71-4944-80F9-E7F8ED65690A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,25 +35,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>EUNH GY Equity</t>
+    <t>LEATTREU Index</t>
   </si>
   <si>
-    <t>EUN5 GY Equity</t>
+    <t>LEC4TREU Index</t>
   </si>
   <si>
-    <t>LFGGBDR LX Equity</t>
+    <t>BEGCGA Index</t>
   </si>
   <si>
-    <t>SPY US Equity</t>
+    <t>SXUSR Index</t>
   </si>
   <si>
-    <t>SX5EEX GY Equity</t>
+    <t>SX5R Index</t>
   </si>
   <si>
-    <t>FLOT FP Equity</t>
+    <t>LEF1TREU Index</t>
   </si>
   <si>
-    <t>PARSTEI LX Equity</t>
+    <t>EUR001M Index</t>
   </si>
 </sst>
 </file>
@@ -406,23 +406,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52852A3-EC56-426D-9678-C48F252F7CEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0347B-4CC1-4526-B246-D57236E85F3D}">
   <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -450,6808 +445,6814 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42209</v>
+        <v>42202</v>
       </c>
       <c r="B2">
-        <v>119.6</v>
+        <v>240.26410000000001</v>
       </c>
       <c r="C2">
-        <v>126.53</v>
+        <v>211.07820000000001</v>
+      </c>
+      <c r="D2">
+        <v>133.63</v>
       </c>
       <c r="E2">
-        <v>208</v>
+        <v>2190.29</v>
       </c>
       <c r="F2">
-        <v>36.81</v>
+        <v>7019.86</v>
       </c>
       <c r="G2">
-        <v>100.21</v>
+        <v>129.7542</v>
       </c>
       <c r="H2">
-        <v>72.243790000000004</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42216</v>
+        <v>42209</v>
       </c>
       <c r="B3">
-        <v>120.14</v>
+        <v>241.77199999999999</v>
       </c>
       <c r="C3">
-        <v>126.77</v>
+        <v>211.30269999999999</v>
+      </c>
+      <c r="D3">
+        <v>131.87</v>
       </c>
       <c r="E3">
-        <v>210.5</v>
+        <v>2120.9299999999998</v>
       </c>
       <c r="F3">
-        <v>36.835000000000001</v>
+        <v>6804.12</v>
       </c>
       <c r="G3">
-        <v>100.25</v>
+        <v>129.77699999999999</v>
       </c>
       <c r="H3">
-        <v>72.243781999999996</v>
+        <v>99.972222165509251</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42223</v>
+        <v>42216</v>
       </c>
       <c r="B4">
-        <v>119.82</v>
+        <v>242.81890000000001</v>
       </c>
       <c r="C4">
-        <v>126.79</v>
+        <v>211.43299999999999</v>
       </c>
       <c r="D4">
-        <v>13.7453</v>
+        <v>126.71</v>
       </c>
       <c r="E4">
-        <v>207.95</v>
+        <v>2120.61</v>
       </c>
       <c r="F4">
-        <v>37.204999999999998</v>
+        <v>6858.13</v>
       </c>
       <c r="G4">
-        <v>100.29</v>
+        <v>129.82380000000001</v>
       </c>
       <c r="H4">
-        <v>72.243758999999997</v>
+        <v>99.958708625151331</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42230</v>
+        <v>42223</v>
       </c>
       <c r="B5">
-        <v>119.99</v>
+        <v>242.1439</v>
       </c>
       <c r="C5">
-        <v>126.69</v>
+        <v>211.61969999999999</v>
       </c>
       <c r="D5">
-        <v>15.729799999999999</v>
+        <v>128.41</v>
       </c>
       <c r="E5">
-        <v>209.42</v>
+        <v>2106.77</v>
       </c>
       <c r="F5">
-        <v>35.71</v>
+        <v>6882.95</v>
       </c>
       <c r="G5">
-        <v>100.31</v>
+        <v>129.84729999999999</v>
       </c>
       <c r="H5">
-        <v>72.243735999999998</v>
+        <v>99.878708668351322</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42237</v>
+        <v>42230</v>
       </c>
       <c r="B6">
-        <v>120.15</v>
+        <v>242.53399999999999</v>
       </c>
       <c r="C6">
-        <v>126.63</v>
+        <v>211.53630000000001</v>
       </c>
       <c r="D6">
-        <v>15.5298</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="E6">
-        <v>197.83</v>
+        <v>2086.23</v>
       </c>
       <c r="F6">
-        <v>33.200000000000003</v>
+        <v>6670.09</v>
       </c>
       <c r="G6">
-        <v>100.31</v>
+        <v>129.86359999999999</v>
       </c>
       <c r="H6">
-        <v>72.243651999999997</v>
+        <v>99.829325939956263</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42244</v>
+        <v>42237</v>
       </c>
       <c r="B7">
-        <v>119.14</v>
+        <v>242.72380000000001</v>
       </c>
       <c r="C7">
-        <v>125.65</v>
+        <v>211.3674</v>
       </c>
       <c r="D7">
-        <v>16.124199999999998</v>
+        <v>146.94</v>
       </c>
       <c r="E7">
-        <v>199.28</v>
+        <v>1922.17</v>
       </c>
       <c r="F7">
-        <v>33.630000000000003</v>
+        <v>6225.02</v>
       </c>
       <c r="G7">
-        <v>100.3</v>
+        <v>129.86940000000001</v>
       </c>
       <c r="H7">
-        <v>72.243423000000007</v>
+        <v>99.746973011513361</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42251</v>
+        <v>42244</v>
       </c>
       <c r="B8">
-        <v>119.61</v>
+        <v>240.84010000000001</v>
       </c>
       <c r="C8">
-        <v>126</v>
+        <v>210.9811</v>
       </c>
       <c r="D8">
-        <v>16.356400000000001</v>
+        <v>152.34</v>
       </c>
       <c r="E8">
-        <v>192.59</v>
+        <v>1966.19</v>
       </c>
       <c r="F8">
-        <v>32.5</v>
+        <v>6250.57</v>
       </c>
       <c r="G8">
-        <v>100.28</v>
+        <v>129.86920000000001</v>
       </c>
       <c r="H8">
-        <v>72.243133999999998</v>
+        <v>99.681755652817714</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42258</v>
+        <v>42251</v>
       </c>
       <c r="B9">
-        <v>119.56</v>
+        <v>241.70189999999999</v>
       </c>
       <c r="C9">
-        <v>125.9</v>
+        <v>211.1712</v>
       </c>
       <c r="D9">
-        <v>16.8858</v>
+        <v>154</v>
       </c>
       <c r="E9">
-        <v>196.74</v>
+        <v>1914.96</v>
       </c>
       <c r="F9">
-        <v>32.65</v>
+        <v>6056.57</v>
       </c>
       <c r="G9">
-        <v>100.25</v>
+        <v>129.84710000000001</v>
       </c>
       <c r="H9">
-        <v>72.242783000000003</v>
+        <v>99.62053111012716</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42265</v>
+        <v>42258</v>
       </c>
       <c r="B10">
-        <v>119.93</v>
+        <v>241.70140000000001</v>
       </c>
       <c r="C10">
-        <v>125.7</v>
+        <v>211.1866</v>
       </c>
       <c r="D10">
-        <v>17.486000000000001</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="E10">
-        <v>195.45</v>
+        <v>1930.26</v>
       </c>
       <c r="F10">
-        <v>31.645</v>
+        <v>6092.34</v>
       </c>
       <c r="G10">
-        <v>100.21</v>
+        <v>129.8272</v>
       </c>
       <c r="H10">
-        <v>72.242348000000007</v>
+        <v>99.62053111012716</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42272</v>
+        <v>42265</v>
       </c>
       <c r="B11">
-        <v>119.87</v>
+        <v>242.44669999999999</v>
       </c>
       <c r="C11">
-        <v>125.04</v>
+        <v>211.02369999999999</v>
       </c>
       <c r="D11">
-        <v>17.396999999999998</v>
+        <v>164.93</v>
       </c>
       <c r="E11">
-        <v>192.85</v>
+        <v>1911.88</v>
       </c>
       <c r="F11">
-        <v>31.265000000000001</v>
+        <v>6069.99</v>
       </c>
       <c r="G11">
-        <v>100.14</v>
+        <v>129.80170000000001</v>
       </c>
       <c r="H11">
-        <v>72.241912999999997</v>
+        <v>99.639761917449647</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42279</v>
+        <v>42272</v>
       </c>
       <c r="B12">
-        <v>121.02</v>
+        <v>242.40199999999999</v>
       </c>
       <c r="C12">
-        <v>124.95</v>
+        <v>210.55439999999999</v>
       </c>
       <c r="D12">
-        <v>17.7926</v>
+        <v>163.93</v>
       </c>
       <c r="E12">
-        <v>195</v>
+        <v>1927.76</v>
       </c>
       <c r="F12">
-        <v>31.035</v>
+        <v>6013.25</v>
       </c>
       <c r="G12">
-        <v>100.07</v>
+        <v>129.70760000000001</v>
       </c>
       <c r="H12">
-        <v>72.241478000000001</v>
+        <v>99.551526592190129</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42286</v>
+        <v>42279</v>
       </c>
       <c r="B13">
-        <v>120.41</v>
+        <v>244.69030000000001</v>
       </c>
       <c r="C13">
-        <v>125.46</v>
+        <v>210.31780000000001</v>
       </c>
       <c r="D13">
-        <v>18.2623</v>
+        <v>166.21</v>
       </c>
       <c r="E13">
-        <v>201.33</v>
+        <v>1929.4</v>
       </c>
       <c r="F13">
-        <v>32.625</v>
+        <v>5983.06</v>
       </c>
       <c r="G13">
-        <v>100.06</v>
+        <v>129.6163</v>
       </c>
       <c r="H13">
-        <v>72.241028</v>
+        <v>99.533508601361461</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42293</v>
+        <v>42286</v>
       </c>
       <c r="B14">
-        <v>120.93</v>
+        <v>243.5376</v>
       </c>
       <c r="C14">
-        <v>125.84</v>
+        <v>210.7517</v>
       </c>
       <c r="D14">
-        <v>18.217500000000001</v>
+        <v>170.53</v>
       </c>
       <c r="E14">
-        <v>203.27</v>
+        <v>1977.27</v>
       </c>
       <c r="F14">
-        <v>32.79</v>
+        <v>6233.03</v>
       </c>
       <c r="G14">
-        <v>100.02</v>
+        <v>129.5976</v>
       </c>
       <c r="H14">
-        <v>72.240547000000007</v>
+        <v>99.533508601361461</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42300</v>
+        <v>42293</v>
       </c>
       <c r="B15">
-        <v>121.65</v>
+        <v>244.58860000000001</v>
       </c>
       <c r="C15">
-        <v>126.48</v>
+        <v>210.96559999999999</v>
       </c>
       <c r="D15">
-        <v>18.615500000000001</v>
+        <v>169.93</v>
       </c>
       <c r="E15">
-        <v>207.51</v>
+        <v>2002.9</v>
       </c>
       <c r="F15">
-        <v>34.395000000000003</v>
+        <v>6283.94</v>
       </c>
       <c r="G15">
-        <v>100.03</v>
+        <v>129.59</v>
       </c>
       <c r="H15">
-        <v>72.240059000000002</v>
+        <v>99.506959937174756</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42307</v>
+        <v>42300</v>
       </c>
       <c r="B16">
-        <v>121.64</v>
+        <v>245.92080000000001</v>
       </c>
       <c r="C16">
-        <v>126.67</v>
+        <v>211.5206</v>
       </c>
       <c r="D16">
-        <v>18.081800000000001</v>
+        <v>174.82</v>
       </c>
       <c r="E16">
-        <v>207.93</v>
+        <v>2127.0100000000002</v>
       </c>
       <c r="F16">
-        <v>34.32</v>
+        <v>6509.17</v>
       </c>
       <c r="G16">
-        <v>100.04</v>
+        <v>129.6045</v>
       </c>
       <c r="H16">
-        <v>72.239570999999998</v>
+        <v>99.481097815816256</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42314</v>
+        <v>42307</v>
       </c>
       <c r="B17">
-        <v>120.05</v>
+        <v>245.94450000000001</v>
       </c>
       <c r="C17">
-        <v>126.24</v>
+        <v>211.6414</v>
       </c>
       <c r="D17">
-        <v>18.361699999999999</v>
+        <v>169.81</v>
       </c>
       <c r="E17">
-        <v>210.04</v>
+        <v>2131.0300000000002</v>
       </c>
       <c r="F17">
-        <v>34.83</v>
+        <v>6468.26</v>
       </c>
       <c r="G17">
-        <v>100.05</v>
+        <v>129.6378</v>
       </c>
       <c r="H17">
-        <v>72.239081999999996</v>
+        <v>99.481097815816256</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42321</v>
+        <v>42314</v>
       </c>
       <c r="B18">
-        <v>121.15</v>
+        <v>242.90520000000001</v>
       </c>
       <c r="C18">
-        <v>126.72</v>
+        <v>211.57470000000001</v>
       </c>
       <c r="D18">
-        <v>18.9239</v>
+        <v>172.73</v>
       </c>
       <c r="E18">
-        <v>202.54</v>
+        <v>2222.35</v>
       </c>
       <c r="F18">
-        <v>33.799999999999997</v>
+        <v>6547.73</v>
       </c>
       <c r="G18">
-        <v>100.06</v>
+        <v>129.6491</v>
       </c>
       <c r="H18">
-        <v>72.238594000000006</v>
+        <v>99.439081052169612</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42328</v>
+        <v>42321</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>245.01310000000001</v>
       </c>
       <c r="C19">
-        <v>127.27</v>
+        <v>212.00380000000001</v>
       </c>
       <c r="D19">
-        <v>18.926300000000001</v>
+        <v>177.44</v>
       </c>
       <c r="E19">
-        <v>209.3108125</v>
+        <v>2141.59</v>
       </c>
       <c r="F19">
-        <v>34.74</v>
+        <v>6379.35</v>
       </c>
       <c r="G19">
-        <v>100.08</v>
+        <v>129.6738</v>
       </c>
       <c r="H19">
-        <v>72.238135999999997</v>
+        <v>99.334242364994793</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42335</v>
+        <v>42328</v>
       </c>
       <c r="B20">
-        <v>122.3</v>
+        <v>246.74619999999999</v>
       </c>
       <c r="C20">
-        <v>127.48</v>
+        <v>212.3218</v>
       </c>
       <c r="D20">
-        <v>18.676300000000001</v>
+        <v>177.57</v>
       </c>
       <c r="E20">
-        <v>209.56</v>
+        <v>2226.5500000000002</v>
       </c>
       <c r="F20">
-        <v>35.090000000000003</v>
+        <v>6597.71</v>
       </c>
       <c r="G20">
-        <v>100.09</v>
+        <v>129.6961</v>
       </c>
       <c r="H20">
-        <v>72.237701000000001</v>
+        <v>99.232052594841889</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42342</v>
+        <v>42335</v>
       </c>
       <c r="B21">
-        <v>120.58</v>
+        <v>247.4194</v>
       </c>
       <c r="C21">
-        <v>126.47</v>
+        <v>212.6052</v>
       </c>
       <c r="D21">
-        <v>17.53</v>
+        <v>175.58</v>
       </c>
       <c r="E21">
-        <v>209.62</v>
+        <v>2240.0300000000002</v>
       </c>
       <c r="F21">
-        <v>33.51</v>
+        <v>6620.28</v>
       </c>
       <c r="G21">
-        <v>100.12</v>
+        <v>129.72579999999999</v>
       </c>
       <c r="H21">
-        <v>72.237281999999993</v>
+        <v>99.172449923204681</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42349</v>
+        <v>42342</v>
       </c>
       <c r="B22">
-        <v>121.67</v>
+        <v>243.9743</v>
       </c>
       <c r="C22">
-        <v>126.78</v>
+        <v>211.81209999999999</v>
       </c>
       <c r="D22">
-        <v>17.0502</v>
+        <v>165.92</v>
       </c>
       <c r="E22">
-        <v>201.88</v>
+        <v>2192.84</v>
       </c>
       <c r="F22">
-        <v>32.26</v>
+        <v>6338.95</v>
       </c>
       <c r="G22">
-        <v>100.13</v>
+        <v>129.7458</v>
       </c>
       <c r="H22">
-        <v>72.236687000000003</v>
+        <v>99.103699871485929</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42356</v>
+        <v>42349</v>
       </c>
       <c r="B23">
-        <v>121.53</v>
+        <v>245.9975</v>
       </c>
       <c r="C23">
-        <v>126.66</v>
+        <v>211.9589</v>
       </c>
       <c r="D23">
-        <v>17.7911</v>
+        <v>162.53</v>
       </c>
       <c r="E23">
-        <v>200.02081250000001</v>
+        <v>2092.02</v>
       </c>
       <c r="F23">
-        <v>32.71</v>
+        <v>6087.81</v>
       </c>
       <c r="G23">
-        <v>100.12</v>
+        <v>129.75030000000001</v>
       </c>
       <c r="H23">
-        <v>72.235695000000007</v>
+        <v>98.998436762837116</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42363</v>
+        <v>42356</v>
       </c>
       <c r="B24">
-        <v>120.76</v>
+        <v>245.74809999999999</v>
       </c>
       <c r="C24">
-        <v>126.35</v>
+        <v>211.92769999999999</v>
       </c>
       <c r="D24">
-        <v>17.621400000000001</v>
+        <v>168.26</v>
       </c>
       <c r="E24">
-        <v>205.68</v>
+        <v>2121.0500000000002</v>
       </c>
       <c r="F24">
-        <v>33.005000000000003</v>
+        <v>6180.88</v>
       </c>
       <c r="G24">
-        <v>100.11</v>
+        <v>129.7466</v>
       </c>
       <c r="H24">
-        <v>72.234848</v>
+        <v>98.945526682352252</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42370</v>
+        <v>42363</v>
       </c>
       <c r="B25">
-        <v>120.78</v>
+        <v>244.13939999999999</v>
       </c>
       <c r="C25">
-        <v>126.43</v>
+        <v>211.75800000000001</v>
       </c>
       <c r="D25">
-        <v>17.663399999999999</v>
+        <v>167.87</v>
       </c>
       <c r="E25">
-        <v>203.87</v>
+        <v>2149.8000000000002</v>
       </c>
       <c r="F25">
-        <v>33.094999999999999</v>
+        <v>6270.46</v>
       </c>
       <c r="G25">
-        <v>100.13</v>
+        <v>129.75059999999999</v>
       </c>
       <c r="H25">
-        <v>72.233856000000003</v>
+        <v>98.935476411045968</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42377</v>
+        <v>42370</v>
       </c>
       <c r="B26">
-        <v>121.54</v>
+        <v>244.53100000000001</v>
       </c>
       <c r="C26">
-        <v>126.57</v>
+        <v>211.87989999999999</v>
       </c>
       <c r="D26">
-        <v>16.917999999999999</v>
+        <v>167.75</v>
       </c>
       <c r="E26">
-        <v>191.923</v>
+        <v>2152.29</v>
       </c>
       <c r="F26">
-        <v>30.44</v>
+        <v>6254.61</v>
       </c>
       <c r="G26">
-        <v>100.13</v>
+        <v>129.75659999999999</v>
       </c>
       <c r="H26">
-        <v>72.232719000000003</v>
+        <v>98.915575948854439</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42384</v>
+        <v>42377</v>
       </c>
       <c r="B27">
-        <v>120.95</v>
+        <v>245.68690000000001</v>
       </c>
       <c r="C27">
-        <v>124.7</v>
+        <v>212.0206</v>
       </c>
       <c r="D27">
-        <v>16.763200000000001</v>
+        <v>161.81</v>
       </c>
       <c r="E27">
-        <v>187.81</v>
+        <v>2016.74</v>
       </c>
       <c r="F27">
-        <v>29.62</v>
+        <v>5826.07</v>
       </c>
       <c r="G27">
-        <v>100.1</v>
+        <v>129.77260000000001</v>
       </c>
       <c r="H27">
-        <v>72.231719999999996</v>
+        <v>98.852161328723568</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42391</v>
+        <v>42384</v>
       </c>
       <c r="B28">
-        <v>121.26</v>
+        <v>246.1396</v>
       </c>
       <c r="C28">
-        <v>124.96</v>
+        <v>211.49359999999999</v>
       </c>
       <c r="D28">
-        <v>16.414000000000001</v>
+        <v>160.18</v>
       </c>
       <c r="E28">
-        <v>190.52</v>
+        <v>1976.33</v>
       </c>
       <c r="F28">
-        <v>30.34</v>
+        <v>5652.47</v>
       </c>
       <c r="G28">
-        <v>100.06</v>
+        <v>129.7346</v>
       </c>
       <c r="H28">
-        <v>72.230727999999999</v>
+        <v>98.838399832995094</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42398</v>
+        <v>42391</v>
       </c>
       <c r="B29">
-        <v>122.56</v>
+        <v>246.6585</v>
       </c>
       <c r="C29">
-        <v>126.05</v>
+        <v>211.5872</v>
       </c>
       <c r="D29">
-        <v>16.175000000000001</v>
+        <v>155.54</v>
       </c>
       <c r="E29">
-        <v>193.72081249999999</v>
+        <v>2030.53</v>
       </c>
       <c r="F29">
-        <v>30.594999999999999</v>
+        <v>5799.04</v>
       </c>
       <c r="G29">
-        <v>100.07</v>
+        <v>129.71039999999999</v>
       </c>
       <c r="H29">
-        <v>72.229729000000006</v>
+        <v>98.793150941797123</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42405</v>
+        <v>42398</v>
       </c>
       <c r="B30">
-        <v>122.37</v>
+        <v>249.3167</v>
       </c>
       <c r="C30">
-        <v>125.68</v>
+        <v>212.24289999999999</v>
       </c>
       <c r="D30">
-        <v>16.1663</v>
+        <v>152.9</v>
       </c>
       <c r="E30">
-        <v>187.95</v>
+        <v>2071.25</v>
       </c>
       <c r="F30">
-        <v>28.99</v>
+        <v>5859.81</v>
       </c>
       <c r="G30">
-        <v>100.01</v>
+        <v>129.72620000000001</v>
       </c>
       <c r="H30">
-        <v>72.228722000000005</v>
+        <v>98.801808967546265</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42412</v>
+        <v>42405</v>
       </c>
       <c r="B31">
-        <v>122.18</v>
+        <v>248.8426</v>
       </c>
       <c r="C31">
-        <v>125.19</v>
+        <v>212.0436</v>
       </c>
       <c r="D31">
-        <v>14.4954</v>
+        <v>154.19</v>
       </c>
       <c r="E31">
-        <v>186.63</v>
+        <v>1944.56</v>
       </c>
       <c r="F31">
-        <v>27.72</v>
+        <v>5553.56</v>
       </c>
       <c r="G31">
-        <v>99.83</v>
+        <v>129.70849999999999</v>
       </c>
       <c r="H31">
-        <v>72.227722</v>
+        <v>98.779974928435649</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42419</v>
+        <v>42412</v>
       </c>
       <c r="B32">
-        <v>122.75</v>
+        <v>248.42420000000001</v>
       </c>
       <c r="C32">
-        <v>125.84</v>
+        <v>211.47540000000001</v>
       </c>
       <c r="D32">
-        <v>15.419600000000001</v>
+        <v>138.84</v>
       </c>
       <c r="E32">
-        <v>192</v>
+        <v>1925.46</v>
       </c>
       <c r="F32">
-        <v>28.86</v>
+        <v>5360.07</v>
       </c>
       <c r="G32">
-        <v>99.81</v>
+        <v>129.56720000000001</v>
       </c>
       <c r="H32">
-        <v>72.226730000000003</v>
+        <v>98.754333911012907</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42426</v>
+        <v>42419</v>
       </c>
       <c r="B33">
-        <v>123.36</v>
+        <v>249.65539999999999</v>
       </c>
       <c r="C33">
-        <v>126.32</v>
+        <v>212.0916</v>
       </c>
       <c r="D33">
-        <v>15.675000000000001</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="E33">
-        <v>195.08918750000001</v>
+        <v>1994.68</v>
       </c>
       <c r="F33">
-        <v>29.475000000000001</v>
+        <v>5541.79</v>
       </c>
       <c r="G33">
-        <v>99.86</v>
+        <v>129.59289999999999</v>
       </c>
       <c r="H33">
-        <v>72.225730999999996</v>
+        <v>98.691833909710823</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42433</v>
+        <v>42426</v>
       </c>
       <c r="B34">
-        <v>122.8</v>
+        <v>250.8124</v>
       </c>
       <c r="C34">
-        <v>126.64</v>
+        <v>212.44579999999999</v>
       </c>
       <c r="D34">
-        <v>16.308499999999999</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="E34">
-        <v>200.43</v>
+        <v>2047.88</v>
       </c>
       <c r="F34">
-        <v>30.555</v>
+        <v>5648.67</v>
       </c>
       <c r="G34">
-        <v>99.9</v>
+        <v>129.62</v>
       </c>
       <c r="H34">
-        <v>72.225441000000004</v>
+        <v>98.656539775685445</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42440</v>
+        <v>42433</v>
       </c>
       <c r="B35">
-        <v>123.13</v>
+        <v>249.75989999999999</v>
       </c>
       <c r="C35">
-        <v>129.07</v>
+        <v>212.90049999999999</v>
       </c>
       <c r="D35">
-        <v>17.266500000000001</v>
+        <v>156.47999999999999</v>
       </c>
       <c r="E35">
-        <v>202.76</v>
+        <v>2078.69</v>
       </c>
       <c r="F35">
-        <v>30.875</v>
+        <v>5815.12</v>
       </c>
       <c r="G35">
-        <v>100.04</v>
+        <v>129.68360000000001</v>
       </c>
       <c r="H35">
-        <v>72.224907000000002</v>
+        <v>98.592145877714259</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42447</v>
+        <v>42440</v>
       </c>
       <c r="B36">
-        <v>123.76</v>
+        <v>250.45920000000001</v>
       </c>
       <c r="C36">
-        <v>128</v>
+        <v>213.44229999999999</v>
       </c>
       <c r="D36">
-        <v>17.4589</v>
+        <v>165.91</v>
       </c>
       <c r="E36">
-        <v>204.38</v>
+        <v>2071.1799999999998</v>
       </c>
       <c r="F36">
-        <v>30.64</v>
+        <v>5825.88</v>
       </c>
       <c r="G36">
-        <v>100.04</v>
+        <v>129.78270000000001</v>
       </c>
       <c r="H36">
-        <v>72.223770000000002</v>
+        <v>98.520971458304672</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42454</v>
+        <v>42447</v>
       </c>
       <c r="B37">
-        <v>123.86</v>
+        <v>251.62700000000001</v>
       </c>
       <c r="C37">
-        <v>128.06</v>
+        <v>213.64</v>
       </c>
       <c r="D37">
-        <v>17.239100000000001</v>
+        <v>168.36</v>
       </c>
       <c r="E37">
-        <v>203.12</v>
+        <v>2068.5</v>
       </c>
       <c r="F37">
-        <v>29.954999999999998</v>
+        <v>5773.73</v>
       </c>
       <c r="G37">
-        <v>100.06</v>
+        <v>129.8049</v>
       </c>
       <c r="H37">
-        <v>72.222313</v>
+        <v>98.444559491273409</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42461</v>
+        <v>42454</v>
       </c>
       <c r="B38">
-        <v>124.42</v>
+        <v>251.95859999999999</v>
       </c>
       <c r="C38">
-        <v>128.58000000000001</v>
+        <v>213.84180000000001</v>
       </c>
       <c r="D38">
-        <v>17.4834</v>
+        <v>165.8</v>
       </c>
       <c r="E38">
-        <v>206.92</v>
+        <v>2091.16</v>
       </c>
       <c r="F38">
-        <v>29.6</v>
+        <v>5667.01</v>
       </c>
       <c r="G38">
-        <v>100.1</v>
+        <v>129.83099999999999</v>
       </c>
       <c r="H38">
-        <v>72.220375000000004</v>
+        <v>98.422954556154906</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42468</v>
+        <v>42461</v>
       </c>
       <c r="B39">
-        <v>124.38</v>
+        <v>253.11449999999999</v>
       </c>
       <c r="C39">
-        <v>128.85</v>
+        <v>214.10919999999999</v>
       </c>
       <c r="D39">
-        <v>16.9803</v>
+        <v>168.24</v>
       </c>
       <c r="E39">
-        <v>204.49918750000001</v>
+        <v>2093.64</v>
       </c>
       <c r="F39">
-        <v>29.184999999999999</v>
+        <v>5598.44</v>
       </c>
       <c r="G39">
-        <v>100.16</v>
+        <v>129.87719999999999</v>
       </c>
       <c r="H39">
-        <v>72.218673999999993</v>
+        <v>98.410869939840708</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42475</v>
+        <v>42468</v>
       </c>
       <c r="B40">
-        <v>124.07</v>
+        <v>252.98599999999999</v>
       </c>
       <c r="C40">
-        <v>128.76</v>
+        <v>214.40309999999999</v>
       </c>
       <c r="D40">
-        <v>17.072299999999998</v>
+        <v>163.53</v>
       </c>
       <c r="E40">
-        <v>207.78</v>
+        <v>2062.83</v>
       </c>
       <c r="F40">
-        <v>30.65</v>
+        <v>5617.66</v>
       </c>
       <c r="G40">
-        <v>100.19</v>
+        <v>129.88829999999999</v>
       </c>
       <c r="H40">
-        <v>72.216980000000007</v>
+        <v>98.398929704304948</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42482</v>
+        <v>42475</v>
       </c>
       <c r="B41">
-        <v>123.25</v>
+        <v>252.48849999999999</v>
       </c>
       <c r="C41">
-        <v>129.02000000000001</v>
+        <v>214.50399999999999</v>
       </c>
       <c r="D41">
-        <v>17.798500000000001</v>
+        <v>163.84</v>
       </c>
       <c r="E41">
-        <v>208.97</v>
+        <v>2112.86</v>
       </c>
       <c r="F41">
-        <v>31.56</v>
+        <v>5863.56</v>
       </c>
       <c r="G41">
-        <v>100.22</v>
+        <v>129.9393</v>
       </c>
       <c r="H41">
-        <v>72.215286000000006</v>
+        <v>98.39008008449656</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42489</v>
+        <v>42482</v>
       </c>
       <c r="B42">
-        <v>122.92</v>
+        <v>250.71379999999999</v>
       </c>
       <c r="C42">
-        <v>128.77000000000001</v>
+        <v>214.8038</v>
       </c>
       <c r="D42">
-        <v>17.360299999999999</v>
+        <v>170.93</v>
       </c>
       <c r="E42">
-        <v>206.33081250000001</v>
+        <v>2127.88</v>
       </c>
       <c r="F42">
-        <v>30.545000000000002</v>
+        <v>5998</v>
       </c>
       <c r="G42">
-        <v>100.24</v>
+        <v>129.99959999999999</v>
       </c>
       <c r="H42">
-        <v>72.213584999999995</v>
+        <v>98.39008008449656</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42496</v>
+        <v>42489</v>
       </c>
       <c r="B43">
-        <v>123.63</v>
+        <v>250.01779999999999</v>
       </c>
       <c r="C43">
-        <v>129.15</v>
+        <v>214.58760000000001</v>
       </c>
       <c r="D43">
-        <v>17.898700000000002</v>
+        <v>170.72</v>
       </c>
       <c r="E43">
-        <v>205.72</v>
+        <v>2056.0300000000002</v>
       </c>
       <c r="F43">
-        <v>29.844999999999999</v>
+        <v>5848.71</v>
       </c>
       <c r="G43">
-        <v>100.27</v>
+        <v>130.0222</v>
       </c>
       <c r="H43">
-        <v>72.211890999999994</v>
+        <v>98.384232119721077</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42503</v>
+        <v>42496</v>
       </c>
       <c r="B44">
-        <v>123.8</v>
+        <v>251.56219999999999</v>
       </c>
       <c r="C44">
-        <v>128.93</v>
+        <v>214.8715</v>
       </c>
       <c r="D44">
-        <v>18.967600000000001</v>
+        <v>171.49</v>
       </c>
       <c r="E44">
-        <v>204.76</v>
+        <v>2060.9699999999998</v>
       </c>
       <c r="F44">
-        <v>30.105</v>
+        <v>5680.51</v>
       </c>
       <c r="G44">
-        <v>100.28</v>
+        <v>130.02879999999999</v>
       </c>
       <c r="H44">
-        <v>72.210196999999994</v>
+        <v>98.372604277103449</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42510</v>
+        <v>42503</v>
       </c>
       <c r="B45">
-        <v>123.66</v>
+        <v>251.9272</v>
       </c>
       <c r="C45">
-        <v>128.63999999999999</v>
+        <v>214.71270000000001</v>
       </c>
       <c r="D45">
-        <v>19.040400000000002</v>
+        <v>182.13</v>
       </c>
       <c r="E45">
-        <v>205.49</v>
+        <v>2076.31</v>
       </c>
       <c r="F45">
-        <v>30.254999999999999</v>
+        <v>5774.6</v>
       </c>
       <c r="G45">
-        <v>100.29</v>
+        <v>130.03389999999999</v>
       </c>
       <c r="H45">
-        <v>72.208504000000005</v>
+        <v>98.369730664951902</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42517</v>
+        <v>42510</v>
       </c>
       <c r="B46">
-        <v>124.19</v>
+        <v>251.54830000000001</v>
       </c>
       <c r="C46">
-        <v>129.04</v>
+        <v>214.5992</v>
       </c>
       <c r="D46">
-        <v>19.385300000000001</v>
+        <v>183.04</v>
       </c>
       <c r="E46">
-        <v>210.24</v>
+        <v>2097.5100000000002</v>
       </c>
       <c r="F46">
-        <v>31.59</v>
+        <v>5817.4</v>
       </c>
       <c r="G46">
-        <v>100.3</v>
+        <v>130.04159999999999</v>
       </c>
       <c r="H46">
-        <v>72.206801999999996</v>
+        <v>98.369730664951902</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42524</v>
+        <v>42517</v>
       </c>
       <c r="B47">
-        <v>124.71</v>
+        <v>252.64109999999999</v>
       </c>
       <c r="C47">
-        <v>129.55000000000001</v>
+        <v>214.94149999999999</v>
       </c>
       <c r="D47">
-        <v>19.3216</v>
+        <v>186.39</v>
       </c>
       <c r="E47">
-        <v>210.28</v>
+        <v>2161.79</v>
       </c>
       <c r="F47">
-        <v>30.8</v>
+        <v>6057.2</v>
       </c>
       <c r="G47">
-        <v>100.3</v>
+        <v>130.0675</v>
       </c>
       <c r="H47">
-        <v>72.205185</v>
+        <v>98.369730664951902</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42531</v>
+        <v>42524</v>
       </c>
       <c r="B48">
-        <v>125.37</v>
+        <v>253.73699999999999</v>
       </c>
       <c r="C48">
-        <v>130.03</v>
+        <v>215.2276</v>
       </c>
       <c r="D48">
-        <v>19.055700000000002</v>
+        <v>185.74</v>
       </c>
       <c r="E48">
-        <v>210.07</v>
+        <v>2118.25</v>
       </c>
       <c r="F48">
-        <v>29.934999999999999</v>
+        <v>5893.13</v>
       </c>
       <c r="G48">
-        <v>100.31</v>
+        <v>130.08070000000001</v>
       </c>
       <c r="H48">
-        <v>72.204375999999996</v>
+        <v>98.363999994579743</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42538</v>
+        <v>42531</v>
       </c>
       <c r="B49">
-        <v>124.94</v>
+        <v>255.083</v>
       </c>
       <c r="C49">
-        <v>129.77000000000001</v>
+        <v>215.46899999999999</v>
       </c>
       <c r="D49">
-        <v>18.293299999999999</v>
+        <v>183.72</v>
       </c>
       <c r="E49">
-        <v>206.52</v>
+        <v>2125.2800000000002</v>
       </c>
       <c r="F49">
-        <v>29.04</v>
+        <v>5764.08</v>
       </c>
       <c r="G49">
-        <v>100.29</v>
+        <v>130.10470000000001</v>
       </c>
       <c r="H49">
-        <v>72.204361000000006</v>
+        <v>98.358302063134374</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42545</v>
+        <v>42538</v>
       </c>
       <c r="B50">
-        <v>125.28</v>
+        <v>254.20689999999999</v>
       </c>
       <c r="C50">
-        <v>129.63</v>
+        <v>215.41810000000001</v>
       </c>
       <c r="D50">
-        <v>17.740100000000002</v>
+        <v>175.89</v>
       </c>
       <c r="E50">
-        <v>203.13</v>
+        <v>2107.06</v>
       </c>
       <c r="F50">
-        <v>28.324999999999999</v>
+        <v>5650.75</v>
       </c>
       <c r="G50">
-        <v>100.21</v>
+        <v>130.08590000000001</v>
       </c>
       <c r="H50">
-        <v>72.204346000000001</v>
+        <v>98.349803419713751</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42552</v>
+        <v>42545</v>
       </c>
       <c r="B51">
-        <v>127.31</v>
+        <v>255.0119</v>
       </c>
       <c r="C51">
-        <v>130.9</v>
+        <v>215.0538</v>
       </c>
       <c r="D51">
-        <v>18.749199999999998</v>
+        <v>171.07</v>
       </c>
       <c r="E51">
-        <v>209.92081250000001</v>
+        <v>2103.02</v>
       </c>
       <c r="F51">
-        <v>29.414999999999999</v>
+        <v>5601.76</v>
       </c>
       <c r="G51">
-        <v>100.2</v>
+        <v>129.98339999999999</v>
       </c>
       <c r="H51">
-        <v>72.204338000000007</v>
+        <v>98.327331546496978</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42559</v>
+        <v>42552</v>
       </c>
       <c r="B52">
-        <v>127.7</v>
+        <v>259.00569999999999</v>
       </c>
       <c r="C52">
-        <v>131.51</v>
+        <v>215.84950000000001</v>
       </c>
       <c r="D52">
-        <v>18.5975</v>
+        <v>181.3</v>
       </c>
       <c r="E52">
-        <v>212.65</v>
+        <v>2171.4899999999998</v>
       </c>
       <c r="F52">
-        <v>28.995000000000001</v>
+        <v>5848.26</v>
       </c>
       <c r="G52">
-        <v>100.2</v>
+        <v>130.0436</v>
       </c>
       <c r="H52">
-        <v>72.204329999999999</v>
+        <v>98.330078766330033</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42566</v>
+        <v>42559</v>
       </c>
       <c r="B53">
-        <v>126.24</v>
+        <v>259.91449999999998</v>
       </c>
       <c r="C53">
-        <v>130.72999999999999</v>
+        <v>216.3083</v>
       </c>
       <c r="D53">
-        <v>18.760999999999999</v>
+        <v>179.54</v>
       </c>
       <c r="E53">
-        <v>215.83</v>
+        <v>2220.9299999999998</v>
       </c>
       <c r="F53">
-        <v>30.21</v>
+        <v>5788.91</v>
       </c>
       <c r="G53">
-        <v>100.25</v>
+        <v>130.0676</v>
       </c>
       <c r="H53">
-        <v>72.204314999999994</v>
+        <v>98.319059457941876</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42573</v>
+        <v>42566</v>
       </c>
       <c r="B54">
-        <v>126.49</v>
+        <v>257.87639999999999</v>
       </c>
       <c r="C54">
-        <v>131.27000000000001</v>
+        <v>216.72229999999999</v>
       </c>
       <c r="D54">
-        <v>18.560199999999998</v>
+        <v>181.34</v>
       </c>
       <c r="E54">
-        <v>217.24</v>
+        <v>2241.1799999999998</v>
       </c>
       <c r="F54">
-        <v>30.34</v>
+        <v>5939.28</v>
       </c>
       <c r="G54">
-        <v>100.27</v>
+        <v>130.11109999999999</v>
       </c>
       <c r="H54">
-        <v>72.204307999999997</v>
+        <v>98.308160335741846</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42580</v>
+        <v>42573</v>
       </c>
       <c r="B55">
-        <v>127.46</v>
+        <v>258.40339999999998</v>
       </c>
       <c r="C55">
-        <v>131.66</v>
+        <v>216.81229999999999</v>
       </c>
       <c r="D55">
-        <v>18.4343</v>
+        <v>180.19</v>
       </c>
       <c r="E55">
-        <v>217.12</v>
+        <v>2277.84</v>
       </c>
       <c r="F55">
-        <v>30.54</v>
+        <v>5967.66</v>
       </c>
       <c r="G55">
-        <v>100.29</v>
+        <v>130.14279999999999</v>
       </c>
       <c r="H55">
-        <v>72.204291999999995</v>
+        <v>98.308160335741846</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42587</v>
+        <v>42580</v>
       </c>
       <c r="B56">
-        <v>127.18</v>
+        <v>260.52319999999997</v>
       </c>
       <c r="C56">
-        <v>131.58000000000001</v>
+        <v>217.0017</v>
       </c>
       <c r="D56">
-        <v>18.2407</v>
+        <v>178.85</v>
       </c>
       <c r="E56">
-        <v>218.18</v>
+        <v>2233.1</v>
       </c>
       <c r="F56">
-        <v>30.395</v>
+        <v>5959.98</v>
       </c>
       <c r="G56">
-        <v>100.36</v>
+        <v>130.17349999999999</v>
       </c>
       <c r="H56">
-        <v>72.204284999999999</v>
+        <v>98.308160335741846</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42594</v>
+        <v>42587</v>
       </c>
       <c r="B57">
-        <v>127.64</v>
+        <v>259.9194</v>
       </c>
       <c r="C57">
-        <v>131.94</v>
+        <v>217.04079999999999</v>
       </c>
       <c r="D57">
-        <v>18.444299999999998</v>
+        <v>176.93</v>
       </c>
       <c r="E57">
-        <v>218.46</v>
+        <v>2269.64</v>
       </c>
       <c r="F57">
-        <v>31.13</v>
+        <v>5938.95</v>
       </c>
       <c r="G57">
-        <v>100.47</v>
+        <v>130.24590000000001</v>
       </c>
       <c r="H57">
-        <v>72.204277000000005</v>
+        <v>98.310855718549291</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42601</v>
+        <v>42594</v>
       </c>
       <c r="B58">
-        <v>127.09</v>
+        <v>260.7894</v>
       </c>
       <c r="C58">
-        <v>131.66999999999999</v>
+        <v>217.31309999999999</v>
       </c>
       <c r="D58">
-        <v>18.592300000000002</v>
+        <v>179.6</v>
       </c>
       <c r="E58">
-        <v>218.54</v>
+        <v>2246.9899999999998</v>
       </c>
       <c r="F58">
-        <v>30.33</v>
+        <v>6007.27</v>
       </c>
       <c r="G58">
-        <v>100.5</v>
+        <v>130.2962</v>
       </c>
       <c r="H58">
-        <v>72.204262</v>
+        <v>98.316261134692468</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42608</v>
+        <v>42601</v>
       </c>
       <c r="B59">
-        <v>127.32</v>
+        <v>259.9128</v>
       </c>
       <c r="C59">
-        <v>131.91</v>
+        <v>217.19059999999999</v>
       </c>
       <c r="D59">
-        <v>18.569900000000001</v>
+        <v>180.66</v>
       </c>
       <c r="E59">
-        <v>217.29</v>
+        <v>2212.25</v>
       </c>
       <c r="F59">
-        <v>30.78</v>
+        <v>5904</v>
       </c>
       <c r="G59">
-        <v>100.54</v>
+        <v>130.33330000000001</v>
       </c>
       <c r="H59">
-        <v>72.204254000000006</v>
+        <v>98.313543778721595</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42615</v>
+        <v>42608</v>
       </c>
       <c r="B60">
-        <v>126.65</v>
+        <v>260.39760000000001</v>
       </c>
       <c r="C60">
-        <v>131.71</v>
+        <v>217.32839999999999</v>
       </c>
       <c r="D60">
-        <v>18.499700000000001</v>
+        <v>180.78</v>
       </c>
       <c r="E60">
-        <v>218.37</v>
+        <v>2209.08</v>
       </c>
       <c r="F60">
-        <v>31.475000000000001</v>
+        <v>5951.36</v>
       </c>
       <c r="G60">
-        <v>100.6</v>
+        <v>130.36500000000001</v>
       </c>
       <c r="H60">
-        <v>72.203536999999997</v>
+        <v>98.308123713504685</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42622</v>
+        <v>42615</v>
       </c>
       <c r="B61">
-        <v>126.15</v>
+        <v>258.81200000000001</v>
       </c>
       <c r="C61">
-        <v>131.43</v>
+        <v>217.33349999999999</v>
       </c>
       <c r="D61">
-        <v>18.307099999999998</v>
+        <v>180.39</v>
       </c>
       <c r="E61">
-        <v>213.28</v>
+        <v>2244.63</v>
       </c>
       <c r="F61">
-        <v>31.234999999999999</v>
+        <v>6080.53</v>
       </c>
       <c r="G61">
-        <v>100.67</v>
+        <v>130.38759999999999</v>
       </c>
       <c r="H61">
-        <v>72.202826999999999</v>
+        <v>98.30273286702726</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42629</v>
+        <v>42622</v>
       </c>
       <c r="B62">
-        <v>125.93</v>
+        <v>257.7808</v>
       </c>
       <c r="C62">
-        <v>131.18</v>
+        <v>217.34200000000001</v>
       </c>
       <c r="D62">
-        <v>17.860299999999999</v>
+        <v>178.65</v>
       </c>
       <c r="E62">
-        <v>213.37</v>
+        <v>2186.31</v>
       </c>
       <c r="F62">
-        <v>29.46</v>
+        <v>5985.18</v>
       </c>
       <c r="G62">
-        <v>100.7</v>
+        <v>130.39619999999999</v>
       </c>
       <c r="H62">
-        <v>72.202515000000005</v>
+        <v>98.313456749179792</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42636</v>
+        <v>42629</v>
       </c>
       <c r="B63">
-        <v>127.07</v>
+        <v>257.51429999999999</v>
       </c>
       <c r="C63">
-        <v>131.61000000000001</v>
+        <v>217.2671</v>
       </c>
       <c r="D63">
-        <v>18.134399999999999</v>
+        <v>174.41</v>
       </c>
       <c r="E63">
-        <v>215.99</v>
+        <v>2216.15</v>
       </c>
       <c r="F63">
-        <v>30.42</v>
+        <v>5842.13</v>
       </c>
       <c r="G63">
-        <v>100.64</v>
+        <v>130.39920000000001</v>
       </c>
       <c r="H63">
-        <v>72.202499000000003</v>
+        <v>98.308036683962882</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42643</v>
+        <v>42636</v>
       </c>
       <c r="B64">
-        <v>127.29</v>
+        <v>259.62639999999999</v>
       </c>
       <c r="C64">
-        <v>131.59</v>
+        <v>217.42789999999999</v>
       </c>
       <c r="D64">
-        <v>18.2424</v>
+        <v>176.82</v>
       </c>
       <c r="E64">
-        <v>216.3</v>
+        <v>2224.04</v>
       </c>
       <c r="F64">
-        <v>30.16</v>
+        <v>5971.9</v>
       </c>
       <c r="G64">
-        <v>100.54</v>
+        <v>130.40190000000001</v>
       </c>
       <c r="H64">
-        <v>72.202492000000007</v>
+        <v>98.310732066770328</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42650</v>
+        <v>42643</v>
       </c>
       <c r="B65">
-        <v>125.9</v>
+        <v>260.21859999999998</v>
       </c>
       <c r="C65">
-        <v>131.13</v>
+        <v>217.35679999999999</v>
       </c>
       <c r="D65">
-        <v>18.1721</v>
+        <v>178.05</v>
       </c>
       <c r="E65">
-        <v>215.04</v>
+        <v>2221.85</v>
       </c>
       <c r="F65">
-        <v>30.105</v>
+        <v>5918.64</v>
       </c>
       <c r="G65">
-        <v>100.53</v>
+        <v>130.2928</v>
       </c>
       <c r="H65">
-        <v>72.202354</v>
+        <v>98.308029399239288</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42657</v>
+        <v>42650</v>
       </c>
       <c r="B66">
-        <v>125.76</v>
+        <v>257.49220000000003</v>
       </c>
       <c r="C66">
-        <v>130.96</v>
+        <v>217.20580000000001</v>
       </c>
       <c r="D66">
-        <v>17.999199999999998</v>
+        <v>177.53</v>
       </c>
       <c r="E66">
-        <v>213.12</v>
+        <v>2228.3200000000002</v>
       </c>
       <c r="F66">
-        <v>30.375</v>
+        <v>5897.73</v>
       </c>
       <c r="G66">
-        <v>100.51</v>
+        <v>130.3561</v>
       </c>
       <c r="H66">
-        <v>72.202158999999995</v>
+        <v>98.308029399239288</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42664</v>
+        <v>42657</v>
       </c>
       <c r="B67">
-        <v>126.1</v>
+        <v>257.11130000000003</v>
       </c>
       <c r="C67">
-        <v>131.43</v>
+        <v>217.18709999999999</v>
       </c>
       <c r="D67">
-        <v>18.0001</v>
+        <v>176.18</v>
       </c>
       <c r="E67">
-        <v>213.98</v>
+        <v>2244.9699999999998</v>
       </c>
       <c r="F67">
-        <v>30.875</v>
+        <v>5897.33</v>
       </c>
       <c r="G67">
-        <v>100.54</v>
+        <v>130.3913</v>
       </c>
       <c r="H67">
-        <v>72.201981000000004</v>
+        <v>98.308029399239288</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42671</v>
+        <v>42664</v>
       </c>
       <c r="B68">
-        <v>124.54</v>
+        <v>257.84719999999999</v>
       </c>
       <c r="C68">
-        <v>130.54</v>
+        <v>217.4188</v>
       </c>
       <c r="D68">
-        <v>18.1783</v>
+        <v>175.94</v>
       </c>
       <c r="E68">
-        <v>212.54</v>
+        <v>2272.27</v>
       </c>
       <c r="F68">
-        <v>30.965</v>
+        <v>5970.45</v>
       </c>
       <c r="G68">
-        <v>100.54</v>
+        <v>130.4246</v>
       </c>
       <c r="H68">
-        <v>72.201824000000002</v>
+        <v>98.305333935569308</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42678</v>
+        <v>42671</v>
       </c>
       <c r="B69">
-        <v>124.57</v>
+        <v>254.60079999999999</v>
       </c>
       <c r="C69">
-        <v>130.46</v>
+        <v>217.02520000000001</v>
       </c>
       <c r="D69">
-        <v>18.9621</v>
+        <v>176.74</v>
       </c>
       <c r="E69">
-        <v>208.55</v>
+        <v>2248.0500000000002</v>
       </c>
       <c r="F69">
-        <v>29.695</v>
+        <v>5907.2</v>
       </c>
       <c r="G69">
-        <v>100.52</v>
+        <v>130.43279999999999</v>
       </c>
       <c r="H69">
-        <v>72.201849999999993</v>
+        <v>98.302645798537569</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42685</v>
+        <v>42678</v>
       </c>
       <c r="B70">
-        <v>122.35</v>
+        <v>254.71899999999999</v>
       </c>
       <c r="C70">
-        <v>129.44</v>
+        <v>217.10120000000001</v>
       </c>
       <c r="D70">
-        <v>19.553999999999998</v>
+        <v>185.34</v>
       </c>
       <c r="E70">
-        <v>216.42</v>
+        <v>2160.9899999999998</v>
       </c>
       <c r="F70">
-        <v>30.465</v>
+        <v>5691.26</v>
       </c>
       <c r="G70">
-        <v>100.55</v>
+        <v>130.4222</v>
       </c>
       <c r="H70">
-        <v>72.202017999999995</v>
+        <v>98.302645798537569</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42692</v>
+        <v>42685</v>
       </c>
       <c r="B71">
-        <v>122.29</v>
+        <v>250.27459999999999</v>
       </c>
       <c r="C71">
-        <v>128.62</v>
+        <v>216.59360000000001</v>
       </c>
       <c r="D71">
-        <v>19.928899999999999</v>
+        <v>191.06</v>
       </c>
       <c r="E71">
-        <v>218.5</v>
+        <v>2292.58</v>
       </c>
       <c r="F71">
-        <v>30.38</v>
+        <v>5866.09</v>
       </c>
       <c r="G71">
-        <v>100.59</v>
+        <v>130.43109999999999</v>
       </c>
       <c r="H71">
-        <v>72.202152999999996</v>
+        <v>98.299964787784958</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42699</v>
+        <v>42692</v>
       </c>
       <c r="B72">
-        <v>122.26</v>
+        <v>250.18879999999999</v>
       </c>
       <c r="C72">
-        <v>129.29</v>
+        <v>216.3297</v>
       </c>
       <c r="D72">
-        <v>20.0639</v>
+        <v>194.61</v>
       </c>
       <c r="E72">
-        <v>221.52</v>
+        <v>2362.52</v>
       </c>
       <c r="F72">
-        <v>30.66</v>
+        <v>5890.07</v>
       </c>
       <c r="G72">
-        <v>100.53</v>
+        <v>130.42580000000001</v>
       </c>
       <c r="H72">
-        <v>72.202280999999999</v>
+        <v>98.302638629938002</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42706</v>
+        <v>42699</v>
       </c>
       <c r="B73">
-        <v>122.63</v>
+        <v>250.09119999999999</v>
       </c>
       <c r="C73">
-        <v>128.83000000000001</v>
+        <v>216.773</v>
       </c>
       <c r="D73">
-        <v>20.697800000000001</v>
+        <v>195.97</v>
       </c>
       <c r="E73">
-        <v>219.68</v>
+        <v>2387.39</v>
       </c>
       <c r="F73">
-        <v>30.375</v>
+        <v>5926.68</v>
       </c>
       <c r="G73">
-        <v>100.43</v>
+        <v>130.43209999999999</v>
       </c>
       <c r="H73">
-        <v>72.202425000000005</v>
+        <v>98.302638629938002</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42713</v>
+        <v>42706</v>
       </c>
       <c r="B74">
-        <v>121.93</v>
+        <v>250.81139999999999</v>
       </c>
       <c r="C74">
-        <v>129.11000000000001</v>
+        <v>216.56819999999999</v>
       </c>
       <c r="D74">
-        <v>20.244199999999999</v>
+        <v>201.85</v>
       </c>
       <c r="E74">
-        <v>226.51</v>
+        <v>2348.17</v>
       </c>
       <c r="F74">
-        <v>32.244999999999997</v>
+        <v>5873.65</v>
       </c>
       <c r="G74">
-        <v>100.43</v>
+        <v>130.4282</v>
       </c>
       <c r="H74">
-        <v>72.201642000000007</v>
+        <v>98.308000571014276</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42720</v>
+        <v>42713</v>
       </c>
       <c r="B75">
-        <v>122.66</v>
+        <v>249.5119</v>
       </c>
       <c r="C75">
-        <v>129.41</v>
+        <v>216.85499999999999</v>
       </c>
       <c r="D75">
-        <v>19.560199999999998</v>
+        <v>197.47</v>
       </c>
       <c r="E75">
-        <v>225.04</v>
+        <v>2451.84</v>
       </c>
       <c r="F75">
-        <v>32.76</v>
+        <v>6168.53</v>
       </c>
       <c r="G75">
-        <v>100.44</v>
+        <v>130.43039999999999</v>
       </c>
       <c r="H75">
-        <v>72.199967000000001</v>
+        <v>98.308000571014276</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42727</v>
+        <v>42720</v>
       </c>
       <c r="B76">
-        <v>123.54</v>
+        <v>250.75659999999999</v>
       </c>
       <c r="C76">
-        <v>129.9</v>
+        <v>217.1249</v>
       </c>
       <c r="D76">
-        <v>19.7318</v>
+        <v>190.54</v>
       </c>
       <c r="E76">
-        <v>225.71</v>
+        <v>2498.08</v>
       </c>
       <c r="F76">
-        <v>32.935000000000002</v>
+        <v>6278.12</v>
       </c>
       <c r="G76">
-        <v>100.41</v>
+        <v>130.44470000000001</v>
       </c>
       <c r="H76">
-        <v>72.197470999999993</v>
+        <v>98.305305107344296</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42734</v>
+        <v>42727</v>
       </c>
       <c r="B77">
-        <v>123.55</v>
+        <v>252.56229999999999</v>
       </c>
       <c r="C77">
-        <v>130.12</v>
+        <v>217.32859999999999</v>
       </c>
       <c r="D77">
-        <v>19.832899999999999</v>
+        <v>189.96</v>
       </c>
       <c r="E77">
-        <v>223.53</v>
+        <v>2494.3200000000002</v>
       </c>
       <c r="F77">
-        <v>33.08</v>
+        <v>6268.77</v>
       </c>
       <c r="G77">
-        <v>100.46</v>
+        <v>130.49279999999999</v>
       </c>
       <c r="H77">
-        <v>72.195199000000002</v>
+        <v>98.313369679729831</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42741</v>
+        <v>42734</v>
       </c>
       <c r="B78">
-        <v>122.2</v>
+        <v>252.42259999999999</v>
       </c>
       <c r="C78">
-        <v>129.63999999999999</v>
+        <v>217.39529999999999</v>
       </c>
       <c r="D78">
-        <v>20.3324</v>
+        <v>193.1</v>
       </c>
       <c r="E78">
-        <v>227.21</v>
+        <v>2448.17</v>
       </c>
       <c r="F78">
-        <v>33.445</v>
+        <v>6295.23</v>
       </c>
       <c r="G78">
-        <v>100.47</v>
+        <v>130.49690000000001</v>
       </c>
       <c r="H78">
-        <v>72.192333000000005</v>
+        <v>98.316079671687874</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42748</v>
+        <v>42741</v>
       </c>
       <c r="B79">
-        <v>121.91</v>
+        <v>250.0282</v>
       </c>
       <c r="C79">
-        <v>128.52000000000001</v>
+        <v>217.14160000000001</v>
       </c>
       <c r="D79">
-        <v>19.979099999999999</v>
+        <v>198.41</v>
       </c>
       <c r="E79">
-        <v>227.05</v>
+        <v>2481.25</v>
       </c>
       <c r="F79">
-        <v>33.475000000000001</v>
+        <v>6379.17</v>
       </c>
       <c r="G79">
-        <v>100.5</v>
+        <v>130.52209999999999</v>
       </c>
       <c r="H79">
-        <v>72.189378000000005</v>
+        <v>98.313362315717001</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42755</v>
+        <v>42748</v>
       </c>
       <c r="B80">
-        <v>121.12</v>
+        <v>250.33609999999999</v>
       </c>
       <c r="C80">
-        <v>128.22</v>
+        <v>217.09979999999999</v>
       </c>
       <c r="D80">
-        <v>19.861000000000001</v>
+        <v>195.54</v>
       </c>
       <c r="E80">
-        <v>226.74</v>
+        <v>2465.58</v>
       </c>
       <c r="F80">
-        <v>33.174999999999997</v>
+        <v>6372.28</v>
       </c>
       <c r="G80">
-        <v>100.53</v>
+        <v>130.54669999999999</v>
       </c>
       <c r="H80">
-        <v>72.186423000000005</v>
+        <v>98.305232177241223</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42762</v>
+        <v>42755</v>
       </c>
       <c r="B81">
-        <v>120.43</v>
+        <v>248.6574</v>
       </c>
       <c r="C81">
-        <v>128.04</v>
+        <v>216.9366</v>
       </c>
       <c r="D81">
-        <v>19.7803</v>
+        <v>194.28</v>
       </c>
       <c r="E81">
-        <v>228.97</v>
+        <v>2444.16</v>
       </c>
       <c r="F81">
-        <v>33.25</v>
+        <v>6298.53</v>
       </c>
       <c r="G81">
-        <v>100.54</v>
+        <v>130.57810000000001</v>
       </c>
       <c r="H81">
-        <v>72.183468000000005</v>
+        <v>98.305232177241223</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42769</v>
+        <v>42762</v>
       </c>
       <c r="B82">
-        <v>120.32</v>
+        <v>247.2603</v>
       </c>
       <c r="C82">
-        <v>128.38999999999999</v>
+        <v>216.92140000000001</v>
       </c>
       <c r="D82">
-        <v>19.257200000000001</v>
+        <v>192.49</v>
       </c>
       <c r="E82">
-        <v>229.34</v>
+        <v>2461.7399999999998</v>
       </c>
       <c r="F82">
-        <v>32.99</v>
+        <v>6340.32</v>
       </c>
       <c r="G82">
-        <v>100.6</v>
+        <v>130.60849999999999</v>
       </c>
       <c r="H82">
-        <v>72.180352999999997</v>
+        <v>98.305232177241223</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42776</v>
+        <v>42769</v>
       </c>
       <c r="B83">
-        <v>120.51</v>
+        <v>246.9932</v>
       </c>
       <c r="C83">
-        <v>128.72999999999999</v>
+        <v>217.35990000000001</v>
       </c>
       <c r="D83">
-        <v>19.462700000000002</v>
+        <v>188.06</v>
       </c>
       <c r="E83">
-        <v>231.51</v>
+        <v>2448.91</v>
       </c>
       <c r="F83">
-        <v>32.975000000000001</v>
+        <v>6296.56</v>
       </c>
       <c r="G83">
-        <v>100.62</v>
+        <v>130.6232</v>
       </c>
       <c r="H83">
-        <v>72.177116999999996</v>
+        <v>98.302544040209483</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42783</v>
+        <v>42776</v>
       </c>
       <c r="B84">
-        <v>120.82</v>
+        <v>247.39580000000001</v>
       </c>
       <c r="C84">
-        <v>129.15</v>
+        <v>217.74250000000001</v>
       </c>
       <c r="D84">
-        <v>18.854800000000001</v>
+        <v>189.6</v>
       </c>
       <c r="E84">
-        <v>235.09</v>
+        <v>2503.2399999999998</v>
       </c>
       <c r="F84">
-        <v>33.35</v>
+        <v>6362.65</v>
       </c>
       <c r="G84">
-        <v>100.62</v>
+        <v>130.637</v>
       </c>
       <c r="H84">
-        <v>72.173879999999997</v>
+        <v>98.307905981285757</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>42790</v>
+        <v>42783</v>
       </c>
       <c r="B85">
-        <v>121.58</v>
+        <v>248.0479</v>
       </c>
       <c r="C85">
-        <v>129.9</v>
+        <v>217.96520000000001</v>
       </c>
       <c r="D85">
-        <v>19.785799999999998</v>
+        <v>183.91</v>
       </c>
       <c r="E85">
-        <v>236.74</v>
+        <v>2553.9699999999998</v>
       </c>
       <c r="F85">
-        <v>33.325000000000003</v>
+        <v>6445.36</v>
       </c>
       <c r="G85">
-        <v>100.62</v>
+        <v>130.65539999999999</v>
       </c>
       <c r="H85">
-        <v>72.170643999999996</v>
+        <v>98.307905981285757</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>42797</v>
+        <v>42790</v>
       </c>
       <c r="B86">
-        <v>121.13</v>
+        <v>249.53270000000001</v>
       </c>
       <c r="C86">
-        <v>128.97999999999999</v>
+        <v>218.66210000000001</v>
       </c>
       <c r="D86">
-        <v>19.941400000000002</v>
+        <v>193.57</v>
       </c>
       <c r="E86">
-        <v>238.42</v>
+        <v>2592.08</v>
       </c>
       <c r="F86">
-        <v>34.33</v>
+        <v>6456.26</v>
       </c>
       <c r="G86">
-        <v>100.68</v>
+        <v>130.67230000000001</v>
       </c>
       <c r="H86">
-        <v>72.167410000000004</v>
+        <v>98.307905981285757</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>42804</v>
+        <v>42797</v>
       </c>
       <c r="B87">
-        <v>119.7</v>
+        <v>248.7149</v>
       </c>
       <c r="C87">
-        <v>128.24</v>
+        <v>217.8117</v>
       </c>
       <c r="D87">
-        <v>19.8078</v>
+        <v>195.33</v>
       </c>
       <c r="E87">
-        <v>237.69</v>
+        <v>2619.39</v>
       </c>
       <c r="F87">
-        <v>34.465000000000003</v>
+        <v>6559.46</v>
       </c>
       <c r="G87">
-        <v>100.67</v>
+        <v>130.7003</v>
       </c>
       <c r="H87">
-        <v>72.164175</v>
+        <v>98.307905981285757</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>42811</v>
+        <v>42804</v>
       </c>
       <c r="B88">
-        <v>119.93</v>
+        <v>245.77529999999999</v>
       </c>
       <c r="C88">
-        <v>128.65</v>
+        <v>217.51050000000001</v>
       </c>
       <c r="D88">
-        <v>19.593800000000002</v>
+        <v>194.19</v>
       </c>
       <c r="E88">
-        <v>237.03</v>
+        <v>2596.06</v>
       </c>
       <c r="F88">
-        <v>34.594999999999999</v>
+        <v>6526.74</v>
       </c>
       <c r="G88">
-        <v>100.69</v>
+        <v>130.7056</v>
       </c>
       <c r="H88">
-        <v>72.160939999999997</v>
+        <v>98.305210517615777</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>42818</v>
+        <v>42811</v>
       </c>
       <c r="B89">
-        <v>120.71</v>
+        <v>246.3364</v>
       </c>
       <c r="C89">
-        <v>128.76</v>
+        <v>217.52279999999999</v>
       </c>
       <c r="D89">
-        <v>19.6175</v>
+        <v>191.93</v>
       </c>
       <c r="E89">
-        <v>233.86</v>
+        <v>2576.38</v>
       </c>
       <c r="F89">
-        <v>34.615000000000002</v>
+        <v>6623.31</v>
       </c>
       <c r="G89">
-        <v>100.66</v>
+        <v>130.70830000000001</v>
       </c>
       <c r="H89">
-        <v>72.157786000000002</v>
+        <v>98.307898735292682</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>42825</v>
+        <v>42818</v>
       </c>
       <c r="B90">
-        <v>121.11</v>
+        <v>247.8717</v>
       </c>
       <c r="C90">
-        <v>129.16999999999999</v>
+        <v>217.40280000000001</v>
       </c>
       <c r="D90">
-        <v>20.316299999999998</v>
+        <v>192.76</v>
       </c>
       <c r="E90">
-        <v>235.74</v>
+        <v>2527.38</v>
       </c>
       <c r="F90">
-        <v>35.22</v>
+        <v>6595</v>
       </c>
       <c r="G90">
-        <v>100.69</v>
+        <v>130.7056</v>
       </c>
       <c r="H90">
-        <v>72.154831000000001</v>
+        <v>98.305203271622702</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>42832</v>
+        <v>42825</v>
       </c>
       <c r="B91">
-        <v>121.86</v>
+        <v>248.63480000000001</v>
       </c>
       <c r="C91">
-        <v>129.72999999999999</v>
+        <v>217.71899999999999</v>
       </c>
       <c r="D91">
-        <v>20.512799999999999</v>
+        <v>199.92</v>
       </c>
       <c r="E91">
-        <v>235.2</v>
+        <v>2570.13</v>
       </c>
       <c r="F91">
-        <v>35.225000000000001</v>
+        <v>6675.55</v>
       </c>
       <c r="G91">
-        <v>100.61</v>
+        <v>130.7021</v>
       </c>
       <c r="H91">
-        <v>72.151895999999994</v>
+        <v>98.302515134590962</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>42839</v>
+        <v>42832</v>
       </c>
       <c r="B92">
-        <v>121.62</v>
+        <v>250.24430000000001</v>
       </c>
       <c r="C92">
-        <v>130</v>
+        <v>218.27529999999999</v>
       </c>
       <c r="D92">
-        <v>20.79</v>
+        <v>202.43</v>
       </c>
       <c r="E92">
-        <v>232.51</v>
+        <v>2583.3200000000002</v>
       </c>
       <c r="F92">
-        <v>34.71</v>
+        <v>6685.26</v>
       </c>
       <c r="G92">
-        <v>100.6</v>
+        <v>130.7046</v>
       </c>
       <c r="H92">
-        <v>72.149483000000004</v>
+        <v>98.302515134590962</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>42846</v>
+        <v>42839</v>
       </c>
       <c r="B93">
-        <v>121.61</v>
+        <v>250.0472</v>
       </c>
       <c r="C93">
-        <v>129.63999999999999</v>
+        <v>218.49209999999999</v>
       </c>
       <c r="D93">
-        <v>20.869800000000001</v>
+        <v>205.45</v>
       </c>
       <c r="E93">
-        <v>234.59</v>
+        <v>2551.4499999999998</v>
       </c>
       <c r="F93">
-        <v>34.65</v>
+        <v>6659.01</v>
       </c>
       <c r="G93">
-        <v>100.59</v>
+        <v>130.70179999999999</v>
       </c>
       <c r="H93">
-        <v>72.146826000000004</v>
+        <v>98.305196064914611</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>42853</v>
+        <v>42846</v>
       </c>
       <c r="B94">
-        <v>121.66</v>
+        <v>249.7567</v>
       </c>
       <c r="C94">
-        <v>129.97999999999999</v>
+        <v>218.11879999999999</v>
       </c>
       <c r="D94">
-        <v>21.291699999999999</v>
+        <v>206.18</v>
       </c>
       <c r="E94">
-        <v>238.08</v>
+        <v>2552.12</v>
       </c>
       <c r="F94">
-        <v>35.64</v>
+        <v>6595.68</v>
       </c>
       <c r="G94">
-        <v>100.65</v>
+        <v>130.69450000000001</v>
       </c>
       <c r="H94">
-        <v>72.144712999999996</v>
+        <v>98.307884282591516</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>42860</v>
+        <v>42853</v>
       </c>
       <c r="B95">
-        <v>121.66</v>
+        <v>249.9169</v>
       </c>
       <c r="C95">
-        <v>129.69</v>
+        <v>218.30359999999999</v>
       </c>
       <c r="D95">
-        <v>21.998899999999999</v>
+        <v>210.89</v>
       </c>
       <c r="E95">
-        <v>239.7</v>
+        <v>2547.6799999999998</v>
       </c>
       <c r="F95">
-        <v>36.75</v>
+        <v>6743.59</v>
       </c>
       <c r="G95">
-        <v>100.71</v>
+        <v>130.73400000000001</v>
       </c>
       <c r="H95">
-        <v>72.142599000000004</v>
+        <v>98.299797972444097</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>42867</v>
+        <v>42860</v>
       </c>
       <c r="B96">
-        <v>121.48</v>
+        <v>249.85040000000001</v>
       </c>
       <c r="C96">
-        <v>130.06</v>
+        <v>218.1208</v>
       </c>
       <c r="D96">
-        <v>22.205400000000001</v>
+        <v>218.66</v>
       </c>
       <c r="E96">
-        <v>238.98</v>
+        <v>2542.66</v>
       </c>
       <c r="F96">
-        <v>36.71</v>
+        <v>6889.22</v>
       </c>
       <c r="G96">
-        <v>100.72</v>
+        <v>130.78120000000001</v>
       </c>
       <c r="H96">
-        <v>72.140485999999996</v>
+        <v>98.299797972444097</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>42874</v>
+        <v>42867</v>
       </c>
       <c r="B97">
-        <v>121.97</v>
+        <v>249.51140000000001</v>
       </c>
       <c r="C97">
-        <v>129.82</v>
+        <v>218.3503</v>
       </c>
       <c r="D97">
-        <v>22.196899999999999</v>
+        <v>220.54</v>
       </c>
       <c r="E97">
-        <v>238.31</v>
+        <v>2554.06</v>
       </c>
       <c r="F97">
-        <v>36.295000000000002</v>
+        <v>6959.78</v>
       </c>
       <c r="G97">
-        <v>100.66</v>
+        <v>130.7852</v>
       </c>
       <c r="H97">
-        <v>72.138373000000001</v>
+        <v>98.302471814597141</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>42881</v>
+        <v>42874</v>
       </c>
       <c r="B98">
-        <v>122.34</v>
+        <v>250.4571</v>
       </c>
       <c r="C98">
-        <v>130.16999999999999</v>
+        <v>218.27529999999999</v>
       </c>
       <c r="D98">
-        <v>21.813700000000001</v>
+        <v>220.62</v>
       </c>
       <c r="E98">
-        <v>241.71</v>
+        <v>2477.9</v>
       </c>
       <c r="F98">
-        <v>36.305</v>
+        <v>6901.53</v>
       </c>
       <c r="G98">
-        <v>100.68</v>
+        <v>130.76329999999999</v>
       </c>
       <c r="H98">
-        <v>72.136539999999997</v>
+        <v>98.29979080384453</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>42888</v>
+        <v>42881</v>
       </c>
       <c r="B99">
-        <v>122.25</v>
+        <v>251.26779999999999</v>
       </c>
       <c r="C99">
-        <v>130.51</v>
+        <v>218.5128</v>
       </c>
       <c r="D99">
-        <v>21.695799999999998</v>
+        <v>217.03</v>
       </c>
       <c r="E99">
-        <v>244.17</v>
+        <v>2513.4899999999998</v>
       </c>
       <c r="F99">
-        <v>36.53</v>
+        <v>6888.67</v>
       </c>
       <c r="G99">
-        <v>100.7</v>
+        <v>130.77539999999999</v>
       </c>
       <c r="H99">
-        <v>72.134705999999994</v>
+        <v>98.307812250089768</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>42895</v>
+        <v>42888</v>
       </c>
       <c r="B100">
-        <v>122.75</v>
+        <v>251.0581</v>
       </c>
       <c r="C100">
-        <v>130.5</v>
+        <v>218.8219</v>
       </c>
       <c r="D100">
-        <v>21.8291</v>
+        <v>215.99</v>
       </c>
       <c r="E100">
-        <v>243.41</v>
+        <v>2514.36</v>
       </c>
       <c r="F100">
-        <v>36.49</v>
+        <v>6910.37</v>
       </c>
       <c r="G100">
-        <v>100.69</v>
+        <v>130.78360000000001</v>
       </c>
       <c r="H100">
-        <v>72.132872000000006</v>
+        <v>98.305116786419788</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>42902</v>
+        <v>42895</v>
       </c>
       <c r="B101">
-        <v>123.01</v>
+        <v>252.14189999999999</v>
       </c>
       <c r="C101">
-        <v>130.52000000000001</v>
+        <v>218.82689999999999</v>
       </c>
       <c r="D101">
-        <v>22.318899999999999</v>
+        <v>217.72</v>
       </c>
       <c r="E101">
-        <v>242.64</v>
+        <v>2526.6999999999998</v>
       </c>
       <c r="F101">
-        <v>35.755000000000003</v>
+        <v>6866.34</v>
       </c>
       <c r="G101">
-        <v>100.7</v>
+        <v>130.78059999999999</v>
       </c>
       <c r="H101">
-        <v>72.131039000000001</v>
+        <v>98.299740431711157</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>42909</v>
+        <v>42902</v>
       </c>
       <c r="B102">
-        <v>123.42</v>
+        <v>252.6858</v>
       </c>
       <c r="C102">
-        <v>130.69999999999999</v>
+        <v>218.64359999999999</v>
       </c>
       <c r="D102">
-        <v>22.4541</v>
+        <v>222.79</v>
       </c>
       <c r="E102">
-        <v>243.13</v>
+        <v>2525.84</v>
       </c>
       <c r="F102">
-        <v>35.799999999999997</v>
+        <v>6830.93</v>
       </c>
       <c r="G102">
-        <v>100.72</v>
+        <v>130.79730000000001</v>
       </c>
       <c r="H102">
-        <v>72.129227</v>
+        <v>98.302414273864201</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>42916</v>
+        <v>42909</v>
       </c>
       <c r="B103">
-        <v>121.69</v>
+        <v>253.54239999999999</v>
       </c>
       <c r="C103">
-        <v>129.72</v>
+        <v>218.67140000000001</v>
       </c>
       <c r="D103">
-        <v>22.589700000000001</v>
+        <v>225.85</v>
       </c>
       <c r="E103">
-        <v>241.8</v>
+        <v>2541.0700000000002</v>
       </c>
       <c r="F103">
-        <v>34.82</v>
+        <v>6828.48</v>
       </c>
       <c r="G103">
-        <v>100.75</v>
+        <v>130.8192</v>
       </c>
       <c r="H103">
-        <v>72.126652000000007</v>
+        <v>98.299733263111591</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>42923</v>
+        <v>42916</v>
       </c>
       <c r="B104">
-        <v>120.73</v>
+        <v>249.9529</v>
       </c>
       <c r="C104">
-        <v>129.53</v>
+        <v>218.11089999999999</v>
       </c>
       <c r="D104">
-        <v>22.500900000000001</v>
+        <v>225.87</v>
       </c>
       <c r="E104">
-        <v>242.11</v>
+        <v>2472.19</v>
       </c>
       <c r="F104">
-        <v>35.049999999999997</v>
+        <v>6679.62</v>
       </c>
       <c r="G104">
-        <v>100.81</v>
+        <v>130.82810000000001</v>
       </c>
       <c r="H104">
-        <v>72.123977999999994</v>
+        <v>98.302407105264635</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>42930</v>
+        <v>42923</v>
       </c>
       <c r="B105">
-        <v>120.74</v>
+        <v>247.94030000000001</v>
       </c>
       <c r="C105">
-        <v>129.03</v>
+        <v>218.3244</v>
       </c>
       <c r="D105">
-        <v>22.605499999999999</v>
+        <v>225.2</v>
       </c>
       <c r="E105">
-        <v>245.56</v>
+        <v>2477.81</v>
       </c>
       <c r="F105">
-        <v>35.69</v>
+        <v>6667.09</v>
       </c>
       <c r="G105">
-        <v>100.83</v>
+        <v>130.86089999999999</v>
       </c>
       <c r="H105">
-        <v>72.120341999999994</v>
+        <v>98.305088035588284</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>42937</v>
+        <v>42930</v>
       </c>
       <c r="B106">
-        <v>121.73</v>
+        <v>248.81630000000001</v>
       </c>
       <c r="C106">
-        <v>129.69999999999999</v>
+        <v>218.58799999999999</v>
       </c>
       <c r="D106">
-        <v>22.647400000000001</v>
+        <v>226.08</v>
       </c>
       <c r="E106">
-        <v>246.88</v>
+        <v>2498.91</v>
       </c>
       <c r="F106">
-        <v>34.924999999999997</v>
+        <v>6778.28</v>
       </c>
       <c r="G106">
-        <v>100.87</v>
+        <v>130.88050000000001</v>
       </c>
       <c r="H106">
-        <v>72.116546999999997</v>
+        <v>98.302399898556544</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>42944</v>
+        <v>42937</v>
       </c>
       <c r="B107">
-        <v>121.4</v>
+        <v>250.95500000000001</v>
       </c>
       <c r="C107">
-        <v>129.72</v>
+        <v>219.0864</v>
       </c>
       <c r="D107">
-        <v>22.4727</v>
+        <v>226.71</v>
       </c>
       <c r="E107">
-        <v>246.91</v>
+        <v>2464.71</v>
       </c>
       <c r="F107">
-        <v>35.104999999999997</v>
+        <v>6670.98</v>
       </c>
       <c r="G107">
-        <v>100.8</v>
+        <v>130.90119999999999</v>
       </c>
       <c r="H107">
-        <v>72.11233</v>
+        <v>98.299718887803934</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>42951</v>
+        <v>42944</v>
       </c>
       <c r="B108">
-        <v>122.01</v>
+        <v>250.2278</v>
       </c>
       <c r="C108">
-        <v>130.12</v>
+        <v>219.24780000000001</v>
       </c>
       <c r="D108">
-        <v>22.341899999999999</v>
+        <v>225.21</v>
       </c>
       <c r="E108">
-        <v>247.41</v>
+        <v>2452.14</v>
       </c>
       <c r="F108">
-        <v>35.534999999999997</v>
+        <v>6603.84</v>
       </c>
       <c r="G108">
-        <v>100.93</v>
+        <v>130.9111</v>
       </c>
       <c r="H108">
-        <v>72.108114999999998</v>
+        <v>98.307740334049171</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>42958</v>
+        <v>42951</v>
       </c>
       <c r="B109">
-        <v>122.53</v>
+        <v>251.71700000000001</v>
       </c>
       <c r="C109">
-        <v>130.25</v>
+        <v>219.524</v>
       </c>
       <c r="D109">
-        <v>22.172799999999999</v>
+        <v>223.97</v>
       </c>
       <c r="E109">
-        <v>244.12</v>
+        <v>2466.17</v>
       </c>
       <c r="F109">
-        <v>34.479999999999997</v>
+        <v>6687.75</v>
       </c>
       <c r="G109">
-        <v>100.9</v>
+        <v>130.94049999999999</v>
       </c>
       <c r="H109">
-        <v>72.103898999999998</v>
+        <v>98.305044870379191</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>42965</v>
+        <v>42958</v>
       </c>
       <c r="B110">
-        <v>122.38</v>
+        <v>252.61680000000001</v>
       </c>
       <c r="C110">
-        <v>130.13</v>
+        <v>219.64400000000001</v>
       </c>
       <c r="D110">
-        <v>22.085999999999999</v>
+        <v>222.67</v>
       </c>
       <c r="E110">
-        <v>242.71</v>
+        <v>2432.29</v>
       </c>
       <c r="F110">
-        <v>34.884999999999998</v>
+        <v>6508.54</v>
       </c>
       <c r="G110">
-        <v>100.92</v>
+        <v>130.9211</v>
       </c>
       <c r="H110">
-        <v>72.099683999999996</v>
+        <v>98.305044870379191</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>42972</v>
+        <v>42965</v>
       </c>
       <c r="B111">
-        <v>122.22</v>
+        <v>252.40440000000001</v>
       </c>
       <c r="C111">
-        <v>130.25</v>
+        <v>219.56200000000001</v>
       </c>
       <c r="D111">
-        <v>22.334199999999999</v>
+        <v>221.9</v>
       </c>
       <c r="E111">
-        <v>244.56</v>
+        <v>2423.7199999999998</v>
       </c>
       <c r="F111">
-        <v>34.83</v>
+        <v>6537.31</v>
       </c>
       <c r="G111">
-        <v>100.96</v>
+        <v>130.93039999999999</v>
       </c>
       <c r="H111">
-        <v>72.095467999999997</v>
+        <v>98.307733088056096</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>42979</v>
+        <v>42972</v>
       </c>
       <c r="B112">
-        <v>122.32</v>
+        <v>252.02809999999999</v>
       </c>
       <c r="C112">
-        <v>130.30000000000001</v>
+        <v>219.6628</v>
       </c>
       <c r="D112">
-        <v>22.379899999999999</v>
+        <v>223.97</v>
       </c>
       <c r="E112">
-        <v>247.84</v>
+        <v>2414.48</v>
       </c>
       <c r="F112">
-        <v>34.884999999999998</v>
+        <v>6539.36</v>
       </c>
       <c r="G112">
-        <v>100.92</v>
+        <v>130.92779999999999</v>
       </c>
       <c r="H112">
-        <v>72.091252999999995</v>
+        <v>98.307733088056096</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>42986</v>
+        <v>42979</v>
       </c>
       <c r="B113">
-        <v>122.8</v>
+        <v>252.1867</v>
       </c>
       <c r="C113">
-        <v>130.44999999999999</v>
+        <v>219.673</v>
       </c>
       <c r="D113">
-        <v>22.557200000000002</v>
+        <v>224.41</v>
       </c>
       <c r="E113">
-        <v>246.58</v>
+        <v>2449.29</v>
       </c>
       <c r="F113">
-        <v>34.905000000000001</v>
+        <v>6573.73</v>
       </c>
       <c r="G113">
-        <v>100.95</v>
+        <v>130.9316</v>
       </c>
       <c r="H113">
-        <v>72.087038000000007</v>
+        <v>98.302342241578671</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>42993</v>
+        <v>42986</v>
       </c>
       <c r="B114">
-        <v>122.02</v>
+        <v>253.23589999999999</v>
       </c>
       <c r="C114">
-        <v>129.97999999999999</v>
+        <v>219.8794</v>
       </c>
       <c r="D114">
-        <v>22.7317</v>
+        <v>226.32</v>
       </c>
       <c r="E114">
-        <v>249.19</v>
+        <v>2400.0500000000002</v>
       </c>
       <c r="F114">
-        <v>35</v>
+        <v>6574.55</v>
       </c>
       <c r="G114">
-        <v>101.03</v>
+        <v>130.94890000000001</v>
       </c>
       <c r="H114">
-        <v>72.082823000000005</v>
+        <v>98.30502317190232</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43000</v>
+        <v>42993</v>
       </c>
       <c r="B115">
-        <v>121.96</v>
+        <v>251.5728</v>
       </c>
       <c r="C115">
-        <v>130.04</v>
+        <v>219.48310000000001</v>
       </c>
       <c r="D115">
-        <v>22.5748</v>
+        <v>228.15</v>
       </c>
       <c r="E115">
-        <v>249.44</v>
+        <v>2451.9499999999998</v>
       </c>
       <c r="F115">
-        <v>35.314999999999998</v>
+        <v>6667.82</v>
       </c>
       <c r="G115">
-        <v>101.05</v>
+        <v>131.01089999999999</v>
       </c>
       <c r="H115">
-        <v>72.078608000000003</v>
+        <v>98.307711389579225</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43007</v>
+        <v>43000</v>
       </c>
       <c r="B116">
-        <v>121.94</v>
+        <v>251.4598</v>
       </c>
       <c r="C116">
-        <v>130.02000000000001</v>
+        <v>219.46770000000001</v>
       </c>
       <c r="D116">
-        <v>22.441299999999998</v>
+        <v>226.67</v>
       </c>
       <c r="E116">
-        <v>251.23</v>
+        <v>2452.1799999999998</v>
       </c>
       <c r="F116">
-        <v>35.825000000000003</v>
+        <v>6721.19</v>
       </c>
       <c r="G116">
-        <v>101.04</v>
+        <v>131.0274</v>
       </c>
       <c r="H116">
-        <v>72.074265999999994</v>
+        <v>98.305015925909245</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43014</v>
+        <v>43007</v>
       </c>
       <c r="B117">
-        <v>121.79</v>
+        <v>251.44139999999999</v>
       </c>
       <c r="C117">
-        <v>130.13</v>
+        <v>219.5813</v>
       </c>
       <c r="D117">
-        <v>22.531600000000001</v>
+        <v>225.44</v>
       </c>
       <c r="E117">
-        <v>254.37</v>
+        <v>2493.2199999999998</v>
       </c>
       <c r="F117">
-        <v>35.945</v>
+        <v>6823.77</v>
       </c>
       <c r="G117">
-        <v>101.07</v>
+        <v>131.0299</v>
       </c>
       <c r="H117">
-        <v>72.069584000000006</v>
+        <v>98.305015925909245</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43021</v>
+        <v>43014</v>
       </c>
       <c r="B118">
-        <v>122.39</v>
+        <v>251.11750000000001</v>
       </c>
       <c r="C118">
-        <v>130.68</v>
+        <v>219.5984</v>
       </c>
       <c r="D118">
-        <v>22.776</v>
+        <v>226.53</v>
       </c>
       <c r="E118">
-        <v>254.95</v>
+        <v>2543.7800000000002</v>
       </c>
       <c r="F118">
-        <v>35.97</v>
+        <v>6861.6</v>
       </c>
       <c r="G118">
-        <v>101.11</v>
+        <v>131.042</v>
       </c>
       <c r="H118">
-        <v>72.064783000000006</v>
+        <v>98.302327788877506</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43028</v>
+        <v>43021</v>
       </c>
       <c r="B119">
-        <v>122.15</v>
+        <v>252.48500000000001</v>
       </c>
       <c r="C119">
-        <v>130.59</v>
+        <v>219.9794</v>
       </c>
       <c r="D119">
-        <v>22.812899999999999</v>
+        <v>228.87</v>
       </c>
       <c r="E119">
-        <v>257.11</v>
+        <v>2523.41</v>
       </c>
       <c r="F119">
-        <v>35.965000000000003</v>
+        <v>6885.82</v>
       </c>
       <c r="G119">
-        <v>101.11</v>
+        <v>131.06960000000001</v>
       </c>
       <c r="H119">
-        <v>72.059984</v>
+        <v>98.307689729953779</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43035</v>
+        <v>43028</v>
       </c>
       <c r="B120">
-        <v>122.72</v>
+        <v>251.9357</v>
       </c>
       <c r="C120">
-        <v>131.21</v>
+        <v>220.0001</v>
       </c>
       <c r="D120">
-        <v>22.9208</v>
+        <v>229.44</v>
       </c>
       <c r="E120">
-        <v>257.70999999999998</v>
+        <v>2558.0700000000002</v>
       </c>
       <c r="F120">
-        <v>36.479999999999997</v>
+        <v>6856.01</v>
       </c>
       <c r="G120">
-        <v>101.14</v>
+        <v>131.0985</v>
       </c>
       <c r="H120">
-        <v>72.055183999999997</v>
+        <v>98.302298883476354</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43042</v>
+        <v>43035</v>
       </c>
       <c r="B121">
-        <v>123.29</v>
+        <v>253.07390000000001</v>
       </c>
       <c r="C121">
-        <v>131.72</v>
+        <v>220.49010000000001</v>
       </c>
       <c r="D121">
-        <v>23.763500000000001</v>
+        <v>230.37</v>
       </c>
       <c r="E121">
-        <v>258.45</v>
+        <v>2620.09</v>
       </c>
       <c r="F121">
-        <v>36.83</v>
+        <v>6908.12</v>
       </c>
       <c r="G121">
-        <v>101.17</v>
+        <v>131.10929999999999</v>
       </c>
       <c r="H121">
-        <v>72.050385000000006</v>
+        <v>98.304979813800003</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43049</v>
+        <v>43042</v>
       </c>
       <c r="B122">
-        <v>122.85</v>
+        <v>254.30350000000001</v>
       </c>
       <c r="C122">
-        <v>131.16999999999999</v>
+        <v>220.70760000000001</v>
       </c>
       <c r="D122">
-        <v>23.7744</v>
+        <v>238.13</v>
       </c>
       <c r="E122">
-        <v>258.08999999999997</v>
+        <v>2622.02</v>
       </c>
       <c r="F122">
-        <v>35.85</v>
+        <v>6968.79</v>
       </c>
       <c r="G122">
-        <v>101.16</v>
+        <v>131.13570000000001</v>
       </c>
       <c r="H122">
-        <v>72.045586</v>
+        <v>98.304979813800003</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43056</v>
+        <v>43049</v>
       </c>
       <c r="B123">
-        <v>123.21</v>
+        <v>253.41900000000001</v>
       </c>
       <c r="C123">
-        <v>131.26</v>
+        <v>220.48920000000001</v>
       </c>
       <c r="D123">
-        <v>23.844100000000001</v>
+        <v>238.3</v>
       </c>
       <c r="E123">
-        <v>257.86</v>
+        <v>2607.2399999999998</v>
       </c>
       <c r="F123">
-        <v>35.4</v>
+        <v>6846.1</v>
       </c>
       <c r="G123">
-        <v>101.16</v>
+        <v>131.12479999999999</v>
       </c>
       <c r="H123">
-        <v>72.040786999999995</v>
+        <v>98.307668031476908</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43063</v>
+        <v>43056</v>
       </c>
       <c r="B124">
-        <v>123.42</v>
+        <v>254.14580000000001</v>
       </c>
       <c r="C124">
-        <v>131.31</v>
+        <v>220.41749999999999</v>
       </c>
       <c r="D124">
-        <v>23.628299999999999</v>
+        <v>239.37</v>
       </c>
       <c r="E124">
-        <v>260.36</v>
+        <v>2564.5700000000002</v>
       </c>
       <c r="F124">
-        <v>35.765000000000001</v>
+        <v>6765.29</v>
       </c>
       <c r="G124">
-        <v>101.19</v>
+        <v>131.12029999999999</v>
       </c>
       <c r="H124">
-        <v>72.035989000000001</v>
+        <v>98.302277184999483</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43070</v>
+        <v>43063</v>
       </c>
       <c r="B125">
-        <v>124.18</v>
+        <v>254.62010000000001</v>
       </c>
       <c r="C125">
-        <v>131.57</v>
+        <v>220.3383</v>
       </c>
       <c r="D125">
-        <v>24.549900000000001</v>
+        <v>237.79</v>
       </c>
       <c r="E125">
-        <v>264.45999999999998</v>
+        <v>2562.6999999999998</v>
       </c>
       <c r="F125">
-        <v>35.134999999999998</v>
+        <v>6839.98</v>
       </c>
       <c r="G125">
-        <v>101.18</v>
+        <v>131.14109999999999</v>
       </c>
       <c r="H125">
-        <v>72.031352999999996</v>
+        <v>98.304958115323132</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43077</v>
+        <v>43070</v>
       </c>
       <c r="B126">
-        <v>124.26</v>
+        <v>256.09219999999999</v>
       </c>
       <c r="C126">
-        <v>131.755</v>
+        <v>220.5333</v>
       </c>
       <c r="D126">
-        <v>25.900300000000001</v>
+        <v>237.34</v>
       </c>
       <c r="E126">
-        <v>265.51</v>
+        <v>2618.67</v>
       </c>
       <c r="F126">
-        <v>35.895000000000003</v>
+        <v>6771.05</v>
       </c>
       <c r="G126">
-        <v>101.2</v>
+        <v>131.14230000000001</v>
       </c>
       <c r="H126">
-        <v>72.026695000000004</v>
+        <v>98.313022687708667</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43084</v>
+        <v>43077</v>
       </c>
       <c r="B127">
-        <v>123.91</v>
+        <v>256.39800000000002</v>
       </c>
       <c r="C127">
-        <v>131.63</v>
+        <v>220.70410000000001</v>
       </c>
       <c r="D127">
-        <v>27.2789</v>
+        <v>240.2</v>
       </c>
       <c r="E127">
-        <v>266.51</v>
+        <v>2653.32</v>
       </c>
       <c r="F127">
-        <v>35.51</v>
+        <v>6854.46</v>
       </c>
       <c r="G127">
-        <v>101.16</v>
+        <v>131.1439</v>
       </c>
       <c r="H127">
-        <v>72.021996000000001</v>
+        <v>98.313022687708667</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43091</v>
+        <v>43084</v>
       </c>
       <c r="B128">
-        <v>123.09</v>
+        <v>255.6095</v>
       </c>
       <c r="C128">
-        <v>130.9</v>
+        <v>220.56460000000001</v>
       </c>
       <c r="D128">
-        <v>27.160900000000002</v>
+        <v>240.87</v>
       </c>
       <c r="E128">
-        <v>267.51</v>
+        <v>2691.32</v>
       </c>
       <c r="F128">
-        <v>35.405000000000001</v>
+        <v>6872.04</v>
       </c>
       <c r="G128">
-        <v>101.19</v>
+        <v>131.14869999999999</v>
       </c>
       <c r="H128">
-        <v>72.017296999999999</v>
+        <v>98.307602622491757</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43098</v>
+        <v>43091</v>
       </c>
       <c r="B129">
-        <v>122.53</v>
+        <v>253.96899999999999</v>
       </c>
       <c r="C129">
-        <v>130.88</v>
+        <v>220.00579999999999</v>
       </c>
       <c r="D129">
-        <v>27.145499999999998</v>
+        <v>253.3</v>
       </c>
       <c r="E129">
-        <v>266.86</v>
+        <v>2678.42</v>
       </c>
       <c r="F129">
-        <v>35.020000000000003</v>
+        <v>6880.08</v>
       </c>
       <c r="G129">
-        <v>101.21</v>
+        <v>131.14869999999999</v>
       </c>
       <c r="H129">
-        <v>72.012597999999997</v>
+        <v>98.318384234584087</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43105</v>
+        <v>43098</v>
       </c>
       <c r="B130">
-        <v>122.61499999999999</v>
+        <v>252.85059999999999</v>
       </c>
       <c r="C130">
-        <v>131.13</v>
+        <v>219.91159999999999</v>
       </c>
       <c r="D130">
-        <v>28.105499999999999</v>
+        <v>256.14</v>
       </c>
       <c r="E130">
-        <v>273.42</v>
+        <v>2624.93</v>
       </c>
       <c r="F130">
-        <v>35.93</v>
+        <v>6861.77</v>
       </c>
       <c r="G130">
-        <v>101.25</v>
+        <v>131.1516</v>
       </c>
       <c r="H130">
-        <v>72.007900000000006</v>
+        <v>98.315659474470039</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43112</v>
+        <v>43105</v>
       </c>
       <c r="B131">
-        <v>122.05</v>
+        <v>253.0189</v>
       </c>
       <c r="C131">
-        <v>130.185</v>
+        <v>220.1019</v>
       </c>
       <c r="D131">
-        <v>27.8764</v>
+        <v>263.67</v>
       </c>
       <c r="E131">
-        <v>277.92</v>
+        <v>2690.73</v>
       </c>
       <c r="F131">
-        <v>36.034999999999997</v>
+        <v>6978.92</v>
       </c>
       <c r="G131">
-        <v>101.22</v>
+        <v>131.1677</v>
       </c>
       <c r="H131">
-        <v>72.003201000000004</v>
+        <v>98.312942118499166</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43119</v>
+        <v>43112</v>
       </c>
       <c r="B132">
-        <v>122.155</v>
+        <v>252.37260000000001</v>
       </c>
       <c r="C132">
-        <v>130.44999999999999</v>
+        <v>219.696</v>
       </c>
       <c r="D132">
-        <v>28.023900000000001</v>
+        <v>262.22000000000003</v>
       </c>
       <c r="E132">
-        <v>280.41000000000003</v>
+        <v>2707.57</v>
       </c>
       <c r="F132">
-        <v>36.365000000000002</v>
+        <v>7002.23</v>
       </c>
       <c r="G132">
-        <v>101.21</v>
+        <v>131.1696</v>
       </c>
       <c r="H132">
-        <v>71.998503999999997</v>
+        <v>98.312942118499166</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43126</v>
+        <v>43119</v>
       </c>
       <c r="B133">
-        <v>121.91</v>
+        <v>252.82820000000001</v>
       </c>
       <c r="C133">
-        <v>130.19999999999999</v>
+        <v>220.09610000000001</v>
       </c>
       <c r="D133">
-        <v>28.3249</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="E133">
-        <v>286.58</v>
+        <v>2715.92</v>
       </c>
       <c r="F133">
-        <v>36.354999999999997</v>
+        <v>7025.39</v>
       </c>
       <c r="G133">
-        <v>101.21</v>
+        <v>131.172</v>
       </c>
       <c r="H133">
-        <v>71.993806000000006</v>
+        <v>98.312942118499166</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43133</v>
+        <v>43126</v>
       </c>
       <c r="B134">
-        <v>121.41</v>
+        <v>252.4057</v>
       </c>
       <c r="C134">
-        <v>129.70500000000001</v>
+        <v>219.86099999999999</v>
       </c>
       <c r="D134">
-        <v>28.145900000000001</v>
+        <v>266.45999999999998</v>
       </c>
       <c r="E134">
-        <v>275.45</v>
+        <v>2739.45</v>
       </c>
       <c r="F134">
-        <v>35.18</v>
+        <v>7037.12</v>
       </c>
       <c r="G134">
-        <v>101.24</v>
+        <v>131.19909999999999</v>
       </c>
       <c r="H134">
-        <v>71.989108999999999</v>
+        <v>98.312942118499166</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43140</v>
+        <v>43133</v>
       </c>
       <c r="B135">
-        <v>121.52500000000001</v>
+        <v>251.42779999999999</v>
       </c>
       <c r="C135">
-        <v>129.495</v>
+        <v>219.77019999999999</v>
       </c>
       <c r="D135">
-        <v>27.146100000000001</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="E135">
-        <v>261.5</v>
+        <v>2639.67</v>
       </c>
       <c r="F135">
-        <v>33.225000000000001</v>
+        <v>6794.06</v>
       </c>
       <c r="G135">
-        <v>101.18</v>
+        <v>131.21610000000001</v>
       </c>
       <c r="H135">
-        <v>71.984412000000006</v>
+        <v>98.307522053282256</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43147</v>
+        <v>43140</v>
       </c>
       <c r="B136">
-        <v>121.69499999999999</v>
+        <v>251.59639999999999</v>
       </c>
       <c r="C136">
-        <v>129.82499999999999</v>
+        <v>219.69</v>
       </c>
       <c r="D136">
-        <v>26.552299999999999</v>
+        <v>257.02</v>
       </c>
       <c r="E136">
-        <v>273.11</v>
+        <v>2536.9499999999998</v>
       </c>
       <c r="F136">
-        <v>34.225000000000001</v>
+        <v>6427.61</v>
       </c>
       <c r="G136">
-        <v>101.13</v>
+        <v>131.1618</v>
       </c>
       <c r="H136">
-        <v>71.979714999999999</v>
+        <v>98.310217436089701</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43154</v>
+        <v>43147</v>
       </c>
       <c r="B137">
-        <v>121.7</v>
+        <v>251.82060000000001</v>
       </c>
       <c r="C137">
-        <v>129.91</v>
+        <v>219.8451</v>
       </c>
       <c r="D137">
-        <v>26.1843</v>
+        <v>253.34</v>
       </c>
       <c r="E137">
-        <v>274.70999999999998</v>
+        <v>2613.2800000000002</v>
       </c>
       <c r="F137">
-        <v>34.340000000000003</v>
+        <v>6618.96</v>
       </c>
       <c r="G137">
-        <v>101.13</v>
+        <v>131.14859999999999</v>
       </c>
       <c r="H137">
-        <v>71.975019000000003</v>
+        <v>98.312920184701824</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43161</v>
+        <v>43154</v>
       </c>
       <c r="B138">
-        <v>121.985</v>
+        <v>251.88</v>
       </c>
       <c r="C138">
-        <v>129.79</v>
+        <v>219.9659</v>
       </c>
       <c r="D138">
-        <v>26.177499999999998</v>
+        <v>250.32</v>
       </c>
       <c r="E138">
-        <v>269.08</v>
+        <v>2659.95</v>
       </c>
       <c r="F138">
-        <v>33.200000000000003</v>
+        <v>6632.15</v>
       </c>
       <c r="G138">
-        <v>101.01</v>
+        <v>131.13910000000001</v>
       </c>
       <c r="H138">
-        <v>71.970322999999993</v>
+        <v>98.310210111442956</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43168</v>
+        <v>43161</v>
       </c>
       <c r="B139">
-        <v>122.15</v>
+        <v>252.7259</v>
       </c>
       <c r="C139">
-        <v>129.79499999999999</v>
+        <v>219.93879999999999</v>
       </c>
       <c r="D139">
-        <v>26.710999999999999</v>
+        <v>250.29</v>
       </c>
       <c r="E139">
-        <v>278.87</v>
+        <v>2607.5700000000002</v>
       </c>
       <c r="F139">
-        <v>34.15</v>
+        <v>6380.45</v>
       </c>
       <c r="G139">
-        <v>100.97</v>
+        <v>131.06379999999999</v>
       </c>
       <c r="H139">
-        <v>71.965626999999998</v>
+        <v>98.310210111442956</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43175</v>
+        <v>43168</v>
       </c>
       <c r="B140">
-        <v>122.755</v>
+        <v>253.02869999999999</v>
       </c>
       <c r="C140">
-        <v>129.80000000000001</v>
+        <v>219.93960000000001</v>
       </c>
       <c r="D140">
-        <v>26.8169</v>
+        <v>254.55</v>
       </c>
       <c r="E140">
-        <v>274.2</v>
+        <v>2694.28</v>
       </c>
       <c r="F140">
-        <v>34.36</v>
+        <v>6551.58</v>
       </c>
       <c r="G140">
-        <v>100.85</v>
+        <v>131.04349999999999</v>
       </c>
       <c r="H140">
-        <v>71.960772000000006</v>
+        <v>98.307507443911916</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43182</v>
+        <v>43175</v>
       </c>
       <c r="B141">
-        <v>123.375</v>
+        <v>254.16059999999999</v>
       </c>
       <c r="C141">
-        <v>129.43</v>
+        <v>219.88980000000001</v>
       </c>
       <c r="D141">
-        <v>26.477699999999999</v>
+        <v>255.44</v>
       </c>
       <c r="E141">
-        <v>258.05</v>
+        <v>2664.02</v>
       </c>
       <c r="F141">
-        <v>32.914999999999999</v>
+        <v>6555.93</v>
       </c>
       <c r="G141">
-        <v>100.74</v>
+        <v>130.97659999999999</v>
       </c>
       <c r="H141">
-        <v>71.955444</v>
+        <v>98.310202826719362</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43189</v>
+        <v>43182</v>
       </c>
       <c r="B142">
-        <v>123.88500000000001</v>
+        <v>255.48509999999999</v>
       </c>
       <c r="C142">
-        <v>129.785</v>
+        <v>219.6909</v>
       </c>
       <c r="D142">
-        <v>26.712299999999999</v>
+        <v>253.04</v>
       </c>
       <c r="E142">
-        <v>263.14999999999998</v>
+        <v>2468.85</v>
       </c>
       <c r="F142">
-        <v>33.61</v>
+        <v>6338.41</v>
       </c>
       <c r="G142">
-        <v>100.71</v>
+        <v>130.8887</v>
       </c>
       <c r="H142">
-        <v>71.950757999999993</v>
+        <v>98.310202826719362</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43196</v>
+        <v>43189</v>
       </c>
       <c r="B143">
-        <v>123.68</v>
+        <v>256.46699999999998</v>
       </c>
       <c r="C143">
-        <v>129.77500000000001</v>
+        <v>219.81309999999999</v>
       </c>
       <c r="D143">
-        <v>27.503799999999998</v>
+        <v>255.06</v>
       </c>
       <c r="E143">
-        <v>259.72000000000003</v>
+        <v>2531.38</v>
       </c>
       <c r="F143">
-        <v>34.094999999999999</v>
+        <v>6454.65</v>
       </c>
       <c r="G143">
-        <v>100.76</v>
+        <v>130.8817</v>
       </c>
       <c r="H143">
-        <v>71.944348000000005</v>
+        <v>98.304797410576185</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43203</v>
+        <v>43196</v>
       </c>
       <c r="B144">
-        <v>123.56</v>
+        <v>256.1669</v>
       </c>
       <c r="C144">
-        <v>129.97499999999999</v>
+        <v>219.8295</v>
       </c>
       <c r="D144">
-        <v>27.2165</v>
+        <v>261.32</v>
       </c>
       <c r="E144">
-        <v>265.14999999999998</v>
+        <v>2509.2399999999998</v>
       </c>
       <c r="F144">
-        <v>34.53</v>
+        <v>6563.82</v>
       </c>
       <c r="G144">
-        <v>100.79</v>
+        <v>130.88749999999999</v>
       </c>
       <c r="H144">
-        <v>71.938743000000002</v>
+        <v>98.304797410576185</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43210</v>
+        <v>43203</v>
       </c>
       <c r="B145">
-        <v>123.29</v>
+        <v>255.93010000000001</v>
       </c>
       <c r="C145">
-        <v>129.65</v>
+        <v>219.94049999999999</v>
       </c>
       <c r="D145">
-        <v>27.2178</v>
+        <v>259.14999999999998</v>
       </c>
       <c r="E145">
-        <v>266.61</v>
+        <v>2550.79</v>
       </c>
       <c r="F145">
-        <v>35.020000000000003</v>
+        <v>6635.27</v>
       </c>
       <c r="G145">
-        <v>100.8</v>
+        <v>130.88939999999999</v>
       </c>
       <c r="H145">
-        <v>71.933138</v>
+        <v>98.30748562825309</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43217</v>
+        <v>43210</v>
       </c>
       <c r="B146">
-        <v>123.47</v>
+        <v>255.15119999999999</v>
       </c>
       <c r="C146">
-        <v>129.785</v>
+        <v>219.75800000000001</v>
       </c>
       <c r="D146">
-        <v>27.436800000000002</v>
+        <v>259.5</v>
       </c>
       <c r="E146">
-        <v>266.56</v>
+        <v>2563.44</v>
       </c>
       <c r="F146">
-        <v>35.369999999999997</v>
+        <v>6645.04</v>
       </c>
       <c r="G146">
-        <v>100.77</v>
+        <v>130.8877</v>
       </c>
       <c r="H146">
-        <v>71.927532999999997</v>
+        <v>98.30479016458311</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43224</v>
+        <v>43217</v>
       </c>
       <c r="B147">
-        <v>123.27</v>
+        <v>255.6617</v>
       </c>
       <c r="C147">
-        <v>129.78</v>
+        <v>219.89</v>
       </c>
       <c r="D147">
-        <v>27.014099999999999</v>
+        <v>261.52</v>
       </c>
       <c r="E147">
-        <v>266.02</v>
+        <v>2603.27</v>
       </c>
       <c r="F147">
-        <v>35.774999999999999</v>
+        <v>6733.36</v>
       </c>
       <c r="G147">
-        <v>100.8</v>
+        <v>130.8861</v>
       </c>
       <c r="H147">
-        <v>71.921848999999995</v>
+        <v>98.30479016458311</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43231</v>
+        <v>43224</v>
       </c>
       <c r="B148">
-        <v>123.17</v>
+        <v>255.3937</v>
       </c>
       <c r="C148">
-        <v>129.80000000000001</v>
+        <v>219.92240000000001</v>
       </c>
       <c r="D148">
-        <v>27.186</v>
+        <v>258</v>
       </c>
       <c r="E148">
-        <v>272.85000000000002</v>
+        <v>2650.45</v>
       </c>
       <c r="F148">
-        <v>36.11</v>
+        <v>6785.31</v>
       </c>
       <c r="G148">
-        <v>100.75</v>
+        <v>130.87909999999999</v>
       </c>
       <c r="H148">
-        <v>71.915965</v>
+        <v>98.30479016458311</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43238</v>
+        <v>43231</v>
       </c>
       <c r="B149">
-        <v>122.17</v>
+        <v>254.99250000000001</v>
       </c>
       <c r="C149">
-        <v>129.35</v>
+        <v>219.92320000000001</v>
       </c>
       <c r="D149">
-        <v>26.1754</v>
+        <v>259.55</v>
       </c>
       <c r="E149">
-        <v>271.33</v>
+        <v>2718.36</v>
       </c>
       <c r="F149">
-        <v>36.270000000000003</v>
+        <v>6888.3</v>
       </c>
       <c r="G149">
-        <v>100.69</v>
+        <v>130.87469999999999</v>
       </c>
       <c r="H149">
-        <v>71.910083</v>
+        <v>98.307478382260015</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43245</v>
+        <v>43238</v>
       </c>
       <c r="B150">
-        <v>122.235</v>
+        <v>252.90969999999999</v>
       </c>
       <c r="C150">
-        <v>129.47</v>
+        <v>219.7687</v>
       </c>
       <c r="D150">
-        <v>26.596699999999998</v>
+        <v>250.88</v>
       </c>
       <c r="E150">
-        <v>272.14999999999998</v>
+        <v>2730.41</v>
       </c>
       <c r="F150">
-        <v>35.71</v>
+        <v>6952.67</v>
       </c>
       <c r="G150">
-        <v>100.48</v>
+        <v>130.8235</v>
       </c>
       <c r="H150">
-        <v>71.904200000000003</v>
+        <v>98.307478382260015</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43252</v>
+        <v>43245</v>
       </c>
       <c r="B151">
-        <v>122.03</v>
+        <v>253.23699999999999</v>
       </c>
       <c r="C151">
-        <v>129.35</v>
+        <v>219.8991</v>
       </c>
       <c r="D151">
-        <v>26.388500000000001</v>
+        <v>254.48</v>
       </c>
       <c r="E151">
-        <v>273.60000000000002</v>
+        <v>2766.2</v>
       </c>
       <c r="F151">
-        <v>35.28</v>
+        <v>6869.7</v>
       </c>
       <c r="G151">
-        <v>100.2</v>
+        <v>130.68620000000001</v>
       </c>
       <c r="H151">
-        <v>71.898319000000001</v>
+        <v>98.312869228737441</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43259</v>
+        <v>43252</v>
       </c>
       <c r="B152">
-        <v>120.72499999999999</v>
+        <v>252.63589999999999</v>
       </c>
       <c r="C152">
-        <v>128.97999999999999</v>
+        <v>219.56829999999999</v>
       </c>
       <c r="D152">
-        <v>25.979299999999999</v>
+        <v>252.16</v>
       </c>
       <c r="E152">
-        <v>278.19</v>
+        <v>2783.34</v>
       </c>
       <c r="F152">
-        <v>35.225000000000001</v>
+        <v>6810.92</v>
       </c>
       <c r="G152">
-        <v>100.21</v>
+        <v>130.49289999999999</v>
       </c>
       <c r="H152">
-        <v>71.892437999999999</v>
+        <v>98.307449163520531</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43266</v>
+        <v>43259</v>
       </c>
       <c r="B153">
-        <v>122.16500000000001</v>
+        <v>250.18879999999999</v>
       </c>
       <c r="C153">
-        <v>129.51499999999999</v>
+        <v>219.4135</v>
       </c>
       <c r="D153">
-        <v>26.352900000000002</v>
+        <v>248.78</v>
       </c>
       <c r="E153">
-        <v>277.13</v>
+        <v>2806.19</v>
       </c>
       <c r="F153">
-        <v>35.534999999999997</v>
+        <v>6755.75</v>
       </c>
       <c r="G153">
-        <v>100.2</v>
+        <v>130.4117</v>
       </c>
       <c r="H153">
-        <v>71.886317000000005</v>
+        <v>98.307449163520531</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43273</v>
+        <v>43266</v>
       </c>
       <c r="B154">
-        <v>122.205</v>
+        <v>253.3287</v>
       </c>
       <c r="C154">
-        <v>129.78</v>
+        <v>219.8219</v>
       </c>
       <c r="D154">
-        <v>27.052</v>
+        <v>252</v>
       </c>
       <c r="E154">
-        <v>274.74</v>
+        <v>2832.1</v>
       </c>
       <c r="F154">
-        <v>34.9</v>
+        <v>6827.33</v>
       </c>
       <c r="G154">
-        <v>100.21</v>
+        <v>130.4863</v>
       </c>
       <c r="H154">
-        <v>71.880018000000007</v>
+        <v>98.310144546327976</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43280</v>
+        <v>43273</v>
       </c>
       <c r="B155">
-        <v>122.72</v>
+        <v>253.07339999999999</v>
       </c>
       <c r="C155">
-        <v>129.34</v>
+        <v>220.0164</v>
       </c>
       <c r="D155">
-        <v>27.418500000000002</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="E155">
-        <v>271.27999999999997</v>
+        <v>2800.45</v>
       </c>
       <c r="F155">
-        <v>34.484999999999999</v>
+        <v>6810.36</v>
       </c>
       <c r="G155">
-        <v>100.11</v>
+        <v>130.46019999999999</v>
       </c>
       <c r="H155">
-        <v>71.873720000000006</v>
+        <v>98.310144546327976</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43287</v>
+        <v>43280</v>
       </c>
       <c r="B156">
-        <v>122.76</v>
+        <v>254.28020000000001</v>
       </c>
       <c r="C156">
-        <v>129.6525</v>
+        <v>219.64869999999999</v>
       </c>
       <c r="D156">
-        <v>27.389900000000001</v>
+        <v>262.04000000000002</v>
       </c>
       <c r="E156">
-        <v>275.42</v>
+        <v>2763.25</v>
       </c>
       <c r="F156">
-        <v>34.965000000000003</v>
+        <v>6728.4</v>
       </c>
       <c r="G156">
-        <v>100.15</v>
+        <v>130.3783</v>
       </c>
       <c r="H156">
-        <v>71.868118999999993</v>
+        <v>98.310144546327976</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43294</v>
+        <v>43287</v>
       </c>
       <c r="B157">
-        <v>122.73</v>
+        <v>254.3604</v>
       </c>
       <c r="C157">
-        <v>129.30000000000001</v>
+        <v>219.8083</v>
       </c>
       <c r="D157">
-        <v>27.635999999999999</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="E157">
-        <v>279.58999999999997</v>
+        <v>2788.27</v>
       </c>
       <c r="F157">
-        <v>35.034999999999997</v>
+        <v>6793.82</v>
       </c>
       <c r="G157">
-        <v>100.23</v>
+        <v>130.4033</v>
       </c>
       <c r="H157">
-        <v>71.862520000000004</v>
+        <v>98.307441878796936</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43301</v>
+        <v>43294</v>
       </c>
       <c r="B158">
-        <v>122.36499999999999</v>
+        <v>254.96019999999999</v>
       </c>
       <c r="C158">
-        <v>128.91999999999999</v>
+        <v>220.00020000000001</v>
       </c>
       <c r="D158">
-        <v>27.561</v>
+        <v>264.27</v>
       </c>
       <c r="E158">
-        <v>279.68</v>
+        <v>2869.12</v>
       </c>
       <c r="F158">
-        <v>35.104999999999997</v>
+        <v>6831.01</v>
       </c>
       <c r="G158">
-        <v>100.26</v>
+        <v>130.44040000000001</v>
       </c>
       <c r="H158">
-        <v>71.856921</v>
+        <v>98.312832725274362</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43308</v>
+        <v>43301</v>
       </c>
       <c r="B159">
-        <v>122.06</v>
+        <v>254.38399999999999</v>
       </c>
       <c r="C159">
-        <v>129.29499999999999</v>
+        <v>219.85939999999999</v>
       </c>
       <c r="D159">
-        <v>27.6083</v>
+        <v>263.56</v>
       </c>
       <c r="E159">
-        <v>281.42</v>
+        <v>2868.29</v>
       </c>
       <c r="F159">
-        <v>35.784999999999997</v>
+        <v>6851.76</v>
       </c>
       <c r="G159">
-        <v>100.34</v>
+        <v>130.4657</v>
       </c>
       <c r="H159">
-        <v>71.851321999999996</v>
+        <v>98.312832725274362</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43315</v>
+        <v>43308</v>
       </c>
       <c r="B160">
-        <v>121.56</v>
+        <v>253.7354</v>
       </c>
       <c r="C160">
-        <v>129.27500000000001</v>
+        <v>220.04560000000001</v>
       </c>
       <c r="D160">
-        <v>26.973800000000001</v>
+        <v>264.2</v>
       </c>
       <c r="E160">
-        <v>283.60000000000002</v>
+        <v>2892.15</v>
       </c>
       <c r="F160">
-        <v>35.35</v>
+        <v>6993.32</v>
       </c>
       <c r="G160">
-        <v>100.37</v>
+        <v>130.53399999999999</v>
       </c>
       <c r="H160">
-        <v>71.845723000000007</v>
+        <v>98.312832725274362</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43322</v>
+        <v>43315</v>
       </c>
       <c r="B161">
-        <v>121.80500000000001</v>
+        <v>252.6771</v>
       </c>
       <c r="C161">
-        <v>129.59</v>
+        <v>220.10169999999999</v>
       </c>
       <c r="D161">
-        <v>26.7486</v>
+        <v>258.82</v>
       </c>
       <c r="E161">
-        <v>283.16000000000003</v>
+        <v>2949.65</v>
       </c>
       <c r="F161">
-        <v>34.825000000000003</v>
+        <v>6937.87</v>
       </c>
       <c r="G161">
-        <v>100.37</v>
+        <v>130.55840000000001</v>
       </c>
       <c r="H161">
-        <v>71.840125999999998</v>
+        <v>98.312832725274362</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43329</v>
+        <v>43322</v>
       </c>
       <c r="B162">
-        <v>121.54</v>
+        <v>253.39429999999999</v>
       </c>
       <c r="C162">
-        <v>129.465</v>
+        <v>220.4633</v>
       </c>
       <c r="D162">
-        <v>26.5167</v>
+        <v>256.91000000000003</v>
       </c>
       <c r="E162">
-        <v>285.06</v>
+        <v>2989.36</v>
       </c>
       <c r="F162">
-        <v>34.244999999999997</v>
+        <v>6874.75</v>
       </c>
       <c r="G162">
-        <v>100.33</v>
+        <v>130.55019999999999</v>
       </c>
       <c r="H162">
-        <v>71.834529000000003</v>
+        <v>98.312832725274362</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43336</v>
+        <v>43329</v>
       </c>
       <c r="B163">
-        <v>121.565</v>
+        <v>252.7953</v>
       </c>
       <c r="C163">
-        <v>129.16999999999999</v>
+        <v>220.44399999999999</v>
       </c>
       <c r="D163">
-        <v>26.746600000000001</v>
+        <v>255.04</v>
       </c>
       <c r="E163">
-        <v>287.51</v>
+        <v>3016.29</v>
       </c>
       <c r="F163">
-        <v>34.835000000000001</v>
+        <v>6793.56</v>
       </c>
       <c r="G163">
-        <v>100.32</v>
+        <v>130.53380000000001</v>
       </c>
       <c r="H163">
-        <v>71.828931999999995</v>
+        <v>98.310122652015494</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43343</v>
+        <v>43336</v>
       </c>
       <c r="B164">
-        <v>121.265</v>
+        <v>252.68870000000001</v>
       </c>
       <c r="C164">
-        <v>128.88499999999999</v>
+        <v>220.11259999999999</v>
       </c>
       <c r="D164">
-        <v>26.340599999999998</v>
+        <v>257.05</v>
       </c>
       <c r="E164">
-        <v>290.31</v>
+        <v>2976.06</v>
       </c>
       <c r="F164">
-        <v>34.445</v>
+        <v>6814.46</v>
       </c>
       <c r="G164">
-        <v>100.23</v>
+        <v>130.52430000000001</v>
       </c>
       <c r="H164">
-        <v>71.823356000000004</v>
+        <v>98.312825400627617</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43350</v>
+        <v>43343</v>
       </c>
       <c r="B165">
-        <v>121.515</v>
+        <v>251.94880000000001</v>
       </c>
       <c r="C165">
-        <v>128.625</v>
+        <v>220.01349999999999</v>
       </c>
       <c r="D165">
-        <v>26.439499999999999</v>
+        <v>253.51</v>
       </c>
       <c r="E165">
-        <v>287.60000000000002</v>
+        <v>3015.21</v>
       </c>
       <c r="F165">
-        <v>33.46</v>
+        <v>6755.03</v>
       </c>
       <c r="G165">
-        <v>100.24</v>
+        <v>130.4873</v>
       </c>
       <c r="H165">
-        <v>71.817980000000006</v>
+        <v>98.312825400627617</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43357</v>
+        <v>43350</v>
       </c>
       <c r="B166">
-        <v>121.39</v>
+        <v>252.8167</v>
       </c>
       <c r="C166">
-        <v>128.76</v>
+        <v>219.71199999999999</v>
       </c>
       <c r="D166">
-        <v>26.9039</v>
+        <v>254.53</v>
       </c>
       <c r="E166">
-        <v>290.88</v>
+        <v>2987.93</v>
       </c>
       <c r="F166">
-        <v>33.954999999999998</v>
+        <v>6598.8</v>
       </c>
       <c r="G166">
-        <v>100.28</v>
+        <v>130.47800000000001</v>
       </c>
       <c r="H166">
-        <v>71.812803000000002</v>
+        <v>98.304695262151839</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43364</v>
+        <v>43357</v>
       </c>
       <c r="B167">
-        <v>121.625</v>
+        <v>252.44499999999999</v>
       </c>
       <c r="C167">
-        <v>128.905</v>
+        <v>219.7885</v>
       </c>
       <c r="D167">
-        <v>26.981300000000001</v>
+        <v>258.8</v>
       </c>
       <c r="E167">
-        <v>291.99</v>
+        <v>3001.04</v>
       </c>
       <c r="F167">
-        <v>34.299999999999997</v>
+        <v>6680.52</v>
       </c>
       <c r="G167">
-        <v>100.25</v>
+        <v>130.50550000000001</v>
       </c>
       <c r="H167">
-        <v>71.807568000000003</v>
+        <v>98.307383479828744</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43371</v>
+        <v>43364</v>
       </c>
       <c r="B168">
-        <v>121.035</v>
+        <v>252.8768</v>
       </c>
       <c r="C168">
-        <v>128.655</v>
+        <v>219.94069999999999</v>
       </c>
       <c r="D168">
-        <v>26.935199999999998</v>
+        <v>259.56</v>
       </c>
       <c r="E168">
-        <v>290.72000000000003</v>
+        <v>3002.13</v>
       </c>
       <c r="F168">
-        <v>34.01</v>
+        <v>6812.65</v>
       </c>
       <c r="G168">
-        <v>100.3</v>
+        <v>130.51390000000001</v>
       </c>
       <c r="H168">
-        <v>71.802252999999993</v>
+        <v>98.307383479828744</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43378</v>
+        <v>43371</v>
       </c>
       <c r="B169">
-        <v>120.005</v>
+        <v>251.61590000000001</v>
       </c>
       <c r="C169">
-        <v>128.19999999999999</v>
+        <v>219.79239999999999</v>
       </c>
       <c r="D169">
-        <v>26.360700000000001</v>
+        <v>259.13</v>
       </c>
       <c r="E169">
-        <v>287.82</v>
+        <v>3038.96</v>
       </c>
       <c r="F169">
-        <v>33.44</v>
+        <v>6817.61</v>
       </c>
       <c r="G169">
-        <v>100.24</v>
+        <v>130.5111</v>
       </c>
       <c r="H169">
-        <v>71.796937999999997</v>
+        <v>98.307383479828744</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43385</v>
+        <v>43378</v>
       </c>
       <c r="B170">
-        <v>119.855</v>
+        <v>249.57679999999999</v>
       </c>
       <c r="C170">
-        <v>128.35</v>
+        <v>219.57220000000001</v>
       </c>
       <c r="D170">
-        <v>26.5685</v>
+        <v>254.19</v>
       </c>
       <c r="E170">
-        <v>275.95</v>
+        <v>3039.18</v>
       </c>
       <c r="F170">
-        <v>31.97</v>
+        <v>6734.9</v>
       </c>
       <c r="G170">
-        <v>100.14</v>
+        <v>130.48580000000001</v>
       </c>
       <c r="H170">
-        <v>71.791763000000003</v>
+        <v>98.307383479828744</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43392</v>
+        <v>43385</v>
       </c>
       <c r="B171">
-        <v>120.05</v>
+        <v>249.20820000000001</v>
       </c>
       <c r="C171">
-        <v>128.565</v>
+        <v>219.76439999999999</v>
       </c>
       <c r="D171">
-        <v>26.654</v>
+        <v>256.02999999999997</v>
       </c>
       <c r="E171">
-        <v>276.25</v>
+        <v>2915.49</v>
       </c>
       <c r="F171">
-        <v>32.134999999999998</v>
+        <v>6451.57</v>
       </c>
       <c r="G171">
-        <v>100.08</v>
+        <v>130.42840000000001</v>
       </c>
       <c r="H171">
-        <v>71.786637999999996</v>
+        <v>98.312774326306169</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43399</v>
+        <v>43392</v>
       </c>
       <c r="B172">
-        <v>120.855</v>
+        <v>249.58240000000001</v>
       </c>
       <c r="C172">
-        <v>128.23500000000001</v>
+        <v>219.8289</v>
       </c>
       <c r="D172">
-        <v>26.744399999999999</v>
+        <v>256.77</v>
       </c>
       <c r="E172">
-        <v>265.33</v>
+        <v>2936.57</v>
       </c>
       <c r="F172">
-        <v>31.39</v>
+        <v>6541.97</v>
       </c>
       <c r="G172">
-        <v>99.99</v>
+        <v>130.35130000000001</v>
       </c>
       <c r="H172">
-        <v>71.781474000000003</v>
+        <v>98.310064253047301</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43406</v>
+        <v>43399</v>
       </c>
       <c r="B173">
-        <v>120.99</v>
+        <v>251.44710000000001</v>
       </c>
       <c r="C173">
-        <v>128.36000000000001</v>
+        <v>219.833</v>
       </c>
       <c r="D173">
-        <v>26.715499999999999</v>
+        <v>257.92</v>
       </c>
       <c r="E173">
-        <v>271.89</v>
+        <v>2866.51</v>
       </c>
       <c r="F173">
-        <v>32.164999999999999</v>
+        <v>6399.08</v>
       </c>
       <c r="G173">
-        <v>99.95</v>
+        <v>130.27950000000001</v>
       </c>
       <c r="H173">
-        <v>71.776257000000001</v>
+        <v>98.312767001659424</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43413</v>
+        <v>43406</v>
       </c>
       <c r="B174">
-        <v>120.785</v>
+        <v>251.38509999999999</v>
       </c>
       <c r="C174">
-        <v>128.48500000000001</v>
+        <v>219.66540000000001</v>
       </c>
       <c r="D174">
-        <v>26.560300000000002</v>
+        <v>257.73</v>
       </c>
       <c r="E174">
-        <v>277.76</v>
+        <v>2909.46</v>
       </c>
       <c r="F174">
-        <v>32.354999999999997</v>
+        <v>6554.78</v>
       </c>
       <c r="G174">
-        <v>100.038</v>
+        <v>130.2833</v>
       </c>
       <c r="H174">
-        <v>71.771229000000005</v>
+        <v>98.315476993617466</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43420</v>
+        <v>43413</v>
       </c>
       <c r="B175">
-        <v>120.495</v>
+        <v>251.1362</v>
       </c>
       <c r="C175">
-        <v>127.62</v>
+        <v>219.7484</v>
       </c>
       <c r="D175">
-        <v>26.318100000000001</v>
+        <v>256.55</v>
       </c>
       <c r="E175">
-        <v>273.73</v>
+        <v>2978.71</v>
       </c>
       <c r="F175">
-        <v>31.855</v>
+        <v>6622.86</v>
       </c>
       <c r="G175">
-        <v>99.706999999999994</v>
+        <v>130.29759999999999</v>
       </c>
       <c r="H175">
-        <v>71.766202000000007</v>
+        <v>98.312759637646593</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43427</v>
+        <v>43420</v>
       </c>
       <c r="B176">
-        <v>120.96</v>
+        <v>250.79150000000001</v>
       </c>
       <c r="C176">
-        <v>127.435</v>
+        <v>219.20189999999999</v>
       </c>
       <c r="D176">
-        <v>26.335000000000001</v>
+        <v>254.58</v>
       </c>
       <c r="E176">
-        <v>263.25</v>
+        <v>2905.05</v>
       </c>
       <c r="F176">
-        <v>31.41</v>
+        <v>6494.88</v>
       </c>
       <c r="G176">
-        <v>99.259</v>
+        <v>130.0591</v>
       </c>
       <c r="H176">
-        <v>71.761365999999995</v>
+        <v>98.312759637646593</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43434</v>
+        <v>43427</v>
       </c>
       <c r="B177">
-        <v>121.61499999999999</v>
+        <v>251.60050000000001</v>
       </c>
       <c r="C177">
-        <v>127.495</v>
+        <v>218.84739999999999</v>
       </c>
       <c r="D177">
-        <v>26.849499999999999</v>
+        <v>254.78</v>
       </c>
       <c r="E177">
-        <v>275.64999999999998</v>
+        <v>2780.01</v>
       </c>
       <c r="F177">
-        <v>31.78</v>
+        <v>6446.26</v>
       </c>
       <c r="G177">
-        <v>98.894000000000005</v>
+        <v>129.7843</v>
       </c>
       <c r="H177">
-        <v>71.756748000000002</v>
+        <v>98.312759637646593</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43441</v>
+        <v>43434</v>
       </c>
       <c r="B178">
-        <v>122.095</v>
+        <v>252.97319999999999</v>
       </c>
       <c r="C178">
-        <v>127.24</v>
+        <v>218.68350000000001</v>
       </c>
       <c r="D178">
-        <v>26.898499999999999</v>
+        <v>259.39</v>
       </c>
       <c r="E178">
-        <v>263.57</v>
+        <v>2953.76</v>
       </c>
       <c r="F178">
-        <v>30.66</v>
+        <v>6542.96</v>
       </c>
       <c r="G178">
-        <v>98.575999999999993</v>
+        <v>129.5532</v>
       </c>
       <c r="H178">
-        <v>71.752301000000003</v>
+        <v>98.315469629604635</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43448</v>
+        <v>43441</v>
       </c>
       <c r="B179">
-        <v>122.395</v>
+        <v>253.82849999999999</v>
       </c>
       <c r="C179">
-        <v>127.785</v>
+        <v>218.42009999999999</v>
       </c>
       <c r="D179">
-        <v>26.985700000000001</v>
+        <v>259.79000000000002</v>
       </c>
       <c r="E179">
-        <v>260.47000000000003</v>
+        <v>2797.51</v>
       </c>
       <c r="F179">
-        <v>31.004999999999999</v>
+        <v>6308.84</v>
       </c>
       <c r="G179">
-        <v>98.811000000000007</v>
+        <v>129.33959999999999</v>
       </c>
       <c r="H179">
-        <v>71.747889000000001</v>
+        <v>98.315469629604635</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43455</v>
+        <v>43448</v>
       </c>
       <c r="B180">
-        <v>122.69</v>
+        <v>254.55930000000001</v>
       </c>
       <c r="C180">
-        <v>127.465</v>
+        <v>218.79509999999999</v>
       </c>
       <c r="D180">
-        <v>26.925999999999998</v>
+        <v>260.67</v>
       </c>
       <c r="E180">
-        <v>240.7</v>
+        <v>2789.53</v>
       </c>
       <c r="F180">
-        <v>30.045000000000002</v>
+        <v>6344.28</v>
       </c>
       <c r="G180">
-        <v>98.742999999999995</v>
+        <v>129.38339999999999</v>
       </c>
       <c r="H180">
-        <v>71.743388999999993</v>
+        <v>98.315469629604635</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43462</v>
+        <v>43455</v>
       </c>
       <c r="B181">
-        <v>122.765</v>
+        <v>255.16149999999999</v>
       </c>
       <c r="C181">
-        <v>127.72499999999999</v>
+        <v>218.73750000000001</v>
       </c>
       <c r="D181">
-        <v>26.9238</v>
+        <v>260.37</v>
       </c>
       <c r="E181">
-        <v>247.75</v>
+        <v>2560.16</v>
       </c>
       <c r="F181">
-        <v>29.954999999999998</v>
+        <v>6158.42</v>
       </c>
       <c r="G181">
-        <v>98.718000000000004</v>
+        <v>129.36150000000001</v>
       </c>
       <c r="H181">
-        <v>71.738821999999999</v>
+        <v>98.320904423068129</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43469</v>
+        <v>43462</v>
       </c>
       <c r="B182">
-        <v>122.285</v>
+        <v>255.27510000000001</v>
       </c>
       <c r="C182">
-        <v>127.58</v>
+        <v>218.8434</v>
       </c>
       <c r="D182">
-        <v>26.8813</v>
+        <v>260.48</v>
       </c>
       <c r="E182">
-        <v>252.39</v>
+        <v>2640.86</v>
       </c>
       <c r="F182">
-        <v>30.47</v>
+        <v>6150.25</v>
       </c>
       <c r="G182">
-        <v>98.478999999999999</v>
+        <v>129.3612</v>
       </c>
       <c r="H182">
-        <v>71.734326999999993</v>
+        <v>98.326368914916202</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43476</v>
+        <v>43469</v>
       </c>
       <c r="B183">
-        <v>122.77</v>
+        <v>254.8261</v>
       </c>
       <c r="C183">
-        <v>127.69</v>
+        <v>218.55</v>
       </c>
       <c r="D183">
-        <v>27.053599999999999</v>
+        <v>260.20999999999998</v>
       </c>
       <c r="E183">
-        <v>258.98</v>
+        <v>2696.85</v>
       </c>
       <c r="F183">
-        <v>30.745000000000001</v>
+        <v>6276.58</v>
       </c>
       <c r="G183">
-        <v>98.531000000000006</v>
+        <v>129.25659999999999</v>
       </c>
       <c r="H183">
-        <v>71.729771999999997</v>
+        <v>98.329116134749256</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43483</v>
+        <v>43476</v>
       </c>
       <c r="B184">
-        <v>122.71</v>
+        <v>255.31970000000001</v>
       </c>
       <c r="C184">
-        <v>127.535</v>
+        <v>218.52610000000001</v>
       </c>
       <c r="D184">
-        <v>27.2377</v>
+        <v>261.8</v>
       </c>
       <c r="E184">
-        <v>266.45999999999998</v>
+        <v>2737.32</v>
       </c>
       <c r="F184">
-        <v>31.4</v>
+        <v>6323.16</v>
       </c>
       <c r="G184">
-        <v>98.745999999999995</v>
+        <v>129.2353</v>
       </c>
       <c r="H184">
-        <v>71.725216000000003</v>
+        <v>98.323606479177769</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43490</v>
+        <v>43483</v>
       </c>
       <c r="B185">
-        <v>123.32</v>
+        <v>255.99010000000001</v>
       </c>
       <c r="C185">
-        <v>127.955</v>
+        <v>218.99870000000001</v>
       </c>
       <c r="D185">
-        <v>27.348400000000002</v>
+        <v>263.83</v>
       </c>
       <c r="E185">
-        <v>265.77999999999997</v>
+        <v>2843.72</v>
       </c>
       <c r="F185">
-        <v>31.664999999999999</v>
+        <v>6439.36</v>
       </c>
       <c r="G185">
-        <v>99.1</v>
+        <v>129.4238</v>
       </c>
       <c r="H185">
-        <v>71.720359999999999</v>
+        <v>98.315387325978293</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43497</v>
+        <v>43490</v>
       </c>
       <c r="B186">
-        <v>123.3</v>
+        <v>257.47500000000002</v>
       </c>
       <c r="C186">
-        <v>128.72999999999999</v>
+        <v>219.38140000000001</v>
       </c>
       <c r="D186">
-        <v>27.723400000000002</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="E186">
-        <v>270.06</v>
+        <v>2819.45</v>
       </c>
       <c r="F186">
-        <v>31.81</v>
+        <v>6411.44</v>
       </c>
       <c r="G186">
-        <v>99.36</v>
+        <v>129.58770000000001</v>
       </c>
       <c r="H186">
-        <v>71.715444000000005</v>
+        <v>98.315387325978293</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43504</v>
+        <v>43497</v>
       </c>
       <c r="B187">
-        <v>123.045</v>
+        <v>257.37529999999998</v>
       </c>
       <c r="C187">
-        <v>129.035</v>
+        <v>219.93289999999999</v>
       </c>
       <c r="D187">
-        <v>27.742100000000001</v>
+        <v>268.32</v>
       </c>
       <c r="E187">
-        <v>270.47000000000003</v>
+        <v>2842.58</v>
       </c>
       <c r="F187">
-        <v>31.48</v>
+        <v>6499.1</v>
       </c>
       <c r="G187">
-        <v>99.406000000000006</v>
+        <v>129.75640000000001</v>
       </c>
       <c r="H187">
-        <v>71.710661999999999</v>
+        <v>98.31266997000742</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43511</v>
+        <v>43504</v>
       </c>
       <c r="B188">
-        <v>123.37</v>
+        <v>256.83789999999999</v>
       </c>
       <c r="C188">
-        <v>129.34</v>
+        <v>220.3252</v>
       </c>
       <c r="D188">
-        <v>27.986499999999999</v>
+        <v>268.55</v>
       </c>
       <c r="E188">
-        <v>277.37</v>
+        <v>2882.16</v>
       </c>
       <c r="F188">
-        <v>32.520000000000003</v>
+        <v>6515.04</v>
       </c>
       <c r="G188">
-        <v>99.504000000000005</v>
+        <v>129.8288</v>
       </c>
       <c r="H188">
-        <v>71.705798999999999</v>
+        <v>98.315379961965462</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43518</v>
+        <v>43511</v>
       </c>
       <c r="B189">
-        <v>123.345</v>
+        <v>257.3648</v>
       </c>
       <c r="C189">
-        <v>129.36500000000001</v>
+        <v>220.45230000000001</v>
       </c>
       <c r="D189">
-        <v>28.130199999999999</v>
+        <v>270.97000000000003</v>
       </c>
       <c r="E189">
-        <v>279.14</v>
+        <v>2962.84</v>
       </c>
       <c r="F189">
-        <v>32.83</v>
+        <v>6721.25</v>
       </c>
       <c r="G189">
-        <v>99.629000000000005</v>
+        <v>129.9085</v>
       </c>
       <c r="H189">
-        <v>71.700826000000006</v>
+        <v>98.315379961965462</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43525</v>
+        <v>43518</v>
       </c>
       <c r="B190">
-        <v>123.11499999999999</v>
+        <v>257.5822</v>
       </c>
       <c r="C190">
-        <v>129.53</v>
+        <v>220.65860000000001</v>
       </c>
       <c r="D190">
-        <v>28.4665</v>
+        <v>272.37</v>
       </c>
       <c r="E190">
-        <v>280.42</v>
+        <v>2970.5</v>
       </c>
       <c r="F190">
-        <v>33.255000000000003</v>
+        <v>6763.1</v>
       </c>
       <c r="G190">
-        <v>99.834000000000003</v>
+        <v>130.01429999999999</v>
       </c>
       <c r="H190">
-        <v>71.695876999999996</v>
+        <v>98.318097317936335</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43532</v>
+        <v>43525</v>
       </c>
       <c r="B191">
-        <v>124.4</v>
+        <v>256.92869999999999</v>
       </c>
       <c r="C191">
-        <v>129.58000000000001</v>
+        <v>220.76339999999999</v>
       </c>
       <c r="D191">
-        <v>28.0732</v>
+        <v>275.57</v>
       </c>
       <c r="E191">
-        <v>274.45999999999998</v>
+        <v>2978.54</v>
       </c>
       <c r="F191">
-        <v>32.965000000000003</v>
+        <v>6807.91</v>
       </c>
       <c r="G191">
-        <v>99.924000000000007</v>
+        <v>130.1464</v>
       </c>
       <c r="H191">
-        <v>71.690957999999995</v>
+        <v>98.315372557822286</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43539</v>
+        <v>43532</v>
       </c>
       <c r="B192">
-        <v>124.3</v>
+        <v>259.65359999999998</v>
       </c>
       <c r="C192">
-        <v>130.405</v>
+        <v>220.96199999999999</v>
       </c>
       <c r="D192">
-        <v>28.614999999999998</v>
+        <v>272.26</v>
       </c>
       <c r="E192">
-        <v>281.31</v>
+        <v>2970.88</v>
       </c>
       <c r="F192">
-        <v>33.835000000000001</v>
+        <v>6807.61</v>
       </c>
       <c r="G192">
-        <v>100.06699999999999</v>
+        <v>130.15369999999999</v>
       </c>
       <c r="H192">
-        <v>71.686188000000001</v>
+        <v>98.318089913793159</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43546</v>
+        <v>43539</v>
       </c>
       <c r="B193">
-        <v>125.2</v>
+        <v>259.43579999999997</v>
       </c>
       <c r="C193">
-        <v>130.745</v>
+        <v>221.49619999999999</v>
       </c>
       <c r="D193">
-        <v>28.736799999999999</v>
+        <v>277.07</v>
       </c>
       <c r="E193">
-        <v>279.25</v>
+        <v>3040.41</v>
       </c>
       <c r="F193">
-        <v>33.045000000000002</v>
+        <v>6999.55</v>
       </c>
       <c r="G193">
-        <v>100.11199999999999</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="H193">
-        <v>71.681700000000006</v>
+        <v>98.31536515367911</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43553</v>
+        <v>43546</v>
       </c>
       <c r="B194">
-        <v>125.435</v>
+        <v>261.59410000000003</v>
       </c>
       <c r="C194">
-        <v>131.315</v>
+        <v>221.85640000000001</v>
       </c>
       <c r="D194">
-        <v>28.7776</v>
+        <v>278.14</v>
       </c>
       <c r="E194">
-        <v>282.48</v>
+        <v>3038.82</v>
       </c>
       <c r="F194">
-        <v>33.58</v>
+        <v>6935.81</v>
       </c>
       <c r="G194">
-        <v>100.08199999999999</v>
+        <v>130.31370000000001</v>
       </c>
       <c r="H194">
-        <v>71.677276000000006</v>
+        <v>98.318082509649983</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>43560</v>
+        <v>43553</v>
       </c>
       <c r="B195">
-        <v>125.01</v>
+        <v>261.7876</v>
       </c>
       <c r="C195">
-        <v>131.185</v>
+        <v>222.2193</v>
       </c>
       <c r="D195">
-        <v>29.236699999999999</v>
+        <v>278.70999999999998</v>
       </c>
       <c r="E195">
-        <v>288.57</v>
+        <v>3081.26</v>
       </c>
       <c r="F195">
-        <v>34.53</v>
+        <v>7019.66</v>
       </c>
       <c r="G195">
-        <v>100.254</v>
+        <v>130.32650000000001</v>
       </c>
       <c r="H195">
-        <v>71.673101000000003</v>
+        <v>98.318082509649983</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>43567</v>
+        <v>43560</v>
       </c>
       <c r="B196">
-        <v>125.13500000000001</v>
+        <v>261.22539999999998</v>
       </c>
       <c r="C196">
-        <v>131.22999999999999</v>
+        <v>222.28710000000001</v>
       </c>
       <c r="D196">
-        <v>29.7499</v>
+        <v>282.81</v>
       </c>
       <c r="E196">
-        <v>290.16000000000003</v>
+        <v>3145.61</v>
       </c>
       <c r="F196">
-        <v>34.57</v>
+        <v>7153.74</v>
       </c>
       <c r="G196">
-        <v>100.283</v>
+        <v>130.405</v>
       </c>
       <c r="H196">
-        <v>71.669402000000005</v>
+        <v>98.318082509649983</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>43574</v>
+        <v>43567</v>
       </c>
       <c r="B197">
-        <v>125.045</v>
+        <v>261.1198</v>
       </c>
       <c r="C197">
-        <v>131.71</v>
+        <v>222.40629999999999</v>
       </c>
       <c r="D197">
-        <v>29.7577</v>
+        <v>287.45999999999998</v>
       </c>
       <c r="E197">
-        <v>290.02</v>
+        <v>3134.46</v>
       </c>
       <c r="F197">
-        <v>35.08</v>
+        <v>7116.35</v>
       </c>
       <c r="G197">
-        <v>100.468</v>
+        <v>130.48390000000001</v>
       </c>
       <c r="H197">
-        <v>71.666580999999994</v>
+        <v>98.318082509649983</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>43581</v>
+        <v>43574</v>
       </c>
       <c r="B198">
-        <v>125.36499999999999</v>
+        <v>261.1857</v>
       </c>
       <c r="C198">
-        <v>132.10499999999999</v>
+        <v>222.74010000000001</v>
       </c>
       <c r="D198">
-        <v>29.7882</v>
+        <v>287.54000000000002</v>
       </c>
       <c r="E198">
-        <v>293.41000000000003</v>
+        <v>3169.33</v>
       </c>
       <c r="F198">
-        <v>35.15</v>
+        <v>7158.32</v>
       </c>
       <c r="G198">
-        <v>100.46299999999999</v>
+        <v>130.5694</v>
       </c>
       <c r="H198">
-        <v>71.663070000000005</v>
+        <v>98.315357749535934</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>43588</v>
+        <v>43581</v>
       </c>
       <c r="B199">
-        <v>125.375</v>
+        <v>261.71809999999999</v>
       </c>
       <c r="C199">
-        <v>132.11000000000001</v>
+        <v>223.0608</v>
       </c>
       <c r="D199">
-        <v>29.687799999999999</v>
+        <v>287.99</v>
       </c>
       <c r="E199">
-        <v>294.02999999999997</v>
+        <v>3239.04</v>
       </c>
       <c r="F199">
-        <v>35.344999999999999</v>
+        <v>7208.61</v>
       </c>
       <c r="G199">
-        <v>100.56699999999999</v>
+        <v>130.6105</v>
       </c>
       <c r="H199">
-        <v>71.659647000000007</v>
+        <v>98.318075105506807</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>43595</v>
+        <v>43588</v>
       </c>
       <c r="B200">
-        <v>125.36</v>
+        <v>261.86200000000002</v>
       </c>
       <c r="C200">
-        <v>131.57499999999999</v>
+        <v>223.19450000000001</v>
       </c>
       <c r="D200">
-        <v>29.284300000000002</v>
+        <v>287.26</v>
       </c>
       <c r="E200">
-        <v>288.10000000000002</v>
+        <v>3240.72</v>
       </c>
       <c r="F200">
-        <v>34.094999999999999</v>
+        <v>7234.75</v>
       </c>
       <c r="G200">
-        <v>100.473</v>
+        <v>130.6549</v>
       </c>
       <c r="H200">
-        <v>71.656154999999998</v>
+        <v>98.323524707478754</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>43602</v>
+        <v>43595</v>
       </c>
       <c r="B201">
-        <v>125.795</v>
+        <v>261.774</v>
       </c>
       <c r="C201">
-        <v>131.875</v>
+        <v>222.9237</v>
       </c>
       <c r="D201">
-        <v>29.5092</v>
+        <v>283.69</v>
       </c>
       <c r="E201">
-        <v>285.83999999999997</v>
+        <v>3143.29</v>
       </c>
       <c r="F201">
-        <v>34.78</v>
+        <v>6999.37</v>
       </c>
       <c r="G201">
-        <v>100.372</v>
+        <v>130.57679999999999</v>
       </c>
       <c r="H201">
-        <v>71.652698999999998</v>
+        <v>98.318045244615178</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>43609</v>
+        <v>43602</v>
       </c>
       <c r="B202">
-        <v>126.04</v>
+        <v>262.87990000000002</v>
       </c>
       <c r="C202">
-        <v>131.44999999999999</v>
+        <v>222.923</v>
       </c>
       <c r="D202">
-        <v>29.6065</v>
+        <v>286.02</v>
       </c>
       <c r="E202">
-        <v>282.77999999999997</v>
+        <v>3150.02</v>
       </c>
       <c r="F202">
-        <v>34.159999999999997</v>
+        <v>7146.3</v>
       </c>
       <c r="G202">
-        <v>100.30500000000001</v>
+        <v>130.54</v>
       </c>
       <c r="H202">
-        <v>71.649501000000001</v>
+        <v>98.315320484501129</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>43616</v>
+        <v>43609</v>
       </c>
       <c r="B203">
-        <v>126.745</v>
+        <v>263.40440000000001</v>
       </c>
       <c r="C203">
-        <v>131.72</v>
+        <v>222.56270000000001</v>
       </c>
       <c r="D203">
-        <v>30.8551</v>
+        <v>286.89</v>
       </c>
       <c r="E203">
-        <v>275.27</v>
+        <v>3102.34</v>
       </c>
       <c r="F203">
-        <v>33.545000000000002</v>
+        <v>7077.07</v>
       </c>
       <c r="G203">
-        <v>100.223</v>
+        <v>130.4958</v>
       </c>
       <c r="H203">
-        <v>71.646394000000001</v>
+        <v>98.304450897574142</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>43623</v>
+        <v>43616</v>
       </c>
       <c r="B204">
-        <v>128.32</v>
+        <v>264.5505</v>
       </c>
       <c r="C204">
-        <v>132.60499999999999</v>
+        <v>222.70429999999999</v>
       </c>
       <c r="D204">
-        <v>31.1999</v>
+        <v>298.11</v>
       </c>
       <c r="E204">
-        <v>287.64999999999998</v>
+        <v>3030.54</v>
       </c>
       <c r="F204">
-        <v>34.534999999999997</v>
+        <v>6947.86</v>
       </c>
       <c r="G204">
-        <v>100.30500000000001</v>
+        <v>130.4854</v>
       </c>
       <c r="H204">
-        <v>71.643494000000004</v>
+        <v>98.288321914093387</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>43630</v>
+        <v>43623</v>
       </c>
       <c r="B205">
-        <v>128.35</v>
+        <v>267.85739999999998</v>
       </c>
       <c r="C205">
-        <v>132.745</v>
+        <v>223.1165</v>
       </c>
       <c r="D205">
-        <v>31.6478</v>
+        <v>301.43</v>
       </c>
       <c r="E205">
-        <v>289.26</v>
+        <v>3108.38</v>
       </c>
       <c r="F205">
-        <v>34.590000000000003</v>
+        <v>7124.9</v>
       </c>
       <c r="G205">
-        <v>100.32</v>
+        <v>130.5402</v>
       </c>
       <c r="H205">
-        <v>71.640570999999994</v>
+        <v>98.280385350412359</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>43637</v>
+        <v>43630</v>
       </c>
       <c r="B206">
-        <v>129.01499999999999</v>
+        <v>268.03309999999999</v>
       </c>
       <c r="C206">
-        <v>133.95500000000001</v>
+        <v>223.37299999999999</v>
       </c>
       <c r="D206">
-        <v>31.958600000000001</v>
+        <v>305.44</v>
       </c>
       <c r="E206">
-        <v>294</v>
+        <v>3160.7</v>
       </c>
       <c r="F206">
-        <v>35.215000000000003</v>
+        <v>7150.78</v>
       </c>
       <c r="G206">
-        <v>100.381</v>
+        <v>130.56319999999999</v>
       </c>
       <c r="H206">
-        <v>71.637710999999996</v>
+        <v>98.288259421030503</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>43644</v>
+        <v>43637</v>
       </c>
       <c r="B207">
-        <v>129.60499999999999</v>
+        <v>269.40949999999998</v>
       </c>
       <c r="C207">
-        <v>134.035</v>
+        <v>224.13390000000001</v>
       </c>
       <c r="D207">
-        <v>32.328099999999999</v>
+        <v>308.14</v>
       </c>
       <c r="E207">
-        <v>293</v>
+        <v>3211.45</v>
       </c>
       <c r="F207">
-        <v>35.31</v>
+        <v>7265.27</v>
       </c>
       <c r="G207">
-        <v>100.449</v>
+        <v>130.62950000000001</v>
       </c>
       <c r="H207">
-        <v>71.635031999999995</v>
+        <v>98.235349337760155</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>43651</v>
+        <v>43644</v>
       </c>
       <c r="B208">
-        <v>130.61500000000001</v>
+        <v>270.6259</v>
       </c>
       <c r="C208">
-        <v>134.66999999999999</v>
+        <v>224.34200000000001</v>
       </c>
       <c r="D208">
-        <v>33.164299999999997</v>
+        <v>311.72000000000003</v>
       </c>
       <c r="E208">
-        <v>298.45999999999998</v>
+        <v>3173.15</v>
       </c>
       <c r="F208">
-        <v>35.9</v>
+        <v>7266.99</v>
       </c>
       <c r="G208">
-        <v>100.542</v>
+        <v>130.65119999999999</v>
       </c>
       <c r="H208">
-        <v>71.632818</v>
+        <v>98.26047494316154</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>43658</v>
+        <v>43651</v>
       </c>
       <c r="B209">
-        <v>128.89500000000001</v>
+        <v>272.85809999999998</v>
       </c>
       <c r="C209">
-        <v>133.495</v>
+        <v>224.74520000000001</v>
       </c>
       <c r="D209">
-        <v>32.556199999999997</v>
+        <v>318.61</v>
       </c>
       <c r="E209">
-        <v>300.64999999999998</v>
+        <v>3279.74</v>
       </c>
       <c r="F209">
-        <v>35.564999999999998</v>
+        <v>7365.48</v>
       </c>
       <c r="G209">
-        <v>100.54900000000001</v>
+        <v>130.70910000000001</v>
       </c>
       <c r="H209">
-        <v>71.630330000000001</v>
+        <v>98.245011069888605</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>43665</v>
+        <v>43658</v>
       </c>
       <c r="B210">
-        <v>130.27000000000001</v>
+        <v>270.29509999999999</v>
       </c>
       <c r="C210">
-        <v>134.14500000000001</v>
+        <v>224.57040000000001</v>
       </c>
       <c r="D210">
-        <v>33.184699999999999</v>
+        <v>313.41000000000003</v>
       </c>
       <c r="E210">
-        <v>297.17</v>
+        <v>3303.49</v>
       </c>
       <c r="F210">
-        <v>35.375</v>
+        <v>7272.68</v>
       </c>
       <c r="G210">
-        <v>100.592</v>
+        <v>130.7355</v>
       </c>
       <c r="H210">
-        <v>71.627837999999997</v>
+        <v>98.247549107998324</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>43672</v>
+        <v>43665</v>
       </c>
       <c r="B211">
-        <v>130.66999999999999</v>
+        <v>272.9966</v>
       </c>
       <c r="C211">
-        <v>135.04</v>
+        <v>224.99629999999999</v>
       </c>
       <c r="D211">
-        <v>33.457000000000001</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="E211">
-        <v>302.01</v>
+        <v>3270.19</v>
       </c>
       <c r="F211">
-        <v>35.869999999999997</v>
+        <v>7284.57</v>
       </c>
       <c r="G211">
-        <v>100.705</v>
+        <v>130.77010000000001</v>
       </c>
       <c r="H211">
-        <v>71.625482000000005</v>
+        <v>98.222103841275981</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>43679</v>
+        <v>43672</v>
       </c>
       <c r="B212">
-        <v>131.92500000000001</v>
+        <v>273.81450000000001</v>
       </c>
       <c r="C212">
-        <v>134.72499999999999</v>
+        <v>225.4153</v>
       </c>
       <c r="D212">
-        <v>33.398200000000003</v>
+        <v>320.51</v>
       </c>
       <c r="E212">
-        <v>292.62</v>
+        <v>3353.46</v>
       </c>
       <c r="F212">
-        <v>34.354999999999997</v>
+        <v>7344.61</v>
       </c>
       <c r="G212">
-        <v>100.631</v>
+        <v>130.84440000000001</v>
       </c>
       <c r="H212">
-        <v>71.622946999999996</v>
+        <v>98.241954923309606</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>43686</v>
+        <v>43679</v>
       </c>
       <c r="B213">
-        <v>131.815</v>
+        <v>276.31569999999999</v>
       </c>
       <c r="C213">
-        <v>135.26499999999999</v>
+        <v>225.3777</v>
       </c>
       <c r="D213">
-        <v>33.1629</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="E213">
-        <v>291.62</v>
+        <v>3251.15</v>
       </c>
       <c r="F213">
-        <v>33.92</v>
+        <v>7115.79</v>
       </c>
       <c r="G213">
-        <v>100.592</v>
+        <v>130.83000000000001</v>
       </c>
       <c r="H213">
-        <v>71.620621999999997</v>
+        <v>98.249549912971517</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>43693</v>
+        <v>43686</v>
       </c>
       <c r="B214">
-        <v>133.82</v>
+        <v>276.17950000000002</v>
       </c>
       <c r="C214">
-        <v>135.55500000000001</v>
+        <v>225.72800000000001</v>
       </c>
       <c r="D214">
-        <v>33.628700000000002</v>
+        <v>318.27</v>
       </c>
       <c r="E214">
-        <v>288.85000000000002</v>
+        <v>3196.53</v>
       </c>
       <c r="F214">
-        <v>33.914999999999999</v>
+        <v>7014.06</v>
       </c>
       <c r="G214">
-        <v>100.551</v>
+        <v>130.82050000000001</v>
       </c>
       <c r="H214">
-        <v>71.617838000000006</v>
+        <v>98.221488669908723</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>43700</v>
+        <v>43693</v>
       </c>
       <c r="B215">
-        <v>133.465</v>
+        <v>280.35399999999998</v>
       </c>
       <c r="C215">
-        <v>135.69499999999999</v>
+        <v>225.87899999999999</v>
       </c>
       <c r="D215">
-        <v>33.6646</v>
+        <v>322.05</v>
       </c>
       <c r="E215">
-        <v>284.85000000000002</v>
+        <v>3199.25</v>
       </c>
       <c r="F215">
-        <v>33.954999999999998</v>
+        <v>7028.09</v>
       </c>
       <c r="G215">
-        <v>100.62</v>
+        <v>130.81909999999999</v>
       </c>
       <c r="H215">
-        <v>71.614866000000006</v>
+        <v>98.17186085068073</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>43707</v>
+        <v>43700</v>
       </c>
       <c r="B216">
-        <v>134.54499999999999</v>
+        <v>279.67790000000002</v>
       </c>
       <c r="C216">
-        <v>135.78</v>
+        <v>226.04740000000001</v>
       </c>
       <c r="D216">
-        <v>34.863199999999999</v>
+        <v>322.27999999999997</v>
       </c>
       <c r="E216">
-        <v>292.45</v>
+        <v>3148.45</v>
       </c>
       <c r="F216">
-        <v>34.914999999999999</v>
+        <v>7043.18</v>
       </c>
       <c r="G216">
-        <v>100.59</v>
+        <v>130.846</v>
       </c>
       <c r="H216">
-        <v>71.610913999999994</v>
+        <v>98.195501559453476</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>43714</v>
+        <v>43707</v>
       </c>
       <c r="B217">
-        <v>134.09</v>
+        <v>281.99579999999997</v>
       </c>
       <c r="C217">
-        <v>135.22999999999999</v>
+        <v>226.1437</v>
       </c>
       <c r="D217">
-        <v>35.010599999999997</v>
+        <v>331.69</v>
       </c>
       <c r="E217">
-        <v>298.05</v>
+        <v>3262.76</v>
       </c>
       <c r="F217">
-        <v>35.590000000000003</v>
+        <v>7198.19</v>
       </c>
       <c r="G217">
-        <v>100.581</v>
+        <v>130.8777</v>
       </c>
       <c r="H217">
-        <v>71.606808999999998</v>
+        <v>98.161603258226407</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>43721</v>
+        <v>43714</v>
       </c>
       <c r="B218">
-        <v>132.58500000000001</v>
+        <v>281.04660000000001</v>
       </c>
       <c r="C218">
-        <v>134.60499999999999</v>
+        <v>225.6754</v>
       </c>
       <c r="D218">
-        <v>35.073099999999997</v>
+        <v>332.93</v>
       </c>
       <c r="E218">
-        <v>301.08999999999997</v>
+        <v>3310.15</v>
       </c>
       <c r="F218">
-        <v>36.174999999999997</v>
+        <v>7324.52</v>
       </c>
       <c r="G218">
-        <v>100.625</v>
+        <v>130.87360000000001</v>
       </c>
       <c r="H218">
-        <v>71.601938000000004</v>
+        <v>98.103055232887598</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>43728</v>
+        <v>43721</v>
       </c>
       <c r="B219">
-        <v>133.13499999999999</v>
+        <v>277.70670000000001</v>
       </c>
       <c r="C219">
-        <v>134.37</v>
+        <v>224.90379999999999</v>
       </c>
       <c r="D219">
-        <v>35.881399999999999</v>
+        <v>333.58</v>
       </c>
       <c r="E219">
-        <v>298.27999999999997</v>
+        <v>3337.74</v>
       </c>
       <c r="F219">
-        <v>35.770000000000003</v>
+        <v>7367.19</v>
       </c>
       <c r="G219">
-        <v>100.517</v>
+        <v>130.84780000000001</v>
       </c>
       <c r="H219">
-        <v>71.596127999999993</v>
+        <v>98.13402868033846</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>43735</v>
+        <v>43728</v>
       </c>
       <c r="B220">
-        <v>134.04</v>
+        <v>279.06920000000002</v>
       </c>
       <c r="C220">
-        <v>134.63999999999999</v>
+        <v>224.7902</v>
       </c>
       <c r="D220">
-        <v>35.830199999999998</v>
+        <v>339.92</v>
       </c>
       <c r="E220">
-        <v>295.39999999999998</v>
+        <v>3335.04</v>
       </c>
       <c r="F220">
-        <v>35.564999999999998</v>
+        <v>7433.82</v>
       </c>
       <c r="G220">
-        <v>100.532</v>
+        <v>130.86330000000001</v>
       </c>
       <c r="H220">
-        <v>71.590815000000006</v>
+        <v>98.097498994906545</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>43742</v>
+        <v>43735</v>
       </c>
       <c r="B221">
-        <v>133.94</v>
+        <v>280.85610000000003</v>
       </c>
       <c r="C221">
-        <v>134.75</v>
+        <v>225.041</v>
       </c>
       <c r="D221">
-        <v>35.626199999999997</v>
+        <v>339.59</v>
       </c>
       <c r="E221">
-        <v>294.35000000000002</v>
+        <v>3318.18</v>
       </c>
       <c r="F221">
-        <v>34.549999999999997</v>
+        <v>7446.58</v>
       </c>
       <c r="G221">
-        <v>100.526</v>
+        <v>130.86510000000001</v>
       </c>
       <c r="H221">
-        <v>71.585594999999998</v>
+        <v>98.079877814134548</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>43749</v>
+        <v>43742</v>
       </c>
       <c r="B222">
-        <v>132.55000000000001</v>
+        <v>280.75020000000001</v>
       </c>
       <c r="C222">
-        <v>134.38499999999999</v>
+        <v>225.17009999999999</v>
       </c>
       <c r="D222">
-        <v>35.379300000000001</v>
+        <v>338.28</v>
       </c>
       <c r="E222">
-        <v>296.27999999999997</v>
+        <v>3319.4</v>
       </c>
       <c r="F222">
-        <v>35.840000000000003</v>
+        <v>7224.62</v>
       </c>
       <c r="G222">
-        <v>100.462</v>
+        <v>130.8578</v>
       </c>
       <c r="H222">
-        <v>71.580543000000006</v>
+        <v>98.053903799657689</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>43756</v>
+        <v>43749</v>
       </c>
       <c r="B223">
-        <v>132.26499999999999</v>
+        <v>278.14879999999999</v>
       </c>
       <c r="C223">
-        <v>134.21</v>
+        <v>224.87459999999999</v>
       </c>
       <c r="D223">
-        <v>35.718800000000002</v>
+        <v>336.47</v>
       </c>
       <c r="E223">
-        <v>297.97000000000003</v>
+        <v>3327.04</v>
       </c>
       <c r="F223">
-        <v>35.909999999999997</v>
+        <v>7424.3</v>
       </c>
       <c r="G223">
-        <v>100.551</v>
+        <v>130.85230000000001</v>
       </c>
       <c r="H223">
-        <v>71.574948000000006</v>
+        <v>98.056013540132867</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>43763</v>
+        <v>43756</v>
       </c>
       <c r="B224">
-        <v>132.26499999999999</v>
+        <v>277.42610000000002</v>
       </c>
       <c r="C224">
-        <v>134.47</v>
+        <v>224.73580000000001</v>
       </c>
       <c r="D224">
-        <v>36.165300000000002</v>
+        <v>339.32</v>
       </c>
       <c r="E224">
-        <v>301.60000000000002</v>
+        <v>3301.14</v>
       </c>
       <c r="F224">
-        <v>36.375</v>
+        <v>7394.66</v>
       </c>
       <c r="G224">
-        <v>100.58199999999999</v>
+        <v>130.8535</v>
       </c>
       <c r="H224">
-        <v>71.569357999999994</v>
+        <v>98.130009304910786</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>43770</v>
+        <v>43763</v>
       </c>
       <c r="B225">
-        <v>132.04</v>
+        <v>277.15010000000001</v>
       </c>
       <c r="C225">
-        <v>134.55000000000001</v>
+        <v>224.89089999999999</v>
       </c>
       <c r="D225">
-        <v>36.305399999999999</v>
+        <v>343</v>
       </c>
       <c r="E225">
-        <v>306.14</v>
+        <v>3363.29</v>
       </c>
       <c r="F225">
-        <v>36.405000000000001</v>
+        <v>7553.38</v>
       </c>
       <c r="G225">
-        <v>100.563</v>
+        <v>130.87549999999999</v>
       </c>
       <c r="H225">
-        <v>71.564513000000005</v>
+        <v>98.088913400238241</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>43777</v>
+        <v>43770</v>
       </c>
       <c r="B226">
-        <v>131.19</v>
+        <v>276.87720000000002</v>
       </c>
       <c r="C226">
-        <v>134.09</v>
+        <v>224.96600000000001</v>
       </c>
       <c r="D226">
-        <v>35.742199999999997</v>
+        <v>343.88</v>
       </c>
       <c r="E226">
-        <v>308.94</v>
+        <v>3396.54</v>
       </c>
       <c r="F226">
-        <v>37.185000000000002</v>
+        <v>7554.54</v>
       </c>
       <c r="G226">
-        <v>100.58499999999999</v>
+        <v>130.869</v>
       </c>
       <c r="H226">
-        <v>71.55762</v>
+        <v>98.117422196290875</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>43784</v>
+        <v>43777</v>
       </c>
       <c r="B227">
-        <v>131.035</v>
+        <v>274.40050000000002</v>
       </c>
       <c r="C227">
-        <v>134.07</v>
+        <v>224.71459999999999</v>
       </c>
       <c r="D227">
-        <v>35.306600000000003</v>
+        <v>339.88</v>
       </c>
       <c r="E227">
-        <v>311.79000000000002</v>
+        <v>3476.61</v>
       </c>
       <c r="F227">
-        <v>37.28</v>
+        <v>7681.76</v>
       </c>
       <c r="G227">
-        <v>100.557</v>
+        <v>130.8734</v>
       </c>
       <c r="H227">
-        <v>71.551754000000003</v>
+        <v>98.07227544347684</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>43791</v>
+        <v>43784</v>
       </c>
       <c r="B228">
-        <v>131.375</v>
+        <v>274.87909999999999</v>
       </c>
       <c r="C228">
-        <v>133.97999999999999</v>
+        <v>224.77590000000001</v>
       </c>
       <c r="D228">
-        <v>35.4587</v>
+        <v>336.64</v>
       </c>
       <c r="E228">
-        <v>310.95999999999998</v>
+        <v>3496.19</v>
       </c>
       <c r="F228">
-        <v>37.045000000000002</v>
+        <v>7686.65</v>
       </c>
       <c r="G228">
-        <v>100.502</v>
+        <v>130.86519999999999</v>
       </c>
       <c r="H228">
-        <v>71.545930999999996</v>
+        <v>98.100353223174466</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>43798</v>
+        <v>43791</v>
       </c>
       <c r="B229">
-        <v>131.29499999999999</v>
+        <v>275.42349999999999</v>
       </c>
       <c r="C229">
-        <v>134.27500000000001</v>
+        <v>224.58590000000001</v>
       </c>
       <c r="D229">
-        <v>35.359299999999998</v>
+        <v>338.2</v>
       </c>
       <c r="E229">
-        <v>314.31</v>
+        <v>3496.1</v>
       </c>
       <c r="F229">
-        <v>37.21</v>
+        <v>7652.77</v>
       </c>
       <c r="G229">
-        <v>100.506</v>
+        <v>130.8433</v>
       </c>
       <c r="H229">
-        <v>71.539766</v>
+        <v>98.111464323470756</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>43805</v>
+        <v>43798</v>
       </c>
       <c r="B230">
-        <v>130.41</v>
+        <v>275.2439</v>
       </c>
       <c r="C230">
-        <v>134.21</v>
+        <v>224.7285</v>
       </c>
       <c r="D230">
-        <v>35.167299999999997</v>
+        <v>337.24</v>
       </c>
       <c r="E230">
-        <v>314.87</v>
+        <v>3540.12</v>
       </c>
       <c r="F230">
-        <v>37.14</v>
+        <v>7708.5</v>
       </c>
       <c r="G230">
-        <v>100.52800000000001</v>
+        <v>130.8518</v>
       </c>
       <c r="H230">
-        <v>71.533507</v>
+        <v>98.129441822629957</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>43812</v>
+        <v>43805</v>
       </c>
       <c r="B231">
-        <v>131.17500000000001</v>
+        <v>273.60739999999998</v>
       </c>
       <c r="C231">
-        <v>134.58000000000001</v>
+        <v>224.7637</v>
       </c>
       <c r="D231">
-        <v>35.687800000000003</v>
+        <v>335.82</v>
       </c>
       <c r="E231">
-        <v>317.32</v>
+        <v>3536.5</v>
       </c>
       <c r="F231">
-        <v>37.520000000000003</v>
+        <v>7688.25</v>
       </c>
       <c r="G231">
-        <v>100.524</v>
+        <v>130.84950000000001</v>
       </c>
       <c r="H231">
-        <v>71.527299999999997</v>
+        <v>98.085963576087323</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>43819</v>
+        <v>43812</v>
       </c>
       <c r="B232">
-        <v>130.535</v>
+        <v>274.75900000000001</v>
       </c>
       <c r="C232">
-        <v>134.57</v>
+        <v>225.06620000000001</v>
       </c>
       <c r="D232">
-        <v>35.575899999999997</v>
+        <v>339.98</v>
       </c>
       <c r="E232">
-        <v>320.73</v>
+        <v>3537.09</v>
       </c>
       <c r="F232">
-        <v>37.865000000000002</v>
+        <v>7754.61</v>
       </c>
       <c r="G232">
-        <v>100.63500000000001</v>
+        <v>130.88890000000001</v>
       </c>
       <c r="H232">
-        <v>71.521100000000004</v>
+        <v>98.061840751525921</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>43826</v>
+        <v>43819</v>
       </c>
       <c r="B233">
-        <v>130.67500000000001</v>
+        <v>273.61009999999999</v>
       </c>
       <c r="C233">
-        <v>134.65</v>
+        <v>225.13239999999999</v>
       </c>
       <c r="D233">
-        <v>35.561</v>
+        <v>339.27</v>
       </c>
       <c r="E233">
-        <v>322.86</v>
+        <v>3613.06</v>
       </c>
       <c r="F233">
-        <v>38</v>
+        <v>7910.74</v>
       </c>
       <c r="G233">
-        <v>100.7</v>
+        <v>130.89060000000001</v>
       </c>
       <c r="H233">
-        <v>71.515199999999993</v>
+        <v>98.10038466307121</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>43833</v>
+        <v>43826</v>
       </c>
       <c r="B234">
-        <v>130.91999999999999</v>
+        <v>273.87709999999998</v>
       </c>
       <c r="C234">
-        <v>134.66</v>
+        <v>225.10900000000001</v>
       </c>
       <c r="D234">
-        <v>35.551600000000001</v>
+        <v>339.4</v>
       </c>
       <c r="E234">
-        <v>322.41000000000003</v>
+        <v>3622.88</v>
       </c>
       <c r="F234">
-        <v>37.840000000000003</v>
+        <v>7922.15</v>
       </c>
       <c r="G234">
-        <v>100.63</v>
+        <v>130.88839999999999</v>
       </c>
       <c r="H234">
-        <v>71.509399999999999</v>
+        <v>98.111520509371573</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>43840</v>
+        <v>43833</v>
       </c>
       <c r="B235">
-        <v>130.41499999999999</v>
+        <v>274.37939999999998</v>
       </c>
       <c r="C235">
-        <v>134.28</v>
+        <v>225.2302</v>
       </c>
       <c r="D235">
-        <v>35.684699999999999</v>
+        <v>339.44</v>
       </c>
       <c r="E235">
-        <v>325.70999999999998</v>
+        <v>3620.8</v>
       </c>
       <c r="F235">
-        <v>38.045000000000002</v>
+        <v>7906.94</v>
       </c>
       <c r="G235">
-        <v>100.63</v>
+        <v>130.89420000000001</v>
       </c>
       <c r="H235">
-        <v>71.504000000000005</v>
+        <v>98.113772799881673</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>43847</v>
+        <v>43840</v>
       </c>
       <c r="B236">
-        <v>130.03</v>
+        <v>273.61630000000002</v>
       </c>
       <c r="C236">
-        <v>133.88999999999999</v>
+        <v>224.9716</v>
       </c>
       <c r="D236">
-        <v>35.5274</v>
+        <v>340.48</v>
       </c>
       <c r="E236">
-        <v>331.95</v>
+        <v>3681.77</v>
       </c>
       <c r="F236">
-        <v>38.215000000000003</v>
+        <v>7921.99</v>
       </c>
       <c r="G236">
-        <v>100.63</v>
+        <v>130.91220000000001</v>
       </c>
       <c r="H236">
-        <v>71.498199999999997</v>
+        <v>98.068626047067639</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>43854</v>
+        <v>43847</v>
       </c>
       <c r="B237">
-        <v>131.52000000000001</v>
+        <v>273.30520000000001</v>
       </c>
       <c r="C237">
-        <v>134.51</v>
+        <v>225.125</v>
       </c>
       <c r="D237">
-        <v>35.936500000000002</v>
+        <v>339.37</v>
       </c>
       <c r="E237">
-        <v>328.77</v>
+        <v>3758.81</v>
       </c>
       <c r="F237">
-        <v>37.954999999999998</v>
+        <v>8022.44</v>
       </c>
       <c r="G237">
-        <v>100.61199999999999</v>
+        <v>130.95259999999999</v>
       </c>
       <c r="H237">
-        <v>71.492099999999994</v>
+        <v>98.070785848363542</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>43861</v>
+        <v>43854</v>
       </c>
       <c r="B238">
-        <v>132.88</v>
+        <v>275.80990000000003</v>
       </c>
       <c r="C238">
-        <v>134.88999999999999</v>
+        <v>225.53710000000001</v>
       </c>
       <c r="D238">
-        <v>36.5822</v>
+        <v>342.51</v>
       </c>
       <c r="E238">
-        <v>321.73</v>
+        <v>3753.6</v>
       </c>
       <c r="F238">
-        <v>36.585000000000001</v>
+        <v>7997.96</v>
       </c>
       <c r="G238">
-        <v>100.634</v>
+        <v>130.9812</v>
       </c>
       <c r="H238">
-        <v>71.4863</v>
+        <v>98.094595386706146</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>43868</v>
+        <v>43861</v>
       </c>
       <c r="B239">
-        <v>132.25</v>
+        <v>279.32530000000003</v>
       </c>
       <c r="C239">
-        <v>134.82499999999999</v>
+        <v>225.87350000000001</v>
       </c>
       <c r="D239">
-        <v>37.088299999999997</v>
+        <v>346.67</v>
       </c>
       <c r="E239">
-        <v>332.2</v>
+        <v>3675.54</v>
       </c>
       <c r="F239">
-        <v>38.17</v>
+        <v>7756.31</v>
       </c>
       <c r="G239">
-        <v>100.61199999999999</v>
+        <v>130.99420000000001</v>
       </c>
       <c r="H239">
-        <v>71.480900000000005</v>
+        <v>98.087943522034877</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>43875</v>
+        <v>43868</v>
       </c>
       <c r="B240">
-        <v>132.66</v>
+        <v>278.26429999999999</v>
       </c>
       <c r="C240">
-        <v>135</v>
+        <v>225.7929</v>
       </c>
       <c r="D240">
-        <v>37.560099999999998</v>
+        <v>350.32</v>
       </c>
       <c r="E240">
-        <v>337.6</v>
+        <v>3850.5</v>
       </c>
       <c r="F240">
-        <v>38.625</v>
+        <v>8038.92</v>
       </c>
       <c r="G240">
-        <v>100.61199999999999</v>
+        <v>131.02529999999999</v>
       </c>
       <c r="H240">
-        <v>71.475399999999993</v>
+        <v>98.079132931648886</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>43882</v>
+        <v>43875</v>
       </c>
       <c r="B241">
-        <v>133.26499999999999</v>
+        <v>278.98250000000002</v>
       </c>
       <c r="C241">
-        <v>135.155</v>
+        <v>225.96289999999999</v>
       </c>
       <c r="D241">
-        <v>37.521599999999999</v>
+        <v>353.8</v>
       </c>
       <c r="E241">
-        <v>333.48</v>
+        <v>3941.79</v>
       </c>
       <c r="F241">
-        <v>38.204999999999998</v>
+        <v>8102.33</v>
       </c>
       <c r="G241">
-        <v>100.631</v>
+        <v>131.0641</v>
       </c>
       <c r="H241">
-        <v>71.470200000000006</v>
+        <v>98.031098030321687</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>43889</v>
+        <v>43882</v>
       </c>
       <c r="B242">
-        <v>133.345</v>
+        <v>280.23649999999998</v>
       </c>
       <c r="C242">
-        <v>133.66499999999999</v>
+        <v>225.99109999999999</v>
       </c>
       <c r="D242">
-        <v>36.3322</v>
+        <v>353.63</v>
       </c>
       <c r="E242">
-        <v>296.26</v>
+        <v>3879.74</v>
       </c>
       <c r="F242">
-        <v>33.53</v>
+        <v>8070.49</v>
       </c>
       <c r="G242">
-        <v>100.425</v>
+        <v>131.0712</v>
       </c>
       <c r="H242">
-        <v>71.4649</v>
+        <v>98.035264705417177</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>43896</v>
+        <v>43889</v>
       </c>
       <c r="B243">
-        <v>134.44</v>
+        <v>280.66640000000001</v>
       </c>
       <c r="C243">
-        <v>133.72499999999999</v>
+        <v>225.26349999999999</v>
       </c>
       <c r="D243">
-        <v>36.0548</v>
+        <v>345</v>
       </c>
       <c r="E243">
-        <v>297.45999999999998</v>
+        <v>3402.54</v>
       </c>
       <c r="F243">
-        <v>32.505000000000003</v>
+        <v>7087.72</v>
       </c>
       <c r="G243">
-        <v>100.399</v>
+        <v>130.892</v>
       </c>
       <c r="H243">
-        <v>71.460999999999999</v>
+        <v>98.014344160827619</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>43903</v>
+        <v>43896</v>
       </c>
       <c r="B244">
-        <v>129.87</v>
+        <v>282.67739999999998</v>
       </c>
       <c r="C244">
-        <v>128.845</v>
+        <v>225.04730000000001</v>
       </c>
       <c r="D244">
-        <v>34.566299999999998</v>
+        <v>343.03</v>
       </c>
       <c r="E244">
-        <v>269.32</v>
+        <v>3336.55</v>
       </c>
       <c r="F244">
-        <v>26.1</v>
+        <v>6997.09</v>
       </c>
       <c r="G244">
-        <v>98.492999999999995</v>
+        <v>130.7878</v>
       </c>
       <c r="H244">
-        <v>71.4572</v>
+        <v>97.987704853723514</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>43910</v>
+        <v>43903</v>
       </c>
       <c r="B245">
-        <v>130.04</v>
+        <v>274.96289999999999</v>
       </c>
       <c r="C245">
-        <v>123.46</v>
+        <v>221.5635</v>
       </c>
       <c r="D245">
-        <v>33.319400000000002</v>
+        <v>330.63</v>
       </c>
       <c r="E245">
-        <v>228.8</v>
+        <v>3192.47</v>
       </c>
       <c r="F245">
-        <v>25.47</v>
+        <v>5790.98</v>
       </c>
       <c r="G245">
-        <v>95.510999999999996</v>
+        <v>129.86359999999999</v>
       </c>
       <c r="H245">
-        <v>71.446700000000007</v>
+        <v>98.029621018483809</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="B246">
-        <v>131.035</v>
+        <v>272.88990000000001</v>
       </c>
       <c r="C246">
-        <v>125.535</v>
+        <v>215.24709999999999</v>
       </c>
       <c r="D246">
-        <v>35.926699999999997</v>
+        <v>321.23</v>
       </c>
       <c r="E246">
-        <v>253.42</v>
+        <v>2854.23</v>
       </c>
       <c r="F246">
-        <v>27.414999999999999</v>
+        <v>5809.65</v>
       </c>
       <c r="G246">
-        <v>96.948999999999998</v>
+        <v>128.31030000000001</v>
       </c>
       <c r="H246">
-        <v>71.436400000000006</v>
+        <v>98.092121021999432</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>43924</v>
+        <v>43917</v>
       </c>
       <c r="B247">
-        <v>129.49</v>
+        <v>275.55360000000002</v>
       </c>
       <c r="C247">
-        <v>124.92</v>
+        <v>215.30340000000001</v>
       </c>
       <c r="D247">
-        <v>34.9773</v>
+        <v>342.83</v>
       </c>
       <c r="E247">
-        <v>248.19</v>
+        <v>2996.72</v>
       </c>
       <c r="F247">
-        <v>26.675000000000001</v>
+        <v>6139.83</v>
       </c>
       <c r="G247">
-        <v>97.637</v>
+        <v>127.483</v>
       </c>
       <c r="H247">
-        <v>71.424599999999998</v>
+        <v>98.11878767604388</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="B248">
-        <v>129.035</v>
+        <v>272.84480000000002</v>
       </c>
       <c r="C248">
-        <v>128.69</v>
+        <v>215.35319999999999</v>
       </c>
       <c r="D248">
-        <v>35.372</v>
+        <v>334.81</v>
       </c>
       <c r="E248">
-        <v>278.2</v>
+        <v>3052.89</v>
       </c>
       <c r="F248">
-        <v>28.975000000000001</v>
+        <v>6211.22</v>
       </c>
       <c r="G248">
-        <v>98.06</v>
+        <v>127.6178</v>
       </c>
       <c r="H248">
-        <v>71.416200000000003</v>
+        <v>98.11878767604388</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>43938</v>
+        <v>43931</v>
       </c>
       <c r="B249">
-        <v>129.28</v>
+        <v>271.64080000000001</v>
       </c>
       <c r="C249">
-        <v>128.255</v>
+        <v>217.34010000000001</v>
       </c>
       <c r="D249">
-        <v>34.526499999999999</v>
+        <v>337.72</v>
       </c>
       <c r="E249">
-        <v>286.64</v>
+        <v>3322.14</v>
       </c>
       <c r="F249">
-        <v>28.995000000000001</v>
+        <v>6498.99</v>
       </c>
       <c r="G249">
-        <v>99.168000000000006</v>
+        <v>128.15129999999999</v>
       </c>
       <c r="H249">
-        <v>71.407899999999998</v>
+        <v>98.235226031520199</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="B250">
-        <v>128.97499999999999</v>
+        <v>272.33539999999999</v>
       </c>
       <c r="C250">
-        <v>129.19</v>
+        <v>218.42509999999999</v>
       </c>
       <c r="D250">
-        <v>33.895099999999999</v>
+        <v>330.25</v>
       </c>
       <c r="E250">
-        <v>282.97000000000003</v>
+        <v>3488.46</v>
       </c>
       <c r="F250">
-        <v>28.254999999999999</v>
+        <v>6574.81</v>
       </c>
       <c r="G250">
-        <v>98.457999999999998</v>
+        <v>128.4494</v>
       </c>
       <c r="H250">
-        <v>71.4011</v>
+        <v>98.11377902736713</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>43952</v>
+        <v>43945</v>
       </c>
       <c r="B251">
-        <v>130.75</v>
+        <v>271.51609999999999</v>
       </c>
       <c r="C251">
-        <v>130.19</v>
+        <v>218.7484</v>
       </c>
       <c r="D251">
-        <v>34.339300000000001</v>
+        <v>324.98</v>
       </c>
       <c r="E251">
-        <v>282.79000000000002</v>
+        <v>3478.25</v>
       </c>
       <c r="F251">
-        <v>29.434999999999999</v>
+        <v>6519.57</v>
       </c>
       <c r="G251">
-        <v>98.917000000000002</v>
+        <v>128.50579999999999</v>
       </c>
       <c r="H251">
-        <v>71.395600000000002</v>
+        <v>98.150645323572192</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>43959</v>
+        <v>43952</v>
       </c>
       <c r="B252">
-        <v>129.72</v>
+        <v>274.76870000000002</v>
       </c>
       <c r="C252">
-        <v>129.49</v>
+        <v>219.7508</v>
       </c>
       <c r="D252">
-        <v>34.272500000000001</v>
+        <v>329.61</v>
       </c>
       <c r="E252">
-        <v>292.44</v>
+        <v>3407.72</v>
       </c>
       <c r="F252">
-        <v>29.36</v>
+        <v>6602.64</v>
       </c>
       <c r="G252">
-        <v>99.019000000000005</v>
+        <v>128.69579999999999</v>
       </c>
       <c r="H252">
-        <v>71.386600000000001</v>
+        <v>98.050166869759323</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>43966</v>
+        <v>43959</v>
       </c>
       <c r="B253">
-        <v>129.81</v>
+        <v>272.43720000000002</v>
       </c>
       <c r="C253">
-        <v>128.61500000000001</v>
+        <v>219.33179999999999</v>
       </c>
       <c r="D253">
-        <v>34.562899999999999</v>
+        <v>328.91</v>
       </c>
       <c r="E253">
-        <v>286.27999999999997</v>
+        <v>3579.2</v>
       </c>
       <c r="F253">
-        <v>27.984999999999999</v>
+        <v>6678.87</v>
       </c>
       <c r="G253">
-        <v>98.906000000000006</v>
+        <v>128.72380000000001</v>
       </c>
       <c r="H253">
-        <v>71.3797</v>
+        <v>98.069732093332107</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>43973</v>
+        <v>43966</v>
       </c>
       <c r="B254">
-        <v>130.30000000000001</v>
+        <v>272.92320000000001</v>
       </c>
       <c r="C254">
-        <v>129.36000000000001</v>
+        <v>218.66659999999999</v>
       </c>
       <c r="D254">
-        <v>35.565899999999999</v>
+        <v>332.41</v>
       </c>
       <c r="E254">
-        <v>295.44</v>
+        <v>3548.27</v>
       </c>
       <c r="F254">
-        <v>29.43</v>
+        <v>6478.22</v>
       </c>
       <c r="G254">
-        <v>99.12</v>
+        <v>128.74039999999999</v>
       </c>
       <c r="H254">
-        <v>71.374600000000001</v>
+        <v>98.034255368669989</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>43980</v>
+        <v>43973</v>
       </c>
       <c r="B255">
-        <v>130.92500000000001</v>
+        <v>274.22019999999998</v>
       </c>
       <c r="C255">
-        <v>130.32499999999999</v>
+        <v>219.32169999999999</v>
       </c>
       <c r="D255">
-        <v>36.148800000000001</v>
+        <v>341.45</v>
       </c>
       <c r="E255">
-        <v>304.32</v>
+        <v>3617.36</v>
       </c>
       <c r="F255">
-        <v>30.925000000000001</v>
+        <v>6646.6</v>
       </c>
       <c r="G255">
-        <v>99.364999999999995</v>
+        <v>128.9127</v>
       </c>
       <c r="H255">
-        <v>71.370199999999997</v>
+        <v>98.021407441695217</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>43987</v>
+        <v>43980</v>
       </c>
       <c r="B256">
-        <v>129.80000000000001</v>
+        <v>275.3408</v>
       </c>
       <c r="C256">
-        <v>132.86500000000001</v>
+        <v>220.49359999999999</v>
       </c>
       <c r="D256">
-        <v>36.782400000000003</v>
+        <v>346.26</v>
       </c>
       <c r="E256">
-        <v>319.33999999999997</v>
+        <v>3604.78</v>
       </c>
       <c r="F256">
-        <v>34.25</v>
+        <v>6776.75</v>
       </c>
       <c r="G256">
-        <v>99.956000000000003</v>
+        <v>129.25280000000001</v>
       </c>
       <c r="H256">
-        <v>71.365200000000002</v>
+        <v>98.002379950806684</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>43994</v>
+        <v>43987</v>
       </c>
       <c r="B257">
-        <v>130.99</v>
+        <v>273.35570000000001</v>
       </c>
       <c r="C257">
-        <v>131.85</v>
+        <v>222.50710000000001</v>
       </c>
       <c r="D257">
-        <v>36.915700000000001</v>
+        <v>350.93</v>
       </c>
       <c r="E257">
-        <v>304.20999999999998</v>
+        <v>3680.09</v>
       </c>
       <c r="F257">
-        <v>32.024999999999999</v>
+        <v>7231.03</v>
       </c>
       <c r="G257">
-        <v>99.962000000000003</v>
+        <v>129.8039</v>
       </c>
       <c r="H257">
-        <v>71.360500000000002</v>
+        <v>98.000305226710168</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>44001</v>
+        <v>43994</v>
       </c>
       <c r="B258">
-        <v>131.69499999999999</v>
+        <v>275.63839999999999</v>
       </c>
       <c r="C258">
-        <v>131.91999999999999</v>
+        <v>222.25700000000001</v>
       </c>
       <c r="D258">
-        <v>37.213999999999999</v>
+        <v>352.13</v>
       </c>
       <c r="E258">
-        <v>308.64</v>
+        <v>3580.85</v>
       </c>
       <c r="F258">
-        <v>33.01</v>
+        <v>6875.07</v>
       </c>
       <c r="G258">
-        <v>99.971000000000004</v>
+        <v>129.81899999999999</v>
       </c>
       <c r="H258">
-        <v>71.358000000000004</v>
+        <v>98.002375655238737</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44008</v>
+        <v>44001</v>
       </c>
       <c r="B259">
-        <v>132.44999999999999</v>
+        <v>276.96030000000002</v>
       </c>
       <c r="C259">
-        <v>131.495</v>
+        <v>222.44990000000001</v>
       </c>
       <c r="D259">
-        <v>37.210299999999997</v>
+        <v>354.61</v>
       </c>
       <c r="E259">
-        <v>300.05</v>
+        <v>3679.67</v>
       </c>
       <c r="F259">
-        <v>32.414999999999999</v>
+        <v>7153.08</v>
       </c>
       <c r="G259">
-        <v>99.966999999999999</v>
+        <v>129.96199999999999</v>
       </c>
       <c r="H259">
-        <v>71.357600000000005</v>
+        <v>97.950508359879663</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44015</v>
+        <v>44008</v>
       </c>
       <c r="B260">
-        <v>131.88499999999999</v>
+        <v>278.12880000000001</v>
       </c>
       <c r="C260">
-        <v>132.26</v>
+        <v>222.41640000000001</v>
       </c>
       <c r="D260">
-        <v>37.611899999999999</v>
+        <v>354.54</v>
       </c>
       <c r="E260">
-        <v>312.23</v>
+        <v>3590.99</v>
       </c>
       <c r="F260">
-        <v>33.365000000000002</v>
+        <v>6997.24</v>
       </c>
       <c r="G260">
-        <v>100.014</v>
+        <v>129.95580000000001</v>
       </c>
       <c r="H260">
-        <v>71.356700000000004</v>
+        <v>97.956425560724639</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44022</v>
+        <v>44015</v>
       </c>
       <c r="B261">
-        <v>132.55000000000001</v>
+        <v>277.71699999999998</v>
       </c>
       <c r="C261">
-        <v>132.49</v>
+        <v>222.68299999999999</v>
       </c>
       <c r="D261">
-        <v>37.448500000000003</v>
+        <v>358.31</v>
       </c>
       <c r="E261">
-        <v>317.58999999999997</v>
+        <v>3726.94</v>
       </c>
       <c r="F261">
-        <v>33.44</v>
+        <v>7104.25</v>
       </c>
       <c r="G261">
-        <v>100.06399999999999</v>
+        <v>130.0318</v>
       </c>
       <c r="H261">
-        <v>71.354900000000001</v>
+        <v>97.960393882090216</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44029</v>
+        <v>44022</v>
       </c>
       <c r="B262">
-        <v>132.32499999999999</v>
+        <v>278.91800000000001</v>
       </c>
       <c r="C262">
-        <v>132.55500000000001</v>
+        <v>222.93729999999999</v>
       </c>
       <c r="D262">
-        <v>37.3247</v>
+        <v>357.06</v>
       </c>
       <c r="E262">
-        <v>321.72000000000003</v>
+        <v>3825.2</v>
       </c>
       <c r="F262">
-        <v>34.155000000000001</v>
+        <v>7132.95</v>
       </c>
       <c r="G262">
-        <v>100.122</v>
+        <v>130.108</v>
       </c>
       <c r="H262">
-        <v>71.353200000000001</v>
+        <v>97.958401756489025</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44035</v>
+        <v>44026</v>
       </c>
       <c r="B263">
-        <v>133.19000244140619</v>
+        <v>277.81099999999998</v>
       </c>
       <c r="C263">
-        <v>133.1499938964844</v>
+        <v>222.79839999999999</v>
       </c>
       <c r="D263">
-        <v>37.559199999999997</v>
+        <v>356.72</v>
       </c>
       <c r="E263">
-        <v>326.86</v>
+        <v>3762.25</v>
       </c>
       <c r="F263">
-        <v>34.310001373291023</v>
+        <v>7120.4</v>
       </c>
       <c r="G263">
-        <v>100.26100158691411</v>
+        <v>130.12729999999999</v>
       </c>
       <c r="H263">
-        <v>71.353899999999996</v>
+        <v>97.958401756489025</v>
       </c>
     </row>
   </sheetData>

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Archive\In-Output of Bloomberg's Model\Data_for_Experimentation_Archive\Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA7B83-2227-4DCB-AF71-F216066C216D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A380848-7104-4A16-98E2-55F51E8983B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="3540" windowWidth="18000" windowHeight="9270" xr2:uid="{C972A850-1D71-4944-80F9-E7F8ED65690A}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5439B062-52C3-4DD1-9344-1682D78AB56B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,25 +35,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>LEATTREU Index</t>
+    <t>EUNH GY Equity</t>
   </si>
   <si>
-    <t>LEC4TREU Index</t>
+    <t>EUN5 GY Equity</t>
   </si>
   <si>
-    <t>BEGCGA Index</t>
+    <t>LFGGBDR LX Equity</t>
   </si>
   <si>
-    <t>SXUSR Index</t>
+    <t>SPY US Equity</t>
   </si>
   <si>
-    <t>SX5R Index</t>
+    <t>SX5EEX GY Equity</t>
   </si>
   <si>
-    <t>LEF1TREU Index</t>
+    <t>FLOT FP Equity</t>
   </si>
   <si>
-    <t>EUR001M Index</t>
+    <t>PARSTEI LX Equity</t>
   </si>
 </sst>
 </file>
@@ -406,18 +406,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0347B-4CC1-4526-B246-D57236E85F3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52852A3-EC56-426D-9678-C48F252F7CEE}">
   <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -445,6814 +450,6808 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42202</v>
+        <v>42209</v>
       </c>
       <c r="B2">
-        <v>240.26410000000001</v>
+        <v>119.6</v>
       </c>
       <c r="C2">
-        <v>211.07820000000001</v>
-      </c>
-      <c r="D2">
-        <v>133.63</v>
+        <v>126.53</v>
       </c>
       <c r="E2">
-        <v>2190.29</v>
+        <v>208</v>
       </c>
       <c r="F2">
-        <v>7019.86</v>
+        <v>36.81</v>
       </c>
       <c r="G2">
-        <v>129.7542</v>
+        <v>100.21</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>72.243790000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42209</v>
+        <v>42216</v>
       </c>
       <c r="B3">
-        <v>241.77199999999999</v>
+        <v>120.14</v>
       </c>
       <c r="C3">
-        <v>211.30269999999999</v>
-      </c>
-      <c r="D3">
-        <v>131.87</v>
+        <v>126.77</v>
       </c>
       <c r="E3">
-        <v>2120.9299999999998</v>
+        <v>210.5</v>
       </c>
       <c r="F3">
-        <v>6804.12</v>
+        <v>36.835000000000001</v>
       </c>
       <c r="G3">
-        <v>129.77699999999999</v>
+        <v>100.25</v>
       </c>
       <c r="H3">
-        <v>99.972222165509251</v>
+        <v>72.243781999999996</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42216</v>
+        <v>42223</v>
       </c>
       <c r="B4">
-        <v>242.81890000000001</v>
+        <v>119.82</v>
       </c>
       <c r="C4">
-        <v>211.43299999999999</v>
+        <v>126.79</v>
       </c>
       <c r="D4">
-        <v>126.71</v>
+        <v>13.7453</v>
       </c>
       <c r="E4">
-        <v>2120.61</v>
+        <v>207.95</v>
       </c>
       <c r="F4">
-        <v>6858.13</v>
+        <v>37.204999999999998</v>
       </c>
       <c r="G4">
-        <v>129.82380000000001</v>
+        <v>100.29</v>
       </c>
       <c r="H4">
-        <v>99.958708625151331</v>
+        <v>72.243758999999997</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42223</v>
+        <v>42230</v>
       </c>
       <c r="B5">
-        <v>242.1439</v>
+        <v>119.99</v>
       </c>
       <c r="C5">
-        <v>211.61969999999999</v>
+        <v>126.69</v>
       </c>
       <c r="D5">
-        <v>128.41</v>
+        <v>15.729799999999999</v>
       </c>
       <c r="E5">
-        <v>2106.77</v>
+        <v>209.42</v>
       </c>
       <c r="F5">
-        <v>6882.95</v>
+        <v>35.71</v>
       </c>
       <c r="G5">
-        <v>129.84729999999999</v>
+        <v>100.31</v>
       </c>
       <c r="H5">
-        <v>99.878708668351322</v>
+        <v>72.243735999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42230</v>
+        <v>42237</v>
       </c>
       <c r="B6">
-        <v>242.53399999999999</v>
+        <v>120.15</v>
       </c>
       <c r="C6">
-        <v>211.53630000000001</v>
+        <v>126.63</v>
       </c>
       <c r="D6">
-        <v>148.58000000000001</v>
+        <v>15.5298</v>
       </c>
       <c r="E6">
-        <v>2086.23</v>
+        <v>197.83</v>
       </c>
       <c r="F6">
-        <v>6670.09</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G6">
-        <v>129.86359999999999</v>
+        <v>100.31</v>
       </c>
       <c r="H6">
-        <v>99.829325939956263</v>
+        <v>72.243651999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42237</v>
+        <v>42244</v>
       </c>
       <c r="B7">
-        <v>242.72380000000001</v>
+        <v>119.14</v>
       </c>
       <c r="C7">
-        <v>211.3674</v>
+        <v>125.65</v>
       </c>
       <c r="D7">
-        <v>146.94</v>
+        <v>16.124199999999998</v>
       </c>
       <c r="E7">
-        <v>1922.17</v>
+        <v>199.28</v>
       </c>
       <c r="F7">
-        <v>6225.02</v>
+        <v>33.630000000000003</v>
       </c>
       <c r="G7">
-        <v>129.86940000000001</v>
+        <v>100.3</v>
       </c>
       <c r="H7">
-        <v>99.746973011513361</v>
+        <v>72.243423000000007</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42244</v>
+        <v>42251</v>
       </c>
       <c r="B8">
-        <v>240.84010000000001</v>
+        <v>119.61</v>
       </c>
       <c r="C8">
-        <v>210.9811</v>
+        <v>126</v>
       </c>
       <c r="D8">
-        <v>152.34</v>
+        <v>16.356400000000001</v>
       </c>
       <c r="E8">
-        <v>1966.19</v>
+        <v>192.59</v>
       </c>
       <c r="F8">
-        <v>6250.57</v>
+        <v>32.5</v>
       </c>
       <c r="G8">
-        <v>129.86920000000001</v>
+        <v>100.28</v>
       </c>
       <c r="H8">
-        <v>99.681755652817714</v>
+        <v>72.243133999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42251</v>
+        <v>42258</v>
       </c>
       <c r="B9">
-        <v>241.70189999999999</v>
+        <v>119.56</v>
       </c>
       <c r="C9">
-        <v>211.1712</v>
+        <v>125.9</v>
       </c>
       <c r="D9">
-        <v>154</v>
+        <v>16.8858</v>
       </c>
       <c r="E9">
-        <v>1914.96</v>
+        <v>196.74</v>
       </c>
       <c r="F9">
-        <v>6056.57</v>
+        <v>32.65</v>
       </c>
       <c r="G9">
-        <v>129.84710000000001</v>
+        <v>100.25</v>
       </c>
       <c r="H9">
-        <v>99.62053111012716</v>
+        <v>72.242783000000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42258</v>
+        <v>42265</v>
       </c>
       <c r="B10">
-        <v>241.70140000000001</v>
+        <v>119.93</v>
       </c>
       <c r="C10">
-        <v>211.1866</v>
+        <v>125.7</v>
       </c>
       <c r="D10">
-        <v>159.55000000000001</v>
+        <v>17.486000000000001</v>
       </c>
       <c r="E10">
-        <v>1930.26</v>
+        <v>195.45</v>
       </c>
       <c r="F10">
-        <v>6092.34</v>
+        <v>31.645</v>
       </c>
       <c r="G10">
-        <v>129.8272</v>
+        <v>100.21</v>
       </c>
       <c r="H10">
-        <v>99.62053111012716</v>
+        <v>72.242348000000007</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42265</v>
+        <v>42272</v>
       </c>
       <c r="B11">
-        <v>242.44669999999999</v>
+        <v>119.87</v>
       </c>
       <c r="C11">
-        <v>211.02369999999999</v>
+        <v>125.04</v>
       </c>
       <c r="D11">
-        <v>164.93</v>
+        <v>17.396999999999998</v>
       </c>
       <c r="E11">
-        <v>1911.88</v>
+        <v>192.85</v>
       </c>
       <c r="F11">
-        <v>6069.99</v>
+        <v>31.265000000000001</v>
       </c>
       <c r="G11">
-        <v>129.80170000000001</v>
+        <v>100.14</v>
       </c>
       <c r="H11">
-        <v>99.639761917449647</v>
+        <v>72.241912999999997</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42272</v>
+        <v>42279</v>
       </c>
       <c r="B12">
-        <v>242.40199999999999</v>
+        <v>121.02</v>
       </c>
       <c r="C12">
-        <v>210.55439999999999</v>
+        <v>124.95</v>
       </c>
       <c r="D12">
-        <v>163.93</v>
+        <v>17.7926</v>
       </c>
       <c r="E12">
-        <v>1927.76</v>
+        <v>195</v>
       </c>
       <c r="F12">
-        <v>6013.25</v>
+        <v>31.035</v>
       </c>
       <c r="G12">
-        <v>129.70760000000001</v>
+        <v>100.07</v>
       </c>
       <c r="H12">
-        <v>99.551526592190129</v>
+        <v>72.241478000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42279</v>
+        <v>42286</v>
       </c>
       <c r="B13">
-        <v>244.69030000000001</v>
+        <v>120.41</v>
       </c>
       <c r="C13">
-        <v>210.31780000000001</v>
+        <v>125.46</v>
       </c>
       <c r="D13">
-        <v>166.21</v>
+        <v>18.2623</v>
       </c>
       <c r="E13">
-        <v>1929.4</v>
+        <v>201.33</v>
       </c>
       <c r="F13">
-        <v>5983.06</v>
+        <v>32.625</v>
       </c>
       <c r="G13">
-        <v>129.6163</v>
+        <v>100.06</v>
       </c>
       <c r="H13">
-        <v>99.533508601361461</v>
+        <v>72.241028</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42286</v>
+        <v>42293</v>
       </c>
       <c r="B14">
-        <v>243.5376</v>
+        <v>120.93</v>
       </c>
       <c r="C14">
-        <v>210.7517</v>
+        <v>125.84</v>
       </c>
       <c r="D14">
-        <v>170.53</v>
+        <v>18.217500000000001</v>
       </c>
       <c r="E14">
-        <v>1977.27</v>
+        <v>203.27</v>
       </c>
       <c r="F14">
-        <v>6233.03</v>
+        <v>32.79</v>
       </c>
       <c r="G14">
-        <v>129.5976</v>
+        <v>100.02</v>
       </c>
       <c r="H14">
-        <v>99.533508601361461</v>
+        <v>72.240547000000007</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42293</v>
+        <v>42300</v>
       </c>
       <c r="B15">
-        <v>244.58860000000001</v>
+        <v>121.65</v>
       </c>
       <c r="C15">
-        <v>210.96559999999999</v>
+        <v>126.48</v>
       </c>
       <c r="D15">
-        <v>169.93</v>
+        <v>18.615500000000001</v>
       </c>
       <c r="E15">
-        <v>2002.9</v>
+        <v>207.51</v>
       </c>
       <c r="F15">
-        <v>6283.94</v>
+        <v>34.395000000000003</v>
       </c>
       <c r="G15">
-        <v>129.59</v>
+        <v>100.03</v>
       </c>
       <c r="H15">
-        <v>99.506959937174756</v>
+        <v>72.240059000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42300</v>
+        <v>42307</v>
       </c>
       <c r="B16">
-        <v>245.92080000000001</v>
+        <v>121.64</v>
       </c>
       <c r="C16">
-        <v>211.5206</v>
+        <v>126.67</v>
       </c>
       <c r="D16">
-        <v>174.82</v>
+        <v>18.081800000000001</v>
       </c>
       <c r="E16">
-        <v>2127.0100000000002</v>
+        <v>207.93</v>
       </c>
       <c r="F16">
-        <v>6509.17</v>
+        <v>34.32</v>
       </c>
       <c r="G16">
-        <v>129.6045</v>
+        <v>100.04</v>
       </c>
       <c r="H16">
-        <v>99.481097815816256</v>
+        <v>72.239570999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42307</v>
+        <v>42314</v>
       </c>
       <c r="B17">
-        <v>245.94450000000001</v>
+        <v>120.05</v>
       </c>
       <c r="C17">
-        <v>211.6414</v>
+        <v>126.24</v>
       </c>
       <c r="D17">
-        <v>169.81</v>
+        <v>18.361699999999999</v>
       </c>
       <c r="E17">
-        <v>2131.0300000000002</v>
+        <v>210.04</v>
       </c>
       <c r="F17">
-        <v>6468.26</v>
+        <v>34.83</v>
       </c>
       <c r="G17">
-        <v>129.6378</v>
+        <v>100.05</v>
       </c>
       <c r="H17">
-        <v>99.481097815816256</v>
+        <v>72.239081999999996</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42314</v>
+        <v>42321</v>
       </c>
       <c r="B18">
-        <v>242.90520000000001</v>
+        <v>121.15</v>
       </c>
       <c r="C18">
-        <v>211.57470000000001</v>
+        <v>126.72</v>
       </c>
       <c r="D18">
-        <v>172.73</v>
+        <v>18.9239</v>
       </c>
       <c r="E18">
-        <v>2222.35</v>
+        <v>202.54</v>
       </c>
       <c r="F18">
-        <v>6547.73</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="G18">
-        <v>129.6491</v>
+        <v>100.06</v>
       </c>
       <c r="H18">
-        <v>99.439081052169612</v>
+        <v>72.238594000000006</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42321</v>
+        <v>42328</v>
       </c>
       <c r="B19">
-        <v>245.01310000000001</v>
+        <v>122</v>
       </c>
       <c r="C19">
-        <v>212.00380000000001</v>
+        <v>127.27</v>
       </c>
       <c r="D19">
-        <v>177.44</v>
+        <v>18.926300000000001</v>
       </c>
       <c r="E19">
-        <v>2141.59</v>
+        <v>209.3108125</v>
       </c>
       <c r="F19">
-        <v>6379.35</v>
+        <v>34.74</v>
       </c>
       <c r="G19">
-        <v>129.6738</v>
+        <v>100.08</v>
       </c>
       <c r="H19">
-        <v>99.334242364994793</v>
+        <v>72.238135999999997</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42328</v>
+        <v>42335</v>
       </c>
       <c r="B20">
-        <v>246.74619999999999</v>
+        <v>122.3</v>
       </c>
       <c r="C20">
-        <v>212.3218</v>
+        <v>127.48</v>
       </c>
       <c r="D20">
-        <v>177.57</v>
+        <v>18.676300000000001</v>
       </c>
       <c r="E20">
-        <v>2226.5500000000002</v>
+        <v>209.56</v>
       </c>
       <c r="F20">
-        <v>6597.71</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="G20">
-        <v>129.6961</v>
+        <v>100.09</v>
       </c>
       <c r="H20">
-        <v>99.232052594841889</v>
+        <v>72.237701000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42335</v>
+        <v>42342</v>
       </c>
       <c r="B21">
-        <v>247.4194</v>
+        <v>120.58</v>
       </c>
       <c r="C21">
-        <v>212.6052</v>
+        <v>126.47</v>
       </c>
       <c r="D21">
-        <v>175.58</v>
+        <v>17.53</v>
       </c>
       <c r="E21">
-        <v>2240.0300000000002</v>
+        <v>209.62</v>
       </c>
       <c r="F21">
-        <v>6620.28</v>
+        <v>33.51</v>
       </c>
       <c r="G21">
-        <v>129.72579999999999</v>
+        <v>100.12</v>
       </c>
       <c r="H21">
-        <v>99.172449923204681</v>
+        <v>72.237281999999993</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42342</v>
+        <v>42349</v>
       </c>
       <c r="B22">
-        <v>243.9743</v>
+        <v>121.67</v>
       </c>
       <c r="C22">
-        <v>211.81209999999999</v>
+        <v>126.78</v>
       </c>
       <c r="D22">
-        <v>165.92</v>
+        <v>17.0502</v>
       </c>
       <c r="E22">
-        <v>2192.84</v>
+        <v>201.88</v>
       </c>
       <c r="F22">
-        <v>6338.95</v>
+        <v>32.26</v>
       </c>
       <c r="G22">
-        <v>129.7458</v>
+        <v>100.13</v>
       </c>
       <c r="H22">
-        <v>99.103699871485929</v>
+        <v>72.236687000000003</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42349</v>
+        <v>42356</v>
       </c>
       <c r="B23">
-        <v>245.9975</v>
+        <v>121.53</v>
       </c>
       <c r="C23">
-        <v>211.9589</v>
+        <v>126.66</v>
       </c>
       <c r="D23">
-        <v>162.53</v>
+        <v>17.7911</v>
       </c>
       <c r="E23">
-        <v>2092.02</v>
+        <v>200.02081250000001</v>
       </c>
       <c r="F23">
-        <v>6087.81</v>
+        <v>32.71</v>
       </c>
       <c r="G23">
-        <v>129.75030000000001</v>
+        <v>100.12</v>
       </c>
       <c r="H23">
-        <v>98.998436762837116</v>
+        <v>72.235695000000007</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42356</v>
+        <v>42363</v>
       </c>
       <c r="B24">
-        <v>245.74809999999999</v>
+        <v>120.76</v>
       </c>
       <c r="C24">
-        <v>211.92769999999999</v>
+        <v>126.35</v>
       </c>
       <c r="D24">
-        <v>168.26</v>
+        <v>17.621400000000001</v>
       </c>
       <c r="E24">
-        <v>2121.0500000000002</v>
+        <v>205.68</v>
       </c>
       <c r="F24">
-        <v>6180.88</v>
+        <v>33.005000000000003</v>
       </c>
       <c r="G24">
-        <v>129.7466</v>
+        <v>100.11</v>
       </c>
       <c r="H24">
-        <v>98.945526682352252</v>
+        <v>72.234848</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42363</v>
+        <v>42370</v>
       </c>
       <c r="B25">
-        <v>244.13939999999999</v>
+        <v>120.78</v>
       </c>
       <c r="C25">
-        <v>211.75800000000001</v>
+        <v>126.43</v>
       </c>
       <c r="D25">
-        <v>167.87</v>
+        <v>17.663399999999999</v>
       </c>
       <c r="E25">
-        <v>2149.8000000000002</v>
+        <v>203.87</v>
       </c>
       <c r="F25">
-        <v>6270.46</v>
+        <v>33.094999999999999</v>
       </c>
       <c r="G25">
-        <v>129.75059999999999</v>
+        <v>100.13</v>
       </c>
       <c r="H25">
-        <v>98.935476411045968</v>
+        <v>72.233856000000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42370</v>
+        <v>42377</v>
       </c>
       <c r="B26">
-        <v>244.53100000000001</v>
+        <v>121.54</v>
       </c>
       <c r="C26">
-        <v>211.87989999999999</v>
+        <v>126.57</v>
       </c>
       <c r="D26">
-        <v>167.75</v>
+        <v>16.917999999999999</v>
       </c>
       <c r="E26">
-        <v>2152.29</v>
+        <v>191.923</v>
       </c>
       <c r="F26">
-        <v>6254.61</v>
+        <v>30.44</v>
       </c>
       <c r="G26">
-        <v>129.75659999999999</v>
+        <v>100.13</v>
       </c>
       <c r="H26">
-        <v>98.915575948854439</v>
+        <v>72.232719000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42377</v>
+        <v>42384</v>
       </c>
       <c r="B27">
-        <v>245.68690000000001</v>
+        <v>120.95</v>
       </c>
       <c r="C27">
-        <v>212.0206</v>
+        <v>124.7</v>
       </c>
       <c r="D27">
-        <v>161.81</v>
+        <v>16.763200000000001</v>
       </c>
       <c r="E27">
-        <v>2016.74</v>
+        <v>187.81</v>
       </c>
       <c r="F27">
-        <v>5826.07</v>
+        <v>29.62</v>
       </c>
       <c r="G27">
-        <v>129.77260000000001</v>
+        <v>100.1</v>
       </c>
       <c r="H27">
-        <v>98.852161328723568</v>
+        <v>72.231719999999996</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42384</v>
+        <v>42391</v>
       </c>
       <c r="B28">
-        <v>246.1396</v>
+        <v>121.26</v>
       </c>
       <c r="C28">
-        <v>211.49359999999999</v>
+        <v>124.96</v>
       </c>
       <c r="D28">
-        <v>160.18</v>
+        <v>16.414000000000001</v>
       </c>
       <c r="E28">
-        <v>1976.33</v>
+        <v>190.52</v>
       </c>
       <c r="F28">
-        <v>5652.47</v>
+        <v>30.34</v>
       </c>
       <c r="G28">
-        <v>129.7346</v>
+        <v>100.06</v>
       </c>
       <c r="H28">
-        <v>98.838399832995094</v>
+        <v>72.230727999999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42391</v>
+        <v>42398</v>
       </c>
       <c r="B29">
-        <v>246.6585</v>
+        <v>122.56</v>
       </c>
       <c r="C29">
-        <v>211.5872</v>
+        <v>126.05</v>
       </c>
       <c r="D29">
-        <v>155.54</v>
+        <v>16.175000000000001</v>
       </c>
       <c r="E29">
-        <v>2030.53</v>
+        <v>193.72081249999999</v>
       </c>
       <c r="F29">
-        <v>5799.04</v>
+        <v>30.594999999999999</v>
       </c>
       <c r="G29">
-        <v>129.71039999999999</v>
+        <v>100.07</v>
       </c>
       <c r="H29">
-        <v>98.793150941797123</v>
+        <v>72.229729000000006</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42398</v>
+        <v>42405</v>
       </c>
       <c r="B30">
-        <v>249.3167</v>
+        <v>122.37</v>
       </c>
       <c r="C30">
-        <v>212.24289999999999</v>
+        <v>125.68</v>
       </c>
       <c r="D30">
-        <v>152.9</v>
+        <v>16.1663</v>
       </c>
       <c r="E30">
-        <v>2071.25</v>
+        <v>187.95</v>
       </c>
       <c r="F30">
-        <v>5859.81</v>
+        <v>28.99</v>
       </c>
       <c r="G30">
-        <v>129.72620000000001</v>
+        <v>100.01</v>
       </c>
       <c r="H30">
-        <v>98.801808967546265</v>
+        <v>72.228722000000005</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42405</v>
+        <v>42412</v>
       </c>
       <c r="B31">
-        <v>248.8426</v>
+        <v>122.18</v>
       </c>
       <c r="C31">
-        <v>212.0436</v>
+        <v>125.19</v>
       </c>
       <c r="D31">
-        <v>154.19</v>
+        <v>14.4954</v>
       </c>
       <c r="E31">
-        <v>1944.56</v>
+        <v>186.63</v>
       </c>
       <c r="F31">
-        <v>5553.56</v>
+        <v>27.72</v>
       </c>
       <c r="G31">
-        <v>129.70849999999999</v>
+        <v>99.83</v>
       </c>
       <c r="H31">
-        <v>98.779974928435649</v>
+        <v>72.227722</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42412</v>
+        <v>42419</v>
       </c>
       <c r="B32">
-        <v>248.42420000000001</v>
+        <v>122.75</v>
       </c>
       <c r="C32">
-        <v>211.47540000000001</v>
+        <v>125.84</v>
       </c>
       <c r="D32">
-        <v>138.84</v>
+        <v>15.419600000000001</v>
       </c>
       <c r="E32">
-        <v>1925.46</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>5360.07</v>
+        <v>28.86</v>
       </c>
       <c r="G32">
-        <v>129.56720000000001</v>
+        <v>99.81</v>
       </c>
       <c r="H32">
-        <v>98.754333911012907</v>
+        <v>72.226730000000003</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42419</v>
+        <v>42426</v>
       </c>
       <c r="B33">
-        <v>249.65539999999999</v>
+        <v>123.36</v>
       </c>
       <c r="C33">
-        <v>212.0916</v>
+        <v>126.32</v>
       </c>
       <c r="D33">
-        <v>148.80000000000001</v>
+        <v>15.675000000000001</v>
       </c>
       <c r="E33">
-        <v>1994.68</v>
+        <v>195.08918750000001</v>
       </c>
       <c r="F33">
-        <v>5541.79</v>
+        <v>29.475000000000001</v>
       </c>
       <c r="G33">
-        <v>129.59289999999999</v>
+        <v>99.86</v>
       </c>
       <c r="H33">
-        <v>98.691833909710823</v>
+        <v>72.225730999999996</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42426</v>
+        <v>42433</v>
       </c>
       <c r="B34">
-        <v>250.8124</v>
+        <v>122.8</v>
       </c>
       <c r="C34">
-        <v>212.44579999999999</v>
+        <v>126.64</v>
       </c>
       <c r="D34">
-        <v>151.05000000000001</v>
+        <v>16.308499999999999</v>
       </c>
       <c r="E34">
-        <v>2047.88</v>
+        <v>200.43</v>
       </c>
       <c r="F34">
-        <v>5648.67</v>
+        <v>30.555</v>
       </c>
       <c r="G34">
-        <v>129.62</v>
+        <v>99.9</v>
       </c>
       <c r="H34">
-        <v>98.656539775685445</v>
+        <v>72.225441000000004</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42433</v>
+        <v>42440</v>
       </c>
       <c r="B35">
-        <v>249.75989999999999</v>
+        <v>123.13</v>
       </c>
       <c r="C35">
-        <v>212.90049999999999</v>
+        <v>129.07</v>
       </c>
       <c r="D35">
-        <v>156.47999999999999</v>
+        <v>17.266500000000001</v>
       </c>
       <c r="E35">
-        <v>2078.69</v>
+        <v>202.76</v>
       </c>
       <c r="F35">
-        <v>5815.12</v>
+        <v>30.875</v>
       </c>
       <c r="G35">
-        <v>129.68360000000001</v>
+        <v>100.04</v>
       </c>
       <c r="H35">
-        <v>98.592145877714259</v>
+        <v>72.224907000000002</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42440</v>
+        <v>42447</v>
       </c>
       <c r="B36">
-        <v>250.45920000000001</v>
+        <v>123.76</v>
       </c>
       <c r="C36">
-        <v>213.44229999999999</v>
+        <v>128</v>
       </c>
       <c r="D36">
-        <v>165.91</v>
+        <v>17.4589</v>
       </c>
       <c r="E36">
-        <v>2071.1799999999998</v>
+        <v>204.38</v>
       </c>
       <c r="F36">
-        <v>5825.88</v>
+        <v>30.64</v>
       </c>
       <c r="G36">
-        <v>129.78270000000001</v>
+        <v>100.04</v>
       </c>
       <c r="H36">
-        <v>98.520971458304672</v>
+        <v>72.223770000000002</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42447</v>
+        <v>42454</v>
       </c>
       <c r="B37">
-        <v>251.62700000000001</v>
+        <v>123.86</v>
       </c>
       <c r="C37">
-        <v>213.64</v>
+        <v>128.06</v>
       </c>
       <c r="D37">
-        <v>168.36</v>
+        <v>17.239100000000001</v>
       </c>
       <c r="E37">
-        <v>2068.5</v>
+        <v>203.12</v>
       </c>
       <c r="F37">
-        <v>5773.73</v>
+        <v>29.954999999999998</v>
       </c>
       <c r="G37">
-        <v>129.8049</v>
+        <v>100.06</v>
       </c>
       <c r="H37">
-        <v>98.444559491273409</v>
+        <v>72.222313</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42454</v>
+        <v>42461</v>
       </c>
       <c r="B38">
-        <v>251.95859999999999</v>
+        <v>124.42</v>
       </c>
       <c r="C38">
-        <v>213.84180000000001</v>
+        <v>128.58000000000001</v>
       </c>
       <c r="D38">
-        <v>165.8</v>
+        <v>17.4834</v>
       </c>
       <c r="E38">
-        <v>2091.16</v>
+        <v>206.92</v>
       </c>
       <c r="F38">
-        <v>5667.01</v>
+        <v>29.6</v>
       </c>
       <c r="G38">
-        <v>129.83099999999999</v>
+        <v>100.1</v>
       </c>
       <c r="H38">
-        <v>98.422954556154906</v>
+        <v>72.220375000000004</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42461</v>
+        <v>42468</v>
       </c>
       <c r="B39">
-        <v>253.11449999999999</v>
+        <v>124.38</v>
       </c>
       <c r="C39">
-        <v>214.10919999999999</v>
+        <v>128.85</v>
       </c>
       <c r="D39">
-        <v>168.24</v>
+        <v>16.9803</v>
       </c>
       <c r="E39">
-        <v>2093.64</v>
+        <v>204.49918750000001</v>
       </c>
       <c r="F39">
-        <v>5598.44</v>
+        <v>29.184999999999999</v>
       </c>
       <c r="G39">
-        <v>129.87719999999999</v>
+        <v>100.16</v>
       </c>
       <c r="H39">
-        <v>98.410869939840708</v>
+        <v>72.218673999999993</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42468</v>
+        <v>42475</v>
       </c>
       <c r="B40">
-        <v>252.98599999999999</v>
+        <v>124.07</v>
       </c>
       <c r="C40">
-        <v>214.40309999999999</v>
+        <v>128.76</v>
       </c>
       <c r="D40">
-        <v>163.53</v>
+        <v>17.072299999999998</v>
       </c>
       <c r="E40">
-        <v>2062.83</v>
+        <v>207.78</v>
       </c>
       <c r="F40">
-        <v>5617.66</v>
+        <v>30.65</v>
       </c>
       <c r="G40">
-        <v>129.88829999999999</v>
+        <v>100.19</v>
       </c>
       <c r="H40">
-        <v>98.398929704304948</v>
+        <v>72.216980000000007</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42475</v>
+        <v>42482</v>
       </c>
       <c r="B41">
-        <v>252.48849999999999</v>
+        <v>123.25</v>
       </c>
       <c r="C41">
-        <v>214.50399999999999</v>
+        <v>129.02000000000001</v>
       </c>
       <c r="D41">
-        <v>163.84</v>
+        <v>17.798500000000001</v>
       </c>
       <c r="E41">
-        <v>2112.86</v>
+        <v>208.97</v>
       </c>
       <c r="F41">
-        <v>5863.56</v>
+        <v>31.56</v>
       </c>
       <c r="G41">
-        <v>129.9393</v>
+        <v>100.22</v>
       </c>
       <c r="H41">
-        <v>98.39008008449656</v>
+        <v>72.215286000000006</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42482</v>
+        <v>42489</v>
       </c>
       <c r="B42">
-        <v>250.71379999999999</v>
+        <v>122.92</v>
       </c>
       <c r="C42">
-        <v>214.8038</v>
+        <v>128.77000000000001</v>
       </c>
       <c r="D42">
-        <v>170.93</v>
+        <v>17.360299999999999</v>
       </c>
       <c r="E42">
-        <v>2127.88</v>
+        <v>206.33081250000001</v>
       </c>
       <c r="F42">
-        <v>5998</v>
+        <v>30.545000000000002</v>
       </c>
       <c r="G42">
-        <v>129.99959999999999</v>
+        <v>100.24</v>
       </c>
       <c r="H42">
-        <v>98.39008008449656</v>
+        <v>72.213584999999995</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42489</v>
+        <v>42496</v>
       </c>
       <c r="B43">
-        <v>250.01779999999999</v>
+        <v>123.63</v>
       </c>
       <c r="C43">
-        <v>214.58760000000001</v>
+        <v>129.15</v>
       </c>
       <c r="D43">
-        <v>170.72</v>
+        <v>17.898700000000002</v>
       </c>
       <c r="E43">
-        <v>2056.0300000000002</v>
+        <v>205.72</v>
       </c>
       <c r="F43">
-        <v>5848.71</v>
+        <v>29.844999999999999</v>
       </c>
       <c r="G43">
-        <v>130.0222</v>
+        <v>100.27</v>
       </c>
       <c r="H43">
-        <v>98.384232119721077</v>
+        <v>72.211890999999994</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42496</v>
+        <v>42503</v>
       </c>
       <c r="B44">
-        <v>251.56219999999999</v>
+        <v>123.8</v>
       </c>
       <c r="C44">
-        <v>214.8715</v>
+        <v>128.93</v>
       </c>
       <c r="D44">
-        <v>171.49</v>
+        <v>18.967600000000001</v>
       </c>
       <c r="E44">
-        <v>2060.9699999999998</v>
+        <v>204.76</v>
       </c>
       <c r="F44">
-        <v>5680.51</v>
+        <v>30.105</v>
       </c>
       <c r="G44">
-        <v>130.02879999999999</v>
+        <v>100.28</v>
       </c>
       <c r="H44">
-        <v>98.372604277103449</v>
+        <v>72.210196999999994</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42503</v>
+        <v>42510</v>
       </c>
       <c r="B45">
-        <v>251.9272</v>
+        <v>123.66</v>
       </c>
       <c r="C45">
-        <v>214.71270000000001</v>
+        <v>128.63999999999999</v>
       </c>
       <c r="D45">
-        <v>182.13</v>
+        <v>19.040400000000002</v>
       </c>
       <c r="E45">
-        <v>2076.31</v>
+        <v>205.49</v>
       </c>
       <c r="F45">
-        <v>5774.6</v>
+        <v>30.254999999999999</v>
       </c>
       <c r="G45">
-        <v>130.03389999999999</v>
+        <v>100.29</v>
       </c>
       <c r="H45">
-        <v>98.369730664951902</v>
+        <v>72.208504000000005</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42510</v>
+        <v>42517</v>
       </c>
       <c r="B46">
-        <v>251.54830000000001</v>
+        <v>124.19</v>
       </c>
       <c r="C46">
-        <v>214.5992</v>
+        <v>129.04</v>
       </c>
       <c r="D46">
-        <v>183.04</v>
+        <v>19.385300000000001</v>
       </c>
       <c r="E46">
-        <v>2097.5100000000002</v>
+        <v>210.24</v>
       </c>
       <c r="F46">
-        <v>5817.4</v>
+        <v>31.59</v>
       </c>
       <c r="G46">
-        <v>130.04159999999999</v>
+        <v>100.3</v>
       </c>
       <c r="H46">
-        <v>98.369730664951902</v>
+        <v>72.206801999999996</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42517</v>
+        <v>42524</v>
       </c>
       <c r="B47">
-        <v>252.64109999999999</v>
+        <v>124.71</v>
       </c>
       <c r="C47">
-        <v>214.94149999999999</v>
+        <v>129.55000000000001</v>
       </c>
       <c r="D47">
-        <v>186.39</v>
+        <v>19.3216</v>
       </c>
       <c r="E47">
-        <v>2161.79</v>
+        <v>210.28</v>
       </c>
       <c r="F47">
-        <v>6057.2</v>
+        <v>30.8</v>
       </c>
       <c r="G47">
-        <v>130.0675</v>
+        <v>100.3</v>
       </c>
       <c r="H47">
-        <v>98.369730664951902</v>
+        <v>72.205185</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42524</v>
+        <v>42531</v>
       </c>
       <c r="B48">
-        <v>253.73699999999999</v>
+        <v>125.37</v>
       </c>
       <c r="C48">
-        <v>215.2276</v>
+        <v>130.03</v>
       </c>
       <c r="D48">
-        <v>185.74</v>
+        <v>19.055700000000002</v>
       </c>
       <c r="E48">
-        <v>2118.25</v>
+        <v>210.07</v>
       </c>
       <c r="F48">
-        <v>5893.13</v>
+        <v>29.934999999999999</v>
       </c>
       <c r="G48">
-        <v>130.08070000000001</v>
+        <v>100.31</v>
       </c>
       <c r="H48">
-        <v>98.363999994579743</v>
+        <v>72.204375999999996</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42531</v>
+        <v>42538</v>
       </c>
       <c r="B49">
-        <v>255.083</v>
+        <v>124.94</v>
       </c>
       <c r="C49">
-        <v>215.46899999999999</v>
+        <v>129.77000000000001</v>
       </c>
       <c r="D49">
-        <v>183.72</v>
+        <v>18.293299999999999</v>
       </c>
       <c r="E49">
-        <v>2125.2800000000002</v>
+        <v>206.52</v>
       </c>
       <c r="F49">
-        <v>5764.08</v>
+        <v>29.04</v>
       </c>
       <c r="G49">
-        <v>130.10470000000001</v>
+        <v>100.29</v>
       </c>
       <c r="H49">
-        <v>98.358302063134374</v>
+        <v>72.204361000000006</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42538</v>
+        <v>42545</v>
       </c>
       <c r="B50">
-        <v>254.20689999999999</v>
+        <v>125.28</v>
       </c>
       <c r="C50">
-        <v>215.41810000000001</v>
+        <v>129.63</v>
       </c>
       <c r="D50">
-        <v>175.89</v>
+        <v>17.740100000000002</v>
       </c>
       <c r="E50">
-        <v>2107.06</v>
+        <v>203.13</v>
       </c>
       <c r="F50">
-        <v>5650.75</v>
+        <v>28.324999999999999</v>
       </c>
       <c r="G50">
-        <v>130.08590000000001</v>
+        <v>100.21</v>
       </c>
       <c r="H50">
-        <v>98.349803419713751</v>
+        <v>72.204346000000001</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42545</v>
+        <v>42552</v>
       </c>
       <c r="B51">
-        <v>255.0119</v>
+        <v>127.31</v>
       </c>
       <c r="C51">
-        <v>215.0538</v>
+        <v>130.9</v>
       </c>
       <c r="D51">
-        <v>171.07</v>
+        <v>18.749199999999998</v>
       </c>
       <c r="E51">
-        <v>2103.02</v>
+        <v>209.92081250000001</v>
       </c>
       <c r="F51">
-        <v>5601.76</v>
+        <v>29.414999999999999</v>
       </c>
       <c r="G51">
-        <v>129.98339999999999</v>
+        <v>100.2</v>
       </c>
       <c r="H51">
-        <v>98.327331546496978</v>
+        <v>72.204338000000007</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42552</v>
+        <v>42559</v>
       </c>
       <c r="B52">
-        <v>259.00569999999999</v>
+        <v>127.7</v>
       </c>
       <c r="C52">
-        <v>215.84950000000001</v>
+        <v>131.51</v>
       </c>
       <c r="D52">
-        <v>181.3</v>
+        <v>18.5975</v>
       </c>
       <c r="E52">
-        <v>2171.4899999999998</v>
+        <v>212.65</v>
       </c>
       <c r="F52">
-        <v>5848.26</v>
+        <v>28.995000000000001</v>
       </c>
       <c r="G52">
-        <v>130.0436</v>
+        <v>100.2</v>
       </c>
       <c r="H52">
-        <v>98.330078766330033</v>
+        <v>72.204329999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42559</v>
+        <v>42566</v>
       </c>
       <c r="B53">
-        <v>259.91449999999998</v>
+        <v>126.24</v>
       </c>
       <c r="C53">
-        <v>216.3083</v>
+        <v>130.72999999999999</v>
       </c>
       <c r="D53">
-        <v>179.54</v>
+        <v>18.760999999999999</v>
       </c>
       <c r="E53">
-        <v>2220.9299999999998</v>
+        <v>215.83</v>
       </c>
       <c r="F53">
-        <v>5788.91</v>
+        <v>30.21</v>
       </c>
       <c r="G53">
-        <v>130.0676</v>
+        <v>100.25</v>
       </c>
       <c r="H53">
-        <v>98.319059457941876</v>
+        <v>72.204314999999994</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42566</v>
+        <v>42573</v>
       </c>
       <c r="B54">
-        <v>257.87639999999999</v>
+        <v>126.49</v>
       </c>
       <c r="C54">
-        <v>216.72229999999999</v>
+        <v>131.27000000000001</v>
       </c>
       <c r="D54">
-        <v>181.34</v>
+        <v>18.560199999999998</v>
       </c>
       <c r="E54">
-        <v>2241.1799999999998</v>
+        <v>217.24</v>
       </c>
       <c r="F54">
-        <v>5939.28</v>
+        <v>30.34</v>
       </c>
       <c r="G54">
-        <v>130.11109999999999</v>
+        <v>100.27</v>
       </c>
       <c r="H54">
-        <v>98.308160335741846</v>
+        <v>72.204307999999997</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42573</v>
+        <v>42580</v>
       </c>
       <c r="B55">
-        <v>258.40339999999998</v>
+        <v>127.46</v>
       </c>
       <c r="C55">
-        <v>216.81229999999999</v>
+        <v>131.66</v>
       </c>
       <c r="D55">
-        <v>180.19</v>
+        <v>18.4343</v>
       </c>
       <c r="E55">
-        <v>2277.84</v>
+        <v>217.12</v>
       </c>
       <c r="F55">
-        <v>5967.66</v>
+        <v>30.54</v>
       </c>
       <c r="G55">
-        <v>130.14279999999999</v>
+        <v>100.29</v>
       </c>
       <c r="H55">
-        <v>98.308160335741846</v>
+        <v>72.204291999999995</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42580</v>
+        <v>42587</v>
       </c>
       <c r="B56">
-        <v>260.52319999999997</v>
+        <v>127.18</v>
       </c>
       <c r="C56">
-        <v>217.0017</v>
+        <v>131.58000000000001</v>
       </c>
       <c r="D56">
-        <v>178.85</v>
+        <v>18.2407</v>
       </c>
       <c r="E56">
-        <v>2233.1</v>
+        <v>218.18</v>
       </c>
       <c r="F56">
-        <v>5959.98</v>
+        <v>30.395</v>
       </c>
       <c r="G56">
-        <v>130.17349999999999</v>
+        <v>100.36</v>
       </c>
       <c r="H56">
-        <v>98.308160335741846</v>
+        <v>72.204284999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42587</v>
+        <v>42594</v>
       </c>
       <c r="B57">
-        <v>259.9194</v>
+        <v>127.64</v>
       </c>
       <c r="C57">
-        <v>217.04079999999999</v>
+        <v>131.94</v>
       </c>
       <c r="D57">
-        <v>176.93</v>
+        <v>18.444299999999998</v>
       </c>
       <c r="E57">
-        <v>2269.64</v>
+        <v>218.46</v>
       </c>
       <c r="F57">
-        <v>5938.95</v>
+        <v>31.13</v>
       </c>
       <c r="G57">
-        <v>130.24590000000001</v>
+        <v>100.47</v>
       </c>
       <c r="H57">
-        <v>98.310855718549291</v>
+        <v>72.204277000000005</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42594</v>
+        <v>42601</v>
       </c>
       <c r="B58">
-        <v>260.7894</v>
+        <v>127.09</v>
       </c>
       <c r="C58">
-        <v>217.31309999999999</v>
+        <v>131.66999999999999</v>
       </c>
       <c r="D58">
-        <v>179.6</v>
+        <v>18.592300000000002</v>
       </c>
       <c r="E58">
-        <v>2246.9899999999998</v>
+        <v>218.54</v>
       </c>
       <c r="F58">
-        <v>6007.27</v>
+        <v>30.33</v>
       </c>
       <c r="G58">
-        <v>130.2962</v>
+        <v>100.5</v>
       </c>
       <c r="H58">
-        <v>98.316261134692468</v>
+        <v>72.204262</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42601</v>
+        <v>42608</v>
       </c>
       <c r="B59">
-        <v>259.9128</v>
+        <v>127.32</v>
       </c>
       <c r="C59">
-        <v>217.19059999999999</v>
+        <v>131.91</v>
       </c>
       <c r="D59">
-        <v>180.66</v>
+        <v>18.569900000000001</v>
       </c>
       <c r="E59">
-        <v>2212.25</v>
+        <v>217.29</v>
       </c>
       <c r="F59">
-        <v>5904</v>
+        <v>30.78</v>
       </c>
       <c r="G59">
-        <v>130.33330000000001</v>
+        <v>100.54</v>
       </c>
       <c r="H59">
-        <v>98.313543778721595</v>
+        <v>72.204254000000006</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42608</v>
+        <v>42615</v>
       </c>
       <c r="B60">
-        <v>260.39760000000001</v>
+        <v>126.65</v>
       </c>
       <c r="C60">
-        <v>217.32839999999999</v>
+        <v>131.71</v>
       </c>
       <c r="D60">
-        <v>180.78</v>
+        <v>18.499700000000001</v>
       </c>
       <c r="E60">
-        <v>2209.08</v>
+        <v>218.37</v>
       </c>
       <c r="F60">
-        <v>5951.36</v>
+        <v>31.475000000000001</v>
       </c>
       <c r="G60">
-        <v>130.36500000000001</v>
+        <v>100.6</v>
       </c>
       <c r="H60">
-        <v>98.308123713504685</v>
+        <v>72.203536999999997</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42615</v>
+        <v>42622</v>
       </c>
       <c r="B61">
-        <v>258.81200000000001</v>
+        <v>126.15</v>
       </c>
       <c r="C61">
-        <v>217.33349999999999</v>
+        <v>131.43</v>
       </c>
       <c r="D61">
-        <v>180.39</v>
+        <v>18.307099999999998</v>
       </c>
       <c r="E61">
-        <v>2244.63</v>
+        <v>213.28</v>
       </c>
       <c r="F61">
-        <v>6080.53</v>
+        <v>31.234999999999999</v>
       </c>
       <c r="G61">
-        <v>130.38759999999999</v>
+        <v>100.67</v>
       </c>
       <c r="H61">
-        <v>98.30273286702726</v>
+        <v>72.202826999999999</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42622</v>
+        <v>42629</v>
       </c>
       <c r="B62">
-        <v>257.7808</v>
+        <v>125.93</v>
       </c>
       <c r="C62">
-        <v>217.34200000000001</v>
+        <v>131.18</v>
       </c>
       <c r="D62">
-        <v>178.65</v>
+        <v>17.860299999999999</v>
       </c>
       <c r="E62">
-        <v>2186.31</v>
+        <v>213.37</v>
       </c>
       <c r="F62">
-        <v>5985.18</v>
+        <v>29.46</v>
       </c>
       <c r="G62">
-        <v>130.39619999999999</v>
+        <v>100.7</v>
       </c>
       <c r="H62">
-        <v>98.313456749179792</v>
+        <v>72.202515000000005</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42629</v>
+        <v>42636</v>
       </c>
       <c r="B63">
-        <v>257.51429999999999</v>
+        <v>127.07</v>
       </c>
       <c r="C63">
-        <v>217.2671</v>
+        <v>131.61000000000001</v>
       </c>
       <c r="D63">
-        <v>174.41</v>
+        <v>18.134399999999999</v>
       </c>
       <c r="E63">
-        <v>2216.15</v>
+        <v>215.99</v>
       </c>
       <c r="F63">
-        <v>5842.13</v>
+        <v>30.42</v>
       </c>
       <c r="G63">
-        <v>130.39920000000001</v>
+        <v>100.64</v>
       </c>
       <c r="H63">
-        <v>98.308036683962882</v>
+        <v>72.202499000000003</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42636</v>
+        <v>42643</v>
       </c>
       <c r="B64">
-        <v>259.62639999999999</v>
+        <v>127.29</v>
       </c>
       <c r="C64">
-        <v>217.42789999999999</v>
+        <v>131.59</v>
       </c>
       <c r="D64">
-        <v>176.82</v>
+        <v>18.2424</v>
       </c>
       <c r="E64">
-        <v>2224.04</v>
+        <v>216.3</v>
       </c>
       <c r="F64">
-        <v>5971.9</v>
+        <v>30.16</v>
       </c>
       <c r="G64">
-        <v>130.40190000000001</v>
+        <v>100.54</v>
       </c>
       <c r="H64">
-        <v>98.310732066770328</v>
+        <v>72.202492000000007</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42643</v>
+        <v>42650</v>
       </c>
       <c r="B65">
-        <v>260.21859999999998</v>
+        <v>125.9</v>
       </c>
       <c r="C65">
-        <v>217.35679999999999</v>
+        <v>131.13</v>
       </c>
       <c r="D65">
-        <v>178.05</v>
+        <v>18.1721</v>
       </c>
       <c r="E65">
-        <v>2221.85</v>
+        <v>215.04</v>
       </c>
       <c r="F65">
-        <v>5918.64</v>
+        <v>30.105</v>
       </c>
       <c r="G65">
-        <v>130.2928</v>
+        <v>100.53</v>
       </c>
       <c r="H65">
-        <v>98.308029399239288</v>
+        <v>72.202354</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42650</v>
+        <v>42657</v>
       </c>
       <c r="B66">
-        <v>257.49220000000003</v>
+        <v>125.76</v>
       </c>
       <c r="C66">
-        <v>217.20580000000001</v>
+        <v>130.96</v>
       </c>
       <c r="D66">
-        <v>177.53</v>
+        <v>17.999199999999998</v>
       </c>
       <c r="E66">
-        <v>2228.3200000000002</v>
+        <v>213.12</v>
       </c>
       <c r="F66">
-        <v>5897.73</v>
+        <v>30.375</v>
       </c>
       <c r="G66">
-        <v>130.3561</v>
+        <v>100.51</v>
       </c>
       <c r="H66">
-        <v>98.308029399239288</v>
+        <v>72.202158999999995</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42657</v>
+        <v>42664</v>
       </c>
       <c r="B67">
-        <v>257.11130000000003</v>
+        <v>126.1</v>
       </c>
       <c r="C67">
-        <v>217.18709999999999</v>
+        <v>131.43</v>
       </c>
       <c r="D67">
-        <v>176.18</v>
+        <v>18.0001</v>
       </c>
       <c r="E67">
-        <v>2244.9699999999998</v>
+        <v>213.98</v>
       </c>
       <c r="F67">
-        <v>5897.33</v>
+        <v>30.875</v>
       </c>
       <c r="G67">
-        <v>130.3913</v>
+        <v>100.54</v>
       </c>
       <c r="H67">
-        <v>98.308029399239288</v>
+        <v>72.201981000000004</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42664</v>
+        <v>42671</v>
       </c>
       <c r="B68">
-        <v>257.84719999999999</v>
+        <v>124.54</v>
       </c>
       <c r="C68">
-        <v>217.4188</v>
+        <v>130.54</v>
       </c>
       <c r="D68">
-        <v>175.94</v>
+        <v>18.1783</v>
       </c>
       <c r="E68">
-        <v>2272.27</v>
+        <v>212.54</v>
       </c>
       <c r="F68">
-        <v>5970.45</v>
+        <v>30.965</v>
       </c>
       <c r="G68">
-        <v>130.4246</v>
+        <v>100.54</v>
       </c>
       <c r="H68">
-        <v>98.305333935569308</v>
+        <v>72.201824000000002</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42671</v>
+        <v>42678</v>
       </c>
       <c r="B69">
-        <v>254.60079999999999</v>
+        <v>124.57</v>
       </c>
       <c r="C69">
-        <v>217.02520000000001</v>
+        <v>130.46</v>
       </c>
       <c r="D69">
-        <v>176.74</v>
+        <v>18.9621</v>
       </c>
       <c r="E69">
-        <v>2248.0500000000002</v>
+        <v>208.55</v>
       </c>
       <c r="F69">
-        <v>5907.2</v>
+        <v>29.695</v>
       </c>
       <c r="G69">
-        <v>130.43279999999999</v>
+        <v>100.52</v>
       </c>
       <c r="H69">
-        <v>98.302645798537569</v>
+        <v>72.201849999999993</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42678</v>
+        <v>42685</v>
       </c>
       <c r="B70">
-        <v>254.71899999999999</v>
+        <v>122.35</v>
       </c>
       <c r="C70">
-        <v>217.10120000000001</v>
+        <v>129.44</v>
       </c>
       <c r="D70">
-        <v>185.34</v>
+        <v>19.553999999999998</v>
       </c>
       <c r="E70">
-        <v>2160.9899999999998</v>
+        <v>216.42</v>
       </c>
       <c r="F70">
-        <v>5691.26</v>
+        <v>30.465</v>
       </c>
       <c r="G70">
-        <v>130.4222</v>
+        <v>100.55</v>
       </c>
       <c r="H70">
-        <v>98.302645798537569</v>
+        <v>72.202017999999995</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42685</v>
+        <v>42692</v>
       </c>
       <c r="B71">
-        <v>250.27459999999999</v>
+        <v>122.29</v>
       </c>
       <c r="C71">
-        <v>216.59360000000001</v>
+        <v>128.62</v>
       </c>
       <c r="D71">
-        <v>191.06</v>
+        <v>19.928899999999999</v>
       </c>
       <c r="E71">
-        <v>2292.58</v>
+        <v>218.5</v>
       </c>
       <c r="F71">
-        <v>5866.09</v>
+        <v>30.38</v>
       </c>
       <c r="G71">
-        <v>130.43109999999999</v>
+        <v>100.59</v>
       </c>
       <c r="H71">
-        <v>98.299964787784958</v>
+        <v>72.202152999999996</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42692</v>
+        <v>42699</v>
       </c>
       <c r="B72">
-        <v>250.18879999999999</v>
+        <v>122.26</v>
       </c>
       <c r="C72">
-        <v>216.3297</v>
+        <v>129.29</v>
       </c>
       <c r="D72">
-        <v>194.61</v>
+        <v>20.0639</v>
       </c>
       <c r="E72">
-        <v>2362.52</v>
+        <v>221.52</v>
       </c>
       <c r="F72">
-        <v>5890.07</v>
+        <v>30.66</v>
       </c>
       <c r="G72">
-        <v>130.42580000000001</v>
+        <v>100.53</v>
       </c>
       <c r="H72">
-        <v>98.302638629938002</v>
+        <v>72.202280999999999</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42699</v>
+        <v>42706</v>
       </c>
       <c r="B73">
-        <v>250.09119999999999</v>
+        <v>122.63</v>
       </c>
       <c r="C73">
-        <v>216.773</v>
+        <v>128.83000000000001</v>
       </c>
       <c r="D73">
-        <v>195.97</v>
+        <v>20.697800000000001</v>
       </c>
       <c r="E73">
-        <v>2387.39</v>
+        <v>219.68</v>
       </c>
       <c r="F73">
-        <v>5926.68</v>
+        <v>30.375</v>
       </c>
       <c r="G73">
-        <v>130.43209999999999</v>
+        <v>100.43</v>
       </c>
       <c r="H73">
-        <v>98.302638629938002</v>
+        <v>72.202425000000005</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42706</v>
+        <v>42713</v>
       </c>
       <c r="B74">
-        <v>250.81139999999999</v>
+        <v>121.93</v>
       </c>
       <c r="C74">
-        <v>216.56819999999999</v>
+        <v>129.11000000000001</v>
       </c>
       <c r="D74">
-        <v>201.85</v>
+        <v>20.244199999999999</v>
       </c>
       <c r="E74">
-        <v>2348.17</v>
+        <v>226.51</v>
       </c>
       <c r="F74">
-        <v>5873.65</v>
+        <v>32.244999999999997</v>
       </c>
       <c r="G74">
-        <v>130.4282</v>
+        <v>100.43</v>
       </c>
       <c r="H74">
-        <v>98.308000571014276</v>
+        <v>72.201642000000007</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42713</v>
+        <v>42720</v>
       </c>
       <c r="B75">
-        <v>249.5119</v>
+        <v>122.66</v>
       </c>
       <c r="C75">
-        <v>216.85499999999999</v>
+        <v>129.41</v>
       </c>
       <c r="D75">
-        <v>197.47</v>
+        <v>19.560199999999998</v>
       </c>
       <c r="E75">
-        <v>2451.84</v>
+        <v>225.04</v>
       </c>
       <c r="F75">
-        <v>6168.53</v>
+        <v>32.76</v>
       </c>
       <c r="G75">
-        <v>130.43039999999999</v>
+        <v>100.44</v>
       </c>
       <c r="H75">
-        <v>98.308000571014276</v>
+        <v>72.199967000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42720</v>
+        <v>42727</v>
       </c>
       <c r="B76">
-        <v>250.75659999999999</v>
+        <v>123.54</v>
       </c>
       <c r="C76">
-        <v>217.1249</v>
+        <v>129.9</v>
       </c>
       <c r="D76">
-        <v>190.54</v>
+        <v>19.7318</v>
       </c>
       <c r="E76">
-        <v>2498.08</v>
+        <v>225.71</v>
       </c>
       <c r="F76">
-        <v>6278.12</v>
+        <v>32.935000000000002</v>
       </c>
       <c r="G76">
-        <v>130.44470000000001</v>
+        <v>100.41</v>
       </c>
       <c r="H76">
-        <v>98.305305107344296</v>
+        <v>72.197470999999993</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42727</v>
+        <v>42734</v>
       </c>
       <c r="B77">
-        <v>252.56229999999999</v>
+        <v>123.55</v>
       </c>
       <c r="C77">
-        <v>217.32859999999999</v>
+        <v>130.12</v>
       </c>
       <c r="D77">
-        <v>189.96</v>
+        <v>19.832899999999999</v>
       </c>
       <c r="E77">
-        <v>2494.3200000000002</v>
+        <v>223.53</v>
       </c>
       <c r="F77">
-        <v>6268.77</v>
+        <v>33.08</v>
       </c>
       <c r="G77">
-        <v>130.49279999999999</v>
+        <v>100.46</v>
       </c>
       <c r="H77">
-        <v>98.313369679729831</v>
+        <v>72.195199000000002</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42734</v>
+        <v>42741</v>
       </c>
       <c r="B78">
-        <v>252.42259999999999</v>
+        <v>122.2</v>
       </c>
       <c r="C78">
-        <v>217.39529999999999</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="D78">
-        <v>193.1</v>
+        <v>20.3324</v>
       </c>
       <c r="E78">
-        <v>2448.17</v>
+        <v>227.21</v>
       </c>
       <c r="F78">
-        <v>6295.23</v>
+        <v>33.445</v>
       </c>
       <c r="G78">
-        <v>130.49690000000001</v>
+        <v>100.47</v>
       </c>
       <c r="H78">
-        <v>98.316079671687874</v>
+        <v>72.192333000000005</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42741</v>
+        <v>42748</v>
       </c>
       <c r="B79">
-        <v>250.0282</v>
+        <v>121.91</v>
       </c>
       <c r="C79">
-        <v>217.14160000000001</v>
+        <v>128.52000000000001</v>
       </c>
       <c r="D79">
-        <v>198.41</v>
+        <v>19.979099999999999</v>
       </c>
       <c r="E79">
-        <v>2481.25</v>
+        <v>227.05</v>
       </c>
       <c r="F79">
-        <v>6379.17</v>
+        <v>33.475000000000001</v>
       </c>
       <c r="G79">
-        <v>130.52209999999999</v>
+        <v>100.5</v>
       </c>
       <c r="H79">
-        <v>98.313362315717001</v>
+        <v>72.189378000000005</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42748</v>
+        <v>42755</v>
       </c>
       <c r="B80">
-        <v>250.33609999999999</v>
+        <v>121.12</v>
       </c>
       <c r="C80">
-        <v>217.09979999999999</v>
+        <v>128.22</v>
       </c>
       <c r="D80">
-        <v>195.54</v>
+        <v>19.861000000000001</v>
       </c>
       <c r="E80">
-        <v>2465.58</v>
+        <v>226.74</v>
       </c>
       <c r="F80">
-        <v>6372.28</v>
+        <v>33.174999999999997</v>
       </c>
       <c r="G80">
-        <v>130.54669999999999</v>
+        <v>100.53</v>
       </c>
       <c r="H80">
-        <v>98.305232177241223</v>
+        <v>72.186423000000005</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42755</v>
+        <v>42762</v>
       </c>
       <c r="B81">
-        <v>248.6574</v>
+        <v>120.43</v>
       </c>
       <c r="C81">
-        <v>216.9366</v>
+        <v>128.04</v>
       </c>
       <c r="D81">
-        <v>194.28</v>
+        <v>19.7803</v>
       </c>
       <c r="E81">
-        <v>2444.16</v>
+        <v>228.97</v>
       </c>
       <c r="F81">
-        <v>6298.53</v>
+        <v>33.25</v>
       </c>
       <c r="G81">
-        <v>130.57810000000001</v>
+        <v>100.54</v>
       </c>
       <c r="H81">
-        <v>98.305232177241223</v>
+        <v>72.183468000000005</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42762</v>
+        <v>42769</v>
       </c>
       <c r="B82">
-        <v>247.2603</v>
+        <v>120.32</v>
       </c>
       <c r="C82">
-        <v>216.92140000000001</v>
+        <v>128.38999999999999</v>
       </c>
       <c r="D82">
-        <v>192.49</v>
+        <v>19.257200000000001</v>
       </c>
       <c r="E82">
-        <v>2461.7399999999998</v>
+        <v>229.34</v>
       </c>
       <c r="F82">
-        <v>6340.32</v>
+        <v>32.99</v>
       </c>
       <c r="G82">
-        <v>130.60849999999999</v>
+        <v>100.6</v>
       </c>
       <c r="H82">
-        <v>98.305232177241223</v>
+        <v>72.180352999999997</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42769</v>
+        <v>42776</v>
       </c>
       <c r="B83">
-        <v>246.9932</v>
+        <v>120.51</v>
       </c>
       <c r="C83">
-        <v>217.35990000000001</v>
+        <v>128.72999999999999</v>
       </c>
       <c r="D83">
-        <v>188.06</v>
+        <v>19.462700000000002</v>
       </c>
       <c r="E83">
-        <v>2448.91</v>
+        <v>231.51</v>
       </c>
       <c r="F83">
-        <v>6296.56</v>
+        <v>32.975000000000001</v>
       </c>
       <c r="G83">
-        <v>130.6232</v>
+        <v>100.62</v>
       </c>
       <c r="H83">
-        <v>98.302544040209483</v>
+        <v>72.177116999999996</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42776</v>
+        <v>42783</v>
       </c>
       <c r="B84">
-        <v>247.39580000000001</v>
+        <v>120.82</v>
       </c>
       <c r="C84">
-        <v>217.74250000000001</v>
+        <v>129.15</v>
       </c>
       <c r="D84">
-        <v>189.6</v>
+        <v>18.854800000000001</v>
       </c>
       <c r="E84">
-        <v>2503.2399999999998</v>
+        <v>235.09</v>
       </c>
       <c r="F84">
-        <v>6362.65</v>
+        <v>33.35</v>
       </c>
       <c r="G84">
-        <v>130.637</v>
+        <v>100.62</v>
       </c>
       <c r="H84">
-        <v>98.307905981285757</v>
+        <v>72.173879999999997</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>42783</v>
+        <v>42790</v>
       </c>
       <c r="B85">
-        <v>248.0479</v>
+        <v>121.58</v>
       </c>
       <c r="C85">
-        <v>217.96520000000001</v>
+        <v>129.9</v>
       </c>
       <c r="D85">
-        <v>183.91</v>
+        <v>19.785799999999998</v>
       </c>
       <c r="E85">
-        <v>2553.9699999999998</v>
+        <v>236.74</v>
       </c>
       <c r="F85">
-        <v>6445.36</v>
+        <v>33.325000000000003</v>
       </c>
       <c r="G85">
-        <v>130.65539999999999</v>
+        <v>100.62</v>
       </c>
       <c r="H85">
-        <v>98.307905981285757</v>
+        <v>72.170643999999996</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>42790</v>
+        <v>42797</v>
       </c>
       <c r="B86">
-        <v>249.53270000000001</v>
+        <v>121.13</v>
       </c>
       <c r="C86">
-        <v>218.66210000000001</v>
+        <v>128.97999999999999</v>
       </c>
       <c r="D86">
-        <v>193.57</v>
+        <v>19.941400000000002</v>
       </c>
       <c r="E86">
-        <v>2592.08</v>
+        <v>238.42</v>
       </c>
       <c r="F86">
-        <v>6456.26</v>
+        <v>34.33</v>
       </c>
       <c r="G86">
-        <v>130.67230000000001</v>
+        <v>100.68</v>
       </c>
       <c r="H86">
-        <v>98.307905981285757</v>
+        <v>72.167410000000004</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>42797</v>
+        <v>42804</v>
       </c>
       <c r="B87">
-        <v>248.7149</v>
+        <v>119.7</v>
       </c>
       <c r="C87">
-        <v>217.8117</v>
+        <v>128.24</v>
       </c>
       <c r="D87">
-        <v>195.33</v>
+        <v>19.8078</v>
       </c>
       <c r="E87">
-        <v>2619.39</v>
+        <v>237.69</v>
       </c>
       <c r="F87">
-        <v>6559.46</v>
+        <v>34.465000000000003</v>
       </c>
       <c r="G87">
-        <v>130.7003</v>
+        <v>100.67</v>
       </c>
       <c r="H87">
-        <v>98.307905981285757</v>
+        <v>72.164175</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>42804</v>
+        <v>42811</v>
       </c>
       <c r="B88">
-        <v>245.77529999999999</v>
+        <v>119.93</v>
       </c>
       <c r="C88">
-        <v>217.51050000000001</v>
+        <v>128.65</v>
       </c>
       <c r="D88">
-        <v>194.19</v>
+        <v>19.593800000000002</v>
       </c>
       <c r="E88">
-        <v>2596.06</v>
+        <v>237.03</v>
       </c>
       <c r="F88">
-        <v>6526.74</v>
+        <v>34.594999999999999</v>
       </c>
       <c r="G88">
-        <v>130.7056</v>
+        <v>100.69</v>
       </c>
       <c r="H88">
-        <v>98.305210517615777</v>
+        <v>72.160939999999997</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>42811</v>
+        <v>42818</v>
       </c>
       <c r="B89">
-        <v>246.3364</v>
+        <v>120.71</v>
       </c>
       <c r="C89">
-        <v>217.52279999999999</v>
+        <v>128.76</v>
       </c>
       <c r="D89">
-        <v>191.93</v>
+        <v>19.6175</v>
       </c>
       <c r="E89">
-        <v>2576.38</v>
+        <v>233.86</v>
       </c>
       <c r="F89">
-        <v>6623.31</v>
+        <v>34.615000000000002</v>
       </c>
       <c r="G89">
-        <v>130.70830000000001</v>
+        <v>100.66</v>
       </c>
       <c r="H89">
-        <v>98.307898735292682</v>
+        <v>72.157786000000002</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>42818</v>
+        <v>42825</v>
       </c>
       <c r="B90">
-        <v>247.8717</v>
+        <v>121.11</v>
       </c>
       <c r="C90">
-        <v>217.40280000000001</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="D90">
-        <v>192.76</v>
+        <v>20.316299999999998</v>
       </c>
       <c r="E90">
-        <v>2527.38</v>
+        <v>235.74</v>
       </c>
       <c r="F90">
-        <v>6595</v>
+        <v>35.22</v>
       </c>
       <c r="G90">
-        <v>130.7056</v>
+        <v>100.69</v>
       </c>
       <c r="H90">
-        <v>98.305203271622702</v>
+        <v>72.154831000000001</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>42825</v>
+        <v>42832</v>
       </c>
       <c r="B91">
-        <v>248.63480000000001</v>
+        <v>121.86</v>
       </c>
       <c r="C91">
-        <v>217.71899999999999</v>
+        <v>129.72999999999999</v>
       </c>
       <c r="D91">
-        <v>199.92</v>
+        <v>20.512799999999999</v>
       </c>
       <c r="E91">
-        <v>2570.13</v>
+        <v>235.2</v>
       </c>
       <c r="F91">
-        <v>6675.55</v>
+        <v>35.225000000000001</v>
       </c>
       <c r="G91">
-        <v>130.7021</v>
+        <v>100.61</v>
       </c>
       <c r="H91">
-        <v>98.302515134590962</v>
+        <v>72.151895999999994</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="B92">
-        <v>250.24430000000001</v>
+        <v>121.62</v>
       </c>
       <c r="C92">
-        <v>218.27529999999999</v>
+        <v>130</v>
       </c>
       <c r="D92">
-        <v>202.43</v>
+        <v>20.79</v>
       </c>
       <c r="E92">
-        <v>2583.3200000000002</v>
+        <v>232.51</v>
       </c>
       <c r="F92">
-        <v>6685.26</v>
+        <v>34.71</v>
       </c>
       <c r="G92">
-        <v>130.7046</v>
+        <v>100.6</v>
       </c>
       <c r="H92">
-        <v>98.302515134590962</v>
+        <v>72.149483000000004</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>42839</v>
+        <v>42846</v>
       </c>
       <c r="B93">
-        <v>250.0472</v>
+        <v>121.61</v>
       </c>
       <c r="C93">
-        <v>218.49209999999999</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="D93">
-        <v>205.45</v>
+        <v>20.869800000000001</v>
       </c>
       <c r="E93">
-        <v>2551.4499999999998</v>
+        <v>234.59</v>
       </c>
       <c r="F93">
-        <v>6659.01</v>
+        <v>34.65</v>
       </c>
       <c r="G93">
-        <v>130.70179999999999</v>
+        <v>100.59</v>
       </c>
       <c r="H93">
-        <v>98.305196064914611</v>
+        <v>72.146826000000004</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>42846</v>
+        <v>42853</v>
       </c>
       <c r="B94">
-        <v>249.7567</v>
+        <v>121.66</v>
       </c>
       <c r="C94">
-        <v>218.11879999999999</v>
+        <v>129.97999999999999</v>
       </c>
       <c r="D94">
-        <v>206.18</v>
+        <v>21.291699999999999</v>
       </c>
       <c r="E94">
-        <v>2552.12</v>
+        <v>238.08</v>
       </c>
       <c r="F94">
-        <v>6595.68</v>
+        <v>35.64</v>
       </c>
       <c r="G94">
-        <v>130.69450000000001</v>
+        <v>100.65</v>
       </c>
       <c r="H94">
-        <v>98.307884282591516</v>
+        <v>72.144712999999996</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>42853</v>
+        <v>42860</v>
       </c>
       <c r="B95">
-        <v>249.9169</v>
+        <v>121.66</v>
       </c>
       <c r="C95">
-        <v>218.30359999999999</v>
+        <v>129.69</v>
       </c>
       <c r="D95">
-        <v>210.89</v>
+        <v>21.998899999999999</v>
       </c>
       <c r="E95">
-        <v>2547.6799999999998</v>
+        <v>239.7</v>
       </c>
       <c r="F95">
-        <v>6743.59</v>
+        <v>36.75</v>
       </c>
       <c r="G95">
-        <v>130.73400000000001</v>
+        <v>100.71</v>
       </c>
       <c r="H95">
-        <v>98.299797972444097</v>
+        <v>72.142599000000004</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>42860</v>
+        <v>42867</v>
       </c>
       <c r="B96">
-        <v>249.85040000000001</v>
+        <v>121.48</v>
       </c>
       <c r="C96">
-        <v>218.1208</v>
+        <v>130.06</v>
       </c>
       <c r="D96">
-        <v>218.66</v>
+        <v>22.205400000000001</v>
       </c>
       <c r="E96">
-        <v>2542.66</v>
+        <v>238.98</v>
       </c>
       <c r="F96">
-        <v>6889.22</v>
+        <v>36.71</v>
       </c>
       <c r="G96">
-        <v>130.78120000000001</v>
+        <v>100.72</v>
       </c>
       <c r="H96">
-        <v>98.299797972444097</v>
+        <v>72.140485999999996</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>42867</v>
+        <v>42874</v>
       </c>
       <c r="B97">
-        <v>249.51140000000001</v>
+        <v>121.97</v>
       </c>
       <c r="C97">
-        <v>218.3503</v>
+        <v>129.82</v>
       </c>
       <c r="D97">
-        <v>220.54</v>
+        <v>22.196899999999999</v>
       </c>
       <c r="E97">
-        <v>2554.06</v>
+        <v>238.31</v>
       </c>
       <c r="F97">
-        <v>6959.78</v>
+        <v>36.295000000000002</v>
       </c>
       <c r="G97">
-        <v>130.7852</v>
+        <v>100.66</v>
       </c>
       <c r="H97">
-        <v>98.302471814597141</v>
+        <v>72.138373000000001</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>42874</v>
+        <v>42881</v>
       </c>
       <c r="B98">
-        <v>250.4571</v>
+        <v>122.34</v>
       </c>
       <c r="C98">
-        <v>218.27529999999999</v>
+        <v>130.16999999999999</v>
       </c>
       <c r="D98">
-        <v>220.62</v>
+        <v>21.813700000000001</v>
       </c>
       <c r="E98">
-        <v>2477.9</v>
+        <v>241.71</v>
       </c>
       <c r="F98">
-        <v>6901.53</v>
+        <v>36.305</v>
       </c>
       <c r="G98">
-        <v>130.76329999999999</v>
+        <v>100.68</v>
       </c>
       <c r="H98">
-        <v>98.29979080384453</v>
+        <v>72.136539999999997</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>42881</v>
+        <v>42888</v>
       </c>
       <c r="B99">
-        <v>251.26779999999999</v>
+        <v>122.25</v>
       </c>
       <c r="C99">
-        <v>218.5128</v>
+        <v>130.51</v>
       </c>
       <c r="D99">
-        <v>217.03</v>
+        <v>21.695799999999998</v>
       </c>
       <c r="E99">
-        <v>2513.4899999999998</v>
+        <v>244.17</v>
       </c>
       <c r="F99">
-        <v>6888.67</v>
+        <v>36.53</v>
       </c>
       <c r="G99">
-        <v>130.77539999999999</v>
+        <v>100.7</v>
       </c>
       <c r="H99">
-        <v>98.307812250089768</v>
+        <v>72.134705999999994</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>42888</v>
+        <v>42895</v>
       </c>
       <c r="B100">
-        <v>251.0581</v>
+        <v>122.75</v>
       </c>
       <c r="C100">
-        <v>218.8219</v>
+        <v>130.5</v>
       </c>
       <c r="D100">
-        <v>215.99</v>
+        <v>21.8291</v>
       </c>
       <c r="E100">
-        <v>2514.36</v>
+        <v>243.41</v>
       </c>
       <c r="F100">
-        <v>6910.37</v>
+        <v>36.49</v>
       </c>
       <c r="G100">
-        <v>130.78360000000001</v>
+        <v>100.69</v>
       </c>
       <c r="H100">
-        <v>98.305116786419788</v>
+        <v>72.132872000000006</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>42895</v>
+        <v>42902</v>
       </c>
       <c r="B101">
-        <v>252.14189999999999</v>
+        <v>123.01</v>
       </c>
       <c r="C101">
-        <v>218.82689999999999</v>
+        <v>130.52000000000001</v>
       </c>
       <c r="D101">
-        <v>217.72</v>
+        <v>22.318899999999999</v>
       </c>
       <c r="E101">
-        <v>2526.6999999999998</v>
+        <v>242.64</v>
       </c>
       <c r="F101">
-        <v>6866.34</v>
+        <v>35.755000000000003</v>
       </c>
       <c r="G101">
-        <v>130.78059999999999</v>
+        <v>100.7</v>
       </c>
       <c r="H101">
-        <v>98.299740431711157</v>
+        <v>72.131039000000001</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>42902</v>
+        <v>42909</v>
       </c>
       <c r="B102">
-        <v>252.6858</v>
+        <v>123.42</v>
       </c>
       <c r="C102">
-        <v>218.64359999999999</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="D102">
-        <v>222.79</v>
+        <v>22.4541</v>
       </c>
       <c r="E102">
-        <v>2525.84</v>
+        <v>243.13</v>
       </c>
       <c r="F102">
-        <v>6830.93</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="G102">
-        <v>130.79730000000001</v>
+        <v>100.72</v>
       </c>
       <c r="H102">
-        <v>98.302414273864201</v>
+        <v>72.129227</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>42909</v>
+        <v>42916</v>
       </c>
       <c r="B103">
-        <v>253.54239999999999</v>
+        <v>121.69</v>
       </c>
       <c r="C103">
-        <v>218.67140000000001</v>
+        <v>129.72</v>
       </c>
       <c r="D103">
-        <v>225.85</v>
+        <v>22.589700000000001</v>
       </c>
       <c r="E103">
-        <v>2541.0700000000002</v>
+        <v>241.8</v>
       </c>
       <c r="F103">
-        <v>6828.48</v>
+        <v>34.82</v>
       </c>
       <c r="G103">
-        <v>130.8192</v>
+        <v>100.75</v>
       </c>
       <c r="H103">
-        <v>98.299733263111591</v>
+        <v>72.126652000000007</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>42916</v>
+        <v>42923</v>
       </c>
       <c r="B104">
-        <v>249.9529</v>
+        <v>120.73</v>
       </c>
       <c r="C104">
-        <v>218.11089999999999</v>
+        <v>129.53</v>
       </c>
       <c r="D104">
-        <v>225.87</v>
+        <v>22.500900000000001</v>
       </c>
       <c r="E104">
-        <v>2472.19</v>
+        <v>242.11</v>
       </c>
       <c r="F104">
-        <v>6679.62</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="G104">
-        <v>130.82810000000001</v>
+        <v>100.81</v>
       </c>
       <c r="H104">
-        <v>98.302407105264635</v>
+        <v>72.123977999999994</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>42923</v>
+        <v>42930</v>
       </c>
       <c r="B105">
-        <v>247.94030000000001</v>
+        <v>120.74</v>
       </c>
       <c r="C105">
-        <v>218.3244</v>
+        <v>129.03</v>
       </c>
       <c r="D105">
-        <v>225.2</v>
+        <v>22.605499999999999</v>
       </c>
       <c r="E105">
-        <v>2477.81</v>
+        <v>245.56</v>
       </c>
       <c r="F105">
-        <v>6667.09</v>
+        <v>35.69</v>
       </c>
       <c r="G105">
-        <v>130.86089999999999</v>
+        <v>100.83</v>
       </c>
       <c r="H105">
-        <v>98.305088035588284</v>
+        <v>72.120341999999994</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>42930</v>
+        <v>42937</v>
       </c>
       <c r="B106">
-        <v>248.81630000000001</v>
+        <v>121.73</v>
       </c>
       <c r="C106">
-        <v>218.58799999999999</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="D106">
-        <v>226.08</v>
+        <v>22.647400000000001</v>
       </c>
       <c r="E106">
-        <v>2498.91</v>
+        <v>246.88</v>
       </c>
       <c r="F106">
-        <v>6778.28</v>
+        <v>34.924999999999997</v>
       </c>
       <c r="G106">
-        <v>130.88050000000001</v>
+        <v>100.87</v>
       </c>
       <c r="H106">
-        <v>98.302399898556544</v>
+        <v>72.116546999999997</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>42937</v>
+        <v>42944</v>
       </c>
       <c r="B107">
-        <v>250.95500000000001</v>
+        <v>121.4</v>
       </c>
       <c r="C107">
-        <v>219.0864</v>
+        <v>129.72</v>
       </c>
       <c r="D107">
-        <v>226.71</v>
+        <v>22.4727</v>
       </c>
       <c r="E107">
-        <v>2464.71</v>
+        <v>246.91</v>
       </c>
       <c r="F107">
-        <v>6670.98</v>
+        <v>35.104999999999997</v>
       </c>
       <c r="G107">
-        <v>130.90119999999999</v>
+        <v>100.8</v>
       </c>
       <c r="H107">
-        <v>98.299718887803934</v>
+        <v>72.11233</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>42944</v>
+        <v>42951</v>
       </c>
       <c r="B108">
-        <v>250.2278</v>
+        <v>122.01</v>
       </c>
       <c r="C108">
-        <v>219.24780000000001</v>
+        <v>130.12</v>
       </c>
       <c r="D108">
-        <v>225.21</v>
+        <v>22.341899999999999</v>
       </c>
       <c r="E108">
-        <v>2452.14</v>
+        <v>247.41</v>
       </c>
       <c r="F108">
-        <v>6603.84</v>
+        <v>35.534999999999997</v>
       </c>
       <c r="G108">
-        <v>130.9111</v>
+        <v>100.93</v>
       </c>
       <c r="H108">
-        <v>98.307740334049171</v>
+        <v>72.108114999999998</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>42951</v>
+        <v>42958</v>
       </c>
       <c r="B109">
-        <v>251.71700000000001</v>
+        <v>122.53</v>
       </c>
       <c r="C109">
-        <v>219.524</v>
+        <v>130.25</v>
       </c>
       <c r="D109">
-        <v>223.97</v>
+        <v>22.172799999999999</v>
       </c>
       <c r="E109">
-        <v>2466.17</v>
+        <v>244.12</v>
       </c>
       <c r="F109">
-        <v>6687.75</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="G109">
-        <v>130.94049999999999</v>
+        <v>100.9</v>
       </c>
       <c r="H109">
-        <v>98.305044870379191</v>
+        <v>72.103898999999998</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>42958</v>
+        <v>42965</v>
       </c>
       <c r="B110">
-        <v>252.61680000000001</v>
+        <v>122.38</v>
       </c>
       <c r="C110">
-        <v>219.64400000000001</v>
+        <v>130.13</v>
       </c>
       <c r="D110">
-        <v>222.67</v>
+        <v>22.085999999999999</v>
       </c>
       <c r="E110">
-        <v>2432.29</v>
+        <v>242.71</v>
       </c>
       <c r="F110">
-        <v>6508.54</v>
+        <v>34.884999999999998</v>
       </c>
       <c r="G110">
-        <v>130.9211</v>
+        <v>100.92</v>
       </c>
       <c r="H110">
-        <v>98.305044870379191</v>
+        <v>72.099683999999996</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>42965</v>
+        <v>42972</v>
       </c>
       <c r="B111">
-        <v>252.40440000000001</v>
+        <v>122.22</v>
       </c>
       <c r="C111">
-        <v>219.56200000000001</v>
+        <v>130.25</v>
       </c>
       <c r="D111">
-        <v>221.9</v>
+        <v>22.334199999999999</v>
       </c>
       <c r="E111">
-        <v>2423.7199999999998</v>
+        <v>244.56</v>
       </c>
       <c r="F111">
-        <v>6537.31</v>
+        <v>34.83</v>
       </c>
       <c r="G111">
-        <v>130.93039999999999</v>
+        <v>100.96</v>
       </c>
       <c r="H111">
-        <v>98.307733088056096</v>
+        <v>72.095467999999997</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>42972</v>
+        <v>42979</v>
       </c>
       <c r="B112">
-        <v>252.02809999999999</v>
+        <v>122.32</v>
       </c>
       <c r="C112">
-        <v>219.6628</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="D112">
-        <v>223.97</v>
+        <v>22.379899999999999</v>
       </c>
       <c r="E112">
-        <v>2414.48</v>
+        <v>247.84</v>
       </c>
       <c r="F112">
-        <v>6539.36</v>
+        <v>34.884999999999998</v>
       </c>
       <c r="G112">
-        <v>130.92779999999999</v>
+        <v>100.92</v>
       </c>
       <c r="H112">
-        <v>98.307733088056096</v>
+        <v>72.091252999999995</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>42979</v>
+        <v>42986</v>
       </c>
       <c r="B113">
-        <v>252.1867</v>
+        <v>122.8</v>
       </c>
       <c r="C113">
-        <v>219.673</v>
+        <v>130.44999999999999</v>
       </c>
       <c r="D113">
-        <v>224.41</v>
+        <v>22.557200000000002</v>
       </c>
       <c r="E113">
-        <v>2449.29</v>
+        <v>246.58</v>
       </c>
       <c r="F113">
-        <v>6573.73</v>
+        <v>34.905000000000001</v>
       </c>
       <c r="G113">
-        <v>130.9316</v>
+        <v>100.95</v>
       </c>
       <c r="H113">
-        <v>98.302342241578671</v>
+        <v>72.087038000000007</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>42986</v>
+        <v>42993</v>
       </c>
       <c r="B114">
-        <v>253.23589999999999</v>
+        <v>122.02</v>
       </c>
       <c r="C114">
-        <v>219.8794</v>
+        <v>129.97999999999999</v>
       </c>
       <c r="D114">
-        <v>226.32</v>
+        <v>22.7317</v>
       </c>
       <c r="E114">
-        <v>2400.0500000000002</v>
+        <v>249.19</v>
       </c>
       <c r="F114">
-        <v>6574.55</v>
+        <v>35</v>
       </c>
       <c r="G114">
-        <v>130.94890000000001</v>
+        <v>101.03</v>
       </c>
       <c r="H114">
-        <v>98.30502317190232</v>
+        <v>72.082823000000005</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="B115">
-        <v>251.5728</v>
+        <v>121.96</v>
       </c>
       <c r="C115">
-        <v>219.48310000000001</v>
+        <v>130.04</v>
       </c>
       <c r="D115">
-        <v>228.15</v>
+        <v>22.5748</v>
       </c>
       <c r="E115">
-        <v>2451.9499999999998</v>
+        <v>249.44</v>
       </c>
       <c r="F115">
-        <v>6667.82</v>
+        <v>35.314999999999998</v>
       </c>
       <c r="G115">
-        <v>131.01089999999999</v>
+        <v>101.05</v>
       </c>
       <c r="H115">
-        <v>98.307711389579225</v>
+        <v>72.078608000000003</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43000</v>
+        <v>43007</v>
       </c>
       <c r="B116">
-        <v>251.4598</v>
+        <v>121.94</v>
       </c>
       <c r="C116">
-        <v>219.46770000000001</v>
+        <v>130.02000000000001</v>
       </c>
       <c r="D116">
-        <v>226.67</v>
+        <v>22.441299999999998</v>
       </c>
       <c r="E116">
-        <v>2452.1799999999998</v>
+        <v>251.23</v>
       </c>
       <c r="F116">
-        <v>6721.19</v>
+        <v>35.825000000000003</v>
       </c>
       <c r="G116">
-        <v>131.0274</v>
+        <v>101.04</v>
       </c>
       <c r="H116">
-        <v>98.305015925909245</v>
+        <v>72.074265999999994</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43007</v>
+        <v>43014</v>
       </c>
       <c r="B117">
-        <v>251.44139999999999</v>
+        <v>121.79</v>
       </c>
       <c r="C117">
-        <v>219.5813</v>
+        <v>130.13</v>
       </c>
       <c r="D117">
-        <v>225.44</v>
+        <v>22.531600000000001</v>
       </c>
       <c r="E117">
-        <v>2493.2199999999998</v>
+        <v>254.37</v>
       </c>
       <c r="F117">
-        <v>6823.77</v>
+        <v>35.945</v>
       </c>
       <c r="G117">
-        <v>131.0299</v>
+        <v>101.07</v>
       </c>
       <c r="H117">
-        <v>98.305015925909245</v>
+        <v>72.069584000000006</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43014</v>
+        <v>43021</v>
       </c>
       <c r="B118">
-        <v>251.11750000000001</v>
+        <v>122.39</v>
       </c>
       <c r="C118">
-        <v>219.5984</v>
+        <v>130.68</v>
       </c>
       <c r="D118">
-        <v>226.53</v>
+        <v>22.776</v>
       </c>
       <c r="E118">
-        <v>2543.7800000000002</v>
+        <v>254.95</v>
       </c>
       <c r="F118">
-        <v>6861.6</v>
+        <v>35.97</v>
       </c>
       <c r="G118">
-        <v>131.042</v>
+        <v>101.11</v>
       </c>
       <c r="H118">
-        <v>98.302327788877506</v>
+        <v>72.064783000000006</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43021</v>
+        <v>43028</v>
       </c>
       <c r="B119">
-        <v>252.48500000000001</v>
+        <v>122.15</v>
       </c>
       <c r="C119">
-        <v>219.9794</v>
+        <v>130.59</v>
       </c>
       <c r="D119">
-        <v>228.87</v>
+        <v>22.812899999999999</v>
       </c>
       <c r="E119">
-        <v>2523.41</v>
+        <v>257.11</v>
       </c>
       <c r="F119">
-        <v>6885.82</v>
+        <v>35.965000000000003</v>
       </c>
       <c r="G119">
-        <v>131.06960000000001</v>
+        <v>101.11</v>
       </c>
       <c r="H119">
-        <v>98.307689729953779</v>
+        <v>72.059984</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43028</v>
+        <v>43035</v>
       </c>
       <c r="B120">
-        <v>251.9357</v>
+        <v>122.72</v>
       </c>
       <c r="C120">
-        <v>220.0001</v>
+        <v>131.21</v>
       </c>
       <c r="D120">
-        <v>229.44</v>
+        <v>22.9208</v>
       </c>
       <c r="E120">
-        <v>2558.0700000000002</v>
+        <v>257.70999999999998</v>
       </c>
       <c r="F120">
-        <v>6856.01</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="G120">
-        <v>131.0985</v>
+        <v>101.14</v>
       </c>
       <c r="H120">
-        <v>98.302298883476354</v>
+        <v>72.055183999999997</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43035</v>
+        <v>43042</v>
       </c>
       <c r="B121">
-        <v>253.07390000000001</v>
+        <v>123.29</v>
       </c>
       <c r="C121">
-        <v>220.49010000000001</v>
+        <v>131.72</v>
       </c>
       <c r="D121">
-        <v>230.37</v>
+        <v>23.763500000000001</v>
       </c>
       <c r="E121">
-        <v>2620.09</v>
+        <v>258.45</v>
       </c>
       <c r="F121">
-        <v>6908.12</v>
+        <v>36.83</v>
       </c>
       <c r="G121">
-        <v>131.10929999999999</v>
+        <v>101.17</v>
       </c>
       <c r="H121">
-        <v>98.304979813800003</v>
+        <v>72.050385000000006</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43042</v>
+        <v>43049</v>
       </c>
       <c r="B122">
-        <v>254.30350000000001</v>
+        <v>122.85</v>
       </c>
       <c r="C122">
-        <v>220.70760000000001</v>
+        <v>131.16999999999999</v>
       </c>
       <c r="D122">
-        <v>238.13</v>
+        <v>23.7744</v>
       </c>
       <c r="E122">
-        <v>2622.02</v>
+        <v>258.08999999999997</v>
       </c>
       <c r="F122">
-        <v>6968.79</v>
+        <v>35.85</v>
       </c>
       <c r="G122">
-        <v>131.13570000000001</v>
+        <v>101.16</v>
       </c>
       <c r="H122">
-        <v>98.304979813800003</v>
+        <v>72.045586</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43049</v>
+        <v>43056</v>
       </c>
       <c r="B123">
-        <v>253.41900000000001</v>
+        <v>123.21</v>
       </c>
       <c r="C123">
-        <v>220.48920000000001</v>
+        <v>131.26</v>
       </c>
       <c r="D123">
-        <v>238.3</v>
+        <v>23.844100000000001</v>
       </c>
       <c r="E123">
-        <v>2607.2399999999998</v>
+        <v>257.86</v>
       </c>
       <c r="F123">
-        <v>6846.1</v>
+        <v>35.4</v>
       </c>
       <c r="G123">
-        <v>131.12479999999999</v>
+        <v>101.16</v>
       </c>
       <c r="H123">
-        <v>98.307668031476908</v>
+        <v>72.040786999999995</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43056</v>
+        <v>43063</v>
       </c>
       <c r="B124">
-        <v>254.14580000000001</v>
+        <v>123.42</v>
       </c>
       <c r="C124">
-        <v>220.41749999999999</v>
+        <v>131.31</v>
       </c>
       <c r="D124">
-        <v>239.37</v>
+        <v>23.628299999999999</v>
       </c>
       <c r="E124">
-        <v>2564.5700000000002</v>
+        <v>260.36</v>
       </c>
       <c r="F124">
-        <v>6765.29</v>
+        <v>35.765000000000001</v>
       </c>
       <c r="G124">
-        <v>131.12029999999999</v>
+        <v>101.19</v>
       </c>
       <c r="H124">
-        <v>98.302277184999483</v>
+        <v>72.035989000000001</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="B125">
-        <v>254.62010000000001</v>
+        <v>124.18</v>
       </c>
       <c r="C125">
-        <v>220.3383</v>
+        <v>131.57</v>
       </c>
       <c r="D125">
-        <v>237.79</v>
+        <v>24.549900000000001</v>
       </c>
       <c r="E125">
-        <v>2562.6999999999998</v>
+        <v>264.45999999999998</v>
       </c>
       <c r="F125">
-        <v>6839.98</v>
+        <v>35.134999999999998</v>
       </c>
       <c r="G125">
-        <v>131.14109999999999</v>
+        <v>101.18</v>
       </c>
       <c r="H125">
-        <v>98.304958115323132</v>
+        <v>72.031352999999996</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="B126">
-        <v>256.09219999999999</v>
+        <v>124.26</v>
       </c>
       <c r="C126">
-        <v>220.5333</v>
+        <v>131.755</v>
       </c>
       <c r="D126">
-        <v>237.34</v>
+        <v>25.900300000000001</v>
       </c>
       <c r="E126">
-        <v>2618.67</v>
+        <v>265.51</v>
       </c>
       <c r="F126">
-        <v>6771.05</v>
+        <v>35.895000000000003</v>
       </c>
       <c r="G126">
-        <v>131.14230000000001</v>
+        <v>101.2</v>
       </c>
       <c r="H126">
-        <v>98.313022687708667</v>
+        <v>72.026695000000004</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43077</v>
+        <v>43084</v>
       </c>
       <c r="B127">
-        <v>256.39800000000002</v>
+        <v>123.91</v>
       </c>
       <c r="C127">
-        <v>220.70410000000001</v>
+        <v>131.63</v>
       </c>
       <c r="D127">
-        <v>240.2</v>
+        <v>27.2789</v>
       </c>
       <c r="E127">
-        <v>2653.32</v>
+        <v>266.51</v>
       </c>
       <c r="F127">
-        <v>6854.46</v>
+        <v>35.51</v>
       </c>
       <c r="G127">
-        <v>131.1439</v>
+        <v>101.16</v>
       </c>
       <c r="H127">
-        <v>98.313022687708667</v>
+        <v>72.021996000000001</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43084</v>
+        <v>43091</v>
       </c>
       <c r="B128">
-        <v>255.6095</v>
+        <v>123.09</v>
       </c>
       <c r="C128">
-        <v>220.56460000000001</v>
+        <v>130.9</v>
       </c>
       <c r="D128">
-        <v>240.87</v>
+        <v>27.160900000000002</v>
       </c>
       <c r="E128">
-        <v>2691.32</v>
+        <v>267.51</v>
       </c>
       <c r="F128">
-        <v>6872.04</v>
+        <v>35.405000000000001</v>
       </c>
       <c r="G128">
-        <v>131.14869999999999</v>
+        <v>101.19</v>
       </c>
       <c r="H128">
-        <v>98.307602622491757</v>
+        <v>72.017296999999999</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43091</v>
+        <v>43098</v>
       </c>
       <c r="B129">
-        <v>253.96899999999999</v>
+        <v>122.53</v>
       </c>
       <c r="C129">
-        <v>220.00579999999999</v>
+        <v>130.88</v>
       </c>
       <c r="D129">
-        <v>253.3</v>
+        <v>27.145499999999998</v>
       </c>
       <c r="E129">
-        <v>2678.42</v>
+        <v>266.86</v>
       </c>
       <c r="F129">
-        <v>6880.08</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="G129">
-        <v>131.14869999999999</v>
+        <v>101.21</v>
       </c>
       <c r="H129">
-        <v>98.318384234584087</v>
+        <v>72.012597999999997</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43098</v>
+        <v>43105</v>
       </c>
       <c r="B130">
-        <v>252.85059999999999</v>
+        <v>122.61499999999999</v>
       </c>
       <c r="C130">
-        <v>219.91159999999999</v>
+        <v>131.13</v>
       </c>
       <c r="D130">
-        <v>256.14</v>
+        <v>28.105499999999999</v>
       </c>
       <c r="E130">
-        <v>2624.93</v>
+        <v>273.42</v>
       </c>
       <c r="F130">
-        <v>6861.77</v>
+        <v>35.93</v>
       </c>
       <c r="G130">
-        <v>131.1516</v>
+        <v>101.25</v>
       </c>
       <c r="H130">
-        <v>98.315659474470039</v>
+        <v>72.007900000000006</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43105</v>
+        <v>43112</v>
       </c>
       <c r="B131">
-        <v>253.0189</v>
+        <v>122.05</v>
       </c>
       <c r="C131">
-        <v>220.1019</v>
+        <v>130.185</v>
       </c>
       <c r="D131">
-        <v>263.67</v>
+        <v>27.8764</v>
       </c>
       <c r="E131">
-        <v>2690.73</v>
+        <v>277.92</v>
       </c>
       <c r="F131">
-        <v>6978.92</v>
+        <v>36.034999999999997</v>
       </c>
       <c r="G131">
-        <v>131.1677</v>
+        <v>101.22</v>
       </c>
       <c r="H131">
-        <v>98.312942118499166</v>
+        <v>72.003201000000004</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43112</v>
+        <v>43119</v>
       </c>
       <c r="B132">
-        <v>252.37260000000001</v>
+        <v>122.155</v>
       </c>
       <c r="C132">
-        <v>219.696</v>
+        <v>130.44999999999999</v>
       </c>
       <c r="D132">
-        <v>262.22000000000003</v>
+        <v>28.023900000000001</v>
       </c>
       <c r="E132">
-        <v>2707.57</v>
+        <v>280.41000000000003</v>
       </c>
       <c r="F132">
-        <v>7002.23</v>
+        <v>36.365000000000002</v>
       </c>
       <c r="G132">
-        <v>131.1696</v>
+        <v>101.21</v>
       </c>
       <c r="H132">
-        <v>98.312942118499166</v>
+        <v>71.998503999999997</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43119</v>
+        <v>43126</v>
       </c>
       <c r="B133">
-        <v>252.82820000000001</v>
+        <v>121.91</v>
       </c>
       <c r="C133">
-        <v>220.09610000000001</v>
+        <v>130.19999999999999</v>
       </c>
       <c r="D133">
-        <v>263.97000000000003</v>
+        <v>28.3249</v>
       </c>
       <c r="E133">
-        <v>2715.92</v>
+        <v>286.58</v>
       </c>
       <c r="F133">
-        <v>7025.39</v>
+        <v>36.354999999999997</v>
       </c>
       <c r="G133">
-        <v>131.172</v>
+        <v>101.21</v>
       </c>
       <c r="H133">
-        <v>98.312942118499166</v>
+        <v>71.993806000000006</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43126</v>
+        <v>43133</v>
       </c>
       <c r="B134">
-        <v>252.4057</v>
+        <v>121.41</v>
       </c>
       <c r="C134">
-        <v>219.86099999999999</v>
+        <v>129.70500000000001</v>
       </c>
       <c r="D134">
-        <v>266.45999999999998</v>
+        <v>28.145900000000001</v>
       </c>
       <c r="E134">
-        <v>2739.45</v>
+        <v>275.45</v>
       </c>
       <c r="F134">
-        <v>7037.12</v>
+        <v>35.18</v>
       </c>
       <c r="G134">
-        <v>131.19909999999999</v>
+        <v>101.24</v>
       </c>
       <c r="H134">
-        <v>98.312942118499166</v>
+        <v>71.989108999999999</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43133</v>
+        <v>43140</v>
       </c>
       <c r="B135">
-        <v>251.42779999999999</v>
+        <v>121.52500000000001</v>
       </c>
       <c r="C135">
-        <v>219.77019999999999</v>
+        <v>129.495</v>
       </c>
       <c r="D135">
-        <v>265.10000000000002</v>
+        <v>27.146100000000001</v>
       </c>
       <c r="E135">
-        <v>2639.67</v>
+        <v>261.5</v>
       </c>
       <c r="F135">
-        <v>6794.06</v>
+        <v>33.225000000000001</v>
       </c>
       <c r="G135">
-        <v>131.21610000000001</v>
+        <v>101.18</v>
       </c>
       <c r="H135">
-        <v>98.307522053282256</v>
+        <v>71.984412000000006</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43140</v>
+        <v>43147</v>
       </c>
       <c r="B136">
-        <v>251.59639999999999</v>
+        <v>121.69499999999999</v>
       </c>
       <c r="C136">
-        <v>219.69</v>
+        <v>129.82499999999999</v>
       </c>
       <c r="D136">
-        <v>257.02</v>
+        <v>26.552299999999999</v>
       </c>
       <c r="E136">
-        <v>2536.9499999999998</v>
+        <v>273.11</v>
       </c>
       <c r="F136">
-        <v>6427.61</v>
+        <v>34.225000000000001</v>
       </c>
       <c r="G136">
-        <v>131.1618</v>
+        <v>101.13</v>
       </c>
       <c r="H136">
-        <v>98.310217436089701</v>
+        <v>71.979714999999999</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43147</v>
+        <v>43154</v>
       </c>
       <c r="B137">
-        <v>251.82060000000001</v>
+        <v>121.7</v>
       </c>
       <c r="C137">
-        <v>219.8451</v>
+        <v>129.91</v>
       </c>
       <c r="D137">
-        <v>253.34</v>
+        <v>26.1843</v>
       </c>
       <c r="E137">
-        <v>2613.2800000000002</v>
+        <v>274.70999999999998</v>
       </c>
       <c r="F137">
-        <v>6618.96</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="G137">
-        <v>131.14859999999999</v>
+        <v>101.13</v>
       </c>
       <c r="H137">
-        <v>98.312920184701824</v>
+        <v>71.975019000000003</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43154</v>
+        <v>43161</v>
       </c>
       <c r="B138">
-        <v>251.88</v>
+        <v>121.985</v>
       </c>
       <c r="C138">
-        <v>219.9659</v>
+        <v>129.79</v>
       </c>
       <c r="D138">
-        <v>250.32</v>
+        <v>26.177499999999998</v>
       </c>
       <c r="E138">
-        <v>2659.95</v>
+        <v>269.08</v>
       </c>
       <c r="F138">
-        <v>6632.15</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G138">
-        <v>131.13910000000001</v>
+        <v>101.01</v>
       </c>
       <c r="H138">
-        <v>98.310210111442956</v>
+        <v>71.970322999999993</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43161</v>
+        <v>43168</v>
       </c>
       <c r="B139">
-        <v>252.7259</v>
+        <v>122.15</v>
       </c>
       <c r="C139">
-        <v>219.93879999999999</v>
+        <v>129.79499999999999</v>
       </c>
       <c r="D139">
-        <v>250.29</v>
+        <v>26.710999999999999</v>
       </c>
       <c r="E139">
-        <v>2607.5700000000002</v>
+        <v>278.87</v>
       </c>
       <c r="F139">
-        <v>6380.45</v>
+        <v>34.15</v>
       </c>
       <c r="G139">
-        <v>131.06379999999999</v>
+        <v>100.97</v>
       </c>
       <c r="H139">
-        <v>98.310210111442956</v>
+        <v>71.965626999999998</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43168</v>
+        <v>43175</v>
       </c>
       <c r="B140">
-        <v>253.02869999999999</v>
+        <v>122.755</v>
       </c>
       <c r="C140">
-        <v>219.93960000000001</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D140">
-        <v>254.55</v>
+        <v>26.8169</v>
       </c>
       <c r="E140">
-        <v>2694.28</v>
+        <v>274.2</v>
       </c>
       <c r="F140">
-        <v>6551.58</v>
+        <v>34.36</v>
       </c>
       <c r="G140">
-        <v>131.04349999999999</v>
+        <v>100.85</v>
       </c>
       <c r="H140">
-        <v>98.307507443911916</v>
+        <v>71.960772000000006</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43175</v>
+        <v>43182</v>
       </c>
       <c r="B141">
-        <v>254.16059999999999</v>
+        <v>123.375</v>
       </c>
       <c r="C141">
-        <v>219.88980000000001</v>
+        <v>129.43</v>
       </c>
       <c r="D141">
-        <v>255.44</v>
+        <v>26.477699999999999</v>
       </c>
       <c r="E141">
-        <v>2664.02</v>
+        <v>258.05</v>
       </c>
       <c r="F141">
-        <v>6555.93</v>
+        <v>32.914999999999999</v>
       </c>
       <c r="G141">
-        <v>130.97659999999999</v>
+        <v>100.74</v>
       </c>
       <c r="H141">
-        <v>98.310202826719362</v>
+        <v>71.955444</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43182</v>
+        <v>43189</v>
       </c>
       <c r="B142">
-        <v>255.48509999999999</v>
+        <v>123.88500000000001</v>
       </c>
       <c r="C142">
-        <v>219.6909</v>
+        <v>129.785</v>
       </c>
       <c r="D142">
-        <v>253.04</v>
+        <v>26.712299999999999</v>
       </c>
       <c r="E142">
-        <v>2468.85</v>
+        <v>263.14999999999998</v>
       </c>
       <c r="F142">
-        <v>6338.41</v>
+        <v>33.61</v>
       </c>
       <c r="G142">
-        <v>130.8887</v>
+        <v>100.71</v>
       </c>
       <c r="H142">
-        <v>98.310202826719362</v>
+        <v>71.950757999999993</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43189</v>
+        <v>43196</v>
       </c>
       <c r="B143">
-        <v>256.46699999999998</v>
+        <v>123.68</v>
       </c>
       <c r="C143">
-        <v>219.81309999999999</v>
+        <v>129.77500000000001</v>
       </c>
       <c r="D143">
-        <v>255.06</v>
+        <v>27.503799999999998</v>
       </c>
       <c r="E143">
-        <v>2531.38</v>
+        <v>259.72000000000003</v>
       </c>
       <c r="F143">
-        <v>6454.65</v>
+        <v>34.094999999999999</v>
       </c>
       <c r="G143">
-        <v>130.8817</v>
+        <v>100.76</v>
       </c>
       <c r="H143">
-        <v>98.304797410576185</v>
+        <v>71.944348000000005</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43196</v>
+        <v>43203</v>
       </c>
       <c r="B144">
-        <v>256.1669</v>
+        <v>123.56</v>
       </c>
       <c r="C144">
-        <v>219.8295</v>
+        <v>129.97499999999999</v>
       </c>
       <c r="D144">
-        <v>261.32</v>
+        <v>27.2165</v>
       </c>
       <c r="E144">
-        <v>2509.2399999999998</v>
+        <v>265.14999999999998</v>
       </c>
       <c r="F144">
-        <v>6563.82</v>
+        <v>34.53</v>
       </c>
       <c r="G144">
-        <v>130.88749999999999</v>
+        <v>100.79</v>
       </c>
       <c r="H144">
-        <v>98.304797410576185</v>
+        <v>71.938743000000002</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43203</v>
+        <v>43210</v>
       </c>
       <c r="B145">
-        <v>255.93010000000001</v>
+        <v>123.29</v>
       </c>
       <c r="C145">
-        <v>219.94049999999999</v>
+        <v>129.65</v>
       </c>
       <c r="D145">
-        <v>259.14999999999998</v>
+        <v>27.2178</v>
       </c>
       <c r="E145">
-        <v>2550.79</v>
+        <v>266.61</v>
       </c>
       <c r="F145">
-        <v>6635.27</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="G145">
-        <v>130.88939999999999</v>
+        <v>100.8</v>
       </c>
       <c r="H145">
-        <v>98.30748562825309</v>
+        <v>71.933138</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43210</v>
+        <v>43217</v>
       </c>
       <c r="B146">
-        <v>255.15119999999999</v>
+        <v>123.47</v>
       </c>
       <c r="C146">
-        <v>219.75800000000001</v>
+        <v>129.785</v>
       </c>
       <c r="D146">
-        <v>259.5</v>
+        <v>27.436800000000002</v>
       </c>
       <c r="E146">
-        <v>2563.44</v>
+        <v>266.56</v>
       </c>
       <c r="F146">
-        <v>6645.04</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="G146">
-        <v>130.8877</v>
+        <v>100.77</v>
       </c>
       <c r="H146">
-        <v>98.30479016458311</v>
+        <v>71.927532999999997</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43217</v>
+        <v>43224</v>
       </c>
       <c r="B147">
-        <v>255.6617</v>
+        <v>123.27</v>
       </c>
       <c r="C147">
-        <v>219.89</v>
+        <v>129.78</v>
       </c>
       <c r="D147">
-        <v>261.52</v>
+        <v>27.014099999999999</v>
       </c>
       <c r="E147">
-        <v>2603.27</v>
+        <v>266.02</v>
       </c>
       <c r="F147">
-        <v>6733.36</v>
+        <v>35.774999999999999</v>
       </c>
       <c r="G147">
-        <v>130.8861</v>
+        <v>100.8</v>
       </c>
       <c r="H147">
-        <v>98.30479016458311</v>
+        <v>71.921848999999995</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43224</v>
+        <v>43231</v>
       </c>
       <c r="B148">
-        <v>255.3937</v>
+        <v>123.17</v>
       </c>
       <c r="C148">
-        <v>219.92240000000001</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D148">
-        <v>258</v>
+        <v>27.186</v>
       </c>
       <c r="E148">
-        <v>2650.45</v>
+        <v>272.85000000000002</v>
       </c>
       <c r="F148">
-        <v>6785.31</v>
+        <v>36.11</v>
       </c>
       <c r="G148">
-        <v>130.87909999999999</v>
+        <v>100.75</v>
       </c>
       <c r="H148">
-        <v>98.30479016458311</v>
+        <v>71.915965</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43231</v>
+        <v>43238</v>
       </c>
       <c r="B149">
-        <v>254.99250000000001</v>
+        <v>122.17</v>
       </c>
       <c r="C149">
-        <v>219.92320000000001</v>
+        <v>129.35</v>
       </c>
       <c r="D149">
-        <v>259.55</v>
+        <v>26.1754</v>
       </c>
       <c r="E149">
-        <v>2718.36</v>
+        <v>271.33</v>
       </c>
       <c r="F149">
-        <v>6888.3</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="G149">
-        <v>130.87469999999999</v>
+        <v>100.69</v>
       </c>
       <c r="H149">
-        <v>98.307478382260015</v>
+        <v>71.910083</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43238</v>
+        <v>43245</v>
       </c>
       <c r="B150">
-        <v>252.90969999999999</v>
+        <v>122.235</v>
       </c>
       <c r="C150">
-        <v>219.7687</v>
+        <v>129.47</v>
       </c>
       <c r="D150">
-        <v>250.88</v>
+        <v>26.596699999999998</v>
       </c>
       <c r="E150">
-        <v>2730.41</v>
+        <v>272.14999999999998</v>
       </c>
       <c r="F150">
-        <v>6952.67</v>
+        <v>35.71</v>
       </c>
       <c r="G150">
-        <v>130.8235</v>
+        <v>100.48</v>
       </c>
       <c r="H150">
-        <v>98.307478382260015</v>
+        <v>71.904200000000003</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43245</v>
+        <v>43252</v>
       </c>
       <c r="B151">
-        <v>253.23699999999999</v>
+        <v>122.03</v>
       </c>
       <c r="C151">
-        <v>219.8991</v>
+        <v>129.35</v>
       </c>
       <c r="D151">
-        <v>254.48</v>
+        <v>26.388500000000001</v>
       </c>
       <c r="E151">
-        <v>2766.2</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="F151">
-        <v>6869.7</v>
+        <v>35.28</v>
       </c>
       <c r="G151">
-        <v>130.68620000000001</v>
+        <v>100.2</v>
       </c>
       <c r="H151">
-        <v>98.312869228737441</v>
+        <v>71.898319000000001</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43252</v>
+        <v>43259</v>
       </c>
       <c r="B152">
-        <v>252.63589999999999</v>
+        <v>120.72499999999999</v>
       </c>
       <c r="C152">
-        <v>219.56829999999999</v>
+        <v>128.97999999999999</v>
       </c>
       <c r="D152">
-        <v>252.16</v>
+        <v>25.979299999999999</v>
       </c>
       <c r="E152">
-        <v>2783.34</v>
+        <v>278.19</v>
       </c>
       <c r="F152">
-        <v>6810.92</v>
+        <v>35.225000000000001</v>
       </c>
       <c r="G152">
-        <v>130.49289999999999</v>
+        <v>100.21</v>
       </c>
       <c r="H152">
-        <v>98.307449163520531</v>
+        <v>71.892437999999999</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43259</v>
+        <v>43266</v>
       </c>
       <c r="B153">
-        <v>250.18879999999999</v>
+        <v>122.16500000000001</v>
       </c>
       <c r="C153">
-        <v>219.4135</v>
+        <v>129.51499999999999</v>
       </c>
       <c r="D153">
-        <v>248.78</v>
+        <v>26.352900000000002</v>
       </c>
       <c r="E153">
-        <v>2806.19</v>
+        <v>277.13</v>
       </c>
       <c r="F153">
-        <v>6755.75</v>
+        <v>35.534999999999997</v>
       </c>
       <c r="G153">
-        <v>130.4117</v>
+        <v>100.2</v>
       </c>
       <c r="H153">
-        <v>98.307449163520531</v>
+        <v>71.886317000000005</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43266</v>
+        <v>43273</v>
       </c>
       <c r="B154">
-        <v>253.3287</v>
+        <v>122.205</v>
       </c>
       <c r="C154">
-        <v>219.8219</v>
+        <v>129.78</v>
       </c>
       <c r="D154">
-        <v>252</v>
+        <v>27.052</v>
       </c>
       <c r="E154">
-        <v>2832.1</v>
+        <v>274.74</v>
       </c>
       <c r="F154">
-        <v>6827.33</v>
+        <v>34.9</v>
       </c>
       <c r="G154">
-        <v>130.4863</v>
+        <v>100.21</v>
       </c>
       <c r="H154">
-        <v>98.310144546327976</v>
+        <v>71.880018000000007</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43273</v>
+        <v>43280</v>
       </c>
       <c r="B155">
-        <v>253.07339999999999</v>
+        <v>122.72</v>
       </c>
       <c r="C155">
-        <v>220.0164</v>
+        <v>129.34</v>
       </c>
       <c r="D155">
-        <v>258.64999999999998</v>
+        <v>27.418500000000002</v>
       </c>
       <c r="E155">
-        <v>2800.45</v>
+        <v>271.27999999999997</v>
       </c>
       <c r="F155">
-        <v>6810.36</v>
+        <v>34.484999999999999</v>
       </c>
       <c r="G155">
-        <v>130.46019999999999</v>
+        <v>100.11</v>
       </c>
       <c r="H155">
-        <v>98.310144546327976</v>
+        <v>71.873720000000006</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43280</v>
+        <v>43287</v>
       </c>
       <c r="B156">
-        <v>254.28020000000001</v>
+        <v>122.76</v>
       </c>
       <c r="C156">
-        <v>219.64869999999999</v>
+        <v>129.6525</v>
       </c>
       <c r="D156">
-        <v>262.04000000000002</v>
+        <v>27.389900000000001</v>
       </c>
       <c r="E156">
-        <v>2763.25</v>
+        <v>275.42</v>
       </c>
       <c r="F156">
-        <v>6728.4</v>
+        <v>34.965000000000003</v>
       </c>
       <c r="G156">
-        <v>130.3783</v>
+        <v>100.15</v>
       </c>
       <c r="H156">
-        <v>98.310144546327976</v>
+        <v>71.868118999999993</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43287</v>
+        <v>43294</v>
       </c>
       <c r="B157">
-        <v>254.3604</v>
+        <v>122.73</v>
       </c>
       <c r="C157">
-        <v>219.8083</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="D157">
-        <v>261.89999999999998</v>
+        <v>27.635999999999999</v>
       </c>
       <c r="E157">
-        <v>2788.27</v>
+        <v>279.58999999999997</v>
       </c>
       <c r="F157">
-        <v>6793.82</v>
+        <v>35.034999999999997</v>
       </c>
       <c r="G157">
-        <v>130.4033</v>
+        <v>100.23</v>
       </c>
       <c r="H157">
-        <v>98.307441878796936</v>
+        <v>71.862520000000004</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43294</v>
+        <v>43301</v>
       </c>
       <c r="B158">
-        <v>254.96019999999999</v>
+        <v>122.36499999999999</v>
       </c>
       <c r="C158">
-        <v>220.00020000000001</v>
+        <v>128.91999999999999</v>
       </c>
       <c r="D158">
-        <v>264.27</v>
+        <v>27.561</v>
       </c>
       <c r="E158">
-        <v>2869.12</v>
+        <v>279.68</v>
       </c>
       <c r="F158">
-        <v>6831.01</v>
+        <v>35.104999999999997</v>
       </c>
       <c r="G158">
-        <v>130.44040000000001</v>
+        <v>100.26</v>
       </c>
       <c r="H158">
-        <v>98.312832725274362</v>
+        <v>71.856921</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43301</v>
+        <v>43308</v>
       </c>
       <c r="B159">
-        <v>254.38399999999999</v>
+        <v>122.06</v>
       </c>
       <c r="C159">
-        <v>219.85939999999999</v>
+        <v>129.29499999999999</v>
       </c>
       <c r="D159">
-        <v>263.56</v>
+        <v>27.6083</v>
       </c>
       <c r="E159">
-        <v>2868.29</v>
+        <v>281.42</v>
       </c>
       <c r="F159">
-        <v>6851.76</v>
+        <v>35.784999999999997</v>
       </c>
       <c r="G159">
-        <v>130.4657</v>
+        <v>100.34</v>
       </c>
       <c r="H159">
-        <v>98.312832725274362</v>
+        <v>71.851321999999996</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43308</v>
+        <v>43315</v>
       </c>
       <c r="B160">
-        <v>253.7354</v>
+        <v>121.56</v>
       </c>
       <c r="C160">
-        <v>220.04560000000001</v>
+        <v>129.27500000000001</v>
       </c>
       <c r="D160">
-        <v>264.2</v>
+        <v>26.973800000000001</v>
       </c>
       <c r="E160">
-        <v>2892.15</v>
+        <v>283.60000000000002</v>
       </c>
       <c r="F160">
-        <v>6993.32</v>
+        <v>35.35</v>
       </c>
       <c r="G160">
-        <v>130.53399999999999</v>
+        <v>100.37</v>
       </c>
       <c r="H160">
-        <v>98.312832725274362</v>
+        <v>71.845723000000007</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43315</v>
+        <v>43322</v>
       </c>
       <c r="B161">
-        <v>252.6771</v>
+        <v>121.80500000000001</v>
       </c>
       <c r="C161">
-        <v>220.10169999999999</v>
+        <v>129.59</v>
       </c>
       <c r="D161">
-        <v>258.82</v>
+        <v>26.7486</v>
       </c>
       <c r="E161">
-        <v>2949.65</v>
+        <v>283.16000000000003</v>
       </c>
       <c r="F161">
-        <v>6937.87</v>
+        <v>34.825000000000003</v>
       </c>
       <c r="G161">
-        <v>130.55840000000001</v>
+        <v>100.37</v>
       </c>
       <c r="H161">
-        <v>98.312832725274362</v>
+        <v>71.840125999999998</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43322</v>
+        <v>43329</v>
       </c>
       <c r="B162">
-        <v>253.39429999999999</v>
+        <v>121.54</v>
       </c>
       <c r="C162">
-        <v>220.4633</v>
+        <v>129.465</v>
       </c>
       <c r="D162">
-        <v>256.91000000000003</v>
+        <v>26.5167</v>
       </c>
       <c r="E162">
-        <v>2989.36</v>
+        <v>285.06</v>
       </c>
       <c r="F162">
-        <v>6874.75</v>
+        <v>34.244999999999997</v>
       </c>
       <c r="G162">
-        <v>130.55019999999999</v>
+        <v>100.33</v>
       </c>
       <c r="H162">
-        <v>98.312832725274362</v>
+        <v>71.834529000000003</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43329</v>
+        <v>43336</v>
       </c>
       <c r="B163">
-        <v>252.7953</v>
+        <v>121.565</v>
       </c>
       <c r="C163">
-        <v>220.44399999999999</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="D163">
-        <v>255.04</v>
+        <v>26.746600000000001</v>
       </c>
       <c r="E163">
-        <v>3016.29</v>
+        <v>287.51</v>
       </c>
       <c r="F163">
-        <v>6793.56</v>
+        <v>34.835000000000001</v>
       </c>
       <c r="G163">
-        <v>130.53380000000001</v>
+        <v>100.32</v>
       </c>
       <c r="H163">
-        <v>98.310122652015494</v>
+        <v>71.828931999999995</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43336</v>
+        <v>43343</v>
       </c>
       <c r="B164">
-        <v>252.68870000000001</v>
+        <v>121.265</v>
       </c>
       <c r="C164">
-        <v>220.11259999999999</v>
+        <v>128.88499999999999</v>
       </c>
       <c r="D164">
-        <v>257.05</v>
+        <v>26.340599999999998</v>
       </c>
       <c r="E164">
-        <v>2976.06</v>
+        <v>290.31</v>
       </c>
       <c r="F164">
-        <v>6814.46</v>
+        <v>34.445</v>
       </c>
       <c r="G164">
-        <v>130.52430000000001</v>
+        <v>100.23</v>
       </c>
       <c r="H164">
-        <v>98.312825400627617</v>
+        <v>71.823356000000004</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43343</v>
+        <v>43350</v>
       </c>
       <c r="B165">
-        <v>251.94880000000001</v>
+        <v>121.515</v>
       </c>
       <c r="C165">
-        <v>220.01349999999999</v>
+        <v>128.625</v>
       </c>
       <c r="D165">
-        <v>253.51</v>
+        <v>26.439499999999999</v>
       </c>
       <c r="E165">
-        <v>3015.21</v>
+        <v>287.60000000000002</v>
       </c>
       <c r="F165">
-        <v>6755.03</v>
+        <v>33.46</v>
       </c>
       <c r="G165">
-        <v>130.4873</v>
+        <v>100.24</v>
       </c>
       <c r="H165">
-        <v>98.312825400627617</v>
+        <v>71.817980000000006</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43350</v>
+        <v>43357</v>
       </c>
       <c r="B166">
-        <v>252.8167</v>
+        <v>121.39</v>
       </c>
       <c r="C166">
-        <v>219.71199999999999</v>
+        <v>128.76</v>
       </c>
       <c r="D166">
-        <v>254.53</v>
+        <v>26.9039</v>
       </c>
       <c r="E166">
-        <v>2987.93</v>
+        <v>290.88</v>
       </c>
       <c r="F166">
-        <v>6598.8</v>
+        <v>33.954999999999998</v>
       </c>
       <c r="G166">
-        <v>130.47800000000001</v>
+        <v>100.28</v>
       </c>
       <c r="H166">
-        <v>98.304695262151839</v>
+        <v>71.812803000000002</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43357</v>
+        <v>43364</v>
       </c>
       <c r="B167">
-        <v>252.44499999999999</v>
+        <v>121.625</v>
       </c>
       <c r="C167">
-        <v>219.7885</v>
+        <v>128.905</v>
       </c>
       <c r="D167">
-        <v>258.8</v>
+        <v>26.981300000000001</v>
       </c>
       <c r="E167">
-        <v>3001.04</v>
+        <v>291.99</v>
       </c>
       <c r="F167">
-        <v>6680.52</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="G167">
-        <v>130.50550000000001</v>
+        <v>100.25</v>
       </c>
       <c r="H167">
-        <v>98.307383479828744</v>
+        <v>71.807568000000003</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43364</v>
+        <v>43371</v>
       </c>
       <c r="B168">
-        <v>252.8768</v>
+        <v>121.035</v>
       </c>
       <c r="C168">
-        <v>219.94069999999999</v>
+        <v>128.655</v>
       </c>
       <c r="D168">
-        <v>259.56</v>
+        <v>26.935199999999998</v>
       </c>
       <c r="E168">
-        <v>3002.13</v>
+        <v>290.72000000000003</v>
       </c>
       <c r="F168">
-        <v>6812.65</v>
+        <v>34.01</v>
       </c>
       <c r="G168">
-        <v>130.51390000000001</v>
+        <v>100.3</v>
       </c>
       <c r="H168">
-        <v>98.307383479828744</v>
+        <v>71.802252999999993</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43371</v>
+        <v>43378</v>
       </c>
       <c r="B169">
-        <v>251.61590000000001</v>
+        <v>120.005</v>
       </c>
       <c r="C169">
-        <v>219.79239999999999</v>
+        <v>128.19999999999999</v>
       </c>
       <c r="D169">
-        <v>259.13</v>
+        <v>26.360700000000001</v>
       </c>
       <c r="E169">
-        <v>3038.96</v>
+        <v>287.82</v>
       </c>
       <c r="F169">
-        <v>6817.61</v>
+        <v>33.44</v>
       </c>
       <c r="G169">
-        <v>130.5111</v>
+        <v>100.24</v>
       </c>
       <c r="H169">
-        <v>98.307383479828744</v>
+        <v>71.796937999999997</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43378</v>
+        <v>43385</v>
       </c>
       <c r="B170">
-        <v>249.57679999999999</v>
+        <v>119.855</v>
       </c>
       <c r="C170">
-        <v>219.57220000000001</v>
+        <v>128.35</v>
       </c>
       <c r="D170">
-        <v>254.19</v>
+        <v>26.5685</v>
       </c>
       <c r="E170">
-        <v>3039.18</v>
+        <v>275.95</v>
       </c>
       <c r="F170">
-        <v>6734.9</v>
+        <v>31.97</v>
       </c>
       <c r="G170">
-        <v>130.48580000000001</v>
+        <v>100.14</v>
       </c>
       <c r="H170">
-        <v>98.307383479828744</v>
+        <v>71.791763000000003</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43385</v>
+        <v>43392</v>
       </c>
       <c r="B171">
-        <v>249.20820000000001</v>
+        <v>120.05</v>
       </c>
       <c r="C171">
-        <v>219.76439999999999</v>
+        <v>128.565</v>
       </c>
       <c r="D171">
-        <v>256.02999999999997</v>
+        <v>26.654</v>
       </c>
       <c r="E171">
-        <v>2915.49</v>
+        <v>276.25</v>
       </c>
       <c r="F171">
-        <v>6451.57</v>
+        <v>32.134999999999998</v>
       </c>
       <c r="G171">
-        <v>130.42840000000001</v>
+        <v>100.08</v>
       </c>
       <c r="H171">
-        <v>98.312774326306169</v>
+        <v>71.786637999999996</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43392</v>
+        <v>43399</v>
       </c>
       <c r="B172">
-        <v>249.58240000000001</v>
+        <v>120.855</v>
       </c>
       <c r="C172">
-        <v>219.8289</v>
+        <v>128.23500000000001</v>
       </c>
       <c r="D172">
-        <v>256.77</v>
+        <v>26.744399999999999</v>
       </c>
       <c r="E172">
-        <v>2936.57</v>
+        <v>265.33</v>
       </c>
       <c r="F172">
-        <v>6541.97</v>
+        <v>31.39</v>
       </c>
       <c r="G172">
-        <v>130.35130000000001</v>
+        <v>99.99</v>
       </c>
       <c r="H172">
-        <v>98.310064253047301</v>
+        <v>71.781474000000003</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43399</v>
+        <v>43406</v>
       </c>
       <c r="B173">
-        <v>251.44710000000001</v>
+        <v>120.99</v>
       </c>
       <c r="C173">
-        <v>219.833</v>
+        <v>128.36000000000001</v>
       </c>
       <c r="D173">
-        <v>257.92</v>
+        <v>26.715499999999999</v>
       </c>
       <c r="E173">
-        <v>2866.51</v>
+        <v>271.89</v>
       </c>
       <c r="F173">
-        <v>6399.08</v>
+        <v>32.164999999999999</v>
       </c>
       <c r="G173">
-        <v>130.27950000000001</v>
+        <v>99.95</v>
       </c>
       <c r="H173">
-        <v>98.312767001659424</v>
+        <v>71.776257000000001</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43406</v>
+        <v>43413</v>
       </c>
       <c r="B174">
-        <v>251.38509999999999</v>
+        <v>120.785</v>
       </c>
       <c r="C174">
-        <v>219.66540000000001</v>
+        <v>128.48500000000001</v>
       </c>
       <c r="D174">
-        <v>257.73</v>
+        <v>26.560300000000002</v>
       </c>
       <c r="E174">
-        <v>2909.46</v>
+        <v>277.76</v>
       </c>
       <c r="F174">
-        <v>6554.78</v>
+        <v>32.354999999999997</v>
       </c>
       <c r="G174">
-        <v>130.2833</v>
+        <v>100.038</v>
       </c>
       <c r="H174">
-        <v>98.315476993617466</v>
+        <v>71.771229000000005</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43413</v>
+        <v>43420</v>
       </c>
       <c r="B175">
-        <v>251.1362</v>
+        <v>120.495</v>
       </c>
       <c r="C175">
-        <v>219.7484</v>
+        <v>127.62</v>
       </c>
       <c r="D175">
-        <v>256.55</v>
+        <v>26.318100000000001</v>
       </c>
       <c r="E175">
-        <v>2978.71</v>
+        <v>273.73</v>
       </c>
       <c r="F175">
-        <v>6622.86</v>
+        <v>31.855</v>
       </c>
       <c r="G175">
-        <v>130.29759999999999</v>
+        <v>99.706999999999994</v>
       </c>
       <c r="H175">
-        <v>98.312759637646593</v>
+        <v>71.766202000000007</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43420</v>
+        <v>43427</v>
       </c>
       <c r="B176">
-        <v>250.79150000000001</v>
+        <v>120.96</v>
       </c>
       <c r="C176">
-        <v>219.20189999999999</v>
+        <v>127.435</v>
       </c>
       <c r="D176">
-        <v>254.58</v>
+        <v>26.335000000000001</v>
       </c>
       <c r="E176">
-        <v>2905.05</v>
+        <v>263.25</v>
       </c>
       <c r="F176">
-        <v>6494.88</v>
+        <v>31.41</v>
       </c>
       <c r="G176">
-        <v>130.0591</v>
+        <v>99.259</v>
       </c>
       <c r="H176">
-        <v>98.312759637646593</v>
+        <v>71.761365999999995</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="B177">
-        <v>251.60050000000001</v>
+        <v>121.61499999999999</v>
       </c>
       <c r="C177">
-        <v>218.84739999999999</v>
+        <v>127.495</v>
       </c>
       <c r="D177">
-        <v>254.78</v>
+        <v>26.849499999999999</v>
       </c>
       <c r="E177">
-        <v>2780.01</v>
+        <v>275.64999999999998</v>
       </c>
       <c r="F177">
-        <v>6446.26</v>
+        <v>31.78</v>
       </c>
       <c r="G177">
-        <v>129.7843</v>
+        <v>98.894000000000005</v>
       </c>
       <c r="H177">
-        <v>98.312759637646593</v>
+        <v>71.756748000000002</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43434</v>
+        <v>43441</v>
       </c>
       <c r="B178">
-        <v>252.97319999999999</v>
+        <v>122.095</v>
       </c>
       <c r="C178">
-        <v>218.68350000000001</v>
+        <v>127.24</v>
       </c>
       <c r="D178">
-        <v>259.39</v>
+        <v>26.898499999999999</v>
       </c>
       <c r="E178">
-        <v>2953.76</v>
+        <v>263.57</v>
       </c>
       <c r="F178">
-        <v>6542.96</v>
+        <v>30.66</v>
       </c>
       <c r="G178">
-        <v>129.5532</v>
+        <v>98.575999999999993</v>
       </c>
       <c r="H178">
-        <v>98.315469629604635</v>
+        <v>71.752301000000003</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="B179">
-        <v>253.82849999999999</v>
+        <v>122.395</v>
       </c>
       <c r="C179">
-        <v>218.42009999999999</v>
+        <v>127.785</v>
       </c>
       <c r="D179">
-        <v>259.79000000000002</v>
+        <v>26.985700000000001</v>
       </c>
       <c r="E179">
-        <v>2797.51</v>
+        <v>260.47000000000003</v>
       </c>
       <c r="F179">
-        <v>6308.84</v>
+        <v>31.004999999999999</v>
       </c>
       <c r="G179">
-        <v>129.33959999999999</v>
+        <v>98.811000000000007</v>
       </c>
       <c r="H179">
-        <v>98.315469629604635</v>
+        <v>71.747889000000001</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43448</v>
+        <v>43455</v>
       </c>
       <c r="B180">
-        <v>254.55930000000001</v>
+        <v>122.69</v>
       </c>
       <c r="C180">
-        <v>218.79509999999999</v>
+        <v>127.465</v>
       </c>
       <c r="D180">
-        <v>260.67</v>
+        <v>26.925999999999998</v>
       </c>
       <c r="E180">
-        <v>2789.53</v>
+        <v>240.7</v>
       </c>
       <c r="F180">
-        <v>6344.28</v>
+        <v>30.045000000000002</v>
       </c>
       <c r="G180">
-        <v>129.38339999999999</v>
+        <v>98.742999999999995</v>
       </c>
       <c r="H180">
-        <v>98.315469629604635</v>
+        <v>71.743388999999993</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43455</v>
+        <v>43462</v>
       </c>
       <c r="B181">
-        <v>255.16149999999999</v>
+        <v>122.765</v>
       </c>
       <c r="C181">
-        <v>218.73750000000001</v>
+        <v>127.72499999999999</v>
       </c>
       <c r="D181">
-        <v>260.37</v>
+        <v>26.9238</v>
       </c>
       <c r="E181">
-        <v>2560.16</v>
+        <v>247.75</v>
       </c>
       <c r="F181">
-        <v>6158.42</v>
+        <v>29.954999999999998</v>
       </c>
       <c r="G181">
-        <v>129.36150000000001</v>
+        <v>98.718000000000004</v>
       </c>
       <c r="H181">
-        <v>98.320904423068129</v>
+        <v>71.738821999999999</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43462</v>
+        <v>43469</v>
       </c>
       <c r="B182">
-        <v>255.27510000000001</v>
+        <v>122.285</v>
       </c>
       <c r="C182">
-        <v>218.8434</v>
+        <v>127.58</v>
       </c>
       <c r="D182">
-        <v>260.48</v>
+        <v>26.8813</v>
       </c>
       <c r="E182">
-        <v>2640.86</v>
+        <v>252.39</v>
       </c>
       <c r="F182">
-        <v>6150.25</v>
+        <v>30.47</v>
       </c>
       <c r="G182">
-        <v>129.3612</v>
+        <v>98.478999999999999</v>
       </c>
       <c r="H182">
-        <v>98.326368914916202</v>
+        <v>71.734326999999993</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43469</v>
+        <v>43476</v>
       </c>
       <c r="B183">
-        <v>254.8261</v>
+        <v>122.77</v>
       </c>
       <c r="C183">
-        <v>218.55</v>
+        <v>127.69</v>
       </c>
       <c r="D183">
-        <v>260.20999999999998</v>
+        <v>27.053599999999999</v>
       </c>
       <c r="E183">
-        <v>2696.85</v>
+        <v>258.98</v>
       </c>
       <c r="F183">
-        <v>6276.58</v>
+        <v>30.745000000000001</v>
       </c>
       <c r="G183">
-        <v>129.25659999999999</v>
+        <v>98.531000000000006</v>
       </c>
       <c r="H183">
-        <v>98.329116134749256</v>
+        <v>71.729771999999997</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43476</v>
+        <v>43483</v>
       </c>
       <c r="B184">
-        <v>255.31970000000001</v>
+        <v>122.71</v>
       </c>
       <c r="C184">
-        <v>218.52610000000001</v>
+        <v>127.535</v>
       </c>
       <c r="D184">
-        <v>261.8</v>
+        <v>27.2377</v>
       </c>
       <c r="E184">
-        <v>2737.32</v>
+        <v>266.45999999999998</v>
       </c>
       <c r="F184">
-        <v>6323.16</v>
+        <v>31.4</v>
       </c>
       <c r="G184">
-        <v>129.2353</v>
+        <v>98.745999999999995</v>
       </c>
       <c r="H184">
-        <v>98.323606479177769</v>
+        <v>71.725216000000003</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43483</v>
+        <v>43490</v>
       </c>
       <c r="B185">
-        <v>255.99010000000001</v>
+        <v>123.32</v>
       </c>
       <c r="C185">
-        <v>218.99870000000001</v>
+        <v>127.955</v>
       </c>
       <c r="D185">
-        <v>263.83</v>
+        <v>27.348400000000002</v>
       </c>
       <c r="E185">
-        <v>2843.72</v>
+        <v>265.77999999999997</v>
       </c>
       <c r="F185">
-        <v>6439.36</v>
+        <v>31.664999999999999</v>
       </c>
       <c r="G185">
-        <v>129.4238</v>
+        <v>99.1</v>
       </c>
       <c r="H185">
-        <v>98.315387325978293</v>
+        <v>71.720359999999999</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43490</v>
+        <v>43497</v>
       </c>
       <c r="B186">
-        <v>257.47500000000002</v>
+        <v>123.3</v>
       </c>
       <c r="C186">
-        <v>219.38140000000001</v>
+        <v>128.72999999999999</v>
       </c>
       <c r="D186">
-        <v>264.97000000000003</v>
+        <v>27.723400000000002</v>
       </c>
       <c r="E186">
-        <v>2819.45</v>
+        <v>270.06</v>
       </c>
       <c r="F186">
-        <v>6411.44</v>
+        <v>31.81</v>
       </c>
       <c r="G186">
-        <v>129.58770000000001</v>
+        <v>99.36</v>
       </c>
       <c r="H186">
-        <v>98.315387325978293</v>
+        <v>71.715444000000005</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43497</v>
+        <v>43504</v>
       </c>
       <c r="B187">
-        <v>257.37529999999998</v>
+        <v>123.045</v>
       </c>
       <c r="C187">
-        <v>219.93289999999999</v>
+        <v>129.035</v>
       </c>
       <c r="D187">
-        <v>268.32</v>
+        <v>27.742100000000001</v>
       </c>
       <c r="E187">
-        <v>2842.58</v>
+        <v>270.47000000000003</v>
       </c>
       <c r="F187">
-        <v>6499.1</v>
+        <v>31.48</v>
       </c>
       <c r="G187">
-        <v>129.75640000000001</v>
+        <v>99.406000000000006</v>
       </c>
       <c r="H187">
-        <v>98.31266997000742</v>
+        <v>71.710661999999999</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43504</v>
+        <v>43511</v>
       </c>
       <c r="B188">
-        <v>256.83789999999999</v>
+        <v>123.37</v>
       </c>
       <c r="C188">
-        <v>220.3252</v>
+        <v>129.34</v>
       </c>
       <c r="D188">
-        <v>268.55</v>
+        <v>27.986499999999999</v>
       </c>
       <c r="E188">
-        <v>2882.16</v>
+        <v>277.37</v>
       </c>
       <c r="F188">
-        <v>6515.04</v>
+        <v>32.520000000000003</v>
       </c>
       <c r="G188">
-        <v>129.8288</v>
+        <v>99.504000000000005</v>
       </c>
       <c r="H188">
-        <v>98.315379961965462</v>
+        <v>71.705798999999999</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43511</v>
+        <v>43518</v>
       </c>
       <c r="B189">
-        <v>257.3648</v>
+        <v>123.345</v>
       </c>
       <c r="C189">
-        <v>220.45230000000001</v>
+        <v>129.36500000000001</v>
       </c>
       <c r="D189">
-        <v>270.97000000000003</v>
+        <v>28.130199999999999</v>
       </c>
       <c r="E189">
-        <v>2962.84</v>
+        <v>279.14</v>
       </c>
       <c r="F189">
-        <v>6721.25</v>
+        <v>32.83</v>
       </c>
       <c r="G189">
-        <v>129.9085</v>
+        <v>99.629000000000005</v>
       </c>
       <c r="H189">
-        <v>98.315379961965462</v>
+        <v>71.700826000000006</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43518</v>
+        <v>43525</v>
       </c>
       <c r="B190">
-        <v>257.5822</v>
+        <v>123.11499999999999</v>
       </c>
       <c r="C190">
-        <v>220.65860000000001</v>
+        <v>129.53</v>
       </c>
       <c r="D190">
-        <v>272.37</v>
+        <v>28.4665</v>
       </c>
       <c r="E190">
-        <v>2970.5</v>
+        <v>280.42</v>
       </c>
       <c r="F190">
-        <v>6763.1</v>
+        <v>33.255000000000003</v>
       </c>
       <c r="G190">
-        <v>130.01429999999999</v>
+        <v>99.834000000000003</v>
       </c>
       <c r="H190">
-        <v>98.318097317936335</v>
+        <v>71.695876999999996</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43525</v>
+        <v>43532</v>
       </c>
       <c r="B191">
-        <v>256.92869999999999</v>
+        <v>124.4</v>
       </c>
       <c r="C191">
-        <v>220.76339999999999</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="D191">
-        <v>275.57</v>
+        <v>28.0732</v>
       </c>
       <c r="E191">
-        <v>2978.54</v>
+        <v>274.45999999999998</v>
       </c>
       <c r="F191">
-        <v>6807.91</v>
+        <v>32.965000000000003</v>
       </c>
       <c r="G191">
-        <v>130.1464</v>
+        <v>99.924000000000007</v>
       </c>
       <c r="H191">
-        <v>98.315372557822286</v>
+        <v>71.690957999999995</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="B192">
-        <v>259.65359999999998</v>
+        <v>124.3</v>
       </c>
       <c r="C192">
-        <v>220.96199999999999</v>
+        <v>130.405</v>
       </c>
       <c r="D192">
-        <v>272.26</v>
+        <v>28.614999999999998</v>
       </c>
       <c r="E192">
-        <v>2970.88</v>
+        <v>281.31</v>
       </c>
       <c r="F192">
-        <v>6807.61</v>
+        <v>33.835000000000001</v>
       </c>
       <c r="G192">
-        <v>130.15369999999999</v>
+        <v>100.06699999999999</v>
       </c>
       <c r="H192">
-        <v>98.318089913793159</v>
+        <v>71.686188000000001</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="B193">
-        <v>259.43579999999997</v>
+        <v>125.2</v>
       </c>
       <c r="C193">
-        <v>221.49619999999999</v>
+        <v>130.745</v>
       </c>
       <c r="D193">
-        <v>277.07</v>
+        <v>28.736799999999999</v>
       </c>
       <c r="E193">
-        <v>3040.41</v>
+        <v>279.25</v>
       </c>
       <c r="F193">
-        <v>6999.55</v>
+        <v>33.045000000000002</v>
       </c>
       <c r="G193">
-        <v>130.27000000000001</v>
+        <v>100.11199999999999</v>
       </c>
       <c r="H193">
-        <v>98.31536515367911</v>
+        <v>71.681700000000006</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43546</v>
+        <v>43553</v>
       </c>
       <c r="B194">
-        <v>261.59410000000003</v>
+        <v>125.435</v>
       </c>
       <c r="C194">
-        <v>221.85640000000001</v>
+        <v>131.315</v>
       </c>
       <c r="D194">
-        <v>278.14</v>
+        <v>28.7776</v>
       </c>
       <c r="E194">
-        <v>3038.82</v>
+        <v>282.48</v>
       </c>
       <c r="F194">
-        <v>6935.81</v>
+        <v>33.58</v>
       </c>
       <c r="G194">
-        <v>130.31370000000001</v>
+        <v>100.08199999999999</v>
       </c>
       <c r="H194">
-        <v>98.318082509649983</v>
+        <v>71.677276000000006</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>43553</v>
+        <v>43560</v>
       </c>
       <c r="B195">
-        <v>261.7876</v>
+        <v>125.01</v>
       </c>
       <c r="C195">
-        <v>222.2193</v>
+        <v>131.185</v>
       </c>
       <c r="D195">
-        <v>278.70999999999998</v>
+        <v>29.236699999999999</v>
       </c>
       <c r="E195">
-        <v>3081.26</v>
+        <v>288.57</v>
       </c>
       <c r="F195">
-        <v>7019.66</v>
+        <v>34.53</v>
       </c>
       <c r="G195">
-        <v>130.32650000000001</v>
+        <v>100.254</v>
       </c>
       <c r="H195">
-        <v>98.318082509649983</v>
+        <v>71.673101000000003</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>43560</v>
+        <v>43567</v>
       </c>
       <c r="B196">
-        <v>261.22539999999998</v>
+        <v>125.13500000000001</v>
       </c>
       <c r="C196">
-        <v>222.28710000000001</v>
+        <v>131.22999999999999</v>
       </c>
       <c r="D196">
-        <v>282.81</v>
+        <v>29.7499</v>
       </c>
       <c r="E196">
-        <v>3145.61</v>
+        <v>290.16000000000003</v>
       </c>
       <c r="F196">
-        <v>7153.74</v>
+        <v>34.57</v>
       </c>
       <c r="G196">
-        <v>130.405</v>
+        <v>100.283</v>
       </c>
       <c r="H196">
-        <v>98.318082509649983</v>
+        <v>71.669402000000005</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>43567</v>
+        <v>43574</v>
       </c>
       <c r="B197">
-        <v>261.1198</v>
+        <v>125.045</v>
       </c>
       <c r="C197">
-        <v>222.40629999999999</v>
+        <v>131.71</v>
       </c>
       <c r="D197">
-        <v>287.45999999999998</v>
+        <v>29.7577</v>
       </c>
       <c r="E197">
-        <v>3134.46</v>
+        <v>290.02</v>
       </c>
       <c r="F197">
-        <v>7116.35</v>
+        <v>35.08</v>
       </c>
       <c r="G197">
-        <v>130.48390000000001</v>
+        <v>100.468</v>
       </c>
       <c r="H197">
-        <v>98.318082509649983</v>
+        <v>71.666580999999994</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>43574</v>
+        <v>43581</v>
       </c>
       <c r="B198">
-        <v>261.1857</v>
+        <v>125.36499999999999</v>
       </c>
       <c r="C198">
-        <v>222.74010000000001</v>
+        <v>132.10499999999999</v>
       </c>
       <c r="D198">
-        <v>287.54000000000002</v>
+        <v>29.7882</v>
       </c>
       <c r="E198">
-        <v>3169.33</v>
+        <v>293.41000000000003</v>
       </c>
       <c r="F198">
-        <v>7158.32</v>
+        <v>35.15</v>
       </c>
       <c r="G198">
-        <v>130.5694</v>
+        <v>100.46299999999999</v>
       </c>
       <c r="H198">
-        <v>98.315357749535934</v>
+        <v>71.663070000000005</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>43581</v>
+        <v>43588</v>
       </c>
       <c r="B199">
-        <v>261.71809999999999</v>
+        <v>125.375</v>
       </c>
       <c r="C199">
-        <v>223.0608</v>
+        <v>132.11000000000001</v>
       </c>
       <c r="D199">
-        <v>287.99</v>
+        <v>29.687799999999999</v>
       </c>
       <c r="E199">
-        <v>3239.04</v>
+        <v>294.02999999999997</v>
       </c>
       <c r="F199">
-        <v>7208.61</v>
+        <v>35.344999999999999</v>
       </c>
       <c r="G199">
-        <v>130.6105</v>
+        <v>100.56699999999999</v>
       </c>
       <c r="H199">
-        <v>98.318075105506807</v>
+        <v>71.659647000000007</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>43588</v>
+        <v>43595</v>
       </c>
       <c r="B200">
-        <v>261.86200000000002</v>
+        <v>125.36</v>
       </c>
       <c r="C200">
-        <v>223.19450000000001</v>
+        <v>131.57499999999999</v>
       </c>
       <c r="D200">
-        <v>287.26</v>
+        <v>29.284300000000002</v>
       </c>
       <c r="E200">
-        <v>3240.72</v>
+        <v>288.10000000000002</v>
       </c>
       <c r="F200">
-        <v>7234.75</v>
+        <v>34.094999999999999</v>
       </c>
       <c r="G200">
-        <v>130.6549</v>
+        <v>100.473</v>
       </c>
       <c r="H200">
-        <v>98.323524707478754</v>
+        <v>71.656154999999998</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="B201">
-        <v>261.774</v>
+        <v>125.795</v>
       </c>
       <c r="C201">
-        <v>222.9237</v>
+        <v>131.875</v>
       </c>
       <c r="D201">
-        <v>283.69</v>
+        <v>29.5092</v>
       </c>
       <c r="E201">
-        <v>3143.29</v>
+        <v>285.83999999999997</v>
       </c>
       <c r="F201">
-        <v>6999.37</v>
+        <v>34.78</v>
       </c>
       <c r="G201">
-        <v>130.57679999999999</v>
+        <v>100.372</v>
       </c>
       <c r="H201">
-        <v>98.318045244615178</v>
+        <v>71.652698999999998</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="B202">
-        <v>262.87990000000002</v>
+        <v>126.04</v>
       </c>
       <c r="C202">
-        <v>222.923</v>
+        <v>131.44999999999999</v>
       </c>
       <c r="D202">
-        <v>286.02</v>
+        <v>29.6065</v>
       </c>
       <c r="E202">
-        <v>3150.02</v>
+        <v>282.77999999999997</v>
       </c>
       <c r="F202">
-        <v>7146.3</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="G202">
-        <v>130.54</v>
+        <v>100.30500000000001</v>
       </c>
       <c r="H202">
-        <v>98.315320484501129</v>
+        <v>71.649501000000001</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B203">
-        <v>263.40440000000001</v>
+        <v>126.745</v>
       </c>
       <c r="C203">
-        <v>222.56270000000001</v>
+        <v>131.72</v>
       </c>
       <c r="D203">
-        <v>286.89</v>
+        <v>30.8551</v>
       </c>
       <c r="E203">
-        <v>3102.34</v>
+        <v>275.27</v>
       </c>
       <c r="F203">
-        <v>7077.07</v>
+        <v>33.545000000000002</v>
       </c>
       <c r="G203">
-        <v>130.4958</v>
+        <v>100.223</v>
       </c>
       <c r="H203">
-        <v>98.304450897574142</v>
+        <v>71.646394000000001</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="B204">
-        <v>264.5505</v>
+        <v>128.32</v>
       </c>
       <c r="C204">
-        <v>222.70429999999999</v>
+        <v>132.60499999999999</v>
       </c>
       <c r="D204">
-        <v>298.11</v>
+        <v>31.1999</v>
       </c>
       <c r="E204">
-        <v>3030.54</v>
+        <v>287.64999999999998</v>
       </c>
       <c r="F204">
-        <v>6947.86</v>
+        <v>34.534999999999997</v>
       </c>
       <c r="G204">
-        <v>130.4854</v>
+        <v>100.30500000000001</v>
       </c>
       <c r="H204">
-        <v>98.288321914093387</v>
+        <v>71.643494000000004</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="B205">
-        <v>267.85739999999998</v>
+        <v>128.35</v>
       </c>
       <c r="C205">
-        <v>223.1165</v>
+        <v>132.745</v>
       </c>
       <c r="D205">
-        <v>301.43</v>
+        <v>31.6478</v>
       </c>
       <c r="E205">
-        <v>3108.38</v>
+        <v>289.26</v>
       </c>
       <c r="F205">
-        <v>7124.9</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="G205">
-        <v>130.5402</v>
+        <v>100.32</v>
       </c>
       <c r="H205">
-        <v>98.280385350412359</v>
+        <v>71.640570999999994</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>43630</v>
+        <v>43637</v>
       </c>
       <c r="B206">
-        <v>268.03309999999999</v>
+        <v>129.01499999999999</v>
       </c>
       <c r="C206">
-        <v>223.37299999999999</v>
+        <v>133.95500000000001</v>
       </c>
       <c r="D206">
-        <v>305.44</v>
+        <v>31.958600000000001</v>
       </c>
       <c r="E206">
-        <v>3160.7</v>
+        <v>294</v>
       </c>
       <c r="F206">
-        <v>7150.78</v>
+        <v>35.215000000000003</v>
       </c>
       <c r="G206">
-        <v>130.56319999999999</v>
+        <v>100.381</v>
       </c>
       <c r="H206">
-        <v>98.288259421030503</v>
+        <v>71.637710999999996</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>43637</v>
+        <v>43644</v>
       </c>
       <c r="B207">
-        <v>269.40949999999998</v>
+        <v>129.60499999999999</v>
       </c>
       <c r="C207">
-        <v>224.13390000000001</v>
+        <v>134.035</v>
       </c>
       <c r="D207">
-        <v>308.14</v>
+        <v>32.328099999999999</v>
       </c>
       <c r="E207">
-        <v>3211.45</v>
+        <v>293</v>
       </c>
       <c r="F207">
-        <v>7265.27</v>
+        <v>35.31</v>
       </c>
       <c r="G207">
-        <v>130.62950000000001</v>
+        <v>100.449</v>
       </c>
       <c r="H207">
-        <v>98.235349337760155</v>
+        <v>71.635031999999995</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="B208">
-        <v>270.6259</v>
+        <v>130.61500000000001</v>
       </c>
       <c r="C208">
-        <v>224.34200000000001</v>
+        <v>134.66999999999999</v>
       </c>
       <c r="D208">
-        <v>311.72000000000003</v>
+        <v>33.164299999999997</v>
       </c>
       <c r="E208">
-        <v>3173.15</v>
+        <v>298.45999999999998</v>
       </c>
       <c r="F208">
-        <v>7266.99</v>
+        <v>35.9</v>
       </c>
       <c r="G208">
-        <v>130.65119999999999</v>
+        <v>100.542</v>
       </c>
       <c r="H208">
-        <v>98.26047494316154</v>
+        <v>71.632818</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="B209">
-        <v>272.85809999999998</v>
+        <v>128.89500000000001</v>
       </c>
       <c r="C209">
-        <v>224.74520000000001</v>
+        <v>133.495</v>
       </c>
       <c r="D209">
-        <v>318.61</v>
+        <v>32.556199999999997</v>
       </c>
       <c r="E209">
-        <v>3279.74</v>
+        <v>300.64999999999998</v>
       </c>
       <c r="F209">
-        <v>7365.48</v>
+        <v>35.564999999999998</v>
       </c>
       <c r="G209">
-        <v>130.70910000000001</v>
+        <v>100.54900000000001</v>
       </c>
       <c r="H209">
-        <v>98.245011069888605</v>
+        <v>71.630330000000001</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="B210">
-        <v>270.29509999999999</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="C210">
-        <v>224.57040000000001</v>
+        <v>134.14500000000001</v>
       </c>
       <c r="D210">
-        <v>313.41000000000003</v>
+        <v>33.184699999999999</v>
       </c>
       <c r="E210">
-        <v>3303.49</v>
+        <v>297.17</v>
       </c>
       <c r="F210">
-        <v>7272.68</v>
+        <v>35.375</v>
       </c>
       <c r="G210">
-        <v>130.7355</v>
+        <v>100.592</v>
       </c>
       <c r="H210">
-        <v>98.247549107998324</v>
+        <v>71.627837999999997</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="B211">
-        <v>272.9966</v>
+        <v>130.66999999999999</v>
       </c>
       <c r="C211">
-        <v>224.99629999999999</v>
+        <v>135.04</v>
       </c>
       <c r="D211">
-        <v>318.20999999999998</v>
+        <v>33.457000000000001</v>
       </c>
       <c r="E211">
-        <v>3270.19</v>
+        <v>302.01</v>
       </c>
       <c r="F211">
-        <v>7284.57</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="G211">
-        <v>130.77010000000001</v>
+        <v>100.705</v>
       </c>
       <c r="H211">
-        <v>98.222103841275981</v>
+        <v>71.625482000000005</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>43672</v>
+        <v>43679</v>
       </c>
       <c r="B212">
-        <v>273.81450000000001</v>
+        <v>131.92500000000001</v>
       </c>
       <c r="C212">
-        <v>225.4153</v>
+        <v>134.72499999999999</v>
       </c>
       <c r="D212">
-        <v>320.51</v>
+        <v>33.398200000000003</v>
       </c>
       <c r="E212">
-        <v>3353.46</v>
+        <v>292.62</v>
       </c>
       <c r="F212">
-        <v>7344.61</v>
+        <v>34.354999999999997</v>
       </c>
       <c r="G212">
-        <v>130.84440000000001</v>
+        <v>100.631</v>
       </c>
       <c r="H212">
-        <v>98.241954923309606</v>
+        <v>71.622946999999996</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="B213">
-        <v>276.31569999999999</v>
+        <v>131.815</v>
       </c>
       <c r="C213">
-        <v>225.3777</v>
+        <v>135.26499999999999</v>
       </c>
       <c r="D213">
-        <v>320.04000000000002</v>
+        <v>33.1629</v>
       </c>
       <c r="E213">
-        <v>3251.15</v>
+        <v>291.62</v>
       </c>
       <c r="F213">
-        <v>7115.79</v>
+        <v>33.92</v>
       </c>
       <c r="G213">
-        <v>130.83000000000001</v>
+        <v>100.592</v>
       </c>
       <c r="H213">
-        <v>98.249549912971517</v>
+        <v>71.620621999999997</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>43686</v>
+        <v>43693</v>
       </c>
       <c r="B214">
-        <v>276.17950000000002</v>
+        <v>133.82</v>
       </c>
       <c r="C214">
-        <v>225.72800000000001</v>
+        <v>135.55500000000001</v>
       </c>
       <c r="D214">
-        <v>318.27</v>
+        <v>33.628700000000002</v>
       </c>
       <c r="E214">
-        <v>3196.53</v>
+        <v>288.85000000000002</v>
       </c>
       <c r="F214">
-        <v>7014.06</v>
+        <v>33.914999999999999</v>
       </c>
       <c r="G214">
-        <v>130.82050000000001</v>
+        <v>100.551</v>
       </c>
       <c r="H214">
-        <v>98.221488669908723</v>
+        <v>71.617838000000006</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="B215">
-        <v>280.35399999999998</v>
+        <v>133.465</v>
       </c>
       <c r="C215">
-        <v>225.87899999999999</v>
+        <v>135.69499999999999</v>
       </c>
       <c r="D215">
-        <v>322.05</v>
+        <v>33.6646</v>
       </c>
       <c r="E215">
-        <v>3199.25</v>
+        <v>284.85000000000002</v>
       </c>
       <c r="F215">
-        <v>7028.09</v>
+        <v>33.954999999999998</v>
       </c>
       <c r="G215">
-        <v>130.81909999999999</v>
+        <v>100.62</v>
       </c>
       <c r="H215">
-        <v>98.17186085068073</v>
+        <v>71.614866000000006</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="B216">
-        <v>279.67790000000002</v>
+        <v>134.54499999999999</v>
       </c>
       <c r="C216">
-        <v>226.04740000000001</v>
+        <v>135.78</v>
       </c>
       <c r="D216">
-        <v>322.27999999999997</v>
+        <v>34.863199999999999</v>
       </c>
       <c r="E216">
-        <v>3148.45</v>
+        <v>292.45</v>
       </c>
       <c r="F216">
-        <v>7043.18</v>
+        <v>34.914999999999999</v>
       </c>
       <c r="G216">
-        <v>130.846</v>
+        <v>100.59</v>
       </c>
       <c r="H216">
-        <v>98.195501559453476</v>
+        <v>71.610913999999994</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="B217">
-        <v>281.99579999999997</v>
+        <v>134.09</v>
       </c>
       <c r="C217">
-        <v>226.1437</v>
+        <v>135.22999999999999</v>
       </c>
       <c r="D217">
-        <v>331.69</v>
+        <v>35.010599999999997</v>
       </c>
       <c r="E217">
-        <v>3262.76</v>
+        <v>298.05</v>
       </c>
       <c r="F217">
-        <v>7198.19</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="G217">
-        <v>130.8777</v>
+        <v>100.581</v>
       </c>
       <c r="H217">
-        <v>98.161603258226407</v>
+        <v>71.606808999999998</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="B218">
-        <v>281.04660000000001</v>
+        <v>132.58500000000001</v>
       </c>
       <c r="C218">
-        <v>225.6754</v>
+        <v>134.60499999999999</v>
       </c>
       <c r="D218">
-        <v>332.93</v>
+        <v>35.073099999999997</v>
       </c>
       <c r="E218">
-        <v>3310.15</v>
+        <v>301.08999999999997</v>
       </c>
       <c r="F218">
-        <v>7324.52</v>
+        <v>36.174999999999997</v>
       </c>
       <c r="G218">
-        <v>130.87360000000001</v>
+        <v>100.625</v>
       </c>
       <c r="H218">
-        <v>98.103055232887598</v>
+        <v>71.601938000000004</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="B219">
-        <v>277.70670000000001</v>
+        <v>133.13499999999999</v>
       </c>
       <c r="C219">
-        <v>224.90379999999999</v>
+        <v>134.37</v>
       </c>
       <c r="D219">
-        <v>333.58</v>
+        <v>35.881399999999999</v>
       </c>
       <c r="E219">
-        <v>3337.74</v>
+        <v>298.27999999999997</v>
       </c>
       <c r="F219">
-        <v>7367.19</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="G219">
-        <v>130.84780000000001</v>
+        <v>100.517</v>
       </c>
       <c r="H219">
-        <v>98.13402868033846</v>
+        <v>71.596127999999993</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="B220">
-        <v>279.06920000000002</v>
+        <v>134.04</v>
       </c>
       <c r="C220">
-        <v>224.7902</v>
+        <v>134.63999999999999</v>
       </c>
       <c r="D220">
-        <v>339.92</v>
+        <v>35.830199999999998</v>
       </c>
       <c r="E220">
-        <v>3335.04</v>
+        <v>295.39999999999998</v>
       </c>
       <c r="F220">
-        <v>7433.82</v>
+        <v>35.564999999999998</v>
       </c>
       <c r="G220">
-        <v>130.86330000000001</v>
+        <v>100.532</v>
       </c>
       <c r="H220">
-        <v>98.097498994906545</v>
+        <v>71.590815000000006</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="B221">
-        <v>280.85610000000003</v>
+        <v>133.94</v>
       </c>
       <c r="C221">
-        <v>225.041</v>
+        <v>134.75</v>
       </c>
       <c r="D221">
-        <v>339.59</v>
+        <v>35.626199999999997</v>
       </c>
       <c r="E221">
-        <v>3318.18</v>
+        <v>294.35000000000002</v>
       </c>
       <c r="F221">
-        <v>7446.58</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="G221">
-        <v>130.86510000000001</v>
+        <v>100.526</v>
       </c>
       <c r="H221">
-        <v>98.079877814134548</v>
+        <v>71.585594999999998</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="B222">
-        <v>280.75020000000001</v>
+        <v>132.55000000000001</v>
       </c>
       <c r="C222">
-        <v>225.17009999999999</v>
+        <v>134.38499999999999</v>
       </c>
       <c r="D222">
-        <v>338.28</v>
+        <v>35.379300000000001</v>
       </c>
       <c r="E222">
-        <v>3319.4</v>
+        <v>296.27999999999997</v>
       </c>
       <c r="F222">
-        <v>7224.62</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="G222">
-        <v>130.8578</v>
+        <v>100.462</v>
       </c>
       <c r="H222">
-        <v>98.053903799657689</v>
+        <v>71.580543000000006</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="B223">
-        <v>278.14879999999999</v>
+        <v>132.26499999999999</v>
       </c>
       <c r="C223">
-        <v>224.87459999999999</v>
+        <v>134.21</v>
       </c>
       <c r="D223">
-        <v>336.47</v>
+        <v>35.718800000000002</v>
       </c>
       <c r="E223">
-        <v>3327.04</v>
+        <v>297.97000000000003</v>
       </c>
       <c r="F223">
-        <v>7424.3</v>
+        <v>35.909999999999997</v>
       </c>
       <c r="G223">
-        <v>130.85230000000001</v>
+        <v>100.551</v>
       </c>
       <c r="H223">
-        <v>98.056013540132867</v>
+        <v>71.574948000000006</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B224">
-        <v>277.42610000000002</v>
+        <v>132.26499999999999</v>
       </c>
       <c r="C224">
-        <v>224.73580000000001</v>
+        <v>134.47</v>
       </c>
       <c r="D224">
-        <v>339.32</v>
+        <v>36.165300000000002</v>
       </c>
       <c r="E224">
-        <v>3301.14</v>
+        <v>301.60000000000002</v>
       </c>
       <c r="F224">
-        <v>7394.66</v>
+        <v>36.375</v>
       </c>
       <c r="G224">
-        <v>130.8535</v>
+        <v>100.58199999999999</v>
       </c>
       <c r="H224">
-        <v>98.130009304910786</v>
+        <v>71.569357999999994</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="B225">
-        <v>277.15010000000001</v>
+        <v>132.04</v>
       </c>
       <c r="C225">
-        <v>224.89089999999999</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="D225">
-        <v>343</v>
+        <v>36.305399999999999</v>
       </c>
       <c r="E225">
-        <v>3363.29</v>
+        <v>306.14</v>
       </c>
       <c r="F225">
-        <v>7553.38</v>
+        <v>36.405000000000001</v>
       </c>
       <c r="G225">
-        <v>130.87549999999999</v>
+        <v>100.563</v>
       </c>
       <c r="H225">
-        <v>98.088913400238241</v>
+        <v>71.564513000000005</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="B226">
-        <v>276.87720000000002</v>
+        <v>131.19</v>
       </c>
       <c r="C226">
-        <v>224.96600000000001</v>
+        <v>134.09</v>
       </c>
       <c r="D226">
-        <v>343.88</v>
+        <v>35.742199999999997</v>
       </c>
       <c r="E226">
-        <v>3396.54</v>
+        <v>308.94</v>
       </c>
       <c r="F226">
-        <v>7554.54</v>
+        <v>37.185000000000002</v>
       </c>
       <c r="G226">
-        <v>130.869</v>
+        <v>100.58499999999999</v>
       </c>
       <c r="H226">
-        <v>98.117422196290875</v>
+        <v>71.55762</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="B227">
-        <v>274.40050000000002</v>
+        <v>131.035</v>
       </c>
       <c r="C227">
-        <v>224.71459999999999</v>
+        <v>134.07</v>
       </c>
       <c r="D227">
-        <v>339.88</v>
+        <v>35.306600000000003</v>
       </c>
       <c r="E227">
-        <v>3476.61</v>
+        <v>311.79000000000002</v>
       </c>
       <c r="F227">
-        <v>7681.76</v>
+        <v>37.28</v>
       </c>
       <c r="G227">
-        <v>130.8734</v>
+        <v>100.557</v>
       </c>
       <c r="H227">
-        <v>98.07227544347684</v>
+        <v>71.551754000000003</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="B228">
-        <v>274.87909999999999</v>
+        <v>131.375</v>
       </c>
       <c r="C228">
-        <v>224.77590000000001</v>
+        <v>133.97999999999999</v>
       </c>
       <c r="D228">
-        <v>336.64</v>
+        <v>35.4587</v>
       </c>
       <c r="E228">
-        <v>3496.19</v>
+        <v>310.95999999999998</v>
       </c>
       <c r="F228">
-        <v>7686.65</v>
+        <v>37.045000000000002</v>
       </c>
       <c r="G228">
-        <v>130.86519999999999</v>
+        <v>100.502</v>
       </c>
       <c r="H228">
-        <v>98.100353223174466</v>
+        <v>71.545930999999996</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="B229">
-        <v>275.42349999999999</v>
+        <v>131.29499999999999</v>
       </c>
       <c r="C229">
-        <v>224.58590000000001</v>
+        <v>134.27500000000001</v>
       </c>
       <c r="D229">
-        <v>338.2</v>
+        <v>35.359299999999998</v>
       </c>
       <c r="E229">
-        <v>3496.1</v>
+        <v>314.31</v>
       </c>
       <c r="F229">
-        <v>7652.77</v>
+        <v>37.21</v>
       </c>
       <c r="G229">
-        <v>130.8433</v>
+        <v>100.506</v>
       </c>
       <c r="H229">
-        <v>98.111464323470756</v>
+        <v>71.539766</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="B230">
-        <v>275.2439</v>
+        <v>130.41</v>
       </c>
       <c r="C230">
-        <v>224.7285</v>
+        <v>134.21</v>
       </c>
       <c r="D230">
-        <v>337.24</v>
+        <v>35.167299999999997</v>
       </c>
       <c r="E230">
-        <v>3540.12</v>
+        <v>314.87</v>
       </c>
       <c r="F230">
-        <v>7708.5</v>
+        <v>37.14</v>
       </c>
       <c r="G230">
-        <v>130.8518</v>
+        <v>100.52800000000001</v>
       </c>
       <c r="H230">
-        <v>98.129441822629957</v>
+        <v>71.533507</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="B231">
-        <v>273.60739999999998</v>
+        <v>131.17500000000001</v>
       </c>
       <c r="C231">
-        <v>224.7637</v>
+        <v>134.58000000000001</v>
       </c>
       <c r="D231">
-        <v>335.82</v>
+        <v>35.687800000000003</v>
       </c>
       <c r="E231">
-        <v>3536.5</v>
+        <v>317.32</v>
       </c>
       <c r="F231">
-        <v>7688.25</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="G231">
-        <v>130.84950000000001</v>
+        <v>100.524</v>
       </c>
       <c r="H231">
-        <v>98.085963576087323</v>
+        <v>71.527299999999997</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="B232">
-        <v>274.75900000000001</v>
+        <v>130.535</v>
       </c>
       <c r="C232">
-        <v>225.06620000000001</v>
+        <v>134.57</v>
       </c>
       <c r="D232">
-        <v>339.98</v>
+        <v>35.575899999999997</v>
       </c>
       <c r="E232">
-        <v>3537.09</v>
+        <v>320.73</v>
       </c>
       <c r="F232">
-        <v>7754.61</v>
+        <v>37.865000000000002</v>
       </c>
       <c r="G232">
-        <v>130.88890000000001</v>
+        <v>100.63500000000001</v>
       </c>
       <c r="H232">
-        <v>98.061840751525921</v>
+        <v>71.521100000000004</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="B233">
-        <v>273.61009999999999</v>
+        <v>130.67500000000001</v>
       </c>
       <c r="C233">
-        <v>225.13239999999999</v>
+        <v>134.65</v>
       </c>
       <c r="D233">
-        <v>339.27</v>
+        <v>35.561</v>
       </c>
       <c r="E233">
-        <v>3613.06</v>
+        <v>322.86</v>
       </c>
       <c r="F233">
-        <v>7910.74</v>
+        <v>38</v>
       </c>
       <c r="G233">
-        <v>130.89060000000001</v>
+        <v>100.7</v>
       </c>
       <c r="H233">
-        <v>98.10038466307121</v>
+        <v>71.515199999999993</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="B234">
-        <v>273.87709999999998</v>
+        <v>130.91999999999999</v>
       </c>
       <c r="C234">
-        <v>225.10900000000001</v>
+        <v>134.66</v>
       </c>
       <c r="D234">
-        <v>339.4</v>
+        <v>35.551600000000001</v>
       </c>
       <c r="E234">
-        <v>3622.88</v>
+        <v>322.41000000000003</v>
       </c>
       <c r="F234">
-        <v>7922.15</v>
+        <v>37.840000000000003</v>
       </c>
       <c r="G234">
-        <v>130.88839999999999</v>
+        <v>100.63</v>
       </c>
       <c r="H234">
-        <v>98.111520509371573</v>
+        <v>71.509399999999999</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="B235">
-        <v>274.37939999999998</v>
+        <v>130.41499999999999</v>
       </c>
       <c r="C235">
-        <v>225.2302</v>
+        <v>134.28</v>
       </c>
       <c r="D235">
-        <v>339.44</v>
+        <v>35.684699999999999</v>
       </c>
       <c r="E235">
-        <v>3620.8</v>
+        <v>325.70999999999998</v>
       </c>
       <c r="F235">
-        <v>7906.94</v>
+        <v>38.045000000000002</v>
       </c>
       <c r="G235">
-        <v>130.89420000000001</v>
+        <v>100.63</v>
       </c>
       <c r="H235">
-        <v>98.113772799881673</v>
+        <v>71.504000000000005</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="B236">
-        <v>273.61630000000002</v>
+        <v>130.03</v>
       </c>
       <c r="C236">
-        <v>224.9716</v>
+        <v>133.88999999999999</v>
       </c>
       <c r="D236">
-        <v>340.48</v>
+        <v>35.5274</v>
       </c>
       <c r="E236">
-        <v>3681.77</v>
+        <v>331.95</v>
       </c>
       <c r="F236">
-        <v>7921.99</v>
+        <v>38.215000000000003</v>
       </c>
       <c r="G236">
-        <v>130.91220000000001</v>
+        <v>100.63</v>
       </c>
       <c r="H236">
-        <v>98.068626047067639</v>
+        <v>71.498199999999997</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>43847</v>
+        <v>43854</v>
       </c>
       <c r="B237">
-        <v>273.30520000000001</v>
+        <v>131.52000000000001</v>
       </c>
       <c r="C237">
-        <v>225.125</v>
+        <v>134.51</v>
       </c>
       <c r="D237">
-        <v>339.37</v>
+        <v>35.936500000000002</v>
       </c>
       <c r="E237">
-        <v>3758.81</v>
+        <v>328.77</v>
       </c>
       <c r="F237">
-        <v>8022.44</v>
+        <v>37.954999999999998</v>
       </c>
       <c r="G237">
-        <v>130.95259999999999</v>
+        <v>100.61199999999999</v>
       </c>
       <c r="H237">
-        <v>98.070785848363542</v>
+        <v>71.492099999999994</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>43854</v>
+        <v>43861</v>
       </c>
       <c r="B238">
-        <v>275.80990000000003</v>
+        <v>132.88</v>
       </c>
       <c r="C238">
-        <v>225.53710000000001</v>
+        <v>134.88999999999999</v>
       </c>
       <c r="D238">
-        <v>342.51</v>
+        <v>36.5822</v>
       </c>
       <c r="E238">
-        <v>3753.6</v>
+        <v>321.73</v>
       </c>
       <c r="F238">
-        <v>7997.96</v>
+        <v>36.585000000000001</v>
       </c>
       <c r="G238">
-        <v>130.9812</v>
+        <v>100.634</v>
       </c>
       <c r="H238">
-        <v>98.094595386706146</v>
+        <v>71.4863</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>43861</v>
+        <v>43868</v>
       </c>
       <c r="B239">
-        <v>279.32530000000003</v>
+        <v>132.25</v>
       </c>
       <c r="C239">
-        <v>225.87350000000001</v>
+        <v>134.82499999999999</v>
       </c>
       <c r="D239">
-        <v>346.67</v>
+        <v>37.088299999999997</v>
       </c>
       <c r="E239">
-        <v>3675.54</v>
+        <v>332.2</v>
       </c>
       <c r="F239">
-        <v>7756.31</v>
+        <v>38.17</v>
       </c>
       <c r="G239">
-        <v>130.99420000000001</v>
+        <v>100.61199999999999</v>
       </c>
       <c r="H239">
-        <v>98.087943522034877</v>
+        <v>71.480900000000005</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B240">
-        <v>278.26429999999999</v>
+        <v>132.66</v>
       </c>
       <c r="C240">
-        <v>225.7929</v>
+        <v>135</v>
       </c>
       <c r="D240">
-        <v>350.32</v>
+        <v>37.560099999999998</v>
       </c>
       <c r="E240">
-        <v>3850.5</v>
+        <v>337.6</v>
       </c>
       <c r="F240">
-        <v>8038.92</v>
+        <v>38.625</v>
       </c>
       <c r="G240">
-        <v>131.02529999999999</v>
+        <v>100.61199999999999</v>
       </c>
       <c r="H240">
-        <v>98.079132931648886</v>
+        <v>71.475399999999993</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="B241">
-        <v>278.98250000000002</v>
+        <v>133.26499999999999</v>
       </c>
       <c r="C241">
-        <v>225.96289999999999</v>
+        <v>135.155</v>
       </c>
       <c r="D241">
-        <v>353.8</v>
+        <v>37.521599999999999</v>
       </c>
       <c r="E241">
-        <v>3941.79</v>
+        <v>333.48</v>
       </c>
       <c r="F241">
-        <v>8102.33</v>
+        <v>38.204999999999998</v>
       </c>
       <c r="G241">
-        <v>131.0641</v>
+        <v>100.631</v>
       </c>
       <c r="H241">
-        <v>98.031098030321687</v>
+        <v>71.470200000000006</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>43882</v>
+        <v>43889</v>
       </c>
       <c r="B242">
-        <v>280.23649999999998</v>
+        <v>133.345</v>
       </c>
       <c r="C242">
-        <v>225.99109999999999</v>
+        <v>133.66499999999999</v>
       </c>
       <c r="D242">
-        <v>353.63</v>
+        <v>36.3322</v>
       </c>
       <c r="E242">
-        <v>3879.74</v>
+        <v>296.26</v>
       </c>
       <c r="F242">
-        <v>8070.49</v>
+        <v>33.53</v>
       </c>
       <c r="G242">
-        <v>131.0712</v>
+        <v>100.425</v>
       </c>
       <c r="H242">
-        <v>98.035264705417177</v>
+        <v>71.4649</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="B243">
-        <v>280.66640000000001</v>
+        <v>134.44</v>
       </c>
       <c r="C243">
-        <v>225.26349999999999</v>
+        <v>133.72499999999999</v>
       </c>
       <c r="D243">
-        <v>345</v>
+        <v>36.0548</v>
       </c>
       <c r="E243">
-        <v>3402.54</v>
+        <v>297.45999999999998</v>
       </c>
       <c r="F243">
-        <v>7087.72</v>
+        <v>32.505000000000003</v>
       </c>
       <c r="G243">
-        <v>130.892</v>
+        <v>100.399</v>
       </c>
       <c r="H243">
-        <v>98.014344160827619</v>
+        <v>71.460999999999999</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="B244">
-        <v>282.67739999999998</v>
+        <v>129.87</v>
       </c>
       <c r="C244">
-        <v>225.04730000000001</v>
+        <v>128.845</v>
       </c>
       <c r="D244">
-        <v>343.03</v>
+        <v>34.566299999999998</v>
       </c>
       <c r="E244">
-        <v>3336.55</v>
+        <v>269.32</v>
       </c>
       <c r="F244">
-        <v>6997.09</v>
+        <v>26.1</v>
       </c>
       <c r="G244">
-        <v>130.7878</v>
+        <v>98.492999999999995</v>
       </c>
       <c r="H244">
-        <v>97.987704853723514</v>
+        <v>71.4572</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="B245">
-        <v>274.96289999999999</v>
+        <v>130.04</v>
       </c>
       <c r="C245">
-        <v>221.5635</v>
+        <v>123.46</v>
       </c>
       <c r="D245">
-        <v>330.63</v>
+        <v>33.319400000000002</v>
       </c>
       <c r="E245">
-        <v>3192.47</v>
+        <v>228.8</v>
       </c>
       <c r="F245">
-        <v>5790.98</v>
+        <v>25.47</v>
       </c>
       <c r="G245">
-        <v>129.86359999999999</v>
+        <v>95.510999999999996</v>
       </c>
       <c r="H245">
-        <v>98.029621018483809</v>
+        <v>71.446700000000007</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="B246">
-        <v>272.88990000000001</v>
+        <v>131.035</v>
       </c>
       <c r="C246">
-        <v>215.24709999999999</v>
+        <v>125.535</v>
       </c>
       <c r="D246">
-        <v>321.23</v>
+        <v>35.926699999999997</v>
       </c>
       <c r="E246">
-        <v>2854.23</v>
+        <v>253.42</v>
       </c>
       <c r="F246">
-        <v>5809.65</v>
+        <v>27.414999999999999</v>
       </c>
       <c r="G246">
-        <v>128.31030000000001</v>
+        <v>96.948999999999998</v>
       </c>
       <c r="H246">
-        <v>98.092121021999432</v>
+        <v>71.436400000000006</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>43917</v>
+        <v>43924</v>
       </c>
       <c r="B247">
-        <v>275.55360000000002</v>
+        <v>129.49</v>
       </c>
       <c r="C247">
-        <v>215.30340000000001</v>
+        <v>124.92</v>
       </c>
       <c r="D247">
-        <v>342.83</v>
+        <v>34.9773</v>
       </c>
       <c r="E247">
-        <v>2996.72</v>
+        <v>248.19</v>
       </c>
       <c r="F247">
-        <v>6139.83</v>
+        <v>26.675000000000001</v>
       </c>
       <c r="G247">
-        <v>127.483</v>
+        <v>97.637</v>
       </c>
       <c r="H247">
-        <v>98.11878767604388</v>
+        <v>71.424599999999998</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>43924</v>
+        <v>43931</v>
       </c>
       <c r="B248">
-        <v>272.84480000000002</v>
+        <v>129.035</v>
       </c>
       <c r="C248">
-        <v>215.35319999999999</v>
+        <v>128.69</v>
       </c>
       <c r="D248">
-        <v>334.81</v>
+        <v>35.372</v>
       </c>
       <c r="E248">
-        <v>3052.89</v>
+        <v>278.2</v>
       </c>
       <c r="F248">
-        <v>6211.22</v>
+        <v>28.975000000000001</v>
       </c>
       <c r="G248">
-        <v>127.6178</v>
+        <v>98.06</v>
       </c>
       <c r="H248">
-        <v>98.11878767604388</v>
+        <v>71.416200000000003</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="B249">
-        <v>271.64080000000001</v>
+        <v>129.28</v>
       </c>
       <c r="C249">
-        <v>217.34010000000001</v>
+        <v>128.255</v>
       </c>
       <c r="D249">
-        <v>337.72</v>
+        <v>34.526499999999999</v>
       </c>
       <c r="E249">
-        <v>3322.14</v>
+        <v>286.64</v>
       </c>
       <c r="F249">
-        <v>6498.99</v>
+        <v>28.995000000000001</v>
       </c>
       <c r="G249">
-        <v>128.15129999999999</v>
+        <v>99.168000000000006</v>
       </c>
       <c r="H249">
-        <v>98.235226031520199</v>
+        <v>71.407899999999998</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>43938</v>
+        <v>43945</v>
       </c>
       <c r="B250">
-        <v>272.33539999999999</v>
+        <v>128.97499999999999</v>
       </c>
       <c r="C250">
-        <v>218.42509999999999</v>
+        <v>129.19</v>
       </c>
       <c r="D250">
-        <v>330.25</v>
+        <v>33.895099999999999</v>
       </c>
       <c r="E250">
-        <v>3488.46</v>
+        <v>282.97000000000003</v>
       </c>
       <c r="F250">
-        <v>6574.81</v>
+        <v>28.254999999999999</v>
       </c>
       <c r="G250">
-        <v>128.4494</v>
+        <v>98.457999999999998</v>
       </c>
       <c r="H250">
-        <v>98.11377902736713</v>
+        <v>71.4011</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>43945</v>
+        <v>43952</v>
       </c>
       <c r="B251">
-        <v>271.51609999999999</v>
+        <v>130.75</v>
       </c>
       <c r="C251">
-        <v>218.7484</v>
+        <v>130.19</v>
       </c>
       <c r="D251">
-        <v>324.98</v>
+        <v>34.339300000000001</v>
       </c>
       <c r="E251">
-        <v>3478.25</v>
+        <v>282.79000000000002</v>
       </c>
       <c r="F251">
-        <v>6519.57</v>
+        <v>29.434999999999999</v>
       </c>
       <c r="G251">
-        <v>128.50579999999999</v>
+        <v>98.917000000000002</v>
       </c>
       <c r="H251">
-        <v>98.150645323572192</v>
+        <v>71.395600000000002</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>43952</v>
+        <v>43959</v>
       </c>
       <c r="B252">
-        <v>274.76870000000002</v>
+        <v>129.72</v>
       </c>
       <c r="C252">
-        <v>219.7508</v>
+        <v>129.49</v>
       </c>
       <c r="D252">
-        <v>329.61</v>
+        <v>34.272500000000001</v>
       </c>
       <c r="E252">
-        <v>3407.72</v>
+        <v>292.44</v>
       </c>
       <c r="F252">
-        <v>6602.64</v>
+        <v>29.36</v>
       </c>
       <c r="G252">
-        <v>128.69579999999999</v>
+        <v>99.019000000000005</v>
       </c>
       <c r="H252">
-        <v>98.050166869759323</v>
+        <v>71.386600000000001</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B253">
-        <v>272.43720000000002</v>
+        <v>129.81</v>
       </c>
       <c r="C253">
-        <v>219.33179999999999</v>
+        <v>128.61500000000001</v>
       </c>
       <c r="D253">
-        <v>328.91</v>
+        <v>34.562899999999999</v>
       </c>
       <c r="E253">
-        <v>3579.2</v>
+        <v>286.27999999999997</v>
       </c>
       <c r="F253">
-        <v>6678.87</v>
+        <v>27.984999999999999</v>
       </c>
       <c r="G253">
-        <v>128.72380000000001</v>
+        <v>98.906000000000006</v>
       </c>
       <c r="H253">
-        <v>98.069732093332107</v>
+        <v>71.3797</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>43966</v>
+        <v>43973</v>
       </c>
       <c r="B254">
-        <v>272.92320000000001</v>
+        <v>130.30000000000001</v>
       </c>
       <c r="C254">
-        <v>218.66659999999999</v>
+        <v>129.36000000000001</v>
       </c>
       <c r="D254">
-        <v>332.41</v>
+        <v>35.565899999999999</v>
       </c>
       <c r="E254">
-        <v>3548.27</v>
+        <v>295.44</v>
       </c>
       <c r="F254">
-        <v>6478.22</v>
+        <v>29.43</v>
       </c>
       <c r="G254">
-        <v>128.74039999999999</v>
+        <v>99.12</v>
       </c>
       <c r="H254">
-        <v>98.034255368669989</v>
+        <v>71.374600000000001</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="B255">
-        <v>274.22019999999998</v>
+        <v>130.92500000000001</v>
       </c>
       <c r="C255">
-        <v>219.32169999999999</v>
+        <v>130.32499999999999</v>
       </c>
       <c r="D255">
-        <v>341.45</v>
+        <v>36.148800000000001</v>
       </c>
       <c r="E255">
-        <v>3617.36</v>
+        <v>304.32</v>
       </c>
       <c r="F255">
-        <v>6646.6</v>
+        <v>30.925000000000001</v>
       </c>
       <c r="G255">
-        <v>128.9127</v>
+        <v>99.364999999999995</v>
       </c>
       <c r="H255">
-        <v>98.021407441695217</v>
+        <v>71.370199999999997</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="B256">
-        <v>275.3408</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="C256">
-        <v>220.49359999999999</v>
+        <v>132.86500000000001</v>
       </c>
       <c r="D256">
-        <v>346.26</v>
+        <v>36.782400000000003</v>
       </c>
       <c r="E256">
-        <v>3604.78</v>
+        <v>319.33999999999997</v>
       </c>
       <c r="F256">
-        <v>6776.75</v>
+        <v>34.25</v>
       </c>
       <c r="G256">
-        <v>129.25280000000001</v>
+        <v>99.956000000000003</v>
       </c>
       <c r="H256">
-        <v>98.002379950806684</v>
+        <v>71.365200000000002</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>43987</v>
+        <v>43994</v>
       </c>
       <c r="B257">
-        <v>273.35570000000001</v>
+        <v>130.99</v>
       </c>
       <c r="C257">
-        <v>222.50710000000001</v>
+        <v>131.85</v>
       </c>
       <c r="D257">
-        <v>350.93</v>
+        <v>36.915700000000001</v>
       </c>
       <c r="E257">
-        <v>3680.09</v>
+        <v>304.20999999999998</v>
       </c>
       <c r="F257">
-        <v>7231.03</v>
+        <v>32.024999999999999</v>
       </c>
       <c r="G257">
-        <v>129.8039</v>
+        <v>99.962000000000003</v>
       </c>
       <c r="H257">
-        <v>98.000305226710168</v>
+        <v>71.360500000000002</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>43994</v>
+        <v>44001</v>
       </c>
       <c r="B258">
-        <v>275.63839999999999</v>
+        <v>131.69499999999999</v>
       </c>
       <c r="C258">
-        <v>222.25700000000001</v>
+        <v>131.91999999999999</v>
       </c>
       <c r="D258">
-        <v>352.13</v>
+        <v>37.213999999999999</v>
       </c>
       <c r="E258">
-        <v>3580.85</v>
+        <v>308.64</v>
       </c>
       <c r="F258">
-        <v>6875.07</v>
+        <v>33.01</v>
       </c>
       <c r="G258">
-        <v>129.81899999999999</v>
+        <v>99.971000000000004</v>
       </c>
       <c r="H258">
-        <v>98.002375655238737</v>
+        <v>71.358000000000004</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44001</v>
+        <v>44008</v>
       </c>
       <c r="B259">
-        <v>276.96030000000002</v>
+        <v>132.44999999999999</v>
       </c>
       <c r="C259">
-        <v>222.44990000000001</v>
+        <v>131.495</v>
       </c>
       <c r="D259">
-        <v>354.61</v>
+        <v>37.210299999999997</v>
       </c>
       <c r="E259">
-        <v>3679.67</v>
+        <v>300.05</v>
       </c>
       <c r="F259">
-        <v>7153.08</v>
+        <v>32.414999999999999</v>
       </c>
       <c r="G259">
-        <v>129.96199999999999</v>
+        <v>99.966999999999999</v>
       </c>
       <c r="H259">
-        <v>97.950508359879663</v>
+        <v>71.357600000000005</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="B260">
-        <v>278.12880000000001</v>
+        <v>131.88499999999999</v>
       </c>
       <c r="C260">
-        <v>222.41640000000001</v>
+        <v>132.26</v>
       </c>
       <c r="D260">
-        <v>354.54</v>
+        <v>37.611899999999999</v>
       </c>
       <c r="E260">
-        <v>3590.99</v>
+        <v>312.23</v>
       </c>
       <c r="F260">
-        <v>6997.24</v>
+        <v>33.365000000000002</v>
       </c>
       <c r="G260">
-        <v>129.95580000000001</v>
+        <v>100.014</v>
       </c>
       <c r="H260">
-        <v>97.956425560724639</v>
+        <v>71.356700000000004</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44015</v>
+        <v>44022</v>
       </c>
       <c r="B261">
-        <v>277.71699999999998</v>
+        <v>132.55000000000001</v>
       </c>
       <c r="C261">
-        <v>222.68299999999999</v>
+        <v>132.49</v>
       </c>
       <c r="D261">
-        <v>358.31</v>
+        <v>37.448500000000003</v>
       </c>
       <c r="E261">
-        <v>3726.94</v>
+        <v>317.58999999999997</v>
       </c>
       <c r="F261">
-        <v>7104.25</v>
+        <v>33.44</v>
       </c>
       <c r="G261">
-        <v>130.0318</v>
+        <v>100.06399999999999</v>
       </c>
       <c r="H261">
-        <v>97.960393882090216</v>
+        <v>71.354900000000001</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44022</v>
+        <v>44029</v>
       </c>
       <c r="B262">
-        <v>278.91800000000001</v>
+        <v>132.32499999999999</v>
       </c>
       <c r="C262">
-        <v>222.93729999999999</v>
+        <v>132.55500000000001</v>
       </c>
       <c r="D262">
-        <v>357.06</v>
+        <v>37.3247</v>
       </c>
       <c r="E262">
-        <v>3825.2</v>
+        <v>321.72000000000003</v>
       </c>
       <c r="F262">
-        <v>7132.95</v>
+        <v>34.155000000000001</v>
       </c>
       <c r="G262">
-        <v>130.108</v>
+        <v>100.122</v>
       </c>
       <c r="H262">
-        <v>97.958401756489025</v>
+        <v>71.353200000000001</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44026</v>
+        <v>44035</v>
       </c>
       <c r="B263">
-        <v>277.81099999999998</v>
+        <v>133.19000244140619</v>
       </c>
       <c r="C263">
-        <v>222.79839999999999</v>
+        <v>133.1499938964844</v>
       </c>
       <c r="D263">
-        <v>356.72</v>
+        <v>37.559199999999997</v>
       </c>
       <c r="E263">
-        <v>3762.25</v>
+        <v>326.86</v>
       </c>
       <c r="F263">
-        <v>7120.4</v>
+        <v>34.310001373291023</v>
       </c>
       <c r="G263">
-        <v>130.12729999999999</v>
+        <v>100.26100158691411</v>
       </c>
       <c r="H263">
-        <v>97.958401756489025</v>
+        <v>71.353899999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\Archive\In-Output of Bloomberg's Model\Data_for_Experimentation_Archive\Cleaned\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Επενδυτική Επιτροπή\Ap GM Black Litterman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A380848-7104-4A16-98E2-55F51E8983B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A934A91-93DB-41A9-92F3-52A30C2C5784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5439B062-52C3-4DD1-9344-1682D78AB56B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,22 +34,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>EUNH GY Equity</t>
+    <t>LEATTREU Index</t>
   </si>
   <si>
-    <t>EUN5 GY Equity</t>
+    <t>LEC4TREU Index</t>
   </si>
   <si>
-    <t>LFGGBDR LX Equity</t>
+    <t>BEGCGA Index</t>
   </si>
   <si>
-    <t>SPY US Equity</t>
+    <t>SX5R Index</t>
   </si>
   <si>
-    <t>SX5EEX GY Equity</t>
+    <t>SXUSR Index</t>
   </si>
   <si>
-    <t>FLOT FP Equity</t>
+    <t>LEF1TREU Index</t>
   </si>
   <si>
     <t>PARSTEI LX Equity</t>
@@ -121,44 +120,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -208,9 +207,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -266,162 +265,182 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52852A3-EC56-426D-9678-C48F252F7CEE}">
-  <dimension ref="A1:H263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -448,6813 +467,6843 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42209</v>
-      </c>
-      <c r="B2">
-        <v>119.6</v>
-      </c>
-      <c r="C2">
-        <v>126.53</v>
-      </c>
-      <c r="E2">
-        <v>208</v>
-      </c>
-      <c r="F2">
-        <v>36.81</v>
-      </c>
-      <c r="G2">
-        <v>100.21</v>
-      </c>
-      <c r="H2">
-        <v>72.243790000000004</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42216</v>
+        <v>42251</v>
       </c>
       <c r="B3">
-        <v>120.14</v>
+        <v>241.70189999999999</v>
       </c>
       <c r="C3">
-        <v>126.77</v>
+        <v>211.1712</v>
+      </c>
+      <c r="D3">
+        <v>154</v>
       </c>
       <c r="E3">
-        <v>210.5</v>
+        <v>1914.96</v>
       </c>
       <c r="F3">
-        <v>36.835000000000001</v>
+        <v>6056.57</v>
       </c>
       <c r="G3">
-        <v>100.25</v>
+        <v>129.84710000000001</v>
       </c>
       <c r="H3">
-        <v>72.243781999999996</v>
+        <v>72.243133999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42223</v>
+        <v>42258</v>
       </c>
       <c r="B4">
-        <v>119.82</v>
+        <v>241.70140000000001</v>
       </c>
       <c r="C4">
-        <v>126.79</v>
+        <v>211.1866</v>
       </c>
       <c r="D4">
-        <v>13.7453</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="E4">
-        <v>207.95</v>
+        <v>1930.26</v>
       </c>
       <c r="F4">
-        <v>37.204999999999998</v>
+        <v>6092.34</v>
       </c>
       <c r="G4">
-        <v>100.29</v>
+        <v>129.8272</v>
       </c>
       <c r="H4">
-        <v>72.243758999999997</v>
+        <v>72.242783000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42230</v>
+        <v>42265</v>
       </c>
       <c r="B5">
-        <v>119.99</v>
+        <v>242.44669999999999</v>
       </c>
       <c r="C5">
-        <v>126.69</v>
+        <v>211.02369999999999</v>
       </c>
       <c r="D5">
-        <v>15.729799999999999</v>
+        <v>164.93</v>
       </c>
       <c r="E5">
-        <v>209.42</v>
+        <v>1911.88</v>
       </c>
       <c r="F5">
-        <v>35.71</v>
+        <v>6069.99</v>
       </c>
       <c r="G5">
-        <v>100.31</v>
+        <v>129.80170000000001</v>
       </c>
       <c r="H5">
-        <v>72.243735999999998</v>
+        <v>72.242348000000007</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42237</v>
+        <v>42272</v>
       </c>
       <c r="B6">
-        <v>120.15</v>
+        <v>242.40199999999999</v>
       </c>
       <c r="C6">
-        <v>126.63</v>
+        <v>210.55439999999999</v>
       </c>
       <c r="D6">
-        <v>15.5298</v>
+        <v>163.93</v>
       </c>
       <c r="E6">
-        <v>197.83</v>
+        <v>1927.76</v>
       </c>
       <c r="F6">
-        <v>33.200000000000003</v>
+        <v>6013.25</v>
       </c>
       <c r="G6">
-        <v>100.31</v>
+        <v>129.70760000000001</v>
       </c>
       <c r="H6">
-        <v>72.243651999999997</v>
+        <v>72.241912999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42244</v>
+        <v>42279</v>
       </c>
       <c r="B7">
-        <v>119.14</v>
+        <v>244.69030000000001</v>
       </c>
       <c r="C7">
-        <v>125.65</v>
+        <v>210.31780000000001</v>
       </c>
       <c r="D7">
-        <v>16.124199999999998</v>
+        <v>166.21</v>
       </c>
       <c r="E7">
-        <v>199.28</v>
+        <v>1929.4</v>
       </c>
       <c r="F7">
-        <v>33.630000000000003</v>
+        <v>5983.06</v>
       </c>
       <c r="G7">
-        <v>100.3</v>
+        <v>129.6163</v>
       </c>
       <c r="H7">
-        <v>72.243423000000007</v>
+        <v>72.241478000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42251</v>
+        <v>42286</v>
       </c>
       <c r="B8">
-        <v>119.61</v>
+        <v>243.5376</v>
       </c>
       <c r="C8">
-        <v>126</v>
+        <v>210.7517</v>
       </c>
       <c r="D8">
-        <v>16.356400000000001</v>
+        <v>170.53</v>
       </c>
       <c r="E8">
-        <v>192.59</v>
+        <v>1977.27</v>
       </c>
       <c r="F8">
-        <v>32.5</v>
+        <v>6233.03</v>
       </c>
       <c r="G8">
-        <v>100.28</v>
+        <v>129.5976</v>
       </c>
       <c r="H8">
-        <v>72.243133999999998</v>
+        <v>72.241028</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42258</v>
+        <v>42293</v>
       </c>
       <c r="B9">
-        <v>119.56</v>
+        <v>244.58860000000001</v>
       </c>
       <c r="C9">
-        <v>125.9</v>
+        <v>210.96559999999999</v>
       </c>
       <c r="D9">
-        <v>16.8858</v>
+        <v>169.93</v>
       </c>
       <c r="E9">
-        <v>196.74</v>
+        <v>2002.9</v>
       </c>
       <c r="F9">
-        <v>32.65</v>
+        <v>6283.94</v>
       </c>
       <c r="G9">
-        <v>100.25</v>
+        <v>129.59</v>
       </c>
       <c r="H9">
-        <v>72.242783000000003</v>
+        <v>72.240547000000007</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42265</v>
+        <v>42300</v>
       </c>
       <c r="B10">
-        <v>119.93</v>
+        <v>245.92080000000001</v>
       </c>
       <c r="C10">
-        <v>125.7</v>
+        <v>211.5206</v>
       </c>
       <c r="D10">
-        <v>17.486000000000001</v>
+        <v>174.82</v>
       </c>
       <c r="E10">
-        <v>195.45</v>
+        <v>2127.0100000000002</v>
       </c>
       <c r="F10">
-        <v>31.645</v>
+        <v>6509.17</v>
       </c>
       <c r="G10">
-        <v>100.21</v>
+        <v>129.6045</v>
       </c>
       <c r="H10">
-        <v>72.242348000000007</v>
+        <v>72.240059000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>42272</v>
+        <v>42307</v>
       </c>
       <c r="B11">
-        <v>119.87</v>
+        <v>245.94450000000001</v>
       </c>
       <c r="C11">
-        <v>125.04</v>
+        <v>211.6414</v>
       </c>
       <c r="D11">
-        <v>17.396999999999998</v>
+        <v>169.81</v>
       </c>
       <c r="E11">
-        <v>192.85</v>
+        <v>2131.0300000000002</v>
       </c>
       <c r="F11">
-        <v>31.265000000000001</v>
+        <v>6468.26</v>
       </c>
       <c r="G11">
-        <v>100.14</v>
+        <v>129.6378</v>
       </c>
       <c r="H11">
-        <v>72.241912999999997</v>
+        <v>72.239570999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>42279</v>
+        <v>42314</v>
       </c>
       <c r="B12">
-        <v>121.02</v>
+        <v>242.90520000000001</v>
       </c>
       <c r="C12">
-        <v>124.95</v>
+        <v>211.57470000000001</v>
       </c>
       <c r="D12">
-        <v>17.7926</v>
+        <v>172.73</v>
       </c>
       <c r="E12">
-        <v>195</v>
+        <v>2222.35</v>
       </c>
       <c r="F12">
-        <v>31.035</v>
+        <v>6547.73</v>
       </c>
       <c r="G12">
-        <v>100.07</v>
+        <v>129.6491</v>
       </c>
       <c r="H12">
-        <v>72.241478000000001</v>
+        <v>72.239081999999996</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>42286</v>
+        <v>42321</v>
       </c>
       <c r="B13">
-        <v>120.41</v>
+        <v>245.01310000000001</v>
       </c>
       <c r="C13">
-        <v>125.46</v>
+        <v>212.00380000000001</v>
       </c>
       <c r="D13">
-        <v>18.2623</v>
+        <v>177.44</v>
       </c>
       <c r="E13">
-        <v>201.33</v>
+        <v>2141.59</v>
       </c>
       <c r="F13">
-        <v>32.625</v>
+        <v>6379.35</v>
       </c>
       <c r="G13">
-        <v>100.06</v>
+        <v>129.6738</v>
       </c>
       <c r="H13">
-        <v>72.241028</v>
+        <v>72.238594000000006</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42293</v>
+        <v>42328</v>
       </c>
       <c r="B14">
-        <v>120.93</v>
+        <v>246.74619999999999</v>
       </c>
       <c r="C14">
-        <v>125.84</v>
+        <v>212.3218</v>
       </c>
       <c r="D14">
-        <v>18.217500000000001</v>
+        <v>177.57</v>
       </c>
       <c r="E14">
-        <v>203.27</v>
+        <v>2226.5500000000002</v>
       </c>
       <c r="F14">
-        <v>32.79</v>
+        <v>6597.71</v>
       </c>
       <c r="G14">
-        <v>100.02</v>
+        <v>129.6961</v>
       </c>
       <c r="H14">
-        <v>72.240547000000007</v>
+        <v>72.238135999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42300</v>
+        <v>42335</v>
       </c>
       <c r="B15">
-        <v>121.65</v>
+        <v>247.4194</v>
       </c>
       <c r="C15">
-        <v>126.48</v>
+        <v>212.6052</v>
       </c>
       <c r="D15">
-        <v>18.615500000000001</v>
+        <v>175.58</v>
       </c>
       <c r="E15">
-        <v>207.51</v>
+        <v>2240.0300000000002</v>
       </c>
       <c r="F15">
-        <v>34.395000000000003</v>
+        <v>6620.28</v>
       </c>
       <c r="G15">
-        <v>100.03</v>
+        <v>129.72579999999999</v>
       </c>
       <c r="H15">
-        <v>72.240059000000002</v>
+        <v>72.237701000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42307</v>
+        <v>42342</v>
       </c>
       <c r="B16">
-        <v>121.64</v>
+        <v>243.9743</v>
       </c>
       <c r="C16">
-        <v>126.67</v>
+        <v>211.81209999999999</v>
       </c>
       <c r="D16">
-        <v>18.081800000000001</v>
+        <v>165.92</v>
       </c>
       <c r="E16">
-        <v>207.93</v>
+        <v>2192.84</v>
       </c>
       <c r="F16">
-        <v>34.32</v>
+        <v>6338.95</v>
       </c>
       <c r="G16">
-        <v>100.04</v>
+        <v>129.7458</v>
       </c>
       <c r="H16">
-        <v>72.239570999999998</v>
+        <v>72.237281999999993</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>42314</v>
+        <v>42349</v>
       </c>
       <c r="B17">
-        <v>120.05</v>
+        <v>245.9975</v>
       </c>
       <c r="C17">
-        <v>126.24</v>
+        <v>211.9589</v>
       </c>
       <c r="D17">
-        <v>18.361699999999999</v>
+        <v>162.53</v>
       </c>
       <c r="E17">
-        <v>210.04</v>
+        <v>2092.02</v>
       </c>
       <c r="F17">
-        <v>34.83</v>
+        <v>6087.81</v>
       </c>
       <c r="G17">
-        <v>100.05</v>
+        <v>129.75030000000001</v>
       </c>
       <c r="H17">
-        <v>72.239081999999996</v>
+        <v>72.236687000000003</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>42321</v>
+        <v>42356</v>
       </c>
       <c r="B18">
-        <v>121.15</v>
+        <v>245.74809999999999</v>
       </c>
       <c r="C18">
-        <v>126.72</v>
+        <v>211.92769999999999</v>
       </c>
       <c r="D18">
-        <v>18.9239</v>
+        <v>168.26</v>
       </c>
       <c r="E18">
-        <v>202.54</v>
+        <v>2121.0500000000002</v>
       </c>
       <c r="F18">
-        <v>33.799999999999997</v>
+        <v>6180.88</v>
       </c>
       <c r="G18">
-        <v>100.06</v>
+        <v>129.7466</v>
       </c>
       <c r="H18">
-        <v>72.238594000000006</v>
+        <v>72.235695000000007</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>42328</v>
+        <v>42363</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>244.13939999999999</v>
       </c>
       <c r="C19">
-        <v>127.27</v>
+        <v>211.75800000000001</v>
       </c>
       <c r="D19">
-        <v>18.926300000000001</v>
+        <v>167.87</v>
       </c>
       <c r="E19">
-        <v>209.3108125</v>
+        <v>2149.8000000000002</v>
       </c>
       <c r="F19">
-        <v>34.74</v>
+        <v>6270.46</v>
       </c>
       <c r="G19">
-        <v>100.08</v>
+        <v>129.75059999999999</v>
       </c>
       <c r="H19">
-        <v>72.238135999999997</v>
+        <v>72.234848</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>42335</v>
+        <v>42370</v>
       </c>
       <c r="B20">
-        <v>122.3</v>
+        <v>244.53100000000001</v>
       </c>
       <c r="C20">
-        <v>127.48</v>
+        <v>211.87989999999999</v>
       </c>
       <c r="D20">
-        <v>18.676300000000001</v>
+        <v>167.75</v>
       </c>
       <c r="E20">
-        <v>209.56</v>
+        <v>2152.29</v>
       </c>
       <c r="F20">
-        <v>35.090000000000003</v>
+        <v>6254.61</v>
       </c>
       <c r="G20">
-        <v>100.09</v>
+        <v>129.75659999999999</v>
       </c>
       <c r="H20">
-        <v>72.237701000000001</v>
+        <v>72.233856000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>42342</v>
+        <v>42377</v>
       </c>
       <c r="B21">
-        <v>120.58</v>
+        <v>245.68690000000001</v>
       </c>
       <c r="C21">
-        <v>126.47</v>
+        <v>212.0206</v>
       </c>
       <c r="D21">
-        <v>17.53</v>
+        <v>161.81</v>
       </c>
       <c r="E21">
-        <v>209.62</v>
+        <v>2016.74</v>
       </c>
       <c r="F21">
-        <v>33.51</v>
+        <v>5826.07</v>
       </c>
       <c r="G21">
-        <v>100.12</v>
+        <v>129.77260000000001</v>
       </c>
       <c r="H21">
-        <v>72.237281999999993</v>
+        <v>72.232719000000003</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>42349</v>
+        <v>42384</v>
       </c>
       <c r="B22">
-        <v>121.67</v>
+        <v>246.1396</v>
       </c>
       <c r="C22">
-        <v>126.78</v>
+        <v>211.49359999999999</v>
       </c>
       <c r="D22">
-        <v>17.0502</v>
+        <v>160.18</v>
       </c>
       <c r="E22">
-        <v>201.88</v>
+        <v>1976.33</v>
       </c>
       <c r="F22">
-        <v>32.26</v>
+        <v>5652.47</v>
       </c>
       <c r="G22">
-        <v>100.13</v>
+        <v>129.7346</v>
       </c>
       <c r="H22">
-        <v>72.236687000000003</v>
+        <v>72.231719999999996</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>42356</v>
+        <v>42391</v>
       </c>
       <c r="B23">
-        <v>121.53</v>
+        <v>246.6585</v>
       </c>
       <c r="C23">
-        <v>126.66</v>
+        <v>211.5872</v>
       </c>
       <c r="D23">
-        <v>17.7911</v>
+        <v>155.54</v>
       </c>
       <c r="E23">
-        <v>200.02081250000001</v>
+        <v>2030.53</v>
       </c>
       <c r="F23">
-        <v>32.71</v>
+        <v>5799.04</v>
       </c>
       <c r="G23">
-        <v>100.12</v>
+        <v>129.71039999999999</v>
       </c>
       <c r="H23">
-        <v>72.235695000000007</v>
+        <v>72.230727999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42363</v>
+        <v>42398</v>
       </c>
       <c r="B24">
-        <v>120.76</v>
+        <v>249.3167</v>
       </c>
       <c r="C24">
-        <v>126.35</v>
+        <v>212.24289999999999</v>
       </c>
       <c r="D24">
-        <v>17.621400000000001</v>
+        <v>152.9</v>
       </c>
       <c r="E24">
-        <v>205.68</v>
+        <v>2071.25</v>
       </c>
       <c r="F24">
-        <v>33.005000000000003</v>
+        <v>5859.81</v>
       </c>
       <c r="G24">
-        <v>100.11</v>
+        <v>129.72620000000001</v>
       </c>
       <c r="H24">
-        <v>72.234848</v>
+        <v>72.229729000000006</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42370</v>
+        <v>42405</v>
       </c>
       <c r="B25">
-        <v>120.78</v>
+        <v>248.8426</v>
       </c>
       <c r="C25">
-        <v>126.43</v>
+        <v>212.0436</v>
       </c>
       <c r="D25">
-        <v>17.663399999999999</v>
+        <v>154.19</v>
       </c>
       <c r="E25">
-        <v>203.87</v>
+        <v>1944.56</v>
       </c>
       <c r="F25">
-        <v>33.094999999999999</v>
+        <v>5553.56</v>
       </c>
       <c r="G25">
-        <v>100.13</v>
+        <v>129.70849999999999</v>
       </c>
       <c r="H25">
-        <v>72.233856000000003</v>
+        <v>72.228722000000005</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42377</v>
+        <v>42412</v>
       </c>
       <c r="B26">
-        <v>121.54</v>
+        <v>248.42420000000001</v>
       </c>
       <c r="C26">
-        <v>126.57</v>
+        <v>211.47540000000001</v>
       </c>
       <c r="D26">
-        <v>16.917999999999999</v>
+        <v>138.84</v>
       </c>
       <c r="E26">
-        <v>191.923</v>
+        <v>1925.46</v>
       </c>
       <c r="F26">
-        <v>30.44</v>
+        <v>5360.07</v>
       </c>
       <c r="G26">
-        <v>100.13</v>
+        <v>129.56720000000001</v>
       </c>
       <c r="H26">
-        <v>72.232719000000003</v>
+        <v>72.227722</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>42384</v>
+        <v>42419</v>
       </c>
       <c r="B27">
-        <v>120.95</v>
+        <v>249.65539999999999</v>
       </c>
       <c r="C27">
-        <v>124.7</v>
+        <v>212.0916</v>
       </c>
       <c r="D27">
-        <v>16.763200000000001</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="E27">
-        <v>187.81</v>
+        <v>1994.68</v>
       </c>
       <c r="F27">
-        <v>29.62</v>
+        <v>5541.79</v>
       </c>
       <c r="G27">
-        <v>100.1</v>
+        <v>129.59289999999999</v>
       </c>
       <c r="H27">
-        <v>72.231719999999996</v>
+        <v>72.226730000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42391</v>
+        <v>42426</v>
       </c>
       <c r="B28">
-        <v>121.26</v>
+        <v>250.8124</v>
       </c>
       <c r="C28">
-        <v>124.96</v>
+        <v>212.44579999999999</v>
       </c>
       <c r="D28">
-        <v>16.414000000000001</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="E28">
-        <v>190.52</v>
+        <v>2047.88</v>
       </c>
       <c r="F28">
-        <v>30.34</v>
+        <v>5648.67</v>
       </c>
       <c r="G28">
-        <v>100.06</v>
+        <v>129.62</v>
       </c>
       <c r="H28">
-        <v>72.230727999999999</v>
+        <v>72.225730999999996</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>42398</v>
+        <v>42433</v>
       </c>
       <c r="B29">
-        <v>122.56</v>
+        <v>249.75989999999999</v>
       </c>
       <c r="C29">
-        <v>126.05</v>
+        <v>212.90049999999999</v>
       </c>
       <c r="D29">
-        <v>16.175000000000001</v>
+        <v>156.47999999999999</v>
       </c>
       <c r="E29">
-        <v>193.72081249999999</v>
+        <v>2078.69</v>
       </c>
       <c r="F29">
-        <v>30.594999999999999</v>
+        <v>5815.12</v>
       </c>
       <c r="G29">
-        <v>100.07</v>
+        <v>129.68360000000001</v>
       </c>
       <c r="H29">
-        <v>72.229729000000006</v>
+        <v>72.225441000000004</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>42405</v>
+        <v>42440</v>
       </c>
       <c r="B30">
-        <v>122.37</v>
+        <v>250.45920000000001</v>
       </c>
       <c r="C30">
-        <v>125.68</v>
+        <v>213.44229999999999</v>
       </c>
       <c r="D30">
-        <v>16.1663</v>
+        <v>165.91</v>
       </c>
       <c r="E30">
-        <v>187.95</v>
+        <v>2071.1799999999998</v>
       </c>
       <c r="F30">
-        <v>28.99</v>
+        <v>5825.88</v>
       </c>
       <c r="G30">
-        <v>100.01</v>
+        <v>129.78270000000001</v>
       </c>
       <c r="H30">
-        <v>72.228722000000005</v>
+        <v>72.224907000000002</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42412</v>
+        <v>42447</v>
       </c>
       <c r="B31">
-        <v>122.18</v>
+        <v>251.62700000000001</v>
       </c>
       <c r="C31">
-        <v>125.19</v>
+        <v>213.64</v>
       </c>
       <c r="D31">
-        <v>14.4954</v>
+        <v>168.36</v>
       </c>
       <c r="E31">
-        <v>186.63</v>
+        <v>2068.5</v>
       </c>
       <c r="F31">
-        <v>27.72</v>
+        <v>5773.73</v>
       </c>
       <c r="G31">
-        <v>99.83</v>
+        <v>129.8049</v>
       </c>
       <c r="H31">
-        <v>72.227722</v>
+        <v>72.223770000000002</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42419</v>
+        <v>42454</v>
       </c>
       <c r="B32">
-        <v>122.75</v>
+        <v>251.95859999999999</v>
       </c>
       <c r="C32">
-        <v>125.84</v>
+        <v>213.84180000000001</v>
       </c>
       <c r="D32">
-        <v>15.419600000000001</v>
+        <v>165.8</v>
       </c>
       <c r="E32">
-        <v>192</v>
+        <v>2091.16</v>
       </c>
       <c r="F32">
-        <v>28.86</v>
+        <v>5667.01</v>
       </c>
       <c r="G32">
-        <v>99.81</v>
+        <v>129.83099999999999</v>
       </c>
       <c r="H32">
-        <v>72.226730000000003</v>
+        <v>72.222313</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42426</v>
+        <v>42461</v>
       </c>
       <c r="B33">
-        <v>123.36</v>
+        <v>253.11449999999999</v>
       </c>
       <c r="C33">
-        <v>126.32</v>
+        <v>214.10919999999999</v>
       </c>
       <c r="D33">
-        <v>15.675000000000001</v>
+        <v>168.24</v>
       </c>
       <c r="E33">
-        <v>195.08918750000001</v>
+        <v>2093.64</v>
       </c>
       <c r="F33">
-        <v>29.475000000000001</v>
+        <v>5598.44</v>
       </c>
       <c r="G33">
-        <v>99.86</v>
+        <v>129.87719999999999</v>
       </c>
       <c r="H33">
-        <v>72.225730999999996</v>
+        <v>72.220375000000004</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42433</v>
+        <v>42468</v>
       </c>
       <c r="B34">
-        <v>122.8</v>
+        <v>252.98599999999999</v>
       </c>
       <c r="C34">
-        <v>126.64</v>
+        <v>214.40309999999999</v>
       </c>
       <c r="D34">
-        <v>16.308499999999999</v>
+        <v>163.53</v>
       </c>
       <c r="E34">
-        <v>200.43</v>
+        <v>2062.83</v>
       </c>
       <c r="F34">
-        <v>30.555</v>
+        <v>5617.66</v>
       </c>
       <c r="G34">
-        <v>99.9</v>
+        <v>129.88829999999999</v>
       </c>
       <c r="H34">
-        <v>72.225441000000004</v>
+        <v>72.218673999999993</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42440</v>
+        <v>42475</v>
       </c>
       <c r="B35">
-        <v>123.13</v>
+        <v>252.48849999999999</v>
       </c>
       <c r="C35">
-        <v>129.07</v>
+        <v>214.50399999999999</v>
       </c>
       <c r="D35">
-        <v>17.266500000000001</v>
+        <v>163.84</v>
       </c>
       <c r="E35">
-        <v>202.76</v>
+        <v>2112.86</v>
       </c>
       <c r="F35">
-        <v>30.875</v>
+        <v>5863.56</v>
       </c>
       <c r="G35">
-        <v>100.04</v>
+        <v>129.9393</v>
       </c>
       <c r="H35">
-        <v>72.224907000000002</v>
+        <v>72.216980000000007</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42447</v>
+        <v>42482</v>
       </c>
       <c r="B36">
-        <v>123.76</v>
+        <v>250.71379999999999</v>
       </c>
       <c r="C36">
-        <v>128</v>
+        <v>214.8038</v>
       </c>
       <c r="D36">
-        <v>17.4589</v>
+        <v>170.93</v>
       </c>
       <c r="E36">
-        <v>204.38</v>
+        <v>2127.88</v>
       </c>
       <c r="F36">
-        <v>30.64</v>
+        <v>5998</v>
       </c>
       <c r="G36">
-        <v>100.04</v>
+        <v>129.99959999999999</v>
       </c>
       <c r="H36">
-        <v>72.223770000000002</v>
+        <v>72.215286000000006</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42454</v>
+        <v>42489</v>
       </c>
       <c r="B37">
-        <v>123.86</v>
+        <v>250.01779999999999</v>
       </c>
       <c r="C37">
-        <v>128.06</v>
+        <v>214.58760000000001</v>
       </c>
       <c r="D37">
-        <v>17.239100000000001</v>
+        <v>170.72</v>
       </c>
       <c r="E37">
-        <v>203.12</v>
+        <v>2056.0300000000002</v>
       </c>
       <c r="F37">
-        <v>29.954999999999998</v>
+        <v>5848.71</v>
       </c>
       <c r="G37">
-        <v>100.06</v>
+        <v>130.0222</v>
       </c>
       <c r="H37">
-        <v>72.222313</v>
+        <v>72.213584999999995</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42461</v>
+        <v>42496</v>
       </c>
       <c r="B38">
-        <v>124.42</v>
+        <v>251.56219999999999</v>
       </c>
       <c r="C38">
-        <v>128.58000000000001</v>
+        <v>214.8715</v>
       </c>
       <c r="D38">
-        <v>17.4834</v>
+        <v>171.49</v>
       </c>
       <c r="E38">
-        <v>206.92</v>
+        <v>2060.9699999999998</v>
       </c>
       <c r="F38">
-        <v>29.6</v>
+        <v>5680.51</v>
       </c>
       <c r="G38">
-        <v>100.1</v>
+        <v>130.02879999999999</v>
       </c>
       <c r="H38">
-        <v>72.220375000000004</v>
+        <v>72.211890999999994</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42468</v>
+        <v>42503</v>
       </c>
       <c r="B39">
-        <v>124.38</v>
+        <v>251.9272</v>
       </c>
       <c r="C39">
-        <v>128.85</v>
+        <v>214.71270000000001</v>
       </c>
       <c r="D39">
-        <v>16.9803</v>
+        <v>182.13</v>
       </c>
       <c r="E39">
-        <v>204.49918750000001</v>
+        <v>2076.31</v>
       </c>
       <c r="F39">
-        <v>29.184999999999999</v>
+        <v>5774.6</v>
       </c>
       <c r="G39">
-        <v>100.16</v>
+        <v>130.03389999999999</v>
       </c>
       <c r="H39">
-        <v>72.218673999999993</v>
+        <v>72.210196999999994</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42475</v>
+        <v>42510</v>
       </c>
       <c r="B40">
-        <v>124.07</v>
+        <v>251.54830000000001</v>
       </c>
       <c r="C40">
-        <v>128.76</v>
+        <v>214.5992</v>
       </c>
       <c r="D40">
-        <v>17.072299999999998</v>
+        <v>183.04</v>
       </c>
       <c r="E40">
-        <v>207.78</v>
+        <v>2097.5100000000002</v>
       </c>
       <c r="F40">
-        <v>30.65</v>
+        <v>5817.4</v>
       </c>
       <c r="G40">
-        <v>100.19</v>
+        <v>130.04159999999999</v>
       </c>
       <c r="H40">
-        <v>72.216980000000007</v>
+        <v>72.208504000000005</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42482</v>
+        <v>42517</v>
       </c>
       <c r="B41">
-        <v>123.25</v>
+        <v>252.64109999999999</v>
       </c>
       <c r="C41">
-        <v>129.02000000000001</v>
+        <v>214.94149999999999</v>
       </c>
       <c r="D41">
-        <v>17.798500000000001</v>
+        <v>186.39</v>
       </c>
       <c r="E41">
-        <v>208.97</v>
+        <v>2161.79</v>
       </c>
       <c r="F41">
-        <v>31.56</v>
+        <v>6057.2</v>
       </c>
       <c r="G41">
-        <v>100.22</v>
+        <v>130.0675</v>
       </c>
       <c r="H41">
-        <v>72.215286000000006</v>
+        <v>72.206801999999996</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>42489</v>
+        <v>42524</v>
       </c>
       <c r="B42">
-        <v>122.92</v>
+        <v>253.73699999999999</v>
       </c>
       <c r="C42">
-        <v>128.77000000000001</v>
+        <v>215.2276</v>
       </c>
       <c r="D42">
-        <v>17.360299999999999</v>
+        <v>185.74</v>
       </c>
       <c r="E42">
-        <v>206.33081250000001</v>
+        <v>2118.25</v>
       </c>
       <c r="F42">
-        <v>30.545000000000002</v>
+        <v>5893.13</v>
       </c>
       <c r="G42">
-        <v>100.24</v>
+        <v>130.08070000000001</v>
       </c>
       <c r="H42">
-        <v>72.213584999999995</v>
+        <v>72.205185</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42496</v>
+        <v>42531</v>
       </c>
       <c r="B43">
-        <v>123.63</v>
+        <v>255.083</v>
       </c>
       <c r="C43">
-        <v>129.15</v>
+        <v>215.46899999999999</v>
       </c>
       <c r="D43">
-        <v>17.898700000000002</v>
+        <v>183.72</v>
       </c>
       <c r="E43">
-        <v>205.72</v>
+        <v>2125.2800000000002</v>
       </c>
       <c r="F43">
-        <v>29.844999999999999</v>
+        <v>5764.08</v>
       </c>
       <c r="G43">
-        <v>100.27</v>
+        <v>130.10470000000001</v>
       </c>
       <c r="H43">
-        <v>72.211890999999994</v>
+        <v>72.204375999999996</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42503</v>
+        <v>42538</v>
       </c>
       <c r="B44">
-        <v>123.8</v>
+        <v>254.20689999999999</v>
       </c>
       <c r="C44">
-        <v>128.93</v>
+        <v>215.41810000000001</v>
       </c>
       <c r="D44">
-        <v>18.967600000000001</v>
+        <v>175.89</v>
       </c>
       <c r="E44">
-        <v>204.76</v>
+        <v>2107.06</v>
       </c>
       <c r="F44">
-        <v>30.105</v>
+        <v>5650.75</v>
       </c>
       <c r="G44">
-        <v>100.28</v>
+        <v>130.08590000000001</v>
       </c>
       <c r="H44">
-        <v>72.210196999999994</v>
+        <v>72.204361000000006</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42510</v>
+        <v>42545</v>
       </c>
       <c r="B45">
-        <v>123.66</v>
+        <v>255.0119</v>
       </c>
       <c r="C45">
-        <v>128.63999999999999</v>
+        <v>215.0538</v>
       </c>
       <c r="D45">
-        <v>19.040400000000002</v>
+        <v>171.07</v>
       </c>
       <c r="E45">
-        <v>205.49</v>
+        <v>2103.02</v>
       </c>
       <c r="F45">
-        <v>30.254999999999999</v>
+        <v>5601.76</v>
       </c>
       <c r="G45">
-        <v>100.29</v>
+        <v>129.98339999999999</v>
       </c>
       <c r="H45">
-        <v>72.208504000000005</v>
+        <v>72.204346000000001</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>42517</v>
+        <v>42552</v>
       </c>
       <c r="B46">
-        <v>124.19</v>
+        <v>259.00569999999999</v>
       </c>
       <c r="C46">
-        <v>129.04</v>
+        <v>215.84950000000001</v>
       </c>
       <c r="D46">
-        <v>19.385300000000001</v>
+        <v>181.3</v>
       </c>
       <c r="E46">
-        <v>210.24</v>
+        <v>2171.4899999999998</v>
       </c>
       <c r="F46">
-        <v>31.59</v>
+        <v>5848.26</v>
       </c>
       <c r="G46">
-        <v>100.3</v>
+        <v>130.0436</v>
       </c>
       <c r="H46">
-        <v>72.206801999999996</v>
+        <v>72.204338000000007</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42524</v>
+        <v>42559</v>
       </c>
       <c r="B47">
-        <v>124.71</v>
+        <v>259.91449999999998</v>
       </c>
       <c r="C47">
-        <v>129.55000000000001</v>
+        <v>216.3083</v>
       </c>
       <c r="D47">
-        <v>19.3216</v>
+        <v>179.54</v>
       </c>
       <c r="E47">
-        <v>210.28</v>
+        <v>2220.9299999999998</v>
       </c>
       <c r="F47">
-        <v>30.8</v>
+        <v>5788.91</v>
       </c>
       <c r="G47">
-        <v>100.3</v>
+        <v>130.0676</v>
       </c>
       <c r="H47">
-        <v>72.205185</v>
+        <v>72.204329999999999</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>42531</v>
+        <v>42566</v>
       </c>
       <c r="B48">
-        <v>125.37</v>
+        <v>257.87639999999999</v>
       </c>
       <c r="C48">
-        <v>130.03</v>
+        <v>216.72229999999999</v>
       </c>
       <c r="D48">
-        <v>19.055700000000002</v>
+        <v>181.34</v>
       </c>
       <c r="E48">
-        <v>210.07</v>
+        <v>2241.1799999999998</v>
       </c>
       <c r="F48">
-        <v>29.934999999999999</v>
+        <v>5939.28</v>
       </c>
       <c r="G48">
-        <v>100.31</v>
+        <v>130.11109999999999</v>
       </c>
       <c r="H48">
-        <v>72.204375999999996</v>
+        <v>72.204314999999994</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>42538</v>
+        <v>42573</v>
       </c>
       <c r="B49">
-        <v>124.94</v>
+        <v>258.40339999999998</v>
       </c>
       <c r="C49">
-        <v>129.77000000000001</v>
+        <v>216.81229999999999</v>
       </c>
       <c r="D49">
-        <v>18.293299999999999</v>
+        <v>180.19</v>
       </c>
       <c r="E49">
-        <v>206.52</v>
+        <v>2277.84</v>
       </c>
       <c r="F49">
-        <v>29.04</v>
+        <v>5967.66</v>
       </c>
       <c r="G49">
-        <v>100.29</v>
+        <v>130.14279999999999</v>
       </c>
       <c r="H49">
-        <v>72.204361000000006</v>
+        <v>72.204307999999997</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>42545</v>
+        <v>42580</v>
       </c>
       <c r="B50">
-        <v>125.28</v>
+        <v>260.52319999999997</v>
       </c>
       <c r="C50">
-        <v>129.63</v>
+        <v>217.0017</v>
       </c>
       <c r="D50">
-        <v>17.740100000000002</v>
+        <v>178.85</v>
       </c>
       <c r="E50">
-        <v>203.13</v>
+        <v>2233.1</v>
       </c>
       <c r="F50">
-        <v>28.324999999999999</v>
+        <v>5959.98</v>
       </c>
       <c r="G50">
-        <v>100.21</v>
+        <v>130.17349999999999</v>
       </c>
       <c r="H50">
-        <v>72.204346000000001</v>
+        <v>72.204291999999995</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>42552</v>
+        <v>42587</v>
       </c>
       <c r="B51">
-        <v>127.31</v>
+        <v>259.9194</v>
       </c>
       <c r="C51">
-        <v>130.9</v>
+        <v>217.04079999999999</v>
       </c>
       <c r="D51">
-        <v>18.749199999999998</v>
+        <v>176.93</v>
       </c>
       <c r="E51">
-        <v>209.92081250000001</v>
+        <v>2269.64</v>
       </c>
       <c r="F51">
-        <v>29.414999999999999</v>
+        <v>5938.95</v>
       </c>
       <c r="G51">
-        <v>100.2</v>
+        <v>130.24590000000001</v>
       </c>
       <c r="H51">
-        <v>72.204338000000007</v>
+        <v>72.204284999999999</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>42559</v>
+        <v>42594</v>
       </c>
       <c r="B52">
-        <v>127.7</v>
+        <v>260.7894</v>
       </c>
       <c r="C52">
-        <v>131.51</v>
+        <v>217.31309999999999</v>
       </c>
       <c r="D52">
-        <v>18.5975</v>
+        <v>179.6</v>
       </c>
       <c r="E52">
-        <v>212.65</v>
+        <v>2246.9899999999998</v>
       </c>
       <c r="F52">
-        <v>28.995000000000001</v>
+        <v>6007.27</v>
       </c>
       <c r="G52">
-        <v>100.2</v>
+        <v>130.2962</v>
       </c>
       <c r="H52">
-        <v>72.204329999999999</v>
+        <v>72.204277000000005</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>42566</v>
+        <v>42601</v>
       </c>
       <c r="B53">
-        <v>126.24</v>
+        <v>259.9128</v>
       </c>
       <c r="C53">
-        <v>130.72999999999999</v>
+        <v>217.19059999999999</v>
       </c>
       <c r="D53">
-        <v>18.760999999999999</v>
+        <v>180.66</v>
       </c>
       <c r="E53">
-        <v>215.83</v>
+        <v>2212.25</v>
       </c>
       <c r="F53">
-        <v>30.21</v>
+        <v>5904</v>
       </c>
       <c r="G53">
-        <v>100.25</v>
+        <v>130.33330000000001</v>
       </c>
       <c r="H53">
-        <v>72.204314999999994</v>
+        <v>72.204262</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>42573</v>
+        <v>42608</v>
       </c>
       <c r="B54">
-        <v>126.49</v>
+        <v>260.39760000000001</v>
       </c>
       <c r="C54">
-        <v>131.27000000000001</v>
+        <v>217.32839999999999</v>
       </c>
       <c r="D54">
-        <v>18.560199999999998</v>
+        <v>180.78</v>
       </c>
       <c r="E54">
-        <v>217.24</v>
+        <v>2209.08</v>
       </c>
       <c r="F54">
-        <v>30.34</v>
+        <v>5951.36</v>
       </c>
       <c r="G54">
-        <v>100.27</v>
+        <v>130.36500000000001</v>
       </c>
       <c r="H54">
-        <v>72.204307999999997</v>
+        <v>72.204254000000006</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>42580</v>
+        <v>42615</v>
       </c>
       <c r="B55">
-        <v>127.46</v>
+        <v>258.81200000000001</v>
       </c>
       <c r="C55">
-        <v>131.66</v>
+        <v>217.33349999999999</v>
       </c>
       <c r="D55">
-        <v>18.4343</v>
+        <v>180.39</v>
       </c>
       <c r="E55">
-        <v>217.12</v>
+        <v>2244.63</v>
       </c>
       <c r="F55">
-        <v>30.54</v>
+        <v>6080.53</v>
       </c>
       <c r="G55">
-        <v>100.29</v>
+        <v>130.38759999999999</v>
       </c>
       <c r="H55">
-        <v>72.204291999999995</v>
+        <v>72.203536999999997</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>42587</v>
+        <v>42622</v>
       </c>
       <c r="B56">
-        <v>127.18</v>
+        <v>257.7808</v>
       </c>
       <c r="C56">
-        <v>131.58000000000001</v>
+        <v>217.34200000000001</v>
       </c>
       <c r="D56">
-        <v>18.2407</v>
+        <v>178.65</v>
       </c>
       <c r="E56">
-        <v>218.18</v>
+        <v>2186.31</v>
       </c>
       <c r="F56">
-        <v>30.395</v>
+        <v>5985.18</v>
       </c>
       <c r="G56">
-        <v>100.36</v>
+        <v>130.39619999999999</v>
       </c>
       <c r="H56">
-        <v>72.204284999999999</v>
+        <v>72.202826999999999</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>42594</v>
+        <v>42629</v>
       </c>
       <c r="B57">
-        <v>127.64</v>
+        <v>257.51429999999999</v>
       </c>
       <c r="C57">
-        <v>131.94</v>
+        <v>217.2671</v>
       </c>
       <c r="D57">
-        <v>18.444299999999998</v>
+        <v>174.41</v>
       </c>
       <c r="E57">
-        <v>218.46</v>
+        <v>2216.15</v>
       </c>
       <c r="F57">
-        <v>31.13</v>
+        <v>5842.13</v>
       </c>
       <c r="G57">
-        <v>100.47</v>
+        <v>130.39920000000001</v>
       </c>
       <c r="H57">
-        <v>72.204277000000005</v>
+        <v>72.202515000000005</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>42601</v>
+        <v>42636</v>
       </c>
       <c r="B58">
-        <v>127.09</v>
+        <v>259.62639999999999</v>
       </c>
       <c r="C58">
-        <v>131.66999999999999</v>
+        <v>217.42789999999999</v>
       </c>
       <c r="D58">
-        <v>18.592300000000002</v>
+        <v>176.82</v>
       </c>
       <c r="E58">
-        <v>218.54</v>
+        <v>2224.04</v>
       </c>
       <c r="F58">
-        <v>30.33</v>
+        <v>5971.9</v>
       </c>
       <c r="G58">
-        <v>100.5</v>
+        <v>130.40190000000001</v>
       </c>
       <c r="H58">
-        <v>72.204262</v>
+        <v>72.202499000000003</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>42608</v>
+        <v>42643</v>
       </c>
       <c r="B59">
-        <v>127.32</v>
+        <v>260.21859999999998</v>
       </c>
       <c r="C59">
-        <v>131.91</v>
+        <v>217.35679999999999</v>
       </c>
       <c r="D59">
-        <v>18.569900000000001</v>
+        <v>178.05</v>
       </c>
       <c r="E59">
-        <v>217.29</v>
+        <v>2221.85</v>
       </c>
       <c r="F59">
-        <v>30.78</v>
+        <v>5918.64</v>
       </c>
       <c r="G59">
-        <v>100.54</v>
+        <v>130.2928</v>
       </c>
       <c r="H59">
-        <v>72.204254000000006</v>
+        <v>72.202492000000007</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>42615</v>
+        <v>42650</v>
       </c>
       <c r="B60">
-        <v>126.65</v>
+        <v>257.49220000000003</v>
       </c>
       <c r="C60">
-        <v>131.71</v>
+        <v>217.20580000000001</v>
       </c>
       <c r="D60">
-        <v>18.499700000000001</v>
+        <v>177.53</v>
       </c>
       <c r="E60">
-        <v>218.37</v>
+        <v>2228.3200000000002</v>
       </c>
       <c r="F60">
-        <v>31.475000000000001</v>
+        <v>5897.73</v>
       </c>
       <c r="G60">
-        <v>100.6</v>
+        <v>130.3561</v>
       </c>
       <c r="H60">
-        <v>72.203536999999997</v>
+        <v>72.202354</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>42622</v>
+        <v>42657</v>
       </c>
       <c r="B61">
-        <v>126.15</v>
+        <v>257.11130000000003</v>
       </c>
       <c r="C61">
-        <v>131.43</v>
+        <v>217.18709999999999</v>
       </c>
       <c r="D61">
-        <v>18.307099999999998</v>
+        <v>176.18</v>
       </c>
       <c r="E61">
-        <v>213.28</v>
+        <v>2244.9699999999998</v>
       </c>
       <c r="F61">
-        <v>31.234999999999999</v>
+        <v>5897.33</v>
       </c>
       <c r="G61">
-        <v>100.67</v>
+        <v>130.3913</v>
       </c>
       <c r="H61">
-        <v>72.202826999999999</v>
+        <v>72.202158999999995</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>42629</v>
+        <v>42664</v>
       </c>
       <c r="B62">
-        <v>125.93</v>
+        <v>257.84719999999999</v>
       </c>
       <c r="C62">
-        <v>131.18</v>
+        <v>217.4188</v>
       </c>
       <c r="D62">
-        <v>17.860299999999999</v>
+        <v>175.94</v>
       </c>
       <c r="E62">
-        <v>213.37</v>
+        <v>2272.27</v>
       </c>
       <c r="F62">
-        <v>29.46</v>
+        <v>5970.45</v>
       </c>
       <c r="G62">
-        <v>100.7</v>
+        <v>130.4246</v>
       </c>
       <c r="H62">
-        <v>72.202515000000005</v>
+        <v>72.201981000000004</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>42636</v>
+        <v>42671</v>
       </c>
       <c r="B63">
-        <v>127.07</v>
+        <v>254.60079999999999</v>
       </c>
       <c r="C63">
-        <v>131.61000000000001</v>
+        <v>217.02520000000001</v>
       </c>
       <c r="D63">
-        <v>18.134399999999999</v>
+        <v>176.74</v>
       </c>
       <c r="E63">
-        <v>215.99</v>
+        <v>2248.0500000000002</v>
       </c>
       <c r="F63">
-        <v>30.42</v>
+        <v>5907.2</v>
       </c>
       <c r="G63">
-        <v>100.64</v>
+        <v>130.43279999999999</v>
       </c>
       <c r="H63">
-        <v>72.202499000000003</v>
+        <v>72.201824000000002</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>42643</v>
+        <v>42678</v>
       </c>
       <c r="B64">
-        <v>127.29</v>
+        <v>254.71899999999999</v>
       </c>
       <c r="C64">
-        <v>131.59</v>
+        <v>217.10120000000001</v>
       </c>
       <c r="D64">
-        <v>18.2424</v>
+        <v>185.34</v>
       </c>
       <c r="E64">
-        <v>216.3</v>
+        <v>2160.9899999999998</v>
       </c>
       <c r="F64">
-        <v>30.16</v>
+        <v>5691.26</v>
       </c>
       <c r="G64">
-        <v>100.54</v>
+        <v>130.4222</v>
       </c>
       <c r="H64">
-        <v>72.202492000000007</v>
+        <v>72.201849999999993</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>42650</v>
+        <v>42685</v>
       </c>
       <c r="B65">
-        <v>125.9</v>
+        <v>250.27459999999999</v>
       </c>
       <c r="C65">
-        <v>131.13</v>
+        <v>216.59360000000001</v>
       </c>
       <c r="D65">
-        <v>18.1721</v>
+        <v>191.06</v>
       </c>
       <c r="E65">
-        <v>215.04</v>
+        <v>2292.58</v>
       </c>
       <c r="F65">
-        <v>30.105</v>
+        <v>5866.09</v>
       </c>
       <c r="G65">
-        <v>100.53</v>
+        <v>130.43109999999999</v>
       </c>
       <c r="H65">
-        <v>72.202354</v>
+        <v>72.202017999999995</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>42657</v>
+        <v>42692</v>
       </c>
       <c r="B66">
-        <v>125.76</v>
+        <v>250.18879999999999</v>
       </c>
       <c r="C66">
-        <v>130.96</v>
+        <v>216.3297</v>
       </c>
       <c r="D66">
-        <v>17.999199999999998</v>
+        <v>194.61</v>
       </c>
       <c r="E66">
-        <v>213.12</v>
+        <v>2362.52</v>
       </c>
       <c r="F66">
-        <v>30.375</v>
+        <v>5890.07</v>
       </c>
       <c r="G66">
-        <v>100.51</v>
+        <v>130.42580000000001</v>
       </c>
       <c r="H66">
-        <v>72.202158999999995</v>
+        <v>72.202152999999996</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>42664</v>
+        <v>42699</v>
       </c>
       <c r="B67">
-        <v>126.1</v>
+        <v>250.09119999999999</v>
       </c>
       <c r="C67">
-        <v>131.43</v>
+        <v>216.773</v>
       </c>
       <c r="D67">
-        <v>18.0001</v>
+        <v>195.97</v>
       </c>
       <c r="E67">
-        <v>213.98</v>
+        <v>2387.39</v>
       </c>
       <c r="F67">
-        <v>30.875</v>
+        <v>5926.68</v>
       </c>
       <c r="G67">
-        <v>100.54</v>
+        <v>130.43209999999999</v>
       </c>
       <c r="H67">
-        <v>72.201981000000004</v>
+        <v>72.202280999999999</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>42671</v>
+        <v>42706</v>
       </c>
       <c r="B68">
-        <v>124.54</v>
+        <v>250.81139999999999</v>
       </c>
       <c r="C68">
-        <v>130.54</v>
+        <v>216.56819999999999</v>
       </c>
       <c r="D68">
-        <v>18.1783</v>
+        <v>201.85</v>
       </c>
       <c r="E68">
-        <v>212.54</v>
+        <v>2348.17</v>
       </c>
       <c r="F68">
-        <v>30.965</v>
+        <v>5873.65</v>
       </c>
       <c r="G68">
-        <v>100.54</v>
+        <v>130.4282</v>
       </c>
       <c r="H68">
-        <v>72.201824000000002</v>
+        <v>72.202425000000005</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>42678</v>
+        <v>42713</v>
       </c>
       <c r="B69">
-        <v>124.57</v>
+        <v>249.5119</v>
       </c>
       <c r="C69">
-        <v>130.46</v>
+        <v>216.85499999999999</v>
       </c>
       <c r="D69">
-        <v>18.9621</v>
+        <v>197.47</v>
       </c>
       <c r="E69">
-        <v>208.55</v>
+        <v>2451.84</v>
       </c>
       <c r="F69">
-        <v>29.695</v>
+        <v>6168.53</v>
       </c>
       <c r="G69">
-        <v>100.52</v>
+        <v>130.43039999999999</v>
       </c>
       <c r="H69">
-        <v>72.201849999999993</v>
+        <v>72.201642000000007</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>42685</v>
+        <v>42720</v>
       </c>
       <c r="B70">
-        <v>122.35</v>
+        <v>250.75659999999999</v>
       </c>
       <c r="C70">
-        <v>129.44</v>
+        <v>217.1249</v>
       </c>
       <c r="D70">
-        <v>19.553999999999998</v>
+        <v>190.54</v>
       </c>
       <c r="E70">
-        <v>216.42</v>
+        <v>2498.08</v>
       </c>
       <c r="F70">
-        <v>30.465</v>
+        <v>6278.12</v>
       </c>
       <c r="G70">
-        <v>100.55</v>
+        <v>130.44470000000001</v>
       </c>
       <c r="H70">
-        <v>72.202017999999995</v>
+        <v>72.199967000000001</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>42692</v>
+        <v>42727</v>
       </c>
       <c r="B71">
-        <v>122.29</v>
+        <v>252.56229999999999</v>
       </c>
       <c r="C71">
-        <v>128.62</v>
+        <v>217.32859999999999</v>
       </c>
       <c r="D71">
-        <v>19.928899999999999</v>
+        <v>189.96</v>
       </c>
       <c r="E71">
-        <v>218.5</v>
+        <v>2494.3200000000002</v>
       </c>
       <c r="F71">
-        <v>30.38</v>
+        <v>6268.77</v>
       </c>
       <c r="G71">
-        <v>100.59</v>
+        <v>130.49279999999999</v>
       </c>
       <c r="H71">
-        <v>72.202152999999996</v>
+        <v>72.197470999999993</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>42699</v>
+        <v>42734</v>
       </c>
       <c r="B72">
-        <v>122.26</v>
+        <v>252.42259999999999</v>
       </c>
       <c r="C72">
-        <v>129.29</v>
+        <v>217.39529999999999</v>
       </c>
       <c r="D72">
-        <v>20.0639</v>
+        <v>193.1</v>
       </c>
       <c r="E72">
-        <v>221.52</v>
+        <v>2448.17</v>
       </c>
       <c r="F72">
-        <v>30.66</v>
+        <v>6295.23</v>
       </c>
       <c r="G72">
-        <v>100.53</v>
+        <v>130.49690000000001</v>
       </c>
       <c r="H72">
-        <v>72.202280999999999</v>
+        <v>72.195199000000002</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>42706</v>
+        <v>42741</v>
       </c>
       <c r="B73">
-        <v>122.63</v>
+        <v>250.0282</v>
       </c>
       <c r="C73">
-        <v>128.83000000000001</v>
+        <v>217.14160000000001</v>
       </c>
       <c r="D73">
-        <v>20.697800000000001</v>
+        <v>198.41</v>
       </c>
       <c r="E73">
-        <v>219.68</v>
+        <v>2481.25</v>
       </c>
       <c r="F73">
-        <v>30.375</v>
+        <v>6379.17</v>
       </c>
       <c r="G73">
-        <v>100.43</v>
+        <v>130.52209999999999</v>
       </c>
       <c r="H73">
-        <v>72.202425000000005</v>
+        <v>72.192333000000005</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>42713</v>
+        <v>42748</v>
       </c>
       <c r="B74">
-        <v>121.93</v>
+        <v>250.33609999999999</v>
       </c>
       <c r="C74">
-        <v>129.11000000000001</v>
+        <v>217.09979999999999</v>
       </c>
       <c r="D74">
-        <v>20.244199999999999</v>
+        <v>195.54</v>
       </c>
       <c r="E74">
-        <v>226.51</v>
+        <v>2465.58</v>
       </c>
       <c r="F74">
-        <v>32.244999999999997</v>
+        <v>6372.28</v>
       </c>
       <c r="G74">
-        <v>100.43</v>
+        <v>130.54669999999999</v>
       </c>
       <c r="H74">
-        <v>72.201642000000007</v>
+        <v>72.189378000000005</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>42720</v>
+        <v>42755</v>
       </c>
       <c r="B75">
-        <v>122.66</v>
+        <v>248.6574</v>
       </c>
       <c r="C75">
-        <v>129.41</v>
+        <v>216.9366</v>
       </c>
       <c r="D75">
-        <v>19.560199999999998</v>
+        <v>194.28</v>
       </c>
       <c r="E75">
-        <v>225.04</v>
+        <v>2444.16</v>
       </c>
       <c r="F75">
-        <v>32.76</v>
+        <v>6298.53</v>
       </c>
       <c r="G75">
-        <v>100.44</v>
+        <v>130.57810000000001</v>
       </c>
       <c r="H75">
-        <v>72.199967000000001</v>
+        <v>72.186423000000005</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>42727</v>
+        <v>42762</v>
       </c>
       <c r="B76">
-        <v>123.54</v>
+        <v>247.2603</v>
       </c>
       <c r="C76">
-        <v>129.9</v>
+        <v>216.92140000000001</v>
       </c>
       <c r="D76">
-        <v>19.7318</v>
+        <v>192.49</v>
       </c>
       <c r="E76">
-        <v>225.71</v>
+        <v>2461.7399999999998</v>
       </c>
       <c r="F76">
-        <v>32.935000000000002</v>
+        <v>6340.32</v>
       </c>
       <c r="G76">
-        <v>100.41</v>
+        <v>130.60849999999999</v>
       </c>
       <c r="H76">
-        <v>72.197470999999993</v>
+        <v>72.183468000000005</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>42734</v>
+        <v>42769</v>
       </c>
       <c r="B77">
-        <v>123.55</v>
+        <v>246.9932</v>
       </c>
       <c r="C77">
-        <v>130.12</v>
+        <v>217.35990000000001</v>
       </c>
       <c r="D77">
-        <v>19.832899999999999</v>
+        <v>188.06</v>
       </c>
       <c r="E77">
-        <v>223.53</v>
+        <v>2448.91</v>
       </c>
       <c r="F77">
-        <v>33.08</v>
+        <v>6296.56</v>
       </c>
       <c r="G77">
-        <v>100.46</v>
+        <v>130.6232</v>
       </c>
       <c r="H77">
-        <v>72.195199000000002</v>
+        <v>72.180352999999997</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>42741</v>
+        <v>42776</v>
       </c>
       <c r="B78">
-        <v>122.2</v>
+        <v>247.39580000000001</v>
       </c>
       <c r="C78">
-        <v>129.63999999999999</v>
+        <v>217.74250000000001</v>
       </c>
       <c r="D78">
-        <v>20.3324</v>
+        <v>189.6</v>
       </c>
       <c r="E78">
-        <v>227.21</v>
+        <v>2503.2399999999998</v>
       </c>
       <c r="F78">
-        <v>33.445</v>
+        <v>6362.65</v>
       </c>
       <c r="G78">
-        <v>100.47</v>
+        <v>130.637</v>
       </c>
       <c r="H78">
-        <v>72.192333000000005</v>
+        <v>72.177116999999996</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>42748</v>
+        <v>42783</v>
       </c>
       <c r="B79">
-        <v>121.91</v>
+        <v>248.0479</v>
       </c>
       <c r="C79">
-        <v>128.52000000000001</v>
+        <v>217.96520000000001</v>
       </c>
       <c r="D79">
-        <v>19.979099999999999</v>
+        <v>183.91</v>
       </c>
       <c r="E79">
-        <v>227.05</v>
+        <v>2553.9699999999998</v>
       </c>
       <c r="F79">
-        <v>33.475000000000001</v>
+        <v>6445.36</v>
       </c>
       <c r="G79">
-        <v>100.5</v>
+        <v>130.65539999999999</v>
       </c>
       <c r="H79">
-        <v>72.189378000000005</v>
+        <v>72.173879999999997</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>42755</v>
+        <v>42790</v>
       </c>
       <c r="B80">
-        <v>121.12</v>
+        <v>249.53270000000001</v>
       </c>
       <c r="C80">
-        <v>128.22</v>
+        <v>218.66210000000001</v>
       </c>
       <c r="D80">
-        <v>19.861000000000001</v>
+        <v>193.57</v>
       </c>
       <c r="E80">
-        <v>226.74</v>
+        <v>2592.08</v>
       </c>
       <c r="F80">
-        <v>33.174999999999997</v>
+        <v>6456.26</v>
       </c>
       <c r="G80">
-        <v>100.53</v>
+        <v>130.67230000000001</v>
       </c>
       <c r="H80">
-        <v>72.186423000000005</v>
+        <v>72.170643999999996</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>42762</v>
+        <v>42797</v>
       </c>
       <c r="B81">
-        <v>120.43</v>
+        <v>248.7149</v>
       </c>
       <c r="C81">
-        <v>128.04</v>
+        <v>217.8117</v>
       </c>
       <c r="D81">
-        <v>19.7803</v>
+        <v>195.33</v>
       </c>
       <c r="E81">
-        <v>228.97</v>
+        <v>2619.39</v>
       </c>
       <c r="F81">
-        <v>33.25</v>
+        <v>6559.46</v>
       </c>
       <c r="G81">
-        <v>100.54</v>
+        <v>130.7003</v>
       </c>
       <c r="H81">
-        <v>72.183468000000005</v>
+        <v>72.167410000000004</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>42769</v>
+        <v>42804</v>
       </c>
       <c r="B82">
-        <v>120.32</v>
+        <v>245.77529999999999</v>
       </c>
       <c r="C82">
-        <v>128.38999999999999</v>
+        <v>217.51050000000001</v>
       </c>
       <c r="D82">
-        <v>19.257200000000001</v>
+        <v>194.19</v>
       </c>
       <c r="E82">
-        <v>229.34</v>
+        <v>2596.06</v>
       </c>
       <c r="F82">
-        <v>32.99</v>
+        <v>6526.74</v>
       </c>
       <c r="G82">
-        <v>100.6</v>
+        <v>130.7056</v>
       </c>
       <c r="H82">
-        <v>72.180352999999997</v>
+        <v>72.164175</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>42776</v>
+        <v>42811</v>
       </c>
       <c r="B83">
-        <v>120.51</v>
+        <v>246.3364</v>
       </c>
       <c r="C83">
-        <v>128.72999999999999</v>
+        <v>217.52279999999999</v>
       </c>
       <c r="D83">
-        <v>19.462700000000002</v>
+        <v>191.93</v>
       </c>
       <c r="E83">
-        <v>231.51</v>
+        <v>2576.38</v>
       </c>
       <c r="F83">
-        <v>32.975000000000001</v>
+        <v>6623.31</v>
       </c>
       <c r="G83">
-        <v>100.62</v>
+        <v>130.70830000000001</v>
       </c>
       <c r="H83">
-        <v>72.177116999999996</v>
+        <v>72.160939999999997</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>42783</v>
+        <v>42818</v>
       </c>
       <c r="B84">
-        <v>120.82</v>
+        <v>247.8717</v>
       </c>
       <c r="C84">
-        <v>129.15</v>
+        <v>217.40280000000001</v>
       </c>
       <c r="D84">
-        <v>18.854800000000001</v>
+        <v>192.76</v>
       </c>
       <c r="E84">
-        <v>235.09</v>
+        <v>2527.38</v>
       </c>
       <c r="F84">
-        <v>33.35</v>
+        <v>6595</v>
       </c>
       <c r="G84">
-        <v>100.62</v>
+        <v>130.7056</v>
       </c>
       <c r="H84">
-        <v>72.173879999999997</v>
+        <v>72.157786000000002</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>42790</v>
+        <v>42825</v>
       </c>
       <c r="B85">
-        <v>121.58</v>
+        <v>248.63480000000001</v>
       </c>
       <c r="C85">
-        <v>129.9</v>
+        <v>217.71899999999999</v>
       </c>
       <c r="D85">
-        <v>19.785799999999998</v>
+        <v>199.92</v>
       </c>
       <c r="E85">
-        <v>236.74</v>
+        <v>2570.13</v>
       </c>
       <c r="F85">
-        <v>33.325000000000003</v>
+        <v>6675.55</v>
       </c>
       <c r="G85">
-        <v>100.62</v>
+        <v>130.7021</v>
       </c>
       <c r="H85">
-        <v>72.170643999999996</v>
+        <v>72.154831000000001</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>42797</v>
+        <v>42832</v>
       </c>
       <c r="B86">
-        <v>121.13</v>
+        <v>250.24430000000001</v>
       </c>
       <c r="C86">
-        <v>128.97999999999999</v>
+        <v>218.27529999999999</v>
       </c>
       <c r="D86">
-        <v>19.941400000000002</v>
+        <v>202.43</v>
       </c>
       <c r="E86">
-        <v>238.42</v>
+        <v>2583.3200000000002</v>
       </c>
       <c r="F86">
-        <v>34.33</v>
+        <v>6685.26</v>
       </c>
       <c r="G86">
-        <v>100.68</v>
+        <v>130.7046</v>
       </c>
       <c r="H86">
-        <v>72.167410000000004</v>
+        <v>72.151895999999994</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>42804</v>
+        <v>42839</v>
       </c>
       <c r="B87">
-        <v>119.7</v>
+        <v>250.0472</v>
       </c>
       <c r="C87">
-        <v>128.24</v>
+        <v>218.49209999999999</v>
       </c>
       <c r="D87">
-        <v>19.8078</v>
+        <v>205.45</v>
       </c>
       <c r="E87">
-        <v>237.69</v>
+        <v>2551.4499999999998</v>
       </c>
       <c r="F87">
-        <v>34.465000000000003</v>
+        <v>6659.01</v>
       </c>
       <c r="G87">
-        <v>100.67</v>
+        <v>130.70179999999999</v>
       </c>
       <c r="H87">
-        <v>72.164175</v>
+        <v>72.149483000000004</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>42811</v>
+        <v>42846</v>
       </c>
       <c r="B88">
-        <v>119.93</v>
+        <v>249.7567</v>
       </c>
       <c r="C88">
-        <v>128.65</v>
+        <v>218.11879999999999</v>
       </c>
       <c r="D88">
-        <v>19.593800000000002</v>
+        <v>206.18</v>
       </c>
       <c r="E88">
-        <v>237.03</v>
+        <v>2552.12</v>
       </c>
       <c r="F88">
-        <v>34.594999999999999</v>
+        <v>6595.68</v>
       </c>
       <c r="G88">
-        <v>100.69</v>
+        <v>130.69450000000001</v>
       </c>
       <c r="H88">
-        <v>72.160939999999997</v>
+        <v>72.146826000000004</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>42818</v>
+        <v>42853</v>
       </c>
       <c r="B89">
-        <v>120.71</v>
+        <v>249.9169</v>
       </c>
       <c r="C89">
-        <v>128.76</v>
+        <v>218.30359999999999</v>
       </c>
       <c r="D89">
-        <v>19.6175</v>
+        <v>210.89</v>
       </c>
       <c r="E89">
-        <v>233.86</v>
+        <v>2547.6799999999998</v>
       </c>
       <c r="F89">
-        <v>34.615000000000002</v>
+        <v>6743.59</v>
       </c>
       <c r="G89">
-        <v>100.66</v>
+        <v>130.73400000000001</v>
       </c>
       <c r="H89">
-        <v>72.157786000000002</v>
+        <v>72.144712999999996</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>42825</v>
+        <v>42860</v>
       </c>
       <c r="B90">
-        <v>121.11</v>
+        <v>249.85040000000001</v>
       </c>
       <c r="C90">
-        <v>129.16999999999999</v>
+        <v>218.1208</v>
       </c>
       <c r="D90">
-        <v>20.316299999999998</v>
+        <v>218.66</v>
       </c>
       <c r="E90">
-        <v>235.74</v>
+        <v>2542.66</v>
       </c>
       <c r="F90">
-        <v>35.22</v>
+        <v>6889.22</v>
       </c>
       <c r="G90">
-        <v>100.69</v>
+        <v>130.78120000000001</v>
       </c>
       <c r="H90">
-        <v>72.154831000000001</v>
+        <v>72.142599000000004</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>42832</v>
+        <v>42867</v>
       </c>
       <c r="B91">
-        <v>121.86</v>
+        <v>249.51140000000001</v>
       </c>
       <c r="C91">
-        <v>129.72999999999999</v>
+        <v>218.3503</v>
       </c>
       <c r="D91">
-        <v>20.512799999999999</v>
+        <v>220.54</v>
       </c>
       <c r="E91">
-        <v>235.2</v>
+        <v>2554.06</v>
       </c>
       <c r="F91">
-        <v>35.225000000000001</v>
+        <v>6959.78</v>
       </c>
       <c r="G91">
-        <v>100.61</v>
+        <v>130.7852</v>
       </c>
       <c r="H91">
-        <v>72.151895999999994</v>
+        <v>72.140485999999996</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>42839</v>
+        <v>42874</v>
       </c>
       <c r="B92">
-        <v>121.62</v>
+        <v>250.4571</v>
       </c>
       <c r="C92">
-        <v>130</v>
+        <v>218.27529999999999</v>
       </c>
       <c r="D92">
-        <v>20.79</v>
+        <v>220.62</v>
       </c>
       <c r="E92">
-        <v>232.51</v>
+        <v>2477.9</v>
       </c>
       <c r="F92">
-        <v>34.71</v>
+        <v>6901.53</v>
       </c>
       <c r="G92">
-        <v>100.6</v>
+        <v>130.76329999999999</v>
       </c>
       <c r="H92">
-        <v>72.149483000000004</v>
+        <v>72.138373000000001</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>42846</v>
+        <v>42881</v>
       </c>
       <c r="B93">
-        <v>121.61</v>
+        <v>251.26779999999999</v>
       </c>
       <c r="C93">
-        <v>129.63999999999999</v>
+        <v>218.5128</v>
       </c>
       <c r="D93">
-        <v>20.869800000000001</v>
+        <v>217.03</v>
       </c>
       <c r="E93">
-        <v>234.59</v>
+        <v>2513.4899999999998</v>
       </c>
       <c r="F93">
-        <v>34.65</v>
+        <v>6888.67</v>
       </c>
       <c r="G93">
-        <v>100.59</v>
+        <v>130.77539999999999</v>
       </c>
       <c r="H93">
-        <v>72.146826000000004</v>
+        <v>72.136539999999997</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>42853</v>
+        <v>42888</v>
       </c>
       <c r="B94">
-        <v>121.66</v>
+        <v>251.0581</v>
       </c>
       <c r="C94">
-        <v>129.97999999999999</v>
+        <v>218.8219</v>
       </c>
       <c r="D94">
-        <v>21.291699999999999</v>
+        <v>215.99</v>
       </c>
       <c r="E94">
-        <v>238.08</v>
+        <v>2514.36</v>
       </c>
       <c r="F94">
-        <v>35.64</v>
+        <v>6910.37</v>
       </c>
       <c r="G94">
-        <v>100.65</v>
+        <v>130.78360000000001</v>
       </c>
       <c r="H94">
-        <v>72.144712999999996</v>
+        <v>72.134705999999994</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>42860</v>
+        <v>42895</v>
       </c>
       <c r="B95">
-        <v>121.66</v>
+        <v>252.14189999999999</v>
       </c>
       <c r="C95">
-        <v>129.69</v>
+        <v>218.82689999999999</v>
       </c>
       <c r="D95">
-        <v>21.998899999999999</v>
+        <v>217.72</v>
       </c>
       <c r="E95">
-        <v>239.7</v>
+        <v>2526.6999999999998</v>
       </c>
       <c r="F95">
-        <v>36.75</v>
+        <v>6866.34</v>
       </c>
       <c r="G95">
-        <v>100.71</v>
+        <v>130.78059999999999</v>
       </c>
       <c r="H95">
-        <v>72.142599000000004</v>
+        <v>72.132872000000006</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>42867</v>
+        <v>42902</v>
       </c>
       <c r="B96">
-        <v>121.48</v>
+        <v>252.6858</v>
       </c>
       <c r="C96">
-        <v>130.06</v>
+        <v>218.64359999999999</v>
       </c>
       <c r="D96">
-        <v>22.205400000000001</v>
+        <v>222.79</v>
       </c>
       <c r="E96">
-        <v>238.98</v>
+        <v>2525.84</v>
       </c>
       <c r="F96">
-        <v>36.71</v>
+        <v>6830.93</v>
       </c>
       <c r="G96">
-        <v>100.72</v>
+        <v>130.79730000000001</v>
       </c>
       <c r="H96">
-        <v>72.140485999999996</v>
+        <v>72.131039000000001</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>42874</v>
+        <v>42909</v>
       </c>
       <c r="B97">
-        <v>121.97</v>
+        <v>253.54239999999999</v>
       </c>
       <c r="C97">
-        <v>129.82</v>
+        <v>218.67140000000001</v>
       </c>
       <c r="D97">
-        <v>22.196899999999999</v>
+        <v>225.85</v>
       </c>
       <c r="E97">
-        <v>238.31</v>
+        <v>2541.0700000000002</v>
       </c>
       <c r="F97">
-        <v>36.295000000000002</v>
+        <v>6828.48</v>
       </c>
       <c r="G97">
-        <v>100.66</v>
+        <v>130.8192</v>
       </c>
       <c r="H97">
-        <v>72.138373000000001</v>
+        <v>72.129227</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>42881</v>
+        <v>42916</v>
       </c>
       <c r="B98">
-        <v>122.34</v>
+        <v>249.9529</v>
       </c>
       <c r="C98">
-        <v>130.16999999999999</v>
+        <v>218.11089999999999</v>
       </c>
       <c r="D98">
-        <v>21.813700000000001</v>
+        <v>225.87</v>
       </c>
       <c r="E98">
-        <v>241.71</v>
+        <v>2472.19</v>
       </c>
       <c r="F98">
-        <v>36.305</v>
+        <v>6679.62</v>
       </c>
       <c r="G98">
-        <v>100.68</v>
+        <v>130.82810000000001</v>
       </c>
       <c r="H98">
-        <v>72.136539999999997</v>
+        <v>72.126652000000007</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>42888</v>
+        <v>42923</v>
       </c>
       <c r="B99">
-        <v>122.25</v>
+        <v>247.94030000000001</v>
       </c>
       <c r="C99">
-        <v>130.51</v>
+        <v>218.3244</v>
       </c>
       <c r="D99">
-        <v>21.695799999999998</v>
+        <v>225.2</v>
       </c>
       <c r="E99">
-        <v>244.17</v>
+        <v>2477.81</v>
       </c>
       <c r="F99">
-        <v>36.53</v>
+        <v>6667.09</v>
       </c>
       <c r="G99">
-        <v>100.7</v>
+        <v>130.86089999999999</v>
       </c>
       <c r="H99">
-        <v>72.134705999999994</v>
+        <v>72.123977999999994</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>42895</v>
+        <v>42930</v>
       </c>
       <c r="B100">
-        <v>122.75</v>
+        <v>248.81630000000001</v>
       </c>
       <c r="C100">
-        <v>130.5</v>
+        <v>218.58799999999999</v>
       </c>
       <c r="D100">
-        <v>21.8291</v>
+        <v>226.08</v>
       </c>
       <c r="E100">
-        <v>243.41</v>
+        <v>2498.91</v>
       </c>
       <c r="F100">
-        <v>36.49</v>
+        <v>6778.28</v>
       </c>
       <c r="G100">
-        <v>100.69</v>
+        <v>130.88050000000001</v>
       </c>
       <c r="H100">
-        <v>72.132872000000006</v>
+        <v>72.120341999999994</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>42902</v>
+        <v>42937</v>
       </c>
       <c r="B101">
-        <v>123.01</v>
+        <v>250.95500000000001</v>
       </c>
       <c r="C101">
-        <v>130.52000000000001</v>
+        <v>219.0864</v>
       </c>
       <c r="D101">
-        <v>22.318899999999999</v>
+        <v>226.71</v>
       </c>
       <c r="E101">
-        <v>242.64</v>
+        <v>2464.71</v>
       </c>
       <c r="F101">
-        <v>35.755000000000003</v>
+        <v>6670.98</v>
       </c>
       <c r="G101">
-        <v>100.7</v>
+        <v>130.90119999999999</v>
       </c>
       <c r="H101">
-        <v>72.131039000000001</v>
+        <v>72.116546999999997</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>42909</v>
+        <v>42944</v>
       </c>
       <c r="B102">
-        <v>123.42</v>
+        <v>250.2278</v>
       </c>
       <c r="C102">
-        <v>130.69999999999999</v>
+        <v>219.24780000000001</v>
       </c>
       <c r="D102">
-        <v>22.4541</v>
+        <v>225.21</v>
       </c>
       <c r="E102">
-        <v>243.13</v>
+        <v>2452.14</v>
       </c>
       <c r="F102">
-        <v>35.799999999999997</v>
+        <v>6603.84</v>
       </c>
       <c r="G102">
-        <v>100.72</v>
+        <v>130.9111</v>
       </c>
       <c r="H102">
-        <v>72.129227</v>
+        <v>72.11233</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>42916</v>
+        <v>42951</v>
       </c>
       <c r="B103">
-        <v>121.69</v>
+        <v>251.71700000000001</v>
       </c>
       <c r="C103">
-        <v>129.72</v>
+        <v>219.524</v>
       </c>
       <c r="D103">
-        <v>22.589700000000001</v>
+        <v>223.97</v>
       </c>
       <c r="E103">
-        <v>241.8</v>
+        <v>2466.17</v>
       </c>
       <c r="F103">
-        <v>34.82</v>
+        <v>6687.75</v>
       </c>
       <c r="G103">
-        <v>100.75</v>
+        <v>130.94049999999999</v>
       </c>
       <c r="H103">
-        <v>72.126652000000007</v>
+        <v>72.108114999999998</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>42923</v>
+        <v>42958</v>
       </c>
       <c r="B104">
-        <v>120.73</v>
+        <v>252.61680000000001</v>
       </c>
       <c r="C104">
-        <v>129.53</v>
+        <v>219.64400000000001</v>
       </c>
       <c r="D104">
-        <v>22.500900000000001</v>
+        <v>222.67</v>
       </c>
       <c r="E104">
-        <v>242.11</v>
+        <v>2432.29</v>
       </c>
       <c r="F104">
-        <v>35.049999999999997</v>
+        <v>6508.54</v>
       </c>
       <c r="G104">
-        <v>100.81</v>
+        <v>130.9211</v>
       </c>
       <c r="H104">
-        <v>72.123977999999994</v>
+        <v>72.103898999999998</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>42930</v>
+        <v>42965</v>
       </c>
       <c r="B105">
-        <v>120.74</v>
+        <v>252.40440000000001</v>
       </c>
       <c r="C105">
-        <v>129.03</v>
+        <v>219.56200000000001</v>
       </c>
       <c r="D105">
-        <v>22.605499999999999</v>
+        <v>221.9</v>
       </c>
       <c r="E105">
-        <v>245.56</v>
+        <v>2423.7199999999998</v>
       </c>
       <c r="F105">
-        <v>35.69</v>
+        <v>6537.31</v>
       </c>
       <c r="G105">
-        <v>100.83</v>
+        <v>130.93039999999999</v>
       </c>
       <c r="H105">
-        <v>72.120341999999994</v>
+        <v>72.099683999999996</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>42937</v>
+        <v>42972</v>
       </c>
       <c r="B106">
-        <v>121.73</v>
+        <v>252.02809999999999</v>
       </c>
       <c r="C106">
-        <v>129.69999999999999</v>
+        <v>219.6628</v>
       </c>
       <c r="D106">
-        <v>22.647400000000001</v>
+        <v>223.97</v>
       </c>
       <c r="E106">
-        <v>246.88</v>
+        <v>2414.48</v>
       </c>
       <c r="F106">
-        <v>34.924999999999997</v>
+        <v>6539.36</v>
       </c>
       <c r="G106">
-        <v>100.87</v>
+        <v>130.92779999999999</v>
       </c>
       <c r="H106">
-        <v>72.116546999999997</v>
+        <v>72.095467999999997</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>42944</v>
+        <v>42979</v>
       </c>
       <c r="B107">
-        <v>121.4</v>
+        <v>252.1867</v>
       </c>
       <c r="C107">
-        <v>129.72</v>
+        <v>219.673</v>
       </c>
       <c r="D107">
-        <v>22.4727</v>
+        <v>224.41</v>
       </c>
       <c r="E107">
-        <v>246.91</v>
+        <v>2449.29</v>
       </c>
       <c r="F107">
-        <v>35.104999999999997</v>
+        <v>6573.73</v>
       </c>
       <c r="G107">
-        <v>100.8</v>
+        <v>130.9316</v>
       </c>
       <c r="H107">
-        <v>72.11233</v>
+        <v>72.091252999999995</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>42951</v>
+        <v>42986</v>
       </c>
       <c r="B108">
-        <v>122.01</v>
+        <v>253.23589999999999</v>
       </c>
       <c r="C108">
-        <v>130.12</v>
+        <v>219.8794</v>
       </c>
       <c r="D108">
-        <v>22.341899999999999</v>
+        <v>226.32</v>
       </c>
       <c r="E108">
-        <v>247.41</v>
+        <v>2400.0500000000002</v>
       </c>
       <c r="F108">
-        <v>35.534999999999997</v>
+        <v>6574.55</v>
       </c>
       <c r="G108">
-        <v>100.93</v>
+        <v>130.94890000000001</v>
       </c>
       <c r="H108">
-        <v>72.108114999999998</v>
+        <v>72.087038000000007</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>42958</v>
+        <v>42993</v>
       </c>
       <c r="B109">
-        <v>122.53</v>
+        <v>251.5728</v>
       </c>
       <c r="C109">
-        <v>130.25</v>
+        <v>219.48310000000001</v>
       </c>
       <c r="D109">
-        <v>22.172799999999999</v>
+        <v>228.15</v>
       </c>
       <c r="E109">
-        <v>244.12</v>
+        <v>2451.9499999999998</v>
       </c>
       <c r="F109">
-        <v>34.479999999999997</v>
+        <v>6667.82</v>
       </c>
       <c r="G109">
-        <v>100.9</v>
+        <v>131.01089999999999</v>
       </c>
       <c r="H109">
-        <v>72.103898999999998</v>
+        <v>72.082823000000005</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>42965</v>
+        <v>43000</v>
       </c>
       <c r="B110">
-        <v>122.38</v>
+        <v>251.4598</v>
       </c>
       <c r="C110">
-        <v>130.13</v>
+        <v>219.46770000000001</v>
       </c>
       <c r="D110">
-        <v>22.085999999999999</v>
+        <v>226.67</v>
       </c>
       <c r="E110">
-        <v>242.71</v>
+        <v>2452.1799999999998</v>
       </c>
       <c r="F110">
-        <v>34.884999999999998</v>
+        <v>6721.19</v>
       </c>
       <c r="G110">
-        <v>100.92</v>
+        <v>131.0274</v>
       </c>
       <c r="H110">
-        <v>72.099683999999996</v>
+        <v>72.078608000000003</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>42972</v>
+        <v>43007</v>
       </c>
       <c r="B111">
-        <v>122.22</v>
+        <v>251.44139999999999</v>
       </c>
       <c r="C111">
-        <v>130.25</v>
+        <v>219.5813</v>
       </c>
       <c r="D111">
-        <v>22.334199999999999</v>
+        <v>225.44</v>
       </c>
       <c r="E111">
-        <v>244.56</v>
+        <v>2493.2199999999998</v>
       </c>
       <c r="F111">
-        <v>34.83</v>
+        <v>6823.77</v>
       </c>
       <c r="G111">
-        <v>100.96</v>
+        <v>131.0299</v>
       </c>
       <c r="H111">
-        <v>72.095467999999997</v>
+        <v>72.074265999999994</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>42979</v>
+        <v>43014</v>
       </c>
       <c r="B112">
-        <v>122.32</v>
+        <v>251.11750000000001</v>
       </c>
       <c r="C112">
-        <v>130.30000000000001</v>
+        <v>219.5984</v>
       </c>
       <c r="D112">
-        <v>22.379899999999999</v>
+        <v>226.53</v>
       </c>
       <c r="E112">
-        <v>247.84</v>
+        <v>2543.7800000000002</v>
       </c>
       <c r="F112">
-        <v>34.884999999999998</v>
+        <v>6861.6</v>
       </c>
       <c r="G112">
-        <v>100.92</v>
+        <v>131.042</v>
       </c>
       <c r="H112">
-        <v>72.091252999999995</v>
+        <v>72.069584000000006</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>42986</v>
+        <v>43021</v>
       </c>
       <c r="B113">
-        <v>122.8</v>
+        <v>252.48500000000001</v>
       </c>
       <c r="C113">
-        <v>130.44999999999999</v>
+        <v>219.9794</v>
       </c>
       <c r="D113">
-        <v>22.557200000000002</v>
+        <v>228.87</v>
       </c>
       <c r="E113">
-        <v>246.58</v>
+        <v>2523.41</v>
       </c>
       <c r="F113">
-        <v>34.905000000000001</v>
+        <v>6885.82</v>
       </c>
       <c r="G113">
-        <v>100.95</v>
+        <v>131.06960000000001</v>
       </c>
       <c r="H113">
-        <v>72.087038000000007</v>
+        <v>72.064783000000006</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>42993</v>
+        <v>43028</v>
       </c>
       <c r="B114">
-        <v>122.02</v>
+        <v>251.9357</v>
       </c>
       <c r="C114">
-        <v>129.97999999999999</v>
+        <v>220.0001</v>
       </c>
       <c r="D114">
-        <v>22.7317</v>
+        <v>229.44</v>
       </c>
       <c r="E114">
-        <v>249.19</v>
+        <v>2558.0700000000002</v>
       </c>
       <c r="F114">
-        <v>35</v>
+        <v>6856.01</v>
       </c>
       <c r="G114">
-        <v>101.03</v>
+        <v>131.0985</v>
       </c>
       <c r="H114">
-        <v>72.082823000000005</v>
+        <v>72.059984</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43000</v>
+        <v>43035</v>
       </c>
       <c r="B115">
-        <v>121.96</v>
+        <v>253.07390000000001</v>
       </c>
       <c r="C115">
-        <v>130.04</v>
+        <v>220.49010000000001</v>
       </c>
       <c r="D115">
-        <v>22.5748</v>
+        <v>230.37</v>
       </c>
       <c r="E115">
-        <v>249.44</v>
+        <v>2620.09</v>
       </c>
       <c r="F115">
-        <v>35.314999999999998</v>
+        <v>6908.12</v>
       </c>
       <c r="G115">
-        <v>101.05</v>
+        <v>131.10929999999999</v>
       </c>
       <c r="H115">
-        <v>72.078608000000003</v>
+        <v>72.055183999999997</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43007</v>
+        <v>43042</v>
       </c>
       <c r="B116">
-        <v>121.94</v>
+        <v>254.30350000000001</v>
       </c>
       <c r="C116">
-        <v>130.02000000000001</v>
+        <v>220.70760000000001</v>
       </c>
       <c r="D116">
-        <v>22.441299999999998</v>
+        <v>238.13</v>
       </c>
       <c r="E116">
-        <v>251.23</v>
+        <v>2622.02</v>
       </c>
       <c r="F116">
-        <v>35.825000000000003</v>
+        <v>6968.79</v>
       </c>
       <c r="G116">
-        <v>101.04</v>
+        <v>131.13570000000001</v>
       </c>
       <c r="H116">
-        <v>72.074265999999994</v>
+        <v>72.050385000000006</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43014</v>
+        <v>43049</v>
       </c>
       <c r="B117">
-        <v>121.79</v>
+        <v>253.41900000000001</v>
       </c>
       <c r="C117">
-        <v>130.13</v>
+        <v>220.48920000000001</v>
       </c>
       <c r="D117">
-        <v>22.531600000000001</v>
+        <v>238.3</v>
       </c>
       <c r="E117">
-        <v>254.37</v>
+        <v>2607.2399999999998</v>
       </c>
       <c r="F117">
-        <v>35.945</v>
+        <v>6846.1</v>
       </c>
       <c r="G117">
-        <v>101.07</v>
+        <v>131.12479999999999</v>
       </c>
       <c r="H117">
-        <v>72.069584000000006</v>
+        <v>72.045586</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43021</v>
+        <v>43056</v>
       </c>
       <c r="B118">
-        <v>122.39</v>
+        <v>254.14580000000001</v>
       </c>
       <c r="C118">
-        <v>130.68</v>
+        <v>220.41749999999999</v>
       </c>
       <c r="D118">
-        <v>22.776</v>
+        <v>239.37</v>
       </c>
       <c r="E118">
-        <v>254.95</v>
+        <v>2564.5700000000002</v>
       </c>
       <c r="F118">
-        <v>35.97</v>
+        <v>6765.29</v>
       </c>
       <c r="G118">
-        <v>101.11</v>
+        <v>131.12029999999999</v>
       </c>
       <c r="H118">
-        <v>72.064783000000006</v>
+        <v>72.040786999999995</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43028</v>
+        <v>43063</v>
       </c>
       <c r="B119">
-        <v>122.15</v>
+        <v>254.62010000000001</v>
       </c>
       <c r="C119">
-        <v>130.59</v>
+        <v>220.3383</v>
       </c>
       <c r="D119">
-        <v>22.812899999999999</v>
+        <v>237.79</v>
       </c>
       <c r="E119">
-        <v>257.11</v>
+        <v>2562.6999999999998</v>
       </c>
       <c r="F119">
-        <v>35.965000000000003</v>
+        <v>6839.98</v>
       </c>
       <c r="G119">
-        <v>101.11</v>
+        <v>131.14109999999999</v>
       </c>
       <c r="H119">
-        <v>72.059984</v>
+        <v>72.035989000000001</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43035</v>
+        <v>43070</v>
       </c>
       <c r="B120">
-        <v>122.72</v>
+        <v>256.09219999999999</v>
       </c>
       <c r="C120">
-        <v>131.21</v>
+        <v>220.5333</v>
       </c>
       <c r="D120">
-        <v>22.9208</v>
+        <v>237.34</v>
       </c>
       <c r="E120">
-        <v>257.70999999999998</v>
+        <v>2618.67</v>
       </c>
       <c r="F120">
-        <v>36.479999999999997</v>
+        <v>6771.05</v>
       </c>
       <c r="G120">
-        <v>101.14</v>
+        <v>131.14230000000001</v>
       </c>
       <c r="H120">
-        <v>72.055183999999997</v>
+        <v>72.031352999999996</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43042</v>
+        <v>43077</v>
       </c>
       <c r="B121">
-        <v>123.29</v>
+        <v>256.39800000000002</v>
       </c>
       <c r="C121">
-        <v>131.72</v>
+        <v>220.70410000000001</v>
       </c>
       <c r="D121">
-        <v>23.763500000000001</v>
+        <v>240.2</v>
       </c>
       <c r="E121">
-        <v>258.45</v>
+        <v>2653.32</v>
       </c>
       <c r="F121">
-        <v>36.83</v>
+        <v>6854.46</v>
       </c>
       <c r="G121">
-        <v>101.17</v>
+        <v>131.1439</v>
       </c>
       <c r="H121">
-        <v>72.050385000000006</v>
+        <v>72.026695000000004</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43049</v>
+        <v>43084</v>
       </c>
       <c r="B122">
-        <v>122.85</v>
+        <v>255.6095</v>
       </c>
       <c r="C122">
-        <v>131.16999999999999</v>
+        <v>220.56460000000001</v>
       </c>
       <c r="D122">
-        <v>23.7744</v>
+        <v>240.87</v>
       </c>
       <c r="E122">
-        <v>258.08999999999997</v>
+        <v>2691.32</v>
       </c>
       <c r="F122">
-        <v>35.85</v>
+        <v>6872.04</v>
       </c>
       <c r="G122">
-        <v>101.16</v>
+        <v>131.14869999999999</v>
       </c>
       <c r="H122">
-        <v>72.045586</v>
+        <v>72.021996000000001</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43056</v>
+        <v>43091</v>
       </c>
       <c r="B123">
-        <v>123.21</v>
+        <v>253.96899999999999</v>
       </c>
       <c r="C123">
-        <v>131.26</v>
+        <v>220.00579999999999</v>
       </c>
       <c r="D123">
-        <v>23.844100000000001</v>
+        <v>253.3</v>
       </c>
       <c r="E123">
-        <v>257.86</v>
+        <v>2678.42</v>
       </c>
       <c r="F123">
-        <v>35.4</v>
+        <v>6880.08</v>
       </c>
       <c r="G123">
-        <v>101.16</v>
+        <v>131.14869999999999</v>
       </c>
       <c r="H123">
-        <v>72.040786999999995</v>
+        <v>72.017296999999999</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43063</v>
+        <v>43098</v>
       </c>
       <c r="B124">
-        <v>123.42</v>
+        <v>252.85059999999999</v>
       </c>
       <c r="C124">
-        <v>131.31</v>
+        <v>219.91159999999999</v>
       </c>
       <c r="D124">
-        <v>23.628299999999999</v>
+        <v>256.14</v>
       </c>
       <c r="E124">
-        <v>260.36</v>
+        <v>2624.93</v>
       </c>
       <c r="F124">
-        <v>35.765000000000001</v>
+        <v>6861.77</v>
       </c>
       <c r="G124">
-        <v>101.19</v>
+        <v>131.1516</v>
       </c>
       <c r="H124">
-        <v>72.035989000000001</v>
+        <v>72.012597999999997</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43070</v>
+        <v>43105</v>
       </c>
       <c r="B125">
-        <v>124.18</v>
+        <v>253.0189</v>
       </c>
       <c r="C125">
-        <v>131.57</v>
+        <v>220.1019</v>
       </c>
       <c r="D125">
-        <v>24.549900000000001</v>
+        <v>263.67</v>
       </c>
       <c r="E125">
-        <v>264.45999999999998</v>
+        <v>2690.73</v>
       </c>
       <c r="F125">
-        <v>35.134999999999998</v>
+        <v>6978.92</v>
       </c>
       <c r="G125">
-        <v>101.18</v>
+        <v>131.1677</v>
       </c>
       <c r="H125">
-        <v>72.031352999999996</v>
+        <v>72.007900000000006</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43077</v>
+        <v>43112</v>
       </c>
       <c r="B126">
-        <v>124.26</v>
+        <v>252.37260000000001</v>
       </c>
       <c r="C126">
-        <v>131.755</v>
+        <v>219.696</v>
       </c>
       <c r="D126">
-        <v>25.900300000000001</v>
+        <v>262.22000000000003</v>
       </c>
       <c r="E126">
-        <v>265.51</v>
+        <v>2707.57</v>
       </c>
       <c r="F126">
-        <v>35.895000000000003</v>
+        <v>7002.23</v>
       </c>
       <c r="G126">
-        <v>101.2</v>
+        <v>131.1696</v>
       </c>
       <c r="H126">
-        <v>72.026695000000004</v>
+        <v>72.003201000000004</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43084</v>
+        <v>43119</v>
       </c>
       <c r="B127">
-        <v>123.91</v>
+        <v>252.82820000000001</v>
       </c>
       <c r="C127">
-        <v>131.63</v>
+        <v>220.09610000000001</v>
       </c>
       <c r="D127">
-        <v>27.2789</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="E127">
-        <v>266.51</v>
+        <v>2715.92</v>
       </c>
       <c r="F127">
-        <v>35.51</v>
+        <v>7025.39</v>
       </c>
       <c r="G127">
-        <v>101.16</v>
+        <v>131.172</v>
       </c>
       <c r="H127">
-        <v>72.021996000000001</v>
+        <v>71.998503999999997</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43091</v>
+        <v>43126</v>
       </c>
       <c r="B128">
-        <v>123.09</v>
+        <v>252.4057</v>
       </c>
       <c r="C128">
-        <v>130.9</v>
+        <v>219.86099999999999</v>
       </c>
       <c r="D128">
-        <v>27.160900000000002</v>
+        <v>266.45999999999998</v>
       </c>
       <c r="E128">
-        <v>267.51</v>
+        <v>2739.45</v>
       </c>
       <c r="F128">
-        <v>35.405000000000001</v>
+        <v>7037.12</v>
       </c>
       <c r="G128">
-        <v>101.19</v>
+        <v>131.19909999999999</v>
       </c>
       <c r="H128">
-        <v>72.017296999999999</v>
+        <v>71.993806000000006</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43098</v>
+        <v>43133</v>
       </c>
       <c r="B129">
-        <v>122.53</v>
+        <v>251.42779999999999</v>
       </c>
       <c r="C129">
-        <v>130.88</v>
+        <v>219.77019999999999</v>
       </c>
       <c r="D129">
-        <v>27.145499999999998</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="E129">
-        <v>266.86</v>
+        <v>2639.67</v>
       </c>
       <c r="F129">
-        <v>35.020000000000003</v>
+        <v>6794.06</v>
       </c>
       <c r="G129">
-        <v>101.21</v>
+        <v>131.21610000000001</v>
       </c>
       <c r="H129">
-        <v>72.012597999999997</v>
+        <v>71.989108999999999</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43105</v>
+        <v>43140</v>
       </c>
       <c r="B130">
-        <v>122.61499999999999</v>
+        <v>251.59639999999999</v>
       </c>
       <c r="C130">
-        <v>131.13</v>
+        <v>219.69</v>
       </c>
       <c r="D130">
-        <v>28.105499999999999</v>
+        <v>257.02</v>
       </c>
       <c r="E130">
-        <v>273.42</v>
+        <v>2536.9499999999998</v>
       </c>
       <c r="F130">
-        <v>35.93</v>
+        <v>6427.61</v>
       </c>
       <c r="G130">
-        <v>101.25</v>
+        <v>131.1618</v>
       </c>
       <c r="H130">
-        <v>72.007900000000006</v>
+        <v>71.984412000000006</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43112</v>
+        <v>43147</v>
       </c>
       <c r="B131">
-        <v>122.05</v>
+        <v>251.82060000000001</v>
       </c>
       <c r="C131">
-        <v>130.185</v>
+        <v>219.8451</v>
       </c>
       <c r="D131">
-        <v>27.8764</v>
+        <v>253.34</v>
       </c>
       <c r="E131">
-        <v>277.92</v>
+        <v>2613.2800000000002</v>
       </c>
       <c r="F131">
-        <v>36.034999999999997</v>
+        <v>6618.96</v>
       </c>
       <c r="G131">
-        <v>101.22</v>
+        <v>131.14859999999999</v>
       </c>
       <c r="H131">
-        <v>72.003201000000004</v>
+        <v>71.979714999999999</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43119</v>
+        <v>43154</v>
       </c>
       <c r="B132">
-        <v>122.155</v>
+        <v>251.88</v>
       </c>
       <c r="C132">
-        <v>130.44999999999999</v>
+        <v>219.9659</v>
       </c>
       <c r="D132">
-        <v>28.023900000000001</v>
+        <v>250.32</v>
       </c>
       <c r="E132">
-        <v>280.41000000000003</v>
+        <v>2659.95</v>
       </c>
       <c r="F132">
-        <v>36.365000000000002</v>
+        <v>6632.15</v>
       </c>
       <c r="G132">
-        <v>101.21</v>
+        <v>131.13910000000001</v>
       </c>
       <c r="H132">
-        <v>71.998503999999997</v>
+        <v>71.975019000000003</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43126</v>
+        <v>43161</v>
       </c>
       <c r="B133">
-        <v>121.91</v>
+        <v>252.7259</v>
       </c>
       <c r="C133">
-        <v>130.19999999999999</v>
+        <v>219.93879999999999</v>
       </c>
       <c r="D133">
-        <v>28.3249</v>
+        <v>250.29</v>
       </c>
       <c r="E133">
-        <v>286.58</v>
+        <v>2607.5700000000002</v>
       </c>
       <c r="F133">
-        <v>36.354999999999997</v>
+        <v>6380.45</v>
       </c>
       <c r="G133">
-        <v>101.21</v>
+        <v>131.06379999999999</v>
       </c>
       <c r="H133">
-        <v>71.993806000000006</v>
+        <v>71.970322999999993</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43133</v>
+        <v>43168</v>
       </c>
       <c r="B134">
-        <v>121.41</v>
+        <v>253.02869999999999</v>
       </c>
       <c r="C134">
-        <v>129.70500000000001</v>
+        <v>219.93960000000001</v>
       </c>
       <c r="D134">
-        <v>28.145900000000001</v>
+        <v>254.55</v>
       </c>
       <c r="E134">
-        <v>275.45</v>
+        <v>2694.28</v>
       </c>
       <c r="F134">
-        <v>35.18</v>
+        <v>6551.58</v>
       </c>
       <c r="G134">
-        <v>101.24</v>
+        <v>131.04349999999999</v>
       </c>
       <c r="H134">
-        <v>71.989108999999999</v>
+        <v>71.965626999999998</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43140</v>
+        <v>43175</v>
       </c>
       <c r="B135">
-        <v>121.52500000000001</v>
+        <v>254.16059999999999</v>
       </c>
       <c r="C135">
-        <v>129.495</v>
+        <v>219.88980000000001</v>
       </c>
       <c r="D135">
-        <v>27.146100000000001</v>
+        <v>255.44</v>
       </c>
       <c r="E135">
-        <v>261.5</v>
+        <v>2664.02</v>
       </c>
       <c r="F135">
-        <v>33.225000000000001</v>
+        <v>6555.93</v>
       </c>
       <c r="G135">
-        <v>101.18</v>
+        <v>130.97659999999999</v>
       </c>
       <c r="H135">
-        <v>71.984412000000006</v>
+        <v>71.960772000000006</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43147</v>
+        <v>43182</v>
       </c>
       <c r="B136">
-        <v>121.69499999999999</v>
+        <v>255.48509999999999</v>
       </c>
       <c r="C136">
-        <v>129.82499999999999</v>
+        <v>219.6909</v>
       </c>
       <c r="D136">
-        <v>26.552299999999999</v>
+        <v>253.04</v>
       </c>
       <c r="E136">
-        <v>273.11</v>
+        <v>2468.85</v>
       </c>
       <c r="F136">
-        <v>34.225000000000001</v>
+        <v>6338.41</v>
       </c>
       <c r="G136">
-        <v>101.13</v>
+        <v>130.8887</v>
       </c>
       <c r="H136">
-        <v>71.979714999999999</v>
+        <v>71.955444</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43154</v>
+        <v>43189</v>
       </c>
       <c r="B137">
-        <v>121.7</v>
+        <v>256.46699999999998</v>
       </c>
       <c r="C137">
-        <v>129.91</v>
+        <v>219.81309999999999</v>
       </c>
       <c r="D137">
-        <v>26.1843</v>
+        <v>255.06</v>
       </c>
       <c r="E137">
-        <v>274.70999999999998</v>
+        <v>2531.38</v>
       </c>
       <c r="F137">
-        <v>34.340000000000003</v>
+        <v>6454.65</v>
       </c>
       <c r="G137">
-        <v>101.13</v>
+        <v>130.8817</v>
       </c>
       <c r="H137">
-        <v>71.975019000000003</v>
+        <v>71.950757999999993</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43161</v>
+        <v>43196</v>
       </c>
       <c r="B138">
-        <v>121.985</v>
+        <v>256.1669</v>
       </c>
       <c r="C138">
-        <v>129.79</v>
+        <v>219.8295</v>
       </c>
       <c r="D138">
-        <v>26.177499999999998</v>
+        <v>261.32</v>
       </c>
       <c r="E138">
-        <v>269.08</v>
+        <v>2509.2399999999998</v>
       </c>
       <c r="F138">
-        <v>33.200000000000003</v>
+        <v>6563.82</v>
       </c>
       <c r="G138">
-        <v>101.01</v>
+        <v>130.88749999999999</v>
       </c>
       <c r="H138">
-        <v>71.970322999999993</v>
+        <v>71.944348000000005</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43168</v>
+        <v>43203</v>
       </c>
       <c r="B139">
-        <v>122.15</v>
+        <v>255.93010000000001</v>
       </c>
       <c r="C139">
-        <v>129.79499999999999</v>
+        <v>219.94049999999999</v>
       </c>
       <c r="D139">
-        <v>26.710999999999999</v>
+        <v>259.14999999999998</v>
       </c>
       <c r="E139">
-        <v>278.87</v>
+        <v>2550.79</v>
       </c>
       <c r="F139">
-        <v>34.15</v>
+        <v>6635.27</v>
       </c>
       <c r="G139">
-        <v>100.97</v>
+        <v>130.88939999999999</v>
       </c>
       <c r="H139">
-        <v>71.965626999999998</v>
+        <v>71.938743000000002</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43175</v>
+        <v>43210</v>
       </c>
       <c r="B140">
-        <v>122.755</v>
+        <v>255.15119999999999</v>
       </c>
       <c r="C140">
-        <v>129.80000000000001</v>
+        <v>219.75800000000001</v>
       </c>
       <c r="D140">
-        <v>26.8169</v>
+        <v>259.5</v>
       </c>
       <c r="E140">
-        <v>274.2</v>
+        <v>2563.44</v>
       </c>
       <c r="F140">
-        <v>34.36</v>
+        <v>6645.04</v>
       </c>
       <c r="G140">
-        <v>100.85</v>
+        <v>130.8877</v>
       </c>
       <c r="H140">
-        <v>71.960772000000006</v>
+        <v>71.933138</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43182</v>
+        <v>43217</v>
       </c>
       <c r="B141">
-        <v>123.375</v>
+        <v>255.6617</v>
       </c>
       <c r="C141">
-        <v>129.43</v>
+        <v>219.89</v>
       </c>
       <c r="D141">
-        <v>26.477699999999999</v>
+        <v>261.52</v>
       </c>
       <c r="E141">
-        <v>258.05</v>
+        <v>2603.27</v>
       </c>
       <c r="F141">
-        <v>32.914999999999999</v>
+        <v>6733.36</v>
       </c>
       <c r="G141">
-        <v>100.74</v>
+        <v>130.8861</v>
       </c>
       <c r="H141">
-        <v>71.955444</v>
+        <v>71.927532999999997</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43189</v>
+        <v>43224</v>
       </c>
       <c r="B142">
-        <v>123.88500000000001</v>
+        <v>255.3937</v>
       </c>
       <c r="C142">
-        <v>129.785</v>
+        <v>219.92240000000001</v>
       </c>
       <c r="D142">
-        <v>26.712299999999999</v>
+        <v>258</v>
       </c>
       <c r="E142">
-        <v>263.14999999999998</v>
+        <v>2650.45</v>
       </c>
       <c r="F142">
-        <v>33.61</v>
+        <v>6785.31</v>
       </c>
       <c r="G142">
-        <v>100.71</v>
+        <v>130.87909999999999</v>
       </c>
       <c r="H142">
-        <v>71.950757999999993</v>
+        <v>71.921848999999995</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43196</v>
+        <v>43231</v>
       </c>
       <c r="B143">
-        <v>123.68</v>
+        <v>254.99250000000001</v>
       </c>
       <c r="C143">
-        <v>129.77500000000001</v>
+        <v>219.92320000000001</v>
       </c>
       <c r="D143">
-        <v>27.503799999999998</v>
+        <v>259.55</v>
       </c>
       <c r="E143">
-        <v>259.72000000000003</v>
+        <v>2718.36</v>
       </c>
       <c r="F143">
-        <v>34.094999999999999</v>
+        <v>6888.3</v>
       </c>
       <c r="G143">
-        <v>100.76</v>
+        <v>130.87469999999999</v>
       </c>
       <c r="H143">
-        <v>71.944348000000005</v>
+        <v>71.915965</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43203</v>
+        <v>43238</v>
       </c>
       <c r="B144">
-        <v>123.56</v>
+        <v>252.90969999999999</v>
       </c>
       <c r="C144">
-        <v>129.97499999999999</v>
+        <v>219.7687</v>
       </c>
       <c r="D144">
-        <v>27.2165</v>
+        <v>250.88</v>
       </c>
       <c r="E144">
-        <v>265.14999999999998</v>
+        <v>2730.41</v>
       </c>
       <c r="F144">
-        <v>34.53</v>
+        <v>6952.67</v>
       </c>
       <c r="G144">
-        <v>100.79</v>
+        <v>130.8235</v>
       </c>
       <c r="H144">
-        <v>71.938743000000002</v>
+        <v>71.910083</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43210</v>
+        <v>43245</v>
       </c>
       <c r="B145">
-        <v>123.29</v>
+        <v>253.23699999999999</v>
       </c>
       <c r="C145">
-        <v>129.65</v>
+        <v>219.8991</v>
       </c>
       <c r="D145">
-        <v>27.2178</v>
+        <v>254.48</v>
       </c>
       <c r="E145">
-        <v>266.61</v>
+        <v>2766.2</v>
       </c>
       <c r="F145">
-        <v>35.020000000000003</v>
+        <v>6869.7</v>
       </c>
       <c r="G145">
-        <v>100.8</v>
+        <v>130.68620000000001</v>
       </c>
       <c r="H145">
-        <v>71.933138</v>
+        <v>71.904200000000003</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43217</v>
+        <v>43252</v>
       </c>
       <c r="B146">
-        <v>123.47</v>
+        <v>252.63589999999999</v>
       </c>
       <c r="C146">
-        <v>129.785</v>
+        <v>219.56829999999999</v>
       </c>
       <c r="D146">
-        <v>27.436800000000002</v>
+        <v>252.16</v>
       </c>
       <c r="E146">
-        <v>266.56</v>
+        <v>2783.34</v>
       </c>
       <c r="F146">
-        <v>35.369999999999997</v>
+        <v>6810.92</v>
       </c>
       <c r="G146">
-        <v>100.77</v>
+        <v>130.49289999999999</v>
       </c>
       <c r="H146">
-        <v>71.927532999999997</v>
+        <v>71.898319000000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43224</v>
+        <v>43259</v>
       </c>
       <c r="B147">
-        <v>123.27</v>
+        <v>250.18879999999999</v>
       </c>
       <c r="C147">
-        <v>129.78</v>
+        <v>219.4135</v>
       </c>
       <c r="D147">
-        <v>27.014099999999999</v>
+        <v>248.78</v>
       </c>
       <c r="E147">
-        <v>266.02</v>
+        <v>2806.19</v>
       </c>
       <c r="F147">
-        <v>35.774999999999999</v>
+        <v>6755.75</v>
       </c>
       <c r="G147">
-        <v>100.8</v>
+        <v>130.4117</v>
       </c>
       <c r="H147">
-        <v>71.921848999999995</v>
+        <v>71.892437999999999</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43231</v>
+        <v>43266</v>
       </c>
       <c r="B148">
-        <v>123.17</v>
+        <v>253.3287</v>
       </c>
       <c r="C148">
-        <v>129.80000000000001</v>
+        <v>219.8219</v>
       </c>
       <c r="D148">
-        <v>27.186</v>
+        <v>252</v>
       </c>
       <c r="E148">
-        <v>272.85000000000002</v>
+        <v>2832.1</v>
       </c>
       <c r="F148">
-        <v>36.11</v>
+        <v>6827.33</v>
       </c>
       <c r="G148">
-        <v>100.75</v>
+        <v>130.4863</v>
       </c>
       <c r="H148">
-        <v>71.915965</v>
+        <v>71.886317000000005</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43238</v>
+        <v>43273</v>
       </c>
       <c r="B149">
-        <v>122.17</v>
+        <v>253.07339999999999</v>
       </c>
       <c r="C149">
-        <v>129.35</v>
+        <v>220.0164</v>
       </c>
       <c r="D149">
-        <v>26.1754</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="E149">
-        <v>271.33</v>
+        <v>2800.45</v>
       </c>
       <c r="F149">
-        <v>36.270000000000003</v>
+        <v>6810.36</v>
       </c>
       <c r="G149">
-        <v>100.69</v>
+        <v>130.46019999999999</v>
       </c>
       <c r="H149">
-        <v>71.910083</v>
+        <v>71.880018000000007</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43245</v>
+        <v>43280</v>
       </c>
       <c r="B150">
-        <v>122.235</v>
+        <v>254.28020000000001</v>
       </c>
       <c r="C150">
-        <v>129.47</v>
+        <v>219.64869999999999</v>
       </c>
       <c r="D150">
-        <v>26.596699999999998</v>
+        <v>262.04000000000002</v>
       </c>
       <c r="E150">
-        <v>272.14999999999998</v>
+        <v>2763.25</v>
       </c>
       <c r="F150">
-        <v>35.71</v>
+        <v>6728.4</v>
       </c>
       <c r="G150">
-        <v>100.48</v>
+        <v>130.3783</v>
       </c>
       <c r="H150">
-        <v>71.904200000000003</v>
+        <v>71.873720000000006</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43252</v>
+        <v>43287</v>
       </c>
       <c r="B151">
-        <v>122.03</v>
+        <v>254.3604</v>
       </c>
       <c r="C151">
-        <v>129.35</v>
+        <v>219.8083</v>
       </c>
       <c r="D151">
-        <v>26.388500000000001</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="E151">
-        <v>273.60000000000002</v>
+        <v>2788.27</v>
       </c>
       <c r="F151">
-        <v>35.28</v>
+        <v>6793.82</v>
       </c>
       <c r="G151">
-        <v>100.2</v>
+        <v>130.4033</v>
       </c>
       <c r="H151">
-        <v>71.898319000000001</v>
+        <v>71.868118999999993</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43259</v>
+        <v>43294</v>
       </c>
       <c r="B152">
-        <v>120.72499999999999</v>
+        <v>254.96019999999999</v>
       </c>
       <c r="C152">
-        <v>128.97999999999999</v>
+        <v>220.00020000000001</v>
       </c>
       <c r="D152">
-        <v>25.979299999999999</v>
+        <v>264.27</v>
       </c>
       <c r="E152">
-        <v>278.19</v>
+        <v>2869.12</v>
       </c>
       <c r="F152">
-        <v>35.225000000000001</v>
+        <v>6831.01</v>
       </c>
       <c r="G152">
-        <v>100.21</v>
+        <v>130.44040000000001</v>
       </c>
       <c r="H152">
-        <v>71.892437999999999</v>
+        <v>71.862520000000004</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43266</v>
+        <v>43301</v>
       </c>
       <c r="B153">
-        <v>122.16500000000001</v>
+        <v>254.38399999999999</v>
       </c>
       <c r="C153">
-        <v>129.51499999999999</v>
+        <v>219.85939999999999</v>
       </c>
       <c r="D153">
-        <v>26.352900000000002</v>
+        <v>263.56</v>
       </c>
       <c r="E153">
-        <v>277.13</v>
+        <v>2868.29</v>
       </c>
       <c r="F153">
-        <v>35.534999999999997</v>
+        <v>6851.76</v>
       </c>
       <c r="G153">
-        <v>100.2</v>
+        <v>130.4657</v>
       </c>
       <c r="H153">
-        <v>71.886317000000005</v>
+        <v>71.856921</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43273</v>
+        <v>43308</v>
       </c>
       <c r="B154">
-        <v>122.205</v>
+        <v>253.7354</v>
       </c>
       <c r="C154">
-        <v>129.78</v>
+        <v>220.04560000000001</v>
       </c>
       <c r="D154">
-        <v>27.052</v>
+        <v>264.2</v>
       </c>
       <c r="E154">
-        <v>274.74</v>
+        <v>2892.15</v>
       </c>
       <c r="F154">
-        <v>34.9</v>
+        <v>6993.32</v>
       </c>
       <c r="G154">
-        <v>100.21</v>
+        <v>130.53399999999999</v>
       </c>
       <c r="H154">
-        <v>71.880018000000007</v>
+        <v>71.851321999999996</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43280</v>
+        <v>43315</v>
       </c>
       <c r="B155">
-        <v>122.72</v>
+        <v>252.6771</v>
       </c>
       <c r="C155">
-        <v>129.34</v>
+        <v>220.10169999999999</v>
       </c>
       <c r="D155">
-        <v>27.418500000000002</v>
+        <v>258.82</v>
       </c>
       <c r="E155">
-        <v>271.27999999999997</v>
+        <v>2949.65</v>
       </c>
       <c r="F155">
-        <v>34.484999999999999</v>
+        <v>6937.87</v>
       </c>
       <c r="G155">
-        <v>100.11</v>
+        <v>130.55840000000001</v>
       </c>
       <c r="H155">
-        <v>71.873720000000006</v>
+        <v>71.845723000000007</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43287</v>
+        <v>43322</v>
       </c>
       <c r="B156">
-        <v>122.76</v>
+        <v>253.39429999999999</v>
       </c>
       <c r="C156">
-        <v>129.6525</v>
+        <v>220.4633</v>
       </c>
       <c r="D156">
-        <v>27.389900000000001</v>
+        <v>256.91000000000003</v>
       </c>
       <c r="E156">
-        <v>275.42</v>
+        <v>2989.36</v>
       </c>
       <c r="F156">
-        <v>34.965000000000003</v>
+        <v>6874.75</v>
       </c>
       <c r="G156">
-        <v>100.15</v>
+        <v>130.55019999999999</v>
       </c>
       <c r="H156">
-        <v>71.868118999999993</v>
+        <v>71.840125999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43294</v>
+        <v>43329</v>
       </c>
       <c r="B157">
-        <v>122.73</v>
+        <v>252.7953</v>
       </c>
       <c r="C157">
-        <v>129.30000000000001</v>
+        <v>220.44399999999999</v>
       </c>
       <c r="D157">
-        <v>27.635999999999999</v>
+        <v>255.04</v>
       </c>
       <c r="E157">
-        <v>279.58999999999997</v>
+        <v>3016.29</v>
       </c>
       <c r="F157">
-        <v>35.034999999999997</v>
+        <v>6793.56</v>
       </c>
       <c r="G157">
-        <v>100.23</v>
+        <v>130.53380000000001</v>
       </c>
       <c r="H157">
-        <v>71.862520000000004</v>
+        <v>71.834529000000003</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43301</v>
+        <v>43336</v>
       </c>
       <c r="B158">
-        <v>122.36499999999999</v>
+        <v>252.68870000000001</v>
       </c>
       <c r="C158">
-        <v>128.91999999999999</v>
+        <v>220.11259999999999</v>
       </c>
       <c r="D158">
-        <v>27.561</v>
+        <v>257.05</v>
       </c>
       <c r="E158">
-        <v>279.68</v>
+        <v>2976.06</v>
       </c>
       <c r="F158">
-        <v>35.104999999999997</v>
+        <v>6814.46</v>
       </c>
       <c r="G158">
-        <v>100.26</v>
+        <v>130.52430000000001</v>
       </c>
       <c r="H158">
-        <v>71.856921</v>
+        <v>71.828931999999995</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43308</v>
+        <v>43343</v>
       </c>
       <c r="B159">
-        <v>122.06</v>
+        <v>251.94880000000001</v>
       </c>
       <c r="C159">
-        <v>129.29499999999999</v>
+        <v>220.01349999999999</v>
       </c>
       <c r="D159">
-        <v>27.6083</v>
+        <v>253.51</v>
       </c>
       <c r="E159">
-        <v>281.42</v>
+        <v>3015.21</v>
       </c>
       <c r="F159">
-        <v>35.784999999999997</v>
+        <v>6755.03</v>
       </c>
       <c r="G159">
-        <v>100.34</v>
+        <v>130.4873</v>
       </c>
       <c r="H159">
-        <v>71.851321999999996</v>
+        <v>71.823356000000004</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43315</v>
+        <v>43350</v>
       </c>
       <c r="B160">
-        <v>121.56</v>
+        <v>252.8167</v>
       </c>
       <c r="C160">
-        <v>129.27500000000001</v>
+        <v>219.71199999999999</v>
       </c>
       <c r="D160">
-        <v>26.973800000000001</v>
+        <v>254.53</v>
       </c>
       <c r="E160">
-        <v>283.60000000000002</v>
+        <v>2987.93</v>
       </c>
       <c r="F160">
-        <v>35.35</v>
+        <v>6598.8</v>
       </c>
       <c r="G160">
-        <v>100.37</v>
+        <v>130.47800000000001</v>
       </c>
       <c r="H160">
-        <v>71.845723000000007</v>
+        <v>71.817980000000006</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43322</v>
+        <v>43357</v>
       </c>
       <c r="B161">
-        <v>121.80500000000001</v>
+        <v>252.44499999999999</v>
       </c>
       <c r="C161">
-        <v>129.59</v>
+        <v>219.7885</v>
       </c>
       <c r="D161">
-        <v>26.7486</v>
+        <v>258.8</v>
       </c>
       <c r="E161">
-        <v>283.16000000000003</v>
+        <v>3001.04</v>
       </c>
       <c r="F161">
-        <v>34.825000000000003</v>
+        <v>6680.52</v>
       </c>
       <c r="G161">
-        <v>100.37</v>
+        <v>130.50550000000001</v>
       </c>
       <c r="H161">
-        <v>71.840125999999998</v>
+        <v>71.812803000000002</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43329</v>
+        <v>43364</v>
       </c>
       <c r="B162">
-        <v>121.54</v>
+        <v>252.8768</v>
       </c>
       <c r="C162">
-        <v>129.465</v>
+        <v>219.94069999999999</v>
       </c>
       <c r="D162">
-        <v>26.5167</v>
+        <v>259.56</v>
       </c>
       <c r="E162">
-        <v>285.06</v>
+        <v>3002.13</v>
       </c>
       <c r="F162">
-        <v>34.244999999999997</v>
+        <v>6812.65</v>
       </c>
       <c r="G162">
-        <v>100.33</v>
+        <v>130.51390000000001</v>
       </c>
       <c r="H162">
-        <v>71.834529000000003</v>
+        <v>71.807568000000003</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43336</v>
+        <v>43371</v>
       </c>
       <c r="B163">
-        <v>121.565</v>
+        <v>251.61590000000001</v>
       </c>
       <c r="C163">
-        <v>129.16999999999999</v>
+        <v>219.79239999999999</v>
       </c>
       <c r="D163">
-        <v>26.746600000000001</v>
+        <v>259.13</v>
       </c>
       <c r="E163">
-        <v>287.51</v>
+        <v>3038.96</v>
       </c>
       <c r="F163">
-        <v>34.835000000000001</v>
+        <v>6817.61</v>
       </c>
       <c r="G163">
-        <v>100.32</v>
+        <v>130.5111</v>
       </c>
       <c r="H163">
-        <v>71.828931999999995</v>
+        <v>71.802252999999993</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43343</v>
+        <v>43378</v>
       </c>
       <c r="B164">
-        <v>121.265</v>
+        <v>249.57679999999999</v>
       </c>
       <c r="C164">
-        <v>128.88499999999999</v>
+        <v>219.57220000000001</v>
       </c>
       <c r="D164">
-        <v>26.340599999999998</v>
+        <v>254.19</v>
       </c>
       <c r="E164">
-        <v>290.31</v>
+        <v>3039.18</v>
       </c>
       <c r="F164">
-        <v>34.445</v>
+        <v>6734.9</v>
       </c>
       <c r="G164">
-        <v>100.23</v>
+        <v>130.48580000000001</v>
       </c>
       <c r="H164">
-        <v>71.823356000000004</v>
+        <v>71.796937999999997</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43350</v>
+        <v>43385</v>
       </c>
       <c r="B165">
-        <v>121.515</v>
+        <v>249.20820000000001</v>
       </c>
       <c r="C165">
-        <v>128.625</v>
+        <v>219.76439999999999</v>
       </c>
       <c r="D165">
-        <v>26.439499999999999</v>
+        <v>256.02999999999997</v>
       </c>
       <c r="E165">
-        <v>287.60000000000002</v>
+        <v>2915.49</v>
       </c>
       <c r="F165">
-        <v>33.46</v>
+        <v>6451.57</v>
       </c>
       <c r="G165">
-        <v>100.24</v>
+        <v>130.42840000000001</v>
       </c>
       <c r="H165">
-        <v>71.817980000000006</v>
+        <v>71.791763000000003</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43357</v>
+        <v>43392</v>
       </c>
       <c r="B166">
-        <v>121.39</v>
+        <v>249.58240000000001</v>
       </c>
       <c r="C166">
-        <v>128.76</v>
+        <v>219.8289</v>
       </c>
       <c r="D166">
-        <v>26.9039</v>
+        <v>256.77</v>
       </c>
       <c r="E166">
-        <v>290.88</v>
+        <v>2936.57</v>
       </c>
       <c r="F166">
-        <v>33.954999999999998</v>
+        <v>6541.97</v>
       </c>
       <c r="G166">
-        <v>100.28</v>
+        <v>130.35130000000001</v>
       </c>
       <c r="H166">
-        <v>71.812803000000002</v>
+        <v>71.786637999999996</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43364</v>
+        <v>43399</v>
       </c>
       <c r="B167">
-        <v>121.625</v>
+        <v>251.44710000000001</v>
       </c>
       <c r="C167">
-        <v>128.905</v>
+        <v>219.833</v>
       </c>
       <c r="D167">
-        <v>26.981300000000001</v>
+        <v>257.92</v>
       </c>
       <c r="E167">
-        <v>291.99</v>
+        <v>2866.51</v>
       </c>
       <c r="F167">
-        <v>34.299999999999997</v>
+        <v>6399.08</v>
       </c>
       <c r="G167">
-        <v>100.25</v>
+        <v>130.27950000000001</v>
       </c>
       <c r="H167">
-        <v>71.807568000000003</v>
+        <v>71.781474000000003</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43371</v>
+        <v>43406</v>
       </c>
       <c r="B168">
-        <v>121.035</v>
+        <v>251.38509999999999</v>
       </c>
       <c r="C168">
-        <v>128.655</v>
+        <v>219.66540000000001</v>
       </c>
       <c r="D168">
-        <v>26.935199999999998</v>
+        <v>257.73</v>
       </c>
       <c r="E168">
-        <v>290.72000000000003</v>
+        <v>2909.46</v>
       </c>
       <c r="F168">
-        <v>34.01</v>
+        <v>6554.78</v>
       </c>
       <c r="G168">
-        <v>100.3</v>
+        <v>130.2833</v>
       </c>
       <c r="H168">
-        <v>71.802252999999993</v>
+        <v>71.776257000000001</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43378</v>
+        <v>43413</v>
       </c>
       <c r="B169">
-        <v>120.005</v>
+        <v>251.1362</v>
       </c>
       <c r="C169">
-        <v>128.19999999999999</v>
+        <v>219.7484</v>
       </c>
       <c r="D169">
-        <v>26.360700000000001</v>
+        <v>256.55</v>
       </c>
       <c r="E169">
-        <v>287.82</v>
+        <v>2978.71</v>
       </c>
       <c r="F169">
-        <v>33.44</v>
+        <v>6622.86</v>
       </c>
       <c r="G169">
-        <v>100.24</v>
+        <v>130.29759999999999</v>
       </c>
       <c r="H169">
-        <v>71.796937999999997</v>
+        <v>71.771229000000005</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43385</v>
+        <v>43420</v>
       </c>
       <c r="B170">
-        <v>119.855</v>
+        <v>250.79150000000001</v>
       </c>
       <c r="C170">
-        <v>128.35</v>
+        <v>219.20189999999999</v>
       </c>
       <c r="D170">
-        <v>26.5685</v>
+        <v>254.58</v>
       </c>
       <c r="E170">
-        <v>275.95</v>
+        <v>2905.05</v>
       </c>
       <c r="F170">
-        <v>31.97</v>
+        <v>6494.88</v>
       </c>
       <c r="G170">
-        <v>100.14</v>
+        <v>130.0591</v>
       </c>
       <c r="H170">
-        <v>71.791763000000003</v>
+        <v>71.766202000000007</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43392</v>
+        <v>43427</v>
       </c>
       <c r="B171">
-        <v>120.05</v>
+        <v>251.60050000000001</v>
       </c>
       <c r="C171">
-        <v>128.565</v>
+        <v>218.84739999999999</v>
       </c>
       <c r="D171">
-        <v>26.654</v>
+        <v>254.78</v>
       </c>
       <c r="E171">
-        <v>276.25</v>
+        <v>2780.01</v>
       </c>
       <c r="F171">
-        <v>32.134999999999998</v>
+        <v>6446.26</v>
       </c>
       <c r="G171">
-        <v>100.08</v>
+        <v>129.7843</v>
       </c>
       <c r="H171">
-        <v>71.786637999999996</v>
+        <v>71.761365999999995</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43399</v>
+        <v>43434</v>
       </c>
       <c r="B172">
-        <v>120.855</v>
+        <v>252.97319999999999</v>
       </c>
       <c r="C172">
-        <v>128.23500000000001</v>
+        <v>218.68350000000001</v>
       </c>
       <c r="D172">
-        <v>26.744399999999999</v>
+        <v>259.39</v>
       </c>
       <c r="E172">
-        <v>265.33</v>
+        <v>2953.76</v>
       </c>
       <c r="F172">
-        <v>31.39</v>
+        <v>6542.96</v>
       </c>
       <c r="G172">
-        <v>99.99</v>
+        <v>129.5532</v>
       </c>
       <c r="H172">
-        <v>71.781474000000003</v>
+        <v>71.756748000000002</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43406</v>
+        <v>43441</v>
       </c>
       <c r="B173">
-        <v>120.99</v>
+        <v>253.82849999999999</v>
       </c>
       <c r="C173">
-        <v>128.36000000000001</v>
+        <v>218.42009999999999</v>
       </c>
       <c r="D173">
-        <v>26.715499999999999</v>
+        <v>259.79000000000002</v>
       </c>
       <c r="E173">
-        <v>271.89</v>
+        <v>2797.51</v>
       </c>
       <c r="F173">
-        <v>32.164999999999999</v>
+        <v>6308.84</v>
       </c>
       <c r="G173">
-        <v>99.95</v>
+        <v>129.33959999999999</v>
       </c>
       <c r="H173">
-        <v>71.776257000000001</v>
+        <v>71.752301000000003</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43413</v>
+        <v>43448</v>
       </c>
       <c r="B174">
-        <v>120.785</v>
+        <v>254.55930000000001</v>
       </c>
       <c r="C174">
-        <v>128.48500000000001</v>
+        <v>218.79509999999999</v>
       </c>
       <c r="D174">
-        <v>26.560300000000002</v>
+        <v>260.67</v>
       </c>
       <c r="E174">
-        <v>277.76</v>
+        <v>2789.53</v>
       </c>
       <c r="F174">
-        <v>32.354999999999997</v>
+        <v>6344.28</v>
       </c>
       <c r="G174">
-        <v>100.038</v>
+        <v>129.38339999999999</v>
       </c>
       <c r="H174">
-        <v>71.771229000000005</v>
+        <v>71.747889000000001</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43420</v>
+        <v>43455</v>
       </c>
       <c r="B175">
-        <v>120.495</v>
+        <v>255.16149999999999</v>
       </c>
       <c r="C175">
-        <v>127.62</v>
+        <v>218.73750000000001</v>
       </c>
       <c r="D175">
-        <v>26.318100000000001</v>
+        <v>260.37</v>
       </c>
       <c r="E175">
-        <v>273.73</v>
+        <v>2560.16</v>
       </c>
       <c r="F175">
-        <v>31.855</v>
+        <v>6158.42</v>
       </c>
       <c r="G175">
-        <v>99.706999999999994</v>
+        <v>129.36150000000001</v>
       </c>
       <c r="H175">
-        <v>71.766202000000007</v>
+        <v>71.743388999999993</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43427</v>
+        <v>43462</v>
       </c>
       <c r="B176">
-        <v>120.96</v>
+        <v>255.27510000000001</v>
       </c>
       <c r="C176">
-        <v>127.435</v>
+        <v>218.8434</v>
       </c>
       <c r="D176">
-        <v>26.335000000000001</v>
+        <v>260.48</v>
       </c>
       <c r="E176">
-        <v>263.25</v>
+        <v>2640.86</v>
       </c>
       <c r="F176">
-        <v>31.41</v>
+        <v>6150.25</v>
       </c>
       <c r="G176">
-        <v>99.259</v>
+        <v>129.3612</v>
       </c>
       <c r="H176">
-        <v>71.761365999999995</v>
+        <v>71.738821999999999</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43434</v>
+        <v>43469</v>
       </c>
       <c r="B177">
-        <v>121.61499999999999</v>
+        <v>254.8261</v>
       </c>
       <c r="C177">
-        <v>127.495</v>
+        <v>218.55</v>
       </c>
       <c r="D177">
-        <v>26.849499999999999</v>
+        <v>260.20999999999998</v>
       </c>
       <c r="E177">
-        <v>275.64999999999998</v>
+        <v>2696.85</v>
       </c>
       <c r="F177">
-        <v>31.78</v>
+        <v>6276.58</v>
       </c>
       <c r="G177">
-        <v>98.894000000000005</v>
+        <v>129.25659999999999</v>
       </c>
       <c r="H177">
-        <v>71.756748000000002</v>
+        <v>71.734326999999993</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43441</v>
+        <v>43476</v>
       </c>
       <c r="B178">
-        <v>122.095</v>
+        <v>255.31970000000001</v>
       </c>
       <c r="C178">
-        <v>127.24</v>
+        <v>218.52610000000001</v>
       </c>
       <c r="D178">
-        <v>26.898499999999999</v>
+        <v>261.8</v>
       </c>
       <c r="E178">
-        <v>263.57</v>
+        <v>2737.32</v>
       </c>
       <c r="F178">
-        <v>30.66</v>
+        <v>6323.16</v>
       </c>
       <c r="G178">
-        <v>98.575999999999993</v>
+        <v>129.2353</v>
       </c>
       <c r="H178">
-        <v>71.752301000000003</v>
+        <v>71.729771999999997</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43448</v>
+        <v>43483</v>
       </c>
       <c r="B179">
-        <v>122.395</v>
+        <v>255.99010000000001</v>
       </c>
       <c r="C179">
-        <v>127.785</v>
+        <v>218.99870000000001</v>
       </c>
       <c r="D179">
-        <v>26.985700000000001</v>
+        <v>263.83</v>
       </c>
       <c r="E179">
-        <v>260.47000000000003</v>
+        <v>2843.72</v>
       </c>
       <c r="F179">
-        <v>31.004999999999999</v>
+        <v>6439.36</v>
       </c>
       <c r="G179">
-        <v>98.811000000000007</v>
+        <v>129.4238</v>
       </c>
       <c r="H179">
-        <v>71.747889000000001</v>
+        <v>71.725216000000003</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43455</v>
+        <v>43490</v>
       </c>
       <c r="B180">
-        <v>122.69</v>
+        <v>257.47500000000002</v>
       </c>
       <c r="C180">
-        <v>127.465</v>
+        <v>219.38140000000001</v>
       </c>
       <c r="D180">
-        <v>26.925999999999998</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="E180">
-        <v>240.7</v>
+        <v>2819.45</v>
       </c>
       <c r="F180">
-        <v>30.045000000000002</v>
+        <v>6411.44</v>
       </c>
       <c r="G180">
-        <v>98.742999999999995</v>
+        <v>129.58770000000001</v>
       </c>
       <c r="H180">
-        <v>71.743388999999993</v>
+        <v>71.720359999999999</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43462</v>
+        <v>43497</v>
       </c>
       <c r="B181">
-        <v>122.765</v>
+        <v>257.37529999999998</v>
       </c>
       <c r="C181">
-        <v>127.72499999999999</v>
+        <v>219.93289999999999</v>
       </c>
       <c r="D181">
-        <v>26.9238</v>
+        <v>268.32</v>
       </c>
       <c r="E181">
-        <v>247.75</v>
+        <v>2842.58</v>
       </c>
       <c r="F181">
-        <v>29.954999999999998</v>
+        <v>6499.1</v>
       </c>
       <c r="G181">
-        <v>98.718000000000004</v>
+        <v>129.75640000000001</v>
       </c>
       <c r="H181">
-        <v>71.738821999999999</v>
+        <v>71.715444000000005</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43469</v>
+        <v>43504</v>
       </c>
       <c r="B182">
-        <v>122.285</v>
+        <v>256.83789999999999</v>
       </c>
       <c r="C182">
-        <v>127.58</v>
+        <v>220.3252</v>
       </c>
       <c r="D182">
-        <v>26.8813</v>
+        <v>268.55</v>
       </c>
       <c r="E182">
-        <v>252.39</v>
+        <v>2882.16</v>
       </c>
       <c r="F182">
-        <v>30.47</v>
+        <v>6515.04</v>
       </c>
       <c r="G182">
-        <v>98.478999999999999</v>
+        <v>129.8288</v>
       </c>
       <c r="H182">
-        <v>71.734326999999993</v>
+        <v>71.710661999999999</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43476</v>
+        <v>43511</v>
       </c>
       <c r="B183">
-        <v>122.77</v>
+        <v>257.3648</v>
       </c>
       <c r="C183">
-        <v>127.69</v>
+        <v>220.45230000000001</v>
       </c>
       <c r="D183">
-        <v>27.053599999999999</v>
+        <v>270.97000000000003</v>
       </c>
       <c r="E183">
-        <v>258.98</v>
+        <v>2962.84</v>
       </c>
       <c r="F183">
-        <v>30.745000000000001</v>
+        <v>6721.25</v>
       </c>
       <c r="G183">
-        <v>98.531000000000006</v>
+        <v>129.9085</v>
       </c>
       <c r="H183">
-        <v>71.729771999999997</v>
+        <v>71.705798999999999</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43483</v>
+        <v>43518</v>
       </c>
       <c r="B184">
-        <v>122.71</v>
+        <v>257.5822</v>
       </c>
       <c r="C184">
-        <v>127.535</v>
+        <v>220.65860000000001</v>
       </c>
       <c r="D184">
-        <v>27.2377</v>
+        <v>272.37</v>
       </c>
       <c r="E184">
-        <v>266.45999999999998</v>
+        <v>2970.5</v>
       </c>
       <c r="F184">
-        <v>31.4</v>
+        <v>6763.1</v>
       </c>
       <c r="G184">
-        <v>98.745999999999995</v>
+        <v>130.01429999999999</v>
       </c>
       <c r="H184">
-        <v>71.725216000000003</v>
+        <v>71.700826000000006</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43490</v>
+        <v>43525</v>
       </c>
       <c r="B185">
-        <v>123.32</v>
+        <v>256.92869999999999</v>
       </c>
       <c r="C185">
-        <v>127.955</v>
+        <v>220.76339999999999</v>
       </c>
       <c r="D185">
-        <v>27.348400000000002</v>
+        <v>275.57</v>
       </c>
       <c r="E185">
-        <v>265.77999999999997</v>
+        <v>2978.54</v>
       </c>
       <c r="F185">
-        <v>31.664999999999999</v>
+        <v>6807.91</v>
       </c>
       <c r="G185">
-        <v>99.1</v>
+        <v>130.1464</v>
       </c>
       <c r="H185">
-        <v>71.720359999999999</v>
+        <v>71.695876999999996</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43497</v>
+        <v>43532</v>
       </c>
       <c r="B186">
-        <v>123.3</v>
+        <v>259.65359999999998</v>
       </c>
       <c r="C186">
-        <v>128.72999999999999</v>
+        <v>220.96199999999999</v>
       </c>
       <c r="D186">
-        <v>27.723400000000002</v>
+        <v>272.26</v>
       </c>
       <c r="E186">
-        <v>270.06</v>
+        <v>2970.88</v>
       </c>
       <c r="F186">
-        <v>31.81</v>
+        <v>6807.61</v>
       </c>
       <c r="G186">
-        <v>99.36</v>
+        <v>130.15369999999999</v>
       </c>
       <c r="H186">
-        <v>71.715444000000005</v>
+        <v>71.690957999999995</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43504</v>
+        <v>43539</v>
       </c>
       <c r="B187">
-        <v>123.045</v>
+        <v>259.43579999999997</v>
       </c>
       <c r="C187">
-        <v>129.035</v>
+        <v>221.49619999999999</v>
       </c>
       <c r="D187">
-        <v>27.742100000000001</v>
+        <v>277.07</v>
       </c>
       <c r="E187">
-        <v>270.47000000000003</v>
+        <v>3040.41</v>
       </c>
       <c r="F187">
-        <v>31.48</v>
+        <v>6999.55</v>
       </c>
       <c r="G187">
-        <v>99.406000000000006</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="H187">
-        <v>71.710661999999999</v>
+        <v>71.686188000000001</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43511</v>
+        <v>43546</v>
       </c>
       <c r="B188">
-        <v>123.37</v>
+        <v>261.59410000000003</v>
       </c>
       <c r="C188">
-        <v>129.34</v>
+        <v>221.85640000000001</v>
       </c>
       <c r="D188">
-        <v>27.986499999999999</v>
+        <v>278.14</v>
       </c>
       <c r="E188">
-        <v>277.37</v>
+        <v>3038.82</v>
       </c>
       <c r="F188">
-        <v>32.520000000000003</v>
+        <v>6935.81</v>
       </c>
       <c r="G188">
-        <v>99.504000000000005</v>
+        <v>130.31370000000001</v>
       </c>
       <c r="H188">
-        <v>71.705798999999999</v>
+        <v>71.681700000000006</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43518</v>
+        <v>43553</v>
       </c>
       <c r="B189">
-        <v>123.345</v>
+        <v>261.7876</v>
       </c>
       <c r="C189">
-        <v>129.36500000000001</v>
+        <v>222.2193</v>
       </c>
       <c r="D189">
-        <v>28.130199999999999</v>
+        <v>278.70999999999998</v>
       </c>
       <c r="E189">
-        <v>279.14</v>
+        <v>3081.26</v>
       </c>
       <c r="F189">
-        <v>32.83</v>
+        <v>7019.66</v>
       </c>
       <c r="G189">
-        <v>99.629000000000005</v>
+        <v>130.32650000000001</v>
       </c>
       <c r="H189">
-        <v>71.700826000000006</v>
+        <v>71.677276000000006</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43525</v>
+        <v>43560</v>
       </c>
       <c r="B190">
-        <v>123.11499999999999</v>
+        <v>261.22539999999998</v>
       </c>
       <c r="C190">
-        <v>129.53</v>
+        <v>222.28710000000001</v>
       </c>
       <c r="D190">
-        <v>28.4665</v>
+        <v>282.81</v>
       </c>
       <c r="E190">
-        <v>280.42</v>
+        <v>3145.61</v>
       </c>
       <c r="F190">
-        <v>33.255000000000003</v>
+        <v>7153.74</v>
       </c>
       <c r="G190">
-        <v>99.834000000000003</v>
+        <v>130.405</v>
       </c>
       <c r="H190">
-        <v>71.695876999999996</v>
+        <v>71.673101000000003</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43532</v>
+        <v>43567</v>
       </c>
       <c r="B191">
-        <v>124.4</v>
+        <v>261.1198</v>
       </c>
       <c r="C191">
-        <v>129.58000000000001</v>
+        <v>222.40629999999999</v>
       </c>
       <c r="D191">
-        <v>28.0732</v>
+        <v>287.45999999999998</v>
       </c>
       <c r="E191">
-        <v>274.45999999999998</v>
+        <v>3134.46</v>
       </c>
       <c r="F191">
-        <v>32.965000000000003</v>
+        <v>7116.35</v>
       </c>
       <c r="G191">
-        <v>99.924000000000007</v>
+        <v>130.48390000000001</v>
       </c>
       <c r="H191">
-        <v>71.690957999999995</v>
+        <v>71.669402000000005</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43539</v>
+        <v>43574</v>
       </c>
       <c r="B192">
-        <v>124.3</v>
+        <v>261.1857</v>
       </c>
       <c r="C192">
-        <v>130.405</v>
+        <v>222.74010000000001</v>
       </c>
       <c r="D192">
-        <v>28.614999999999998</v>
+        <v>287.54000000000002</v>
       </c>
       <c r="E192">
-        <v>281.31</v>
+        <v>3169.33</v>
       </c>
       <c r="F192">
-        <v>33.835000000000001</v>
+        <v>7158.32</v>
       </c>
       <c r="G192">
-        <v>100.06699999999999</v>
+        <v>130.5694</v>
       </c>
       <c r="H192">
-        <v>71.686188000000001</v>
+        <v>71.666580999999994</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43546</v>
+        <v>43581</v>
       </c>
       <c r="B193">
-        <v>125.2</v>
+        <v>261.71809999999999</v>
       </c>
       <c r="C193">
-        <v>130.745</v>
+        <v>223.0608</v>
       </c>
       <c r="D193">
-        <v>28.736799999999999</v>
+        <v>287.99</v>
       </c>
       <c r="E193">
-        <v>279.25</v>
+        <v>3239.04</v>
       </c>
       <c r="F193">
-        <v>33.045000000000002</v>
+        <v>7208.61</v>
       </c>
       <c r="G193">
-        <v>100.11199999999999</v>
+        <v>130.6105</v>
       </c>
       <c r="H193">
-        <v>71.681700000000006</v>
+        <v>71.663070000000005</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43553</v>
+        <v>43588</v>
       </c>
       <c r="B194">
-        <v>125.435</v>
+        <v>261.86200000000002</v>
       </c>
       <c r="C194">
-        <v>131.315</v>
+        <v>223.19450000000001</v>
       </c>
       <c r="D194">
-        <v>28.7776</v>
+        <v>287.26</v>
       </c>
       <c r="E194">
-        <v>282.48</v>
+        <v>3240.72</v>
       </c>
       <c r="F194">
-        <v>33.58</v>
+        <v>7234.75</v>
       </c>
       <c r="G194">
-        <v>100.08199999999999</v>
+        <v>130.6549</v>
       </c>
       <c r="H194">
-        <v>71.677276000000006</v>
+        <v>71.659647000000007</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>43560</v>
+        <v>43595</v>
       </c>
       <c r="B195">
-        <v>125.01</v>
+        <v>261.774</v>
       </c>
       <c r="C195">
-        <v>131.185</v>
+        <v>222.9237</v>
       </c>
       <c r="D195">
-        <v>29.236699999999999</v>
+        <v>283.69</v>
       </c>
       <c r="E195">
-        <v>288.57</v>
+        <v>3143.29</v>
       </c>
       <c r="F195">
-        <v>34.53</v>
+        <v>6999.37</v>
       </c>
       <c r="G195">
-        <v>100.254</v>
+        <v>130.57679999999999</v>
       </c>
       <c r="H195">
-        <v>71.673101000000003</v>
+        <v>71.656154999999998</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>43567</v>
+        <v>43602</v>
       </c>
       <c r="B196">
-        <v>125.13500000000001</v>
+        <v>262.87990000000002</v>
       </c>
       <c r="C196">
-        <v>131.22999999999999</v>
+        <v>222.923</v>
       </c>
       <c r="D196">
-        <v>29.7499</v>
+        <v>286.02</v>
       </c>
       <c r="E196">
-        <v>290.16000000000003</v>
+        <v>3150.02</v>
       </c>
       <c r="F196">
-        <v>34.57</v>
+        <v>7146.3</v>
       </c>
       <c r="G196">
-        <v>100.283</v>
+        <v>130.54</v>
       </c>
       <c r="H196">
-        <v>71.669402000000005</v>
+        <v>71.652698999999998</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>43574</v>
+        <v>43609</v>
       </c>
       <c r="B197">
-        <v>125.045</v>
+        <v>263.40440000000001</v>
       </c>
       <c r="C197">
-        <v>131.71</v>
+        <v>222.56270000000001</v>
       </c>
       <c r="D197">
-        <v>29.7577</v>
+        <v>286.89</v>
       </c>
       <c r="E197">
-        <v>290.02</v>
+        <v>3102.34</v>
       </c>
       <c r="F197">
-        <v>35.08</v>
+        <v>7077.07</v>
       </c>
       <c r="G197">
-        <v>100.468</v>
+        <v>130.4958</v>
       </c>
       <c r="H197">
-        <v>71.666580999999994</v>
+        <v>71.649501000000001</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>43581</v>
+        <v>43616</v>
       </c>
       <c r="B198">
-        <v>125.36499999999999</v>
+        <v>264.5505</v>
       </c>
       <c r="C198">
-        <v>132.10499999999999</v>
+        <v>222.70429999999999</v>
       </c>
       <c r="D198">
-        <v>29.7882</v>
+        <v>298.11</v>
       </c>
       <c r="E198">
-        <v>293.41000000000003</v>
+        <v>3030.54</v>
       </c>
       <c r="F198">
-        <v>35.15</v>
+        <v>6947.86</v>
       </c>
       <c r="G198">
-        <v>100.46299999999999</v>
+        <v>130.4854</v>
       </c>
       <c r="H198">
-        <v>71.663070000000005</v>
+        <v>71.646394000000001</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>43588</v>
+        <v>43623</v>
       </c>
       <c r="B199">
-        <v>125.375</v>
+        <v>267.85739999999998</v>
       </c>
       <c r="C199">
-        <v>132.11000000000001</v>
+        <v>223.1165</v>
       </c>
       <c r="D199">
-        <v>29.687799999999999</v>
+        <v>301.43</v>
       </c>
       <c r="E199">
-        <v>294.02999999999997</v>
+        <v>3108.38</v>
       </c>
       <c r="F199">
-        <v>35.344999999999999</v>
+        <v>7124.9</v>
       </c>
       <c r="G199">
-        <v>100.56699999999999</v>
+        <v>130.5402</v>
       </c>
       <c r="H199">
-        <v>71.659647000000007</v>
+        <v>71.643494000000004</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>43595</v>
+        <v>43630</v>
       </c>
       <c r="B200">
-        <v>125.36</v>
+        <v>268.03309999999999</v>
       </c>
       <c r="C200">
-        <v>131.57499999999999</v>
+        <v>223.37299999999999</v>
       </c>
       <c r="D200">
-        <v>29.284300000000002</v>
+        <v>305.44</v>
       </c>
       <c r="E200">
-        <v>288.10000000000002</v>
+        <v>3160.7</v>
       </c>
       <c r="F200">
-        <v>34.094999999999999</v>
+        <v>7150.78</v>
       </c>
       <c r="G200">
-        <v>100.473</v>
+        <v>130.56319999999999</v>
       </c>
       <c r="H200">
-        <v>71.656154999999998</v>
+        <v>71.640570999999994</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>43602</v>
+        <v>43637</v>
       </c>
       <c r="B201">
-        <v>125.795</v>
+        <v>269.40949999999998</v>
       </c>
       <c r="C201">
-        <v>131.875</v>
+        <v>224.13390000000001</v>
       </c>
       <c r="D201">
-        <v>29.5092</v>
+        <v>308.14</v>
       </c>
       <c r="E201">
-        <v>285.83999999999997</v>
+        <v>3211.45</v>
       </c>
       <c r="F201">
-        <v>34.78</v>
+        <v>7265.27</v>
       </c>
       <c r="G201">
-        <v>100.372</v>
+        <v>130.62950000000001</v>
       </c>
       <c r="H201">
-        <v>71.652698999999998</v>
+        <v>71.637710999999996</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>43609</v>
+        <v>43644</v>
       </c>
       <c r="B202">
-        <v>126.04</v>
+        <v>270.6259</v>
       </c>
       <c r="C202">
-        <v>131.44999999999999</v>
+        <v>224.34200000000001</v>
       </c>
       <c r="D202">
-        <v>29.6065</v>
+        <v>311.72000000000003</v>
       </c>
       <c r="E202">
-        <v>282.77999999999997</v>
+        <v>3173.15</v>
       </c>
       <c r="F202">
-        <v>34.159999999999997</v>
+        <v>7266.99</v>
       </c>
       <c r="G202">
-        <v>100.30500000000001</v>
+        <v>130.65119999999999</v>
       </c>
       <c r="H202">
-        <v>71.649501000000001</v>
+        <v>71.635031999999995</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>43616</v>
+        <v>43651</v>
       </c>
       <c r="B203">
-        <v>126.745</v>
+        <v>272.85809999999998</v>
       </c>
       <c r="C203">
-        <v>131.72</v>
+        <v>224.74520000000001</v>
       </c>
       <c r="D203">
-        <v>30.8551</v>
+        <v>318.61</v>
       </c>
       <c r="E203">
-        <v>275.27</v>
+        <v>3279.74</v>
       </c>
       <c r="F203">
-        <v>33.545000000000002</v>
+        <v>7365.48</v>
       </c>
       <c r="G203">
-        <v>100.223</v>
+        <v>130.70910000000001</v>
       </c>
       <c r="H203">
-        <v>71.646394000000001</v>
+        <v>71.632818</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>43623</v>
+        <v>43658</v>
       </c>
       <c r="B204">
-        <v>128.32</v>
+        <v>270.29509999999999</v>
       </c>
       <c r="C204">
-        <v>132.60499999999999</v>
+        <v>224.57040000000001</v>
       </c>
       <c r="D204">
-        <v>31.1999</v>
+        <v>313.41000000000003</v>
       </c>
       <c r="E204">
-        <v>287.64999999999998</v>
+        <v>3303.49</v>
       </c>
       <c r="F204">
-        <v>34.534999999999997</v>
+        <v>7272.68</v>
       </c>
       <c r="G204">
-        <v>100.30500000000001</v>
+        <v>130.7355</v>
       </c>
       <c r="H204">
-        <v>71.643494000000004</v>
+        <v>71.630330000000001</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>43630</v>
+        <v>43665</v>
       </c>
       <c r="B205">
-        <v>128.35</v>
+        <v>272.9966</v>
       </c>
       <c r="C205">
-        <v>132.745</v>
+        <v>224.99629999999999</v>
       </c>
       <c r="D205">
-        <v>31.6478</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="E205">
-        <v>289.26</v>
+        <v>3270.19</v>
       </c>
       <c r="F205">
-        <v>34.590000000000003</v>
+        <v>7284.57</v>
       </c>
       <c r="G205">
-        <v>100.32</v>
+        <v>130.77010000000001</v>
       </c>
       <c r="H205">
-        <v>71.640570999999994</v>
+        <v>71.627837999999997</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>43637</v>
+        <v>43672</v>
       </c>
       <c r="B206">
-        <v>129.01499999999999</v>
+        <v>273.81450000000001</v>
       </c>
       <c r="C206">
-        <v>133.95500000000001</v>
+        <v>225.4153</v>
       </c>
       <c r="D206">
-        <v>31.958600000000001</v>
+        <v>320.51</v>
       </c>
       <c r="E206">
-        <v>294</v>
+        <v>3353.46</v>
       </c>
       <c r="F206">
-        <v>35.215000000000003</v>
+        <v>7344.61</v>
       </c>
       <c r="G206">
-        <v>100.381</v>
+        <v>130.84440000000001</v>
       </c>
       <c r="H206">
-        <v>71.637710999999996</v>
+        <v>71.625482000000005</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>43644</v>
+        <v>43679</v>
       </c>
       <c r="B207">
-        <v>129.60499999999999</v>
+        <v>276.31569999999999</v>
       </c>
       <c r="C207">
-        <v>134.035</v>
+        <v>225.3777</v>
       </c>
       <c r="D207">
-        <v>32.328099999999999</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="E207">
-        <v>293</v>
+        <v>3251.15</v>
       </c>
       <c r="F207">
-        <v>35.31</v>
+        <v>7115.79</v>
       </c>
       <c r="G207">
-        <v>100.449</v>
+        <v>130.83000000000001</v>
       </c>
       <c r="H207">
-        <v>71.635031999999995</v>
+        <v>71.622946999999996</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>43651</v>
+        <v>43686</v>
       </c>
       <c r="B208">
-        <v>130.61500000000001</v>
+        <v>276.17950000000002</v>
       </c>
       <c r="C208">
-        <v>134.66999999999999</v>
+        <v>225.72800000000001</v>
       </c>
       <c r="D208">
-        <v>33.164299999999997</v>
+        <v>318.27</v>
       </c>
       <c r="E208">
-        <v>298.45999999999998</v>
+        <v>3196.53</v>
       </c>
       <c r="F208">
-        <v>35.9</v>
+        <v>7014.06</v>
       </c>
       <c r="G208">
-        <v>100.542</v>
+        <v>130.82050000000001</v>
       </c>
       <c r="H208">
-        <v>71.632818</v>
+        <v>71.620621999999997</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>43658</v>
+        <v>43693</v>
       </c>
       <c r="B209">
-        <v>128.89500000000001</v>
+        <v>280.35399999999998</v>
       </c>
       <c r="C209">
-        <v>133.495</v>
+        <v>225.87899999999999</v>
       </c>
       <c r="D209">
-        <v>32.556199999999997</v>
+        <v>322.05</v>
       </c>
       <c r="E209">
-        <v>300.64999999999998</v>
+        <v>3199.25</v>
       </c>
       <c r="F209">
-        <v>35.564999999999998</v>
+        <v>7028.09</v>
       </c>
       <c r="G209">
-        <v>100.54900000000001</v>
+        <v>130.81909999999999</v>
       </c>
       <c r="H209">
-        <v>71.630330000000001</v>
+        <v>71.617838000000006</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>43665</v>
+        <v>43700</v>
       </c>
       <c r="B210">
-        <v>130.27000000000001</v>
+        <v>279.67790000000002</v>
       </c>
       <c r="C210">
-        <v>134.14500000000001</v>
+        <v>226.04740000000001</v>
       </c>
       <c r="D210">
-        <v>33.184699999999999</v>
+        <v>322.27999999999997</v>
       </c>
       <c r="E210">
-        <v>297.17</v>
+        <v>3148.45</v>
       </c>
       <c r="F210">
-        <v>35.375</v>
+        <v>7043.18</v>
       </c>
       <c r="G210">
-        <v>100.592</v>
+        <v>130.846</v>
       </c>
       <c r="H210">
-        <v>71.627837999999997</v>
+        <v>71.614866000000006</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>43672</v>
+        <v>43707</v>
       </c>
       <c r="B211">
-        <v>130.66999999999999</v>
+        <v>281.99579999999997</v>
       </c>
       <c r="C211">
-        <v>135.04</v>
+        <v>226.1437</v>
       </c>
       <c r="D211">
-        <v>33.457000000000001</v>
+        <v>331.69</v>
       </c>
       <c r="E211">
-        <v>302.01</v>
+        <v>3262.76</v>
       </c>
       <c r="F211">
-        <v>35.869999999999997</v>
+        <v>7198.19</v>
       </c>
       <c r="G211">
-        <v>100.705</v>
+        <v>130.8777</v>
       </c>
       <c r="H211">
-        <v>71.625482000000005</v>
+        <v>71.610913999999994</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>43679</v>
+        <v>43714</v>
       </c>
       <c r="B212">
-        <v>131.92500000000001</v>
+        <v>281.04660000000001</v>
       </c>
       <c r="C212">
-        <v>134.72499999999999</v>
+        <v>225.6754</v>
       </c>
       <c r="D212">
-        <v>33.398200000000003</v>
+        <v>332.93</v>
       </c>
       <c r="E212">
-        <v>292.62</v>
+        <v>3310.15</v>
       </c>
       <c r="F212">
-        <v>34.354999999999997</v>
+        <v>7324.52</v>
       </c>
       <c r="G212">
-        <v>100.631</v>
+        <v>130.87360000000001</v>
       </c>
       <c r="H212">
-        <v>71.622946999999996</v>
+        <v>71.606808999999998</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>43686</v>
+        <v>43721</v>
       </c>
       <c r="B213">
-        <v>131.815</v>
+        <v>277.70670000000001</v>
       </c>
       <c r="C213">
-        <v>135.26499999999999</v>
+        <v>224.90379999999999</v>
       </c>
       <c r="D213">
-        <v>33.1629</v>
+        <v>333.58</v>
       </c>
       <c r="E213">
-        <v>291.62</v>
+        <v>3337.74</v>
       </c>
       <c r="F213">
-        <v>33.92</v>
+        <v>7367.19</v>
       </c>
       <c r="G213">
-        <v>100.592</v>
+        <v>130.84780000000001</v>
       </c>
       <c r="H213">
-        <v>71.620621999999997</v>
+        <v>71.601938000000004</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>43693</v>
+        <v>43728</v>
       </c>
       <c r="B214">
-        <v>133.82</v>
+        <v>279.06920000000002</v>
       </c>
       <c r="C214">
-        <v>135.55500000000001</v>
+        <v>224.7902</v>
       </c>
       <c r="D214">
-        <v>33.628700000000002</v>
+        <v>339.92</v>
       </c>
       <c r="E214">
-        <v>288.85000000000002</v>
+        <v>3335.04</v>
       </c>
       <c r="F214">
-        <v>33.914999999999999</v>
+        <v>7433.82</v>
       </c>
       <c r="G214">
-        <v>100.551</v>
+        <v>130.86330000000001</v>
       </c>
       <c r="H214">
-        <v>71.617838000000006</v>
+        <v>71.596127999999993</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>43700</v>
+        <v>43735</v>
       </c>
       <c r="B215">
-        <v>133.465</v>
+        <v>280.85610000000003</v>
       </c>
       <c r="C215">
-        <v>135.69499999999999</v>
+        <v>225.041</v>
       </c>
       <c r="D215">
-        <v>33.6646</v>
+        <v>339.59</v>
       </c>
       <c r="E215">
-        <v>284.85000000000002</v>
+        <v>3318.18</v>
       </c>
       <c r="F215">
-        <v>33.954999999999998</v>
+        <v>7446.58</v>
       </c>
       <c r="G215">
-        <v>100.62</v>
+        <v>130.86510000000001</v>
       </c>
       <c r="H215">
-        <v>71.614866000000006</v>
+        <v>71.590815000000006</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>43707</v>
+        <v>43742</v>
       </c>
       <c r="B216">
-        <v>134.54499999999999</v>
+        <v>280.75020000000001</v>
       </c>
       <c r="C216">
-        <v>135.78</v>
+        <v>225.17009999999999</v>
       </c>
       <c r="D216">
-        <v>34.863199999999999</v>
+        <v>338.28</v>
       </c>
       <c r="E216">
-        <v>292.45</v>
+        <v>3319.4</v>
       </c>
       <c r="F216">
-        <v>34.914999999999999</v>
+        <v>7224.62</v>
       </c>
       <c r="G216">
-        <v>100.59</v>
+        <v>130.8578</v>
       </c>
       <c r="H216">
-        <v>71.610913999999994</v>
+        <v>71.585594999999998</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>43714</v>
+        <v>43749</v>
       </c>
       <c r="B217">
-        <v>134.09</v>
+        <v>278.14879999999999</v>
       </c>
       <c r="C217">
-        <v>135.22999999999999</v>
+        <v>224.87459999999999</v>
       </c>
       <c r="D217">
-        <v>35.010599999999997</v>
+        <v>336.47</v>
       </c>
       <c r="E217">
-        <v>298.05</v>
+        <v>3327.04</v>
       </c>
       <c r="F217">
-        <v>35.590000000000003</v>
+        <v>7424.3</v>
       </c>
       <c r="G217">
-        <v>100.581</v>
+        <v>130.85230000000001</v>
       </c>
       <c r="H217">
-        <v>71.606808999999998</v>
+        <v>71.580543000000006</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>43721</v>
+        <v>43756</v>
       </c>
       <c r="B218">
-        <v>132.58500000000001</v>
+        <v>277.42610000000002</v>
       </c>
       <c r="C218">
-        <v>134.60499999999999</v>
+        <v>224.73580000000001</v>
       </c>
       <c r="D218">
-        <v>35.073099999999997</v>
+        <v>339.32</v>
       </c>
       <c r="E218">
-        <v>301.08999999999997</v>
+        <v>3301.14</v>
       </c>
       <c r="F218">
-        <v>36.174999999999997</v>
+        <v>7394.66</v>
       </c>
       <c r="G218">
-        <v>100.625</v>
+        <v>130.8535</v>
       </c>
       <c r="H218">
-        <v>71.601938000000004</v>
+        <v>71.574948000000006</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>43728</v>
+        <v>43763</v>
       </c>
       <c r="B219">
-        <v>133.13499999999999</v>
+        <v>277.15010000000001</v>
       </c>
       <c r="C219">
-        <v>134.37</v>
+        <v>224.89089999999999</v>
       </c>
       <c r="D219">
-        <v>35.881399999999999</v>
+        <v>343</v>
       </c>
       <c r="E219">
-        <v>298.27999999999997</v>
+        <v>3363.29</v>
       </c>
       <c r="F219">
-        <v>35.770000000000003</v>
+        <v>7553.38</v>
       </c>
       <c r="G219">
-        <v>100.517</v>
+        <v>130.87549999999999</v>
       </c>
       <c r="H219">
-        <v>71.596127999999993</v>
+        <v>71.569357999999994</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>43735</v>
+        <v>43770</v>
       </c>
       <c r="B220">
-        <v>134.04</v>
+        <v>276.87720000000002</v>
       </c>
       <c r="C220">
-        <v>134.63999999999999</v>
+        <v>224.96600000000001</v>
       </c>
       <c r="D220">
-        <v>35.830199999999998</v>
+        <v>343.88</v>
       </c>
       <c r="E220">
-        <v>295.39999999999998</v>
+        <v>3396.54</v>
       </c>
       <c r="F220">
-        <v>35.564999999999998</v>
+        <v>7554.54</v>
       </c>
       <c r="G220">
-        <v>100.532</v>
+        <v>130.869</v>
       </c>
       <c r="H220">
-        <v>71.590815000000006</v>
+        <v>71.564513000000005</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>43742</v>
+        <v>43777</v>
       </c>
       <c r="B221">
-        <v>133.94</v>
+        <v>274.40050000000002</v>
       </c>
       <c r="C221">
-        <v>134.75</v>
+        <v>224.71459999999999</v>
       </c>
       <c r="D221">
-        <v>35.626199999999997</v>
+        <v>339.88</v>
       </c>
       <c r="E221">
-        <v>294.35000000000002</v>
+        <v>3476.61</v>
       </c>
       <c r="F221">
-        <v>34.549999999999997</v>
+        <v>7681.76</v>
       </c>
       <c r="G221">
-        <v>100.526</v>
+        <v>130.8734</v>
       </c>
       <c r="H221">
-        <v>71.585594999999998</v>
+        <v>71.55762</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>43749</v>
+        <v>43784</v>
       </c>
       <c r="B222">
-        <v>132.55000000000001</v>
+        <v>274.87909999999999</v>
       </c>
       <c r="C222">
-        <v>134.38499999999999</v>
+        <v>224.77590000000001</v>
       </c>
       <c r="D222">
-        <v>35.379300000000001</v>
+        <v>336.64</v>
       </c>
       <c r="E222">
-        <v>296.27999999999997</v>
+        <v>3496.19</v>
       </c>
       <c r="F222">
-        <v>35.840000000000003</v>
+        <v>7686.65</v>
       </c>
       <c r="G222">
-        <v>100.462</v>
+        <v>130.86519999999999</v>
       </c>
       <c r="H222">
-        <v>71.580543000000006</v>
+        <v>71.551754000000003</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>43756</v>
+        <v>43791</v>
       </c>
       <c r="B223">
-        <v>132.26499999999999</v>
+        <v>275.42349999999999</v>
       </c>
       <c r="C223">
-        <v>134.21</v>
+        <v>224.58590000000001</v>
       </c>
       <c r="D223">
-        <v>35.718800000000002</v>
+        <v>338.2</v>
       </c>
       <c r="E223">
-        <v>297.97000000000003</v>
+        <v>3496.1</v>
       </c>
       <c r="F223">
-        <v>35.909999999999997</v>
+        <v>7652.77</v>
       </c>
       <c r="G223">
-        <v>100.551</v>
+        <v>130.8433</v>
       </c>
       <c r="H223">
-        <v>71.574948000000006</v>
+        <v>71.545930999999996</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>43763</v>
+        <v>43798</v>
       </c>
       <c r="B224">
-        <v>132.26499999999999</v>
+        <v>275.2439</v>
       </c>
       <c r="C224">
-        <v>134.47</v>
+        <v>224.7285</v>
       </c>
       <c r="D224">
-        <v>36.165300000000002</v>
+        <v>337.24</v>
       </c>
       <c r="E224">
-        <v>301.60000000000002</v>
+        <v>3540.12</v>
       </c>
       <c r="F224">
-        <v>36.375</v>
+        <v>7708.5</v>
       </c>
       <c r="G224">
-        <v>100.58199999999999</v>
+        <v>130.8518</v>
       </c>
       <c r="H224">
-        <v>71.569357999999994</v>
+        <v>71.539766</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>43770</v>
+        <v>43805</v>
       </c>
       <c r="B225">
-        <v>132.04</v>
+        <v>273.60739999999998</v>
       </c>
       <c r="C225">
-        <v>134.55000000000001</v>
+        <v>224.7637</v>
       </c>
       <c r="D225">
-        <v>36.305399999999999</v>
+        <v>335.82</v>
       </c>
       <c r="E225">
-        <v>306.14</v>
+        <v>3536.5</v>
       </c>
       <c r="F225">
-        <v>36.405000000000001</v>
+        <v>7688.25</v>
       </c>
       <c r="G225">
-        <v>100.563</v>
+        <v>130.84950000000001</v>
       </c>
       <c r="H225">
-        <v>71.564513000000005</v>
+        <v>71.533507</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>43777</v>
+        <v>43812</v>
       </c>
       <c r="B226">
-        <v>131.19</v>
+        <v>274.75900000000001</v>
       </c>
       <c r="C226">
-        <v>134.09</v>
+        <v>225.06620000000001</v>
       </c>
       <c r="D226">
-        <v>35.742199999999997</v>
+        <v>339.98</v>
       </c>
       <c r="E226">
-        <v>308.94</v>
+        <v>3537.09</v>
       </c>
       <c r="F226">
-        <v>37.185000000000002</v>
+        <v>7754.61</v>
       </c>
       <c r="G226">
-        <v>100.58499999999999</v>
+        <v>130.88890000000001</v>
       </c>
       <c r="H226">
-        <v>71.55762</v>
+        <v>71.527299999999997</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>43784</v>
+        <v>43819</v>
       </c>
       <c r="B227">
-        <v>131.035</v>
+        <v>273.61009999999999</v>
       </c>
       <c r="C227">
-        <v>134.07</v>
+        <v>225.13239999999999</v>
       </c>
       <c r="D227">
-        <v>35.306600000000003</v>
+        <v>339.27</v>
       </c>
       <c r="E227">
-        <v>311.79000000000002</v>
+        <v>3613.06</v>
       </c>
       <c r="F227">
-        <v>37.28</v>
+        <v>7910.74</v>
       </c>
       <c r="G227">
-        <v>100.557</v>
+        <v>130.89060000000001</v>
       </c>
       <c r="H227">
-        <v>71.551754000000003</v>
+        <v>71.521100000000004</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>43791</v>
+        <v>43826</v>
       </c>
       <c r="B228">
-        <v>131.375</v>
+        <v>273.87709999999998</v>
       </c>
       <c r="C228">
-        <v>133.97999999999999</v>
+        <v>225.10900000000001</v>
       </c>
       <c r="D228">
-        <v>35.4587</v>
+        <v>339.4</v>
       </c>
       <c r="E228">
-        <v>310.95999999999998</v>
+        <v>3622.88</v>
       </c>
       <c r="F228">
-        <v>37.045000000000002</v>
+        <v>7922.15</v>
       </c>
       <c r="G228">
-        <v>100.502</v>
+        <v>130.88839999999999</v>
       </c>
       <c r="H228">
-        <v>71.545930999999996</v>
+        <v>71.515199999999993</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>43798</v>
+        <v>43833</v>
       </c>
       <c r="B229">
-        <v>131.29499999999999</v>
+        <v>274.37939999999998</v>
       </c>
       <c r="C229">
-        <v>134.27500000000001</v>
+        <v>225.2302</v>
       </c>
       <c r="D229">
-        <v>35.359299999999998</v>
+        <v>339.44</v>
       </c>
       <c r="E229">
-        <v>314.31</v>
+        <v>3620.8</v>
       </c>
       <c r="F229">
-        <v>37.21</v>
+        <v>7906.94</v>
       </c>
       <c r="G229">
-        <v>100.506</v>
+        <v>130.89420000000001</v>
       </c>
       <c r="H229">
-        <v>71.539766</v>
+        <v>71.509399999999999</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>43805</v>
+        <v>43840</v>
       </c>
       <c r="B230">
-        <v>130.41</v>
+        <v>273.61630000000002</v>
       </c>
       <c r="C230">
-        <v>134.21</v>
+        <v>224.9716</v>
       </c>
       <c r="D230">
-        <v>35.167299999999997</v>
+        <v>340.48</v>
       </c>
       <c r="E230">
-        <v>314.87</v>
+        <v>3681.77</v>
       </c>
       <c r="F230">
-        <v>37.14</v>
+        <v>7921.99</v>
       </c>
       <c r="G230">
-        <v>100.52800000000001</v>
+        <v>130.91220000000001</v>
       </c>
       <c r="H230">
-        <v>71.533507</v>
+        <v>71.504000000000005</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>43812</v>
+        <v>43847</v>
       </c>
       <c r="B231">
-        <v>131.17500000000001</v>
+        <v>273.30520000000001</v>
       </c>
       <c r="C231">
-        <v>134.58000000000001</v>
+        <v>225.125</v>
       </c>
       <c r="D231">
-        <v>35.687800000000003</v>
+        <v>339.37</v>
       </c>
       <c r="E231">
-        <v>317.32</v>
+        <v>3758.81</v>
       </c>
       <c r="F231">
-        <v>37.520000000000003</v>
+        <v>8022.44</v>
       </c>
       <c r="G231">
-        <v>100.524</v>
+        <v>130.95259999999999</v>
       </c>
       <c r="H231">
-        <v>71.527299999999997</v>
+        <v>71.498199999999997</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>43819</v>
+        <v>43854</v>
       </c>
       <c r="B232">
-        <v>130.535</v>
+        <v>275.80990000000003</v>
       </c>
       <c r="C232">
-        <v>134.57</v>
+        <v>225.53710000000001</v>
       </c>
       <c r="D232">
-        <v>35.575899999999997</v>
+        <v>342.51</v>
       </c>
       <c r="E232">
-        <v>320.73</v>
+        <v>3753.6</v>
       </c>
       <c r="F232">
-        <v>37.865000000000002</v>
+        <v>7997.96</v>
       </c>
       <c r="G232">
-        <v>100.63500000000001</v>
+        <v>130.9812</v>
       </c>
       <c r="H232">
-        <v>71.521100000000004</v>
+        <v>71.492099999999994</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>43826</v>
+        <v>43861</v>
       </c>
       <c r="B233">
-        <v>130.67500000000001</v>
+        <v>279.32530000000003</v>
       </c>
       <c r="C233">
-        <v>134.65</v>
+        <v>225.87350000000001</v>
       </c>
       <c r="D233">
-        <v>35.561</v>
+        <v>346.67</v>
       </c>
       <c r="E233">
-        <v>322.86</v>
+        <v>3675.54</v>
       </c>
       <c r="F233">
-        <v>38</v>
+        <v>7756.31</v>
       </c>
       <c r="G233">
-        <v>100.7</v>
+        <v>130.99420000000001</v>
       </c>
       <c r="H233">
-        <v>71.515199999999993</v>
+        <v>71.4863</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>43833</v>
+        <v>43868</v>
       </c>
       <c r="B234">
-        <v>130.91999999999999</v>
+        <v>278.26429999999999</v>
       </c>
       <c r="C234">
-        <v>134.66</v>
+        <v>225.7929</v>
       </c>
       <c r="D234">
-        <v>35.551600000000001</v>
+        <v>350.32</v>
       </c>
       <c r="E234">
-        <v>322.41000000000003</v>
+        <v>3850.5</v>
       </c>
       <c r="F234">
-        <v>37.840000000000003</v>
+        <v>8038.92</v>
       </c>
       <c r="G234">
-        <v>100.63</v>
+        <v>131.02529999999999</v>
       </c>
       <c r="H234">
-        <v>71.509399999999999</v>
+        <v>71.480900000000005</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>43840</v>
+        <v>43875</v>
       </c>
       <c r="B235">
-        <v>130.41499999999999</v>
+        <v>278.98250000000002</v>
       </c>
       <c r="C235">
-        <v>134.28</v>
+        <v>225.96289999999999</v>
       </c>
       <c r="D235">
-        <v>35.684699999999999</v>
+        <v>353.8</v>
       </c>
       <c r="E235">
-        <v>325.70999999999998</v>
+        <v>3941.79</v>
       </c>
       <c r="F235">
-        <v>38.045000000000002</v>
+        <v>8102.33</v>
       </c>
       <c r="G235">
-        <v>100.63</v>
+        <v>131.0641</v>
       </c>
       <c r="H235">
-        <v>71.504000000000005</v>
+        <v>71.475399999999993</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>43847</v>
+        <v>43882</v>
       </c>
       <c r="B236">
-        <v>130.03</v>
+        <v>280.23649999999998</v>
       </c>
       <c r="C236">
-        <v>133.88999999999999</v>
+        <v>225.99109999999999</v>
       </c>
       <c r="D236">
-        <v>35.5274</v>
+        <v>353.63</v>
       </c>
       <c r="E236">
-        <v>331.95</v>
+        <v>3879.74</v>
       </c>
       <c r="F236">
-        <v>38.215000000000003</v>
+        <v>8070.49</v>
       </c>
       <c r="G236">
-        <v>100.63</v>
+        <v>131.0712</v>
       </c>
       <c r="H236">
-        <v>71.498199999999997</v>
+        <v>71.470200000000006</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>43854</v>
+        <v>43889</v>
       </c>
       <c r="B237">
-        <v>131.52000000000001</v>
+        <v>280.66640000000001</v>
       </c>
       <c r="C237">
-        <v>134.51</v>
+        <v>225.26349999999999</v>
       </c>
       <c r="D237">
-        <v>35.936500000000002</v>
+        <v>345</v>
       </c>
       <c r="E237">
-        <v>328.77</v>
+        <v>3402.54</v>
       </c>
       <c r="F237">
-        <v>37.954999999999998</v>
+        <v>7087.72</v>
       </c>
       <c r="G237">
-        <v>100.61199999999999</v>
+        <v>130.892</v>
       </c>
       <c r="H237">
-        <v>71.492099999999994</v>
+        <v>71.4649</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>43861</v>
+        <v>43896</v>
       </c>
       <c r="B238">
-        <v>132.88</v>
+        <v>282.67739999999998</v>
       </c>
       <c r="C238">
-        <v>134.88999999999999</v>
+        <v>225.04730000000001</v>
       </c>
       <c r="D238">
-        <v>36.5822</v>
+        <v>343.03</v>
       </c>
       <c r="E238">
-        <v>321.73</v>
+        <v>3336.55</v>
       </c>
       <c r="F238">
-        <v>36.585000000000001</v>
+        <v>6997.09</v>
       </c>
       <c r="G238">
-        <v>100.634</v>
+        <v>130.7878</v>
       </c>
       <c r="H238">
-        <v>71.4863</v>
+        <v>71.460999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>43868</v>
+        <v>43903</v>
       </c>
       <c r="B239">
-        <v>132.25</v>
+        <v>274.96289999999999</v>
       </c>
       <c r="C239">
-        <v>134.82499999999999</v>
+        <v>221.5635</v>
       </c>
       <c r="D239">
-        <v>37.088299999999997</v>
+        <v>330.63</v>
       </c>
       <c r="E239">
-        <v>332.2</v>
+        <v>3192.47</v>
       </c>
       <c r="F239">
-        <v>38.17</v>
+        <v>5790.98</v>
       </c>
       <c r="G239">
-        <v>100.61199999999999</v>
+        <v>129.86359999999999</v>
       </c>
       <c r="H239">
-        <v>71.480900000000005</v>
+        <v>71.4572</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>43875</v>
+        <v>43910</v>
       </c>
       <c r="B240">
-        <v>132.66</v>
+        <v>272.88990000000001</v>
       </c>
       <c r="C240">
-        <v>135</v>
+        <v>215.24709999999999</v>
       </c>
       <c r="D240">
-        <v>37.560099999999998</v>
+        <v>321.23</v>
       </c>
       <c r="E240">
-        <v>337.6</v>
+        <v>2854.23</v>
       </c>
       <c r="F240">
-        <v>38.625</v>
+        <v>5809.65</v>
       </c>
       <c r="G240">
-        <v>100.61199999999999</v>
+        <v>128.31030000000001</v>
       </c>
       <c r="H240">
-        <v>71.475399999999993</v>
+        <v>71.446700000000007</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>43882</v>
+        <v>43917</v>
       </c>
       <c r="B241">
-        <v>133.26499999999999</v>
+        <v>275.55360000000002</v>
       </c>
       <c r="C241">
-        <v>135.155</v>
+        <v>215.30340000000001</v>
       </c>
       <c r="D241">
-        <v>37.521599999999999</v>
+        <v>342.83</v>
       </c>
       <c r="E241">
-        <v>333.48</v>
+        <v>2996.72</v>
       </c>
       <c r="F241">
-        <v>38.204999999999998</v>
+        <v>6139.83</v>
       </c>
       <c r="G241">
-        <v>100.631</v>
+        <v>127.483</v>
       </c>
       <c r="H241">
-        <v>71.470200000000006</v>
+        <v>71.436400000000006</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>43889</v>
+        <v>43924</v>
       </c>
       <c r="B242">
-        <v>133.345</v>
+        <v>272.84480000000002</v>
       </c>
       <c r="C242">
-        <v>133.66499999999999</v>
+        <v>215.35319999999999</v>
       </c>
       <c r="D242">
-        <v>36.3322</v>
+        <v>334.81</v>
       </c>
       <c r="E242">
-        <v>296.26</v>
+        <v>3052.89</v>
       </c>
       <c r="F242">
-        <v>33.53</v>
+        <v>6211.22</v>
       </c>
       <c r="G242">
-        <v>100.425</v>
+        <v>127.6178</v>
       </c>
       <c r="H242">
-        <v>71.4649</v>
+        <v>71.424599999999998</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>43896</v>
+        <v>43931</v>
       </c>
       <c r="B243">
-        <v>134.44</v>
+        <v>271.64080000000001</v>
       </c>
       <c r="C243">
-        <v>133.72499999999999</v>
+        <v>217.34010000000001</v>
       </c>
       <c r="D243">
-        <v>36.0548</v>
+        <v>337.72</v>
       </c>
       <c r="E243">
-        <v>297.45999999999998</v>
+        <v>3322.14</v>
       </c>
       <c r="F243">
-        <v>32.505000000000003</v>
+        <v>6498.99</v>
       </c>
       <c r="G243">
-        <v>100.399</v>
+        <v>128.15129999999999</v>
       </c>
       <c r="H243">
-        <v>71.460999999999999</v>
+        <v>71.416200000000003</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>43903</v>
+        <v>43938</v>
       </c>
       <c r="B244">
-        <v>129.87</v>
+        <v>272.33539999999999</v>
       </c>
       <c r="C244">
-        <v>128.845</v>
+        <v>218.42509999999999</v>
       </c>
       <c r="D244">
-        <v>34.566299999999998</v>
+        <v>330.25</v>
       </c>
       <c r="E244">
-        <v>269.32</v>
+        <v>3488.46</v>
       </c>
       <c r="F244">
-        <v>26.1</v>
+        <v>6574.81</v>
       </c>
       <c r="G244">
-        <v>98.492999999999995</v>
+        <v>128.4494</v>
       </c>
       <c r="H244">
-        <v>71.4572</v>
+        <v>71.407899999999998</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>43910</v>
+        <v>43945</v>
       </c>
       <c r="B245">
-        <v>130.04</v>
+        <v>271.51609999999999</v>
       </c>
       <c r="C245">
-        <v>123.46</v>
+        <v>218.7484</v>
       </c>
       <c r="D245">
-        <v>33.319400000000002</v>
+        <v>324.98</v>
       </c>
       <c r="E245">
-        <v>228.8</v>
+        <v>3478.25</v>
       </c>
       <c r="F245">
-        <v>25.47</v>
+        <v>6519.57</v>
       </c>
       <c r="G245">
-        <v>95.510999999999996</v>
+        <v>128.50579999999999</v>
       </c>
       <c r="H245">
-        <v>71.446700000000007</v>
+        <v>71.4011</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B246">
-        <v>131.035</v>
+        <v>274.76870000000002</v>
       </c>
       <c r="C246">
-        <v>125.535</v>
+        <v>219.7508</v>
       </c>
       <c r="D246">
-        <v>35.926699999999997</v>
+        <v>329.61</v>
       </c>
       <c r="E246">
-        <v>253.42</v>
+        <v>3407.72</v>
       </c>
       <c r="F246">
-        <v>27.414999999999999</v>
+        <v>6602.64</v>
       </c>
       <c r="G246">
-        <v>96.948999999999998</v>
+        <v>128.69579999999999</v>
       </c>
       <c r="H246">
-        <v>71.436400000000006</v>
+        <v>71.395600000000002</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>43924</v>
+        <v>43959</v>
       </c>
       <c r="B247">
-        <v>129.49</v>
+        <v>272.43720000000002</v>
       </c>
       <c r="C247">
-        <v>124.92</v>
+        <v>219.33179999999999</v>
       </c>
       <c r="D247">
-        <v>34.9773</v>
+        <v>328.91</v>
       </c>
       <c r="E247">
-        <v>248.19</v>
+        <v>3579.2</v>
       </c>
       <c r="F247">
-        <v>26.675000000000001</v>
+        <v>6678.87</v>
       </c>
       <c r="G247">
-        <v>97.637</v>
+        <v>128.72380000000001</v>
       </c>
       <c r="H247">
-        <v>71.424599999999998</v>
+        <v>71.386600000000001</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>43931</v>
+        <v>43966</v>
       </c>
       <c r="B248">
-        <v>129.035</v>
+        <v>272.92320000000001</v>
       </c>
       <c r="C248">
-        <v>128.69</v>
+        <v>218.66659999999999</v>
       </c>
       <c r="D248">
-        <v>35.372</v>
+        <v>332.41</v>
       </c>
       <c r="E248">
-        <v>278.2</v>
+        <v>3548.27</v>
       </c>
       <c r="F248">
-        <v>28.975000000000001</v>
+        <v>6478.22</v>
       </c>
       <c r="G248">
-        <v>98.06</v>
+        <v>128.74039999999999</v>
       </c>
       <c r="H248">
-        <v>71.416200000000003</v>
+        <v>71.3797</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>43938</v>
+        <v>43973</v>
       </c>
       <c r="B249">
-        <v>129.28</v>
+        <v>274.22019999999998</v>
       </c>
       <c r="C249">
-        <v>128.255</v>
+        <v>219.32169999999999</v>
       </c>
       <c r="D249">
-        <v>34.526499999999999</v>
+        <v>341.45</v>
       </c>
       <c r="E249">
-        <v>286.64</v>
+        <v>3617.36</v>
       </c>
       <c r="F249">
-        <v>28.995000000000001</v>
+        <v>6646.6</v>
       </c>
       <c r="G249">
-        <v>99.168000000000006</v>
+        <v>128.9127</v>
       </c>
       <c r="H249">
-        <v>71.407899999999998</v>
+        <v>71.374600000000001</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>43945</v>
+        <v>43980</v>
       </c>
       <c r="B250">
-        <v>128.97499999999999</v>
+        <v>275.3408</v>
       </c>
       <c r="C250">
-        <v>129.19</v>
+        <v>220.49359999999999</v>
       </c>
       <c r="D250">
-        <v>33.895099999999999</v>
+        <v>346.26</v>
       </c>
       <c r="E250">
-        <v>282.97000000000003</v>
+        <v>3604.78</v>
       </c>
       <c r="F250">
-        <v>28.254999999999999</v>
+        <v>6776.75</v>
       </c>
       <c r="G250">
-        <v>98.457999999999998</v>
+        <v>129.25280000000001</v>
       </c>
       <c r="H250">
-        <v>71.4011</v>
+        <v>71.370199999999997</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>43952</v>
+        <v>43987</v>
       </c>
       <c r="B251">
-        <v>130.75</v>
+        <v>273.35570000000001</v>
       </c>
       <c r="C251">
-        <v>130.19</v>
+        <v>222.50710000000001</v>
       </c>
       <c r="D251">
-        <v>34.339300000000001</v>
+        <v>350.93</v>
       </c>
       <c r="E251">
-        <v>282.79000000000002</v>
+        <v>3680.09</v>
       </c>
       <c r="F251">
-        <v>29.434999999999999</v>
+        <v>7231.03</v>
       </c>
       <c r="G251">
-        <v>98.917000000000002</v>
+        <v>129.8039</v>
       </c>
       <c r="H251">
-        <v>71.395600000000002</v>
+        <v>71.365200000000002</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>43959</v>
+        <v>43994</v>
       </c>
       <c r="B252">
-        <v>129.72</v>
+        <v>275.63839999999999</v>
       </c>
       <c r="C252">
-        <v>129.49</v>
+        <v>222.25700000000001</v>
       </c>
       <c r="D252">
-        <v>34.272500000000001</v>
+        <v>352.13</v>
       </c>
       <c r="E252">
-        <v>292.44</v>
+        <v>3580.85</v>
       </c>
       <c r="F252">
-        <v>29.36</v>
+        <v>6875.07</v>
       </c>
       <c r="G252">
-        <v>99.019000000000005</v>
+        <v>129.81899999999999</v>
       </c>
       <c r="H252">
-        <v>71.386600000000001</v>
+        <v>71.360500000000002</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>43966</v>
+        <v>44001</v>
       </c>
       <c r="B253">
-        <v>129.81</v>
+        <v>276.96030000000002</v>
       </c>
       <c r="C253">
-        <v>128.61500000000001</v>
+        <v>222.44990000000001</v>
       </c>
       <c r="D253">
-        <v>34.562899999999999</v>
+        <v>354.61</v>
       </c>
       <c r="E253">
-        <v>286.27999999999997</v>
+        <v>3679.67</v>
       </c>
       <c r="F253">
-        <v>27.984999999999999</v>
+        <v>7153.08</v>
       </c>
       <c r="G253">
-        <v>98.906000000000006</v>
+        <v>129.96199999999999</v>
       </c>
       <c r="H253">
-        <v>71.3797</v>
+        <v>71.358000000000004</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>43973</v>
+        <v>44008</v>
       </c>
       <c r="B254">
-        <v>130.30000000000001</v>
+        <v>278.12880000000001</v>
       </c>
       <c r="C254">
-        <v>129.36000000000001</v>
+        <v>222.41640000000001</v>
       </c>
       <c r="D254">
-        <v>35.565899999999999</v>
+        <v>354.54</v>
       </c>
       <c r="E254">
-        <v>295.44</v>
+        <v>3590.99</v>
       </c>
       <c r="F254">
-        <v>29.43</v>
+        <v>6997.24</v>
       </c>
       <c r="G254">
-        <v>99.12</v>
+        <v>129.95580000000001</v>
       </c>
       <c r="H254">
-        <v>71.374600000000001</v>
+        <v>71.357600000000005</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>43980</v>
+        <v>44015</v>
       </c>
       <c r="B255">
-        <v>130.92500000000001</v>
+        <v>277.71699999999998</v>
       </c>
       <c r="C255">
-        <v>130.32499999999999</v>
+        <v>222.68299999999999</v>
       </c>
       <c r="D255">
-        <v>36.148800000000001</v>
+        <v>358.31</v>
       </c>
       <c r="E255">
-        <v>304.32</v>
+        <v>3726.94</v>
       </c>
       <c r="F255">
-        <v>30.925000000000001</v>
+        <v>7104.25</v>
       </c>
       <c r="G255">
-        <v>99.364999999999995</v>
+        <v>130.0318</v>
       </c>
       <c r="H255">
-        <v>71.370199999999997</v>
+        <v>71.356700000000004</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>43987</v>
+        <v>44022</v>
       </c>
       <c r="B256">
-        <v>129.80000000000001</v>
+        <v>278.91800000000001</v>
       </c>
       <c r="C256">
-        <v>132.86500000000001</v>
+        <v>222.93729999999999</v>
       </c>
       <c r="D256">
-        <v>36.782400000000003</v>
+        <v>357.06</v>
       </c>
       <c r="E256">
-        <v>319.33999999999997</v>
+        <v>3825.2</v>
       </c>
       <c r="F256">
-        <v>34.25</v>
+        <v>7132.95</v>
       </c>
       <c r="G256">
-        <v>99.956000000000003</v>
+        <v>130.108</v>
       </c>
       <c r="H256">
-        <v>71.365200000000002</v>
+        <v>71.354900000000001</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>43994</v>
+        <v>44029</v>
       </c>
       <c r="B257">
-        <v>130.99</v>
+        <v>278.83190000000002</v>
       </c>
       <c r="C257">
-        <v>131.85</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="D257">
-        <v>36.915700000000001</v>
+        <v>355.68</v>
       </c>
       <c r="E257">
-        <v>304.20999999999998</v>
+        <v>3773.61</v>
       </c>
       <c r="F257">
-        <v>32.024999999999999</v>
+        <v>7247.92</v>
       </c>
       <c r="G257">
-        <v>99.962000000000003</v>
+        <v>130.2243</v>
       </c>
       <c r="H257">
-        <v>71.360500000000002</v>
+        <v>71.353200000000001</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>44001</v>
+        <v>44036</v>
       </c>
       <c r="B258">
-        <v>131.69499999999999</v>
+        <v>279.86559999999997</v>
       </c>
       <c r="C258">
-        <v>131.91999999999999</v>
+        <v>224.05520000000001</v>
       </c>
       <c r="D258">
-        <v>37.213999999999999</v>
+        <v>359.2</v>
       </c>
       <c r="E258">
-        <v>308.64</v>
+        <v>3683.24</v>
       </c>
       <c r="F258">
-        <v>33.01</v>
+        <v>7081.44</v>
       </c>
       <c r="G258">
-        <v>99.971000000000004</v>
+        <v>130.3586</v>
       </c>
       <c r="H258">
-        <v>71.358000000000004</v>
+        <v>71.353399999999993</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>44008</v>
+        <v>44043</v>
       </c>
       <c r="B259">
-        <v>132.44999999999999</v>
+        <v>281.0258</v>
       </c>
       <c r="C259">
-        <v>131.495</v>
+        <v>224.35040000000001</v>
       </c>
       <c r="D259">
-        <v>37.210299999999997</v>
+        <v>359</v>
       </c>
       <c r="E259">
-        <v>300.05</v>
+        <v>3714.12</v>
       </c>
       <c r="F259">
-        <v>32.414999999999999</v>
+        <v>6853.78</v>
       </c>
       <c r="G259">
-        <v>99.966999999999999</v>
+        <v>130.38659999999999</v>
       </c>
       <c r="H259">
-        <v>71.357600000000005</v>
+        <v>71.350399999999993</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>44015</v>
+        <v>44050</v>
       </c>
       <c r="B260">
-        <v>131.88499999999999</v>
+        <v>281.70249999999999</v>
       </c>
       <c r="C260">
-        <v>132.26</v>
+        <v>224.58690000000001</v>
       </c>
       <c r="D260">
-        <v>37.611899999999999</v>
+        <v>360.59</v>
       </c>
       <c r="E260">
-        <v>312.23</v>
+        <v>3833.99</v>
       </c>
       <c r="F260">
-        <v>33.365000000000002</v>
+        <v>6937.99</v>
       </c>
       <c r="G260">
-        <v>100.014</v>
+        <v>130.45650000000001</v>
       </c>
       <c r="H260">
-        <v>71.356700000000004</v>
+        <v>71.346900000000005</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>44022</v>
+        <v>44057</v>
       </c>
       <c r="B261">
-        <v>132.55000000000001</v>
+        <v>279.79680000000002</v>
       </c>
       <c r="C261">
-        <v>132.49</v>
+        <v>224.78450000000001</v>
       </c>
       <c r="D261">
-        <v>37.448500000000003</v>
+        <v>357.23</v>
       </c>
       <c r="E261">
-        <v>317.58999999999997</v>
+        <v>3838.12</v>
       </c>
       <c r="F261">
-        <v>33.44</v>
+        <v>7025.75</v>
       </c>
       <c r="G261">
-        <v>100.06399999999999</v>
+        <v>130.55889999999999</v>
       </c>
       <c r="H261">
-        <v>71.354900000000001</v>
+        <v>71.342500000000001</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>44029</v>
+        <v>44064</v>
       </c>
       <c r="B262">
-        <v>132.32499999999999</v>
+        <v>281.33999999999997</v>
       </c>
       <c r="C262">
-        <v>132.55500000000001</v>
+        <v>225.12739999999999</v>
       </c>
       <c r="D262">
-        <v>37.3247</v>
+        <v>357.96</v>
       </c>
       <c r="E262">
-        <v>321.72000000000003</v>
+        <v>3933.6</v>
       </c>
       <c r="F262">
-        <v>34.155000000000001</v>
+        <v>6977.53</v>
       </c>
       <c r="G262">
-        <v>100.122</v>
+        <v>130.57079999999999</v>
       </c>
       <c r="H262">
-        <v>71.353200000000001</v>
+        <v>71.337699999999998</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>44035</v>
+        <v>44071</v>
       </c>
       <c r="B263">
-        <v>133.19000244140619</v>
+        <v>279.18430000000001</v>
       </c>
       <c r="C263">
-        <v>133.1499938964844</v>
+        <v>224.95750000000001</v>
       </c>
       <c r="D263">
-        <v>37.559199999999997</v>
+        <v>357.49</v>
       </c>
       <c r="E263">
-        <v>326.86</v>
+        <v>4055.59</v>
       </c>
       <c r="F263">
-        <v>34.310001373291023</v>
+        <v>7018.81</v>
       </c>
       <c r="G263">
-        <v>100.26100158691411</v>
+        <v>130.60390000000001</v>
       </c>
       <c r="H263">
-        <v>71.353899999999996</v>
+        <v>71.333799999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B264">
+        <v>278.82979999999998</v>
+      </c>
+      <c r="C264">
+        <v>224.9256</v>
+      </c>
+      <c r="D264">
+        <v>357.57</v>
+      </c>
+      <c r="E264">
+        <v>4033.37</v>
+      </c>
+      <c r="F264">
+        <v>6993.88</v>
+      </c>
+      <c r="G264">
+        <v>130.6097</v>
+      </c>
+      <c r="H264">
+        <v>71.331599999999995</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Επενδυτική Επιτροπή\Ap GM Black Litterman\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanos\Documents\GitHub\Iolcus-Investments\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A934A91-93DB-41A9-92F3-52A30C2C5784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59110F-F6BF-4FF6-B78A-E6FC726621D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="5380" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,21 +430,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,6815 +467,6815 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>42251</v>
+      </c>
+      <c r="B2">
+        <v>241.70189999999999</v>
+      </c>
+      <c r="C2">
+        <v>211.1712</v>
+      </c>
+      <c r="D2">
+        <v>154</v>
+      </c>
+      <c r="E2">
+        <v>1914.96</v>
+      </c>
+      <c r="F2">
+        <v>6056.57</v>
+      </c>
+      <c r="G2">
+        <v>129.84710000000001</v>
+      </c>
+      <c r="H2">
+        <v>72.243133999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>42251</v>
+        <v>42258</v>
       </c>
       <c r="B3">
-        <v>241.70189999999999</v>
+        <v>241.70140000000001</v>
       </c>
       <c r="C3">
-        <v>211.1712</v>
+        <v>211.1866</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="E3">
-        <v>1914.96</v>
+        <v>1930.26</v>
       </c>
       <c r="F3">
-        <v>6056.57</v>
+        <v>6092.34</v>
       </c>
       <c r="G3">
-        <v>129.84710000000001</v>
+        <v>129.8272</v>
       </c>
       <c r="H3">
-        <v>72.243133999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.242783000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>42258</v>
+        <v>42265</v>
       </c>
       <c r="B4">
-        <v>241.70140000000001</v>
+        <v>242.44669999999999</v>
       </c>
       <c r="C4">
-        <v>211.1866</v>
+        <v>211.02369999999999</v>
       </c>
       <c r="D4">
-        <v>159.55000000000001</v>
+        <v>164.93</v>
       </c>
       <c r="E4">
-        <v>1930.26</v>
+        <v>1911.88</v>
       </c>
       <c r="F4">
-        <v>6092.34</v>
+        <v>6069.99</v>
       </c>
       <c r="G4">
-        <v>129.8272</v>
+        <v>129.80170000000001</v>
       </c>
       <c r="H4">
-        <v>72.242783000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.242348000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>42265</v>
+        <v>42272</v>
       </c>
       <c r="B5">
-        <v>242.44669999999999</v>
+        <v>242.40199999999999</v>
       </c>
       <c r="C5">
-        <v>211.02369999999999</v>
+        <v>210.55439999999999</v>
       </c>
       <c r="D5">
-        <v>164.93</v>
+        <v>163.93</v>
       </c>
       <c r="E5">
-        <v>1911.88</v>
+        <v>1927.76</v>
       </c>
       <c r="F5">
-        <v>6069.99</v>
+        <v>6013.25</v>
       </c>
       <c r="G5">
-        <v>129.80170000000001</v>
+        <v>129.70760000000001</v>
       </c>
       <c r="H5">
-        <v>72.242348000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.241912999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>42272</v>
+        <v>42279</v>
       </c>
       <c r="B6">
-        <v>242.40199999999999</v>
+        <v>244.69030000000001</v>
       </c>
       <c r="C6">
-        <v>210.55439999999999</v>
+        <v>210.31780000000001</v>
       </c>
       <c r="D6">
-        <v>163.93</v>
+        <v>166.21</v>
       </c>
       <c r="E6">
-        <v>1927.76</v>
+        <v>1929.4</v>
       </c>
       <c r="F6">
-        <v>6013.25</v>
+        <v>5983.06</v>
       </c>
       <c r="G6">
-        <v>129.70760000000001</v>
+        <v>129.6163</v>
       </c>
       <c r="H6">
-        <v>72.241912999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.241478000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>42279</v>
+        <v>42286</v>
       </c>
       <c r="B7">
-        <v>244.69030000000001</v>
+        <v>243.5376</v>
       </c>
       <c r="C7">
-        <v>210.31780000000001</v>
+        <v>210.7517</v>
       </c>
       <c r="D7">
-        <v>166.21</v>
+        <v>170.53</v>
       </c>
       <c r="E7">
-        <v>1929.4</v>
+        <v>1977.27</v>
       </c>
       <c r="F7">
-        <v>5983.06</v>
+        <v>6233.03</v>
       </c>
       <c r="G7">
-        <v>129.6163</v>
+        <v>129.5976</v>
       </c>
       <c r="H7">
-        <v>72.241478000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.241028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>42286</v>
+        <v>42293</v>
       </c>
       <c r="B8">
-        <v>243.5376</v>
+        <v>244.58860000000001</v>
       </c>
       <c r="C8">
-        <v>210.7517</v>
+        <v>210.96559999999999</v>
       </c>
       <c r="D8">
-        <v>170.53</v>
+        <v>169.93</v>
       </c>
       <c r="E8">
-        <v>1977.27</v>
+        <v>2002.9</v>
       </c>
       <c r="F8">
-        <v>6233.03</v>
+        <v>6283.94</v>
       </c>
       <c r="G8">
-        <v>129.5976</v>
+        <v>129.59</v>
       </c>
       <c r="H8">
-        <v>72.241028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.240547000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>42293</v>
+        <v>42300</v>
       </c>
       <c r="B9">
-        <v>244.58860000000001</v>
+        <v>245.92080000000001</v>
       </c>
       <c r="C9">
-        <v>210.96559999999999</v>
+        <v>211.5206</v>
       </c>
       <c r="D9">
-        <v>169.93</v>
+        <v>174.82</v>
       </c>
       <c r="E9">
-        <v>2002.9</v>
+        <v>2127.0100000000002</v>
       </c>
       <c r="F9">
-        <v>6283.94</v>
+        <v>6509.17</v>
       </c>
       <c r="G9">
-        <v>129.59</v>
+        <v>129.6045</v>
       </c>
       <c r="H9">
-        <v>72.240547000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.240059000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>42300</v>
+        <v>42307</v>
       </c>
       <c r="B10">
-        <v>245.92080000000001</v>
+        <v>245.94450000000001</v>
       </c>
       <c r="C10">
-        <v>211.5206</v>
+        <v>211.6414</v>
       </c>
       <c r="D10">
-        <v>174.82</v>
+        <v>169.81</v>
       </c>
       <c r="E10">
-        <v>2127.0100000000002</v>
+        <v>2131.0300000000002</v>
       </c>
       <c r="F10">
-        <v>6509.17</v>
+        <v>6468.26</v>
       </c>
       <c r="G10">
-        <v>129.6045</v>
+        <v>129.6378</v>
       </c>
       <c r="H10">
-        <v>72.240059000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.239570999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>42307</v>
+        <v>42314</v>
       </c>
       <c r="B11">
-        <v>245.94450000000001</v>
+        <v>242.90520000000001</v>
       </c>
       <c r="C11">
-        <v>211.6414</v>
+        <v>211.57470000000001</v>
       </c>
       <c r="D11">
-        <v>169.81</v>
+        <v>172.73</v>
       </c>
       <c r="E11">
-        <v>2131.0300000000002</v>
+        <v>2222.35</v>
       </c>
       <c r="F11">
-        <v>6468.26</v>
+        <v>6547.73</v>
       </c>
       <c r="G11">
-        <v>129.6378</v>
+        <v>129.6491</v>
       </c>
       <c r="H11">
-        <v>72.239570999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.239081999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>42314</v>
+        <v>42321</v>
       </c>
       <c r="B12">
-        <v>242.90520000000001</v>
+        <v>245.01310000000001</v>
       </c>
       <c r="C12">
-        <v>211.57470000000001</v>
+        <v>212.00380000000001</v>
       </c>
       <c r="D12">
-        <v>172.73</v>
+        <v>177.44</v>
       </c>
       <c r="E12">
-        <v>2222.35</v>
+        <v>2141.59</v>
       </c>
       <c r="F12">
-        <v>6547.73</v>
+        <v>6379.35</v>
       </c>
       <c r="G12">
-        <v>129.6491</v>
+        <v>129.6738</v>
       </c>
       <c r="H12">
-        <v>72.239081999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.238594000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>42321</v>
+        <v>42328</v>
       </c>
       <c r="B13">
-        <v>245.01310000000001</v>
+        <v>246.74619999999999</v>
       </c>
       <c r="C13">
-        <v>212.00380000000001</v>
+        <v>212.3218</v>
       </c>
       <c r="D13">
-        <v>177.44</v>
+        <v>177.57</v>
       </c>
       <c r="E13">
-        <v>2141.59</v>
+        <v>2226.5500000000002</v>
       </c>
       <c r="F13">
-        <v>6379.35</v>
+        <v>6597.71</v>
       </c>
       <c r="G13">
-        <v>129.6738</v>
+        <v>129.6961</v>
       </c>
       <c r="H13">
-        <v>72.238594000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.238135999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>42328</v>
+        <v>42335</v>
       </c>
       <c r="B14">
-        <v>246.74619999999999</v>
+        <v>247.4194</v>
       </c>
       <c r="C14">
-        <v>212.3218</v>
+        <v>212.6052</v>
       </c>
       <c r="D14">
-        <v>177.57</v>
+        <v>175.58</v>
       </c>
       <c r="E14">
-        <v>2226.5500000000002</v>
+        <v>2240.0300000000002</v>
       </c>
       <c r="F14">
-        <v>6597.71</v>
+        <v>6620.28</v>
       </c>
       <c r="G14">
-        <v>129.6961</v>
+        <v>129.72579999999999</v>
       </c>
       <c r="H14">
-        <v>72.238135999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.237701000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>42335</v>
+        <v>42342</v>
       </c>
       <c r="B15">
-        <v>247.4194</v>
+        <v>243.9743</v>
       </c>
       <c r="C15">
-        <v>212.6052</v>
+        <v>211.81209999999999</v>
       </c>
       <c r="D15">
-        <v>175.58</v>
+        <v>165.92</v>
       </c>
       <c r="E15">
-        <v>2240.0300000000002</v>
+        <v>2192.84</v>
       </c>
       <c r="F15">
-        <v>6620.28</v>
+        <v>6338.95</v>
       </c>
       <c r="G15">
-        <v>129.72579999999999</v>
+        <v>129.7458</v>
       </c>
       <c r="H15">
-        <v>72.237701000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.237281999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>42342</v>
+        <v>42349</v>
       </c>
       <c r="B16">
-        <v>243.9743</v>
+        <v>245.9975</v>
       </c>
       <c r="C16">
-        <v>211.81209999999999</v>
+        <v>211.9589</v>
       </c>
       <c r="D16">
-        <v>165.92</v>
+        <v>162.53</v>
       </c>
       <c r="E16">
-        <v>2192.84</v>
+        <v>2092.02</v>
       </c>
       <c r="F16">
-        <v>6338.95</v>
+        <v>6087.81</v>
       </c>
       <c r="G16">
-        <v>129.7458</v>
+        <v>129.75030000000001</v>
       </c>
       <c r="H16">
-        <v>72.237281999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.236687000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>42349</v>
+        <v>42356</v>
       </c>
       <c r="B17">
-        <v>245.9975</v>
+        <v>245.74809999999999</v>
       </c>
       <c r="C17">
-        <v>211.9589</v>
+        <v>211.92769999999999</v>
       </c>
       <c r="D17">
-        <v>162.53</v>
+        <v>168.26</v>
       </c>
       <c r="E17">
-        <v>2092.02</v>
+        <v>2121.0500000000002</v>
       </c>
       <c r="F17">
-        <v>6087.81</v>
+        <v>6180.88</v>
       </c>
       <c r="G17">
-        <v>129.75030000000001</v>
+        <v>129.7466</v>
       </c>
       <c r="H17">
-        <v>72.236687000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.235695000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>42356</v>
+        <v>42363</v>
       </c>
       <c r="B18">
-        <v>245.74809999999999</v>
+        <v>244.13939999999999</v>
       </c>
       <c r="C18">
-        <v>211.92769999999999</v>
+        <v>211.75800000000001</v>
       </c>
       <c r="D18">
-        <v>168.26</v>
+        <v>167.87</v>
       </c>
       <c r="E18">
-        <v>2121.0500000000002</v>
+        <v>2149.8000000000002</v>
       </c>
       <c r="F18">
-        <v>6180.88</v>
+        <v>6270.46</v>
       </c>
       <c r="G18">
-        <v>129.7466</v>
+        <v>129.75059999999999</v>
       </c>
       <c r="H18">
-        <v>72.235695000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.234848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>42363</v>
+        <v>42370</v>
       </c>
       <c r="B19">
-        <v>244.13939999999999</v>
+        <v>244.53100000000001</v>
       </c>
       <c r="C19">
-        <v>211.75800000000001</v>
+        <v>211.87989999999999</v>
       </c>
       <c r="D19">
-        <v>167.87</v>
+        <v>167.75</v>
       </c>
       <c r="E19">
-        <v>2149.8000000000002</v>
+        <v>2152.29</v>
       </c>
       <c r="F19">
-        <v>6270.46</v>
+        <v>6254.61</v>
       </c>
       <c r="G19">
-        <v>129.75059999999999</v>
+        <v>129.75659999999999</v>
       </c>
       <c r="H19">
-        <v>72.234848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.233856000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>42370</v>
+        <v>42377</v>
       </c>
       <c r="B20">
-        <v>244.53100000000001</v>
+        <v>245.68690000000001</v>
       </c>
       <c r="C20">
-        <v>211.87989999999999</v>
+        <v>212.0206</v>
       </c>
       <c r="D20">
-        <v>167.75</v>
+        <v>161.81</v>
       </c>
       <c r="E20">
-        <v>2152.29</v>
+        <v>2016.74</v>
       </c>
       <c r="F20">
-        <v>6254.61</v>
+        <v>5826.07</v>
       </c>
       <c r="G20">
-        <v>129.75659999999999</v>
+        <v>129.77260000000001</v>
       </c>
       <c r="H20">
-        <v>72.233856000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.232719000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>42377</v>
+        <v>42384</v>
       </c>
       <c r="B21">
-        <v>245.68690000000001</v>
+        <v>246.1396</v>
       </c>
       <c r="C21">
-        <v>212.0206</v>
+        <v>211.49359999999999</v>
       </c>
       <c r="D21">
-        <v>161.81</v>
+        <v>160.18</v>
       </c>
       <c r="E21">
-        <v>2016.74</v>
+        <v>1976.33</v>
       </c>
       <c r="F21">
-        <v>5826.07</v>
+        <v>5652.47</v>
       </c>
       <c r="G21">
-        <v>129.77260000000001</v>
+        <v>129.7346</v>
       </c>
       <c r="H21">
-        <v>72.232719000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.231719999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>42384</v>
+        <v>42391</v>
       </c>
       <c r="B22">
-        <v>246.1396</v>
+        <v>246.6585</v>
       </c>
       <c r="C22">
-        <v>211.49359999999999</v>
+        <v>211.5872</v>
       </c>
       <c r="D22">
-        <v>160.18</v>
+        <v>155.54</v>
       </c>
       <c r="E22">
-        <v>1976.33</v>
+        <v>2030.53</v>
       </c>
       <c r="F22">
-        <v>5652.47</v>
+        <v>5799.04</v>
       </c>
       <c r="G22">
-        <v>129.7346</v>
+        <v>129.71039999999999</v>
       </c>
       <c r="H22">
-        <v>72.231719999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.230727999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>42391</v>
+        <v>42398</v>
       </c>
       <c r="B23">
-        <v>246.6585</v>
+        <v>249.3167</v>
       </c>
       <c r="C23">
-        <v>211.5872</v>
+        <v>212.24289999999999</v>
       </c>
       <c r="D23">
-        <v>155.54</v>
+        <v>152.9</v>
       </c>
       <c r="E23">
-        <v>2030.53</v>
+        <v>2071.25</v>
       </c>
       <c r="F23">
-        <v>5799.04</v>
+        <v>5859.81</v>
       </c>
       <c r="G23">
-        <v>129.71039999999999</v>
+        <v>129.72620000000001</v>
       </c>
       <c r="H23">
-        <v>72.230727999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.229729000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>42398</v>
+        <v>42405</v>
       </c>
       <c r="B24">
-        <v>249.3167</v>
+        <v>248.8426</v>
       </c>
       <c r="C24">
-        <v>212.24289999999999</v>
+        <v>212.0436</v>
       </c>
       <c r="D24">
-        <v>152.9</v>
+        <v>154.19</v>
       </c>
       <c r="E24">
-        <v>2071.25</v>
+        <v>1944.56</v>
       </c>
       <c r="F24">
-        <v>5859.81</v>
+        <v>5553.56</v>
       </c>
       <c r="G24">
-        <v>129.72620000000001</v>
+        <v>129.70849999999999</v>
       </c>
       <c r="H24">
-        <v>72.229729000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.228722000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>42405</v>
+        <v>42412</v>
       </c>
       <c r="B25">
-        <v>248.8426</v>
+        <v>248.42420000000001</v>
       </c>
       <c r="C25">
-        <v>212.0436</v>
+        <v>211.47540000000001</v>
       </c>
       <c r="D25">
-        <v>154.19</v>
+        <v>138.84</v>
       </c>
       <c r="E25">
-        <v>1944.56</v>
+        <v>1925.46</v>
       </c>
       <c r="F25">
-        <v>5553.56</v>
+        <v>5360.07</v>
       </c>
       <c r="G25">
-        <v>129.70849999999999</v>
+        <v>129.56720000000001</v>
       </c>
       <c r="H25">
-        <v>72.228722000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.227722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>42412</v>
+        <v>42419</v>
       </c>
       <c r="B26">
-        <v>248.42420000000001</v>
+        <v>249.65539999999999</v>
       </c>
       <c r="C26">
-        <v>211.47540000000001</v>
+        <v>212.0916</v>
       </c>
       <c r="D26">
-        <v>138.84</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="E26">
-        <v>1925.46</v>
+        <v>1994.68</v>
       </c>
       <c r="F26">
-        <v>5360.07</v>
+        <v>5541.79</v>
       </c>
       <c r="G26">
-        <v>129.56720000000001</v>
+        <v>129.59289999999999</v>
       </c>
       <c r="H26">
-        <v>72.227722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.226730000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>42419</v>
+        <v>42426</v>
       </c>
       <c r="B27">
-        <v>249.65539999999999</v>
+        <v>250.8124</v>
       </c>
       <c r="C27">
-        <v>212.0916</v>
+        <v>212.44579999999999</v>
       </c>
       <c r="D27">
-        <v>148.80000000000001</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="E27">
-        <v>1994.68</v>
+        <v>2047.88</v>
       </c>
       <c r="F27">
-        <v>5541.79</v>
+        <v>5648.67</v>
       </c>
       <c r="G27">
-        <v>129.59289999999999</v>
+        <v>129.62</v>
       </c>
       <c r="H27">
-        <v>72.226730000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.225730999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>42426</v>
+        <v>42433</v>
       </c>
       <c r="B28">
-        <v>250.8124</v>
+        <v>249.75989999999999</v>
       </c>
       <c r="C28">
-        <v>212.44579999999999</v>
+        <v>212.90049999999999</v>
       </c>
       <c r="D28">
-        <v>151.05000000000001</v>
+        <v>156.47999999999999</v>
       </c>
       <c r="E28">
-        <v>2047.88</v>
+        <v>2078.69</v>
       </c>
       <c r="F28">
-        <v>5648.67</v>
+        <v>5815.12</v>
       </c>
       <c r="G28">
-        <v>129.62</v>
+        <v>129.68360000000001</v>
       </c>
       <c r="H28">
-        <v>72.225730999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.225441000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>42433</v>
+        <v>42440</v>
       </c>
       <c r="B29">
-        <v>249.75989999999999</v>
+        <v>250.45920000000001</v>
       </c>
       <c r="C29">
-        <v>212.90049999999999</v>
+        <v>213.44229999999999</v>
       </c>
       <c r="D29">
-        <v>156.47999999999999</v>
+        <v>165.91</v>
       </c>
       <c r="E29">
-        <v>2078.69</v>
+        <v>2071.1799999999998</v>
       </c>
       <c r="F29">
-        <v>5815.12</v>
+        <v>5825.88</v>
       </c>
       <c r="G29">
-        <v>129.68360000000001</v>
+        <v>129.78270000000001</v>
       </c>
       <c r="H29">
-        <v>72.225441000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.224907000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>42440</v>
+        <v>42447</v>
       </c>
       <c r="B30">
-        <v>250.45920000000001</v>
+        <v>251.62700000000001</v>
       </c>
       <c r="C30">
-        <v>213.44229999999999</v>
+        <v>213.64</v>
       </c>
       <c r="D30">
-        <v>165.91</v>
+        <v>168.36</v>
       </c>
       <c r="E30">
-        <v>2071.1799999999998</v>
+        <v>2068.5</v>
       </c>
       <c r="F30">
-        <v>5825.88</v>
+        <v>5773.73</v>
       </c>
       <c r="G30">
-        <v>129.78270000000001</v>
+        <v>129.8049</v>
       </c>
       <c r="H30">
-        <v>72.224907000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.223770000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>42447</v>
+        <v>42454</v>
       </c>
       <c r="B31">
-        <v>251.62700000000001</v>
+        <v>251.95859999999999</v>
       </c>
       <c r="C31">
-        <v>213.64</v>
+        <v>213.84180000000001</v>
       </c>
       <c r="D31">
-        <v>168.36</v>
+        <v>165.8</v>
       </c>
       <c r="E31">
-        <v>2068.5</v>
+        <v>2091.16</v>
       </c>
       <c r="F31">
-        <v>5773.73</v>
+        <v>5667.01</v>
       </c>
       <c r="G31">
-        <v>129.8049</v>
+        <v>129.83099999999999</v>
       </c>
       <c r="H31">
-        <v>72.223770000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.222313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>42454</v>
+        <v>42461</v>
       </c>
       <c r="B32">
-        <v>251.95859999999999</v>
+        <v>253.11449999999999</v>
       </c>
       <c r="C32">
-        <v>213.84180000000001</v>
+        <v>214.10919999999999</v>
       </c>
       <c r="D32">
-        <v>165.8</v>
+        <v>168.24</v>
       </c>
       <c r="E32">
-        <v>2091.16</v>
+        <v>2093.64</v>
       </c>
       <c r="F32">
-        <v>5667.01</v>
+        <v>5598.44</v>
       </c>
       <c r="G32">
-        <v>129.83099999999999</v>
+        <v>129.87719999999999</v>
       </c>
       <c r="H32">
-        <v>72.222313</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.220375000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>42461</v>
+        <v>42468</v>
       </c>
       <c r="B33">
-        <v>253.11449999999999</v>
+        <v>252.98599999999999</v>
       </c>
       <c r="C33">
-        <v>214.10919999999999</v>
+        <v>214.40309999999999</v>
       </c>
       <c r="D33">
-        <v>168.24</v>
+        <v>163.53</v>
       </c>
       <c r="E33">
-        <v>2093.64</v>
+        <v>2062.83</v>
       </c>
       <c r="F33">
-        <v>5598.44</v>
+        <v>5617.66</v>
       </c>
       <c r="G33">
-        <v>129.87719999999999</v>
+        <v>129.88829999999999</v>
       </c>
       <c r="H33">
-        <v>72.220375000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.218673999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>42468</v>
+        <v>42475</v>
       </c>
       <c r="B34">
-        <v>252.98599999999999</v>
+        <v>252.48849999999999</v>
       </c>
       <c r="C34">
-        <v>214.40309999999999</v>
+        <v>214.50399999999999</v>
       </c>
       <c r="D34">
-        <v>163.53</v>
+        <v>163.84</v>
       </c>
       <c r="E34">
-        <v>2062.83</v>
+        <v>2112.86</v>
       </c>
       <c r="F34">
-        <v>5617.66</v>
+        <v>5863.56</v>
       </c>
       <c r="G34">
-        <v>129.88829999999999</v>
+        <v>129.9393</v>
       </c>
       <c r="H34">
-        <v>72.218673999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.216980000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>42475</v>
+        <v>42482</v>
       </c>
       <c r="B35">
-        <v>252.48849999999999</v>
+        <v>250.71379999999999</v>
       </c>
       <c r="C35">
-        <v>214.50399999999999</v>
+        <v>214.8038</v>
       </c>
       <c r="D35">
-        <v>163.84</v>
+        <v>170.93</v>
       </c>
       <c r="E35">
-        <v>2112.86</v>
+        <v>2127.88</v>
       </c>
       <c r="F35">
-        <v>5863.56</v>
+        <v>5998</v>
       </c>
       <c r="G35">
-        <v>129.9393</v>
+        <v>129.99959999999999</v>
       </c>
       <c r="H35">
-        <v>72.216980000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.215286000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>42482</v>
+        <v>42489</v>
       </c>
       <c r="B36">
-        <v>250.71379999999999</v>
+        <v>250.01779999999999</v>
       </c>
       <c r="C36">
-        <v>214.8038</v>
+        <v>214.58760000000001</v>
       </c>
       <c r="D36">
-        <v>170.93</v>
+        <v>170.72</v>
       </c>
       <c r="E36">
-        <v>2127.88</v>
+        <v>2056.0300000000002</v>
       </c>
       <c r="F36">
-        <v>5998</v>
+        <v>5848.71</v>
       </c>
       <c r="G36">
-        <v>129.99959999999999</v>
+        <v>130.0222</v>
       </c>
       <c r="H36">
-        <v>72.215286000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.213584999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>42489</v>
+        <v>42496</v>
       </c>
       <c r="B37">
-        <v>250.01779999999999</v>
+        <v>251.56219999999999</v>
       </c>
       <c r="C37">
-        <v>214.58760000000001</v>
+        <v>214.8715</v>
       </c>
       <c r="D37">
-        <v>170.72</v>
+        <v>171.49</v>
       </c>
       <c r="E37">
-        <v>2056.0300000000002</v>
+        <v>2060.9699999999998</v>
       </c>
       <c r="F37">
-        <v>5848.71</v>
+        <v>5680.51</v>
       </c>
       <c r="G37">
-        <v>130.0222</v>
+        <v>130.02879999999999</v>
       </c>
       <c r="H37">
-        <v>72.213584999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.211890999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>42496</v>
+        <v>42503</v>
       </c>
       <c r="B38">
-        <v>251.56219999999999</v>
+        <v>251.9272</v>
       </c>
       <c r="C38">
-        <v>214.8715</v>
+        <v>214.71270000000001</v>
       </c>
       <c r="D38">
-        <v>171.49</v>
+        <v>182.13</v>
       </c>
       <c r="E38">
-        <v>2060.9699999999998</v>
+        <v>2076.31</v>
       </c>
       <c r="F38">
-        <v>5680.51</v>
+        <v>5774.6</v>
       </c>
       <c r="G38">
-        <v>130.02879999999999</v>
+        <v>130.03389999999999</v>
       </c>
       <c r="H38">
-        <v>72.211890999999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.210196999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>42503</v>
+        <v>42510</v>
       </c>
       <c r="B39">
-        <v>251.9272</v>
+        <v>251.54830000000001</v>
       </c>
       <c r="C39">
-        <v>214.71270000000001</v>
+        <v>214.5992</v>
       </c>
       <c r="D39">
-        <v>182.13</v>
+        <v>183.04</v>
       </c>
       <c r="E39">
-        <v>2076.31</v>
+        <v>2097.5100000000002</v>
       </c>
       <c r="F39">
-        <v>5774.6</v>
+        <v>5817.4</v>
       </c>
       <c r="G39">
-        <v>130.03389999999999</v>
+        <v>130.04159999999999</v>
       </c>
       <c r="H39">
-        <v>72.210196999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.208504000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>42510</v>
+        <v>42517</v>
       </c>
       <c r="B40">
-        <v>251.54830000000001</v>
+        <v>252.64109999999999</v>
       </c>
       <c r="C40">
-        <v>214.5992</v>
+        <v>214.94149999999999</v>
       </c>
       <c r="D40">
-        <v>183.04</v>
+        <v>186.39</v>
       </c>
       <c r="E40">
-        <v>2097.5100000000002</v>
+        <v>2161.79</v>
       </c>
       <c r="F40">
-        <v>5817.4</v>
+        <v>6057.2</v>
       </c>
       <c r="G40">
-        <v>130.04159999999999</v>
+        <v>130.0675</v>
       </c>
       <c r="H40">
-        <v>72.208504000000005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.206801999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>42517</v>
+        <v>42524</v>
       </c>
       <c r="B41">
-        <v>252.64109999999999</v>
+        <v>253.73699999999999</v>
       </c>
       <c r="C41">
-        <v>214.94149999999999</v>
+        <v>215.2276</v>
       </c>
       <c r="D41">
-        <v>186.39</v>
+        <v>185.74</v>
       </c>
       <c r="E41">
-        <v>2161.79</v>
+        <v>2118.25</v>
       </c>
       <c r="F41">
-        <v>6057.2</v>
+        <v>5893.13</v>
       </c>
       <c r="G41">
-        <v>130.0675</v>
+        <v>130.08070000000001</v>
       </c>
       <c r="H41">
-        <v>72.206801999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.205185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>42524</v>
+        <v>42531</v>
       </c>
       <c r="B42">
-        <v>253.73699999999999</v>
+        <v>255.083</v>
       </c>
       <c r="C42">
-        <v>215.2276</v>
+        <v>215.46899999999999</v>
       </c>
       <c r="D42">
-        <v>185.74</v>
+        <v>183.72</v>
       </c>
       <c r="E42">
-        <v>2118.25</v>
+        <v>2125.2800000000002</v>
       </c>
       <c r="F42">
-        <v>5893.13</v>
+        <v>5764.08</v>
       </c>
       <c r="G42">
-        <v>130.08070000000001</v>
+        <v>130.10470000000001</v>
       </c>
       <c r="H42">
-        <v>72.205185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204375999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>42531</v>
+        <v>42538</v>
       </c>
       <c r="B43">
-        <v>255.083</v>
+        <v>254.20689999999999</v>
       </c>
       <c r="C43">
-        <v>215.46899999999999</v>
+        <v>215.41810000000001</v>
       </c>
       <c r="D43">
-        <v>183.72</v>
+        <v>175.89</v>
       </c>
       <c r="E43">
-        <v>2125.2800000000002</v>
+        <v>2107.06</v>
       </c>
       <c r="F43">
-        <v>5764.08</v>
+        <v>5650.75</v>
       </c>
       <c r="G43">
-        <v>130.10470000000001</v>
+        <v>130.08590000000001</v>
       </c>
       <c r="H43">
-        <v>72.204375999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204361000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>42538</v>
+        <v>42545</v>
       </c>
       <c r="B44">
-        <v>254.20689999999999</v>
+        <v>255.0119</v>
       </c>
       <c r="C44">
-        <v>215.41810000000001</v>
+        <v>215.0538</v>
       </c>
       <c r="D44">
-        <v>175.89</v>
+        <v>171.07</v>
       </c>
       <c r="E44">
-        <v>2107.06</v>
+        <v>2103.02</v>
       </c>
       <c r="F44">
-        <v>5650.75</v>
+        <v>5601.76</v>
       </c>
       <c r="G44">
-        <v>130.08590000000001</v>
+        <v>129.98339999999999</v>
       </c>
       <c r="H44">
-        <v>72.204361000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204346000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>42545</v>
+        <v>42552</v>
       </c>
       <c r="B45">
-        <v>255.0119</v>
+        <v>259.00569999999999</v>
       </c>
       <c r="C45">
-        <v>215.0538</v>
+        <v>215.84950000000001</v>
       </c>
       <c r="D45">
-        <v>171.07</v>
+        <v>181.3</v>
       </c>
       <c r="E45">
-        <v>2103.02</v>
+        <v>2171.4899999999998</v>
       </c>
       <c r="F45">
-        <v>5601.76</v>
+        <v>5848.26</v>
       </c>
       <c r="G45">
-        <v>129.98339999999999</v>
+        <v>130.0436</v>
       </c>
       <c r="H45">
-        <v>72.204346000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204338000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>42552</v>
+        <v>42559</v>
       </c>
       <c r="B46">
-        <v>259.00569999999999</v>
+        <v>259.91449999999998</v>
       </c>
       <c r="C46">
-        <v>215.84950000000001</v>
+        <v>216.3083</v>
       </c>
       <c r="D46">
-        <v>181.3</v>
+        <v>179.54</v>
       </c>
       <c r="E46">
-        <v>2171.4899999999998</v>
+        <v>2220.9299999999998</v>
       </c>
       <c r="F46">
-        <v>5848.26</v>
+        <v>5788.91</v>
       </c>
       <c r="G46">
-        <v>130.0436</v>
+        <v>130.0676</v>
       </c>
       <c r="H46">
-        <v>72.204338000000007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204329999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>42559</v>
+        <v>42566</v>
       </c>
       <c r="B47">
-        <v>259.91449999999998</v>
+        <v>257.87639999999999</v>
       </c>
       <c r="C47">
-        <v>216.3083</v>
+        <v>216.72229999999999</v>
       </c>
       <c r="D47">
-        <v>179.54</v>
+        <v>181.34</v>
       </c>
       <c r="E47">
-        <v>2220.9299999999998</v>
+        <v>2241.1799999999998</v>
       </c>
       <c r="F47">
-        <v>5788.91</v>
+        <v>5939.28</v>
       </c>
       <c r="G47">
-        <v>130.0676</v>
+        <v>130.11109999999999</v>
       </c>
       <c r="H47">
-        <v>72.204329999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204314999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>42566</v>
+        <v>42573</v>
       </c>
       <c r="B48">
-        <v>257.87639999999999</v>
+        <v>258.40339999999998</v>
       </c>
       <c r="C48">
-        <v>216.72229999999999</v>
+        <v>216.81229999999999</v>
       </c>
       <c r="D48">
-        <v>181.34</v>
+        <v>180.19</v>
       </c>
       <c r="E48">
-        <v>2241.1799999999998</v>
+        <v>2277.84</v>
       </c>
       <c r="F48">
-        <v>5939.28</v>
+        <v>5967.66</v>
       </c>
       <c r="G48">
-        <v>130.11109999999999</v>
+        <v>130.14279999999999</v>
       </c>
       <c r="H48">
-        <v>72.204314999999994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204307999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>42573</v>
+        <v>42580</v>
       </c>
       <c r="B49">
-        <v>258.40339999999998</v>
+        <v>260.52319999999997</v>
       </c>
       <c r="C49">
-        <v>216.81229999999999</v>
+        <v>217.0017</v>
       </c>
       <c r="D49">
-        <v>180.19</v>
+        <v>178.85</v>
       </c>
       <c r="E49">
-        <v>2277.84</v>
+        <v>2233.1</v>
       </c>
       <c r="F49">
-        <v>5967.66</v>
+        <v>5959.98</v>
       </c>
       <c r="G49">
-        <v>130.14279999999999</v>
+        <v>130.17349999999999</v>
       </c>
       <c r="H49">
-        <v>72.204307999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204291999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>42580</v>
+        <v>42587</v>
       </c>
       <c r="B50">
-        <v>260.52319999999997</v>
+        <v>259.9194</v>
       </c>
       <c r="C50">
-        <v>217.0017</v>
+        <v>217.04079999999999</v>
       </c>
       <c r="D50">
-        <v>178.85</v>
+        <v>176.93</v>
       </c>
       <c r="E50">
-        <v>2233.1</v>
+        <v>2269.64</v>
       </c>
       <c r="F50">
-        <v>5959.98</v>
+        <v>5938.95</v>
       </c>
       <c r="G50">
-        <v>130.17349999999999</v>
+        <v>130.24590000000001</v>
       </c>
       <c r="H50">
-        <v>72.204291999999995</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204284999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>42587</v>
+        <v>42594</v>
       </c>
       <c r="B51">
-        <v>259.9194</v>
+        <v>260.7894</v>
       </c>
       <c r="C51">
-        <v>217.04079999999999</v>
+        <v>217.31309999999999</v>
       </c>
       <c r="D51">
-        <v>176.93</v>
+        <v>179.6</v>
       </c>
       <c r="E51">
-        <v>2269.64</v>
+        <v>2246.9899999999998</v>
       </c>
       <c r="F51">
-        <v>5938.95</v>
+        <v>6007.27</v>
       </c>
       <c r="G51">
-        <v>130.24590000000001</v>
+        <v>130.2962</v>
       </c>
       <c r="H51">
-        <v>72.204284999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204277000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>42594</v>
+        <v>42601</v>
       </c>
       <c r="B52">
-        <v>260.7894</v>
+        <v>259.9128</v>
       </c>
       <c r="C52">
-        <v>217.31309999999999</v>
+        <v>217.19059999999999</v>
       </c>
       <c r="D52">
-        <v>179.6</v>
+        <v>180.66</v>
       </c>
       <c r="E52">
-        <v>2246.9899999999998</v>
+        <v>2212.25</v>
       </c>
       <c r="F52">
-        <v>6007.27</v>
+        <v>5904</v>
       </c>
       <c r="G52">
-        <v>130.2962</v>
+        <v>130.33330000000001</v>
       </c>
       <c r="H52">
-        <v>72.204277000000005</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>42601</v>
+        <v>42608</v>
       </c>
       <c r="B53">
-        <v>259.9128</v>
+        <v>260.39760000000001</v>
       </c>
       <c r="C53">
-        <v>217.19059999999999</v>
+        <v>217.32839999999999</v>
       </c>
       <c r="D53">
-        <v>180.66</v>
+        <v>180.78</v>
       </c>
       <c r="E53">
-        <v>2212.25</v>
+        <v>2209.08</v>
       </c>
       <c r="F53">
-        <v>5904</v>
+        <v>5951.36</v>
       </c>
       <c r="G53">
-        <v>130.33330000000001</v>
+        <v>130.36500000000001</v>
       </c>
       <c r="H53">
-        <v>72.204262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.204254000000006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>42608</v>
+        <v>42615</v>
       </c>
       <c r="B54">
-        <v>260.39760000000001</v>
+        <v>258.81200000000001</v>
       </c>
       <c r="C54">
-        <v>217.32839999999999</v>
+        <v>217.33349999999999</v>
       </c>
       <c r="D54">
-        <v>180.78</v>
+        <v>180.39</v>
       </c>
       <c r="E54">
-        <v>2209.08</v>
+        <v>2244.63</v>
       </c>
       <c r="F54">
-        <v>5951.36</v>
+        <v>6080.53</v>
       </c>
       <c r="G54">
-        <v>130.36500000000001</v>
+        <v>130.38759999999999</v>
       </c>
       <c r="H54">
-        <v>72.204254000000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.203536999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>42615</v>
+        <v>42622</v>
       </c>
       <c r="B55">
-        <v>258.81200000000001</v>
+        <v>257.7808</v>
       </c>
       <c r="C55">
-        <v>217.33349999999999</v>
+        <v>217.34200000000001</v>
       </c>
       <c r="D55">
-        <v>180.39</v>
+        <v>178.65</v>
       </c>
       <c r="E55">
-        <v>2244.63</v>
+        <v>2186.31</v>
       </c>
       <c r="F55">
-        <v>6080.53</v>
+        <v>5985.18</v>
       </c>
       <c r="G55">
-        <v>130.38759999999999</v>
+        <v>130.39619999999999</v>
       </c>
       <c r="H55">
-        <v>72.203536999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202826999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>42622</v>
+        <v>42629</v>
       </c>
       <c r="B56">
-        <v>257.7808</v>
+        <v>257.51429999999999</v>
       </c>
       <c r="C56">
-        <v>217.34200000000001</v>
+        <v>217.2671</v>
       </c>
       <c r="D56">
-        <v>178.65</v>
+        <v>174.41</v>
       </c>
       <c r="E56">
-        <v>2186.31</v>
+        <v>2216.15</v>
       </c>
       <c r="F56">
-        <v>5985.18</v>
+        <v>5842.13</v>
       </c>
       <c r="G56">
-        <v>130.39619999999999</v>
+        <v>130.39920000000001</v>
       </c>
       <c r="H56">
-        <v>72.202826999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202515000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>42629</v>
+        <v>42636</v>
       </c>
       <c r="B57">
-        <v>257.51429999999999</v>
+        <v>259.62639999999999</v>
       </c>
       <c r="C57">
-        <v>217.2671</v>
+        <v>217.42789999999999</v>
       </c>
       <c r="D57">
-        <v>174.41</v>
+        <v>176.82</v>
       </c>
       <c r="E57">
-        <v>2216.15</v>
+        <v>2224.04</v>
       </c>
       <c r="F57">
-        <v>5842.13</v>
+        <v>5971.9</v>
       </c>
       <c r="G57">
-        <v>130.39920000000001</v>
+        <v>130.40190000000001</v>
       </c>
       <c r="H57">
-        <v>72.202515000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202499000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>42636</v>
+        <v>42643</v>
       </c>
       <c r="B58">
-        <v>259.62639999999999</v>
+        <v>260.21859999999998</v>
       </c>
       <c r="C58">
-        <v>217.42789999999999</v>
+        <v>217.35679999999999</v>
       </c>
       <c r="D58">
-        <v>176.82</v>
+        <v>178.05</v>
       </c>
       <c r="E58">
-        <v>2224.04</v>
+        <v>2221.85</v>
       </c>
       <c r="F58">
-        <v>5971.9</v>
+        <v>5918.64</v>
       </c>
       <c r="G58">
-        <v>130.40190000000001</v>
+        <v>130.2928</v>
       </c>
       <c r="H58">
-        <v>72.202499000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202492000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>42643</v>
+        <v>42650</v>
       </c>
       <c r="B59">
-        <v>260.21859999999998</v>
+        <v>257.49220000000003</v>
       </c>
       <c r="C59">
-        <v>217.35679999999999</v>
+        <v>217.20580000000001</v>
       </c>
       <c r="D59">
-        <v>178.05</v>
+        <v>177.53</v>
       </c>
       <c r="E59">
-        <v>2221.85</v>
+        <v>2228.3200000000002</v>
       </c>
       <c r="F59">
-        <v>5918.64</v>
+        <v>5897.73</v>
       </c>
       <c r="G59">
-        <v>130.2928</v>
+        <v>130.3561</v>
       </c>
       <c r="H59">
-        <v>72.202492000000007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>42650</v>
+        <v>42657</v>
       </c>
       <c r="B60">
-        <v>257.49220000000003</v>
+        <v>257.11130000000003</v>
       </c>
       <c r="C60">
-        <v>217.20580000000001</v>
+        <v>217.18709999999999</v>
       </c>
       <c r="D60">
-        <v>177.53</v>
+        <v>176.18</v>
       </c>
       <c r="E60">
-        <v>2228.3200000000002</v>
+        <v>2244.9699999999998</v>
       </c>
       <c r="F60">
-        <v>5897.73</v>
+        <v>5897.33</v>
       </c>
       <c r="G60">
-        <v>130.3561</v>
+        <v>130.3913</v>
       </c>
       <c r="H60">
-        <v>72.202354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202158999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>42657</v>
+        <v>42664</v>
       </c>
       <c r="B61">
-        <v>257.11130000000003</v>
+        <v>257.84719999999999</v>
       </c>
       <c r="C61">
-        <v>217.18709999999999</v>
+        <v>217.4188</v>
       </c>
       <c r="D61">
-        <v>176.18</v>
+        <v>175.94</v>
       </c>
       <c r="E61">
-        <v>2244.9699999999998</v>
+        <v>2272.27</v>
       </c>
       <c r="F61">
-        <v>5897.33</v>
+        <v>5970.45</v>
       </c>
       <c r="G61">
-        <v>130.3913</v>
+        <v>130.4246</v>
       </c>
       <c r="H61">
-        <v>72.202158999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.201981000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>42664</v>
+        <v>42671</v>
       </c>
       <c r="B62">
-        <v>257.84719999999999</v>
+        <v>254.60079999999999</v>
       </c>
       <c r="C62">
-        <v>217.4188</v>
+        <v>217.02520000000001</v>
       </c>
       <c r="D62">
-        <v>175.94</v>
+        <v>176.74</v>
       </c>
       <c r="E62">
-        <v>2272.27</v>
+        <v>2248.0500000000002</v>
       </c>
       <c r="F62">
-        <v>5970.45</v>
+        <v>5907.2</v>
       </c>
       <c r="G62">
-        <v>130.4246</v>
+        <v>130.43279999999999</v>
       </c>
       <c r="H62">
-        <v>72.201981000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.201824000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>42671</v>
+        <v>42678</v>
       </c>
       <c r="B63">
-        <v>254.60079999999999</v>
+        <v>254.71899999999999</v>
       </c>
       <c r="C63">
-        <v>217.02520000000001</v>
+        <v>217.10120000000001</v>
       </c>
       <c r="D63">
-        <v>176.74</v>
+        <v>185.34</v>
       </c>
       <c r="E63">
-        <v>2248.0500000000002</v>
+        <v>2160.9899999999998</v>
       </c>
       <c r="F63">
-        <v>5907.2</v>
+        <v>5691.26</v>
       </c>
       <c r="G63">
-        <v>130.43279999999999</v>
+        <v>130.4222</v>
       </c>
       <c r="H63">
-        <v>72.201824000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.201849999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>42678</v>
+        <v>42685</v>
       </c>
       <c r="B64">
-        <v>254.71899999999999</v>
+        <v>250.27459999999999</v>
       </c>
       <c r="C64">
-        <v>217.10120000000001</v>
+        <v>216.59360000000001</v>
       </c>
       <c r="D64">
-        <v>185.34</v>
+        <v>191.06</v>
       </c>
       <c r="E64">
-        <v>2160.9899999999998</v>
+        <v>2292.58</v>
       </c>
       <c r="F64">
-        <v>5691.26</v>
+        <v>5866.09</v>
       </c>
       <c r="G64">
-        <v>130.4222</v>
+        <v>130.43109999999999</v>
       </c>
       <c r="H64">
-        <v>72.201849999999993</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202017999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>42685</v>
+        <v>42692</v>
       </c>
       <c r="B65">
-        <v>250.27459999999999</v>
+        <v>250.18879999999999</v>
       </c>
       <c r="C65">
-        <v>216.59360000000001</v>
+        <v>216.3297</v>
       </c>
       <c r="D65">
-        <v>191.06</v>
+        <v>194.61</v>
       </c>
       <c r="E65">
-        <v>2292.58</v>
+        <v>2362.52</v>
       </c>
       <c r="F65">
-        <v>5866.09</v>
+        <v>5890.07</v>
       </c>
       <c r="G65">
-        <v>130.43109999999999</v>
+        <v>130.42580000000001</v>
       </c>
       <c r="H65">
-        <v>72.202017999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202152999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>42692</v>
+        <v>42699</v>
       </c>
       <c r="B66">
-        <v>250.18879999999999</v>
+        <v>250.09119999999999</v>
       </c>
       <c r="C66">
-        <v>216.3297</v>
+        <v>216.773</v>
       </c>
       <c r="D66">
-        <v>194.61</v>
+        <v>195.97</v>
       </c>
       <c r="E66">
-        <v>2362.52</v>
+        <v>2387.39</v>
       </c>
       <c r="F66">
-        <v>5890.07</v>
+        <v>5926.68</v>
       </c>
       <c r="G66">
-        <v>130.42580000000001</v>
+        <v>130.43209999999999</v>
       </c>
       <c r="H66">
-        <v>72.202152999999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202280999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>42699</v>
+        <v>42706</v>
       </c>
       <c r="B67">
-        <v>250.09119999999999</v>
+        <v>250.81139999999999</v>
       </c>
       <c r="C67">
-        <v>216.773</v>
+        <v>216.56819999999999</v>
       </c>
       <c r="D67">
-        <v>195.97</v>
+        <v>201.85</v>
       </c>
       <c r="E67">
-        <v>2387.39</v>
+        <v>2348.17</v>
       </c>
       <c r="F67">
-        <v>5926.68</v>
+        <v>5873.65</v>
       </c>
       <c r="G67">
-        <v>130.43209999999999</v>
+        <v>130.4282</v>
       </c>
       <c r="H67">
-        <v>72.202280999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.202425000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>42706</v>
+        <v>42713</v>
       </c>
       <c r="B68">
-        <v>250.81139999999999</v>
+        <v>249.5119</v>
       </c>
       <c r="C68">
-        <v>216.56819999999999</v>
+        <v>216.85499999999999</v>
       </c>
       <c r="D68">
-        <v>201.85</v>
+        <v>197.47</v>
       </c>
       <c r="E68">
-        <v>2348.17</v>
+        <v>2451.84</v>
       </c>
       <c r="F68">
-        <v>5873.65</v>
+        <v>6168.53</v>
       </c>
       <c r="G68">
-        <v>130.4282</v>
+        <v>130.43039999999999</v>
       </c>
       <c r="H68">
-        <v>72.202425000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.201642000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>42713</v>
+        <v>42720</v>
       </c>
       <c r="B69">
-        <v>249.5119</v>
+        <v>250.75659999999999</v>
       </c>
       <c r="C69">
-        <v>216.85499999999999</v>
+        <v>217.1249</v>
       </c>
       <c r="D69">
-        <v>197.47</v>
+        <v>190.54</v>
       </c>
       <c r="E69">
-        <v>2451.84</v>
+        <v>2498.08</v>
       </c>
       <c r="F69">
-        <v>6168.53</v>
+        <v>6278.12</v>
       </c>
       <c r="G69">
-        <v>130.43039999999999</v>
+        <v>130.44470000000001</v>
       </c>
       <c r="H69">
-        <v>72.201642000000007</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.199967000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>42720</v>
+        <v>42727</v>
       </c>
       <c r="B70">
-        <v>250.75659999999999</v>
+        <v>252.56229999999999</v>
       </c>
       <c r="C70">
-        <v>217.1249</v>
+        <v>217.32859999999999</v>
       </c>
       <c r="D70">
-        <v>190.54</v>
+        <v>189.96</v>
       </c>
       <c r="E70">
-        <v>2498.08</v>
+        <v>2494.3200000000002</v>
       </c>
       <c r="F70">
-        <v>6278.12</v>
+        <v>6268.77</v>
       </c>
       <c r="G70">
-        <v>130.44470000000001</v>
+        <v>130.49279999999999</v>
       </c>
       <c r="H70">
-        <v>72.199967000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.197470999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>42727</v>
+        <v>42734</v>
       </c>
       <c r="B71">
-        <v>252.56229999999999</v>
+        <v>252.42259999999999</v>
       </c>
       <c r="C71">
-        <v>217.32859999999999</v>
+        <v>217.39529999999999</v>
       </c>
       <c r="D71">
-        <v>189.96</v>
+        <v>193.1</v>
       </c>
       <c r="E71">
-        <v>2494.3200000000002</v>
+        <v>2448.17</v>
       </c>
       <c r="F71">
-        <v>6268.77</v>
+        <v>6295.23</v>
       </c>
       <c r="G71">
-        <v>130.49279999999999</v>
+        <v>130.49690000000001</v>
       </c>
       <c r="H71">
-        <v>72.197470999999993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.195199000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>42734</v>
+        <v>42741</v>
       </c>
       <c r="B72">
-        <v>252.42259999999999</v>
+        <v>250.0282</v>
       </c>
       <c r="C72">
-        <v>217.39529999999999</v>
+        <v>217.14160000000001</v>
       </c>
       <c r="D72">
-        <v>193.1</v>
+        <v>198.41</v>
       </c>
       <c r="E72">
-        <v>2448.17</v>
+        <v>2481.25</v>
       </c>
       <c r="F72">
-        <v>6295.23</v>
+        <v>6379.17</v>
       </c>
       <c r="G72">
-        <v>130.49690000000001</v>
+        <v>130.52209999999999</v>
       </c>
       <c r="H72">
-        <v>72.195199000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.192333000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>42741</v>
+        <v>42748</v>
       </c>
       <c r="B73">
-        <v>250.0282</v>
+        <v>250.33609999999999</v>
       </c>
       <c r="C73">
-        <v>217.14160000000001</v>
+        <v>217.09979999999999</v>
       </c>
       <c r="D73">
-        <v>198.41</v>
+        <v>195.54</v>
       </c>
       <c r="E73">
-        <v>2481.25</v>
+        <v>2465.58</v>
       </c>
       <c r="F73">
-        <v>6379.17</v>
+        <v>6372.28</v>
       </c>
       <c r="G73">
-        <v>130.52209999999999</v>
+        <v>130.54669999999999</v>
       </c>
       <c r="H73">
-        <v>72.192333000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.189378000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>42748</v>
+        <v>42755</v>
       </c>
       <c r="B74">
-        <v>250.33609999999999</v>
+        <v>248.6574</v>
       </c>
       <c r="C74">
-        <v>217.09979999999999</v>
+        <v>216.9366</v>
       </c>
       <c r="D74">
-        <v>195.54</v>
+        <v>194.28</v>
       </c>
       <c r="E74">
-        <v>2465.58</v>
+        <v>2444.16</v>
       </c>
       <c r="F74">
-        <v>6372.28</v>
+        <v>6298.53</v>
       </c>
       <c r="G74">
-        <v>130.54669999999999</v>
+        <v>130.57810000000001</v>
       </c>
       <c r="H74">
-        <v>72.189378000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.186423000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>42755</v>
+        <v>42762</v>
       </c>
       <c r="B75">
-        <v>248.6574</v>
+        <v>247.2603</v>
       </c>
       <c r="C75">
-        <v>216.9366</v>
+        <v>216.92140000000001</v>
       </c>
       <c r="D75">
-        <v>194.28</v>
+        <v>192.49</v>
       </c>
       <c r="E75">
-        <v>2444.16</v>
+        <v>2461.7399999999998</v>
       </c>
       <c r="F75">
-        <v>6298.53</v>
+        <v>6340.32</v>
       </c>
       <c r="G75">
-        <v>130.57810000000001</v>
+        <v>130.60849999999999</v>
       </c>
       <c r="H75">
-        <v>72.186423000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.183468000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>42762</v>
+        <v>42769</v>
       </c>
       <c r="B76">
-        <v>247.2603</v>
+        <v>246.9932</v>
       </c>
       <c r="C76">
-        <v>216.92140000000001</v>
+        <v>217.35990000000001</v>
       </c>
       <c r="D76">
-        <v>192.49</v>
+        <v>188.06</v>
       </c>
       <c r="E76">
-        <v>2461.7399999999998</v>
+        <v>2448.91</v>
       </c>
       <c r="F76">
-        <v>6340.32</v>
+        <v>6296.56</v>
       </c>
       <c r="G76">
-        <v>130.60849999999999</v>
+        <v>130.6232</v>
       </c>
       <c r="H76">
-        <v>72.183468000000005</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.180352999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>42769</v>
+        <v>42776</v>
       </c>
       <c r="B77">
-        <v>246.9932</v>
+        <v>247.39580000000001</v>
       </c>
       <c r="C77">
-        <v>217.35990000000001</v>
+        <v>217.74250000000001</v>
       </c>
       <c r="D77">
-        <v>188.06</v>
+        <v>189.6</v>
       </c>
       <c r="E77">
-        <v>2448.91</v>
+        <v>2503.2399999999998</v>
       </c>
       <c r="F77">
-        <v>6296.56</v>
+        <v>6362.65</v>
       </c>
       <c r="G77">
-        <v>130.6232</v>
+        <v>130.637</v>
       </c>
       <c r="H77">
-        <v>72.180352999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.177116999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>42776</v>
+        <v>42783</v>
       </c>
       <c r="B78">
-        <v>247.39580000000001</v>
+        <v>248.0479</v>
       </c>
       <c r="C78">
-        <v>217.74250000000001</v>
+        <v>217.96520000000001</v>
       </c>
       <c r="D78">
-        <v>189.6</v>
+        <v>183.91</v>
       </c>
       <c r="E78">
-        <v>2503.2399999999998</v>
+        <v>2553.9699999999998</v>
       </c>
       <c r="F78">
-        <v>6362.65</v>
+        <v>6445.36</v>
       </c>
       <c r="G78">
-        <v>130.637</v>
+        <v>130.65539999999999</v>
       </c>
       <c r="H78">
-        <v>72.177116999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.173879999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>42783</v>
+        <v>42790</v>
       </c>
       <c r="B79">
-        <v>248.0479</v>
+        <v>249.53270000000001</v>
       </c>
       <c r="C79">
-        <v>217.96520000000001</v>
+        <v>218.66210000000001</v>
       </c>
       <c r="D79">
-        <v>183.91</v>
+        <v>193.57</v>
       </c>
       <c r="E79">
-        <v>2553.9699999999998</v>
+        <v>2592.08</v>
       </c>
       <c r="F79">
-        <v>6445.36</v>
+        <v>6456.26</v>
       </c>
       <c r="G79">
-        <v>130.65539999999999</v>
+        <v>130.67230000000001</v>
       </c>
       <c r="H79">
-        <v>72.173879999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.170643999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>42790</v>
+        <v>42797</v>
       </c>
       <c r="B80">
-        <v>249.53270000000001</v>
+        <v>248.7149</v>
       </c>
       <c r="C80">
-        <v>218.66210000000001</v>
+        <v>217.8117</v>
       </c>
       <c r="D80">
-        <v>193.57</v>
+        <v>195.33</v>
       </c>
       <c r="E80">
-        <v>2592.08</v>
+        <v>2619.39</v>
       </c>
       <c r="F80">
-        <v>6456.26</v>
+        <v>6559.46</v>
       </c>
       <c r="G80">
-        <v>130.67230000000001</v>
+        <v>130.7003</v>
       </c>
       <c r="H80">
-        <v>72.170643999999996</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.167410000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>42797</v>
+        <v>42804</v>
       </c>
       <c r="B81">
-        <v>248.7149</v>
+        <v>245.77529999999999</v>
       </c>
       <c r="C81">
-        <v>217.8117</v>
+        <v>217.51050000000001</v>
       </c>
       <c r="D81">
-        <v>195.33</v>
+        <v>194.19</v>
       </c>
       <c r="E81">
-        <v>2619.39</v>
+        <v>2596.06</v>
       </c>
       <c r="F81">
-        <v>6559.46</v>
+        <v>6526.74</v>
       </c>
       <c r="G81">
-        <v>130.7003</v>
+        <v>130.7056</v>
       </c>
       <c r="H81">
-        <v>72.167410000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.164175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>42804</v>
+        <v>42811</v>
       </c>
       <c r="B82">
-        <v>245.77529999999999</v>
+        <v>246.3364</v>
       </c>
       <c r="C82">
-        <v>217.51050000000001</v>
+        <v>217.52279999999999</v>
       </c>
       <c r="D82">
-        <v>194.19</v>
+        <v>191.93</v>
       </c>
       <c r="E82">
-        <v>2596.06</v>
+        <v>2576.38</v>
       </c>
       <c r="F82">
-        <v>6526.74</v>
+        <v>6623.31</v>
       </c>
       <c r="G82">
+        <v>130.70830000000001</v>
+      </c>
+      <c r="H82">
+        <v>72.160939999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>42818</v>
+      </c>
+      <c r="B83">
+        <v>247.8717</v>
+      </c>
+      <c r="C83">
+        <v>217.40280000000001</v>
+      </c>
+      <c r="D83">
+        <v>192.76</v>
+      </c>
+      <c r="E83">
+        <v>2527.38</v>
+      </c>
+      <c r="F83">
+        <v>6595</v>
+      </c>
+      <c r="G83">
         <v>130.7056</v>
       </c>
-      <c r="H82">
-        <v>72.164175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>42811</v>
-      </c>
-      <c r="B83">
-        <v>246.3364</v>
-      </c>
-      <c r="C83">
-        <v>217.52279999999999</v>
-      </c>
-      <c r="D83">
-        <v>191.93</v>
-      </c>
-      <c r="E83">
-        <v>2576.38</v>
-      </c>
-      <c r="F83">
-        <v>6623.31</v>
-      </c>
-      <c r="G83">
-        <v>130.70830000000001</v>
-      </c>
       <c r="H83">
-        <v>72.160939999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.157786000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>42818</v>
+        <v>42825</v>
       </c>
       <c r="B84">
-        <v>247.8717</v>
+        <v>248.63480000000001</v>
       </c>
       <c r="C84">
-        <v>217.40280000000001</v>
+        <v>217.71899999999999</v>
       </c>
       <c r="D84">
-        <v>192.76</v>
+        <v>199.92</v>
       </c>
       <c r="E84">
-        <v>2527.38</v>
+        <v>2570.13</v>
       </c>
       <c r="F84">
-        <v>6595</v>
+        <v>6675.55</v>
       </c>
       <c r="G84">
-        <v>130.7056</v>
+        <v>130.7021</v>
       </c>
       <c r="H84">
-        <v>72.157786000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.154831000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>42825</v>
+        <v>42832</v>
       </c>
       <c r="B85">
-        <v>248.63480000000001</v>
+        <v>250.24430000000001</v>
       </c>
       <c r="C85">
-        <v>217.71899999999999</v>
+        <v>218.27529999999999</v>
       </c>
       <c r="D85">
-        <v>199.92</v>
+        <v>202.43</v>
       </c>
       <c r="E85">
-        <v>2570.13</v>
+        <v>2583.3200000000002</v>
       </c>
       <c r="F85">
-        <v>6675.55</v>
+        <v>6685.26</v>
       </c>
       <c r="G85">
-        <v>130.7021</v>
+        <v>130.7046</v>
       </c>
       <c r="H85">
-        <v>72.154831000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.151895999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="B86">
-        <v>250.24430000000001</v>
+        <v>250.0472</v>
       </c>
       <c r="C86">
+        <v>218.49209999999999</v>
+      </c>
+      <c r="D86">
+        <v>205.45</v>
+      </c>
+      <c r="E86">
+        <v>2551.4499999999998</v>
+      </c>
+      <c r="F86">
+        <v>6659.01</v>
+      </c>
+      <c r="G86">
+        <v>130.70179999999999</v>
+      </c>
+      <c r="H86">
+        <v>72.149483000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>42846</v>
+      </c>
+      <c r="B87">
+        <v>249.7567</v>
+      </c>
+      <c r="C87">
+        <v>218.11879999999999</v>
+      </c>
+      <c r="D87">
+        <v>206.18</v>
+      </c>
+      <c r="E87">
+        <v>2552.12</v>
+      </c>
+      <c r="F87">
+        <v>6595.68</v>
+      </c>
+      <c r="G87">
+        <v>130.69450000000001</v>
+      </c>
+      <c r="H87">
+        <v>72.146826000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>42853</v>
+      </c>
+      <c r="B88">
+        <v>249.9169</v>
+      </c>
+      <c r="C88">
+        <v>218.30359999999999</v>
+      </c>
+      <c r="D88">
+        <v>210.89</v>
+      </c>
+      <c r="E88">
+        <v>2547.6799999999998</v>
+      </c>
+      <c r="F88">
+        <v>6743.59</v>
+      </c>
+      <c r="G88">
+        <v>130.73400000000001</v>
+      </c>
+      <c r="H88">
+        <v>72.144712999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B89">
+        <v>249.85040000000001</v>
+      </c>
+      <c r="C89">
+        <v>218.1208</v>
+      </c>
+      <c r="D89">
+        <v>218.66</v>
+      </c>
+      <c r="E89">
+        <v>2542.66</v>
+      </c>
+      <c r="F89">
+        <v>6889.22</v>
+      </c>
+      <c r="G89">
+        <v>130.78120000000001</v>
+      </c>
+      <c r="H89">
+        <v>72.142599000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>42867</v>
+      </c>
+      <c r="B90">
+        <v>249.51140000000001</v>
+      </c>
+      <c r="C90">
+        <v>218.3503</v>
+      </c>
+      <c r="D90">
+        <v>220.54</v>
+      </c>
+      <c r="E90">
+        <v>2554.06</v>
+      </c>
+      <c r="F90">
+        <v>6959.78</v>
+      </c>
+      <c r="G90">
+        <v>130.7852</v>
+      </c>
+      <c r="H90">
+        <v>72.140485999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>42874</v>
+      </c>
+      <c r="B91">
+        <v>250.4571</v>
+      </c>
+      <c r="C91">
         <v>218.27529999999999</v>
       </c>
-      <c r="D86">
-        <v>202.43</v>
-      </c>
-      <c r="E86">
-        <v>2583.3200000000002</v>
-      </c>
-      <c r="F86">
-        <v>6685.26</v>
-      </c>
-      <c r="G86">
-        <v>130.7046</v>
-      </c>
-      <c r="H86">
-        <v>72.151895999999994</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>42839</v>
-      </c>
-      <c r="B87">
-        <v>250.0472</v>
-      </c>
-      <c r="C87">
-        <v>218.49209999999999</v>
-      </c>
-      <c r="D87">
-        <v>205.45</v>
-      </c>
-      <c r="E87">
-        <v>2551.4499999999998</v>
-      </c>
-      <c r="F87">
-        <v>6659.01</v>
-      </c>
-      <c r="G87">
-        <v>130.70179999999999</v>
-      </c>
-      <c r="H87">
-        <v>72.149483000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>42846</v>
-      </c>
-      <c r="B88">
-        <v>249.7567</v>
-      </c>
-      <c r="C88">
-        <v>218.11879999999999</v>
-      </c>
-      <c r="D88">
-        <v>206.18</v>
-      </c>
-      <c r="E88">
-        <v>2552.12</v>
-      </c>
-      <c r="F88">
-        <v>6595.68</v>
-      </c>
-      <c r="G88">
-        <v>130.69450000000001</v>
-      </c>
-      <c r="H88">
-        <v>72.146826000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>42853</v>
-      </c>
-      <c r="B89">
-        <v>249.9169</v>
-      </c>
-      <c r="C89">
-        <v>218.30359999999999</v>
-      </c>
-      <c r="D89">
-        <v>210.89</v>
-      </c>
-      <c r="E89">
-        <v>2547.6799999999998</v>
-      </c>
-      <c r="F89">
-        <v>6743.59</v>
-      </c>
-      <c r="G89">
-        <v>130.73400000000001</v>
-      </c>
-      <c r="H89">
-        <v>72.144712999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>42860</v>
-      </c>
-      <c r="B90">
-        <v>249.85040000000001</v>
-      </c>
-      <c r="C90">
-        <v>218.1208</v>
-      </c>
-      <c r="D90">
-        <v>218.66</v>
-      </c>
-      <c r="E90">
-        <v>2542.66</v>
-      </c>
-      <c r="F90">
-        <v>6889.22</v>
-      </c>
-      <c r="G90">
-        <v>130.78120000000001</v>
-      </c>
-      <c r="H90">
-        <v>72.142599000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>42867</v>
-      </c>
-      <c r="B91">
-        <v>249.51140000000001</v>
-      </c>
-      <c r="C91">
-        <v>218.3503</v>
-      </c>
       <c r="D91">
-        <v>220.54</v>
+        <v>220.62</v>
       </c>
       <c r="E91">
-        <v>2554.06</v>
+        <v>2477.9</v>
       </c>
       <c r="F91">
-        <v>6959.78</v>
+        <v>6901.53</v>
       </c>
       <c r="G91">
-        <v>130.7852</v>
+        <v>130.76329999999999</v>
       </c>
       <c r="H91">
-        <v>72.140485999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.138373000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>42874</v>
+        <v>42881</v>
       </c>
       <c r="B92">
-        <v>250.4571</v>
+        <v>251.26779999999999</v>
       </c>
       <c r="C92">
-        <v>218.27529999999999</v>
+        <v>218.5128</v>
       </c>
       <c r="D92">
-        <v>220.62</v>
+        <v>217.03</v>
       </c>
       <c r="E92">
-        <v>2477.9</v>
+        <v>2513.4899999999998</v>
       </c>
       <c r="F92">
-        <v>6901.53</v>
+        <v>6888.67</v>
       </c>
       <c r="G92">
-        <v>130.76329999999999</v>
+        <v>130.77539999999999</v>
       </c>
       <c r="H92">
-        <v>72.138373000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.136539999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>42881</v>
+        <v>42888</v>
       </c>
       <c r="B93">
-        <v>251.26779999999999</v>
+        <v>251.0581</v>
       </c>
       <c r="C93">
-        <v>218.5128</v>
+        <v>218.8219</v>
       </c>
       <c r="D93">
-        <v>217.03</v>
+        <v>215.99</v>
       </c>
       <c r="E93">
-        <v>2513.4899999999998</v>
+        <v>2514.36</v>
       </c>
       <c r="F93">
-        <v>6888.67</v>
+        <v>6910.37</v>
       </c>
       <c r="G93">
-        <v>130.77539999999999</v>
+        <v>130.78360000000001</v>
       </c>
       <c r="H93">
-        <v>72.136539999999997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.134705999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>42888</v>
+        <v>42895</v>
       </c>
       <c r="B94">
-        <v>251.0581</v>
+        <v>252.14189999999999</v>
       </c>
       <c r="C94">
-        <v>218.8219</v>
+        <v>218.82689999999999</v>
       </c>
       <c r="D94">
-        <v>215.99</v>
+        <v>217.72</v>
       </c>
       <c r="E94">
-        <v>2514.36</v>
+        <v>2526.6999999999998</v>
       </c>
       <c r="F94">
-        <v>6910.37</v>
+        <v>6866.34</v>
       </c>
       <c r="G94">
-        <v>130.78360000000001</v>
+        <v>130.78059999999999</v>
       </c>
       <c r="H94">
-        <v>72.134705999999994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.132872000000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>42895</v>
+        <v>42902</v>
       </c>
       <c r="B95">
-        <v>252.14189999999999</v>
+        <v>252.6858</v>
       </c>
       <c r="C95">
-        <v>218.82689999999999</v>
+        <v>218.64359999999999</v>
       </c>
       <c r="D95">
-        <v>217.72</v>
+        <v>222.79</v>
       </c>
       <c r="E95">
-        <v>2526.6999999999998</v>
+        <v>2525.84</v>
       </c>
       <c r="F95">
-        <v>6866.34</v>
+        <v>6830.93</v>
       </c>
       <c r="G95">
-        <v>130.78059999999999</v>
+        <v>130.79730000000001</v>
       </c>
       <c r="H95">
-        <v>72.132872000000006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.131039000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>42902</v>
+        <v>42909</v>
       </c>
       <c r="B96">
-        <v>252.6858</v>
+        <v>253.54239999999999</v>
       </c>
       <c r="C96">
-        <v>218.64359999999999</v>
+        <v>218.67140000000001</v>
       </c>
       <c r="D96">
-        <v>222.79</v>
+        <v>225.85</v>
       </c>
       <c r="E96">
-        <v>2525.84</v>
+        <v>2541.0700000000002</v>
       </c>
       <c r="F96">
-        <v>6830.93</v>
+        <v>6828.48</v>
       </c>
       <c r="G96">
-        <v>130.79730000000001</v>
+        <v>130.8192</v>
       </c>
       <c r="H96">
-        <v>72.131039000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.129227</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>42909</v>
+        <v>42916</v>
       </c>
       <c r="B97">
-        <v>253.54239999999999</v>
+        <v>249.9529</v>
       </c>
       <c r="C97">
-        <v>218.67140000000001</v>
+        <v>218.11089999999999</v>
       </c>
       <c r="D97">
-        <v>225.85</v>
+        <v>225.87</v>
       </c>
       <c r="E97">
-        <v>2541.0700000000002</v>
+        <v>2472.19</v>
       </c>
       <c r="F97">
-        <v>6828.48</v>
+        <v>6679.62</v>
       </c>
       <c r="G97">
-        <v>130.8192</v>
+        <v>130.82810000000001</v>
       </c>
       <c r="H97">
-        <v>72.129227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.126652000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>42916</v>
+        <v>42923</v>
       </c>
       <c r="B98">
-        <v>249.9529</v>
+        <v>247.94030000000001</v>
       </c>
       <c r="C98">
-        <v>218.11089999999999</v>
+        <v>218.3244</v>
       </c>
       <c r="D98">
-        <v>225.87</v>
+        <v>225.2</v>
       </c>
       <c r="E98">
-        <v>2472.19</v>
+        <v>2477.81</v>
       </c>
       <c r="F98">
-        <v>6679.62</v>
+        <v>6667.09</v>
       </c>
       <c r="G98">
-        <v>130.82810000000001</v>
+        <v>130.86089999999999</v>
       </c>
       <c r="H98">
-        <v>72.126652000000007</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.123977999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>42923</v>
+        <v>42930</v>
       </c>
       <c r="B99">
-        <v>247.94030000000001</v>
+        <v>248.81630000000001</v>
       </c>
       <c r="C99">
-        <v>218.3244</v>
+        <v>218.58799999999999</v>
       </c>
       <c r="D99">
-        <v>225.2</v>
+        <v>226.08</v>
       </c>
       <c r="E99">
-        <v>2477.81</v>
+        <v>2498.91</v>
       </c>
       <c r="F99">
-        <v>6667.09</v>
+        <v>6778.28</v>
       </c>
       <c r="G99">
-        <v>130.86089999999999</v>
+        <v>130.88050000000001</v>
       </c>
       <c r="H99">
-        <v>72.123977999999994</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.120341999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>42930</v>
+        <v>42937</v>
       </c>
       <c r="B100">
-        <v>248.81630000000001</v>
+        <v>250.95500000000001</v>
       </c>
       <c r="C100">
-        <v>218.58799999999999</v>
+        <v>219.0864</v>
       </c>
       <c r="D100">
-        <v>226.08</v>
+        <v>226.71</v>
       </c>
       <c r="E100">
-        <v>2498.91</v>
+        <v>2464.71</v>
       </c>
       <c r="F100">
-        <v>6778.28</v>
+        <v>6670.98</v>
       </c>
       <c r="G100">
-        <v>130.88050000000001</v>
+        <v>130.90119999999999</v>
       </c>
       <c r="H100">
-        <v>72.120341999999994</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.116546999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>42937</v>
+        <v>42944</v>
       </c>
       <c r="B101">
-        <v>250.95500000000001</v>
+        <v>250.2278</v>
       </c>
       <c r="C101">
-        <v>219.0864</v>
+        <v>219.24780000000001</v>
       </c>
       <c r="D101">
-        <v>226.71</v>
+        <v>225.21</v>
       </c>
       <c r="E101">
-        <v>2464.71</v>
+        <v>2452.14</v>
       </c>
       <c r="F101">
-        <v>6670.98</v>
+        <v>6603.84</v>
       </c>
       <c r="G101">
-        <v>130.90119999999999</v>
+        <v>130.9111</v>
       </c>
       <c r="H101">
-        <v>72.116546999999997</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.11233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>42944</v>
+        <v>42951</v>
       </c>
       <c r="B102">
-        <v>250.2278</v>
+        <v>251.71700000000001</v>
       </c>
       <c r="C102">
-        <v>219.24780000000001</v>
+        <v>219.524</v>
       </c>
       <c r="D102">
-        <v>225.21</v>
+        <v>223.97</v>
       </c>
       <c r="E102">
-        <v>2452.14</v>
+        <v>2466.17</v>
       </c>
       <c r="F102">
-        <v>6603.84</v>
+        <v>6687.75</v>
       </c>
       <c r="G102">
-        <v>130.9111</v>
+        <v>130.94049999999999</v>
       </c>
       <c r="H102">
-        <v>72.11233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.108114999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>42951</v>
+        <v>42958</v>
       </c>
       <c r="B103">
-        <v>251.71700000000001</v>
+        <v>252.61680000000001</v>
       </c>
       <c r="C103">
-        <v>219.524</v>
+        <v>219.64400000000001</v>
       </c>
       <c r="D103">
+        <v>222.67</v>
+      </c>
+      <c r="E103">
+        <v>2432.29</v>
+      </c>
+      <c r="F103">
+        <v>6508.54</v>
+      </c>
+      <c r="G103">
+        <v>130.9211</v>
+      </c>
+      <c r="H103">
+        <v>72.103898999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>42965</v>
+      </c>
+      <c r="B104">
+        <v>252.40440000000001</v>
+      </c>
+      <c r="C104">
+        <v>219.56200000000001</v>
+      </c>
+      <c r="D104">
+        <v>221.9</v>
+      </c>
+      <c r="E104">
+        <v>2423.7199999999998</v>
+      </c>
+      <c r="F104">
+        <v>6537.31</v>
+      </c>
+      <c r="G104">
+        <v>130.93039999999999</v>
+      </c>
+      <c r="H104">
+        <v>72.099683999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>42972</v>
+      </c>
+      <c r="B105">
+        <v>252.02809999999999</v>
+      </c>
+      <c r="C105">
+        <v>219.6628</v>
+      </c>
+      <c r="D105">
         <v>223.97</v>
       </c>
-      <c r="E103">
-        <v>2466.17</v>
-      </c>
-      <c r="F103">
-        <v>6687.75</v>
-      </c>
-      <c r="G103">
-        <v>130.94049999999999</v>
-      </c>
-      <c r="H103">
-        <v>72.108114999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>42958</v>
-      </c>
-      <c r="B104">
-        <v>252.61680000000001</v>
-      </c>
-      <c r="C104">
-        <v>219.64400000000001</v>
-      </c>
-      <c r="D104">
-        <v>222.67</v>
-      </c>
-      <c r="E104">
-        <v>2432.29</v>
-      </c>
-      <c r="F104">
-        <v>6508.54</v>
-      </c>
-      <c r="G104">
-        <v>130.9211</v>
-      </c>
-      <c r="H104">
-        <v>72.103898999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>42965</v>
-      </c>
-      <c r="B105">
-        <v>252.40440000000001</v>
-      </c>
-      <c r="C105">
-        <v>219.56200000000001</v>
-      </c>
-      <c r="D105">
-        <v>221.9</v>
-      </c>
       <c r="E105">
-        <v>2423.7199999999998</v>
+        <v>2414.48</v>
       </c>
       <c r="F105">
-        <v>6537.31</v>
+        <v>6539.36</v>
       </c>
       <c r="G105">
-        <v>130.93039999999999</v>
+        <v>130.92779999999999</v>
       </c>
       <c r="H105">
-        <v>72.099683999999996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.095467999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>42972</v>
+        <v>42979</v>
       </c>
       <c r="B106">
-        <v>252.02809999999999</v>
+        <v>252.1867</v>
       </c>
       <c r="C106">
-        <v>219.6628</v>
+        <v>219.673</v>
       </c>
       <c r="D106">
-        <v>223.97</v>
+        <v>224.41</v>
       </c>
       <c r="E106">
-        <v>2414.48</v>
+        <v>2449.29</v>
       </c>
       <c r="F106">
-        <v>6539.36</v>
+        <v>6573.73</v>
       </c>
       <c r="G106">
-        <v>130.92779999999999</v>
+        <v>130.9316</v>
       </c>
       <c r="H106">
-        <v>72.095467999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.091252999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>42979</v>
+        <v>42986</v>
       </c>
       <c r="B107">
-        <v>252.1867</v>
+        <v>253.23589999999999</v>
       </c>
       <c r="C107">
-        <v>219.673</v>
+        <v>219.8794</v>
       </c>
       <c r="D107">
-        <v>224.41</v>
+        <v>226.32</v>
       </c>
       <c r="E107">
-        <v>2449.29</v>
+        <v>2400.0500000000002</v>
       </c>
       <c r="F107">
-        <v>6573.73</v>
+        <v>6574.55</v>
       </c>
       <c r="G107">
-        <v>130.9316</v>
+        <v>130.94890000000001</v>
       </c>
       <c r="H107">
-        <v>72.091252999999995</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.087038000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>42986</v>
+        <v>42993</v>
       </c>
       <c r="B108">
-        <v>253.23589999999999</v>
+        <v>251.5728</v>
       </c>
       <c r="C108">
-        <v>219.8794</v>
+        <v>219.48310000000001</v>
       </c>
       <c r="D108">
-        <v>226.32</v>
+        <v>228.15</v>
       </c>
       <c r="E108">
-        <v>2400.0500000000002</v>
+        <v>2451.9499999999998</v>
       </c>
       <c r="F108">
-        <v>6574.55</v>
+        <v>6667.82</v>
       </c>
       <c r="G108">
-        <v>130.94890000000001</v>
+        <v>131.01089999999999</v>
       </c>
       <c r="H108">
-        <v>72.087038000000007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.082823000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>42993</v>
+        <v>43000</v>
       </c>
       <c r="B109">
-        <v>251.5728</v>
+        <v>251.4598</v>
       </c>
       <c r="C109">
-        <v>219.48310000000001</v>
+        <v>219.46770000000001</v>
       </c>
       <c r="D109">
-        <v>228.15</v>
+        <v>226.67</v>
       </c>
       <c r="E109">
-        <v>2451.9499999999998</v>
+        <v>2452.1799999999998</v>
       </c>
       <c r="F109">
-        <v>6667.82</v>
+        <v>6721.19</v>
       </c>
       <c r="G109">
-        <v>131.01089999999999</v>
+        <v>131.0274</v>
       </c>
       <c r="H109">
-        <v>72.082823000000005</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.078608000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>43000</v>
+        <v>43007</v>
       </c>
       <c r="B110">
-        <v>251.4598</v>
+        <v>251.44139999999999</v>
       </c>
       <c r="C110">
-        <v>219.46770000000001</v>
+        <v>219.5813</v>
       </c>
       <c r="D110">
-        <v>226.67</v>
+        <v>225.44</v>
       </c>
       <c r="E110">
-        <v>2452.1799999999998</v>
+        <v>2493.2199999999998</v>
       </c>
       <c r="F110">
-        <v>6721.19</v>
+        <v>6823.77</v>
       </c>
       <c r="G110">
-        <v>131.0274</v>
+        <v>131.0299</v>
       </c>
       <c r="H110">
-        <v>72.078608000000003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.074265999999994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>43007</v>
+        <v>43014</v>
       </c>
       <c r="B111">
-        <v>251.44139999999999</v>
+        <v>251.11750000000001</v>
       </c>
       <c r="C111">
-        <v>219.5813</v>
+        <v>219.5984</v>
       </c>
       <c r="D111">
-        <v>225.44</v>
+        <v>226.53</v>
       </c>
       <c r="E111">
-        <v>2493.2199999999998</v>
+        <v>2543.7800000000002</v>
       </c>
       <c r="F111">
-        <v>6823.77</v>
+        <v>6861.6</v>
       </c>
       <c r="G111">
-        <v>131.0299</v>
+        <v>131.042</v>
       </c>
       <c r="H111">
-        <v>72.074265999999994</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.069584000000006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>43014</v>
+        <v>43021</v>
       </c>
       <c r="B112">
-        <v>251.11750000000001</v>
+        <v>252.48500000000001</v>
       </c>
       <c r="C112">
-        <v>219.5984</v>
+        <v>219.9794</v>
       </c>
       <c r="D112">
-        <v>226.53</v>
+        <v>228.87</v>
       </c>
       <c r="E112">
-        <v>2543.7800000000002</v>
+        <v>2523.41</v>
       </c>
       <c r="F112">
-        <v>6861.6</v>
+        <v>6885.82</v>
       </c>
       <c r="G112">
-        <v>131.042</v>
+        <v>131.06960000000001</v>
       </c>
       <c r="H112">
-        <v>72.069584000000006</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.064783000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>43021</v>
+        <v>43028</v>
       </c>
       <c r="B113">
-        <v>252.48500000000001</v>
+        <v>251.9357</v>
       </c>
       <c r="C113">
-        <v>219.9794</v>
+        <v>220.0001</v>
       </c>
       <c r="D113">
-        <v>228.87</v>
+        <v>229.44</v>
       </c>
       <c r="E113">
-        <v>2523.41</v>
+        <v>2558.0700000000002</v>
       </c>
       <c r="F113">
-        <v>6885.82</v>
+        <v>6856.01</v>
       </c>
       <c r="G113">
-        <v>131.06960000000001</v>
+        <v>131.0985</v>
       </c>
       <c r="H113">
-        <v>72.064783000000006</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.059984</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>43028</v>
+        <v>43035</v>
       </c>
       <c r="B114">
-        <v>251.9357</v>
+        <v>253.07390000000001</v>
       </c>
       <c r="C114">
-        <v>220.0001</v>
+        <v>220.49010000000001</v>
       </c>
       <c r="D114">
-        <v>229.44</v>
+        <v>230.37</v>
       </c>
       <c r="E114">
-        <v>2558.0700000000002</v>
+        <v>2620.09</v>
       </c>
       <c r="F114">
-        <v>6856.01</v>
+        <v>6908.12</v>
       </c>
       <c r="G114">
-        <v>131.0985</v>
+        <v>131.10929999999999</v>
       </c>
       <c r="H114">
-        <v>72.059984</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.055183999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>43035</v>
+        <v>43042</v>
       </c>
       <c r="B115">
-        <v>253.07390000000001</v>
+        <v>254.30350000000001</v>
       </c>
       <c r="C115">
-        <v>220.49010000000001</v>
+        <v>220.70760000000001</v>
       </c>
       <c r="D115">
-        <v>230.37</v>
+        <v>238.13</v>
       </c>
       <c r="E115">
-        <v>2620.09</v>
+        <v>2622.02</v>
       </c>
       <c r="F115">
-        <v>6908.12</v>
+        <v>6968.79</v>
       </c>
       <c r="G115">
-        <v>131.10929999999999</v>
+        <v>131.13570000000001</v>
       </c>
       <c r="H115">
-        <v>72.055183999999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.050385000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>43042</v>
+        <v>43049</v>
       </c>
       <c r="B116">
-        <v>254.30350000000001</v>
+        <v>253.41900000000001</v>
       </c>
       <c r="C116">
-        <v>220.70760000000001</v>
+        <v>220.48920000000001</v>
       </c>
       <c r="D116">
-        <v>238.13</v>
+        <v>238.3</v>
       </c>
       <c r="E116">
-        <v>2622.02</v>
+        <v>2607.2399999999998</v>
       </c>
       <c r="F116">
-        <v>6968.79</v>
+        <v>6846.1</v>
       </c>
       <c r="G116">
-        <v>131.13570000000001</v>
+        <v>131.12479999999999</v>
       </c>
       <c r="H116">
-        <v>72.050385000000006</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.045586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>43049</v>
+        <v>43056</v>
       </c>
       <c r="B117">
-        <v>253.41900000000001</v>
+        <v>254.14580000000001</v>
       </c>
       <c r="C117">
-        <v>220.48920000000001</v>
+        <v>220.41749999999999</v>
       </c>
       <c r="D117">
-        <v>238.3</v>
+        <v>239.37</v>
       </c>
       <c r="E117">
-        <v>2607.2399999999998</v>
+        <v>2564.5700000000002</v>
       </c>
       <c r="F117">
-        <v>6846.1</v>
+        <v>6765.29</v>
       </c>
       <c r="G117">
-        <v>131.12479999999999</v>
+        <v>131.12029999999999</v>
       </c>
       <c r="H117">
-        <v>72.045586</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.040786999999995</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>43056</v>
+        <v>43063</v>
       </c>
       <c r="B118">
-        <v>254.14580000000001</v>
+        <v>254.62010000000001</v>
       </c>
       <c r="C118">
-        <v>220.41749999999999</v>
+        <v>220.3383</v>
       </c>
       <c r="D118">
-        <v>239.37</v>
+        <v>237.79</v>
       </c>
       <c r="E118">
-        <v>2564.5700000000002</v>
+        <v>2562.6999999999998</v>
       </c>
       <c r="F118">
-        <v>6765.29</v>
+        <v>6839.98</v>
       </c>
       <c r="G118">
-        <v>131.12029999999999</v>
+        <v>131.14109999999999</v>
       </c>
       <c r="H118">
-        <v>72.040786999999995</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.035989000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>43063</v>
+        <v>43070</v>
       </c>
       <c r="B119">
-        <v>254.62010000000001</v>
+        <v>256.09219999999999</v>
       </c>
       <c r="C119">
-        <v>220.3383</v>
+        <v>220.5333</v>
       </c>
       <c r="D119">
-        <v>237.79</v>
+        <v>237.34</v>
       </c>
       <c r="E119">
-        <v>2562.6999999999998</v>
+        <v>2618.67</v>
       </c>
       <c r="F119">
-        <v>6839.98</v>
+        <v>6771.05</v>
       </c>
       <c r="G119">
-        <v>131.14109999999999</v>
+        <v>131.14230000000001</v>
       </c>
       <c r="H119">
-        <v>72.035989000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.031352999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="B120">
-        <v>256.09219999999999</v>
+        <v>256.39800000000002</v>
       </c>
       <c r="C120">
-        <v>220.5333</v>
+        <v>220.70410000000001</v>
       </c>
       <c r="D120">
-        <v>237.34</v>
+        <v>240.2</v>
       </c>
       <c r="E120">
-        <v>2618.67</v>
+        <v>2653.32</v>
       </c>
       <c r="F120">
-        <v>6771.05</v>
+        <v>6854.46</v>
       </c>
       <c r="G120">
-        <v>131.14230000000001</v>
+        <v>131.1439</v>
       </c>
       <c r="H120">
-        <v>72.031352999999996</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.026695000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>43077</v>
+        <v>43084</v>
       </c>
       <c r="B121">
-        <v>256.39800000000002</v>
+        <v>255.6095</v>
       </c>
       <c r="C121">
-        <v>220.70410000000001</v>
+        <v>220.56460000000001</v>
       </c>
       <c r="D121">
-        <v>240.2</v>
+        <v>240.87</v>
       </c>
       <c r="E121">
-        <v>2653.32</v>
+        <v>2691.32</v>
       </c>
       <c r="F121">
-        <v>6854.46</v>
+        <v>6872.04</v>
       </c>
       <c r="G121">
-        <v>131.1439</v>
+        <v>131.14869999999999</v>
       </c>
       <c r="H121">
-        <v>72.026695000000004</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.021996000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>43084</v>
+        <v>43091</v>
       </c>
       <c r="B122">
-        <v>255.6095</v>
+        <v>253.96899999999999</v>
       </c>
       <c r="C122">
-        <v>220.56460000000001</v>
+        <v>220.00579999999999</v>
       </c>
       <c r="D122">
-        <v>240.87</v>
+        <v>253.3</v>
       </c>
       <c r="E122">
-        <v>2691.32</v>
+        <v>2678.42</v>
       </c>
       <c r="F122">
-        <v>6872.04</v>
+        <v>6880.08</v>
       </c>
       <c r="G122">
         <v>131.14869999999999</v>
       </c>
       <c r="H122">
-        <v>72.021996000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.017296999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>43091</v>
+        <v>43098</v>
       </c>
       <c r="B123">
-        <v>253.96899999999999</v>
+        <v>252.85059999999999</v>
       </c>
       <c r="C123">
-        <v>220.00579999999999</v>
+        <v>219.91159999999999</v>
       </c>
       <c r="D123">
-        <v>253.3</v>
+        <v>256.14</v>
       </c>
       <c r="E123">
-        <v>2678.42</v>
+        <v>2624.93</v>
       </c>
       <c r="F123">
-        <v>6880.08</v>
+        <v>6861.77</v>
       </c>
       <c r="G123">
-        <v>131.14869999999999</v>
+        <v>131.1516</v>
       </c>
       <c r="H123">
-        <v>72.017296999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.012597999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>43098</v>
+        <v>43105</v>
       </c>
       <c r="B124">
-        <v>252.85059999999999</v>
+        <v>253.0189</v>
       </c>
       <c r="C124">
-        <v>219.91159999999999</v>
+        <v>220.1019</v>
       </c>
       <c r="D124">
-        <v>256.14</v>
+        <v>263.67</v>
       </c>
       <c r="E124">
-        <v>2624.93</v>
+        <v>2690.73</v>
       </c>
       <c r="F124">
-        <v>6861.77</v>
+        <v>6978.92</v>
       </c>
       <c r="G124">
-        <v>131.1516</v>
+        <v>131.1677</v>
       </c>
       <c r="H124">
-        <v>72.012597999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.007900000000006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>43105</v>
+        <v>43112</v>
       </c>
       <c r="B125">
-        <v>253.0189</v>
+        <v>252.37260000000001</v>
       </c>
       <c r="C125">
-        <v>220.1019</v>
+        <v>219.696</v>
       </c>
       <c r="D125">
-        <v>263.67</v>
+        <v>262.22000000000003</v>
       </c>
       <c r="E125">
-        <v>2690.73</v>
+        <v>2707.57</v>
       </c>
       <c r="F125">
-        <v>6978.92</v>
+        <v>7002.23</v>
       </c>
       <c r="G125">
-        <v>131.1677</v>
+        <v>131.1696</v>
       </c>
       <c r="H125">
-        <v>72.007900000000006</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72.003201000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>43112</v>
+        <v>43119</v>
       </c>
       <c r="B126">
-        <v>252.37260000000001</v>
+        <v>252.82820000000001</v>
       </c>
       <c r="C126">
-        <v>219.696</v>
+        <v>220.09610000000001</v>
       </c>
       <c r="D126">
-        <v>262.22000000000003</v>
+        <v>263.97000000000003</v>
       </c>
       <c r="E126">
-        <v>2707.57</v>
+        <v>2715.92</v>
       </c>
       <c r="F126">
-        <v>7002.23</v>
+        <v>7025.39</v>
       </c>
       <c r="G126">
-        <v>131.1696</v>
+        <v>131.172</v>
       </c>
       <c r="H126">
-        <v>72.003201000000004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.998503999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>43119</v>
+        <v>43126</v>
       </c>
       <c r="B127">
-        <v>252.82820000000001</v>
+        <v>252.4057</v>
       </c>
       <c r="C127">
-        <v>220.09610000000001</v>
+        <v>219.86099999999999</v>
       </c>
       <c r="D127">
-        <v>263.97000000000003</v>
+        <v>266.45999999999998</v>
       </c>
       <c r="E127">
-        <v>2715.92</v>
+        <v>2739.45</v>
       </c>
       <c r="F127">
-        <v>7025.39</v>
+        <v>7037.12</v>
       </c>
       <c r="G127">
-        <v>131.172</v>
+        <v>131.19909999999999</v>
       </c>
       <c r="H127">
-        <v>71.998503999999997</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.993806000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>43126</v>
+        <v>43133</v>
       </c>
       <c r="B128">
-        <v>252.4057</v>
+        <v>251.42779999999999</v>
       </c>
       <c r="C128">
-        <v>219.86099999999999</v>
+        <v>219.77019999999999</v>
       </c>
       <c r="D128">
-        <v>266.45999999999998</v>
+        <v>265.10000000000002</v>
       </c>
       <c r="E128">
-        <v>2739.45</v>
+        <v>2639.67</v>
       </c>
       <c r="F128">
-        <v>7037.12</v>
+        <v>6794.06</v>
       </c>
       <c r="G128">
-        <v>131.19909999999999</v>
+        <v>131.21610000000001</v>
       </c>
       <c r="H128">
-        <v>71.993806000000006</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.989108999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>43133</v>
+        <v>43140</v>
       </c>
       <c r="B129">
-        <v>251.42779999999999</v>
+        <v>251.59639999999999</v>
       </c>
       <c r="C129">
-        <v>219.77019999999999</v>
+        <v>219.69</v>
       </c>
       <c r="D129">
-        <v>265.10000000000002</v>
+        <v>257.02</v>
       </c>
       <c r="E129">
-        <v>2639.67</v>
+        <v>2536.9499999999998</v>
       </c>
       <c r="F129">
-        <v>6794.06</v>
+        <v>6427.61</v>
       </c>
       <c r="G129">
-        <v>131.21610000000001</v>
+        <v>131.1618</v>
       </c>
       <c r="H129">
-        <v>71.989108999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.984412000000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>43140</v>
+        <v>43147</v>
       </c>
       <c r="B130">
-        <v>251.59639999999999</v>
+        <v>251.82060000000001</v>
       </c>
       <c r="C130">
-        <v>219.69</v>
+        <v>219.8451</v>
       </c>
       <c r="D130">
-        <v>257.02</v>
+        <v>253.34</v>
       </c>
       <c r="E130">
-        <v>2536.9499999999998</v>
+        <v>2613.2800000000002</v>
       </c>
       <c r="F130">
-        <v>6427.61</v>
+        <v>6618.96</v>
       </c>
       <c r="G130">
-        <v>131.1618</v>
+        <v>131.14859999999999</v>
       </c>
       <c r="H130">
-        <v>71.984412000000006</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.979714999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>43147</v>
+        <v>43154</v>
       </c>
       <c r="B131">
-        <v>251.82060000000001</v>
+        <v>251.88</v>
       </c>
       <c r="C131">
-        <v>219.8451</v>
+        <v>219.9659</v>
       </c>
       <c r="D131">
-        <v>253.34</v>
+        <v>250.32</v>
       </c>
       <c r="E131">
-        <v>2613.2800000000002</v>
+        <v>2659.95</v>
       </c>
       <c r="F131">
-        <v>6618.96</v>
+        <v>6632.15</v>
       </c>
       <c r="G131">
-        <v>131.14859999999999</v>
+        <v>131.13910000000001</v>
       </c>
       <c r="H131">
-        <v>71.979714999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.975019000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>43154</v>
+        <v>43161</v>
       </c>
       <c r="B132">
-        <v>251.88</v>
+        <v>252.7259</v>
       </c>
       <c r="C132">
-        <v>219.9659</v>
+        <v>219.93879999999999</v>
       </c>
       <c r="D132">
-        <v>250.32</v>
+        <v>250.29</v>
       </c>
       <c r="E132">
-        <v>2659.95</v>
+        <v>2607.5700000000002</v>
       </c>
       <c r="F132">
-        <v>6632.15</v>
+        <v>6380.45</v>
       </c>
       <c r="G132">
-        <v>131.13910000000001</v>
+        <v>131.06379999999999</v>
       </c>
       <c r="H132">
-        <v>71.975019000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.970322999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>43161</v>
+        <v>43168</v>
       </c>
       <c r="B133">
-        <v>252.7259</v>
+        <v>253.02869999999999</v>
       </c>
       <c r="C133">
-        <v>219.93879999999999</v>
+        <v>219.93960000000001</v>
       </c>
       <c r="D133">
-        <v>250.29</v>
+        <v>254.55</v>
       </c>
       <c r="E133">
-        <v>2607.5700000000002</v>
+        <v>2694.28</v>
       </c>
       <c r="F133">
-        <v>6380.45</v>
+        <v>6551.58</v>
       </c>
       <c r="G133">
-        <v>131.06379999999999</v>
+        <v>131.04349999999999</v>
       </c>
       <c r="H133">
-        <v>71.970322999999993</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.965626999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>43168</v>
+        <v>43175</v>
       </c>
       <c r="B134">
-        <v>253.02869999999999</v>
+        <v>254.16059999999999</v>
       </c>
       <c r="C134">
-        <v>219.93960000000001</v>
+        <v>219.88980000000001</v>
       </c>
       <c r="D134">
-        <v>254.55</v>
+        <v>255.44</v>
       </c>
       <c r="E134">
-        <v>2694.28</v>
+        <v>2664.02</v>
       </c>
       <c r="F134">
-        <v>6551.58</v>
+        <v>6555.93</v>
       </c>
       <c r="G134">
-        <v>131.04349999999999</v>
+        <v>130.97659999999999</v>
       </c>
       <c r="H134">
-        <v>71.965626999999998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.960772000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>43175</v>
+        <v>43182</v>
       </c>
       <c r="B135">
-        <v>254.16059999999999</v>
+        <v>255.48509999999999</v>
       </c>
       <c r="C135">
-        <v>219.88980000000001</v>
+        <v>219.6909</v>
       </c>
       <c r="D135">
-        <v>255.44</v>
+        <v>253.04</v>
       </c>
       <c r="E135">
-        <v>2664.02</v>
+        <v>2468.85</v>
       </c>
       <c r="F135">
-        <v>6555.93</v>
+        <v>6338.41</v>
       </c>
       <c r="G135">
-        <v>130.97659999999999</v>
+        <v>130.8887</v>
       </c>
       <c r="H135">
-        <v>71.960772000000006</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.955444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>43182</v>
+        <v>43189</v>
       </c>
       <c r="B136">
-        <v>255.48509999999999</v>
+        <v>256.46699999999998</v>
       </c>
       <c r="C136">
-        <v>219.6909</v>
+        <v>219.81309999999999</v>
       </c>
       <c r="D136">
-        <v>253.04</v>
+        <v>255.06</v>
       </c>
       <c r="E136">
-        <v>2468.85</v>
+        <v>2531.38</v>
       </c>
       <c r="F136">
-        <v>6338.41</v>
+        <v>6454.65</v>
       </c>
       <c r="G136">
-        <v>130.8887</v>
+        <v>130.8817</v>
       </c>
       <c r="H136">
-        <v>71.955444</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.950757999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>43189</v>
+        <v>43196</v>
       </c>
       <c r="B137">
-        <v>256.46699999999998</v>
+        <v>256.1669</v>
       </c>
       <c r="C137">
-        <v>219.81309999999999</v>
+        <v>219.8295</v>
       </c>
       <c r="D137">
-        <v>255.06</v>
+        <v>261.32</v>
       </c>
       <c r="E137">
-        <v>2531.38</v>
+        <v>2509.2399999999998</v>
       </c>
       <c r="F137">
-        <v>6454.65</v>
+        <v>6563.82</v>
       </c>
       <c r="G137">
-        <v>130.8817</v>
+        <v>130.88749999999999</v>
       </c>
       <c r="H137">
-        <v>71.950757999999993</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.944348000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>43196</v>
+        <v>43203</v>
       </c>
       <c r="B138">
-        <v>256.1669</v>
+        <v>255.93010000000001</v>
       </c>
       <c r="C138">
-        <v>219.8295</v>
+        <v>219.94049999999999</v>
       </c>
       <c r="D138">
-        <v>261.32</v>
+        <v>259.14999999999998</v>
       </c>
       <c r="E138">
-        <v>2509.2399999999998</v>
+        <v>2550.79</v>
       </c>
       <c r="F138">
-        <v>6563.82</v>
+        <v>6635.27</v>
       </c>
       <c r="G138">
-        <v>130.88749999999999</v>
+        <v>130.88939999999999</v>
       </c>
       <c r="H138">
-        <v>71.944348000000005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.938743000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>43203</v>
+        <v>43210</v>
       </c>
       <c r="B139">
-        <v>255.93010000000001</v>
+        <v>255.15119999999999</v>
       </c>
       <c r="C139">
-        <v>219.94049999999999</v>
+        <v>219.75800000000001</v>
       </c>
       <c r="D139">
-        <v>259.14999999999998</v>
+        <v>259.5</v>
       </c>
       <c r="E139">
-        <v>2550.79</v>
+        <v>2563.44</v>
       </c>
       <c r="F139">
-        <v>6635.27</v>
+        <v>6645.04</v>
       </c>
       <c r="G139">
-        <v>130.88939999999999</v>
+        <v>130.8877</v>
       </c>
       <c r="H139">
-        <v>71.938743000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.933138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>43210</v>
+        <v>43217</v>
       </c>
       <c r="B140">
-        <v>255.15119999999999</v>
+        <v>255.6617</v>
       </c>
       <c r="C140">
-        <v>219.75800000000001</v>
+        <v>219.89</v>
       </c>
       <c r="D140">
-        <v>259.5</v>
+        <v>261.52</v>
       </c>
       <c r="E140">
-        <v>2563.44</v>
+        <v>2603.27</v>
       </c>
       <c r="F140">
-        <v>6645.04</v>
+        <v>6733.36</v>
       </c>
       <c r="G140">
-        <v>130.8877</v>
+        <v>130.8861</v>
       </c>
       <c r="H140">
-        <v>71.933138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.927532999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>43217</v>
+        <v>43224</v>
       </c>
       <c r="B141">
-        <v>255.6617</v>
+        <v>255.3937</v>
       </c>
       <c r="C141">
-        <v>219.89</v>
+        <v>219.92240000000001</v>
       </c>
       <c r="D141">
-        <v>261.52</v>
+        <v>258</v>
       </c>
       <c r="E141">
-        <v>2603.27</v>
+        <v>2650.45</v>
       </c>
       <c r="F141">
-        <v>6733.36</v>
+        <v>6785.31</v>
       </c>
       <c r="G141">
-        <v>130.8861</v>
+        <v>130.87909999999999</v>
       </c>
       <c r="H141">
-        <v>71.927532999999997</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.921848999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>43224</v>
+        <v>43231</v>
       </c>
       <c r="B142">
-        <v>255.3937</v>
+        <v>254.99250000000001</v>
       </c>
       <c r="C142">
-        <v>219.92240000000001</v>
+        <v>219.92320000000001</v>
       </c>
       <c r="D142">
-        <v>258</v>
+        <v>259.55</v>
       </c>
       <c r="E142">
-        <v>2650.45</v>
+        <v>2718.36</v>
       </c>
       <c r="F142">
-        <v>6785.31</v>
+        <v>6888.3</v>
       </c>
       <c r="G142">
-        <v>130.87909999999999</v>
+        <v>130.87469999999999</v>
       </c>
       <c r="H142">
-        <v>71.921848999999995</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.915965</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>43231</v>
+        <v>43238</v>
       </c>
       <c r="B143">
-        <v>254.99250000000001</v>
+        <v>252.90969999999999</v>
       </c>
       <c r="C143">
-        <v>219.92320000000001</v>
+        <v>219.7687</v>
       </c>
       <c r="D143">
-        <v>259.55</v>
+        <v>250.88</v>
       </c>
       <c r="E143">
-        <v>2718.36</v>
+        <v>2730.41</v>
       </c>
       <c r="F143">
-        <v>6888.3</v>
+        <v>6952.67</v>
       </c>
       <c r="G143">
-        <v>130.87469999999999</v>
+        <v>130.8235</v>
       </c>
       <c r="H143">
-        <v>71.915965</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.910083</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>43238</v>
+        <v>43245</v>
       </c>
       <c r="B144">
-        <v>252.90969999999999</v>
+        <v>253.23699999999999</v>
       </c>
       <c r="C144">
-        <v>219.7687</v>
+        <v>219.8991</v>
       </c>
       <c r="D144">
-        <v>250.88</v>
+        <v>254.48</v>
       </c>
       <c r="E144">
-        <v>2730.41</v>
+        <v>2766.2</v>
       </c>
       <c r="F144">
-        <v>6952.67</v>
+        <v>6869.7</v>
       </c>
       <c r="G144">
-        <v>130.8235</v>
+        <v>130.68620000000001</v>
       </c>
       <c r="H144">
-        <v>71.910083</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.904200000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>43245</v>
+        <v>43252</v>
       </c>
       <c r="B145">
-        <v>253.23699999999999</v>
+        <v>252.63589999999999</v>
       </c>
       <c r="C145">
-        <v>219.8991</v>
+        <v>219.56829999999999</v>
       </c>
       <c r="D145">
-        <v>254.48</v>
+        <v>252.16</v>
       </c>
       <c r="E145">
-        <v>2766.2</v>
+        <v>2783.34</v>
       </c>
       <c r="F145">
-        <v>6869.7</v>
+        <v>6810.92</v>
       </c>
       <c r="G145">
-        <v>130.68620000000001</v>
+        <v>130.49289999999999</v>
       </c>
       <c r="H145">
-        <v>71.904200000000003</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.898319000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>43252</v>
+        <v>43259</v>
       </c>
       <c r="B146">
-        <v>252.63589999999999</v>
+        <v>250.18879999999999</v>
       </c>
       <c r="C146">
-        <v>219.56829999999999</v>
+        <v>219.4135</v>
       </c>
       <c r="D146">
-        <v>252.16</v>
+        <v>248.78</v>
       </c>
       <c r="E146">
-        <v>2783.34</v>
+        <v>2806.19</v>
       </c>
       <c r="F146">
-        <v>6810.92</v>
+        <v>6755.75</v>
       </c>
       <c r="G146">
-        <v>130.49289999999999</v>
+        <v>130.4117</v>
       </c>
       <c r="H146">
-        <v>71.898319000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.892437999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>43259</v>
+        <v>43266</v>
       </c>
       <c r="B147">
-        <v>250.18879999999999</v>
+        <v>253.3287</v>
       </c>
       <c r="C147">
-        <v>219.4135</v>
+        <v>219.8219</v>
       </c>
       <c r="D147">
-        <v>248.78</v>
+        <v>252</v>
       </c>
       <c r="E147">
-        <v>2806.19</v>
+        <v>2832.1</v>
       </c>
       <c r="F147">
-        <v>6755.75</v>
+        <v>6827.33</v>
       </c>
       <c r="G147">
-        <v>130.4117</v>
+        <v>130.4863</v>
       </c>
       <c r="H147">
-        <v>71.892437999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.886317000000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>43266</v>
+        <v>43273</v>
       </c>
       <c r="B148">
-        <v>253.3287</v>
+        <v>253.07339999999999</v>
       </c>
       <c r="C148">
-        <v>219.8219</v>
+        <v>220.0164</v>
       </c>
       <c r="D148">
-        <v>252</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="E148">
-        <v>2832.1</v>
+        <v>2800.45</v>
       </c>
       <c r="F148">
-        <v>6827.33</v>
+        <v>6810.36</v>
       </c>
       <c r="G148">
-        <v>130.4863</v>
+        <v>130.46019999999999</v>
       </c>
       <c r="H148">
-        <v>71.886317000000005</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.880018000000007</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>43273</v>
+        <v>43280</v>
       </c>
       <c r="B149">
-        <v>253.07339999999999</v>
+        <v>254.28020000000001</v>
       </c>
       <c r="C149">
-        <v>220.0164</v>
+        <v>219.64869999999999</v>
       </c>
       <c r="D149">
-        <v>258.64999999999998</v>
+        <v>262.04000000000002</v>
       </c>
       <c r="E149">
-        <v>2800.45</v>
+        <v>2763.25</v>
       </c>
       <c r="F149">
-        <v>6810.36</v>
+        <v>6728.4</v>
       </c>
       <c r="G149">
-        <v>130.46019999999999</v>
+        <v>130.3783</v>
       </c>
       <c r="H149">
-        <v>71.880018000000007</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.873720000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>43280</v>
+        <v>43287</v>
       </c>
       <c r="B150">
-        <v>254.28020000000001</v>
+        <v>254.3604</v>
       </c>
       <c r="C150">
-        <v>219.64869999999999</v>
+        <v>219.8083</v>
       </c>
       <c r="D150">
-        <v>262.04000000000002</v>
+        <v>261.89999999999998</v>
       </c>
       <c r="E150">
-        <v>2763.25</v>
+        <v>2788.27</v>
       </c>
       <c r="F150">
-        <v>6728.4</v>
+        <v>6793.82</v>
       </c>
       <c r="G150">
-        <v>130.3783</v>
+        <v>130.4033</v>
       </c>
       <c r="H150">
-        <v>71.873720000000006</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.868118999999993</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>43287</v>
+        <v>43294</v>
       </c>
       <c r="B151">
-        <v>254.3604</v>
+        <v>254.96019999999999</v>
       </c>
       <c r="C151">
-        <v>219.8083</v>
+        <v>220.00020000000001</v>
       </c>
       <c r="D151">
-        <v>261.89999999999998</v>
+        <v>264.27</v>
       </c>
       <c r="E151">
-        <v>2788.27</v>
+        <v>2869.12</v>
       </c>
       <c r="F151">
-        <v>6793.82</v>
+        <v>6831.01</v>
       </c>
       <c r="G151">
-        <v>130.4033</v>
+        <v>130.44040000000001</v>
       </c>
       <c r="H151">
-        <v>71.868118999999993</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.862520000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>43294</v>
+        <v>43301</v>
       </c>
       <c r="B152">
-        <v>254.96019999999999</v>
+        <v>254.38399999999999</v>
       </c>
       <c r="C152">
-        <v>220.00020000000001</v>
+        <v>219.85939999999999</v>
       </c>
       <c r="D152">
-        <v>264.27</v>
+        <v>263.56</v>
       </c>
       <c r="E152">
-        <v>2869.12</v>
+        <v>2868.29</v>
       </c>
       <c r="F152">
-        <v>6831.01</v>
+        <v>6851.76</v>
       </c>
       <c r="G152">
-        <v>130.44040000000001</v>
+        <v>130.4657</v>
       </c>
       <c r="H152">
-        <v>71.862520000000004</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.856921</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>43301</v>
+        <v>43308</v>
       </c>
       <c r="B153">
-        <v>254.38399999999999</v>
+        <v>253.7354</v>
       </c>
       <c r="C153">
-        <v>219.85939999999999</v>
+        <v>220.04560000000001</v>
       </c>
       <c r="D153">
-        <v>263.56</v>
+        <v>264.2</v>
       </c>
       <c r="E153">
-        <v>2868.29</v>
+        <v>2892.15</v>
       </c>
       <c r="F153">
-        <v>6851.76</v>
+        <v>6993.32</v>
       </c>
       <c r="G153">
-        <v>130.4657</v>
+        <v>130.53399999999999</v>
       </c>
       <c r="H153">
-        <v>71.856921</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.851321999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>43308</v>
+        <v>43315</v>
       </c>
       <c r="B154">
-        <v>253.7354</v>
+        <v>252.6771</v>
       </c>
       <c r="C154">
-        <v>220.04560000000001</v>
+        <v>220.10169999999999</v>
       </c>
       <c r="D154">
-        <v>264.2</v>
+        <v>258.82</v>
       </c>
       <c r="E154">
-        <v>2892.15</v>
+        <v>2949.65</v>
       </c>
       <c r="F154">
-        <v>6993.32</v>
+        <v>6937.87</v>
       </c>
       <c r="G154">
-        <v>130.53399999999999</v>
+        <v>130.55840000000001</v>
       </c>
       <c r="H154">
-        <v>71.851321999999996</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.845723000000007</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>43315</v>
+        <v>43322</v>
       </c>
       <c r="B155">
-        <v>252.6771</v>
+        <v>253.39429999999999</v>
       </c>
       <c r="C155">
-        <v>220.10169999999999</v>
+        <v>220.4633</v>
       </c>
       <c r="D155">
-        <v>258.82</v>
+        <v>256.91000000000003</v>
       </c>
       <c r="E155">
-        <v>2949.65</v>
+        <v>2989.36</v>
       </c>
       <c r="F155">
-        <v>6937.87</v>
+        <v>6874.75</v>
       </c>
       <c r="G155">
-        <v>130.55840000000001</v>
+        <v>130.55019999999999</v>
       </c>
       <c r="H155">
-        <v>71.845723000000007</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.840125999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>43322</v>
+        <v>43329</v>
       </c>
       <c r="B156">
-        <v>253.39429999999999</v>
+        <v>252.7953</v>
       </c>
       <c r="C156">
-        <v>220.4633</v>
+        <v>220.44399999999999</v>
       </c>
       <c r="D156">
-        <v>256.91000000000003</v>
+        <v>255.04</v>
       </c>
       <c r="E156">
-        <v>2989.36</v>
+        <v>3016.29</v>
       </c>
       <c r="F156">
-        <v>6874.75</v>
+        <v>6793.56</v>
       </c>
       <c r="G156">
-        <v>130.55019999999999</v>
+        <v>130.53380000000001</v>
       </c>
       <c r="H156">
-        <v>71.840125999999998</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.834529000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>43329</v>
+        <v>43336</v>
       </c>
       <c r="B157">
-        <v>252.7953</v>
+        <v>252.68870000000001</v>
       </c>
       <c r="C157">
-        <v>220.44399999999999</v>
+        <v>220.11259999999999</v>
       </c>
       <c r="D157">
-        <v>255.04</v>
+        <v>257.05</v>
       </c>
       <c r="E157">
-        <v>3016.29</v>
+        <v>2976.06</v>
       </c>
       <c r="F157">
-        <v>6793.56</v>
+        <v>6814.46</v>
       </c>
       <c r="G157">
-        <v>130.53380000000001</v>
+        <v>130.52430000000001</v>
       </c>
       <c r="H157">
-        <v>71.834529000000003</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.828931999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>43336</v>
+        <v>43343</v>
       </c>
       <c r="B158">
-        <v>252.68870000000001</v>
+        <v>251.94880000000001</v>
       </c>
       <c r="C158">
-        <v>220.11259999999999</v>
+        <v>220.01349999999999</v>
       </c>
       <c r="D158">
-        <v>257.05</v>
+        <v>253.51</v>
       </c>
       <c r="E158">
-        <v>2976.06</v>
+        <v>3015.21</v>
       </c>
       <c r="F158">
-        <v>6814.46</v>
+        <v>6755.03</v>
       </c>
       <c r="G158">
-        <v>130.52430000000001</v>
+        <v>130.4873</v>
       </c>
       <c r="H158">
-        <v>71.828931999999995</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.823356000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>43343</v>
+        <v>43350</v>
       </c>
       <c r="B159">
-        <v>251.94880000000001</v>
+        <v>252.8167</v>
       </c>
       <c r="C159">
-        <v>220.01349999999999</v>
+        <v>219.71199999999999</v>
       </c>
       <c r="D159">
-        <v>253.51</v>
+        <v>254.53</v>
       </c>
       <c r="E159">
-        <v>3015.21</v>
+        <v>2987.93</v>
       </c>
       <c r="F159">
-        <v>6755.03</v>
+        <v>6598.8</v>
       </c>
       <c r="G159">
-        <v>130.4873</v>
+        <v>130.47800000000001</v>
       </c>
       <c r="H159">
-        <v>71.823356000000004</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.817980000000006</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>43350</v>
+        <v>43357</v>
       </c>
       <c r="B160">
-        <v>252.8167</v>
+        <v>252.44499999999999</v>
       </c>
       <c r="C160">
-        <v>219.71199999999999</v>
+        <v>219.7885</v>
       </c>
       <c r="D160">
-        <v>254.53</v>
+        <v>258.8</v>
       </c>
       <c r="E160">
-        <v>2987.93</v>
+        <v>3001.04</v>
       </c>
       <c r="F160">
-        <v>6598.8</v>
+        <v>6680.52</v>
       </c>
       <c r="G160">
-        <v>130.47800000000001</v>
+        <v>130.50550000000001</v>
       </c>
       <c r="H160">
-        <v>71.817980000000006</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.812803000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>43357</v>
+        <v>43364</v>
       </c>
       <c r="B161">
-        <v>252.44499999999999</v>
+        <v>252.8768</v>
       </c>
       <c r="C161">
-        <v>219.7885</v>
+        <v>219.94069999999999</v>
       </c>
       <c r="D161">
-        <v>258.8</v>
+        <v>259.56</v>
       </c>
       <c r="E161">
-        <v>3001.04</v>
+        <v>3002.13</v>
       </c>
       <c r="F161">
-        <v>6680.52</v>
+        <v>6812.65</v>
       </c>
       <c r="G161">
-        <v>130.50550000000001</v>
+        <v>130.51390000000001</v>
       </c>
       <c r="H161">
-        <v>71.812803000000002</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.807568000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>43364</v>
+        <v>43371</v>
       </c>
       <c r="B162">
-        <v>252.8768</v>
+        <v>251.61590000000001</v>
       </c>
       <c r="C162">
-        <v>219.94069999999999</v>
+        <v>219.79239999999999</v>
       </c>
       <c r="D162">
-        <v>259.56</v>
+        <v>259.13</v>
       </c>
       <c r="E162">
-        <v>3002.13</v>
+        <v>3038.96</v>
       </c>
       <c r="F162">
-        <v>6812.65</v>
+        <v>6817.61</v>
       </c>
       <c r="G162">
-        <v>130.51390000000001</v>
+        <v>130.5111</v>
       </c>
       <c r="H162">
-        <v>71.807568000000003</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.802252999999993</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>43371</v>
+        <v>43378</v>
       </c>
       <c r="B163">
-        <v>251.61590000000001</v>
+        <v>249.57679999999999</v>
       </c>
       <c r="C163">
-        <v>219.79239999999999</v>
+        <v>219.57220000000001</v>
       </c>
       <c r="D163">
-        <v>259.13</v>
+        <v>254.19</v>
       </c>
       <c r="E163">
-        <v>3038.96</v>
+        <v>3039.18</v>
       </c>
       <c r="F163">
-        <v>6817.61</v>
+        <v>6734.9</v>
       </c>
       <c r="G163">
-        <v>130.5111</v>
+        <v>130.48580000000001</v>
       </c>
       <c r="H163">
-        <v>71.802252999999993</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.796937999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>43378</v>
+        <v>43385</v>
       </c>
       <c r="B164">
-        <v>249.57679999999999</v>
+        <v>249.20820000000001</v>
       </c>
       <c r="C164">
-        <v>219.57220000000001</v>
+        <v>219.76439999999999</v>
       </c>
       <c r="D164">
-        <v>254.19</v>
+        <v>256.02999999999997</v>
       </c>
       <c r="E164">
-        <v>3039.18</v>
+        <v>2915.49</v>
       </c>
       <c r="F164">
-        <v>6734.9</v>
+        <v>6451.57</v>
       </c>
       <c r="G164">
-        <v>130.48580000000001</v>
+        <v>130.42840000000001</v>
       </c>
       <c r="H164">
-        <v>71.796937999999997</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.791763000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>43385</v>
+        <v>43392</v>
       </c>
       <c r="B165">
-        <v>249.20820000000001</v>
+        <v>249.58240000000001</v>
       </c>
       <c r="C165">
-        <v>219.76439999999999</v>
+        <v>219.8289</v>
       </c>
       <c r="D165">
-        <v>256.02999999999997</v>
+        <v>256.77</v>
       </c>
       <c r="E165">
-        <v>2915.49</v>
+        <v>2936.57</v>
       </c>
       <c r="F165">
-        <v>6451.57</v>
+        <v>6541.97</v>
       </c>
       <c r="G165">
-        <v>130.42840000000001</v>
+        <v>130.35130000000001</v>
       </c>
       <c r="H165">
-        <v>71.791763000000003</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.786637999999996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>43392</v>
+        <v>43399</v>
       </c>
       <c r="B166">
-        <v>249.58240000000001</v>
+        <v>251.44710000000001</v>
       </c>
       <c r="C166">
-        <v>219.8289</v>
+        <v>219.833</v>
       </c>
       <c r="D166">
-        <v>256.77</v>
+        <v>257.92</v>
       </c>
       <c r="E166">
-        <v>2936.57</v>
+        <v>2866.51</v>
       </c>
       <c r="F166">
-        <v>6541.97</v>
+        <v>6399.08</v>
       </c>
       <c r="G166">
-        <v>130.35130000000001</v>
+        <v>130.27950000000001</v>
       </c>
       <c r="H166">
-        <v>71.786637999999996</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.781474000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>43399</v>
+        <v>43406</v>
       </c>
       <c r="B167">
-        <v>251.44710000000001</v>
+        <v>251.38509999999999</v>
       </c>
       <c r="C167">
-        <v>219.833</v>
+        <v>219.66540000000001</v>
       </c>
       <c r="D167">
-        <v>257.92</v>
+        <v>257.73</v>
       </c>
       <c r="E167">
-        <v>2866.51</v>
+        <v>2909.46</v>
       </c>
       <c r="F167">
-        <v>6399.08</v>
+        <v>6554.78</v>
       </c>
       <c r="G167">
-        <v>130.27950000000001</v>
+        <v>130.2833</v>
       </c>
       <c r="H167">
-        <v>71.781474000000003</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.776257000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>43406</v>
+        <v>43413</v>
       </c>
       <c r="B168">
-        <v>251.38509999999999</v>
+        <v>251.1362</v>
       </c>
       <c r="C168">
-        <v>219.66540000000001</v>
+        <v>219.7484</v>
       </c>
       <c r="D168">
-        <v>257.73</v>
+        <v>256.55</v>
       </c>
       <c r="E168">
-        <v>2909.46</v>
+        <v>2978.71</v>
       </c>
       <c r="F168">
-        <v>6554.78</v>
+        <v>6622.86</v>
       </c>
       <c r="G168">
-        <v>130.2833</v>
+        <v>130.29759999999999</v>
       </c>
       <c r="H168">
-        <v>71.776257000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.771229000000005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>43413</v>
+        <v>43420</v>
       </c>
       <c r="B169">
-        <v>251.1362</v>
+        <v>250.79150000000001</v>
       </c>
       <c r="C169">
-        <v>219.7484</v>
+        <v>219.20189999999999</v>
       </c>
       <c r="D169">
-        <v>256.55</v>
+        <v>254.58</v>
       </c>
       <c r="E169">
-        <v>2978.71</v>
+        <v>2905.05</v>
       </c>
       <c r="F169">
-        <v>6622.86</v>
+        <v>6494.88</v>
       </c>
       <c r="G169">
-        <v>130.29759999999999</v>
+        <v>130.0591</v>
       </c>
       <c r="H169">
-        <v>71.771229000000005</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.766202000000007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>43420</v>
+        <v>43427</v>
       </c>
       <c r="B170">
-        <v>250.79150000000001</v>
+        <v>251.60050000000001</v>
       </c>
       <c r="C170">
-        <v>219.20189999999999</v>
+        <v>218.84739999999999</v>
       </c>
       <c r="D170">
-        <v>254.58</v>
+        <v>254.78</v>
       </c>
       <c r="E170">
-        <v>2905.05</v>
+        <v>2780.01</v>
       </c>
       <c r="F170">
-        <v>6494.88</v>
+        <v>6446.26</v>
       </c>
       <c r="G170">
-        <v>130.0591</v>
+        <v>129.7843</v>
       </c>
       <c r="H170">
-        <v>71.766202000000007</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.761365999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>43427</v>
+        <v>43434</v>
       </c>
       <c r="B171">
-        <v>251.60050000000001</v>
+        <v>252.97319999999999</v>
       </c>
       <c r="C171">
-        <v>218.84739999999999</v>
+        <v>218.68350000000001</v>
       </c>
       <c r="D171">
-        <v>254.78</v>
+        <v>259.39</v>
       </c>
       <c r="E171">
-        <v>2780.01</v>
+        <v>2953.76</v>
       </c>
       <c r="F171">
-        <v>6446.26</v>
+        <v>6542.96</v>
       </c>
       <c r="G171">
-        <v>129.7843</v>
+        <v>129.5532</v>
       </c>
       <c r="H171">
-        <v>71.761365999999995</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.756748000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>43434</v>
+        <v>43441</v>
       </c>
       <c r="B172">
-        <v>252.97319999999999</v>
+        <v>253.82849999999999</v>
       </c>
       <c r="C172">
-        <v>218.68350000000001</v>
+        <v>218.42009999999999</v>
       </c>
       <c r="D172">
-        <v>259.39</v>
+        <v>259.79000000000002</v>
       </c>
       <c r="E172">
-        <v>2953.76</v>
+        <v>2797.51</v>
       </c>
       <c r="F172">
-        <v>6542.96</v>
+        <v>6308.84</v>
       </c>
       <c r="G172">
-        <v>129.5532</v>
+        <v>129.33959999999999</v>
       </c>
       <c r="H172">
-        <v>71.756748000000002</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.752301000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>43441</v>
+        <v>43448</v>
       </c>
       <c r="B173">
-        <v>253.82849999999999</v>
+        <v>254.55930000000001</v>
       </c>
       <c r="C173">
-        <v>218.42009999999999</v>
+        <v>218.79509999999999</v>
       </c>
       <c r="D173">
-        <v>259.79000000000002</v>
+        <v>260.67</v>
       </c>
       <c r="E173">
-        <v>2797.51</v>
+        <v>2789.53</v>
       </c>
       <c r="F173">
-        <v>6308.84</v>
+        <v>6344.28</v>
       </c>
       <c r="G173">
-        <v>129.33959999999999</v>
+        <v>129.38339999999999</v>
       </c>
       <c r="H173">
-        <v>71.752301000000003</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.747889000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>43448</v>
+        <v>43455</v>
       </c>
       <c r="B174">
-        <v>254.55930000000001</v>
+        <v>255.16149999999999</v>
       </c>
       <c r="C174">
-        <v>218.79509999999999</v>
+        <v>218.73750000000001</v>
       </c>
       <c r="D174">
-        <v>260.67</v>
+        <v>260.37</v>
       </c>
       <c r="E174">
-        <v>2789.53</v>
+        <v>2560.16</v>
       </c>
       <c r="F174">
-        <v>6344.28</v>
+        <v>6158.42</v>
       </c>
       <c r="G174">
-        <v>129.38339999999999</v>
+        <v>129.36150000000001</v>
       </c>
       <c r="H174">
-        <v>71.747889000000001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.743388999999993</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>43455</v>
+        <v>43462</v>
       </c>
       <c r="B175">
-        <v>255.16149999999999</v>
+        <v>255.27510000000001</v>
       </c>
       <c r="C175">
-        <v>218.73750000000001</v>
+        <v>218.8434</v>
       </c>
       <c r="D175">
-        <v>260.37</v>
+        <v>260.48</v>
       </c>
       <c r="E175">
-        <v>2560.16</v>
+        <v>2640.86</v>
       </c>
       <c r="F175">
-        <v>6158.42</v>
+        <v>6150.25</v>
       </c>
       <c r="G175">
-        <v>129.36150000000001</v>
+        <v>129.3612</v>
       </c>
       <c r="H175">
-        <v>71.743388999999993</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.738821999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>43462</v>
+        <v>43469</v>
       </c>
       <c r="B176">
-        <v>255.27510000000001</v>
+        <v>254.8261</v>
       </c>
       <c r="C176">
-        <v>218.8434</v>
+        <v>218.55</v>
       </c>
       <c r="D176">
-        <v>260.48</v>
+        <v>260.20999999999998</v>
       </c>
       <c r="E176">
-        <v>2640.86</v>
+        <v>2696.85</v>
       </c>
       <c r="F176">
-        <v>6150.25</v>
+        <v>6276.58</v>
       </c>
       <c r="G176">
-        <v>129.3612</v>
+        <v>129.25659999999999</v>
       </c>
       <c r="H176">
-        <v>71.738821999999999</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.734326999999993</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>43469</v>
+        <v>43476</v>
       </c>
       <c r="B177">
-        <v>254.8261</v>
+        <v>255.31970000000001</v>
       </c>
       <c r="C177">
-        <v>218.55</v>
+        <v>218.52610000000001</v>
       </c>
       <c r="D177">
-        <v>260.20999999999998</v>
+        <v>261.8</v>
       </c>
       <c r="E177">
-        <v>2696.85</v>
+        <v>2737.32</v>
       </c>
       <c r="F177">
-        <v>6276.58</v>
+        <v>6323.16</v>
       </c>
       <c r="G177">
-        <v>129.25659999999999</v>
+        <v>129.2353</v>
       </c>
       <c r="H177">
-        <v>71.734326999999993</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.729771999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>43476</v>
+        <v>43483</v>
       </c>
       <c r="B178">
-        <v>255.31970000000001</v>
+        <v>255.99010000000001</v>
       </c>
       <c r="C178">
-        <v>218.52610000000001</v>
+        <v>218.99870000000001</v>
       </c>
       <c r="D178">
-        <v>261.8</v>
+        <v>263.83</v>
       </c>
       <c r="E178">
-        <v>2737.32</v>
+        <v>2843.72</v>
       </c>
       <c r="F178">
-        <v>6323.16</v>
+        <v>6439.36</v>
       </c>
       <c r="G178">
-        <v>129.2353</v>
+        <v>129.4238</v>
       </c>
       <c r="H178">
-        <v>71.729771999999997</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.725216000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>43483</v>
+        <v>43490</v>
       </c>
       <c r="B179">
-        <v>255.99010000000001</v>
+        <v>257.47500000000002</v>
       </c>
       <c r="C179">
-        <v>218.99870000000001</v>
+        <v>219.38140000000001</v>
       </c>
       <c r="D179">
-        <v>263.83</v>
+        <v>264.97000000000003</v>
       </c>
       <c r="E179">
-        <v>2843.72</v>
+        <v>2819.45</v>
       </c>
       <c r="F179">
-        <v>6439.36</v>
+        <v>6411.44</v>
       </c>
       <c r="G179">
-        <v>129.4238</v>
+        <v>129.58770000000001</v>
       </c>
       <c r="H179">
-        <v>71.725216000000003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.720359999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>43490</v>
+        <v>43497</v>
       </c>
       <c r="B180">
-        <v>257.47500000000002</v>
+        <v>257.37529999999998</v>
       </c>
       <c r="C180">
-        <v>219.38140000000001</v>
+        <v>219.93289999999999</v>
       </c>
       <c r="D180">
-        <v>264.97000000000003</v>
+        <v>268.32</v>
       </c>
       <c r="E180">
-        <v>2819.45</v>
+        <v>2842.58</v>
       </c>
       <c r="F180">
-        <v>6411.44</v>
+        <v>6499.1</v>
       </c>
       <c r="G180">
-        <v>129.58770000000001</v>
+        <v>129.75640000000001</v>
       </c>
       <c r="H180">
-        <v>71.720359999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.715444000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>43497</v>
+        <v>43504</v>
       </c>
       <c r="B181">
-        <v>257.37529999999998</v>
+        <v>256.83789999999999</v>
       </c>
       <c r="C181">
-        <v>219.93289999999999</v>
+        <v>220.3252</v>
       </c>
       <c r="D181">
-        <v>268.32</v>
+        <v>268.55</v>
       </c>
       <c r="E181">
-        <v>2842.58</v>
+        <v>2882.16</v>
       </c>
       <c r="F181">
-        <v>6499.1</v>
+        <v>6515.04</v>
       </c>
       <c r="G181">
-        <v>129.75640000000001</v>
+        <v>129.8288</v>
       </c>
       <c r="H181">
-        <v>71.715444000000005</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.710661999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>43504</v>
+        <v>43511</v>
       </c>
       <c r="B182">
-        <v>256.83789999999999</v>
+        <v>257.3648</v>
       </c>
       <c r="C182">
-        <v>220.3252</v>
+        <v>220.45230000000001</v>
       </c>
       <c r="D182">
-        <v>268.55</v>
+        <v>270.97000000000003</v>
       </c>
       <c r="E182">
-        <v>2882.16</v>
+        <v>2962.84</v>
       </c>
       <c r="F182">
-        <v>6515.04</v>
+        <v>6721.25</v>
       </c>
       <c r="G182">
-        <v>129.8288</v>
+        <v>129.9085</v>
       </c>
       <c r="H182">
-        <v>71.710661999999999</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.705798999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>43511</v>
+        <v>43518</v>
       </c>
       <c r="B183">
-        <v>257.3648</v>
+        <v>257.5822</v>
       </c>
       <c r="C183">
-        <v>220.45230000000001</v>
+        <v>220.65860000000001</v>
       </c>
       <c r="D183">
-        <v>270.97000000000003</v>
+        <v>272.37</v>
       </c>
       <c r="E183">
-        <v>2962.84</v>
+        <v>2970.5</v>
       </c>
       <c r="F183">
-        <v>6721.25</v>
+        <v>6763.1</v>
       </c>
       <c r="G183">
-        <v>129.9085</v>
+        <v>130.01429999999999</v>
       </c>
       <c r="H183">
-        <v>71.705798999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.700826000000006</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>43518</v>
+        <v>43525</v>
       </c>
       <c r="B184">
-        <v>257.5822</v>
+        <v>256.92869999999999</v>
       </c>
       <c r="C184">
-        <v>220.65860000000001</v>
+        <v>220.76339999999999</v>
       </c>
       <c r="D184">
-        <v>272.37</v>
+        <v>275.57</v>
       </c>
       <c r="E184">
-        <v>2970.5</v>
+        <v>2978.54</v>
       </c>
       <c r="F184">
-        <v>6763.1</v>
+        <v>6807.91</v>
       </c>
       <c r="G184">
-        <v>130.01429999999999</v>
+        <v>130.1464</v>
       </c>
       <c r="H184">
-        <v>71.700826000000006</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.695876999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>43525</v>
+        <v>43532</v>
       </c>
       <c r="B185">
-        <v>256.92869999999999</v>
+        <v>259.65359999999998</v>
       </c>
       <c r="C185">
-        <v>220.76339999999999</v>
+        <v>220.96199999999999</v>
       </c>
       <c r="D185">
-        <v>275.57</v>
+        <v>272.26</v>
       </c>
       <c r="E185">
-        <v>2978.54</v>
+        <v>2970.88</v>
       </c>
       <c r="F185">
-        <v>6807.91</v>
+        <v>6807.61</v>
       </c>
       <c r="G185">
-        <v>130.1464</v>
+        <v>130.15369999999999</v>
       </c>
       <c r="H185">
-        <v>71.695876999999996</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.690957999999995</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>43532</v>
+        <v>43539</v>
       </c>
       <c r="B186">
-        <v>259.65359999999998</v>
+        <v>259.43579999999997</v>
       </c>
       <c r="C186">
-        <v>220.96199999999999</v>
+        <v>221.49619999999999</v>
       </c>
       <c r="D186">
-        <v>272.26</v>
+        <v>277.07</v>
       </c>
       <c r="E186">
-        <v>2970.88</v>
+        <v>3040.41</v>
       </c>
       <c r="F186">
-        <v>6807.61</v>
+        <v>6999.55</v>
       </c>
       <c r="G186">
-        <v>130.15369999999999</v>
+        <v>130.27000000000001</v>
       </c>
       <c r="H186">
-        <v>71.690957999999995</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.686188000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>43539</v>
+        <v>43546</v>
       </c>
       <c r="B187">
-        <v>259.43579999999997</v>
+        <v>261.59410000000003</v>
       </c>
       <c r="C187">
-        <v>221.49619999999999</v>
+        <v>221.85640000000001</v>
       </c>
       <c r="D187">
-        <v>277.07</v>
+        <v>278.14</v>
       </c>
       <c r="E187">
-        <v>3040.41</v>
+        <v>3038.82</v>
       </c>
       <c r="F187">
-        <v>6999.55</v>
+        <v>6935.81</v>
       </c>
       <c r="G187">
-        <v>130.27000000000001</v>
+        <v>130.31370000000001</v>
       </c>
       <c r="H187">
-        <v>71.686188000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.681700000000006</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>43546</v>
+        <v>43553</v>
       </c>
       <c r="B188">
-        <v>261.59410000000003</v>
+        <v>261.7876</v>
       </c>
       <c r="C188">
-        <v>221.85640000000001</v>
+        <v>222.2193</v>
       </c>
       <c r="D188">
-        <v>278.14</v>
+        <v>278.70999999999998</v>
       </c>
       <c r="E188">
-        <v>3038.82</v>
+        <v>3081.26</v>
       </c>
       <c r="F188">
-        <v>6935.81</v>
+        <v>7019.66</v>
       </c>
       <c r="G188">
-        <v>130.31370000000001</v>
+        <v>130.32650000000001</v>
       </c>
       <c r="H188">
-        <v>71.681700000000006</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.677276000000006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>43553</v>
+        <v>43560</v>
       </c>
       <c r="B189">
-        <v>261.7876</v>
+        <v>261.22539999999998</v>
       </c>
       <c r="C189">
-        <v>222.2193</v>
+        <v>222.28710000000001</v>
       </c>
       <c r="D189">
-        <v>278.70999999999998</v>
+        <v>282.81</v>
       </c>
       <c r="E189">
-        <v>3081.26</v>
+        <v>3145.61</v>
       </c>
       <c r="F189">
-        <v>7019.66</v>
+        <v>7153.74</v>
       </c>
       <c r="G189">
-        <v>130.32650000000001</v>
+        <v>130.405</v>
       </c>
       <c r="H189">
-        <v>71.677276000000006</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.673101000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>43560</v>
+        <v>43567</v>
       </c>
       <c r="B190">
-        <v>261.22539999999998</v>
+        <v>261.1198</v>
       </c>
       <c r="C190">
-        <v>222.28710000000001</v>
+        <v>222.40629999999999</v>
       </c>
       <c r="D190">
-        <v>282.81</v>
+        <v>287.45999999999998</v>
       </c>
       <c r="E190">
-        <v>3145.61</v>
+        <v>3134.46</v>
       </c>
       <c r="F190">
-        <v>7153.74</v>
+        <v>7116.35</v>
       </c>
       <c r="G190">
-        <v>130.405</v>
+        <v>130.48390000000001</v>
       </c>
       <c r="H190">
-        <v>71.673101000000003</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.669402000000005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>43567</v>
+        <v>43574</v>
       </c>
       <c r="B191">
-        <v>261.1198</v>
+        <v>261.1857</v>
       </c>
       <c r="C191">
-        <v>222.40629999999999</v>
+        <v>222.74010000000001</v>
       </c>
       <c r="D191">
-        <v>287.45999999999998</v>
+        <v>287.54000000000002</v>
       </c>
       <c r="E191">
-        <v>3134.46</v>
+        <v>3169.33</v>
       </c>
       <c r="F191">
-        <v>7116.35</v>
+        <v>7158.32</v>
       </c>
       <c r="G191">
-        <v>130.48390000000001</v>
+        <v>130.5694</v>
       </c>
       <c r="H191">
-        <v>71.669402000000005</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.666580999999994</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>43574</v>
+        <v>43581</v>
       </c>
       <c r="B192">
-        <v>261.1857</v>
+        <v>261.71809999999999</v>
       </c>
       <c r="C192">
-        <v>222.74010000000001</v>
+        <v>223.0608</v>
       </c>
       <c r="D192">
-        <v>287.54000000000002</v>
+        <v>287.99</v>
       </c>
       <c r="E192">
-        <v>3169.33</v>
+        <v>3239.04</v>
       </c>
       <c r="F192">
-        <v>7158.32</v>
+        <v>7208.61</v>
       </c>
       <c r="G192">
-        <v>130.5694</v>
+        <v>130.6105</v>
       </c>
       <c r="H192">
-        <v>71.666580999999994</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.663070000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>43581</v>
+        <v>43588</v>
       </c>
       <c r="B193">
-        <v>261.71809999999999</v>
+        <v>261.86200000000002</v>
       </c>
       <c r="C193">
-        <v>223.0608</v>
+        <v>223.19450000000001</v>
       </c>
       <c r="D193">
-        <v>287.99</v>
+        <v>287.26</v>
       </c>
       <c r="E193">
-        <v>3239.04</v>
+        <v>3240.72</v>
       </c>
       <c r="F193">
-        <v>7208.61</v>
+        <v>7234.75</v>
       </c>
       <c r="G193">
-        <v>130.6105</v>
+        <v>130.6549</v>
       </c>
       <c r="H193">
-        <v>71.663070000000005</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.659647000000007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>43588</v>
+        <v>43595</v>
       </c>
       <c r="B194">
-        <v>261.86200000000002</v>
+        <v>261.774</v>
       </c>
       <c r="C194">
-        <v>223.19450000000001</v>
+        <v>222.9237</v>
       </c>
       <c r="D194">
-        <v>287.26</v>
+        <v>283.69</v>
       </c>
       <c r="E194">
-        <v>3240.72</v>
+        <v>3143.29</v>
       </c>
       <c r="F194">
-        <v>7234.75</v>
+        <v>6999.37</v>
       </c>
       <c r="G194">
-        <v>130.6549</v>
+        <v>130.57679999999999</v>
       </c>
       <c r="H194">
-        <v>71.659647000000007</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.656154999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="B195">
-        <v>261.774</v>
+        <v>262.87990000000002</v>
       </c>
       <c r="C195">
-        <v>222.9237</v>
+        <v>222.923</v>
       </c>
       <c r="D195">
-        <v>283.69</v>
+        <v>286.02</v>
       </c>
       <c r="E195">
-        <v>3143.29</v>
+        <v>3150.02</v>
       </c>
       <c r="F195">
-        <v>6999.37</v>
+        <v>7146.3</v>
       </c>
       <c r="G195">
-        <v>130.57679999999999</v>
+        <v>130.54</v>
       </c>
       <c r="H195">
-        <v>71.656154999999998</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.652698999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>43602</v>
+        <v>43609</v>
       </c>
       <c r="B196">
-        <v>262.87990000000002</v>
+        <v>263.40440000000001</v>
       </c>
       <c r="C196">
-        <v>222.923</v>
+        <v>222.56270000000001</v>
       </c>
       <c r="D196">
-        <v>286.02</v>
+        <v>286.89</v>
       </c>
       <c r="E196">
-        <v>3150.02</v>
+        <v>3102.34</v>
       </c>
       <c r="F196">
-        <v>7146.3</v>
+        <v>7077.07</v>
       </c>
       <c r="G196">
-        <v>130.54</v>
+        <v>130.4958</v>
       </c>
       <c r="H196">
-        <v>71.652698999999998</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.649501000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>43609</v>
+        <v>43616</v>
       </c>
       <c r="B197">
-        <v>263.40440000000001</v>
+        <v>264.5505</v>
       </c>
       <c r="C197">
-        <v>222.56270000000001</v>
+        <v>222.70429999999999</v>
       </c>
       <c r="D197">
-        <v>286.89</v>
+        <v>298.11</v>
       </c>
       <c r="E197">
-        <v>3102.34</v>
+        <v>3030.54</v>
       </c>
       <c r="F197">
-        <v>7077.07</v>
+        <v>6947.86</v>
       </c>
       <c r="G197">
-        <v>130.4958</v>
+        <v>130.4854</v>
       </c>
       <c r="H197">
-        <v>71.649501000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.646394000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>43616</v>
+        <v>43623</v>
       </c>
       <c r="B198">
-        <v>264.5505</v>
+        <v>267.85739999999998</v>
       </c>
       <c r="C198">
-        <v>222.70429999999999</v>
+        <v>223.1165</v>
       </c>
       <c r="D198">
-        <v>298.11</v>
+        <v>301.43</v>
       </c>
       <c r="E198">
-        <v>3030.54</v>
+        <v>3108.38</v>
       </c>
       <c r="F198">
-        <v>6947.86</v>
+        <v>7124.9</v>
       </c>
       <c r="G198">
-        <v>130.4854</v>
+        <v>130.5402</v>
       </c>
       <c r="H198">
-        <v>71.646394000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.643494000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>43623</v>
+        <v>43630</v>
       </c>
       <c r="B199">
-        <v>267.85739999999998</v>
+        <v>268.03309999999999</v>
       </c>
       <c r="C199">
-        <v>223.1165</v>
+        <v>223.37299999999999</v>
       </c>
       <c r="D199">
-        <v>301.43</v>
+        <v>305.44</v>
       </c>
       <c r="E199">
-        <v>3108.38</v>
+        <v>3160.7</v>
       </c>
       <c r="F199">
-        <v>7124.9</v>
+        <v>7150.78</v>
       </c>
       <c r="G199">
-        <v>130.5402</v>
+        <v>130.56319999999999</v>
       </c>
       <c r="H199">
-        <v>71.643494000000004</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.640570999999994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>43630</v>
+        <v>43637</v>
       </c>
       <c r="B200">
-        <v>268.03309999999999</v>
+        <v>269.40949999999998</v>
       </c>
       <c r="C200">
-        <v>223.37299999999999</v>
+        <v>224.13390000000001</v>
       </c>
       <c r="D200">
-        <v>305.44</v>
+        <v>308.14</v>
       </c>
       <c r="E200">
-        <v>3160.7</v>
+        <v>3211.45</v>
       </c>
       <c r="F200">
-        <v>7150.78</v>
+        <v>7265.27</v>
       </c>
       <c r="G200">
-        <v>130.56319999999999</v>
+        <v>130.62950000000001</v>
       </c>
       <c r="H200">
-        <v>71.640570999999994</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.637710999999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>43637</v>
+        <v>43644</v>
       </c>
       <c r="B201">
-        <v>269.40949999999998</v>
+        <v>270.6259</v>
       </c>
       <c r="C201">
-        <v>224.13390000000001</v>
+        <v>224.34200000000001</v>
       </c>
       <c r="D201">
-        <v>308.14</v>
+        <v>311.72000000000003</v>
       </c>
       <c r="E201">
-        <v>3211.45</v>
+        <v>3173.15</v>
       </c>
       <c r="F201">
-        <v>7265.27</v>
+        <v>7266.99</v>
       </c>
       <c r="G201">
-        <v>130.62950000000001</v>
+        <v>130.65119999999999</v>
       </c>
       <c r="H201">
-        <v>71.637710999999996</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.635031999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>43644</v>
+        <v>43651</v>
       </c>
       <c r="B202">
-        <v>270.6259</v>
+        <v>272.85809999999998</v>
       </c>
       <c r="C202">
-        <v>224.34200000000001</v>
+        <v>224.74520000000001</v>
       </c>
       <c r="D202">
-        <v>311.72000000000003</v>
+        <v>318.61</v>
       </c>
       <c r="E202">
-        <v>3173.15</v>
+        <v>3279.74</v>
       </c>
       <c r="F202">
-        <v>7266.99</v>
+        <v>7365.48</v>
       </c>
       <c r="G202">
-        <v>130.65119999999999</v>
+        <v>130.70910000000001</v>
       </c>
       <c r="H202">
-        <v>71.635031999999995</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.632818</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>43651</v>
+        <v>43658</v>
       </c>
       <c r="B203">
-        <v>272.85809999999998</v>
+        <v>270.29509999999999</v>
       </c>
       <c r="C203">
-        <v>224.74520000000001</v>
+        <v>224.57040000000001</v>
       </c>
       <c r="D203">
-        <v>318.61</v>
+        <v>313.41000000000003</v>
       </c>
       <c r="E203">
-        <v>3279.74</v>
+        <v>3303.49</v>
       </c>
       <c r="F203">
-        <v>7365.48</v>
+        <v>7272.68</v>
       </c>
       <c r="G203">
-        <v>130.70910000000001</v>
+        <v>130.7355</v>
       </c>
       <c r="H203">
-        <v>71.632818</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.630330000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>43658</v>
+        <v>43665</v>
       </c>
       <c r="B204">
-        <v>270.29509999999999</v>
+        <v>272.9966</v>
       </c>
       <c r="C204">
-        <v>224.57040000000001</v>
+        <v>224.99629999999999</v>
       </c>
       <c r="D204">
-        <v>313.41000000000003</v>
+        <v>318.20999999999998</v>
       </c>
       <c r="E204">
-        <v>3303.49</v>
+        <v>3270.19</v>
       </c>
       <c r="F204">
-        <v>7272.68</v>
+        <v>7284.57</v>
       </c>
       <c r="G204">
-        <v>130.7355</v>
+        <v>130.77010000000001</v>
       </c>
       <c r="H204">
-        <v>71.630330000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.627837999999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="B205">
-        <v>272.9966</v>
+        <v>273.81450000000001</v>
       </c>
       <c r="C205">
-        <v>224.99629999999999</v>
+        <v>225.4153</v>
       </c>
       <c r="D205">
-        <v>318.20999999999998</v>
+        <v>320.51</v>
       </c>
       <c r="E205">
-        <v>3270.19</v>
+        <v>3353.46</v>
       </c>
       <c r="F205">
-        <v>7284.57</v>
+        <v>7344.61</v>
       </c>
       <c r="G205">
-        <v>130.77010000000001</v>
+        <v>130.84440000000001</v>
       </c>
       <c r="H205">
-        <v>71.627837999999997</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.625482000000005</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>43672</v>
+        <v>43679</v>
       </c>
       <c r="B206">
-        <v>273.81450000000001</v>
+        <v>276.31569999999999</v>
       </c>
       <c r="C206">
-        <v>225.4153</v>
+        <v>225.3777</v>
       </c>
       <c r="D206">
-        <v>320.51</v>
+        <v>320.04000000000002</v>
       </c>
       <c r="E206">
-        <v>3353.46</v>
+        <v>3251.15</v>
       </c>
       <c r="F206">
-        <v>7344.61</v>
+        <v>7115.79</v>
       </c>
       <c r="G206">
-        <v>130.84440000000001</v>
+        <v>130.83000000000001</v>
       </c>
       <c r="H206">
-        <v>71.625482000000005</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.622946999999996</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="B207">
-        <v>276.31569999999999</v>
+        <v>276.17950000000002</v>
       </c>
       <c r="C207">
-        <v>225.3777</v>
+        <v>225.72800000000001</v>
       </c>
       <c r="D207">
-        <v>320.04000000000002</v>
+        <v>318.27</v>
       </c>
       <c r="E207">
-        <v>3251.15</v>
+        <v>3196.53</v>
       </c>
       <c r="F207">
-        <v>7115.79</v>
+        <v>7014.06</v>
       </c>
       <c r="G207">
-        <v>130.83000000000001</v>
+        <v>130.82050000000001</v>
       </c>
       <c r="H207">
-        <v>71.622946999999996</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.620621999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>43686</v>
+        <v>43693</v>
       </c>
       <c r="B208">
-        <v>276.17950000000002</v>
+        <v>280.35399999999998</v>
       </c>
       <c r="C208">
-        <v>225.72800000000001</v>
+        <v>225.87899999999999</v>
       </c>
       <c r="D208">
-        <v>318.27</v>
+        <v>322.05</v>
       </c>
       <c r="E208">
-        <v>3196.53</v>
+        <v>3199.25</v>
       </c>
       <c r="F208">
-        <v>7014.06</v>
+        <v>7028.09</v>
       </c>
       <c r="G208">
-        <v>130.82050000000001</v>
+        <v>130.81909999999999</v>
       </c>
       <c r="H208">
-        <v>71.620621999999997</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.617838000000006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>43693</v>
+        <v>43700</v>
       </c>
       <c r="B209">
-        <v>280.35399999999998</v>
+        <v>279.67790000000002</v>
       </c>
       <c r="C209">
-        <v>225.87899999999999</v>
+        <v>226.04740000000001</v>
       </c>
       <c r="D209">
-        <v>322.05</v>
+        <v>322.27999999999997</v>
       </c>
       <c r="E209">
-        <v>3199.25</v>
+        <v>3148.45</v>
       </c>
       <c r="F209">
-        <v>7028.09</v>
+        <v>7043.18</v>
       </c>
       <c r="G209">
-        <v>130.81909999999999</v>
+        <v>130.846</v>
       </c>
       <c r="H209">
-        <v>71.617838000000006</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.614866000000006</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>43700</v>
+        <v>43707</v>
       </c>
       <c r="B210">
-        <v>279.67790000000002</v>
+        <v>281.99579999999997</v>
       </c>
       <c r="C210">
-        <v>226.04740000000001</v>
+        <v>226.1437</v>
       </c>
       <c r="D210">
-        <v>322.27999999999997</v>
+        <v>331.69</v>
       </c>
       <c r="E210">
-        <v>3148.45</v>
+        <v>3262.76</v>
       </c>
       <c r="F210">
-        <v>7043.18</v>
+        <v>7198.19</v>
       </c>
       <c r="G210">
-        <v>130.846</v>
+        <v>130.8777</v>
       </c>
       <c r="H210">
-        <v>71.614866000000006</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.610913999999994</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>43707</v>
+        <v>43714</v>
       </c>
       <c r="B211">
-        <v>281.99579999999997</v>
+        <v>281.04660000000001</v>
       </c>
       <c r="C211">
-        <v>226.1437</v>
+        <v>225.6754</v>
       </c>
       <c r="D211">
-        <v>331.69</v>
+        <v>332.93</v>
       </c>
       <c r="E211">
-        <v>3262.76</v>
+        <v>3310.15</v>
       </c>
       <c r="F211">
-        <v>7198.19</v>
+        <v>7324.52</v>
       </c>
       <c r="G211">
-        <v>130.8777</v>
+        <v>130.87360000000001</v>
       </c>
       <c r="H211">
-        <v>71.610913999999994</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.606808999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>43714</v>
+        <v>43721</v>
       </c>
       <c r="B212">
-        <v>281.04660000000001</v>
+        <v>277.70670000000001</v>
       </c>
       <c r="C212">
-        <v>225.6754</v>
+        <v>224.90379999999999</v>
       </c>
       <c r="D212">
-        <v>332.93</v>
+        <v>333.58</v>
       </c>
       <c r="E212">
-        <v>3310.15</v>
+        <v>3337.74</v>
       </c>
       <c r="F212">
-        <v>7324.52</v>
+        <v>7367.19</v>
       </c>
       <c r="G212">
-        <v>130.87360000000001</v>
+        <v>130.84780000000001</v>
       </c>
       <c r="H212">
-        <v>71.606808999999998</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.601938000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>43721</v>
+        <v>43728</v>
       </c>
       <c r="B213">
-        <v>277.70670000000001</v>
+        <v>279.06920000000002</v>
       </c>
       <c r="C213">
-        <v>224.90379999999999</v>
+        <v>224.7902</v>
       </c>
       <c r="D213">
-        <v>333.58</v>
+        <v>339.92</v>
       </c>
       <c r="E213">
-        <v>3337.74</v>
+        <v>3335.04</v>
       </c>
       <c r="F213">
-        <v>7367.19</v>
+        <v>7433.82</v>
       </c>
       <c r="G213">
-        <v>130.84780000000001</v>
+        <v>130.86330000000001</v>
       </c>
       <c r="H213">
-        <v>71.601938000000004</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.596127999999993</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>43728</v>
+        <v>43735</v>
       </c>
       <c r="B214">
-        <v>279.06920000000002</v>
+        <v>280.85610000000003</v>
       </c>
       <c r="C214">
-        <v>224.7902</v>
+        <v>225.041</v>
       </c>
       <c r="D214">
-        <v>339.92</v>
+        <v>339.59</v>
       </c>
       <c r="E214">
-        <v>3335.04</v>
+        <v>3318.18</v>
       </c>
       <c r="F214">
-        <v>7433.82</v>
+        <v>7446.58</v>
       </c>
       <c r="G214">
-        <v>130.86330000000001</v>
+        <v>130.86510000000001</v>
       </c>
       <c r="H214">
-        <v>71.596127999999993</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.590815000000006</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>43735</v>
+        <v>43742</v>
       </c>
       <c r="B215">
-        <v>280.85610000000003</v>
+        <v>280.75020000000001</v>
       </c>
       <c r="C215">
-        <v>225.041</v>
+        <v>225.17009999999999</v>
       </c>
       <c r="D215">
-        <v>339.59</v>
+        <v>338.28</v>
       </c>
       <c r="E215">
-        <v>3318.18</v>
+        <v>3319.4</v>
       </c>
       <c r="F215">
-        <v>7446.58</v>
+        <v>7224.62</v>
       </c>
       <c r="G215">
-        <v>130.86510000000001</v>
+        <v>130.8578</v>
       </c>
       <c r="H215">
-        <v>71.590815000000006</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.585594999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>43742</v>
+        <v>43749</v>
       </c>
       <c r="B216">
-        <v>280.75020000000001</v>
+        <v>278.14879999999999</v>
       </c>
       <c r="C216">
-        <v>225.17009999999999</v>
+        <v>224.87459999999999</v>
       </c>
       <c r="D216">
-        <v>338.28</v>
+        <v>336.47</v>
       </c>
       <c r="E216">
-        <v>3319.4</v>
+        <v>3327.04</v>
       </c>
       <c r="F216">
-        <v>7224.62</v>
+        <v>7424.3</v>
       </c>
       <c r="G216">
-        <v>130.8578</v>
+        <v>130.85230000000001</v>
       </c>
       <c r="H216">
-        <v>71.585594999999998</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.580543000000006</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>43749</v>
+        <v>43756</v>
       </c>
       <c r="B217">
-        <v>278.14879999999999</v>
+        <v>277.42610000000002</v>
       </c>
       <c r="C217">
-        <v>224.87459999999999</v>
+        <v>224.73580000000001</v>
       </c>
       <c r="D217">
-        <v>336.47</v>
+        <v>339.32</v>
       </c>
       <c r="E217">
-        <v>3327.04</v>
+        <v>3301.14</v>
       </c>
       <c r="F217">
-        <v>7424.3</v>
+        <v>7394.66</v>
       </c>
       <c r="G217">
-        <v>130.85230000000001</v>
+        <v>130.8535</v>
       </c>
       <c r="H217">
-        <v>71.580543000000006</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.574948000000006</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="B218">
-        <v>277.42610000000002</v>
+        <v>277.15010000000001</v>
       </c>
       <c r="C218">
-        <v>224.73580000000001</v>
+        <v>224.89089999999999</v>
       </c>
       <c r="D218">
-        <v>339.32</v>
+        <v>343</v>
       </c>
       <c r="E218">
-        <v>3301.14</v>
+        <v>3363.29</v>
       </c>
       <c r="F218">
-        <v>7394.66</v>
+        <v>7553.38</v>
       </c>
       <c r="G218">
-        <v>130.8535</v>
+        <v>130.87549999999999</v>
       </c>
       <c r="H218">
-        <v>71.574948000000006</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.569357999999994</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="B219">
-        <v>277.15010000000001</v>
+        <v>276.87720000000002</v>
       </c>
       <c r="C219">
-        <v>224.89089999999999</v>
+        <v>224.96600000000001</v>
       </c>
       <c r="D219">
-        <v>343</v>
+        <v>343.88</v>
       </c>
       <c r="E219">
-        <v>3363.29</v>
+        <v>3396.54</v>
       </c>
       <c r="F219">
-        <v>7553.38</v>
+        <v>7554.54</v>
       </c>
       <c r="G219">
-        <v>130.87549999999999</v>
+        <v>130.869</v>
       </c>
       <c r="H219">
-        <v>71.569357999999994</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.564513000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="B220">
-        <v>276.87720000000002</v>
+        <v>274.40050000000002</v>
       </c>
       <c r="C220">
-        <v>224.96600000000001</v>
+        <v>224.71459999999999</v>
       </c>
       <c r="D220">
-        <v>343.88</v>
+        <v>339.88</v>
       </c>
       <c r="E220">
-        <v>3396.54</v>
+        <v>3476.61</v>
       </c>
       <c r="F220">
-        <v>7554.54</v>
+        <v>7681.76</v>
       </c>
       <c r="G220">
-        <v>130.869</v>
+        <v>130.8734</v>
       </c>
       <c r="H220">
-        <v>71.564513000000005</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.55762</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="B221">
-        <v>274.40050000000002</v>
+        <v>274.87909999999999</v>
       </c>
       <c r="C221">
-        <v>224.71459999999999</v>
+        <v>224.77590000000001</v>
       </c>
       <c r="D221">
-        <v>339.88</v>
+        <v>336.64</v>
       </c>
       <c r="E221">
-        <v>3476.61</v>
+        <v>3496.19</v>
       </c>
       <c r="F221">
-        <v>7681.76</v>
+        <v>7686.65</v>
       </c>
       <c r="G221">
-        <v>130.8734</v>
+        <v>130.86519999999999</v>
       </c>
       <c r="H221">
-        <v>71.55762</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.551754000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="B222">
-        <v>274.87909999999999</v>
+        <v>275.42349999999999</v>
       </c>
       <c r="C222">
-        <v>224.77590000000001</v>
+        <v>224.58590000000001</v>
       </c>
       <c r="D222">
-        <v>336.64</v>
+        <v>338.2</v>
       </c>
       <c r="E222">
-        <v>3496.19</v>
+        <v>3496.1</v>
       </c>
       <c r="F222">
-        <v>7686.65</v>
+        <v>7652.77</v>
       </c>
       <c r="G222">
-        <v>130.86519999999999</v>
+        <v>130.8433</v>
       </c>
       <c r="H222">
-        <v>71.551754000000003</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.545930999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="B223">
-        <v>275.42349999999999</v>
+        <v>275.2439</v>
       </c>
       <c r="C223">
-        <v>224.58590000000001</v>
+        <v>224.7285</v>
       </c>
       <c r="D223">
-        <v>338.2</v>
+        <v>337.24</v>
       </c>
       <c r="E223">
-        <v>3496.1</v>
+        <v>3540.12</v>
       </c>
       <c r="F223">
-        <v>7652.77</v>
+        <v>7708.5</v>
       </c>
       <c r="G223">
-        <v>130.8433</v>
+        <v>130.8518</v>
       </c>
       <c r="H223">
-        <v>71.545930999999996</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.539766</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="B224">
-        <v>275.2439</v>
+        <v>273.60739999999998</v>
       </c>
       <c r="C224">
-        <v>224.7285</v>
+        <v>224.7637</v>
       </c>
       <c r="D224">
-        <v>337.24</v>
+        <v>335.82</v>
       </c>
       <c r="E224">
-        <v>3540.12</v>
+        <v>3536.5</v>
       </c>
       <c r="F224">
-        <v>7708.5</v>
+        <v>7688.25</v>
       </c>
       <c r="G224">
-        <v>130.8518</v>
+        <v>130.84950000000001</v>
       </c>
       <c r="H224">
-        <v>71.539766</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.533507</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="B225">
-        <v>273.60739999999998</v>
+        <v>274.75900000000001</v>
       </c>
       <c r="C225">
-        <v>224.7637</v>
+        <v>225.06620000000001</v>
       </c>
       <c r="D225">
-        <v>335.82</v>
+        <v>339.98</v>
       </c>
       <c r="E225">
-        <v>3536.5</v>
+        <v>3537.09</v>
       </c>
       <c r="F225">
-        <v>7688.25</v>
+        <v>7754.61</v>
       </c>
       <c r="G225">
-        <v>130.84950000000001</v>
+        <v>130.88890000000001</v>
       </c>
       <c r="H225">
-        <v>71.533507</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.527299999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="B226">
-        <v>274.75900000000001</v>
+        <v>273.61009999999999</v>
       </c>
       <c r="C226">
-        <v>225.06620000000001</v>
+        <v>225.13239999999999</v>
       </c>
       <c r="D226">
-        <v>339.98</v>
+        <v>339.27</v>
       </c>
       <c r="E226">
-        <v>3537.09</v>
+        <v>3613.06</v>
       </c>
       <c r="F226">
-        <v>7754.61</v>
+        <v>7910.74</v>
       </c>
       <c r="G226">
-        <v>130.88890000000001</v>
+        <v>130.89060000000001</v>
       </c>
       <c r="H226">
-        <v>71.527299999999997</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.521100000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="B227">
-        <v>273.61009999999999</v>
+        <v>273.87709999999998</v>
       </c>
       <c r="C227">
-        <v>225.13239999999999</v>
+        <v>225.10900000000001</v>
       </c>
       <c r="D227">
-        <v>339.27</v>
+        <v>339.4</v>
       </c>
       <c r="E227">
-        <v>3613.06</v>
+        <v>3622.88</v>
       </c>
       <c r="F227">
-        <v>7910.74</v>
+        <v>7922.15</v>
       </c>
       <c r="G227">
-        <v>130.89060000000001</v>
+        <v>130.88839999999999</v>
       </c>
       <c r="H227">
-        <v>71.521100000000004</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.515199999999993</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>43826</v>
+        <v>43833</v>
       </c>
       <c r="B228">
-        <v>273.87709999999998</v>
+        <v>274.37939999999998</v>
       </c>
       <c r="C228">
-        <v>225.10900000000001</v>
+        <v>225.2302</v>
       </c>
       <c r="D228">
-        <v>339.4</v>
+        <v>339.44</v>
       </c>
       <c r="E228">
-        <v>3622.88</v>
+        <v>3620.8</v>
       </c>
       <c r="F228">
-        <v>7922.15</v>
+        <v>7906.94</v>
       </c>
       <c r="G228">
-        <v>130.88839999999999</v>
+        <v>130.89420000000001</v>
       </c>
       <c r="H228">
-        <v>71.515199999999993</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.509399999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>43833</v>
+        <v>43840</v>
       </c>
       <c r="B229">
-        <v>274.37939999999998</v>
+        <v>273.61630000000002</v>
       </c>
       <c r="C229">
-        <v>225.2302</v>
+        <v>224.9716</v>
       </c>
       <c r="D229">
-        <v>339.44</v>
+        <v>340.48</v>
       </c>
       <c r="E229">
-        <v>3620.8</v>
+        <v>3681.77</v>
       </c>
       <c r="F229">
-        <v>7906.94</v>
+        <v>7921.99</v>
       </c>
       <c r="G229">
-        <v>130.89420000000001</v>
+        <v>130.91220000000001</v>
       </c>
       <c r="H229">
-        <v>71.509399999999999</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.504000000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <v>43840</v>
+        <v>43847</v>
       </c>
       <c r="B230">
-        <v>273.61630000000002</v>
+        <v>273.30520000000001</v>
       </c>
       <c r="C230">
-        <v>224.9716</v>
+        <v>225.125</v>
       </c>
       <c r="D230">
-        <v>340.48</v>
+        <v>339.37</v>
       </c>
       <c r="E230">
-        <v>3681.77</v>
+        <v>3758.81</v>
       </c>
       <c r="F230">
-        <v>7921.99</v>
+        <v>8022.44</v>
       </c>
       <c r="G230">
-        <v>130.91220000000001</v>
+        <v>130.95259999999999</v>
       </c>
       <c r="H230">
-        <v>71.504000000000005</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.498199999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>43847</v>
+        <v>43854</v>
       </c>
       <c r="B231">
-        <v>273.30520000000001</v>
+        <v>275.80990000000003</v>
       </c>
       <c r="C231">
-        <v>225.125</v>
+        <v>225.53710000000001</v>
       </c>
       <c r="D231">
-        <v>339.37</v>
+        <v>342.51</v>
       </c>
       <c r="E231">
-        <v>3758.81</v>
+        <v>3753.6</v>
       </c>
       <c r="F231">
-        <v>8022.44</v>
+        <v>7997.96</v>
       </c>
       <c r="G231">
-        <v>130.95259999999999</v>
+        <v>130.9812</v>
       </c>
       <c r="H231">
-        <v>71.498199999999997</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.492099999999994</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>43854</v>
+        <v>43861</v>
       </c>
       <c r="B232">
-        <v>275.80990000000003</v>
+        <v>279.32530000000003</v>
       </c>
       <c r="C232">
-        <v>225.53710000000001</v>
+        <v>225.87350000000001</v>
       </c>
       <c r="D232">
-        <v>342.51</v>
+        <v>346.67</v>
       </c>
       <c r="E232">
-        <v>3753.6</v>
+        <v>3675.54</v>
       </c>
       <c r="F232">
-        <v>7997.96</v>
+        <v>7756.31</v>
       </c>
       <c r="G232">
-        <v>130.9812</v>
+        <v>130.99420000000001</v>
       </c>
       <c r="H232">
-        <v>71.492099999999994</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.4863</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>43861</v>
+        <v>43868</v>
       </c>
       <c r="B233">
-        <v>279.32530000000003</v>
+        <v>278.26429999999999</v>
       </c>
       <c r="C233">
-        <v>225.87350000000001</v>
+        <v>225.7929</v>
       </c>
       <c r="D233">
-        <v>346.67</v>
+        <v>350.32</v>
       </c>
       <c r="E233">
-        <v>3675.54</v>
+        <v>3850.5</v>
       </c>
       <c r="F233">
-        <v>7756.31</v>
+        <v>8038.92</v>
       </c>
       <c r="G233">
-        <v>130.99420000000001</v>
+        <v>131.02529999999999</v>
       </c>
       <c r="H233">
-        <v>71.4863</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.480900000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>43868</v>
+        <v>43875</v>
       </c>
       <c r="B234">
-        <v>278.26429999999999</v>
+        <v>278.98250000000002</v>
       </c>
       <c r="C234">
-        <v>225.7929</v>
+        <v>225.96289999999999</v>
       </c>
       <c r="D234">
-        <v>350.32</v>
+        <v>353.8</v>
       </c>
       <c r="E234">
-        <v>3850.5</v>
+        <v>3941.79</v>
       </c>
       <c r="F234">
-        <v>8038.92</v>
+        <v>8102.33</v>
       </c>
       <c r="G234">
-        <v>131.02529999999999</v>
+        <v>131.0641</v>
       </c>
       <c r="H234">
-        <v>71.480900000000005</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.475399999999993</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>43875</v>
+        <v>43882</v>
       </c>
       <c r="B235">
-        <v>278.98250000000002</v>
+        <v>280.23649999999998</v>
       </c>
       <c r="C235">
-        <v>225.96289999999999</v>
+        <v>225.99109999999999</v>
       </c>
       <c r="D235">
-        <v>353.8</v>
+        <v>353.63</v>
       </c>
       <c r="E235">
-        <v>3941.79</v>
+        <v>3879.74</v>
       </c>
       <c r="F235">
-        <v>8102.33</v>
+        <v>8070.49</v>
       </c>
       <c r="G235">
-        <v>131.0641</v>
+        <v>131.0712</v>
       </c>
       <c r="H235">
-        <v>71.475399999999993</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.470200000000006</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>43882</v>
+        <v>43889</v>
       </c>
       <c r="B236">
-        <v>280.23649999999998</v>
+        <v>280.66640000000001</v>
       </c>
       <c r="C236">
-        <v>225.99109999999999</v>
+        <v>225.26349999999999</v>
       </c>
       <c r="D236">
-        <v>353.63</v>
+        <v>345</v>
       </c>
       <c r="E236">
-        <v>3879.74</v>
+        <v>3402.54</v>
       </c>
       <c r="F236">
-        <v>8070.49</v>
+        <v>7087.72</v>
       </c>
       <c r="G236">
-        <v>131.0712</v>
+        <v>130.892</v>
       </c>
       <c r="H236">
-        <v>71.470200000000006</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.4649</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>43889</v>
+        <v>43896</v>
       </c>
       <c r="B237">
-        <v>280.66640000000001</v>
+        <v>282.67739999999998</v>
       </c>
       <c r="C237">
-        <v>225.26349999999999</v>
+        <v>225.04730000000001</v>
       </c>
       <c r="D237">
-        <v>345</v>
+        <v>343.03</v>
       </c>
       <c r="E237">
-        <v>3402.54</v>
+        <v>3336.55</v>
       </c>
       <c r="F237">
-        <v>7087.72</v>
+        <v>6997.09</v>
       </c>
       <c r="G237">
-        <v>130.892</v>
+        <v>130.7878</v>
       </c>
       <c r="H237">
-        <v>71.4649</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.460999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>43896</v>
+        <v>43903</v>
       </c>
       <c r="B238">
-        <v>282.67739999999998</v>
+        <v>274.96289999999999</v>
       </c>
       <c r="C238">
-        <v>225.04730000000001</v>
+        <v>221.5635</v>
       </c>
       <c r="D238">
-        <v>343.03</v>
+        <v>330.63</v>
       </c>
       <c r="E238">
-        <v>3336.55</v>
+        <v>3192.47</v>
       </c>
       <c r="F238">
-        <v>6997.09</v>
+        <v>5790.98</v>
       </c>
       <c r="G238">
-        <v>130.7878</v>
+        <v>129.86359999999999</v>
       </c>
       <c r="H238">
-        <v>71.460999999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.4572</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="B239">
-        <v>274.96289999999999</v>
+        <v>272.88990000000001</v>
       </c>
       <c r="C239">
-        <v>221.5635</v>
+        <v>215.24709999999999</v>
       </c>
       <c r="D239">
-        <v>330.63</v>
+        <v>321.23</v>
       </c>
       <c r="E239">
-        <v>3192.47</v>
+        <v>2854.23</v>
       </c>
       <c r="F239">
-        <v>5790.98</v>
+        <v>5809.65</v>
       </c>
       <c r="G239">
-        <v>129.86359999999999</v>
+        <v>128.31030000000001</v>
       </c>
       <c r="H239">
-        <v>71.4572</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.446700000000007</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>43910</v>
+        <v>43917</v>
       </c>
       <c r="B240">
-        <v>272.88990000000001</v>
+        <v>275.55360000000002</v>
       </c>
       <c r="C240">
-        <v>215.24709999999999</v>
+        <v>215.30340000000001</v>
       </c>
       <c r="D240">
-        <v>321.23</v>
+        <v>342.83</v>
       </c>
       <c r="E240">
-        <v>2854.23</v>
+        <v>2996.72</v>
       </c>
       <c r="F240">
-        <v>5809.65</v>
+        <v>6139.83</v>
       </c>
       <c r="G240">
-        <v>128.31030000000001</v>
+        <v>127.483</v>
       </c>
       <c r="H240">
-        <v>71.446700000000007</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.436400000000006</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>43917</v>
+        <v>43924</v>
       </c>
       <c r="B241">
-        <v>275.55360000000002</v>
+        <v>272.84480000000002</v>
       </c>
       <c r="C241">
-        <v>215.30340000000001</v>
+        <v>215.35319999999999</v>
       </c>
       <c r="D241">
-        <v>342.83</v>
+        <v>334.81</v>
       </c>
       <c r="E241">
-        <v>2996.72</v>
+        <v>3052.89</v>
       </c>
       <c r="F241">
-        <v>6139.83</v>
+        <v>6211.22</v>
       </c>
       <c r="G241">
-        <v>127.483</v>
+        <v>127.6178</v>
       </c>
       <c r="H241">
-        <v>71.436400000000006</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.424599999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>43924</v>
+        <v>43931</v>
       </c>
       <c r="B242">
-        <v>272.84480000000002</v>
+        <v>271.64080000000001</v>
       </c>
       <c r="C242">
-        <v>215.35319999999999</v>
+        <v>217.34010000000001</v>
       </c>
       <c r="D242">
-        <v>334.81</v>
+        <v>337.72</v>
       </c>
       <c r="E242">
-        <v>3052.89</v>
+        <v>3322.14</v>
       </c>
       <c r="F242">
-        <v>6211.22</v>
+        <v>6498.99</v>
       </c>
       <c r="G242">
-        <v>127.6178</v>
+        <v>128.15129999999999</v>
       </c>
       <c r="H242">
-        <v>71.424599999999998</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.416200000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="B243">
-        <v>271.64080000000001</v>
+        <v>272.33539999999999</v>
       </c>
       <c r="C243">
-        <v>217.34010000000001</v>
+        <v>218.42509999999999</v>
       </c>
       <c r="D243">
-        <v>337.72</v>
+        <v>330.25</v>
       </c>
       <c r="E243">
-        <v>3322.14</v>
+        <v>3488.46</v>
       </c>
       <c r="F243">
-        <v>6498.99</v>
+        <v>6574.81</v>
       </c>
       <c r="G243">
-        <v>128.15129999999999</v>
+        <v>128.4494</v>
       </c>
       <c r="H243">
-        <v>71.416200000000003</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.407899999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
-        <v>43938</v>
+        <v>43945</v>
       </c>
       <c r="B244">
-        <v>272.33539999999999</v>
+        <v>271.51609999999999</v>
       </c>
       <c r="C244">
-        <v>218.42509999999999</v>
+        <v>218.7484</v>
       </c>
       <c r="D244">
-        <v>330.25</v>
+        <v>324.98</v>
       </c>
       <c r="E244">
-        <v>3488.46</v>
+        <v>3478.25</v>
       </c>
       <c r="F244">
-        <v>6574.81</v>
+        <v>6519.57</v>
       </c>
       <c r="G244">
-        <v>128.4494</v>
+        <v>128.50579999999999</v>
       </c>
       <c r="H244">
-        <v>71.407899999999998</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.4011</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
-        <v>43945</v>
+        <v>43952</v>
       </c>
       <c r="B245">
-        <v>271.51609999999999</v>
+        <v>274.76870000000002</v>
       </c>
       <c r="C245">
-        <v>218.7484</v>
+        <v>219.7508</v>
       </c>
       <c r="D245">
-        <v>324.98</v>
+        <v>329.61</v>
       </c>
       <c r="E245">
-        <v>3478.25</v>
+        <v>3407.72</v>
       </c>
       <c r="F245">
-        <v>6519.57</v>
+        <v>6602.64</v>
       </c>
       <c r="G245">
-        <v>128.50579999999999</v>
+        <v>128.69579999999999</v>
       </c>
       <c r="H245">
-        <v>71.4011</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.395600000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
-        <v>43952</v>
+        <v>43959</v>
       </c>
       <c r="B246">
-        <v>274.76870000000002</v>
+        <v>272.43720000000002</v>
       </c>
       <c r="C246">
-        <v>219.7508</v>
+        <v>219.33179999999999</v>
       </c>
       <c r="D246">
-        <v>329.61</v>
+        <v>328.91</v>
       </c>
       <c r="E246">
-        <v>3407.72</v>
+        <v>3579.2</v>
       </c>
       <c r="F246">
-        <v>6602.64</v>
+        <v>6678.87</v>
       </c>
       <c r="G246">
-        <v>128.69579999999999</v>
+        <v>128.72380000000001</v>
       </c>
       <c r="H246">
-        <v>71.395600000000002</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.386600000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B247">
-        <v>272.43720000000002</v>
+        <v>272.92320000000001</v>
       </c>
       <c r="C247">
-        <v>219.33179999999999</v>
+        <v>218.66659999999999</v>
       </c>
       <c r="D247">
-        <v>328.91</v>
+        <v>332.41</v>
       </c>
       <c r="E247">
-        <v>3579.2</v>
+        <v>3548.27</v>
       </c>
       <c r="F247">
-        <v>6678.87</v>
+        <v>6478.22</v>
       </c>
       <c r="G247">
-        <v>128.72380000000001</v>
+        <v>128.74039999999999</v>
       </c>
       <c r="H247">
-        <v>71.386600000000001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.3797</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
-        <v>43966</v>
+        <v>43973</v>
       </c>
       <c r="B248">
-        <v>272.92320000000001</v>
+        <v>274.22019999999998</v>
       </c>
       <c r="C248">
-        <v>218.66659999999999</v>
+        <v>219.32169999999999</v>
       </c>
       <c r="D248">
-        <v>332.41</v>
+        <v>341.45</v>
       </c>
       <c r="E248">
-        <v>3548.27</v>
+        <v>3617.36</v>
       </c>
       <c r="F248">
-        <v>6478.22</v>
+        <v>6646.6</v>
       </c>
       <c r="G248">
-        <v>128.74039999999999</v>
+        <v>128.9127</v>
       </c>
       <c r="H248">
-        <v>71.3797</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.374600000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="B249">
-        <v>274.22019999999998</v>
+        <v>275.3408</v>
       </c>
       <c r="C249">
-        <v>219.32169999999999</v>
+        <v>220.49359999999999</v>
       </c>
       <c r="D249">
-        <v>341.45</v>
+        <v>346.26</v>
       </c>
       <c r="E249">
-        <v>3617.36</v>
+        <v>3604.78</v>
       </c>
       <c r="F249">
-        <v>6646.6</v>
+        <v>6776.75</v>
       </c>
       <c r="G249">
-        <v>128.9127</v>
+        <v>129.25280000000001</v>
       </c>
       <c r="H249">
-        <v>71.374600000000001</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.370199999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
-        <v>43980</v>
+        <v>43987</v>
       </c>
       <c r="B250">
-        <v>275.3408</v>
+        <v>273.35570000000001</v>
       </c>
       <c r="C250">
-        <v>220.49359999999999</v>
+        <v>222.50710000000001</v>
       </c>
       <c r="D250">
-        <v>346.26</v>
+        <v>350.93</v>
       </c>
       <c r="E250">
-        <v>3604.78</v>
+        <v>3680.09</v>
       </c>
       <c r="F250">
-        <v>6776.75</v>
+        <v>7231.03</v>
       </c>
       <c r="G250">
-        <v>129.25280000000001</v>
+        <v>129.8039</v>
       </c>
       <c r="H250">
-        <v>71.370199999999997</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.365200000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
-        <v>43987</v>
+        <v>43994</v>
       </c>
       <c r="B251">
-        <v>273.35570000000001</v>
+        <v>275.63839999999999</v>
       </c>
       <c r="C251">
-        <v>222.50710000000001</v>
+        <v>222.25700000000001</v>
       </c>
       <c r="D251">
-        <v>350.93</v>
+        <v>352.13</v>
       </c>
       <c r="E251">
-        <v>3680.09</v>
+        <v>3580.85</v>
       </c>
       <c r="F251">
-        <v>7231.03</v>
+        <v>6875.07</v>
       </c>
       <c r="G251">
-        <v>129.8039</v>
+        <v>129.81899999999999</v>
       </c>
       <c r="H251">
-        <v>71.365200000000002</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.360500000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
-        <v>43994</v>
+        <v>44001</v>
       </c>
       <c r="B252">
-        <v>275.63839999999999</v>
+        <v>276.96030000000002</v>
       </c>
       <c r="C252">
-        <v>222.25700000000001</v>
+        <v>222.44990000000001</v>
       </c>
       <c r="D252">
-        <v>352.13</v>
+        <v>354.61</v>
       </c>
       <c r="E252">
-        <v>3580.85</v>
+        <v>3679.67</v>
       </c>
       <c r="F252">
-        <v>6875.07</v>
+        <v>7153.08</v>
       </c>
       <c r="G252">
-        <v>129.81899999999999</v>
+        <v>129.96199999999999</v>
       </c>
       <c r="H252">
-        <v>71.360500000000002</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.358000000000004</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
-        <v>44001</v>
+        <v>44008</v>
       </c>
       <c r="B253">
-        <v>276.96030000000002</v>
+        <v>278.12880000000001</v>
       </c>
       <c r="C253">
-        <v>222.44990000000001</v>
+        <v>222.41640000000001</v>
       </c>
       <c r="D253">
-        <v>354.61</v>
+        <v>354.54</v>
       </c>
       <c r="E253">
-        <v>3679.67</v>
+        <v>3590.99</v>
       </c>
       <c r="F253">
-        <v>7153.08</v>
+        <v>6997.24</v>
       </c>
       <c r="G253">
-        <v>129.96199999999999</v>
+        <v>129.95580000000001</v>
       </c>
       <c r="H253">
-        <v>71.358000000000004</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.357600000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
-        <v>44008</v>
+        <v>44015</v>
       </c>
       <c r="B254">
-        <v>278.12880000000001</v>
+        <v>277.71699999999998</v>
       </c>
       <c r="C254">
-        <v>222.41640000000001</v>
+        <v>222.68299999999999</v>
       </c>
       <c r="D254">
-        <v>354.54</v>
+        <v>358.31</v>
       </c>
       <c r="E254">
-        <v>3590.99</v>
+        <v>3726.94</v>
       </c>
       <c r="F254">
-        <v>6997.24</v>
+        <v>7104.25</v>
       </c>
       <c r="G254">
-        <v>129.95580000000001</v>
+        <v>130.0318</v>
       </c>
       <c r="H254">
-        <v>71.357600000000005</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.356700000000004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
-        <v>44015</v>
+        <v>44022</v>
       </c>
       <c r="B255">
-        <v>277.71699999999998</v>
+        <v>278.91800000000001</v>
       </c>
       <c r="C255">
-        <v>222.68299999999999</v>
+        <v>222.93729999999999</v>
       </c>
       <c r="D255">
-        <v>358.31</v>
+        <v>357.06</v>
       </c>
       <c r="E255">
-        <v>3726.94</v>
+        <v>3825.2</v>
       </c>
       <c r="F255">
-        <v>7104.25</v>
+        <v>7132.95</v>
       </c>
       <c r="G255">
-        <v>130.0318</v>
+        <v>130.108</v>
       </c>
       <c r="H255">
-        <v>71.356700000000004</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.354900000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
-        <v>44022</v>
+        <v>44029</v>
       </c>
       <c r="B256">
-        <v>278.91800000000001</v>
+        <v>278.83190000000002</v>
       </c>
       <c r="C256">
-        <v>222.93729999999999</v>
+        <v>223.42500000000001</v>
       </c>
       <c r="D256">
-        <v>357.06</v>
+        <v>355.68</v>
       </c>
       <c r="E256">
-        <v>3825.2</v>
+        <v>3773.61</v>
       </c>
       <c r="F256">
-        <v>7132.95</v>
+        <v>7247.92</v>
       </c>
       <c r="G256">
-        <v>130.108</v>
+        <v>130.2243</v>
       </c>
       <c r="H256">
-        <v>71.354900000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.353200000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
-        <v>44029</v>
+        <v>44036</v>
       </c>
       <c r="B257">
-        <v>278.83190000000002</v>
+        <v>279.86559999999997</v>
       </c>
       <c r="C257">
-        <v>223.42500000000001</v>
+        <v>224.05520000000001</v>
       </c>
       <c r="D257">
-        <v>355.68</v>
+        <v>359.2</v>
       </c>
       <c r="E257">
-        <v>3773.61</v>
+        <v>3683.24</v>
       </c>
       <c r="F257">
-        <v>7247.92</v>
+        <v>7081.44</v>
       </c>
       <c r="G257">
-        <v>130.2243</v>
+        <v>130.3586</v>
       </c>
       <c r="H257">
-        <v>71.353200000000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.353399999999993</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
-        <v>44036</v>
+        <v>44043</v>
       </c>
       <c r="B258">
-        <v>279.86559999999997</v>
+        <v>281.0258</v>
       </c>
       <c r="C258">
-        <v>224.05520000000001</v>
+        <v>224.35040000000001</v>
       </c>
       <c r="D258">
-        <v>359.2</v>
+        <v>359</v>
       </c>
       <c r="E258">
-        <v>3683.24</v>
+        <v>3714.12</v>
       </c>
       <c r="F258">
-        <v>7081.44</v>
+        <v>6853.78</v>
       </c>
       <c r="G258">
-        <v>130.3586</v>
+        <v>130.38659999999999</v>
       </c>
       <c r="H258">
-        <v>71.353399999999993</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.350399999999993</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
-        <v>44043</v>
+        <v>44050</v>
       </c>
       <c r="B259">
-        <v>281.0258</v>
+        <v>281.70249999999999</v>
       </c>
       <c r="C259">
-        <v>224.35040000000001</v>
+        <v>224.58690000000001</v>
       </c>
       <c r="D259">
-        <v>359</v>
+        <v>360.59</v>
       </c>
       <c r="E259">
-        <v>3714.12</v>
+        <v>3833.99</v>
       </c>
       <c r="F259">
-        <v>6853.78</v>
+        <v>6937.99</v>
       </c>
       <c r="G259">
-        <v>130.38659999999999</v>
+        <v>130.45650000000001</v>
       </c>
       <c r="H259">
-        <v>71.350399999999993</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.346900000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
-        <v>44050</v>
+        <v>44057</v>
       </c>
       <c r="B260">
-        <v>281.70249999999999</v>
+        <v>279.79680000000002</v>
       </c>
       <c r="C260">
-        <v>224.58690000000001</v>
+        <v>224.78450000000001</v>
       </c>
       <c r="D260">
-        <v>360.59</v>
+        <v>357.23</v>
       </c>
       <c r="E260">
-        <v>3833.99</v>
+        <v>3838.12</v>
       </c>
       <c r="F260">
-        <v>6937.99</v>
+        <v>7025.75</v>
       </c>
       <c r="G260">
-        <v>130.45650000000001</v>
+        <v>130.55889999999999</v>
       </c>
       <c r="H260">
-        <v>71.346900000000005</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.342500000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B261">
-        <v>279.79680000000002</v>
+        <v>281.33999999999997</v>
       </c>
       <c r="C261">
-        <v>224.78450000000001</v>
+        <v>225.12739999999999</v>
       </c>
       <c r="D261">
-        <v>357.23</v>
+        <v>357.96</v>
       </c>
       <c r="E261">
-        <v>3838.12</v>
+        <v>3933.6</v>
       </c>
       <c r="F261">
-        <v>7025.75</v>
+        <v>6977.53</v>
       </c>
       <c r="G261">
-        <v>130.55889999999999</v>
+        <v>130.57079999999999</v>
       </c>
       <c r="H261">
-        <v>71.342500000000001</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.337699999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
-        <v>44064</v>
+        <v>44071</v>
       </c>
       <c r="B262">
-        <v>281.33999999999997</v>
+        <v>279.18430000000001</v>
       </c>
       <c r="C262">
-        <v>225.12739999999999</v>
+        <v>224.95750000000001</v>
       </c>
       <c r="D262">
-        <v>357.96</v>
+        <v>357.49</v>
       </c>
       <c r="E262">
-        <v>3933.6</v>
+        <v>4055.59</v>
       </c>
       <c r="F262">
-        <v>6977.53</v>
+        <v>7018.81</v>
       </c>
       <c r="G262">
-        <v>130.57079999999999</v>
+        <v>130.60390000000001</v>
       </c>
       <c r="H262">
-        <v>71.337699999999998</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71.333799999999997</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
-        <v>44071</v>
+        <v>44075</v>
       </c>
       <c r="B263">
-        <v>279.18430000000001</v>
+        <v>278.82979999999998</v>
       </c>
       <c r="C263">
-        <v>224.95750000000001</v>
+        <v>224.9256</v>
       </c>
       <c r="D263">
-        <v>357.49</v>
+        <v>357.57</v>
       </c>
       <c r="E263">
-        <v>4055.59</v>
+        <v>4033.37</v>
       </c>
       <c r="F263">
-        <v>7018.81</v>
+        <v>6993.88</v>
       </c>
       <c r="G263">
-        <v>130.60390000000001</v>
+        <v>130.6097</v>
       </c>
       <c r="H263">
-        <v>71.333799999999997</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B264">
-        <v>278.82979999999998</v>
-      </c>
-      <c r="C264">
-        <v>224.9256</v>
-      </c>
-      <c r="D264">
-        <v>357.57</v>
-      </c>
-      <c r="E264">
-        <v>4033.37</v>
-      </c>
-      <c r="F264">
-        <v>6993.88</v>
-      </c>
-      <c r="G264">
-        <v>130.6097</v>
-      </c>
-      <c r="H264">
         <v>71.331599999999995</v>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7302,7 +7302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanos\Documents\GitHub\Iolcus-Investments\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Επενδυτική Επιτροπή\Ap GM Black Litterman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59110F-F6BF-4FF6-B78A-E6FC726621D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B12F512-6605-47E0-A486-DF1341CF67D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="5380" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="960" windowWidth="22470" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,18 +433,18 @@
   <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42251</v>
       </c>
@@ -493,7 +493,7 @@
         <v>72.243133999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42258</v>
       </c>
@@ -519,7 +519,7 @@
         <v>72.242783000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42265</v>
       </c>
@@ -545,7 +545,7 @@
         <v>72.242348000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42272</v>
       </c>
@@ -571,7 +571,7 @@
         <v>72.241912999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42279</v>
       </c>
@@ -597,7 +597,7 @@
         <v>72.241478000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42286</v>
       </c>
@@ -623,7 +623,7 @@
         <v>72.241028</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42293</v>
       </c>
@@ -649,7 +649,7 @@
         <v>72.240547000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42300</v>
       </c>
@@ -675,7 +675,7 @@
         <v>72.240059000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42307</v>
       </c>
@@ -701,7 +701,7 @@
         <v>72.239570999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42314</v>
       </c>
@@ -727,7 +727,7 @@
         <v>72.239081999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42321</v>
       </c>
@@ -753,7 +753,7 @@
         <v>72.238594000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42328</v>
       </c>
@@ -779,7 +779,7 @@
         <v>72.238135999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42335</v>
       </c>
@@ -805,7 +805,7 @@
         <v>72.237701000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42342</v>
       </c>
@@ -831,7 +831,7 @@
         <v>72.237281999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42349</v>
       </c>
@@ -857,7 +857,7 @@
         <v>72.236687000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42356</v>
       </c>
@@ -883,7 +883,7 @@
         <v>72.235695000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42363</v>
       </c>
@@ -909,7 +909,7 @@
         <v>72.234848</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42370</v>
       </c>
@@ -935,7 +935,7 @@
         <v>72.233856000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42377</v>
       </c>
@@ -961,7 +961,7 @@
         <v>72.232719000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42384</v>
       </c>
@@ -987,7 +987,7 @@
         <v>72.231719999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42391</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>72.230727999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42398</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>72.229729000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42405</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>72.228722000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42412</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>72.227722</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42419</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>72.226730000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42426</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>72.225730999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42433</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>72.225441000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42440</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>72.224907000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42447</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>72.223770000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42454</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>72.222313</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42461</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>72.220375000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42468</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>72.218673999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42475</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>72.216980000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42482</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>72.215286000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42489</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>72.213584999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42496</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>72.211890999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42503</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>72.210196999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42510</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>72.208504000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42517</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>72.206801999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42524</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>72.205185</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42531</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>72.204375999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42538</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>72.204361000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42545</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>72.204346000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42552</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>72.204338000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42559</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>72.204329999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42566</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>72.204314999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42573</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>72.204307999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42580</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>72.204291999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42587</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>72.204284999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42594</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>72.204277000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42601</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>72.204262</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42608</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>72.204254000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42615</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>72.203536999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42622</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>72.202826999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42629</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>72.202515000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42636</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>72.202499000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42643</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>72.202492000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42650</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>72.202354</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42657</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>72.202158999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42664</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>72.201981000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42671</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>72.201824000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42678</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>72.201849999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42685</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>72.202017999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42692</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>72.202152999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42699</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>72.202280999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42706</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>72.202425000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42713</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>72.201642000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42720</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>72.199967000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42727</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>72.197470999999993</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42734</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>72.195199000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42741</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>72.192333000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42748</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>72.189378000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42755</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>72.186423000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42762</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>72.183468000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42769</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>72.180352999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42776</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>72.177116999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42783</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>72.173879999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42790</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>72.170643999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42797</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>72.167410000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42804</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>72.164175</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42811</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>72.160939999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42818</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>72.157786000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42825</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>72.154831000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42832</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>72.151895999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42839</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>72.149483000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42846</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>72.146826000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42853</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>72.144712999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42860</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>72.142599000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42867</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>72.140485999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42874</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>72.138373000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42881</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>72.136539999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42888</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>72.134705999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42895</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>72.132872000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42902</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>72.131039000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42909</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>72.129227</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42916</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>72.126652000000007</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42923</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>72.123977999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42930</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>72.120341999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42937</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>72.116546999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42944</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>72.11233</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42951</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>72.108114999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42958</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>72.103898999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42965</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>72.099683999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42972</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>72.095467999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42979</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>72.091252999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42986</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>72.087038000000007</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42993</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>72.082823000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43000</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>72.078608000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43007</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>72.074265999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43014</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>72.069584000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43021</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>72.064783000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43028</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>72.059984</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43035</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>72.055183999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43042</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>72.050385000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43049</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>72.045586</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43056</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>72.040786999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43063</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>72.035989000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43070</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>72.031352999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43077</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>72.026695000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43084</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>72.021996000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43091</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>72.017296999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43098</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>72.012597999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43105</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>72.007900000000006</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43112</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>72.003201000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43119</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>71.998503999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43126</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>71.993806000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43133</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>71.989108999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43140</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>71.984412000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43147</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>71.979714999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43154</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>71.975019000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43161</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>71.970322999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43168</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>71.965626999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43175</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>71.960772000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43182</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>71.955444</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43189</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>71.950757999999993</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43196</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>71.944348000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43203</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>71.938743000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43210</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>71.933138</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43217</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>71.927532999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43224</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>71.921848999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43231</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>71.915965</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43238</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>71.910083</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43245</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>71.904200000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43252</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>71.898319000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43259</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>71.892437999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43266</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>71.886317000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43273</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>71.880018000000007</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43280</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>71.873720000000006</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43287</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>71.868118999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43294</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>71.862520000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43301</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>71.856921</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43308</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>71.851321999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43315</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>71.845723000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43322</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>71.840125999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43329</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>71.834529000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43336</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>71.828931999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43343</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>71.823356000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43350</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>71.817980000000006</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43357</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>71.812803000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43364</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>71.807568000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43371</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>71.802252999999993</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43378</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>71.796937999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43385</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>71.791763000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43392</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>71.786637999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43399</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>71.781474000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43406</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>71.776257000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43413</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>71.771229000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43420</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>71.766202000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43427</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>71.761365999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43434</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>71.756748000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43441</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>71.752301000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43448</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>71.747889000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43455</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>71.743388999999993</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43462</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>71.738821999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43469</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>71.734326999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43476</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>71.729771999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43483</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>71.725216000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43490</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>71.720359999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43497</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>71.715444000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43504</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>71.710661999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43511</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>71.705798999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43518</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>71.700826000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43525</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>71.695876999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43532</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>71.690957999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43539</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>71.686188000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43546</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>71.681700000000006</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43553</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>71.677276000000006</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43560</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>71.673101000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43567</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>71.669402000000005</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43574</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>71.666580999999994</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43581</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>71.663070000000005</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43588</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>71.659647000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43595</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>71.656154999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43602</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>71.652698999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43609</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>71.649501000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43616</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>71.646394000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43623</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>71.643494000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43630</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>71.640570999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43637</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>71.637710999999996</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43644</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>71.635031999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43651</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>71.632818</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43658</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>71.630330000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43665</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>71.627837999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43672</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>71.625482000000005</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43679</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>71.622946999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43686</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>71.620621999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43693</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>71.617838000000006</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43700</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>71.614866000000006</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43707</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>71.610913999999994</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43714</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>71.606808999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43721</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>71.601938000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43728</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>71.596127999999993</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43735</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>71.590815000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43742</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>71.585594999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43749</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>71.580543000000006</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43756</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>71.574948000000006</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43763</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>71.569357999999994</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43770</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>71.564513000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43777</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>71.55762</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43784</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>71.551754000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43791</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>71.545930999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43798</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>71.539766</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43805</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>71.533507</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43812</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>71.527299999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43819</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>71.521100000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43826</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>71.515199999999993</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43833</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>71.509399999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43840</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>71.504000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43847</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>71.498199999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43854</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>71.492099999999994</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43861</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>71.4863</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43868</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>71.480900000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43875</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>71.475399999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43882</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>71.470200000000006</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>43889</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>71.4649</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>43896</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>71.460999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>43903</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>71.4572</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>43910</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>71.446700000000007</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>43917</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>71.436400000000006</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>43924</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>71.424599999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>43931</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>71.416200000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>43938</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>71.407899999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>43945</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>71.4011</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>43952</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>71.395600000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>43959</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>71.386600000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>43966</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>71.3797</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>43973</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>71.374600000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>43980</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>71.370199999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>43987</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>71.365200000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>43994</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>71.360500000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44001</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>71.358000000000004</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44008</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>71.357600000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44015</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>71.356700000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44022</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>71.354900000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44029</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>71.353200000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44036</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>71.353399999999993</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44043</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>71.350399999999993</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44050</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>71.346900000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44057</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>71.342500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44064</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>71.337699999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44071</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>71.333799999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44075</v>
       </c>
@@ -7290,7 +7290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7302,7 +7302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanos\Documents\GitHub\Iolcus-Investments\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Jupyter-Notebook-Portfolio-Optimization\Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59110F-F6BF-4FF6-B78A-E6FC726621D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DA3C0-A925-41D0-8242-B1DC0AD4AC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="5380" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,18 +433,18 @@
   <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42251</v>
       </c>
@@ -493,7 +493,7 @@
         <v>72.243133999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42258</v>
       </c>
@@ -519,7 +519,7 @@
         <v>72.242783000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42265</v>
       </c>
@@ -545,7 +545,7 @@
         <v>72.242348000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42272</v>
       </c>
@@ -571,7 +571,7 @@
         <v>72.241912999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42279</v>
       </c>
@@ -597,7 +597,7 @@
         <v>72.241478000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42286</v>
       </c>
@@ -623,7 +623,7 @@
         <v>72.241028</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42293</v>
       </c>
@@ -649,7 +649,7 @@
         <v>72.240547000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42300</v>
       </c>
@@ -675,7 +675,7 @@
         <v>72.240059000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42307</v>
       </c>
@@ -701,7 +701,7 @@
         <v>72.239570999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42314</v>
       </c>
@@ -727,7 +727,7 @@
         <v>72.239081999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42321</v>
       </c>
@@ -753,7 +753,7 @@
         <v>72.238594000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42328</v>
       </c>
@@ -779,7 +779,7 @@
         <v>72.238135999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42335</v>
       </c>
@@ -805,7 +805,7 @@
         <v>72.237701000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42342</v>
       </c>
@@ -831,7 +831,7 @@
         <v>72.237281999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42349</v>
       </c>
@@ -857,7 +857,7 @@
         <v>72.236687000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42356</v>
       </c>
@@ -883,7 +883,7 @@
         <v>72.235695000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42363</v>
       </c>
@@ -909,7 +909,7 @@
         <v>72.234848</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42370</v>
       </c>
@@ -935,7 +935,7 @@
         <v>72.233856000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42377</v>
       </c>
@@ -961,7 +961,7 @@
         <v>72.232719000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42384</v>
       </c>
@@ -987,7 +987,7 @@
         <v>72.231719999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42391</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>72.230727999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42398</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>72.229729000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42405</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>72.228722000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42412</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>72.227722</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42419</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>72.226730000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42426</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>72.225730999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42433</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>72.225441000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42440</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>72.224907000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42447</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>72.223770000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42454</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>72.222313</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42461</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>72.220375000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42468</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>72.218673999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42475</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>72.216980000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42482</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>72.215286000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42489</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>72.213584999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42496</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>72.211890999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42503</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>72.210196999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42510</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>72.208504000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42517</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>72.206801999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42524</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>72.205185</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42531</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>72.204375999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42538</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>72.204361000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42545</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>72.204346000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42552</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>72.204338000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42559</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>72.204329999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42566</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>72.204314999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42573</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>72.204307999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42580</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>72.204291999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42587</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>72.204284999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42594</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>72.204277000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42601</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>72.204262</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42608</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>72.204254000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42615</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>72.203536999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42622</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>72.202826999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42629</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>72.202515000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42636</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>72.202499000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42643</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>72.202492000000007</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42650</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>72.202354</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42657</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>72.202158999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42664</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>72.201981000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42671</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>72.201824000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42678</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>72.201849999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42685</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>72.202017999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42692</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>72.202152999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42699</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>72.202280999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42706</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>72.202425000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42713</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>72.201642000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42720</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>72.199967000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42727</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>72.197470999999993</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42734</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>72.195199000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42741</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>72.192333000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42748</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>72.189378000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42755</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>72.186423000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42762</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>72.183468000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42769</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>72.180352999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42776</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>72.177116999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42783</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>72.173879999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42790</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>72.170643999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42797</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>72.167410000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42804</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>72.164175</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42811</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>72.160939999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42818</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>72.157786000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42825</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>72.154831000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42832</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>72.151895999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42839</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>72.149483000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42846</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>72.146826000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42853</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>72.144712999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42860</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>72.142599000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42867</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>72.140485999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42874</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>72.138373000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42881</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>72.136539999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42888</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>72.134705999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42895</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>72.132872000000006</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42902</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>72.131039000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42909</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>72.129227</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42916</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>72.126652000000007</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42923</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>72.123977999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42930</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>72.120341999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42937</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>72.116546999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>42944</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>72.11233</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>42951</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>72.108114999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>42958</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>72.103898999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>42965</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>72.099683999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>42972</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>72.095467999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>42979</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>72.091252999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>42986</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>72.087038000000007</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>42993</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>72.082823000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43000</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>72.078608000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43007</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>72.074265999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43014</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>72.069584000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43021</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>72.064783000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43028</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>72.059984</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43035</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>72.055183999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43042</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>72.050385000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43049</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>72.045586</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43056</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>72.040786999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43063</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>72.035989000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43070</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>72.031352999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43077</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>72.026695000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43084</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>72.021996000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43091</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>72.017296999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43098</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>72.012597999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43105</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>72.007900000000006</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43112</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>72.003201000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43119</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>71.998503999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43126</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>71.993806000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43133</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>71.989108999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43140</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>71.984412000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43147</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>71.979714999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43154</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>71.975019000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43161</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>71.970322999999993</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43168</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>71.965626999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43175</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>71.960772000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43182</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>71.955444</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43189</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>71.950757999999993</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43196</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>71.944348000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43203</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>71.938743000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43210</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>71.933138</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43217</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>71.927532999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43224</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>71.921848999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43231</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>71.915965</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43238</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>71.910083</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43245</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>71.904200000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43252</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>71.898319000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43259</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>71.892437999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43266</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>71.886317000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43273</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>71.880018000000007</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43280</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>71.873720000000006</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43287</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>71.868118999999993</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43294</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>71.862520000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43301</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>71.856921</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43308</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>71.851321999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43315</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>71.845723000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43322</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>71.840125999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43329</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>71.834529000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43336</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>71.828931999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43343</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>71.823356000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43350</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>71.817980000000006</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43357</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>71.812803000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43364</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>71.807568000000003</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43371</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>71.802252999999993</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43378</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>71.796937999999997</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43385</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>71.791763000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43392</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>71.786637999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43399</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>71.781474000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43406</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>71.776257000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43413</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>71.771229000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43420</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>71.766202000000007</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43427</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>71.761365999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43434</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>71.756748000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43441</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>71.752301000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43448</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>71.747889000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43455</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>71.743388999999993</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43462</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>71.738821999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43469</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>71.734326999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43476</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>71.729771999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43483</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>71.725216000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43490</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>71.720359999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43497</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>71.715444000000005</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43504</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>71.710661999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43511</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>71.705798999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43518</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>71.700826000000006</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43525</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>71.695876999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43532</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>71.690957999999995</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43539</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>71.686188000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43546</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>71.681700000000006</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43553</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>71.677276000000006</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43560</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>71.673101000000003</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43567</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>71.669402000000005</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43574</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>71.666580999999994</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43581</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>71.663070000000005</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43588</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>71.659647000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43595</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>71.656154999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43602</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>71.652698999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43609</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>71.649501000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43616</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>71.646394000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43623</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>71.643494000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43630</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>71.640570999999994</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43637</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>71.637710999999996</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43644</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>71.635031999999995</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43651</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>71.632818</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43658</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>71.630330000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43665</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>71.627837999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43672</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>71.625482000000005</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43679</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>71.622946999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43686</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>71.620621999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43693</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>71.617838000000006</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43700</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>71.614866000000006</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>43707</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>71.610913999999994</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>43714</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>71.606808999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>43721</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>71.601938000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>43728</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>71.596127999999993</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>43735</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>71.590815000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>43742</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>71.585594999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>43749</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>71.580543000000006</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>43756</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>71.574948000000006</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>43763</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>71.569357999999994</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>43770</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>71.564513000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>43777</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>71.55762</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>43784</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>71.551754000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>43791</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>71.545930999999996</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>43798</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>71.539766</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>43805</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>71.533507</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>43812</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>71.527299999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>43819</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>71.521100000000004</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>43826</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>71.515199999999993</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>43833</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>71.509399999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>43840</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>71.504000000000005</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>43847</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>71.498199999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>43854</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>71.492099999999994</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>43861</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>71.4863</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43868</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>71.480900000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43875</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>71.475399999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43882</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>71.470200000000006</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>43889</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>71.4649</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>43896</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>71.460999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>43903</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>71.4572</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>43910</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>71.446700000000007</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>43917</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>71.436400000000006</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>43924</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>71.424599999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>43931</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>71.416200000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>43938</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>71.407899999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>43945</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>71.4011</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>43952</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>71.395600000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>43959</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>71.386600000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>43966</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>71.3797</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>43973</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>71.374600000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>43980</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>71.370199999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>43987</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>71.365200000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>43994</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>71.360500000000002</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>44001</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>71.358000000000004</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>44008</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>71.357600000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>44015</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>71.356700000000004</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>44022</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>71.354900000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>44029</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>71.353200000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>44036</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>71.353399999999993</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>44043</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>71.350399999999993</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44050</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>71.346900000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>44057</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>71.342500000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>44064</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>71.337699999999998</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>44071</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>71.333799999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>44075</v>
       </c>
@@ -7290,7 +7290,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7302,7 +7302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Jupyter-Notebook-Portfolio-Optimization\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayfantopoulos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027DA3C0-A925-41D0-8242-B1DC0AD4AC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB87D2A-EA6A-40F1-B4CB-C5CDF59C2866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,25 +34,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>LEATTREU Index</t>
+    <t>US Equity</t>
   </si>
   <si>
-    <t>LEC4TREU Index</t>
+    <t>EU Equity</t>
   </si>
   <si>
-    <t>BEGCGA Index</t>
+    <t>EU Flot</t>
   </si>
   <si>
-    <t>SX5R Index</t>
+    <t>Cash</t>
   </si>
   <si>
-    <t>SXUSR Index</t>
+    <t>Greek Gov</t>
   </si>
   <si>
-    <t>LEF1TREU Index</t>
+    <t>Eu Corps</t>
   </si>
   <si>
-    <t>PARSTEI LX Equity</t>
+    <t>EU Gov</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,25 +446,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/Main/prices.xlsx
+++ b/Main/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayfantopoulos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AB87D2A-EA6A-40F1-B4CB-C5CDF59C2866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1A8B9-E20C-4EDD-B167-3886816D28A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,10 +49,10 @@
     <t>Greek Gov</t>
   </si>
   <si>
-    <t>Eu Corps</t>
+    <t>EU Gov</t>
   </si>
   <si>
-    <t>EU Gov</t>
+    <t>EU Corps</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:H263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +446,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
